--- a/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
+++ b/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\GitHub\CareMonitor-NicolasRubino\SAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\UAI\TFI\CareMonitor\CareMonitor\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613F4E71-BC24-4775-9EDF-EE8DE3D40D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="986"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Costos fijos" sheetId="22" r:id="rId6"/>
     <sheet name="Costos variables" sheetId="27" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -419,54 +420,6 @@
     <t>Costo Total Mensual</t>
   </si>
   <si>
-    <r>
-      <t>El objetivo estratégico de nuestro emprendimiento es el de alcanzar el 4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de penetración del mercado meta </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>en un horizonte temporal de 3 años.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>Ingresos 2022</t>
   </si>
   <si>
@@ -537,26 +490,74 @@
       <t xml:space="preserve"> Dr. Scali, Jorge - Ing. Parkinson, Christian</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>El objetivo estratégico de nuestro emprendimiento es el de alcanzar el 10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de penetración del mercado meta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en un horizonte temporal de 3 años.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="14">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="General_)"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="172" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
-    <numFmt numFmtId="175" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="[$$-2C0A]\ #,##0.00"/>
-    <numFmt numFmtId="177" formatCode="[$$-2C0A]\ #,##0"/>
-    <numFmt numFmtId="178" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="179" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="170" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="172" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="[$$-2C0A]\ #,##0.00"/>
+    <numFmt numFmtId="174" formatCode="[$$-2C0A]\ #,##0"/>
+    <numFmt numFmtId="175" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="176" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -2084,16 +2085,16 @@
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2104,13 +2105,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2135,18 +2136,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2154,13 +2155,13 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2182,7 +2183,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2191,7 +2192,7 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2204,7 +2205,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2216,7 +2217,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2276,10 +2277,10 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="19" fillId="9" borderId="79" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2306,10 +2307,10 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2325,7 +2326,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2335,8 +2336,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2348,13 +2349,13 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="5" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="6" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2382,7 +2383,7 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2391,22 +2392,22 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2418,7 +2419,7 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="91" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="91" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2427,12 +2428,12 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2441,22 +2442,22 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="42" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2468,7 +2469,7 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="39" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2483,10 +2484,10 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="92" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2495,13 +2496,13 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="47" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="47" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="47" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2519,16 +2520,16 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2537,7 +2538,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2546,13 +2547,13 @@
     <xf numFmtId="165" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2567,7 +2568,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2576,7 +2577,7 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2585,19 +2586,19 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="57" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="57" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2615,10 +2616,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2643,13 +2644,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -2671,16 +2672,16 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2690,33 +2691,33 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2732,9 +2733,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="26" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="26" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2828,65 +2898,68 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2903,16 +2976,16 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2936,83 +3009,38 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3022,6 +3050,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3050,13 +3087,13 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3092,70 +3129,34 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="26">
-    <cellStyle name="Euro" xfId="11"/>
+    <cellStyle name="Euro" xfId="11" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Hipervínculo 2" xfId="14"/>
-    <cellStyle name="Hipervínculo 3" xfId="17"/>
-    <cellStyle name="Hipervínculo 4" xfId="16"/>
-    <cellStyle name="Hipervínculo 5" xfId="20"/>
-    <cellStyle name="Hyperlink 2" xfId="12"/>
+    <cellStyle name="Hipervínculo 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hipervínculo 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hipervínculo 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Hipervínculo 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Moneda" xfId="6" builtinId="4"/>
-    <cellStyle name="Moneda 2" xfId="10"/>
-    <cellStyle name="Moneda 2 2" xfId="23"/>
-    <cellStyle name="Moneda 3" xfId="19"/>
-    <cellStyle name="Moneda 3 2" xfId="25"/>
-    <cellStyle name="Moneda 4" xfId="22"/>
-    <cellStyle name="Moneda 5" xfId="8"/>
+    <cellStyle name="Moneda 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Moneda 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Moneda 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Moneda 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Moneda 4" xfId="22" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Moneda 5" xfId="8" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="13"/>
-    <cellStyle name="Normal 2 14" xfId="4"/>
-    <cellStyle name="Normal 2 15" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="18"/>
-    <cellStyle name="Normal 4" xfId="9"/>
-    <cellStyle name="Normal 5" xfId="21"/>
-    <cellStyle name="Normal 6" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 2 14" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 2 15" xfId="5" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="15"/>
-    <cellStyle name="Porcentaje 3" xfId="24"/>
+    <cellStyle name="Porcentaje 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Porcentaje 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3182,7 +3183,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3268,7 +3269,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3574,7 +3575,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="91798656"/>
@@ -3619,7 +3620,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="25175760"/>
@@ -3661,7 +3662,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3691,7 +3692,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3750,7 +3751,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3768,7 +3769,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ingresos 2022</c:v>
+                  <c:v> Ingresos 2022 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4112,7 +4113,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4136,7 +4136,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4147,9 +4147,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -4186,7 +4184,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -4199,9 +4197,7 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -4209,7 +4205,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4233,7 +4228,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4244,9 +4239,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -4283,7 +4276,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -4333,7 +4326,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -4375,7 +4368,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4398,13 +4391,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4455,7 +4448,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4463,6 +4455,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4486,7 +4479,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4537,7 +4530,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4563,7 +4555,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5526,7 +5518,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -5585,7 +5577,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -5602,7 +5594,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5628,7 +5619,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5658,7 +5649,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5714,7 +5705,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5740,7 +5730,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5769,7 +5759,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5822,7 +5812,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -5835,7 +5825,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5914,7 +5903,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5976,7 +5965,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -5989,7 +5978,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6068,7 +6056,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6121,7 +6109,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -6134,7 +6122,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6258,7 +6245,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -6293,7 +6280,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -6324,13 +6310,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6338,6 +6323,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -6377,7 +6363,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6428,7 +6414,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6454,7 +6439,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7417,7 +7402,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -7476,7 +7461,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -7493,7 +7478,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7519,7 +7503,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7549,7 +7533,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7638,7 +7622,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7667,7 +7651,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7720,7 +7704,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -7733,7 +7717,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7812,7 +7795,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7874,7 +7857,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -7887,7 +7870,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7966,7 +7948,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8019,7 +8001,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8032,7 +8014,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8156,7 +8137,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -8191,7 +8172,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -8222,13 +8202,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8236,6 +8215,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -8275,7 +8255,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8326,7 +8306,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8352,7 +8331,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9315,7 +9294,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -9374,7 +9353,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -9391,7 +9370,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9417,7 +9395,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9447,7 +9425,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9536,7 +9514,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9565,7 +9543,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9618,7 +9596,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9631,7 +9609,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9710,7 +9687,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9772,7 +9749,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9785,7 +9762,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9864,7 +9840,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9917,7 +9893,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9930,7 +9906,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10054,7 +10029,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -10089,7 +10064,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -10120,13 +10094,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -10134,6 +10107,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -10173,7 +10147,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10232,7 +10206,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10250,7 +10224,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ingresos 2020</c:v>
+                  <c:v> Ingresos 2020 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10362,7 +10336,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -10411,7 +10385,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -10422,9 +10396,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-61DD-4CD8-B158-0B704BE81697}"/>
                 </c:ext>
@@ -10455,7 +10427,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -10494,7 +10466,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10515,13 +10487,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10572,7 +10544,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -10580,6 +10551,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10603,7 +10575,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10662,7 +10634,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10680,7 +10652,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ingresos 2021</c:v>
+                  <c:v> Ingresos 2021 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11024,7 +10996,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -11048,7 +11019,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -11059,9 +11030,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -11069,7 +11038,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -11093,7 +11061,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -11104,9 +11072,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -11114,7 +11080,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -11138,7 +11103,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -11149,9 +11114,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -11182,7 +11145,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -11224,7 +11187,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -11264,7 +11227,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -11287,13 +11250,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11344,7 +11307,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11352,6 +11314,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11375,7 +11338,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17620,7 +17583,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665173AD-B570-46BA-80BC-82B15A915FC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17658,7 +17621,7 @@
         <xdr:cNvPr id="16" name="Gráfico 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85DCBDB-93E3-4DD5-AE09-EA8FBD090003}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17696,7 +17659,7 @@
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E866F97C-24A1-4CB1-89CC-D4B2D1552ED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17734,7 +17697,7 @@
         <xdr:cNvPr id="10" name="Gráfico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78E219A-C388-419E-8BF8-1E913E795735}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18028,7 +17991,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BBF038-4D24-4A20-B5EA-F077427045B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18155,7 +18118,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BBF038-4D24-4A20-B5EA-F077427045B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18489,12 +18452,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="C9:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18521,7 +18484,7 @@
     </row>
     <row r="33" spans="3:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="3:3" ht="18" x14ac:dyDescent="0.25">
@@ -18541,7 +18504,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" display="mailto:cristiangentile1@gmail.com"/>
+    <hyperlink ref="C36" r:id="rId1" display="mailto:cristiangentile1@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18550,7 +18513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:BT59"/>
   <sheetViews>
@@ -18645,7 +18608,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="25"/>
-      <c r="D2" s="370" t="s">
+      <c r="D2" s="245" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1"/>
@@ -18795,7 +18758,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="367" t="s">
+      <c r="D4" s="242" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
@@ -18871,7 +18834,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="368" t="s">
+      <c r="D5" s="243" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="1"/>
@@ -18947,7 +18910,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="368" t="s">
+      <c r="D6" s="243" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1"/>
@@ -19023,7 +18986,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="368" t="s">
+      <c r="D7" s="243" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1"/>
@@ -19099,7 +19062,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="369" t="s">
+      <c r="D8" s="244" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1"/>
@@ -19175,7 +19138,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="366"/>
+      <c r="D9" s="241"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -19249,7 +19212,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="366"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -19323,7 +19286,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="366"/>
+      <c r="D11" s="241"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -19397,7 +19360,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="366"/>
+      <c r="D12" s="241"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -19471,7 +19434,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="366"/>
+      <c r="D13" s="241"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -19545,7 +19508,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="366"/>
+      <c r="D14" s="241"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -19619,7 +19582,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="366"/>
+      <c r="D15" s="241"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -19693,7 +19656,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="366"/>
+      <c r="D16" s="241"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -19767,7 +19730,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="366"/>
+      <c r="D17" s="241"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -19841,7 +19804,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="366"/>
+      <c r="D18" s="241"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -22947,11 +22910,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="Hipótesis!A1" display="Hipótesis"/>
-    <hyperlink ref="D5" location="'Proy. Ventas'!A1" display="Proyección de ventas"/>
-    <hyperlink ref="D6" location="'Mod. Ingresos'!A1" display="Modelo de ingresos"/>
-    <hyperlink ref="D7" location="'Costos Fijos'!A1" display="Estructura de costos fijos"/>
-    <hyperlink ref="D8" location="'Costos Variables'!A1" display="Estructura de costos variables"/>
+    <hyperlink ref="D4" location="Hipótesis!A1" display="Hipótesis" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D5" location="'Proy. Ventas'!A1" display="Proyección de ventas" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D6" location="'Mod. Ingresos'!A1" display="Modelo de ingresos" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D7" location="'Costos Fijos'!A1" display="Estructura de costos fijos" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D8" location="'Costos Variables'!A1" display="Estructura de costos variables" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22959,13 +22922,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22996,58 +22959,58 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="267" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="246"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="268"/>
+      <c r="I3" s="268"/>
+      <c r="J3" s="269"/>
     </row>
     <row r="4" spans="1:11" ht="165" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="253" t="s">
+      <c r="B4" s="276" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="255"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="277"/>
+      <c r="I4" s="277"/>
+      <c r="J4" s="278"/>
       <c r="K4" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="256" t="s">
+      <c r="B7" s="279" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="257"/>
-      <c r="D7" s="257"/>
-      <c r="E7" s="257"/>
-      <c r="F7" s="257"/>
-      <c r="G7" s="257"/>
-      <c r="H7" s="257"/>
-      <c r="I7" s="257"/>
-      <c r="J7" s="258"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="280"/>
+      <c r="J7" s="281"/>
     </row>
     <row r="8" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="259" t="s">
+      <c r="B8" s="282" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="260"/>
-      <c r="J8" s="261"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="283"/>
+      <c r="G8" s="283"/>
+      <c r="H8" s="283"/>
+      <c r="I8" s="283"/>
+      <c r="J8" s="284"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="41"/>
@@ -23119,30 +23082,30 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="262" t="s">
+      <c r="B15" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="263"/>
-      <c r="D15" s="263"/>
-      <c r="E15" s="263"/>
-      <c r="F15" s="263"/>
-      <c r="G15" s="263"/>
-      <c r="H15" s="263"/>
-      <c r="I15" s="263"/>
-      <c r="J15" s="264"/>
+      <c r="C15" s="286"/>
+      <c r="D15" s="286"/>
+      <c r="E15" s="286"/>
+      <c r="F15" s="286"/>
+      <c r="G15" s="286"/>
+      <c r="H15" s="286"/>
+      <c r="I15" s="286"/>
+      <c r="J15" s="287"/>
     </row>
     <row r="16" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="265" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="266"/>
-      <c r="D16" s="266"/>
-      <c r="E16" s="266"/>
-      <c r="F16" s="266"/>
-      <c r="G16" s="266"/>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="267"/>
+      <c r="B16" s="288" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="289"/>
+      <c r="D16" s="289"/>
+      <c r="E16" s="289"/>
+      <c r="F16" s="289"/>
+      <c r="G16" s="289"/>
+      <c r="H16" s="289"/>
+      <c r="I16" s="289"/>
+      <c r="J16" s="290"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
@@ -23212,11 +23175,11 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="247" t="s">
+      <c r="B22" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="248"/>
-      <c r="D22" s="249"/>
+      <c r="C22" s="271"/>
+      <c r="D22" s="272"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -23405,13 +23368,13 @@
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="244" t="s">
+      <c r="B33" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="245"/>
-      <c r="D33" s="245"/>
-      <c r="E33" s="245"/>
-      <c r="F33" s="246"/>
+      <c r="C33" s="268"/>
+      <c r="D33" s="268"/>
+      <c r="E33" s="268"/>
+      <c r="F33" s="269"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
@@ -23437,91 +23400,91 @@
       <c r="N34" s="30"/>
     </row>
     <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="244" t="s">
+      <c r="B35" s="267" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="268"/>
-      <c r="D35" s="268"/>
-      <c r="E35" s="268"/>
-      <c r="F35" s="269"/>
+      <c r="C35" s="291"/>
+      <c r="D35" s="291"/>
+      <c r="E35" s="291"/>
+      <c r="F35" s="292"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="250" t="s">
+      <c r="B36" s="273" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="270" t="s">
+      <c r="C36" s="293" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="270"/>
-      <c r="E36" s="270"/>
-      <c r="F36" s="270"/>
+      <c r="D36" s="293"/>
+      <c r="E36" s="293"/>
+      <c r="F36" s="293"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="251"/>
-      <c r="C37" s="270"/>
-      <c r="D37" s="270"/>
-      <c r="E37" s="270"/>
-      <c r="F37" s="270"/>
+      <c r="B37" s="274"/>
+      <c r="C37" s="293"/>
+      <c r="D37" s="293"/>
+      <c r="E37" s="293"/>
+      <c r="F37" s="293"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="251"/>
-      <c r="C38" s="270"/>
-      <c r="D38" s="270"/>
-      <c r="E38" s="270"/>
-      <c r="F38" s="270"/>
+      <c r="B38" s="274"/>
+      <c r="C38" s="293"/>
+      <c r="D38" s="293"/>
+      <c r="E38" s="293"/>
+      <c r="F38" s="293"/>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="251"/>
-      <c r="C39" s="240" t="s">
+      <c r="B39" s="274"/>
+      <c r="C39" s="263" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="240"/>
-      <c r="E39" s="240"/>
-      <c r="F39" s="240"/>
+      <c r="D39" s="263"/>
+      <c r="E39" s="263"/>
+      <c r="F39" s="263"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="251"/>
-      <c r="C40" s="240"/>
-      <c r="D40" s="240"/>
-      <c r="E40" s="240"/>
-      <c r="F40" s="240"/>
+      <c r="B40" s="274"/>
+      <c r="C40" s="263"/>
+      <c r="D40" s="263"/>
+      <c r="E40" s="263"/>
+      <c r="F40" s="263"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="251"/>
-      <c r="C41" s="240"/>
-      <c r="D41" s="240"/>
-      <c r="E41" s="240"/>
-      <c r="F41" s="240"/>
+      <c r="B41" s="274"/>
+      <c r="C41" s="263"/>
+      <c r="D41" s="263"/>
+      <c r="E41" s="263"/>
+      <c r="F41" s="263"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="251"/>
-      <c r="C42" s="241" t="s">
+      <c r="B42" s="274"/>
+      <c r="C42" s="264" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="241"/>
-      <c r="E42" s="241"/>
-      <c r="F42" s="241"/>
+      <c r="D42" s="264"/>
+      <c r="E42" s="264"/>
+      <c r="F42" s="264"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="251"/>
-      <c r="C43" s="241"/>
-      <c r="D43" s="241"/>
-      <c r="E43" s="241"/>
-      <c r="F43" s="241"/>
+      <c r="B43" s="274"/>
+      <c r="C43" s="264"/>
+      <c r="D43" s="264"/>
+      <c r="E43" s="264"/>
+      <c r="F43" s="264"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="252"/>
-      <c r="C44" s="241"/>
-      <c r="D44" s="241"/>
-      <c r="E44" s="241"/>
-      <c r="F44" s="241"/>
+      <c r="B44" s="275"/>
+      <c r="C44" s="264"/>
+      <c r="D44" s="264"/>
+      <c r="E44" s="264"/>
+      <c r="F44" s="264"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="242" t="s">
+      <c r="B47" s="265" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="243"/>
+      <c r="C47" s="266"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="72" t="s">
@@ -23532,61 +23495,55 @@
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="271" t="s">
+      <c r="B49" s="246" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="280">
+      <c r="C49" s="255">
         <v>1300</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="272"/>
-      <c r="C50" s="280"/>
+      <c r="B50" s="247"/>
+      <c r="C50" s="255"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="273"/>
-      <c r="C51" s="281"/>
+      <c r="B51" s="248"/>
+      <c r="C51" s="256"/>
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="274" t="s">
+      <c r="B52" s="249" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="282">
+      <c r="C52" s="257">
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="275"/>
-      <c r="C53" s="283"/>
+      <c r="B53" s="250"/>
+      <c r="C53" s="258"/>
     </row>
     <row r="54" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="276"/>
-      <c r="C54" s="284"/>
+      <c r="B54" s="251"/>
+      <c r="C54" s="259"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="277" t="s">
+      <c r="B55" s="252" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="285">
+      <c r="C55" s="260">
         <v>4000</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="278"/>
-      <c r="C56" s="286"/>
+      <c r="B56" s="253"/>
+      <c r="C56" s="261"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="279"/>
-      <c r="C57" s="287"/>
+      <c r="B57" s="254"/>
+      <c r="C57" s="262"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
     <mergeCell ref="C39:F41"/>
     <mergeCell ref="C42:F44"/>
     <mergeCell ref="B47:C47"/>
@@ -23601,6 +23558,12 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="C36:F38"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23609,11 +23572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BI155"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
@@ -23736,18 +23699,18 @@
     </row>
     <row r="5" spans="1:61" s="25" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
-      <c r="B5" s="303" t="s">
+      <c r="B5" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="304"/>
-      <c r="D5" s="306"/>
+      <c r="C5" s="328"/>
+      <c r="D5" s="330"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="362" t="s">
+      <c r="F5" s="300" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="363"/>
-      <c r="H5" s="363"/>
-      <c r="I5" s="364"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="301"/>
+      <c r="I5" s="302"/>
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
       <c r="L5" s="43"/>
@@ -23793,16 +23756,16 @@
         <v>2022</v>
       </c>
       <c r="E6" s="42"/>
-      <c r="F6" s="322" t="s">
+      <c r="F6" s="294" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="323"/>
-      <c r="H6" s="323"/>
-      <c r="I6" s="324"/>
-      <c r="J6" s="365"/>
-      <c r="K6" s="365"/>
-      <c r="L6" s="365"/>
-      <c r="M6" s="365"/>
+      <c r="G6" s="295"/>
+      <c r="H6" s="295"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="240"/>
+      <c r="M6" s="240"/>
       <c r="Q6" s="123"/>
       <c r="R6" s="24"/>
       <c r="S6" s="24"/>
@@ -23847,14 +23810,14 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="46"/>
-      <c r="F7" s="325"/>
-      <c r="G7" s="326"/>
-      <c r="H7" s="326"/>
-      <c r="I7" s="327"/>
-      <c r="J7" s="365"/>
-      <c r="K7" s="365"/>
-      <c r="L7" s="365"/>
-      <c r="M7" s="365"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="298"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
+      <c r="M7" s="240"/>
       <c r="Q7" s="123"/>
       <c r="R7" s="24"/>
       <c r="S7" s="24"/>
@@ -24251,48 +24214,48 @@
       <c r="BI14" s="8"/>
     </row>
     <row r="15" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="303" t="s">
+      <c r="A15" s="327" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="304"/>
-      <c r="C15" s="304"/>
-      <c r="D15" s="304"/>
-      <c r="E15" s="304"/>
-      <c r="F15" s="304"/>
-      <c r="G15" s="304"/>
-      <c r="H15" s="305"/>
-      <c r="I15" s="305"/>
-      <c r="J15" s="305"/>
-      <c r="K15" s="305"/>
-      <c r="L15" s="304"/>
-      <c r="M15" s="304"/>
-      <c r="N15" s="304"/>
-      <c r="O15" s="304"/>
-      <c r="P15" s="304"/>
-      <c r="Q15" s="304"/>
-      <c r="R15" s="304"/>
-      <c r="S15" s="304"/>
-      <c r="T15" s="304"/>
-      <c r="U15" s="304"/>
-      <c r="V15" s="304"/>
-      <c r="W15" s="304"/>
-      <c r="X15" s="304"/>
-      <c r="Y15" s="304"/>
-      <c r="Z15" s="304"/>
-      <c r="AA15" s="304"/>
-      <c r="AB15" s="304"/>
-      <c r="AC15" s="304"/>
-      <c r="AD15" s="304"/>
-      <c r="AE15" s="304"/>
-      <c r="AF15" s="304"/>
-      <c r="AG15" s="304"/>
-      <c r="AH15" s="304"/>
-      <c r="AI15" s="304"/>
-      <c r="AJ15" s="304"/>
-      <c r="AK15" s="304"/>
-      <c r="AL15" s="304"/>
-      <c r="AM15" s="304"/>
-      <c r="AN15" s="306"/>
+      <c r="B15" s="328"/>
+      <c r="C15" s="328"/>
+      <c r="D15" s="328"/>
+      <c r="E15" s="328"/>
+      <c r="F15" s="328"/>
+      <c r="G15" s="328"/>
+      <c r="H15" s="329"/>
+      <c r="I15" s="329"/>
+      <c r="J15" s="329"/>
+      <c r="K15" s="329"/>
+      <c r="L15" s="328"/>
+      <c r="M15" s="328"/>
+      <c r="N15" s="328"/>
+      <c r="O15" s="328"/>
+      <c r="P15" s="328"/>
+      <c r="Q15" s="328"/>
+      <c r="R15" s="328"/>
+      <c r="S15" s="328"/>
+      <c r="T15" s="328"/>
+      <c r="U15" s="328"/>
+      <c r="V15" s="328"/>
+      <c r="W15" s="328"/>
+      <c r="X15" s="328"/>
+      <c r="Y15" s="328"/>
+      <c r="Z15" s="328"/>
+      <c r="AA15" s="328"/>
+      <c r="AB15" s="328"/>
+      <c r="AC15" s="328"/>
+      <c r="AD15" s="328"/>
+      <c r="AE15" s="328"/>
+      <c r="AF15" s="328"/>
+      <c r="AG15" s="328"/>
+      <c r="AH15" s="328"/>
+      <c r="AI15" s="328"/>
+      <c r="AJ15" s="328"/>
+      <c r="AK15" s="328"/>
+      <c r="AL15" s="328"/>
+      <c r="AM15" s="328"/>
+      <c r="AN15" s="330"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
@@ -24316,76 +24279,76 @@
       <c r="BI15" s="8"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A16" s="307" t="s">
+      <c r="A16" s="331" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="307" t="s">
+      <c r="B16" s="331" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="310" t="s">
+      <c r="C16" s="334" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="311"/>
-      <c r="E16" s="293" t="s">
+      <c r="D16" s="335"/>
+      <c r="E16" s="317" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="294"/>
-      <c r="G16" s="295"/>
-      <c r="H16" s="293" t="s">
+      <c r="F16" s="318"/>
+      <c r="G16" s="319"/>
+      <c r="H16" s="317" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="294"/>
-      <c r="J16" s="295"/>
-      <c r="K16" s="293" t="s">
+      <c r="I16" s="318"/>
+      <c r="J16" s="319"/>
+      <c r="K16" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="294"/>
-      <c r="M16" s="295"/>
-      <c r="N16" s="293" t="s">
+      <c r="L16" s="318"/>
+      <c r="M16" s="319"/>
+      <c r="N16" s="317" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="294"/>
-      <c r="P16" s="295"/>
-      <c r="Q16" s="293" t="s">
+      <c r="O16" s="318"/>
+      <c r="P16" s="319"/>
+      <c r="Q16" s="317" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="294"/>
-      <c r="S16" s="295"/>
-      <c r="T16" s="293" t="s">
+      <c r="R16" s="318"/>
+      <c r="S16" s="319"/>
+      <c r="T16" s="317" t="s">
         <v>23</v>
       </c>
-      <c r="U16" s="294"/>
-      <c r="V16" s="295"/>
-      <c r="W16" s="293" t="s">
+      <c r="U16" s="318"/>
+      <c r="V16" s="319"/>
+      <c r="W16" s="317" t="s">
         <v>24</v>
       </c>
-      <c r="X16" s="294"/>
-      <c r="Y16" s="295"/>
-      <c r="Z16" s="293" t="s">
+      <c r="X16" s="318"/>
+      <c r="Y16" s="319"/>
+      <c r="Z16" s="317" t="s">
         <v>25</v>
       </c>
-      <c r="AA16" s="294"/>
-      <c r="AB16" s="295"/>
-      <c r="AC16" s="293" t="s">
+      <c r="AA16" s="318"/>
+      <c r="AB16" s="319"/>
+      <c r="AC16" s="317" t="s">
         <v>26</v>
       </c>
-      <c r="AD16" s="294"/>
-      <c r="AE16" s="295"/>
-      <c r="AF16" s="293" t="s">
+      <c r="AD16" s="318"/>
+      <c r="AE16" s="319"/>
+      <c r="AF16" s="317" t="s">
         <v>27</v>
       </c>
-      <c r="AG16" s="294"/>
-      <c r="AH16" s="295"/>
-      <c r="AI16" s="293" t="s">
+      <c r="AG16" s="318"/>
+      <c r="AH16" s="319"/>
+      <c r="AI16" s="317" t="s">
         <v>28</v>
       </c>
-      <c r="AJ16" s="294"/>
-      <c r="AK16" s="295"/>
-      <c r="AL16" s="293" t="s">
+      <c r="AJ16" s="318"/>
+      <c r="AK16" s="319"/>
+      <c r="AL16" s="317" t="s">
         <v>29</v>
       </c>
-      <c r="AM16" s="294"/>
-      <c r="AN16" s="295"/>
+      <c r="AM16" s="318"/>
+      <c r="AN16" s="319"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
@@ -24409,74 +24372,74 @@
       <c r="BI16" s="8"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A17" s="308"/>
-      <c r="B17" s="308"/>
-      <c r="C17" s="296" t="s">
+      <c r="A17" s="332"/>
+      <c r="B17" s="332"/>
+      <c r="C17" s="320" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="298" t="s">
+      <c r="D17" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="300">
+      <c r="E17" s="324">
         <v>0.02</v>
       </c>
-      <c r="F17" s="301"/>
-      <c r="G17" s="302"/>
-      <c r="H17" s="300">
+      <c r="F17" s="325"/>
+      <c r="G17" s="326"/>
+      <c r="H17" s="324">
         <v>0.04</v>
       </c>
-      <c r="I17" s="301"/>
-      <c r="J17" s="302"/>
-      <c r="K17" s="300">
+      <c r="I17" s="325"/>
+      <c r="J17" s="326"/>
+      <c r="K17" s="324">
         <v>0.04</v>
       </c>
-      <c r="L17" s="301"/>
-      <c r="M17" s="302"/>
-      <c r="N17" s="300">
+      <c r="L17" s="325"/>
+      <c r="M17" s="326"/>
+      <c r="N17" s="324">
         <v>0.05</v>
       </c>
-      <c r="O17" s="301"/>
-      <c r="P17" s="302"/>
-      <c r="Q17" s="300">
+      <c r="O17" s="325"/>
+      <c r="P17" s="326"/>
+      <c r="Q17" s="324">
         <v>0.06</v>
       </c>
-      <c r="R17" s="301"/>
-      <c r="S17" s="302"/>
-      <c r="T17" s="300">
+      <c r="R17" s="325"/>
+      <c r="S17" s="326"/>
+      <c r="T17" s="324">
         <v>0.08</v>
       </c>
-      <c r="U17" s="301"/>
-      <c r="V17" s="302"/>
-      <c r="W17" s="300">
+      <c r="U17" s="325"/>
+      <c r="V17" s="326"/>
+      <c r="W17" s="324">
         <v>0.1</v>
       </c>
-      <c r="X17" s="301"/>
-      <c r="Y17" s="302"/>
-      <c r="Z17" s="300">
+      <c r="X17" s="325"/>
+      <c r="Y17" s="326"/>
+      <c r="Z17" s="324">
         <v>0.11</v>
       </c>
-      <c r="AA17" s="301"/>
-      <c r="AB17" s="302"/>
-      <c r="AC17" s="300">
+      <c r="AA17" s="325"/>
+      <c r="AB17" s="326"/>
+      <c r="AC17" s="324">
         <v>0.11</v>
       </c>
-      <c r="AD17" s="301"/>
-      <c r="AE17" s="302"/>
-      <c r="AF17" s="300">
+      <c r="AD17" s="325"/>
+      <c r="AE17" s="326"/>
+      <c r="AF17" s="324">
         <v>0.12</v>
       </c>
-      <c r="AG17" s="301"/>
-      <c r="AH17" s="302"/>
-      <c r="AI17" s="300">
+      <c r="AG17" s="325"/>
+      <c r="AH17" s="326"/>
+      <c r="AI17" s="324">
         <v>0.13</v>
       </c>
-      <c r="AJ17" s="301"/>
-      <c r="AK17" s="302"/>
-      <c r="AL17" s="300">
+      <c r="AJ17" s="325"/>
+      <c r="AK17" s="326"/>
+      <c r="AL17" s="324">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM17" s="301"/>
-      <c r="AN17" s="302"/>
+      <c r="AM17" s="325"/>
+      <c r="AN17" s="326"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
@@ -24500,10 +24463,10 @@
       <c r="BI17" s="8"/>
     </row>
     <row r="18" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="309"/>
-      <c r="B18" s="309"/>
-      <c r="C18" s="297"/>
-      <c r="D18" s="299"/>
+      <c r="A18" s="333"/>
+      <c r="B18" s="333"/>
+      <c r="C18" s="321"/>
+      <c r="D18" s="339"/>
       <c r="E18" s="121"/>
       <c r="F18" s="82" t="s">
         <v>37</v>
@@ -25091,10 +25054,10 @@
       </c>
     </row>
     <row r="22" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="291" t="s">
+      <c r="A22" s="315" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="292"/>
+      <c r="B22" s="316"/>
       <c r="C22" s="86">
         <f>SUM(C19:C21)</f>
         <v>60730</v>
@@ -26179,32 +26142,32 @@
     </row>
     <row r="51" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="317" t="s">
+      <c r="A52" s="303" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="318"/>
-      <c r="C52" s="318"/>
-      <c r="D52" s="318"/>
-      <c r="E52" s="318"/>
-      <c r="F52" s="318"/>
-      <c r="G52" s="318"/>
-      <c r="H52" s="318"/>
-      <c r="I52" s="318"/>
-      <c r="J52" s="318"/>
-      <c r="K52" s="318"/>
-      <c r="L52" s="318"/>
-      <c r="M52" s="318"/>
-      <c r="N52" s="318"/>
-      <c r="O52" s="318"/>
-      <c r="P52" s="318"/>
-      <c r="Q52" s="318"/>
-      <c r="R52" s="318"/>
-      <c r="S52" s="318"/>
-      <c r="T52" s="318"/>
-      <c r="U52" s="318"/>
-      <c r="V52" s="318"/>
-      <c r="W52" s="318"/>
-      <c r="X52" s="319"/>
+      <c r="B52" s="304"/>
+      <c r="C52" s="304"/>
+      <c r="D52" s="304"/>
+      <c r="E52" s="304"/>
+      <c r="F52" s="304"/>
+      <c r="G52" s="304"/>
+      <c r="H52" s="304"/>
+      <c r="I52" s="304"/>
+      <c r="J52" s="304"/>
+      <c r="K52" s="304"/>
+      <c r="L52" s="304"/>
+      <c r="M52" s="304"/>
+      <c r="N52" s="304"/>
+      <c r="O52" s="304"/>
+      <c r="P52" s="304"/>
+      <c r="Q52" s="304"/>
+      <c r="R52" s="304"/>
+      <c r="S52" s="304"/>
+      <c r="T52" s="304"/>
+      <c r="U52" s="304"/>
+      <c r="V52" s="304"/>
+      <c r="W52" s="304"/>
+      <c r="X52" s="305"/>
       <c r="Y52" s="156"/>
       <c r="Z52" s="156"/>
       <c r="AA52" s="156"/>
@@ -26223,73 +26186,73 @@
       <c r="AN52" s="156"/>
     </row>
     <row r="53" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="320" t="s">
+      <c r="B53" s="336" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="312" t="s">
+      <c r="C53" s="337" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="315" t="s">
+      <c r="D53" s="338" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="314" t="s">
+      <c r="E53" s="308" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="312" t="s">
+      <c r="F53" s="337" t="s">
         <v>75</v>
       </c>
-      <c r="G53" s="312" t="s">
+      <c r="G53" s="337" t="s">
         <v>76</v>
       </c>
-      <c r="H53" s="312" t="s">
+      <c r="H53" s="337" t="s">
         <v>77</v>
       </c>
-      <c r="I53" s="312" t="s">
+      <c r="I53" s="337" t="s">
         <v>78</v>
       </c>
-      <c r="J53" s="312" t="s">
+      <c r="J53" s="337" t="s">
         <v>79</v>
       </c>
-      <c r="K53" s="312" t="s">
+      <c r="K53" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="L53" s="312" t="s">
+      <c r="L53" s="337" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="314" t="s">
+      <c r="M53" s="308" t="s">
         <v>82</v>
       </c>
-      <c r="N53" s="314" t="s">
+      <c r="N53" s="308" t="s">
         <v>83</v>
       </c>
-      <c r="O53" s="314" t="s">
+      <c r="O53" s="308" t="s">
         <v>84</v>
       </c>
-      <c r="P53" s="314" t="s">
+      <c r="P53" s="308" t="s">
         <v>85</v>
       </c>
-      <c r="Q53" s="314" t="s">
+      <c r="Q53" s="308" t="s">
         <v>86</v>
       </c>
-      <c r="R53" s="314" t="s">
+      <c r="R53" s="308" t="s">
         <v>87</v>
       </c>
-      <c r="S53" s="312" t="s">
+      <c r="S53" s="337" t="s">
         <v>88</v>
       </c>
-      <c r="T53" s="312" t="s">
+      <c r="T53" s="337" t="s">
         <v>89</v>
       </c>
-      <c r="U53" s="314" t="s">
+      <c r="U53" s="308" t="s">
         <v>90</v>
       </c>
-      <c r="V53" s="314" t="s">
+      <c r="V53" s="308" t="s">
         <v>91</v>
       </c>
-      <c r="W53" s="312" t="s">
+      <c r="W53" s="337" t="s">
         <v>92</v>
       </c>
-      <c r="X53" s="314" t="s">
+      <c r="X53" s="308" t="s">
         <v>93</v>
       </c>
       <c r="Y53" s="25"/>
@@ -26310,29 +26273,29 @@
       <c r="AN53" s="199"/>
     </row>
     <row r="54" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="321"/>
-      <c r="C54" s="313"/>
-      <c r="D54" s="316"/>
-      <c r="E54" s="313"/>
-      <c r="F54" s="313"/>
-      <c r="G54" s="313"/>
-      <c r="H54" s="313"/>
-      <c r="I54" s="313"/>
-      <c r="J54" s="313"/>
-      <c r="K54" s="313"/>
-      <c r="L54" s="313"/>
-      <c r="M54" s="313"/>
-      <c r="N54" s="313"/>
-      <c r="O54" s="313"/>
-      <c r="P54" s="313"/>
-      <c r="Q54" s="313"/>
-      <c r="R54" s="313"/>
-      <c r="S54" s="313"/>
-      <c r="T54" s="313"/>
-      <c r="U54" s="313"/>
-      <c r="V54" s="313"/>
-      <c r="W54" s="313"/>
-      <c r="X54" s="313"/>
+      <c r="B54" s="307"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="311"/>
+      <c r="E54" s="309"/>
+      <c r="F54" s="309"/>
+      <c r="G54" s="309"/>
+      <c r="H54" s="309"/>
+      <c r="I54" s="309"/>
+      <c r="J54" s="309"/>
+      <c r="K54" s="309"/>
+      <c r="L54" s="309"/>
+      <c r="M54" s="309"/>
+      <c r="N54" s="309"/>
+      <c r="O54" s="309"/>
+      <c r="P54" s="309"/>
+      <c r="Q54" s="309"/>
+      <c r="R54" s="309"/>
+      <c r="S54" s="309"/>
+      <c r="T54" s="309"/>
+      <c r="U54" s="309"/>
+      <c r="V54" s="309"/>
+      <c r="W54" s="309"/>
+      <c r="X54" s="309"/>
       <c r="AA54" s="25"/>
       <c r="AB54" s="25"/>
       <c r="AC54" s="201"/>
@@ -26421,9 +26384,9 @@
       <c r="X55" s="100">
         <v>160</v>
       </c>
-      <c r="Z55" s="290"/>
-      <c r="AA55" s="290"/>
-      <c r="AB55" s="290"/>
+      <c r="Z55" s="341"/>
+      <c r="AA55" s="341"/>
+      <c r="AB55" s="341"/>
       <c r="AC55" s="202"/>
       <c r="AD55" s="25"/>
       <c r="AE55" s="25"/>
@@ -26510,9 +26473,9 @@
       <c r="X56" s="114">
         <v>70000</v>
       </c>
-      <c r="Z56" s="290"/>
-      <c r="AA56" s="290"/>
-      <c r="AB56" s="290"/>
+      <c r="Z56" s="341"/>
+      <c r="AA56" s="341"/>
+      <c r="AB56" s="341"/>
       <c r="AC56" s="201"/>
       <c r="AD56" s="25"/>
       <c r="AE56" s="25"/>
@@ -26599,9 +26562,9 @@
       <c r="X57" s="101">
         <v>1</v>
       </c>
-      <c r="Z57" s="290"/>
-      <c r="AA57" s="290"/>
-      <c r="AB57" s="290"/>
+      <c r="Z57" s="341"/>
+      <c r="AA57" s="341"/>
+      <c r="AB57" s="341"/>
       <c r="AC57" s="199"/>
       <c r="AD57" s="199"/>
       <c r="AE57" s="199"/>
@@ -26623,45 +26586,45 @@
         <f>SUM(B56:AF56)</f>
         <v>1890000</v>
       </c>
-      <c r="C58" s="288"/>
-      <c r="D58" s="289"/>
-      <c r="E58" s="289"/>
-      <c r="F58" s="289"/>
-      <c r="G58" s="289"/>
-      <c r="H58" s="289"/>
-      <c r="I58" s="289"/>
-      <c r="J58" s="289"/>
-      <c r="K58" s="289"/>
-      <c r="L58" s="289"/>
-      <c r="M58" s="289"/>
-      <c r="N58" s="289"/>
-      <c r="O58" s="289"/>
-      <c r="P58" s="289"/>
-      <c r="Q58" s="289"/>
-      <c r="R58" s="289"/>
-      <c r="S58" s="289"/>
-      <c r="T58" s="289"/>
-      <c r="U58" s="289"/>
-      <c r="V58" s="289"/>
-      <c r="W58" s="289"/>
-      <c r="X58" s="289"/>
-      <c r="Y58" s="289"/>
-      <c r="Z58" s="289"/>
-      <c r="AA58" s="289"/>
-      <c r="AB58" s="289"/>
-      <c r="AC58" s="289"/>
-      <c r="AD58" s="289"/>
-      <c r="AE58" s="289"/>
-      <c r="AF58" s="289"/>
-      <c r="AG58" s="289"/>
-      <c r="AH58" s="289"/>
-      <c r="AI58" s="289"/>
-      <c r="AJ58" s="289"/>
-      <c r="AK58" s="289"/>
-      <c r="AL58" s="289"/>
-      <c r="AM58" s="289"/>
-      <c r="AN58" s="289"/>
-      <c r="AO58" s="289"/>
+      <c r="C58" s="340"/>
+      <c r="D58" s="312"/>
+      <c r="E58" s="312"/>
+      <c r="F58" s="312"/>
+      <c r="G58" s="312"/>
+      <c r="H58" s="312"/>
+      <c r="I58" s="312"/>
+      <c r="J58" s="312"/>
+      <c r="K58" s="312"/>
+      <c r="L58" s="312"/>
+      <c r="M58" s="312"/>
+      <c r="N58" s="312"/>
+      <c r="O58" s="312"/>
+      <c r="P58" s="312"/>
+      <c r="Q58" s="312"/>
+      <c r="R58" s="312"/>
+      <c r="S58" s="312"/>
+      <c r="T58" s="312"/>
+      <c r="U58" s="312"/>
+      <c r="V58" s="312"/>
+      <c r="W58" s="312"/>
+      <c r="X58" s="312"/>
+      <c r="Y58" s="312"/>
+      <c r="Z58" s="312"/>
+      <c r="AA58" s="312"/>
+      <c r="AB58" s="312"/>
+      <c r="AC58" s="312"/>
+      <c r="AD58" s="312"/>
+      <c r="AE58" s="312"/>
+      <c r="AF58" s="312"/>
+      <c r="AG58" s="312"/>
+      <c r="AH58" s="312"/>
+      <c r="AI58" s="312"/>
+      <c r="AJ58" s="312"/>
+      <c r="AK58" s="312"/>
+      <c r="AL58" s="312"/>
+      <c r="AM58" s="312"/>
+      <c r="AN58" s="312"/>
+      <c r="AO58" s="312"/>
     </row>
     <row r="59" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="108" t="s">
@@ -26671,45 +26634,45 @@
         <f>B58*12</f>
         <v>22680000</v>
       </c>
-      <c r="C59" s="288"/>
-      <c r="D59" s="289"/>
-      <c r="E59" s="289"/>
-      <c r="F59" s="289"/>
-      <c r="G59" s="289"/>
-      <c r="H59" s="289"/>
-      <c r="I59" s="289"/>
-      <c r="J59" s="289"/>
-      <c r="K59" s="289"/>
-      <c r="L59" s="289"/>
-      <c r="M59" s="289"/>
-      <c r="N59" s="289"/>
-      <c r="O59" s="289"/>
-      <c r="P59" s="289"/>
-      <c r="Q59" s="289"/>
-      <c r="R59" s="289"/>
-      <c r="S59" s="289"/>
-      <c r="T59" s="289"/>
-      <c r="U59" s="289"/>
-      <c r="V59" s="289"/>
-      <c r="W59" s="289"/>
-      <c r="X59" s="289"/>
-      <c r="Y59" s="289"/>
-      <c r="Z59" s="289"/>
-      <c r="AA59" s="289"/>
-      <c r="AB59" s="289"/>
-      <c r="AC59" s="289"/>
-      <c r="AD59" s="289"/>
-      <c r="AE59" s="289"/>
-      <c r="AF59" s="289"/>
-      <c r="AG59" s="289"/>
-      <c r="AH59" s="289"/>
-      <c r="AI59" s="289"/>
-      <c r="AJ59" s="289"/>
-      <c r="AK59" s="289"/>
-      <c r="AL59" s="289"/>
-      <c r="AM59" s="289"/>
-      <c r="AN59" s="289"/>
-      <c r="AO59" s="289"/>
+      <c r="C59" s="340"/>
+      <c r="D59" s="312"/>
+      <c r="E59" s="312"/>
+      <c r="F59" s="312"/>
+      <c r="G59" s="312"/>
+      <c r="H59" s="312"/>
+      <c r="I59" s="312"/>
+      <c r="J59" s="312"/>
+      <c r="K59" s="312"/>
+      <c r="L59" s="312"/>
+      <c r="M59" s="312"/>
+      <c r="N59" s="312"/>
+      <c r="O59" s="312"/>
+      <c r="P59" s="312"/>
+      <c r="Q59" s="312"/>
+      <c r="R59" s="312"/>
+      <c r="S59" s="312"/>
+      <c r="T59" s="312"/>
+      <c r="U59" s="312"/>
+      <c r="V59" s="312"/>
+      <c r="W59" s="312"/>
+      <c r="X59" s="312"/>
+      <c r="Y59" s="312"/>
+      <c r="Z59" s="312"/>
+      <c r="AA59" s="312"/>
+      <c r="AB59" s="312"/>
+      <c r="AC59" s="312"/>
+      <c r="AD59" s="312"/>
+      <c r="AE59" s="312"/>
+      <c r="AF59" s="312"/>
+      <c r="AG59" s="312"/>
+      <c r="AH59" s="312"/>
+      <c r="AI59" s="312"/>
+      <c r="AJ59" s="312"/>
+      <c r="AK59" s="312"/>
+      <c r="AL59" s="312"/>
+      <c r="AM59" s="312"/>
+      <c r="AN59" s="312"/>
+      <c r="AO59" s="312"/>
     </row>
     <row r="60" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
@@ -26827,48 +26790,48 @@
       <c r="AN63" s="16"/>
     </row>
     <row r="64" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="303" t="s">
+      <c r="A64" s="327" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="304"/>
-      <c r="C64" s="304"/>
-      <c r="D64" s="304"/>
-      <c r="E64" s="304"/>
-      <c r="F64" s="304"/>
-      <c r="G64" s="304"/>
-      <c r="H64" s="305"/>
-      <c r="I64" s="305"/>
-      <c r="J64" s="305"/>
-      <c r="K64" s="305"/>
-      <c r="L64" s="304"/>
-      <c r="M64" s="304"/>
-      <c r="N64" s="304"/>
-      <c r="O64" s="304"/>
-      <c r="P64" s="304"/>
-      <c r="Q64" s="304"/>
-      <c r="R64" s="304"/>
-      <c r="S64" s="304"/>
-      <c r="T64" s="304"/>
-      <c r="U64" s="304"/>
-      <c r="V64" s="304"/>
-      <c r="W64" s="304"/>
-      <c r="X64" s="304"/>
-      <c r="Y64" s="304"/>
-      <c r="Z64" s="304"/>
-      <c r="AA64" s="304"/>
-      <c r="AB64" s="304"/>
-      <c r="AC64" s="304"/>
-      <c r="AD64" s="304"/>
-      <c r="AE64" s="304"/>
-      <c r="AF64" s="304"/>
-      <c r="AG64" s="304"/>
-      <c r="AH64" s="304"/>
-      <c r="AI64" s="304"/>
-      <c r="AJ64" s="304"/>
-      <c r="AK64" s="304"/>
-      <c r="AL64" s="304"/>
-      <c r="AM64" s="304"/>
-      <c r="AN64" s="306"/>
+      <c r="B64" s="328"/>
+      <c r="C64" s="328"/>
+      <c r="D64" s="328"/>
+      <c r="E64" s="328"/>
+      <c r="F64" s="328"/>
+      <c r="G64" s="328"/>
+      <c r="H64" s="329"/>
+      <c r="I64" s="329"/>
+      <c r="J64" s="329"/>
+      <c r="K64" s="329"/>
+      <c r="L64" s="328"/>
+      <c r="M64" s="328"/>
+      <c r="N64" s="328"/>
+      <c r="O64" s="328"/>
+      <c r="P64" s="328"/>
+      <c r="Q64" s="328"/>
+      <c r="R64" s="328"/>
+      <c r="S64" s="328"/>
+      <c r="T64" s="328"/>
+      <c r="U64" s="328"/>
+      <c r="V64" s="328"/>
+      <c r="W64" s="328"/>
+      <c r="X64" s="328"/>
+      <c r="Y64" s="328"/>
+      <c r="Z64" s="328"/>
+      <c r="AA64" s="328"/>
+      <c r="AB64" s="328"/>
+      <c r="AC64" s="328"/>
+      <c r="AD64" s="328"/>
+      <c r="AE64" s="328"/>
+      <c r="AF64" s="328"/>
+      <c r="AG64" s="328"/>
+      <c r="AH64" s="328"/>
+      <c r="AI64" s="328"/>
+      <c r="AJ64" s="328"/>
+      <c r="AK64" s="328"/>
+      <c r="AL64" s="328"/>
+      <c r="AM64" s="328"/>
+      <c r="AN64" s="330"/>
       <c r="AO64" s="8"/>
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
@@ -26892,76 +26855,76 @@
       <c r="BI64" s="8"/>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A65" s="307" t="s">
+      <c r="A65" s="331" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="307" t="s">
+      <c r="B65" s="331" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="310" t="s">
+      <c r="C65" s="334" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="311"/>
-      <c r="E65" s="293" t="s">
+      <c r="D65" s="335"/>
+      <c r="E65" s="317" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="294"/>
-      <c r="G65" s="295"/>
-      <c r="H65" s="293" t="s">
+      <c r="F65" s="318"/>
+      <c r="G65" s="319"/>
+      <c r="H65" s="317" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="294"/>
-      <c r="J65" s="295"/>
-      <c r="K65" s="293" t="s">
+      <c r="I65" s="318"/>
+      <c r="J65" s="319"/>
+      <c r="K65" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="L65" s="294"/>
-      <c r="M65" s="295"/>
-      <c r="N65" s="293" t="s">
+      <c r="L65" s="318"/>
+      <c r="M65" s="319"/>
+      <c r="N65" s="317" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="294"/>
-      <c r="P65" s="295"/>
-      <c r="Q65" s="293" t="s">
+      <c r="O65" s="318"/>
+      <c r="P65" s="319"/>
+      <c r="Q65" s="317" t="s">
         <v>22</v>
       </c>
-      <c r="R65" s="294"/>
-      <c r="S65" s="295"/>
-      <c r="T65" s="293" t="s">
+      <c r="R65" s="318"/>
+      <c r="S65" s="319"/>
+      <c r="T65" s="317" t="s">
         <v>23</v>
       </c>
-      <c r="U65" s="294"/>
-      <c r="V65" s="295"/>
-      <c r="W65" s="293" t="s">
+      <c r="U65" s="318"/>
+      <c r="V65" s="319"/>
+      <c r="W65" s="317" t="s">
         <v>24</v>
       </c>
-      <c r="X65" s="294"/>
-      <c r="Y65" s="295"/>
-      <c r="Z65" s="293" t="s">
+      <c r="X65" s="318"/>
+      <c r="Y65" s="319"/>
+      <c r="Z65" s="317" t="s">
         <v>25</v>
       </c>
-      <c r="AA65" s="294"/>
-      <c r="AB65" s="295"/>
-      <c r="AC65" s="293" t="s">
+      <c r="AA65" s="318"/>
+      <c r="AB65" s="319"/>
+      <c r="AC65" s="317" t="s">
         <v>26</v>
       </c>
-      <c r="AD65" s="294"/>
-      <c r="AE65" s="295"/>
-      <c r="AF65" s="293" t="s">
+      <c r="AD65" s="318"/>
+      <c r="AE65" s="319"/>
+      <c r="AF65" s="317" t="s">
         <v>27</v>
       </c>
-      <c r="AG65" s="294"/>
-      <c r="AH65" s="295"/>
-      <c r="AI65" s="293" t="s">
+      <c r="AG65" s="318"/>
+      <c r="AH65" s="319"/>
+      <c r="AI65" s="317" t="s">
         <v>28</v>
       </c>
-      <c r="AJ65" s="294"/>
-      <c r="AK65" s="295"/>
-      <c r="AL65" s="293" t="s">
+      <c r="AJ65" s="318"/>
+      <c r="AK65" s="319"/>
+      <c r="AL65" s="317" t="s">
         <v>29</v>
       </c>
-      <c r="AM65" s="294"/>
-      <c r="AN65" s="295"/>
+      <c r="AM65" s="318"/>
+      <c r="AN65" s="319"/>
       <c r="AO65" s="8"/>
       <c r="AP65" s="8"/>
       <c r="AQ65" s="8"/>
@@ -26985,74 +26948,74 @@
       <c r="BI65" s="8"/>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A66" s="308"/>
-      <c r="B66" s="308"/>
-      <c r="C66" s="296" t="s">
+      <c r="A66" s="332"/>
+      <c r="B66" s="332"/>
+      <c r="C66" s="320" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="298" t="s">
+      <c r="D66" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="300">
+      <c r="E66" s="324">
         <v>0.02</v>
       </c>
-      <c r="F66" s="301"/>
-      <c r="G66" s="302"/>
-      <c r="H66" s="300">
+      <c r="F66" s="325"/>
+      <c r="G66" s="326"/>
+      <c r="H66" s="324">
         <v>0.04</v>
       </c>
-      <c r="I66" s="301"/>
-      <c r="J66" s="302"/>
-      <c r="K66" s="300">
+      <c r="I66" s="325"/>
+      <c r="J66" s="326"/>
+      <c r="K66" s="324">
         <v>0.04</v>
       </c>
-      <c r="L66" s="301"/>
-      <c r="M66" s="302"/>
-      <c r="N66" s="300">
+      <c r="L66" s="325"/>
+      <c r="M66" s="326"/>
+      <c r="N66" s="324">
         <v>0.05</v>
       </c>
-      <c r="O66" s="301"/>
-      <c r="P66" s="302"/>
-      <c r="Q66" s="300">
+      <c r="O66" s="325"/>
+      <c r="P66" s="326"/>
+      <c r="Q66" s="324">
         <v>0.06</v>
       </c>
-      <c r="R66" s="301"/>
-      <c r="S66" s="302"/>
-      <c r="T66" s="300">
+      <c r="R66" s="325"/>
+      <c r="S66" s="326"/>
+      <c r="T66" s="324">
         <v>0.08</v>
       </c>
-      <c r="U66" s="301"/>
-      <c r="V66" s="302"/>
-      <c r="W66" s="300">
+      <c r="U66" s="325"/>
+      <c r="V66" s="326"/>
+      <c r="W66" s="324">
         <v>0.1</v>
       </c>
-      <c r="X66" s="301"/>
-      <c r="Y66" s="302"/>
-      <c r="Z66" s="300">
+      <c r="X66" s="325"/>
+      <c r="Y66" s="326"/>
+      <c r="Z66" s="324">
         <v>0.11</v>
       </c>
-      <c r="AA66" s="301"/>
-      <c r="AB66" s="302"/>
-      <c r="AC66" s="300">
+      <c r="AA66" s="325"/>
+      <c r="AB66" s="326"/>
+      <c r="AC66" s="324">
         <v>0.11</v>
       </c>
-      <c r="AD66" s="301"/>
-      <c r="AE66" s="302"/>
-      <c r="AF66" s="300">
+      <c r="AD66" s="325"/>
+      <c r="AE66" s="326"/>
+      <c r="AF66" s="324">
         <v>0.12</v>
       </c>
-      <c r="AG66" s="301"/>
-      <c r="AH66" s="302"/>
-      <c r="AI66" s="300">
+      <c r="AG66" s="325"/>
+      <c r="AH66" s="326"/>
+      <c r="AI66" s="324">
         <v>0.13</v>
       </c>
-      <c r="AJ66" s="301"/>
-      <c r="AK66" s="302"/>
-      <c r="AL66" s="300">
+      <c r="AJ66" s="325"/>
+      <c r="AK66" s="326"/>
+      <c r="AL66" s="324">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM66" s="301"/>
-      <c r="AN66" s="302"/>
+      <c r="AM66" s="325"/>
+      <c r="AN66" s="326"/>
       <c r="AO66" s="8"/>
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
@@ -27076,10 +27039,10 @@
       <c r="BI66" s="8"/>
     </row>
     <row r="67" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="309"/>
-      <c r="B67" s="309"/>
-      <c r="C67" s="297"/>
-      <c r="D67" s="299"/>
+      <c r="A67" s="333"/>
+      <c r="B67" s="333"/>
+      <c r="C67" s="321"/>
+      <c r="D67" s="339"/>
       <c r="E67" s="121"/>
       <c r="F67" s="82" t="s">
         <v>37</v>
@@ -27668,10 +27631,10 @@
       </c>
     </row>
     <row r="71" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="291" t="s">
+      <c r="A71" s="315" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="292"/>
+      <c r="B71" s="316"/>
       <c r="C71" s="86">
         <f>SUM(C68:C70)</f>
         <v>145752</v>
@@ -27756,32 +27719,32 @@
     </row>
     <row r="100" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="317" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="318"/>
-      <c r="C101" s="318"/>
-      <c r="D101" s="318"/>
-      <c r="E101" s="318"/>
-      <c r="F101" s="318"/>
-      <c r="G101" s="318"/>
-      <c r="H101" s="318"/>
-      <c r="I101" s="318"/>
-      <c r="J101" s="318"/>
-      <c r="K101" s="318"/>
-      <c r="L101" s="318"/>
-      <c r="M101" s="318"/>
-      <c r="N101" s="318"/>
-      <c r="O101" s="318"/>
-      <c r="P101" s="318"/>
-      <c r="Q101" s="318"/>
-      <c r="R101" s="318"/>
-      <c r="S101" s="318"/>
-      <c r="T101" s="318"/>
-      <c r="U101" s="318"/>
-      <c r="V101" s="318"/>
-      <c r="W101" s="318"/>
-      <c r="X101" s="319"/>
+      <c r="A101" s="303" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" s="304"/>
+      <c r="C101" s="304"/>
+      <c r="D101" s="304"/>
+      <c r="E101" s="304"/>
+      <c r="F101" s="304"/>
+      <c r="G101" s="304"/>
+      <c r="H101" s="304"/>
+      <c r="I101" s="304"/>
+      <c r="J101" s="304"/>
+      <c r="K101" s="304"/>
+      <c r="L101" s="304"/>
+      <c r="M101" s="304"/>
+      <c r="N101" s="304"/>
+      <c r="O101" s="304"/>
+      <c r="P101" s="304"/>
+      <c r="Q101" s="304"/>
+      <c r="R101" s="304"/>
+      <c r="S101" s="304"/>
+      <c r="T101" s="304"/>
+      <c r="U101" s="304"/>
+      <c r="V101" s="304"/>
+      <c r="W101" s="304"/>
+      <c r="X101" s="305"/>
       <c r="Y101" s="156"/>
       <c r="Z101" s="156"/>
       <c r="AA101" s="156"/>
@@ -27800,73 +27763,73 @@
       <c r="AN101" s="104"/>
     </row>
     <row r="102" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="320" t="s">
+      <c r="B102" s="336" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="312" t="s">
+      <c r="C102" s="337" t="s">
         <v>72</v>
       </c>
-      <c r="D102" s="315" t="s">
+      <c r="D102" s="338" t="s">
         <v>73</v>
       </c>
-      <c r="E102" s="314" t="s">
+      <c r="E102" s="308" t="s">
         <v>74</v>
       </c>
-      <c r="F102" s="312" t="s">
+      <c r="F102" s="337" t="s">
         <v>75</v>
       </c>
-      <c r="G102" s="312" t="s">
+      <c r="G102" s="337" t="s">
         <v>76</v>
       </c>
-      <c r="H102" s="312" t="s">
+      <c r="H102" s="337" t="s">
         <v>77</v>
       </c>
-      <c r="I102" s="312" t="s">
+      <c r="I102" s="337" t="s">
         <v>78</v>
       </c>
-      <c r="J102" s="312" t="s">
+      <c r="J102" s="337" t="s">
         <v>79</v>
       </c>
-      <c r="K102" s="312" t="s">
+      <c r="K102" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="L102" s="312" t="s">
+      <c r="L102" s="337" t="s">
         <v>81</v>
       </c>
-      <c r="M102" s="314" t="s">
+      <c r="M102" s="308" t="s">
         <v>82</v>
       </c>
-      <c r="N102" s="314" t="s">
+      <c r="N102" s="308" t="s">
         <v>83</v>
       </c>
-      <c r="O102" s="314" t="s">
+      <c r="O102" s="308" t="s">
         <v>84</v>
       </c>
-      <c r="P102" s="314" t="s">
+      <c r="P102" s="308" t="s">
         <v>85</v>
       </c>
-      <c r="Q102" s="314" t="s">
+      <c r="Q102" s="308" t="s">
         <v>86</v>
       </c>
-      <c r="R102" s="314" t="s">
+      <c r="R102" s="308" t="s">
         <v>87</v>
       </c>
-      <c r="S102" s="312" t="s">
+      <c r="S102" s="337" t="s">
         <v>88</v>
       </c>
-      <c r="T102" s="312" t="s">
+      <c r="T102" s="337" t="s">
         <v>89</v>
       </c>
-      <c r="U102" s="314" t="s">
+      <c r="U102" s="308" t="s">
         <v>90</v>
       </c>
-      <c r="V102" s="314" t="s">
+      <c r="V102" s="308" t="s">
         <v>91</v>
       </c>
-      <c r="W102" s="312" t="s">
+      <c r="W102" s="337" t="s">
         <v>92</v>
       </c>
-      <c r="X102" s="314" t="s">
+      <c r="X102" s="308" t="s">
         <v>93</v>
       </c>
       <c r="Y102" s="25"/>
@@ -27887,29 +27850,29 @@
       <c r="AN102" s="89"/>
     </row>
     <row r="103" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="321"/>
-      <c r="C103" s="313"/>
-      <c r="D103" s="316"/>
-      <c r="E103" s="313"/>
-      <c r="F103" s="313"/>
-      <c r="G103" s="313"/>
-      <c r="H103" s="313"/>
-      <c r="I103" s="313"/>
-      <c r="J103" s="313"/>
-      <c r="K103" s="313"/>
-      <c r="L103" s="313"/>
-      <c r="M103" s="313"/>
-      <c r="N103" s="313"/>
-      <c r="O103" s="313"/>
-      <c r="P103" s="313"/>
-      <c r="Q103" s="313"/>
-      <c r="R103" s="313"/>
-      <c r="S103" s="313"/>
-      <c r="T103" s="313"/>
-      <c r="U103" s="313"/>
-      <c r="V103" s="313"/>
-      <c r="W103" s="313"/>
-      <c r="X103" s="313"/>
+      <c r="B103" s="307"/>
+      <c r="C103" s="309"/>
+      <c r="D103" s="311"/>
+      <c r="E103" s="309"/>
+      <c r="F103" s="309"/>
+      <c r="G103" s="309"/>
+      <c r="H103" s="309"/>
+      <c r="I103" s="309"/>
+      <c r="J103" s="309"/>
+      <c r="K103" s="309"/>
+      <c r="L103" s="309"/>
+      <c r="M103" s="309"/>
+      <c r="N103" s="309"/>
+      <c r="O103" s="309"/>
+      <c r="P103" s="309"/>
+      <c r="Q103" s="309"/>
+      <c r="R103" s="309"/>
+      <c r="S103" s="309"/>
+      <c r="T103" s="309"/>
+      <c r="U103" s="309"/>
+      <c r="V103" s="309"/>
+      <c r="W103" s="309"/>
+      <c r="X103" s="309"/>
       <c r="AA103" s="25"/>
       <c r="AB103" s="25"/>
       <c r="AC103" s="99"/>
@@ -28392,48 +28355,48 @@
     </row>
     <row r="111" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="303" t="s">
-        <v>98</v>
-      </c>
-      <c r="B112" s="304"/>
-      <c r="C112" s="304"/>
-      <c r="D112" s="304"/>
-      <c r="E112" s="304"/>
-      <c r="F112" s="304"/>
-      <c r="G112" s="304"/>
-      <c r="H112" s="305"/>
-      <c r="I112" s="305"/>
-      <c r="J112" s="305"/>
-      <c r="K112" s="305"/>
-      <c r="L112" s="304"/>
-      <c r="M112" s="304"/>
-      <c r="N112" s="304"/>
-      <c r="O112" s="304"/>
-      <c r="P112" s="304"/>
-      <c r="Q112" s="304"/>
-      <c r="R112" s="304"/>
-      <c r="S112" s="304"/>
-      <c r="T112" s="304"/>
-      <c r="U112" s="304"/>
-      <c r="V112" s="304"/>
-      <c r="W112" s="304"/>
-      <c r="X112" s="304"/>
-      <c r="Y112" s="304"/>
-      <c r="Z112" s="304"/>
-      <c r="AA112" s="304"/>
-      <c r="AB112" s="304"/>
-      <c r="AC112" s="304"/>
-      <c r="AD112" s="304"/>
-      <c r="AE112" s="304"/>
-      <c r="AF112" s="304"/>
-      <c r="AG112" s="304"/>
-      <c r="AH112" s="304"/>
-      <c r="AI112" s="304"/>
-      <c r="AJ112" s="304"/>
-      <c r="AK112" s="304"/>
-      <c r="AL112" s="304"/>
-      <c r="AM112" s="304"/>
-      <c r="AN112" s="306"/>
+      <c r="A112" s="327" t="s">
+        <v>97</v>
+      </c>
+      <c r="B112" s="328"/>
+      <c r="C112" s="328"/>
+      <c r="D112" s="328"/>
+      <c r="E112" s="328"/>
+      <c r="F112" s="328"/>
+      <c r="G112" s="328"/>
+      <c r="H112" s="329"/>
+      <c r="I112" s="329"/>
+      <c r="J112" s="329"/>
+      <c r="K112" s="329"/>
+      <c r="L112" s="328"/>
+      <c r="M112" s="328"/>
+      <c r="N112" s="328"/>
+      <c r="O112" s="328"/>
+      <c r="P112" s="328"/>
+      <c r="Q112" s="328"/>
+      <c r="R112" s="328"/>
+      <c r="S112" s="328"/>
+      <c r="T112" s="328"/>
+      <c r="U112" s="328"/>
+      <c r="V112" s="328"/>
+      <c r="W112" s="328"/>
+      <c r="X112" s="328"/>
+      <c r="Y112" s="328"/>
+      <c r="Z112" s="328"/>
+      <c r="AA112" s="328"/>
+      <c r="AB112" s="328"/>
+      <c r="AC112" s="328"/>
+      <c r="AD112" s="328"/>
+      <c r="AE112" s="328"/>
+      <c r="AF112" s="328"/>
+      <c r="AG112" s="328"/>
+      <c r="AH112" s="328"/>
+      <c r="AI112" s="328"/>
+      <c r="AJ112" s="328"/>
+      <c r="AK112" s="328"/>
+      <c r="AL112" s="328"/>
+      <c r="AM112" s="328"/>
+      <c r="AN112" s="330"/>
       <c r="AO112" s="8"/>
       <c r="AP112" s="8"/>
       <c r="AQ112" s="8"/>
@@ -28457,76 +28420,76 @@
       <c r="BI112" s="8"/>
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A113" s="307" t="s">
+      <c r="A113" s="331" t="s">
         <v>11</v>
       </c>
-      <c r="B113" s="307" t="s">
+      <c r="B113" s="331" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="310" t="s">
+      <c r="C113" s="334" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="311"/>
-      <c r="E113" s="293" t="s">
+      <c r="D113" s="335"/>
+      <c r="E113" s="317" t="s">
         <v>18</v>
       </c>
-      <c r="F113" s="294"/>
-      <c r="G113" s="295"/>
-      <c r="H113" s="293" t="s">
+      <c r="F113" s="318"/>
+      <c r="G113" s="319"/>
+      <c r="H113" s="317" t="s">
         <v>19</v>
       </c>
-      <c r="I113" s="294"/>
-      <c r="J113" s="295"/>
-      <c r="K113" s="293" t="s">
+      <c r="I113" s="318"/>
+      <c r="J113" s="319"/>
+      <c r="K113" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="L113" s="294"/>
-      <c r="M113" s="295"/>
-      <c r="N113" s="293" t="s">
+      <c r="L113" s="318"/>
+      <c r="M113" s="319"/>
+      <c r="N113" s="317" t="s">
         <v>21</v>
       </c>
-      <c r="O113" s="294"/>
-      <c r="P113" s="295"/>
-      <c r="Q113" s="293" t="s">
+      <c r="O113" s="318"/>
+      <c r="P113" s="319"/>
+      <c r="Q113" s="317" t="s">
         <v>22</v>
       </c>
-      <c r="R113" s="294"/>
-      <c r="S113" s="295"/>
-      <c r="T113" s="293" t="s">
+      <c r="R113" s="318"/>
+      <c r="S113" s="319"/>
+      <c r="T113" s="317" t="s">
         <v>23</v>
       </c>
-      <c r="U113" s="294"/>
-      <c r="V113" s="295"/>
-      <c r="W113" s="293" t="s">
+      <c r="U113" s="318"/>
+      <c r="V113" s="319"/>
+      <c r="W113" s="317" t="s">
         <v>24</v>
       </c>
-      <c r="X113" s="294"/>
-      <c r="Y113" s="295"/>
-      <c r="Z113" s="293" t="s">
+      <c r="X113" s="318"/>
+      <c r="Y113" s="319"/>
+      <c r="Z113" s="317" t="s">
         <v>25</v>
       </c>
-      <c r="AA113" s="294"/>
-      <c r="AB113" s="295"/>
-      <c r="AC113" s="293" t="s">
+      <c r="AA113" s="318"/>
+      <c r="AB113" s="319"/>
+      <c r="AC113" s="317" t="s">
         <v>26</v>
       </c>
-      <c r="AD113" s="294"/>
-      <c r="AE113" s="295"/>
-      <c r="AF113" s="293" t="s">
+      <c r="AD113" s="318"/>
+      <c r="AE113" s="319"/>
+      <c r="AF113" s="317" t="s">
         <v>27</v>
       </c>
-      <c r="AG113" s="294"/>
-      <c r="AH113" s="295"/>
-      <c r="AI113" s="293" t="s">
+      <c r="AG113" s="318"/>
+      <c r="AH113" s="319"/>
+      <c r="AI113" s="317" t="s">
         <v>28</v>
       </c>
-      <c r="AJ113" s="294"/>
-      <c r="AK113" s="295"/>
-      <c r="AL113" s="293" t="s">
+      <c r="AJ113" s="318"/>
+      <c r="AK113" s="319"/>
+      <c r="AL113" s="317" t="s">
         <v>29</v>
       </c>
-      <c r="AM113" s="294"/>
-      <c r="AN113" s="295"/>
+      <c r="AM113" s="318"/>
+      <c r="AN113" s="319"/>
       <c r="AO113" s="8"/>
       <c r="AP113" s="8"/>
       <c r="AQ113" s="8"/>
@@ -28550,74 +28513,74 @@
       <c r="BI113" s="8"/>
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A114" s="308"/>
-      <c r="B114" s="308"/>
-      <c r="C114" s="296" t="s">
+      <c r="A114" s="332"/>
+      <c r="B114" s="332"/>
+      <c r="C114" s="320" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="298" t="s">
+      <c r="D114" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="E114" s="300">
+      <c r="E114" s="324">
         <v>0.02</v>
       </c>
-      <c r="F114" s="301"/>
-      <c r="G114" s="302"/>
-      <c r="H114" s="300">
+      <c r="F114" s="325"/>
+      <c r="G114" s="326"/>
+      <c r="H114" s="324">
         <v>0.04</v>
       </c>
-      <c r="I114" s="301"/>
-      <c r="J114" s="302"/>
-      <c r="K114" s="300">
+      <c r="I114" s="325"/>
+      <c r="J114" s="326"/>
+      <c r="K114" s="324">
         <v>0.04</v>
       </c>
-      <c r="L114" s="301"/>
-      <c r="M114" s="302"/>
-      <c r="N114" s="300">
+      <c r="L114" s="325"/>
+      <c r="M114" s="326"/>
+      <c r="N114" s="324">
         <v>0.05</v>
       </c>
-      <c r="O114" s="301"/>
-      <c r="P114" s="302"/>
-      <c r="Q114" s="300">
+      <c r="O114" s="325"/>
+      <c r="P114" s="326"/>
+      <c r="Q114" s="324">
         <v>0.06</v>
       </c>
-      <c r="R114" s="301"/>
-      <c r="S114" s="302"/>
-      <c r="T114" s="300">
+      <c r="R114" s="325"/>
+      <c r="S114" s="326"/>
+      <c r="T114" s="324">
         <v>0.08</v>
       </c>
-      <c r="U114" s="301"/>
-      <c r="V114" s="302"/>
-      <c r="W114" s="300">
+      <c r="U114" s="325"/>
+      <c r="V114" s="326"/>
+      <c r="W114" s="324">
         <v>0.1</v>
       </c>
-      <c r="X114" s="301"/>
-      <c r="Y114" s="302"/>
-      <c r="Z114" s="300">
+      <c r="X114" s="325"/>
+      <c r="Y114" s="326"/>
+      <c r="Z114" s="324">
         <v>0.11</v>
       </c>
-      <c r="AA114" s="301"/>
-      <c r="AB114" s="302"/>
-      <c r="AC114" s="300">
+      <c r="AA114" s="325"/>
+      <c r="AB114" s="326"/>
+      <c r="AC114" s="324">
         <v>0.11</v>
       </c>
-      <c r="AD114" s="301"/>
-      <c r="AE114" s="302"/>
-      <c r="AF114" s="300">
+      <c r="AD114" s="325"/>
+      <c r="AE114" s="326"/>
+      <c r="AF114" s="324">
         <v>0.12</v>
       </c>
-      <c r="AG114" s="301"/>
-      <c r="AH114" s="302"/>
-      <c r="AI114" s="300">
+      <c r="AG114" s="325"/>
+      <c r="AH114" s="326"/>
+      <c r="AI114" s="324">
         <v>0.13</v>
       </c>
-      <c r="AJ114" s="301"/>
-      <c r="AK114" s="302"/>
-      <c r="AL114" s="300">
+      <c r="AJ114" s="325"/>
+      <c r="AK114" s="326"/>
+      <c r="AL114" s="324">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM114" s="301"/>
-      <c r="AN114" s="302"/>
+      <c r="AM114" s="325"/>
+      <c r="AN114" s="326"/>
       <c r="AO114" s="8"/>
       <c r="AP114" s="8"/>
       <c r="AQ114" s="8"/>
@@ -28641,12 +28604,12 @@
       <c r="BI114" s="8"/>
     </row>
     <row r="115" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="309"/>
-      <c r="B115" s="309"/>
-      <c r="C115" s="297"/>
-      <c r="D115" s="328"/>
+      <c r="A115" s="333"/>
+      <c r="B115" s="333"/>
+      <c r="C115" s="321"/>
+      <c r="D115" s="323"/>
       <c r="E115" s="182" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F115" s="183" t="s">
         <v>37</v>
@@ -28655,7 +28618,7 @@
         <v>17</v>
       </c>
       <c r="H115" s="84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I115" s="141" t="s">
         <v>37</v>
@@ -28664,7 +28627,7 @@
         <v>17</v>
       </c>
       <c r="K115" s="183" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L115" s="82" t="s">
         <v>37</v>
@@ -28673,7 +28636,7 @@
         <v>17</v>
       </c>
       <c r="N115" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O115" s="84" t="s">
         <v>37</v>
@@ -28682,7 +28645,7 @@
         <v>17</v>
       </c>
       <c r="Q115" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R115" s="84" t="s">
         <v>37</v>
@@ -28691,7 +28654,7 @@
         <v>17</v>
       </c>
       <c r="T115" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U115" s="84" t="s">
         <v>37</v>
@@ -28700,7 +28663,7 @@
         <v>17</v>
       </c>
       <c r="W115" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X115" s="84" t="s">
         <v>37</v>
@@ -28709,7 +28672,7 @@
         <v>17</v>
       </c>
       <c r="Z115" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA115" s="84" t="s">
         <v>37</v>
@@ -28718,7 +28681,7 @@
         <v>17</v>
       </c>
       <c r="AC115" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD115" s="84" t="s">
         <v>37</v>
@@ -28727,7 +28690,7 @@
         <v>17</v>
       </c>
       <c r="AF115" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG115" s="84" t="s">
         <v>37</v>
@@ -28736,7 +28699,7 @@
         <v>17</v>
       </c>
       <c r="AI115" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ115" s="84" t="s">
         <v>37</v>
@@ -28745,7 +28708,7 @@
         <v>17</v>
       </c>
       <c r="AL115" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AM115" s="84" t="s">
         <v>37</v>
@@ -29259,10 +29222,10 @@
       </c>
     </row>
     <row r="119" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="291" t="s">
+      <c r="A119" s="315" t="s">
         <v>46</v>
       </c>
-      <c r="B119" s="292"/>
+      <c r="B119" s="316"/>
       <c r="C119" s="86">
         <f>SUM(C116:C118)</f>
         <v>306079.2</v>
@@ -29347,32 +29310,32 @@
     </row>
     <row r="147" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:40" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="317" t="s">
-        <v>101</v>
-      </c>
-      <c r="B148" s="318"/>
-      <c r="C148" s="318"/>
-      <c r="D148" s="318"/>
-      <c r="E148" s="318"/>
-      <c r="F148" s="318"/>
-      <c r="G148" s="318"/>
-      <c r="H148" s="318"/>
-      <c r="I148" s="318"/>
-      <c r="J148" s="318"/>
-      <c r="K148" s="318"/>
-      <c r="L148" s="318"/>
-      <c r="M148" s="318"/>
-      <c r="N148" s="318"/>
-      <c r="O148" s="318"/>
-      <c r="P148" s="318"/>
-      <c r="Q148" s="318"/>
-      <c r="R148" s="318"/>
-      <c r="S148" s="318"/>
-      <c r="T148" s="318"/>
-      <c r="U148" s="318"/>
-      <c r="V148" s="318"/>
-      <c r="W148" s="318"/>
-      <c r="X148" s="319"/>
+      <c r="A148" s="303" t="s">
+        <v>100</v>
+      </c>
+      <c r="B148" s="304"/>
+      <c r="C148" s="304"/>
+      <c r="D148" s="304"/>
+      <c r="E148" s="304"/>
+      <c r="F148" s="304"/>
+      <c r="G148" s="304"/>
+      <c r="H148" s="304"/>
+      <c r="I148" s="304"/>
+      <c r="J148" s="304"/>
+      <c r="K148" s="304"/>
+      <c r="L148" s="304"/>
+      <c r="M148" s="304"/>
+      <c r="N148" s="304"/>
+      <c r="O148" s="304"/>
+      <c r="P148" s="304"/>
+      <c r="Q148" s="304"/>
+      <c r="R148" s="304"/>
+      <c r="S148" s="304"/>
+      <c r="T148" s="304"/>
+      <c r="U148" s="304"/>
+      <c r="V148" s="304"/>
+      <c r="W148" s="304"/>
+      <c r="X148" s="305"/>
       <c r="Y148" s="156"/>
       <c r="Z148" s="156"/>
       <c r="AA148" s="156"/>
@@ -29391,73 +29354,73 @@
       <c r="AN148" s="104"/>
     </row>
     <row r="149" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="329" t="s">
+      <c r="B149" s="306" t="s">
         <v>71</v>
       </c>
-      <c r="C149" s="314" t="s">
+      <c r="C149" s="308" t="s">
         <v>72</v>
       </c>
-      <c r="D149" s="330" t="s">
+      <c r="D149" s="310" t="s">
         <v>73</v>
       </c>
-      <c r="E149" s="314" t="s">
+      <c r="E149" s="308" t="s">
         <v>74</v>
       </c>
-      <c r="F149" s="314" t="s">
+      <c r="F149" s="308" t="s">
         <v>75</v>
       </c>
-      <c r="G149" s="314" t="s">
+      <c r="G149" s="308" t="s">
         <v>76</v>
       </c>
-      <c r="H149" s="314" t="s">
+      <c r="H149" s="308" t="s">
         <v>77</v>
       </c>
-      <c r="I149" s="314" t="s">
+      <c r="I149" s="308" t="s">
         <v>78</v>
       </c>
-      <c r="J149" s="314" t="s">
+      <c r="J149" s="308" t="s">
         <v>79</v>
       </c>
-      <c r="K149" s="289" t="s">
+      <c r="K149" s="312" t="s">
         <v>80</v>
       </c>
-      <c r="L149" s="314" t="s">
+      <c r="L149" s="308" t="s">
         <v>81</v>
       </c>
-      <c r="M149" s="314" t="s">
+      <c r="M149" s="308" t="s">
         <v>82</v>
       </c>
-      <c r="N149" s="314" t="s">
+      <c r="N149" s="308" t="s">
         <v>83</v>
       </c>
-      <c r="O149" s="314" t="s">
+      <c r="O149" s="308" t="s">
         <v>84</v>
       </c>
-      <c r="P149" s="314" t="s">
+      <c r="P149" s="308" t="s">
         <v>85</v>
       </c>
-      <c r="Q149" s="314" t="s">
+      <c r="Q149" s="308" t="s">
         <v>86</v>
       </c>
-      <c r="R149" s="332" t="s">
+      <c r="R149" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="S149" s="314" t="s">
+      <c r="S149" s="308" t="s">
         <v>88</v>
       </c>
-      <c r="T149" s="314" t="s">
+      <c r="T149" s="308" t="s">
         <v>89</v>
       </c>
-      <c r="U149" s="314" t="s">
+      <c r="U149" s="308" t="s">
         <v>90</v>
       </c>
-      <c r="V149" s="314" t="s">
+      <c r="V149" s="308" t="s">
         <v>91</v>
       </c>
-      <c r="W149" s="314" t="s">
+      <c r="W149" s="308" t="s">
         <v>92</v>
       </c>
-      <c r="X149" s="314" t="s">
+      <c r="X149" s="308" t="s">
         <v>93</v>
       </c>
       <c r="Y149" s="25"/>
@@ -29478,29 +29441,29 @@
       <c r="AN149" s="89"/>
     </row>
     <row r="150" spans="1:40" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="321"/>
-      <c r="C150" s="313"/>
-      <c r="D150" s="316"/>
-      <c r="E150" s="313"/>
-      <c r="F150" s="313"/>
-      <c r="G150" s="313"/>
-      <c r="H150" s="313"/>
-      <c r="I150" s="313"/>
-      <c r="J150" s="313"/>
-      <c r="K150" s="331"/>
-      <c r="L150" s="313"/>
-      <c r="M150" s="313"/>
-      <c r="N150" s="313"/>
-      <c r="O150" s="313"/>
-      <c r="P150" s="313"/>
-      <c r="Q150" s="313"/>
-      <c r="R150" s="331"/>
-      <c r="S150" s="313"/>
-      <c r="T150" s="313"/>
-      <c r="U150" s="313"/>
-      <c r="V150" s="313"/>
-      <c r="W150" s="313"/>
-      <c r="X150" s="313"/>
+      <c r="B150" s="307"/>
+      <c r="C150" s="309"/>
+      <c r="D150" s="311"/>
+      <c r="E150" s="309"/>
+      <c r="F150" s="309"/>
+      <c r="G150" s="309"/>
+      <c r="H150" s="309"/>
+      <c r="I150" s="309"/>
+      <c r="J150" s="309"/>
+      <c r="K150" s="313"/>
+      <c r="L150" s="309"/>
+      <c r="M150" s="309"/>
+      <c r="N150" s="309"/>
+      <c r="O150" s="309"/>
+      <c r="P150" s="309"/>
+      <c r="Q150" s="309"/>
+      <c r="R150" s="313"/>
+      <c r="S150" s="309"/>
+      <c r="T150" s="309"/>
+      <c r="U150" s="309"/>
+      <c r="V150" s="309"/>
+      <c r="W150" s="309"/>
+      <c r="X150" s="309"/>
       <c r="AA150" s="25"/>
       <c r="AB150" s="25"/>
       <c r="AC150" s="99"/>
@@ -29899,6 +29862,152 @@
     </row>
   </sheetData>
   <mergeCells count="170">
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="AF65:AH65"/>
+    <mergeCell ref="AI65:AK65"/>
+    <mergeCell ref="C58:AO59"/>
+    <mergeCell ref="Z55:AB57"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AL65:AN65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="T66:V66"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="AC66:AE66"/>
+    <mergeCell ref="AF66:AH66"/>
+    <mergeCell ref="AI66:AK66"/>
+    <mergeCell ref="AL66:AN66"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="A64:AN64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="AI17:AK17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A15:AN15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="AI16:AK16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A101:X101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="O102:O103"/>
+    <mergeCell ref="P102:P103"/>
+    <mergeCell ref="V102:V103"/>
+    <mergeCell ref="W102:W103"/>
+    <mergeCell ref="X102:X103"/>
+    <mergeCell ref="Q102:Q103"/>
+    <mergeCell ref="R102:R103"/>
+    <mergeCell ref="S102:S103"/>
+    <mergeCell ref="T102:T103"/>
+    <mergeCell ref="U102:U103"/>
+    <mergeCell ref="A112:AN112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="T113:V113"/>
+    <mergeCell ref="W113:Y113"/>
+    <mergeCell ref="Z113:AB113"/>
+    <mergeCell ref="AC113:AE113"/>
+    <mergeCell ref="AL114:AN114"/>
+    <mergeCell ref="R149:R150"/>
+    <mergeCell ref="S149:S150"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="AF113:AH113"/>
+    <mergeCell ref="AI113:AK113"/>
+    <mergeCell ref="AL113:AN113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="Q114:S114"/>
+    <mergeCell ref="T114:V114"/>
+    <mergeCell ref="W114:Y114"/>
+    <mergeCell ref="Z114:AB114"/>
+    <mergeCell ref="AC114:AE114"/>
+    <mergeCell ref="AF114:AH114"/>
+    <mergeCell ref="AI114:AK114"/>
     <mergeCell ref="F6:I7"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="A148:X148"/>
@@ -29923,152 +30032,6 @@
     <mergeCell ref="W149:W150"/>
     <mergeCell ref="X149:X150"/>
     <mergeCell ref="Q149:Q150"/>
-    <mergeCell ref="R149:R150"/>
-    <mergeCell ref="S149:S150"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="AF113:AH113"/>
-    <mergeCell ref="AI113:AK113"/>
-    <mergeCell ref="AL113:AN113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="Q114:S114"/>
-    <mergeCell ref="T114:V114"/>
-    <mergeCell ref="W114:Y114"/>
-    <mergeCell ref="Z114:AB114"/>
-    <mergeCell ref="AC114:AE114"/>
-    <mergeCell ref="AF114:AH114"/>
-    <mergeCell ref="AI114:AK114"/>
-    <mergeCell ref="A112:AN112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="N113:P113"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="T113:V113"/>
-    <mergeCell ref="W113:Y113"/>
-    <mergeCell ref="Z113:AB113"/>
-    <mergeCell ref="AC113:AE113"/>
-    <mergeCell ref="AL114:AN114"/>
-    <mergeCell ref="A101:X101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="O102:O103"/>
-    <mergeCell ref="P102:P103"/>
-    <mergeCell ref="V102:V103"/>
-    <mergeCell ref="W102:W103"/>
-    <mergeCell ref="X102:X103"/>
-    <mergeCell ref="Q102:Q103"/>
-    <mergeCell ref="R102:R103"/>
-    <mergeCell ref="S102:S103"/>
-    <mergeCell ref="T102:T103"/>
-    <mergeCell ref="U102:U103"/>
-    <mergeCell ref="AI17:AK17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A15:AN15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="AI16:AK16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="T53:T54"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="AF65:AH65"/>
-    <mergeCell ref="AI65:AK65"/>
-    <mergeCell ref="C58:AO59"/>
-    <mergeCell ref="Z55:AB57"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="AL65:AN65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="T66:V66"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="AC66:AE66"/>
-    <mergeCell ref="AF66:AH66"/>
-    <mergeCell ref="AI66:AK66"/>
-    <mergeCell ref="AL66:AN66"/>
-    <mergeCell ref="A64:AN64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30077,11 +30040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -30127,11 +30090,11 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="303" t="s">
+      <c r="B7" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="304"/>
-      <c r="D7" s="306"/>
+      <c r="C7" s="328"/>
+      <c r="D7" s="330"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="173">
@@ -30174,12 +30137,12 @@
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="333" t="s">
+      <c r="B15" s="342" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="334"/>
-      <c r="D15" s="334"/>
-      <c r="E15" s="335"/>
+      <c r="C15" s="343"/>
+      <c r="D15" s="343"/>
+      <c r="E15" s="344"/>
     </row>
     <row r="16" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="167" t="s">
@@ -30192,7 +30155,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="169" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -30275,12 +30238,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30323,16 +30286,16 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="303" t="s">
+      <c r="C3" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="304"/>
-      <c r="E3" s="306"/>
-      <c r="G3" s="303" t="s">
+      <c r="D3" s="328"/>
+      <c r="E3" s="330"/>
+      <c r="G3" s="327" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="304"/>
-      <c r="I3" s="306"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="330"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="216">
@@ -30464,19 +30427,19 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="336" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="337"/>
-      <c r="C13" s="337"/>
-      <c r="D13" s="337"/>
-      <c r="E13" s="337"/>
-      <c r="F13" s="337"/>
-      <c r="G13" s="337"/>
-      <c r="H13" s="337"/>
-      <c r="I13" s="337"/>
-      <c r="J13" s="337"/>
-      <c r="K13" s="338"/>
+      <c r="A13" s="348" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="349"/>
+      <c r="C13" s="349"/>
+      <c r="D13" s="349"/>
+      <c r="E13" s="349"/>
+      <c r="F13" s="349"/>
+      <c r="G13" s="349"/>
+      <c r="H13" s="349"/>
+      <c r="I13" s="349"/>
+      <c r="J13" s="349"/>
+      <c r="K13" s="350"/>
       <c r="L13" s="218"/>
       <c r="M13" s="218"/>
       <c r="N13" s="218"/>
@@ -30486,18 +30449,18 @@
       <c r="A14" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="339" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="340"/>
-      <c r="D14" s="340"/>
-      <c r="E14" s="340"/>
-      <c r="F14" s="340"/>
-      <c r="G14" s="340"/>
-      <c r="H14" s="340"/>
-      <c r="I14" s="340"/>
-      <c r="J14" s="340"/>
-      <c r="K14" s="340"/>
+      <c r="B14" s="351" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="352"/>
+      <c r="D14" s="352"/>
+      <c r="E14" s="352"/>
+      <c r="F14" s="352"/>
+      <c r="G14" s="352"/>
+      <c r="H14" s="352"/>
+      <c r="I14" s="352"/>
+      <c r="J14" s="352"/>
+      <c r="K14" s="352"/>
       <c r="L14" s="218"/>
       <c r="M14" s="218"/>
       <c r="N14" s="218"/>
@@ -30505,20 +30468,20 @@
     </row>
     <row r="15" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A15" s="219" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="353" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="341" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="342"/>
-      <c r="D15" s="342"/>
-      <c r="E15" s="342"/>
-      <c r="F15" s="342"/>
-      <c r="G15" s="342"/>
-      <c r="H15" s="342"/>
-      <c r="I15" s="342"/>
-      <c r="J15" s="342"/>
-      <c r="K15" s="343"/>
+      <c r="C15" s="354"/>
+      <c r="D15" s="354"/>
+      <c r="E15" s="354"/>
+      <c r="F15" s="354"/>
+      <c r="G15" s="354"/>
+      <c r="H15" s="354"/>
+      <c r="I15" s="354"/>
+      <c r="J15" s="354"/>
+      <c r="K15" s="355"/>
       <c r="L15" s="218"/>
       <c r="M15" s="218"/>
       <c r="N15" s="218"/>
@@ -30528,18 +30491,18 @@
       <c r="A16" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="339" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="340"/>
-      <c r="D16" s="340"/>
-      <c r="E16" s="340"/>
-      <c r="F16" s="340"/>
-      <c r="G16" s="340"/>
-      <c r="H16" s="340"/>
-      <c r="I16" s="340"/>
-      <c r="J16" s="340"/>
-      <c r="K16" s="340"/>
+      <c r="B16" s="351" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="352"/>
+      <c r="D16" s="352"/>
+      <c r="E16" s="352"/>
+      <c r="F16" s="352"/>
+      <c r="G16" s="352"/>
+      <c r="H16" s="352"/>
+      <c r="I16" s="352"/>
+      <c r="J16" s="352"/>
+      <c r="K16" s="352"/>
       <c r="L16" s="218"/>
       <c r="M16" s="218"/>
       <c r="N16" s="218"/>
@@ -30547,20 +30510,20 @@
     </row>
     <row r="17" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A17" s="219" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="344" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="342"/>
-      <c r="D17" s="342"/>
-      <c r="E17" s="342"/>
-      <c r="F17" s="342"/>
-      <c r="G17" s="342"/>
-      <c r="H17" s="342"/>
-      <c r="I17" s="342"/>
-      <c r="J17" s="342"/>
-      <c r="K17" s="343"/>
+        <v>104</v>
+      </c>
+      <c r="B17" s="356" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="354"/>
+      <c r="D17" s="354"/>
+      <c r="E17" s="354"/>
+      <c r="F17" s="354"/>
+      <c r="G17" s="354"/>
+      <c r="H17" s="354"/>
+      <c r="I17" s="354"/>
+      <c r="J17" s="354"/>
+      <c r="K17" s="355"/>
       <c r="L17" s="218"/>
       <c r="M17" s="218"/>
       <c r="N17" s="218"/>
@@ -30731,7 +30694,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="220" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="221">
         <v>20000</v>
@@ -30827,7 +30790,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="220" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="221">
         <v>1400</v>
@@ -30875,7 +30838,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="220" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="225">
         <v>0</v>
@@ -31216,7 +31179,7 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="220" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="221">
         <f t="shared" ref="B37:C41" si="3">B24*1.1</f>
@@ -31326,7 +31289,7 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="220" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" s="221">
         <f t="shared" si="3"/>
@@ -31381,7 +31344,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="220" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="221">
         <f t="shared" si="3"/>
@@ -31634,7 +31597,7 @@
     </row>
     <row r="48" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="345" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B48" s="346"/>
       <c r="C48" s="346"/>
@@ -31753,7 +31716,7 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="220" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" s="221">
         <f t="shared" ref="B51:D55" si="15">J37*1.05</f>
@@ -31863,7 +31826,7 @@
     </row>
     <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="220" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" s="221">
         <f t="shared" si="15"/>
@@ -31918,7 +31881,7 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="220" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" s="221">
         <f t="shared" si="15"/>
@@ -32166,10 +32129,10 @@
     <mergeCell ref="B17:K17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B16" r:id="rId3"/>
-    <hyperlink ref="B17" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -32178,14 +32141,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32259,27 +32222,27 @@
     </row>
     <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="348" t="s">
+      <c r="B4" s="360" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="349"/>
-      <c r="D4" s="350"/>
+      <c r="C4" s="361"/>
+      <c r="D4" s="362"/>
       <c r="E4" s="14"/>
-      <c r="H4" s="348" t="s">
+      <c r="H4" s="360" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="349"/>
-      <c r="J4" s="350"/>
+      <c r="I4" s="361"/>
+      <c r="J4" s="362"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5" s="76">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C5" s="77">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D5" s="78">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E5" s="42"/>
       <c r="H5" s="76">
@@ -32307,16 +32270,16 @@
       </c>
       <c r="E6" s="46"/>
       <c r="H6" s="21">
-        <f>O26</f>
-        <v>0</v>
+        <f>N23</f>
+        <v>230628.36</v>
       </c>
       <c r="I6" s="22">
-        <f>O37</f>
-        <v>0</v>
+        <f>N32</f>
+        <v>248350.20000000004</v>
       </c>
       <c r="J6" s="23">
-        <f>O49</f>
-        <v>0</v>
+        <f>N40</f>
+        <v>270133.44</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32336,71 +32299,71 @@
     </row>
     <row r="8" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:32" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="351" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="352"/>
-      <c r="C13" s="352"/>
-      <c r="D13" s="352"/>
-      <c r="E13" s="352"/>
-      <c r="F13" s="352"/>
-      <c r="G13" s="352"/>
-      <c r="H13" s="352"/>
-      <c r="I13" s="352"/>
-      <c r="J13" s="352"/>
-      <c r="K13" s="353"/>
+      <c r="A13" s="363" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="364"/>
+      <c r="C13" s="364"/>
+      <c r="D13" s="364"/>
+      <c r="E13" s="364"/>
+      <c r="F13" s="364"/>
+      <c r="G13" s="364"/>
+      <c r="H13" s="364"/>
+      <c r="I13" s="364"/>
+      <c r="J13" s="364"/>
+      <c r="K13" s="365"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="207" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="354" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="355"/>
-      <c r="D14" s="355"/>
-      <c r="E14" s="355"/>
-      <c r="F14" s="355"/>
-      <c r="G14" s="355"/>
-      <c r="H14" s="355"/>
-      <c r="I14" s="355"/>
-      <c r="J14" s="355"/>
-      <c r="K14" s="355"/>
+        <v>111</v>
+      </c>
+      <c r="B14" s="366" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="367"/>
+      <c r="D14" s="367"/>
+      <c r="E14" s="367"/>
+      <c r="F14" s="367"/>
+      <c r="G14" s="367"/>
+      <c r="H14" s="367"/>
+      <c r="I14" s="367"/>
+      <c r="J14" s="367"/>
+      <c r="K14" s="367"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="207" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="368" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="356" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="357"/>
-      <c r="D15" s="357"/>
-      <c r="E15" s="357"/>
-      <c r="F15" s="357"/>
-      <c r="G15" s="357"/>
-      <c r="H15" s="357"/>
-      <c r="I15" s="357"/>
-      <c r="J15" s="357"/>
-      <c r="K15" s="358"/>
+      <c r="C15" s="369"/>
+      <c r="D15" s="369"/>
+      <c r="E15" s="369"/>
+      <c r="F15" s="369"/>
+      <c r="G15" s="369"/>
+      <c r="H15" s="369"/>
+      <c r="I15" s="369"/>
+      <c r="J15" s="369"/>
+      <c r="K15" s="370"/>
     </row>
     <row r="19" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="359" t="s">
+      <c r="A19" s="357" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="360"/>
-      <c r="C19" s="360"/>
-      <c r="D19" s="360"/>
-      <c r="E19" s="360"/>
-      <c r="F19" s="360"/>
-      <c r="G19" s="360"/>
-      <c r="H19" s="360"/>
-      <c r="I19" s="360"/>
-      <c r="J19" s="360"/>
-      <c r="K19" s="360"/>
-      <c r="L19" s="360"/>
-      <c r="M19" s="360"/>
-      <c r="N19" s="361"/>
+      <c r="B19" s="358"/>
+      <c r="C19" s="358"/>
+      <c r="D19" s="358"/>
+      <c r="E19" s="358"/>
+      <c r="F19" s="358"/>
+      <c r="G19" s="358"/>
+      <c r="H19" s="358"/>
+      <c r="I19" s="358"/>
+      <c r="J19" s="358"/>
+      <c r="K19" s="358"/>
+      <c r="L19" s="358"/>
+      <c r="M19" s="358"/>
+      <c r="N19" s="359"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="208" t="s">
@@ -32448,7 +32411,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="208" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="212">
         <v>15200</v>
@@ -32490,7 +32453,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="208" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="212">
         <v>4019.03</v>
@@ -32588,22 +32551,22 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="359" t="s">
+      <c r="A28" s="357" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="360"/>
-      <c r="C28" s="360"/>
-      <c r="D28" s="360"/>
-      <c r="E28" s="360"/>
-      <c r="F28" s="360"/>
-      <c r="G28" s="360"/>
-      <c r="H28" s="360"/>
-      <c r="I28" s="360"/>
-      <c r="J28" s="360"/>
-      <c r="K28" s="360"/>
-      <c r="L28" s="360"/>
-      <c r="M28" s="360"/>
-      <c r="N28" s="361"/>
+      <c r="B28" s="358"/>
+      <c r="C28" s="358"/>
+      <c r="D28" s="358"/>
+      <c r="E28" s="358"/>
+      <c r="F28" s="358"/>
+      <c r="G28" s="358"/>
+      <c r="H28" s="358"/>
+      <c r="I28" s="358"/>
+      <c r="J28" s="358"/>
+      <c r="K28" s="358"/>
+      <c r="L28" s="358"/>
+      <c r="M28" s="358"/>
+      <c r="N28" s="359"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="208" t="s">
@@ -32651,7 +32614,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="208" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" s="212">
         <f>B21*1.15</f>
@@ -32705,7 +32668,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="208" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" s="212">
         <v>3215.85</v>
@@ -32803,22 +32766,22 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="359" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="360"/>
-      <c r="C36" s="360"/>
-      <c r="D36" s="360"/>
-      <c r="E36" s="360"/>
-      <c r="F36" s="360"/>
-      <c r="G36" s="360"/>
-      <c r="H36" s="360"/>
-      <c r="I36" s="360"/>
-      <c r="J36" s="360"/>
-      <c r="K36" s="360"/>
-      <c r="L36" s="360"/>
-      <c r="M36" s="360"/>
-      <c r="N36" s="361"/>
+      <c r="A36" s="357" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="358"/>
+      <c r="C36" s="358"/>
+      <c r="D36" s="358"/>
+      <c r="E36" s="358"/>
+      <c r="F36" s="358"/>
+      <c r="G36" s="358"/>
+      <c r="H36" s="358"/>
+      <c r="I36" s="358"/>
+      <c r="J36" s="358"/>
+      <c r="K36" s="358"/>
+      <c r="L36" s="358"/>
+      <c r="M36" s="358"/>
+      <c r="N36" s="359"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="208" t="s">
@@ -32866,7 +32829,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="208" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="212">
         <f>B30*1.15</f>
@@ -32920,7 +32883,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="208" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" s="212">
         <v>2409.12</v>
@@ -33029,8 +32992,8 @@
     <mergeCell ref="B15:K15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" location="/addService"/>
-    <hyperlink ref="B15" r:id="rId2" location="commercial?billing=yearly"/>
+    <hyperlink ref="B14" r:id="rId1" location="/addService" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" location="commercial?billing=yearly" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
+++ b/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\UAI\TFI\CareMonitor\CareMonitor\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B24CE51-0AF3-4503-A472-B3D311C49E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF67013-52C6-43A3-9079-B55741D7EE51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -30528,7 +30528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B025ECC7-A160-4630-8E0F-D9F07E181A4B}">
   <dimension ref="A1:AI97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -45948,9 +45948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
+++ b/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\UAI\TFI\CareMonitor\CareMonitor\SAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\GitHub\CareMonitor-NicolasRubino\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988D439-90E4-4FA4-9751-0564F9A32F27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
   <externalReferences>
     <externalReference r:id="rId18"/>
   </externalReferences>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="271">
   <si>
     <t>TRABAJO FINAL DE INGENIERÍA</t>
   </si>
@@ -1071,29 +1070,52 @@
   <si>
     <t>Plan de Contingencia</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripcion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Para mitigar la desviacion que sucede en el escenario 3, NO se incorporará ningun recurso humano en el 2022, por lo que tampoco se haran las inversiones previstas para el 2022. Este movimiento permitira tener una TIR del 59%</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="17">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="General_)"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="170" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
-    <numFmt numFmtId="172" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="[$$-2C0A]\ #,##0.00"/>
-    <numFmt numFmtId="174" formatCode="[$$-2C0A]\ #,##0"/>
-    <numFmt numFmtId="175" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="176" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="171" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="[$$-2C0A]\ #,##0.00"/>
+    <numFmt numFmtId="173" formatCode="[$$-2C0A]\ #,##0"/>
+    <numFmt numFmtId="174" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="175" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
@@ -2934,16 +2956,16 @@
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2954,13 +2976,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="16" borderId="110" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="764">
@@ -2986,29 +3008,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3018,7 +3040,7 @@
     <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3030,29 +3052,29 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="11" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="11" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3064,7 +3086,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3083,13 +3105,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3098,7 +3120,7 @@
     <xf numFmtId="9" fontId="8" fillId="2" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3119,13 +3141,13 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="76" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="76" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="9" borderId="78" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="78" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3149,10 +3171,10 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3164,8 +3186,8 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3175,26 +3197,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="5" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="3" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3222,7 +3244,7 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3231,96 +3253,96 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="25" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="90" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="90" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="5" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="5" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="6" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="6" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3329,13 +3351,13 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="46" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="46" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="46" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3344,8 +3366,8 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3353,16 +3375,16 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="6" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="6" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3371,37 +3393,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="11" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="11" fillId="4" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3410,7 +3432,7 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3419,19 +3441,19 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="5" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="5" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="5" borderId="56" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="5" borderId="56" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3456,13 +3478,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -3484,16 +3506,16 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3503,26 +3525,26 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3535,13 +3557,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="11" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="26" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="26" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3553,13 +3575,13 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="92" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="92" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3586,19 +3608,19 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3607,63 +3629,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="99" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="99" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="93" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="93" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="100" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="100" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="45" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="48" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="49" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="49" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="50" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3691,10 +3713,10 @@
     <xf numFmtId="9" fontId="11" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3704,61 +3726,61 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="52" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="98" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="98" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="97" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="97" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="54" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="54" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="55" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="55" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="91" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="91" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3766,42 +3788,42 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3810,13 +3832,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -3826,16 +3848,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3844,10 +3866,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3883,40 +3905,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3941,14 +3963,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3960,21 +3982,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3986,58 +4008,58 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="10" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="10" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4053,37 +4075,37 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="105" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="105" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4101,10 +4123,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4207,19 +4229,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4237,6 +4259,89 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="100" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="18" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="18" borderId="111" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4358,28 +4463,28 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4406,16 +4511,16 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4439,19 +4544,19 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4493,7 +4598,7 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4502,10 +4607,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4538,10 +4643,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4895,6 +5000,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4913,95 +5024,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="100" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="18" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="18" borderId="111" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5017,32 +5039,32 @@
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Celda de comprobación" xfId="26" builtinId="23"/>
-    <cellStyle name="Euro" xfId="11" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Euro" xfId="11"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Hipervínculo 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Hipervínculo 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Hipervínculo 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Hipervínculo 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Hipervínculo 2" xfId="14"/>
+    <cellStyle name="Hipervínculo 3" xfId="17"/>
+    <cellStyle name="Hipervínculo 4" xfId="16"/>
+    <cellStyle name="Hipervínculo 5" xfId="20"/>
+    <cellStyle name="Hyperlink 2" xfId="12"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Moneda" xfId="6" builtinId="4"/>
-    <cellStyle name="Moneda 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Moneda 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Moneda 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Moneda 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Moneda 4" xfId="22" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Moneda 5" xfId="8" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Moneda 2" xfId="10"/>
+    <cellStyle name="Moneda 2 2" xfId="23"/>
+    <cellStyle name="Moneda 3" xfId="19"/>
+    <cellStyle name="Moneda 3 2" xfId="25"/>
+    <cellStyle name="Moneda 4" xfId="22"/>
+    <cellStyle name="Moneda 5" xfId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 2 14" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normal 2 15" xfId="5" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 2" xfId="13"/>
+    <cellStyle name="Normal 2 14" xfId="4"/>
+    <cellStyle name="Normal 2 15" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="18"/>
+    <cellStyle name="Normal 4" xfId="9"/>
+    <cellStyle name="Normal 5" xfId="21"/>
+    <cellStyle name="Normal 6" xfId="7"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Porcentaje 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Porcentaje 2" xfId="15"/>
+    <cellStyle name="Porcentaje 3" xfId="24"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -5069,7 +5091,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -5130,6 +5152,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5155,7 +5178,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5461,7 +5484,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="91798656"/>
@@ -5506,7 +5529,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="25175760"/>
@@ -5523,6 +5546,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5548,7 +5572,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5578,7 +5602,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5637,7 +5661,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5655,7 +5679,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Ingresos 2022 </c:v>
+                  <c:v>Ingresos 2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6022,7 +6046,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -6070,7 +6094,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6114,7 +6138,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -6162,7 +6186,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6212,7 +6236,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6254,7 +6278,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6277,13 +6301,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6334,6 +6358,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6341,7 +6366,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6365,7 +6389,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6441,7 +6465,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6807,7 +6831,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177979744"/>
@@ -6866,7 +6890,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1022353200"/>
@@ -6908,7 +6932,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6938,7 +6962,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7014,7 +7038,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7215,7 +7239,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1173350528"/>
@@ -7288,7 +7312,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1025409232"/>
@@ -7330,7 +7354,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7360,7 +7384,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7436,7 +7460,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8399,7 +8423,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -8458,7 +8482,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -8500,7 +8524,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8530,7 +8554,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8611,7 +8635,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8640,7 +8664,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8693,7 +8717,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8784,7 +8808,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8846,7 +8870,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8937,7 +8961,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8990,7 +9014,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9126,7 +9150,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -9191,12 +9215,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9204,7 +9229,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -9244,7 +9268,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9320,7 +9344,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10283,7 +10307,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -10342,7 +10366,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -10384,7 +10408,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10414,7 +10438,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10503,7 +10527,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10532,7 +10556,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10585,7 +10609,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10676,7 +10700,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10738,7 +10762,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10829,7 +10853,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10882,7 +10906,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -11018,7 +11042,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -11083,12 +11107,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11096,7 +11121,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -11136,7 +11160,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11212,7 +11236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12175,7 +12199,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -12234,7 +12258,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -12276,7 +12300,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12306,7 +12330,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12395,7 +12419,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12424,7 +12448,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12477,7 +12501,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12568,7 +12592,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12630,7 +12654,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12721,7 +12745,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12774,7 +12798,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12910,7 +12934,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -12975,12 +12999,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -12988,7 +13013,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -13028,7 +13052,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13087,7 +13111,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13105,7 +13129,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Ingresos 2020 </c:v>
+                  <c:v>Ingresos 2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13217,7 +13241,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13266,7 +13290,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -13308,7 +13332,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13347,7 +13371,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -13368,13 +13392,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13425,6 +13449,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -13432,7 +13457,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13456,7 +13480,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13515,7 +13539,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13533,7 +13557,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Ingresos 2021 </c:v>
+                  <c:v>Ingresos 2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13900,7 +13924,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13942,7 +13966,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13984,7 +14008,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14026,7 +14050,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14068,7 +14092,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14108,7 +14132,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -14131,13 +14155,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14188,6 +14212,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -14195,7 +14220,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14219,7 +14243,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23298,7 +23322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="C9:C36"/>
   <sheetViews>
@@ -23350,7 +23374,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" display="mailto:cristiangentile1@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C36" r:id="rId1" display="mailto:cristiangentile1@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23359,7 +23383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z68"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -23434,18 +23458,18 @@
     </row>
     <row r="3" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="620" t="s">
+      <c r="B3" s="653" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="621"/>
-      <c r="D3" s="622"/>
+      <c r="C3" s="654"/>
+      <c r="D3" s="655"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="657" t="s">
+      <c r="F3" s="690" t="s">
         <v>160</v>
       </c>
-      <c r="G3" s="658"/>
-      <c r="H3" s="658"/>
-      <c r="I3" s="659"/>
+      <c r="G3" s="691"/>
+      <c r="H3" s="691"/>
+      <c r="I3" s="692"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -23650,12 +23674,12 @@
     </row>
     <row r="9" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="660" t="s">
+      <c r="B9" s="693" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="661"/>
-      <c r="D9" s="661"/>
-      <c r="E9" s="661"/>
+      <c r="C9" s="694"/>
+      <c r="D9" s="694"/>
+      <c r="E9" s="694"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -24099,11 +24123,11 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="662" t="s">
+      <c r="B21" s="695" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="663"/>
-      <c r="D21" s="664"/>
+      <c r="C21" s="696"/>
+      <c r="D21" s="697"/>
       <c r="E21" s="332">
         <f>SUM(E11:E20)</f>
         <v>1274116</v>
@@ -24160,12 +24184,12 @@
     </row>
     <row r="23" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="620" t="s">
+      <c r="B23" s="653" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="621"/>
-      <c r="D23" s="621"/>
-      <c r="E23" s="622"/>
+      <c r="C23" s="654"/>
+      <c r="D23" s="654"/>
+      <c r="E23" s="655"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -24350,8 +24374,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="576"/>
-      <c r="G28" s="576"/>
+      <c r="F28" s="609"/>
+      <c r="G28" s="609"/>
       <c r="H28" s="375"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -24387,8 +24411,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="665"/>
-      <c r="G29" s="665"/>
+      <c r="F29" s="698"/>
+      <c r="G29" s="698"/>
       <c r="H29" s="376"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -24424,8 +24448,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="576"/>
-      <c r="G30" s="576"/>
+      <c r="F30" s="609"/>
+      <c r="G30" s="609"/>
       <c r="H30" s="375"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -24461,8 +24485,8 @@
         <f t="shared" si="1"/>
         <v>23900</v>
       </c>
-      <c r="F31" s="665"/>
-      <c r="G31" s="665"/>
+      <c r="F31" s="698"/>
+      <c r="G31" s="698"/>
       <c r="H31" s="376"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -24498,8 +24522,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="665"/>
-      <c r="G32" s="665"/>
+      <c r="F32" s="698"/>
+      <c r="G32" s="698"/>
       <c r="H32" s="376"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -24535,8 +24559,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="665"/>
-      <c r="G33" s="665"/>
+      <c r="F33" s="698"/>
+      <c r="G33" s="698"/>
       <c r="H33" s="376"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -24559,11 +24583,11 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="662" t="s">
+      <c r="B34" s="695" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="663"/>
-      <c r="D34" s="664"/>
+      <c r="C34" s="696"/>
+      <c r="D34" s="697"/>
       <c r="E34" s="332">
         <f>SUM(E25:E33)</f>
         <v>39198</v>
@@ -24620,12 +24644,12 @@
     </row>
     <row r="36" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="620" t="s">
+      <c r="B36" s="653" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="621"/>
-      <c r="D36" s="621"/>
-      <c r="E36" s="622"/>
+      <c r="C36" s="654"/>
+      <c r="D36" s="654"/>
+      <c r="E36" s="655"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -25019,11 +25043,11 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="662" t="s">
+      <c r="B47" s="695" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="663"/>
-      <c r="D47" s="664"/>
+      <c r="C47" s="696"/>
+      <c r="D47" s="697"/>
       <c r="E47" s="332">
         <f>SUM(E38:E46)</f>
         <v>247816</v>
@@ -25080,12 +25104,12 @@
     </row>
     <row r="49" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
-      <c r="B49" s="620" t="s">
+      <c r="B49" s="653" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="621"/>
-      <c r="D49" s="621"/>
-      <c r="E49" s="622"/>
+      <c r="C49" s="654"/>
+      <c r="D49" s="654"/>
+      <c r="E49" s="655"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -25479,11 +25503,11 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="662" t="s">
+      <c r="B60" s="695" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="663"/>
-      <c r="D60" s="664"/>
+      <c r="C60" s="696"/>
+      <c r="D60" s="697"/>
       <c r="E60" s="334">
         <f>SUM(E51:E59)</f>
         <v>1245379</v>
@@ -25754,14 +25778,14 @@
     <mergeCell ref="B23:E23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" location="searchVariation=62371957696&amp;position=1&amp;type=item&amp;tracking_id=c1baf121-2aa6-4883-89e1-db40e4fe7d07" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="F12" r:id="rId2" location="position=3&amp;type=item&amp;tracking_id=7d967ea6-7b08-4e10-9ee9-7a21d479e90e" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="F13" r:id="rId3" location="searchVariation=MLA15188002&amp;position=2&amp;type=product&amp;tracking_id=25817417-8ebf-4e85-99ba-e1068ce3b665" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="F17" r:id="rId4" location="position=27&amp;type=item&amp;tracking_id=be18e719-23de-4f4d-b152-972266abc3c5" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="F18" r:id="rId5" location="position=9&amp;type=item&amp;tracking_id=b86ee509-acb1-4687-9267-b5a79840b449" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
-    <hyperlink ref="F16" r:id="rId6" location="searchVariation=41945510546&amp;position=10&amp;type=item&amp;tracking_id=c8150eb0-81cf-41f2-8b44-92b72af9b976" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="F15" r:id="rId7" location="position=1&amp;type=item&amp;tracking_id=0f693c9d-e24f-4bc4-8c47-6db53224454d" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
-    <hyperlink ref="F19" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
+    <hyperlink ref="F11" r:id="rId1" location="searchVariation=62371957696&amp;position=1&amp;type=item&amp;tracking_id=c1baf121-2aa6-4883-89e1-db40e4fe7d07"/>
+    <hyperlink ref="F12" r:id="rId2" location="position=3&amp;type=item&amp;tracking_id=7d967ea6-7b08-4e10-9ee9-7a21d479e90e"/>
+    <hyperlink ref="F13" r:id="rId3" location="searchVariation=MLA15188002&amp;position=2&amp;type=product&amp;tracking_id=25817417-8ebf-4e85-99ba-e1068ce3b665"/>
+    <hyperlink ref="F17" r:id="rId4" location="position=27&amp;type=item&amp;tracking_id=be18e719-23de-4f4d-b152-972266abc3c5"/>
+    <hyperlink ref="F18" r:id="rId5" location="position=9&amp;type=item&amp;tracking_id=b86ee509-acb1-4687-9267-b5a79840b449"/>
+    <hyperlink ref="F16" r:id="rId6" location="searchVariation=41945510546&amp;position=10&amp;type=item&amp;tracking_id=c8150eb0-81cf-41f2-8b44-92b72af9b976"/>
+    <hyperlink ref="F15" r:id="rId7" location="position=1&amp;type=item&amp;tracking_id=0f693c9d-e24f-4bc4-8c47-6db53224454d"/>
+    <hyperlink ref="F19" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
@@ -25770,7 +25794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X194"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0"/>
@@ -25841,17 +25865,17 @@
     </row>
     <row r="3" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="620" t="s">
+      <c r="B3" s="653" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="621"/>
-      <c r="D3" s="622"/>
+      <c r="C3" s="654"/>
+      <c r="D3" s="655"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="657" t="s">
+      <c r="F3" s="690" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="658"/>
-      <c r="H3" s="659"/>
+      <c r="G3" s="691"/>
+      <c r="H3" s="692"/>
       <c r="I3" s="441"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -26014,20 +26038,20 @@
     </row>
     <row r="8" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="678" t="s">
+      <c r="B8" s="711" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="679"/>
-      <c r="D8" s="679"/>
-      <c r="E8" s="679"/>
-      <c r="F8" s="679"/>
-      <c r="G8" s="679"/>
-      <c r="H8" s="679"/>
-      <c r="I8" s="679"/>
-      <c r="J8" s="679"/>
-      <c r="K8" s="679"/>
-      <c r="L8" s="679"/>
-      <c r="M8" s="680"/>
+      <c r="C8" s="712"/>
+      <c r="D8" s="712"/>
+      <c r="E8" s="712"/>
+      <c r="F8" s="712"/>
+      <c r="G8" s="712"/>
+      <c r="H8" s="712"/>
+      <c r="I8" s="712"/>
+      <c r="J8" s="712"/>
+      <c r="K8" s="712"/>
+      <c r="L8" s="712"/>
+      <c r="M8" s="713"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -26042,32 +26066,32 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="681" t="s">
+      <c r="B9" s="714" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="683" t="s">
+      <c r="C9" s="716" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="683" t="s">
+      <c r="D9" s="716" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="685" t="s">
+      <c r="E9" s="718" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="687" t="s">
+      <c r="F9" s="720" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="675" t="s">
+      <c r="G9" s="708" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="676"/>
-      <c r="I9" s="676"/>
-      <c r="J9" s="677"/>
-      <c r="K9" s="689" t="s">
+      <c r="H9" s="709"/>
+      <c r="I9" s="709"/>
+      <c r="J9" s="710"/>
+      <c r="K9" s="722" t="s">
         <v>189</v>
       </c>
-      <c r="L9" s="683"/>
-      <c r="M9" s="690"/>
+      <c r="L9" s="716"/>
+      <c r="M9" s="723"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -26082,11 +26106,11 @@
     </row>
     <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="682"/>
-      <c r="C10" s="684"/>
-      <c r="D10" s="684"/>
-      <c r="E10" s="686"/>
-      <c r="F10" s="688"/>
+      <c r="B10" s="715"/>
+      <c r="C10" s="717"/>
+      <c r="D10" s="717"/>
+      <c r="E10" s="719"/>
+      <c r="F10" s="721"/>
       <c r="G10" s="426" t="s">
         <v>212</v>
       </c>
@@ -26122,7 +26146,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="666" t="s">
+      <c r="B11" s="699" t="s">
         <v>190</v>
       </c>
       <c r="C11" s="359" t="s">
@@ -26176,7 +26200,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="667"/>
+      <c r="B12" s="700"/>
       <c r="C12" s="388" t="s">
         <v>168</v>
       </c>
@@ -26226,7 +26250,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="667"/>
+      <c r="B13" s="700"/>
       <c r="C13" s="388" t="s">
         <v>168</v>
       </c>
@@ -26275,7 +26299,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="667"/>
+      <c r="B14" s="700"/>
       <c r="C14" s="359" t="s">
         <v>171</v>
       </c>
@@ -26327,7 +26351,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="667"/>
+      <c r="B15" s="700"/>
       <c r="C15" s="359" t="s">
         <v>169</v>
       </c>
@@ -26379,7 +26403,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="667"/>
+      <c r="B16" s="700"/>
       <c r="C16" s="359" t="s">
         <v>169</v>
       </c>
@@ -26430,7 +26454,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="667"/>
+      <c r="B17" s="700"/>
       <c r="C17" s="359" t="s">
         <v>179</v>
       </c>
@@ -26482,7 +26506,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="667"/>
+      <c r="B18" s="700"/>
       <c r="C18" s="359" t="s">
         <v>179</v>
       </c>
@@ -26532,7 +26556,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="667"/>
+      <c r="B19" s="700"/>
       <c r="C19" s="359" t="s">
         <v>180</v>
       </c>
@@ -26584,7 +26608,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="667"/>
+      <c r="B20" s="700"/>
       <c r="C20" s="359" t="s">
         <v>182</v>
       </c>
@@ -26636,7 +26660,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="667"/>
+      <c r="B21" s="700"/>
       <c r="C21" s="388" t="s">
         <v>182</v>
       </c>
@@ -26686,7 +26710,7 @@
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="668"/>
+      <c r="B22" s="701"/>
       <c r="C22" s="389" t="s">
         <v>182</v>
       </c>
@@ -26735,7 +26759,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="669" t="s">
+      <c r="B23" s="702" t="s">
         <v>191</v>
       </c>
       <c r="C23" s="263" t="s">
@@ -26789,7 +26813,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="670"/>
+      <c r="B24" s="703"/>
       <c r="C24" s="263" t="s">
         <v>164</v>
       </c>
@@ -26839,7 +26863,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="670"/>
+      <c r="B25" s="703"/>
       <c r="C25" s="263" t="s">
         <v>164</v>
       </c>
@@ -26888,7 +26912,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="670"/>
+      <c r="B26" s="703"/>
       <c r="C26" s="263" t="s">
         <v>175</v>
       </c>
@@ -26940,7 +26964,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="670"/>
+      <c r="B27" s="703"/>
       <c r="C27" s="263" t="s">
         <v>175</v>
       </c>
@@ -26990,7 +27014,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="670"/>
+      <c r="B28" s="703"/>
       <c r="C28" s="263" t="s">
         <v>175</v>
       </c>
@@ -27039,7 +27063,7 @@
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="670"/>
+      <c r="B29" s="703"/>
       <c r="C29" s="263" t="s">
         <v>173</v>
       </c>
@@ -27091,7 +27115,7 @@
     </row>
     <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="671"/>
+      <c r="B30" s="704"/>
       <c r="C30" s="263" t="s">
         <v>173</v>
       </c>
@@ -27142,17 +27166,17 @@
     </row>
     <row r="31" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="672" t="s">
+      <c r="B31" s="705" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="673"/>
-      <c r="D31" s="673"/>
-      <c r="E31" s="673"/>
-      <c r="F31" s="673"/>
-      <c r="G31" s="674"/>
-      <c r="H31" s="674"/>
-      <c r="I31" s="674"/>
-      <c r="J31" s="674"/>
+      <c r="C31" s="706"/>
+      <c r="D31" s="706"/>
+      <c r="E31" s="706"/>
+      <c r="F31" s="706"/>
+      <c r="G31" s="707"/>
+      <c r="H31" s="707"/>
+      <c r="I31" s="707"/>
+      <c r="J31" s="707"/>
       <c r="K31" s="372">
         <f>SUM(K11:K30)</f>
         <v>73911.600000000006</v>
@@ -31438,7 +31462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI97"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -31544,11 +31568,11 @@
       <c r="H3" s="395"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="620" t="s">
+      <c r="K3" s="653" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="621"/>
-      <c r="M3" s="622"/>
+      <c r="L3" s="654"/>
+      <c r="M3" s="655"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -31755,11 +31779,11 @@
       <c r="H8" s="395"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="620" t="s">
+      <c r="K8" s="653" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="621"/>
-      <c r="M8" s="622"/>
+      <c r="L8" s="654"/>
+      <c r="M8" s="655"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -31828,14 +31852,14 @@
     </row>
     <row r="10" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="660" t="s">
+      <c r="B10" s="693" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="661"/>
-      <c r="D10" s="661"/>
-      <c r="E10" s="661"/>
-      <c r="F10" s="661"/>
-      <c r="G10" s="693"/>
+      <c r="C10" s="694"/>
+      <c r="D10" s="694"/>
+      <c r="E10" s="694"/>
+      <c r="F10" s="694"/>
+      <c r="G10" s="726"/>
       <c r="H10" s="242"/>
       <c r="I10" s="1"/>
       <c r="J10" s="396" t="s">
@@ -31878,10 +31902,10 @@
     </row>
     <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="694" t="s">
+      <c r="B11" s="727" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="695"/>
+      <c r="C11" s="728"/>
       <c r="D11" s="399" t="s">
         <v>197</v>
       </c>
@@ -31936,10 +31960,10 @@
     </row>
     <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="696" t="s">
+      <c r="B12" s="729" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="697"/>
+      <c r="C12" s="730"/>
       <c r="D12" s="442">
         <v>0</v>
       </c>
@@ -31997,7 +32021,7 @@
     </row>
     <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="691" t="s">
+      <c r="B13" s="724" t="s">
         <v>198</v>
       </c>
       <c r="C13" s="404" t="s">
@@ -32049,7 +32073,7 @@
     </row>
     <row r="14" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="691"/>
+      <c r="B14" s="724"/>
       <c r="C14" s="404" t="s">
         <v>157</v>
       </c>
@@ -32071,11 +32095,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="620" t="s">
+      <c r="K14" s="653" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="621"/>
-      <c r="M14" s="622"/>
+      <c r="L14" s="654"/>
+      <c r="M14" s="655"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -32101,7 +32125,7 @@
     </row>
     <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="692"/>
+      <c r="B15" s="725"/>
       <c r="C15" s="405" t="s">
         <v>158</v>
       </c>
@@ -32157,10 +32181,10 @@
     </row>
     <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="711" t="s">
+      <c r="B16" s="744" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="712"/>
+      <c r="C16" s="745"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -32216,10 +32240,10 @@
     </row>
     <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="713" t="s">
+      <c r="B17" s="746" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="714"/>
+      <c r="C17" s="747"/>
       <c r="D17" s="442">
         <v>0</v>
       </c>
@@ -32265,10 +32289,10 @@
     </row>
     <row r="18" spans="1:35" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="715" t="s">
+      <c r="B18" s="748" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="716"/>
+      <c r="C18" s="749"/>
       <c r="D18" s="443">
         <v>0</v>
       </c>
@@ -32311,10 +32335,10 @@
     </row>
     <row r="19" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="717" t="s">
+      <c r="B19" s="750" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="718"/>
+      <c r="C19" s="751"/>
       <c r="D19" s="444">
         <v>0</v>
       </c>
@@ -32332,12 +32356,12 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="657" t="s">
+      <c r="J19" s="690" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="658"/>
-      <c r="L19" s="658"/>
-      <c r="M19" s="659"/>
+      <c r="K19" s="691"/>
+      <c r="L19" s="691"/>
+      <c r="M19" s="692"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -32363,10 +32387,10 @@
     </row>
     <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="711" t="s">
+      <c r="B20" s="744" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="712"/>
+      <c r="C20" s="745"/>
       <c r="D20" s="445">
         <v>0</v>
       </c>
@@ -32421,10 +32445,10 @@
     </row>
     <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="698" t="s">
+      <c r="B21" s="731" t="s">
         <v>204</v>
       </c>
-      <c r="C21" s="699"/>
+      <c r="C21" s="732"/>
       <c r="D21" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -32484,10 +32508,10 @@
     </row>
     <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="700" t="s">
+      <c r="B22" s="733" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="701"/>
+      <c r="C22" s="734"/>
       <c r="D22" s="406">
         <f>D20+D21</f>
         <v>-1274116</v>
@@ -32646,12 +32670,12 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="702" t="s">
+      <c r="B26" s="735" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="703"/>
-      <c r="D26" s="703"/>
-      <c r="E26" s="704"/>
+      <c r="C26" s="736"/>
+      <c r="D26" s="736"/>
+      <c r="E26" s="737"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="412" t="s">
@@ -32689,10 +32713,10 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="705"/>
-      <c r="C27" s="706"/>
-      <c r="D27" s="706"/>
-      <c r="E27" s="707"/>
+      <c r="B27" s="738"/>
+      <c r="C27" s="739"/>
+      <c r="D27" s="739"/>
+      <c r="E27" s="740"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="414" t="s">
@@ -32731,10 +32755,10 @@
     </row>
     <row r="28" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="708"/>
-      <c r="C28" s="709"/>
-      <c r="D28" s="709"/>
-      <c r="E28" s="710"/>
+      <c r="B28" s="741"/>
+      <c r="C28" s="742"/>
+      <c r="D28" s="742"/>
+      <c r="E28" s="743"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="416" t="s">
@@ -35344,7 +35368,7 @@
     <mergeCell ref="B12:C12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H17" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="H17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -35353,7 +35377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35707,7 +35731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35730,11 +35754,11 @@
       <c r="D1" s="189"/>
       <c r="E1" s="189"/>
       <c r="F1" s="189"/>
-      <c r="G1" s="725" t="s">
+      <c r="G1" s="752" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="726"/>
-      <c r="I1" s="726"/>
+      <c r="H1" s="753"/>
+      <c r="I1" s="753"/>
       <c r="J1" s="189"/>
       <c r="K1" s="189"/>
       <c r="L1" s="189"/>
@@ -35786,22 +35810,22 @@
     </row>
     <row r="3" spans="1:31" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="719" t="s">
+      <c r="B3" s="754" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="720"/>
-      <c r="D3" s="720"/>
-      <c r="E3" s="720"/>
-      <c r="F3" s="720"/>
-      <c r="G3" s="721"/>
+      <c r="C3" s="755"/>
+      <c r="D3" s="755"/>
+      <c r="E3" s="755"/>
+      <c r="F3" s="755"/>
+      <c r="G3" s="756"/>
       <c r="H3" s="395"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="620" t="s">
+      <c r="K3" s="653" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="621"/>
-      <c r="M3" s="622"/>
+      <c r="L3" s="654"/>
+      <c r="M3" s="655"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -35816,12 +35840,12 @@
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="722"/>
-      <c r="C4" s="723"/>
-      <c r="D4" s="723"/>
-      <c r="E4" s="723"/>
-      <c r="F4" s="723"/>
-      <c r="G4" s="724"/>
+      <c r="B4" s="757"/>
+      <c r="C4" s="758"/>
+      <c r="D4" s="758"/>
+      <c r="E4" s="758"/>
+      <c r="F4" s="758"/>
+      <c r="G4" s="759"/>
       <c r="H4" s="235"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -35978,11 +36002,11 @@
       <c r="H8" s="395"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="620" t="s">
+      <c r="K8" s="653" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="621"/>
-      <c r="M8" s="622"/>
+      <c r="L8" s="654"/>
+      <c r="M8" s="655"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -36252,11 +36276,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="620" t="s">
+      <c r="K14" s="653" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="621"/>
-      <c r="M14" s="622"/>
+      <c r="L14" s="654"/>
+      <c r="M14" s="655"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -36271,10 +36295,10 @@
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="717" t="s">
+      <c r="B15" s="750" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="718"/>
+      <c r="C15" s="751"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -36316,10 +36340,10 @@
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="711" t="s">
+      <c r="B16" s="744" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="712"/>
+      <c r="C16" s="745"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -36364,10 +36388,10 @@
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="698" t="s">
+      <c r="B17" s="731" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="699"/>
+      <c r="C17" s="732"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -36404,10 +36428,10 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="700" t="s">
+      <c r="B18" s="733" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="701"/>
+      <c r="C18" s="734"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -36447,12 +36471,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="657" t="s">
+      <c r="J19" s="690" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="658"/>
-      <c r="L19" s="658"/>
-      <c r="M19" s="659"/>
+      <c r="K19" s="691"/>
+      <c r="L19" s="691"/>
+      <c r="M19" s="692"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -36655,10 +36679,10 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="706"/>
-      <c r="C26" s="706"/>
-      <c r="D26" s="706"/>
-      <c r="E26" s="706"/>
+      <c r="B26" s="739"/>
+      <c r="C26" s="739"/>
+      <c r="D26" s="739"/>
+      <c r="E26" s="739"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -36681,10 +36705,10 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="706"/>
-      <c r="C27" s="706"/>
-      <c r="D27" s="706"/>
-      <c r="E27" s="706"/>
+      <c r="B27" s="739"/>
+      <c r="C27" s="739"/>
+      <c r="D27" s="739"/>
+      <c r="E27" s="739"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -36707,10 +36731,10 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="706"/>
-      <c r="C28" s="706"/>
-      <c r="D28" s="706"/>
-      <c r="E28" s="706"/>
+      <c r="B28" s="739"/>
+      <c r="C28" s="739"/>
+      <c r="D28" s="739"/>
+      <c r="E28" s="739"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -37048,12 +37072,12 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B26:E28"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B26:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37061,7 +37085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37083,11 +37107,11 @@
       <c r="D1" s="189"/>
       <c r="E1" s="189"/>
       <c r="F1" s="189"/>
-      <c r="G1" s="725" t="s">
+      <c r="G1" s="752" t="s">
         <v>262</v>
       </c>
-      <c r="H1" s="726"/>
-      <c r="I1" s="726"/>
+      <c r="H1" s="753"/>
+      <c r="I1" s="753"/>
       <c r="J1" s="189"/>
       <c r="K1" s="189"/>
       <c r="L1" s="189"/>
@@ -37140,22 +37164,22 @@
     </row>
     <row r="3" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="719" t="s">
+      <c r="B3" s="754" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="720"/>
-      <c r="D3" s="720"/>
-      <c r="E3" s="720"/>
-      <c r="F3" s="720"/>
-      <c r="G3" s="721"/>
+      <c r="C3" s="755"/>
+      <c r="D3" s="755"/>
+      <c r="E3" s="755"/>
+      <c r="F3" s="755"/>
+      <c r="G3" s="756"/>
       <c r="H3" s="395"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="620" t="s">
+      <c r="K3" s="653" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="621"/>
-      <c r="M3" s="622"/>
+      <c r="L3" s="654"/>
+      <c r="M3" s="655"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -37174,12 +37198,12 @@
     </row>
     <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="722"/>
-      <c r="C4" s="723"/>
-      <c r="D4" s="723"/>
-      <c r="E4" s="723"/>
-      <c r="F4" s="723"/>
-      <c r="G4" s="724"/>
+      <c r="B4" s="757"/>
+      <c r="C4" s="758"/>
+      <c r="D4" s="758"/>
+      <c r="E4" s="758"/>
+      <c r="F4" s="758"/>
+      <c r="G4" s="759"/>
       <c r="H4" s="235"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -37249,14 +37273,14 @@
     </row>
     <row r="6" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="620" t="s">
+      <c r="B6" s="653" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="621"/>
-      <c r="E6" s="621"/>
-      <c r="F6" s="621"/>
-      <c r="G6" s="622"/>
+      <c r="C6" s="654"/>
+      <c r="D6" s="654"/>
+      <c r="E6" s="654"/>
+      <c r="F6" s="654"/>
+      <c r="G6" s="655"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -37352,11 +37376,11 @@
       <c r="H8" s="395"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="620" t="s">
+      <c r="K8" s="653" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="621"/>
-      <c r="M8" s="622"/>
+      <c r="L8" s="654"/>
+      <c r="M8" s="655"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -37650,11 +37674,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="620" t="s">
+      <c r="K14" s="653" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="621"/>
-      <c r="M14" s="622"/>
+      <c r="L14" s="654"/>
+      <c r="M14" s="655"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -37673,10 +37697,10 @@
     </row>
     <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="717" t="s">
+      <c r="B15" s="750" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="718"/>
+      <c r="C15" s="751"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -37722,10 +37746,10 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="711" t="s">
+      <c r="B16" s="744" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="712"/>
+      <c r="C16" s="745"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -37774,10 +37798,10 @@
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="698" t="s">
+      <c r="B17" s="731" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="699"/>
+      <c r="C17" s="732"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -37818,10 +37842,10 @@
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="700" t="s">
+      <c r="B18" s="733" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="701"/>
+      <c r="C18" s="734"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -37865,12 +37889,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="657" t="s">
+      <c r="J19" s="690" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="658"/>
-      <c r="L19" s="658"/>
-      <c r="M19" s="659"/>
+      <c r="K19" s="691"/>
+      <c r="L19" s="691"/>
+      <c r="M19" s="692"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -38103,10 +38127,10 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="706"/>
-      <c r="C26" s="706"/>
-      <c r="D26" s="706"/>
-      <c r="E26" s="706"/>
+      <c r="B26" s="739"/>
+      <c r="C26" s="739"/>
+      <c r="D26" s="739"/>
+      <c r="E26" s="739"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -38133,10 +38157,10 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="706"/>
-      <c r="C27" s="706"/>
-      <c r="D27" s="706"/>
-      <c r="E27" s="706"/>
+      <c r="B27" s="739"/>
+      <c r="C27" s="739"/>
+      <c r="D27" s="739"/>
+      <c r="E27" s="739"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -38163,10 +38187,10 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="706"/>
-      <c r="C28" s="706"/>
-      <c r="D28" s="706"/>
-      <c r="E28" s="706"/>
+      <c r="B28" s="739"/>
+      <c r="C28" s="739"/>
+      <c r="D28" s="739"/>
+      <c r="E28" s="739"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -38243,7 +38267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38266,11 +38290,11 @@
       <c r="D1" s="189"/>
       <c r="E1" s="189"/>
       <c r="F1" s="189"/>
-      <c r="G1" s="725" t="s">
+      <c r="G1" s="752" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="726"/>
-      <c r="I1" s="726"/>
+      <c r="H1" s="753"/>
+      <c r="I1" s="753"/>
       <c r="J1" s="189"/>
       <c r="K1" s="189"/>
       <c r="L1" s="189"/>
@@ -38351,22 +38375,22 @@
     </row>
     <row r="3" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="719" t="s">
+      <c r="B3" s="754" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="720"/>
-      <c r="D3" s="720"/>
-      <c r="E3" s="720"/>
-      <c r="F3" s="720"/>
-      <c r="G3" s="720"/>
-      <c r="H3" s="720"/>
-      <c r="I3" s="721"/>
+      <c r="C3" s="755"/>
+      <c r="D3" s="755"/>
+      <c r="E3" s="755"/>
+      <c r="F3" s="755"/>
+      <c r="G3" s="755"/>
+      <c r="H3" s="755"/>
+      <c r="I3" s="756"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="620" t="s">
+      <c r="K3" s="653" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="621"/>
-      <c r="M3" s="622"/>
+      <c r="L3" s="654"/>
+      <c r="M3" s="655"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -38396,14 +38420,14 @@
     </row>
     <row r="4" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="722"/>
-      <c r="C4" s="723"/>
-      <c r="D4" s="723"/>
-      <c r="E4" s="723"/>
-      <c r="F4" s="723"/>
-      <c r="G4" s="723"/>
-      <c r="H4" s="723"/>
-      <c r="I4" s="724"/>
+      <c r="B4" s="757"/>
+      <c r="C4" s="758"/>
+      <c r="D4" s="758"/>
+      <c r="E4" s="758"/>
+      <c r="F4" s="758"/>
+      <c r="G4" s="758"/>
+      <c r="H4" s="758"/>
+      <c r="I4" s="759"/>
       <c r="J4" s="1"/>
       <c r="K4" s="73">
         <v>2020</v>
@@ -38493,14 +38517,14 @@
     </row>
     <row r="6" spans="1:45" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="620" t="s">
+      <c r="B6" s="653" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="621"/>
-      <c r="E6" s="621"/>
-      <c r="F6" s="621"/>
-      <c r="G6" s="622"/>
+      <c r="C6" s="654"/>
+      <c r="D6" s="654"/>
+      <c r="E6" s="654"/>
+      <c r="F6" s="654"/>
+      <c r="G6" s="655"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -38618,11 +38642,11 @@
       <c r="H8" s="395"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="620" t="s">
+      <c r="K8" s="653" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="621"/>
-      <c r="M8" s="622"/>
+      <c r="L8" s="654"/>
+      <c r="M8" s="655"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -38982,11 +39006,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="620" t="s">
+      <c r="K14" s="653" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="621"/>
-      <c r="M14" s="622"/>
+      <c r="L14" s="654"/>
+      <c r="M14" s="655"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -39016,10 +39040,10 @@
     </row>
     <row r="15" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="717" t="s">
+      <c r="B15" s="750" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="718"/>
+      <c r="C15" s="751"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -39076,10 +39100,10 @@
     </row>
     <row r="16" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="711" t="s">
+      <c r="B16" s="744" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="712"/>
+      <c r="C16" s="745"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -39139,10 +39163,10 @@
     </row>
     <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="698" t="s">
+      <c r="B17" s="731" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="699"/>
+      <c r="C17" s="732"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -39194,10 +39218,10 @@
     </row>
     <row r="18" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="700" t="s">
+      <c r="B18" s="733" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="701"/>
+      <c r="C18" s="734"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -39252,12 +39276,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="657" t="s">
+      <c r="J19" s="690" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="658"/>
-      <c r="L19" s="658"/>
-      <c r="M19" s="659"/>
+      <c r="K19" s="691"/>
+      <c r="L19" s="691"/>
+      <c r="M19" s="692"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -39546,11 +39570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39670,22 +39694,22 @@
     </row>
     <row r="3" spans="1:66" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="719" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="720"/>
-      <c r="D3" s="720"/>
-      <c r="E3" s="720"/>
-      <c r="F3" s="720"/>
-      <c r="G3" s="720"/>
-      <c r="H3" s="720"/>
-      <c r="I3" s="721"/>
+      <c r="B3" s="754" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="755"/>
+      <c r="D3" s="755"/>
+      <c r="E3" s="755"/>
+      <c r="F3" s="755"/>
+      <c r="G3" s="755"/>
+      <c r="H3" s="755"/>
+      <c r="I3" s="756"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="620" t="s">
+      <c r="K3" s="653" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="621"/>
-      <c r="M3" s="622"/>
+      <c r="L3" s="654"/>
+      <c r="M3" s="655"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -39742,14 +39766,14 @@
     </row>
     <row r="4" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="722"/>
-      <c r="C4" s="723"/>
-      <c r="D4" s="723"/>
-      <c r="E4" s="723"/>
-      <c r="F4" s="723"/>
-      <c r="G4" s="723"/>
-      <c r="H4" s="723"/>
-      <c r="I4" s="724"/>
+      <c r="B4" s="757"/>
+      <c r="C4" s="758"/>
+      <c r="D4" s="758"/>
+      <c r="E4" s="758"/>
+      <c r="F4" s="758"/>
+      <c r="G4" s="758"/>
+      <c r="H4" s="758"/>
+      <c r="I4" s="759"/>
       <c r="J4" s="1"/>
       <c r="K4" s="73">
         <v>2020</v>
@@ -39893,14 +39917,14 @@
     </row>
     <row r="6" spans="1:66" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="620" t="s">
+      <c r="B6" s="653" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="621"/>
-      <c r="E6" s="621"/>
-      <c r="F6" s="621"/>
-      <c r="G6" s="622"/>
+      <c r="C6" s="654"/>
+      <c r="D6" s="654"/>
+      <c r="E6" s="654"/>
+      <c r="F6" s="654"/>
+      <c r="G6" s="655"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -39976,7 +40000,7 @@
         <v>196</v>
       </c>
       <c r="C7" s="475"/>
-      <c r="D7" s="752" t="s">
+      <c r="D7" s="525" t="s">
         <v>197</v>
       </c>
       <c r="E7" s="400">
@@ -39985,10 +40009,10 @@
       <c r="F7" s="400">
         <v>2021</v>
       </c>
-      <c r="G7" s="738">
+      <c r="G7" s="511">
         <v>2022</v>
       </c>
-      <c r="H7" s="753" t="s">
+      <c r="H7" s="526" t="s">
         <v>268</v>
       </c>
       <c r="I7" s="1"/>
@@ -40067,21 +40091,21 @@
         <f>L6</f>
         <v>18156192</v>
       </c>
-      <c r="G8" s="739">
+      <c r="G8" s="512">
         <f>M6</f>
         <v>36312384</v>
       </c>
-      <c r="H8" s="745">
+      <c r="H8" s="518">
         <f>M6</f>
         <v>36312384</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="620" t="s">
+      <c r="K8" s="653" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="621"/>
-      <c r="M8" s="622"/>
+      <c r="L8" s="654"/>
+      <c r="M8" s="655"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -40155,11 +40179,11 @@
         <f t="shared" si="0"/>
         <v>6685587.5999999987</v>
       </c>
-      <c r="G9" s="740">
+      <c r="G9" s="513">
         <f t="shared" si="0"/>
         <v>6685587.5999999987</v>
       </c>
-      <c r="H9" s="746">
+      <c r="H9" s="519">
         <f>N10</f>
         <v>6685587.5999999987</v>
       </c>
@@ -40171,13 +40195,13 @@
       <c r="L9" s="73">
         <v>2021</v>
       </c>
-      <c r="M9" s="727">
+      <c r="M9" s="500">
         <v>2022</v>
       </c>
-      <c r="N9" s="730" t="s">
+      <c r="N9" s="503" t="s">
         <v>268</v>
       </c>
-      <c r="O9" s="731"/>
+      <c r="O9" s="504"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -40247,11 +40271,11 @@
         <f t="shared" si="0"/>
         <v>220990.20000000004</v>
       </c>
-      <c r="G10" s="740">
+      <c r="G10" s="513">
         <f t="shared" si="0"/>
         <v>211309.43999999997</v>
       </c>
-      <c r="H10" s="737">
+      <c r="H10" s="510">
         <f>+M11</f>
         <v>211309.43999999997</v>
       </c>
@@ -40267,11 +40291,11 @@
         <f>'Costos fijos'!$H$5</f>
         <v>6685587.5999999987</v>
       </c>
-      <c r="M10" s="728">
+      <c r="M10" s="501">
         <f>'Costos fijos'!$I$5</f>
         <v>6685587.5999999987</v>
       </c>
-      <c r="N10" s="737">
+      <c r="N10" s="510">
         <f>'Costos fijos'!$I$5</f>
         <v>6685587.5999999987</v>
       </c>
@@ -40345,11 +40369,11 @@
         <f t="shared" si="0"/>
         <v>10859538.039999999</v>
       </c>
-      <c r="G11" s="741">
+      <c r="G11" s="514">
         <f t="shared" si="0"/>
         <v>20689881.93999999</v>
       </c>
-      <c r="H11" s="758">
+      <c r="H11" s="531">
         <f>N12</f>
         <v>10859538.039999999</v>
       </c>
@@ -40365,11 +40389,11 @@
         <f>'Costos variables'!$I$6</f>
         <v>220990.20000000004</v>
       </c>
-      <c r="M11" s="728">
+      <c r="M11" s="501">
         <f>'Costos variables'!$J$6</f>
         <v>211309.43999999997</v>
       </c>
-      <c r="N11" s="737">
+      <c r="N11" s="510">
         <f>'Costos variables'!$J$6</f>
         <v>211309.43999999997</v>
       </c>
@@ -40443,11 +40467,11 @@
         <f t="shared" ref="F12:H12" si="1">F8-F9-F10-F11</f>
         <v>390076.16000000387</v>
       </c>
-      <c r="G12" s="742">
+      <c r="G12" s="515">
         <f t="shared" si="1"/>
         <v>8725605.0200000107</v>
       </c>
-      <c r="H12" s="747">
+      <c r="H12" s="520">
         <f t="shared" si="1"/>
         <v>18555948.920000002</v>
       </c>
@@ -40463,11 +40487,11 @@
         <f>'Costos RRHH'!$I$6</f>
         <v>10859538.039999999</v>
       </c>
-      <c r="M12" s="729">
+      <c r="M12" s="502">
         <f>'Costos RRHH'!$J$6</f>
         <v>20689881.93999999</v>
       </c>
-      <c r="N12" s="734">
+      <c r="N12" s="507">
         <f>'Costos RRHH'!$I$6</f>
         <v>10859538.039999999</v>
       </c>
@@ -40539,10 +40563,10 @@
       <c r="F13" s="402">
         <v>0</v>
       </c>
-      <c r="G13" s="743">
+      <c r="G13" s="516">
         <v>0</v>
       </c>
-      <c r="H13" s="748">
+      <c r="H13" s="521">
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
@@ -40621,21 +40645,21 @@
         <f>F12-F13-L16</f>
         <v>312244.76000000385</v>
       </c>
-      <c r="G14" s="740">
+      <c r="G14" s="513">
         <f>G12-G13-M16</f>
         <v>8619762.1200000104</v>
       </c>
-      <c r="H14" s="749">
+      <c r="H14" s="522">
         <f>H12-H13-N16</f>
         <v>18555948.920000002</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="620" t="s">
+      <c r="K14" s="653" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="621"/>
-      <c r="M14" s="622"/>
+      <c r="L14" s="654"/>
+      <c r="M14" s="655"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -40692,10 +40716,10 @@
     </row>
     <row r="15" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="717" t="s">
+      <c r="B15" s="750" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="718"/>
+      <c r="C15" s="751"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -40707,20 +40731,20 @@
         <f t="shared" si="2"/>
         <v>-1887271.4034999998</v>
       </c>
-      <c r="G15" s="741">
+      <c r="G15" s="514">
         <f>F14*0.35</f>
         <v>109285.66600000134</v>
       </c>
-      <c r="H15" s="750">
+      <c r="H15" s="523">
         <f>G14*0.35</f>
         <v>3016916.7420000033</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="735">
+      <c r="K15" s="508">
         <v>2020</v>
       </c>
-      <c r="L15" s="736">
+      <c r="L15" s="509">
         <v>2021</v>
       </c>
       <c r="M15" s="420">
@@ -40782,10 +40806,10 @@
     </row>
     <row r="16" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="711" t="s">
+      <c r="B16" s="744" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="712"/>
+      <c r="C16" s="745"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -40797,11 +40821,11 @@
         <f>F12-F13-F15</f>
         <v>2277347.5635000039</v>
       </c>
-      <c r="G16" s="742">
+      <c r="G16" s="515">
         <f>G12-G13-G15</f>
         <v>8616319.3540000096</v>
       </c>
-      <c r="H16" s="747">
+      <c r="H16" s="520">
         <f>H12-H13-H15</f>
         <v>15539032.177999999</v>
       </c>
@@ -40875,10 +40899,10 @@
     </row>
     <row r="17" spans="1:66" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="698" t="s">
+      <c r="B17" s="731" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="699"/>
+      <c r="C17" s="732"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -40891,11 +40915,11 @@
         <f>-L21</f>
         <v>-247816</v>
       </c>
-      <c r="G17" s="744">
+      <c r="G17" s="517">
         <f>-M21</f>
         <v>-1245379</v>
       </c>
-      <c r="H17" s="759">
+      <c r="H17" s="532">
         <f>N21</f>
         <v>0</v>
       </c>
@@ -40960,10 +40984,10 @@
     </row>
     <row r="18" spans="1:66" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="700" t="s">
+      <c r="B18" s="733" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="701"/>
+      <c r="C18" s="734"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -40976,11 +41000,11 @@
         <f t="shared" ref="F18:H18" si="3">F16+F17</f>
         <v>2029531.5635000039</v>
       </c>
-      <c r="G18" s="742">
+      <c r="G18" s="515">
         <f t="shared" si="3"/>
         <v>7370940.3540000096</v>
       </c>
-      <c r="H18" s="747">
+      <c r="H18" s="520">
         <f t="shared" si="3"/>
         <v>15539032.177999999</v>
       </c>
@@ -41047,18 +41071,18 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="755"/>
-      <c r="E19" s="755"/>
-      <c r="F19" s="755"/>
-      <c r="G19" s="755"/>
-      <c r="H19" s="754"/>
+      <c r="D19" s="528"/>
+      <c r="E19" s="528"/>
+      <c r="F19" s="528"/>
+      <c r="G19" s="528"/>
+      <c r="H19" s="527"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="657" t="s">
+      <c r="J19" s="690" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="658"/>
-      <c r="L19" s="658"/>
-      <c r="M19" s="659"/>
+      <c r="K19" s="691"/>
+      <c r="L19" s="691"/>
+      <c r="M19" s="692"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -41132,10 +41156,10 @@
       <c r="L20" s="378">
         <v>2021</v>
       </c>
-      <c r="M20" s="732">
+      <c r="M20" s="505">
         <v>2022</v>
       </c>
-      <c r="N20" s="733" t="s">
+      <c r="N20" s="506" t="s">
         <v>268</v>
       </c>
       <c r="O20" s="1"/>
@@ -41220,7 +41244,7 @@
         <f>'Mod. inversión'!$I$5</f>
         <v>1245379</v>
       </c>
-      <c r="N21" s="751">
+      <c r="N21" s="524">
         <v>0</v>
       </c>
       <c r="O21" s="1"/>
@@ -42461,16 +42485,16 @@
       <c r="BN38" s="1"/>
     </row>
     <row r="39" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A39" s="756">
+      <c r="A39" s="529">
         <v>-1274116</v>
       </c>
-      <c r="B39" s="756">
+      <c r="B39" s="529">
         <v>-5357490.41</v>
       </c>
-      <c r="C39" s="756">
+      <c r="C39" s="529">
         <v>2002171.56</v>
       </c>
-      <c r="D39" s="756">
+      <c r="D39" s="529">
         <v>15500796.58</v>
       </c>
       <c r="E39" s="1"/>
@@ -42537,10 +42561,10 @@
       <c r="BN39" s="1"/>
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A40" s="757"/>
-      <c r="B40" s="757"/>
-      <c r="C40" s="757"/>
-      <c r="D40" s="757"/>
+      <c r="A40" s="530"/>
+      <c r="B40" s="530"/>
+      <c r="C40" s="530"/>
+      <c r="D40" s="530"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -43442,7 +43466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:BT59"/>
   <sheetViews>
@@ -47859,21 +47883,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" location="Hipótesis!A1" display="Hipótesis" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D6" location="'Proy. Ventas'!A1" display="Proyección de ventas" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D7" location="'Mod. Ingresos'!A1" display="Modelo de ingresos" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D8" location="'Costos Fijos'!A1" display="Estructura de costos fijos" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D9" location="'Costos Variables'!A1" display="Estructura de costos variables" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D10" location="'Costos RRHH'!A1" display="Estructura de costos de RRHH" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D11" location="'Mod. Egresos'!A1" display="Modelo de egresos" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D12" location="'Mod. Inversión'!A1" display="Modelo de inversión" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D13" location="Amortizaciones!A1" display="Amortizaciones" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D14" location="'Presupuesto financiero'!A1" display="Presupuesto Financiero" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D15" location="'Matriz Riesgo'!A1" display="Matriz de riesgos" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D16" location="'Escenario 1'!A1" display="Escenario 1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D19" location="'Plan de Contingencia'!A1" display="Plan de contingencia" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D17" location="'Escenario 2'!A1" display="Escenario 2" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D18" location="'Escenario 3'!A1" display="Escenario 3" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D5" location="Hipótesis!A1" display="Hipótesis"/>
+    <hyperlink ref="D6" location="'Proy. Ventas'!A1" display="Proyección de ventas"/>
+    <hyperlink ref="D7" location="'Mod. Ingresos'!A1" display="Modelo de ingresos"/>
+    <hyperlink ref="D8" location="'Costos Fijos'!A1" display="Estructura de costos fijos"/>
+    <hyperlink ref="D9" location="'Costos Variables'!A1" display="Estructura de costos variables"/>
+    <hyperlink ref="D10" location="'Costos RRHH'!A1" display="Estructura de costos de RRHH"/>
+    <hyperlink ref="D11" location="'Mod. Egresos'!A1" display="Modelo de egresos"/>
+    <hyperlink ref="D12" location="'Mod. Inversión'!A1" display="Modelo de inversión"/>
+    <hyperlink ref="D13" location="Amortizaciones!A1" display="Amortizaciones"/>
+    <hyperlink ref="D14" location="'Presupuesto financiero'!A1" display="Presupuesto Financiero"/>
+    <hyperlink ref="D15" location="'Matriz Riesgo'!A1" display="Matriz de riesgos"/>
+    <hyperlink ref="D16" location="'Escenario 1'!A1" display="Escenario 1"/>
+    <hyperlink ref="D19" location="'Plan de Contingencia'!A1" display="Plan de contingencia"/>
+    <hyperlink ref="D17" location="'Escenario 2'!A1" display="Escenario 2"/>
+    <hyperlink ref="D18" location="'Escenario 3'!A1" display="Escenario 3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -47882,11 +47906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4:J4"/>
     </sheetView>
@@ -47919,58 +47943,58 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="504" t="s">
+      <c r="B3" s="537" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="505"/>
-      <c r="D3" s="505"/>
-      <c r="E3" s="505"/>
-      <c r="F3" s="505"/>
-      <c r="G3" s="505"/>
-      <c r="H3" s="505"/>
-      <c r="I3" s="505"/>
-      <c r="J3" s="506"/>
+      <c r="C3" s="538"/>
+      <c r="D3" s="538"/>
+      <c r="E3" s="538"/>
+      <c r="F3" s="538"/>
+      <c r="G3" s="538"/>
+      <c r="H3" s="538"/>
+      <c r="I3" s="538"/>
+      <c r="J3" s="539"/>
     </row>
     <row r="4" spans="1:11" ht="165" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="513" t="s">
+      <c r="B4" s="546" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="514"/>
-      <c r="D4" s="514"/>
-      <c r="E4" s="514"/>
-      <c r="F4" s="514"/>
-      <c r="G4" s="514"/>
-      <c r="H4" s="514"/>
-      <c r="I4" s="514"/>
-      <c r="J4" s="515"/>
+      <c r="C4" s="547"/>
+      <c r="D4" s="547"/>
+      <c r="E4" s="547"/>
+      <c r="F4" s="547"/>
+      <c r="G4" s="547"/>
+      <c r="H4" s="547"/>
+      <c r="I4" s="547"/>
+      <c r="J4" s="548"/>
       <c r="K4" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="516" t="s">
+      <c r="B7" s="549" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="517"/>
-      <c r="D7" s="517"/>
-      <c r="E7" s="517"/>
-      <c r="F7" s="517"/>
-      <c r="G7" s="517"/>
-      <c r="H7" s="517"/>
-      <c r="I7" s="517"/>
-      <c r="J7" s="518"/>
+      <c r="C7" s="550"/>
+      <c r="D7" s="550"/>
+      <c r="E7" s="550"/>
+      <c r="F7" s="550"/>
+      <c r="G7" s="550"/>
+      <c r="H7" s="550"/>
+      <c r="I7" s="550"/>
+      <c r="J7" s="551"/>
     </row>
     <row r="8" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="519" t="s">
+      <c r="B8" s="552" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="520"/>
-      <c r="D8" s="520"/>
-      <c r="E8" s="520"/>
-      <c r="F8" s="520"/>
-      <c r="G8" s="520"/>
-      <c r="H8" s="520"/>
-      <c r="I8" s="520"/>
-      <c r="J8" s="521"/>
+      <c r="C8" s="553"/>
+      <c r="D8" s="553"/>
+      <c r="E8" s="553"/>
+      <c r="F8" s="553"/>
+      <c r="G8" s="553"/>
+      <c r="H8" s="553"/>
+      <c r="I8" s="553"/>
+      <c r="J8" s="554"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="40"/>
@@ -48042,30 +48066,30 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="522" t="s">
+      <c r="B15" s="555" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="523"/>
-      <c r="D15" s="523"/>
-      <c r="E15" s="523"/>
-      <c r="F15" s="523"/>
-      <c r="G15" s="523"/>
-      <c r="H15" s="523"/>
-      <c r="I15" s="523"/>
-      <c r="J15" s="524"/>
+      <c r="C15" s="556"/>
+      <c r="D15" s="556"/>
+      <c r="E15" s="556"/>
+      <c r="F15" s="556"/>
+      <c r="G15" s="556"/>
+      <c r="H15" s="556"/>
+      <c r="I15" s="556"/>
+      <c r="J15" s="557"/>
     </row>
     <row r="16" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="525" t="s">
+      <c r="B16" s="558" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="526"/>
-      <c r="D16" s="526"/>
-      <c r="E16" s="526"/>
-      <c r="F16" s="526"/>
-      <c r="G16" s="526"/>
-      <c r="H16" s="526"/>
-      <c r="I16" s="526"/>
-      <c r="J16" s="527"/>
+      <c r="C16" s="559"/>
+      <c r="D16" s="559"/>
+      <c r="E16" s="559"/>
+      <c r="F16" s="559"/>
+      <c r="G16" s="559"/>
+      <c r="H16" s="559"/>
+      <c r="I16" s="559"/>
+      <c r="J16" s="560"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
@@ -48135,11 +48159,11 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="507" t="s">
+      <c r="B22" s="540" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="508"/>
-      <c r="D22" s="509"/>
+      <c r="C22" s="541"/>
+      <c r="D22" s="542"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -48328,13 +48352,13 @@
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="504" t="s">
+      <c r="B33" s="537" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="505"/>
-      <c r="D33" s="505"/>
-      <c r="E33" s="505"/>
-      <c r="F33" s="506"/>
+      <c r="C33" s="538"/>
+      <c r="D33" s="538"/>
+      <c r="E33" s="538"/>
+      <c r="F33" s="539"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
@@ -48360,91 +48384,91 @@
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="504" t="s">
+      <c r="B35" s="537" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="528"/>
-      <c r="D35" s="528"/>
-      <c r="E35" s="528"/>
-      <c r="F35" s="529"/>
+      <c r="C35" s="561"/>
+      <c r="D35" s="561"/>
+      <c r="E35" s="561"/>
+      <c r="F35" s="562"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="510" t="s">
+      <c r="B36" s="543" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="530" t="s">
+      <c r="C36" s="563" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="530"/>
-      <c r="E36" s="530"/>
-      <c r="F36" s="530"/>
+      <c r="D36" s="563"/>
+      <c r="E36" s="563"/>
+      <c r="F36" s="563"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="511"/>
-      <c r="C37" s="530"/>
-      <c r="D37" s="530"/>
-      <c r="E37" s="530"/>
-      <c r="F37" s="530"/>
+      <c r="B37" s="544"/>
+      <c r="C37" s="563"/>
+      <c r="D37" s="563"/>
+      <c r="E37" s="563"/>
+      <c r="F37" s="563"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="511"/>
-      <c r="C38" s="530"/>
-      <c r="D38" s="530"/>
-      <c r="E38" s="530"/>
-      <c r="F38" s="530"/>
+      <c r="B38" s="544"/>
+      <c r="C38" s="563"/>
+      <c r="D38" s="563"/>
+      <c r="E38" s="563"/>
+      <c r="F38" s="563"/>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="511"/>
-      <c r="C39" s="500" t="s">
+      <c r="B39" s="544"/>
+      <c r="C39" s="533" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="500"/>
-      <c r="E39" s="500"/>
-      <c r="F39" s="500"/>
+      <c r="D39" s="533"/>
+      <c r="E39" s="533"/>
+      <c r="F39" s="533"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="511"/>
-      <c r="C40" s="500"/>
-      <c r="D40" s="500"/>
-      <c r="E40" s="500"/>
-      <c r="F40" s="500"/>
+      <c r="B40" s="544"/>
+      <c r="C40" s="533"/>
+      <c r="D40" s="533"/>
+      <c r="E40" s="533"/>
+      <c r="F40" s="533"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="511"/>
-      <c r="C41" s="500"/>
-      <c r="D41" s="500"/>
-      <c r="E41" s="500"/>
-      <c r="F41" s="500"/>
+      <c r="B41" s="544"/>
+      <c r="C41" s="533"/>
+      <c r="D41" s="533"/>
+      <c r="E41" s="533"/>
+      <c r="F41" s="533"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="511"/>
-      <c r="C42" s="501" t="s">
+      <c r="B42" s="544"/>
+      <c r="C42" s="534" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="501"/>
-      <c r="E42" s="501"/>
-      <c r="F42" s="501"/>
+      <c r="D42" s="534"/>
+      <c r="E42" s="534"/>
+      <c r="F42" s="534"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="511"/>
-      <c r="C43" s="501"/>
-      <c r="D43" s="501"/>
-      <c r="E43" s="501"/>
-      <c r="F43" s="501"/>
+      <c r="B43" s="544"/>
+      <c r="C43" s="534"/>
+      <c r="D43" s="534"/>
+      <c r="E43" s="534"/>
+      <c r="F43" s="534"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="512"/>
-      <c r="C44" s="501"/>
-      <c r="D44" s="501"/>
-      <c r="E44" s="501"/>
-      <c r="F44" s="501"/>
+      <c r="B44" s="545"/>
+      <c r="C44" s="534"/>
+      <c r="D44" s="534"/>
+      <c r="E44" s="534"/>
+      <c r="F44" s="534"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="502" t="s">
+      <c r="B47" s="535" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="503"/>
+      <c r="C47" s="536"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="68" t="s">
@@ -48455,52 +48479,52 @@
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="531" t="s">
+      <c r="B49" s="564" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="540">
+      <c r="C49" s="573">
         <v>1300</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="532"/>
-      <c r="C50" s="540"/>
+      <c r="B50" s="565"/>
+      <c r="C50" s="573"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="533"/>
-      <c r="C51" s="541"/>
+      <c r="B51" s="566"/>
+      <c r="C51" s="574"/>
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="534" t="s">
+      <c r="B52" s="567" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="542">
+      <c r="C52" s="575">
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="535"/>
-      <c r="C53" s="543"/>
+      <c r="B53" s="568"/>
+      <c r="C53" s="576"/>
     </row>
     <row r="54" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="536"/>
-      <c r="C54" s="544"/>
+      <c r="B54" s="569"/>
+      <c r="C54" s="577"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="537" t="s">
+      <c r="B55" s="570" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="545">
+      <c r="C55" s="578">
         <v>4000</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="538"/>
-      <c r="C56" s="546"/>
+      <c r="B56" s="571"/>
+      <c r="C56" s="579"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="539"/>
-      <c r="C57" s="547"/>
+      <c r="B57" s="572"/>
+      <c r="C57" s="580"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -48532,7 +48556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI155"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -48659,18 +48683,18 @@
     </row>
     <row r="5" spans="1:61" s="24" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
-      <c r="B5" s="563" t="s">
+      <c r="B5" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="564"/>
-      <c r="D5" s="566"/>
+      <c r="C5" s="597"/>
+      <c r="D5" s="599"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="596" t="s">
+      <c r="F5" s="629" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="597"/>
-      <c r="H5" s="597"/>
-      <c r="I5" s="598"/>
+      <c r="G5" s="630"/>
+      <c r="H5" s="630"/>
+      <c r="I5" s="631"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
@@ -48716,12 +48740,12 @@
         <v>2022</v>
       </c>
       <c r="E6" s="41"/>
-      <c r="F6" s="590" t="s">
+      <c r="F6" s="623" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="591"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="592"/>
+      <c r="G6" s="624"/>
+      <c r="H6" s="624"/>
+      <c r="I6" s="625"/>
       <c r="J6" s="222"/>
       <c r="K6" s="222"/>
       <c r="L6" s="222"/>
@@ -48770,10 +48794,10 @@
         <v>0.02</v>
       </c>
       <c r="E7" s="45"/>
-      <c r="F7" s="593"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="594"/>
-      <c r="I7" s="595"/>
+      <c r="F7" s="626"/>
+      <c r="G7" s="627"/>
+      <c r="H7" s="627"/>
+      <c r="I7" s="628"/>
       <c r="J7" s="222"/>
       <c r="K7" s="222"/>
       <c r="L7" s="222"/>
@@ -49174,48 +49198,48 @@
       <c r="BI14" s="8"/>
     </row>
     <row r="15" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="563" t="s">
+      <c r="A15" s="596" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="564"/>
-      <c r="C15" s="564"/>
-      <c r="D15" s="564"/>
-      <c r="E15" s="564"/>
-      <c r="F15" s="564"/>
-      <c r="G15" s="564"/>
-      <c r="H15" s="565"/>
-      <c r="I15" s="565"/>
-      <c r="J15" s="565"/>
-      <c r="K15" s="565"/>
-      <c r="L15" s="564"/>
-      <c r="M15" s="564"/>
-      <c r="N15" s="564"/>
-      <c r="O15" s="564"/>
-      <c r="P15" s="564"/>
-      <c r="Q15" s="564"/>
-      <c r="R15" s="564"/>
-      <c r="S15" s="564"/>
-      <c r="T15" s="564"/>
-      <c r="U15" s="564"/>
-      <c r="V15" s="564"/>
-      <c r="W15" s="564"/>
-      <c r="X15" s="564"/>
-      <c r="Y15" s="564"/>
-      <c r="Z15" s="564"/>
-      <c r="AA15" s="564"/>
-      <c r="AB15" s="564"/>
-      <c r="AC15" s="564"/>
-      <c r="AD15" s="564"/>
-      <c r="AE15" s="564"/>
-      <c r="AF15" s="564"/>
-      <c r="AG15" s="564"/>
-      <c r="AH15" s="564"/>
-      <c r="AI15" s="564"/>
-      <c r="AJ15" s="564"/>
-      <c r="AK15" s="564"/>
-      <c r="AL15" s="564"/>
-      <c r="AM15" s="564"/>
-      <c r="AN15" s="566"/>
+      <c r="B15" s="597"/>
+      <c r="C15" s="597"/>
+      <c r="D15" s="597"/>
+      <c r="E15" s="597"/>
+      <c r="F15" s="597"/>
+      <c r="G15" s="597"/>
+      <c r="H15" s="598"/>
+      <c r="I15" s="598"/>
+      <c r="J15" s="598"/>
+      <c r="K15" s="598"/>
+      <c r="L15" s="597"/>
+      <c r="M15" s="597"/>
+      <c r="N15" s="597"/>
+      <c r="O15" s="597"/>
+      <c r="P15" s="597"/>
+      <c r="Q15" s="597"/>
+      <c r="R15" s="597"/>
+      <c r="S15" s="597"/>
+      <c r="T15" s="597"/>
+      <c r="U15" s="597"/>
+      <c r="V15" s="597"/>
+      <c r="W15" s="597"/>
+      <c r="X15" s="597"/>
+      <c r="Y15" s="597"/>
+      <c r="Z15" s="597"/>
+      <c r="AA15" s="597"/>
+      <c r="AB15" s="597"/>
+      <c r="AC15" s="597"/>
+      <c r="AD15" s="597"/>
+      <c r="AE15" s="597"/>
+      <c r="AF15" s="597"/>
+      <c r="AG15" s="597"/>
+      <c r="AH15" s="597"/>
+      <c r="AI15" s="597"/>
+      <c r="AJ15" s="597"/>
+      <c r="AK15" s="597"/>
+      <c r="AL15" s="597"/>
+      <c r="AM15" s="597"/>
+      <c r="AN15" s="599"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
@@ -49239,76 +49263,76 @@
       <c r="BI15" s="8"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A16" s="567" t="s">
+      <c r="A16" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="567" t="s">
+      <c r="B16" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="570" t="s">
+      <c r="C16" s="603" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="571"/>
-      <c r="E16" s="553" t="s">
+      <c r="D16" s="604"/>
+      <c r="E16" s="586" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="554"/>
-      <c r="G16" s="555"/>
-      <c r="H16" s="553" t="s">
+      <c r="F16" s="587"/>
+      <c r="G16" s="588"/>
+      <c r="H16" s="586" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="554"/>
-      <c r="J16" s="555"/>
-      <c r="K16" s="553" t="s">
+      <c r="I16" s="587"/>
+      <c r="J16" s="588"/>
+      <c r="K16" s="586" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="554"/>
-      <c r="M16" s="555"/>
-      <c r="N16" s="553" t="s">
+      <c r="L16" s="587"/>
+      <c r="M16" s="588"/>
+      <c r="N16" s="586" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="554"/>
-      <c r="P16" s="555"/>
-      <c r="Q16" s="553" t="s">
+      <c r="O16" s="587"/>
+      <c r="P16" s="588"/>
+      <c r="Q16" s="586" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="554"/>
-      <c r="S16" s="555"/>
-      <c r="T16" s="553" t="s">
+      <c r="R16" s="587"/>
+      <c r="S16" s="588"/>
+      <c r="T16" s="586" t="s">
         <v>23</v>
       </c>
-      <c r="U16" s="554"/>
-      <c r="V16" s="555"/>
-      <c r="W16" s="553" t="s">
+      <c r="U16" s="587"/>
+      <c r="V16" s="588"/>
+      <c r="W16" s="586" t="s">
         <v>24</v>
       </c>
-      <c r="X16" s="554"/>
-      <c r="Y16" s="555"/>
-      <c r="Z16" s="553" t="s">
+      <c r="X16" s="587"/>
+      <c r="Y16" s="588"/>
+      <c r="Z16" s="586" t="s">
         <v>25</v>
       </c>
-      <c r="AA16" s="554"/>
-      <c r="AB16" s="555"/>
-      <c r="AC16" s="553" t="s">
+      <c r="AA16" s="587"/>
+      <c r="AB16" s="588"/>
+      <c r="AC16" s="586" t="s">
         <v>26</v>
       </c>
-      <c r="AD16" s="554"/>
-      <c r="AE16" s="555"/>
-      <c r="AF16" s="553" t="s">
+      <c r="AD16" s="587"/>
+      <c r="AE16" s="588"/>
+      <c r="AF16" s="586" t="s">
         <v>27</v>
       </c>
-      <c r="AG16" s="554"/>
-      <c r="AH16" s="555"/>
-      <c r="AI16" s="553" t="s">
+      <c r="AG16" s="587"/>
+      <c r="AH16" s="588"/>
+      <c r="AI16" s="586" t="s">
         <v>28</v>
       </c>
-      <c r="AJ16" s="554"/>
-      <c r="AK16" s="555"/>
-      <c r="AL16" s="553" t="s">
+      <c r="AJ16" s="587"/>
+      <c r="AK16" s="588"/>
+      <c r="AL16" s="586" t="s">
         <v>29</v>
       </c>
-      <c r="AM16" s="554"/>
-      <c r="AN16" s="555"/>
+      <c r="AM16" s="587"/>
+      <c r="AN16" s="588"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
@@ -49332,74 +49356,74 @@
       <c r="BI16" s="8"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A17" s="568"/>
-      <c r="B17" s="568"/>
-      <c r="C17" s="556" t="s">
+      <c r="A17" s="601"/>
+      <c r="B17" s="601"/>
+      <c r="C17" s="589" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="558" t="s">
+      <c r="D17" s="591" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="560">
+      <c r="E17" s="593">
         <v>0.02</v>
       </c>
-      <c r="F17" s="561"/>
-      <c r="G17" s="562"/>
-      <c r="H17" s="560">
+      <c r="F17" s="594"/>
+      <c r="G17" s="595"/>
+      <c r="H17" s="593">
         <v>0.04</v>
       </c>
-      <c r="I17" s="561"/>
-      <c r="J17" s="562"/>
-      <c r="K17" s="560">
+      <c r="I17" s="594"/>
+      <c r="J17" s="595"/>
+      <c r="K17" s="593">
         <v>0.04</v>
       </c>
-      <c r="L17" s="561"/>
-      <c r="M17" s="562"/>
-      <c r="N17" s="560">
+      <c r="L17" s="594"/>
+      <c r="M17" s="595"/>
+      <c r="N17" s="593">
         <v>0.05</v>
       </c>
-      <c r="O17" s="561"/>
-      <c r="P17" s="562"/>
-      <c r="Q17" s="560">
+      <c r="O17" s="594"/>
+      <c r="P17" s="595"/>
+      <c r="Q17" s="593">
         <v>0.06</v>
       </c>
-      <c r="R17" s="561"/>
-      <c r="S17" s="562"/>
-      <c r="T17" s="560">
+      <c r="R17" s="594"/>
+      <c r="S17" s="595"/>
+      <c r="T17" s="593">
         <v>0.08</v>
       </c>
-      <c r="U17" s="561"/>
-      <c r="V17" s="562"/>
-      <c r="W17" s="560">
+      <c r="U17" s="594"/>
+      <c r="V17" s="595"/>
+      <c r="W17" s="593">
         <v>0.1</v>
       </c>
-      <c r="X17" s="561"/>
-      <c r="Y17" s="562"/>
-      <c r="Z17" s="560">
+      <c r="X17" s="594"/>
+      <c r="Y17" s="595"/>
+      <c r="Z17" s="593">
         <v>0.11</v>
       </c>
-      <c r="AA17" s="561"/>
-      <c r="AB17" s="562"/>
-      <c r="AC17" s="560">
+      <c r="AA17" s="594"/>
+      <c r="AB17" s="595"/>
+      <c r="AC17" s="593">
         <v>0.11</v>
       </c>
-      <c r="AD17" s="561"/>
-      <c r="AE17" s="562"/>
-      <c r="AF17" s="560">
+      <c r="AD17" s="594"/>
+      <c r="AE17" s="595"/>
+      <c r="AF17" s="593">
         <v>0.12</v>
       </c>
-      <c r="AG17" s="561"/>
-      <c r="AH17" s="562"/>
-      <c r="AI17" s="560">
+      <c r="AG17" s="594"/>
+      <c r="AH17" s="595"/>
+      <c r="AI17" s="593">
         <v>0.13</v>
       </c>
-      <c r="AJ17" s="561"/>
-      <c r="AK17" s="562"/>
-      <c r="AL17" s="560">
+      <c r="AJ17" s="594"/>
+      <c r="AK17" s="595"/>
+      <c r="AL17" s="593">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM17" s="561"/>
-      <c r="AN17" s="562"/>
+      <c r="AM17" s="594"/>
+      <c r="AN17" s="595"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
@@ -49423,10 +49447,10 @@
       <c r="BI17" s="8"/>
     </row>
     <row r="18" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="569"/>
-      <c r="B18" s="569"/>
-      <c r="C18" s="557"/>
-      <c r="D18" s="559"/>
+      <c r="A18" s="602"/>
+      <c r="B18" s="602"/>
+      <c r="C18" s="590"/>
+      <c r="D18" s="592"/>
       <c r="E18" s="115" t="s">
         <v>116</v>
       </c>
@@ -50038,10 +50062,10 @@
       </c>
     </row>
     <row r="22" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="551" t="s">
+      <c r="A22" s="584" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="552"/>
+      <c r="B22" s="585"/>
       <c r="C22" s="81">
         <f>SUM(C19:C21)</f>
         <v>4894</v>
@@ -51126,32 +51150,32 @@
     </row>
     <row r="51" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="572" t="s">
+      <c r="A52" s="605" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="573"/>
-      <c r="C52" s="573"/>
-      <c r="D52" s="573"/>
-      <c r="E52" s="573"/>
-      <c r="F52" s="573"/>
-      <c r="G52" s="573"/>
-      <c r="H52" s="574"/>
-      <c r="I52" s="574"/>
-      <c r="J52" s="574"/>
-      <c r="K52" s="574"/>
-      <c r="L52" s="574"/>
-      <c r="M52" s="574"/>
-      <c r="N52" s="574"/>
-      <c r="O52" s="574"/>
-      <c r="P52" s="574"/>
-      <c r="Q52" s="574"/>
-      <c r="R52" s="574"/>
-      <c r="S52" s="574"/>
-      <c r="T52" s="574"/>
-      <c r="U52" s="574"/>
-      <c r="V52" s="574"/>
-      <c r="W52" s="574"/>
-      <c r="X52" s="575"/>
+      <c r="B52" s="606"/>
+      <c r="C52" s="606"/>
+      <c r="D52" s="606"/>
+      <c r="E52" s="606"/>
+      <c r="F52" s="606"/>
+      <c r="G52" s="606"/>
+      <c r="H52" s="607"/>
+      <c r="I52" s="607"/>
+      <c r="J52" s="607"/>
+      <c r="K52" s="607"/>
+      <c r="L52" s="607"/>
+      <c r="M52" s="607"/>
+      <c r="N52" s="607"/>
+      <c r="O52" s="607"/>
+      <c r="P52" s="607"/>
+      <c r="Q52" s="607"/>
+      <c r="R52" s="607"/>
+      <c r="S52" s="607"/>
+      <c r="T52" s="607"/>
+      <c r="U52" s="607"/>
+      <c r="V52" s="607"/>
+      <c r="W52" s="607"/>
+      <c r="X52" s="608"/>
       <c r="Y52" s="149"/>
       <c r="Z52" s="149"/>
       <c r="AA52" s="149"/>
@@ -51170,33 +51194,33 @@
       <c r="AN52" s="149"/>
     </row>
     <row r="53" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="579" t="s">
+      <c r="B53" s="612" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="583" t="s">
+      <c r="C53" s="616" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="583" t="s">
+      <c r="D53" s="616" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="583" t="s">
+      <c r="E53" s="616" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="577" t="s">
+      <c r="F53" s="610" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="581" t="s">
+      <c r="G53" s="614" t="s">
         <v>88</v>
       </c>
-      <c r="H53" s="577" t="s">
+      <c r="H53" s="610" t="s">
         <v>90</v>
       </c>
       <c r="I53" s="24"/>
-      <c r="J53" s="576"/>
+      <c r="J53" s="609"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
-      <c r="M53" s="576"/>
-      <c r="N53" s="576"/>
+      <c r="M53" s="609"/>
+      <c r="N53" s="609"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
@@ -51204,9 +51228,9 @@
       <c r="S53" s="24"/>
       <c r="T53" s="24"/>
       <c r="U53" s="24"/>
-      <c r="V53" s="576"/>
-      <c r="W53" s="576"/>
-      <c r="X53" s="576"/>
+      <c r="V53" s="609"/>
+      <c r="W53" s="609"/>
+      <c r="X53" s="609"/>
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
       <c r="AA53" s="24"/>
@@ -51225,19 +51249,19 @@
       <c r="AN53" s="185"/>
     </row>
     <row r="54" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="580"/>
-      <c r="C54" s="578"/>
-      <c r="D54" s="578"/>
-      <c r="E54" s="578"/>
-      <c r="F54" s="578"/>
-      <c r="G54" s="582"/>
-      <c r="H54" s="578"/>
+      <c r="B54" s="613"/>
+      <c r="C54" s="611"/>
+      <c r="D54" s="611"/>
+      <c r="E54" s="611"/>
+      <c r="F54" s="611"/>
+      <c r="G54" s="615"/>
+      <c r="H54" s="611"/>
       <c r="I54" s="24"/>
-      <c r="J54" s="576"/>
+      <c r="J54" s="609"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
-      <c r="M54" s="576"/>
-      <c r="N54" s="576"/>
+      <c r="M54" s="609"/>
+      <c r="N54" s="609"/>
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
@@ -51245,9 +51269,9 @@
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
       <c r="U54" s="24"/>
-      <c r="V54" s="576"/>
-      <c r="W54" s="576"/>
-      <c r="X54" s="576"/>
+      <c r="V54" s="609"/>
+      <c r="W54" s="609"/>
+      <c r="X54" s="609"/>
       <c r="AA54" s="24"/>
       <c r="AB54" s="24"/>
       <c r="AC54" s="187"/>
@@ -51304,9 +51328,9 @@
       <c r="V55" s="187"/>
       <c r="W55" s="187"/>
       <c r="X55" s="187"/>
-      <c r="Z55" s="550"/>
-      <c r="AA55" s="550"/>
-      <c r="AB55" s="550"/>
+      <c r="Z55" s="583"/>
+      <c r="AA55" s="583"/>
+      <c r="AB55" s="583"/>
       <c r="AC55" s="188"/>
       <c r="AD55" s="24"/>
       <c r="AE55" s="24"/>
@@ -51361,9 +51385,9 @@
       <c r="V56" s="188"/>
       <c r="W56" s="188"/>
       <c r="X56" s="188"/>
-      <c r="Z56" s="550"/>
-      <c r="AA56" s="550"/>
-      <c r="AB56" s="550"/>
+      <c r="Z56" s="583"/>
+      <c r="AA56" s="583"/>
+      <c r="AB56" s="583"/>
       <c r="AC56" s="187"/>
       <c r="AD56" s="24"/>
       <c r="AE56" s="24"/>
@@ -51418,9 +51442,9 @@
       <c r="V57" s="187"/>
       <c r="W57" s="187"/>
       <c r="X57" s="187"/>
-      <c r="Z57" s="550"/>
-      <c r="AA57" s="550"/>
-      <c r="AB57" s="550"/>
+      <c r="Z57" s="583"/>
+      <c r="AA57" s="583"/>
+      <c r="AB57" s="583"/>
       <c r="AC57" s="185"/>
       <c r="AD57" s="185"/>
       <c r="AE57" s="185"/>
@@ -51442,45 +51466,45 @@
         <f>SUM(B56:AF56)</f>
         <v>885000</v>
       </c>
-      <c r="C58" s="548"/>
-      <c r="D58" s="549"/>
-      <c r="E58" s="549"/>
-      <c r="F58" s="549"/>
-      <c r="G58" s="549"/>
-      <c r="H58" s="549"/>
-      <c r="I58" s="549"/>
-      <c r="J58" s="549"/>
-      <c r="K58" s="549"/>
-      <c r="L58" s="549"/>
-      <c r="M58" s="549"/>
-      <c r="N58" s="549"/>
-      <c r="O58" s="549"/>
-      <c r="P58" s="549"/>
-      <c r="Q58" s="549"/>
-      <c r="R58" s="549"/>
-      <c r="S58" s="549"/>
-      <c r="T58" s="549"/>
-      <c r="U58" s="549"/>
-      <c r="V58" s="549"/>
-      <c r="W58" s="549"/>
-      <c r="X58" s="549"/>
-      <c r="Y58" s="549"/>
-      <c r="Z58" s="549"/>
-      <c r="AA58" s="549"/>
-      <c r="AB58" s="549"/>
-      <c r="AC58" s="549"/>
-      <c r="AD58" s="549"/>
-      <c r="AE58" s="549"/>
-      <c r="AF58" s="549"/>
-      <c r="AG58" s="549"/>
-      <c r="AH58" s="549"/>
-      <c r="AI58" s="549"/>
-      <c r="AJ58" s="549"/>
-      <c r="AK58" s="549"/>
-      <c r="AL58" s="549"/>
-      <c r="AM58" s="549"/>
-      <c r="AN58" s="549"/>
-      <c r="AO58" s="549"/>
+      <c r="C58" s="581"/>
+      <c r="D58" s="582"/>
+      <c r="E58" s="582"/>
+      <c r="F58" s="582"/>
+      <c r="G58" s="582"/>
+      <c r="H58" s="582"/>
+      <c r="I58" s="582"/>
+      <c r="J58" s="582"/>
+      <c r="K58" s="582"/>
+      <c r="L58" s="582"/>
+      <c r="M58" s="582"/>
+      <c r="N58" s="582"/>
+      <c r="O58" s="582"/>
+      <c r="P58" s="582"/>
+      <c r="Q58" s="582"/>
+      <c r="R58" s="582"/>
+      <c r="S58" s="582"/>
+      <c r="T58" s="582"/>
+      <c r="U58" s="582"/>
+      <c r="V58" s="582"/>
+      <c r="W58" s="582"/>
+      <c r="X58" s="582"/>
+      <c r="Y58" s="582"/>
+      <c r="Z58" s="582"/>
+      <c r="AA58" s="582"/>
+      <c r="AB58" s="582"/>
+      <c r="AC58" s="582"/>
+      <c r="AD58" s="582"/>
+      <c r="AE58" s="582"/>
+      <c r="AF58" s="582"/>
+      <c r="AG58" s="582"/>
+      <c r="AH58" s="582"/>
+      <c r="AI58" s="582"/>
+      <c r="AJ58" s="582"/>
+      <c r="AK58" s="582"/>
+      <c r="AL58" s="582"/>
+      <c r="AM58" s="582"/>
+      <c r="AN58" s="582"/>
+      <c r="AO58" s="582"/>
     </row>
     <row r="59" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="103" t="s">
@@ -51490,45 +51514,45 @@
         <f>B58*12</f>
         <v>10620000</v>
       </c>
-      <c r="C59" s="548"/>
-      <c r="D59" s="549"/>
-      <c r="E59" s="549"/>
-      <c r="F59" s="549"/>
-      <c r="G59" s="549"/>
-      <c r="H59" s="549"/>
-      <c r="I59" s="549"/>
-      <c r="J59" s="549"/>
-      <c r="K59" s="549"/>
-      <c r="L59" s="549"/>
-      <c r="M59" s="549"/>
-      <c r="N59" s="549"/>
-      <c r="O59" s="549"/>
-      <c r="P59" s="549"/>
-      <c r="Q59" s="549"/>
-      <c r="R59" s="549"/>
-      <c r="S59" s="549"/>
-      <c r="T59" s="549"/>
-      <c r="U59" s="549"/>
-      <c r="V59" s="549"/>
-      <c r="W59" s="549"/>
-      <c r="X59" s="549"/>
-      <c r="Y59" s="549"/>
-      <c r="Z59" s="549"/>
-      <c r="AA59" s="549"/>
-      <c r="AB59" s="549"/>
-      <c r="AC59" s="549"/>
-      <c r="AD59" s="549"/>
-      <c r="AE59" s="549"/>
-      <c r="AF59" s="549"/>
-      <c r="AG59" s="549"/>
-      <c r="AH59" s="549"/>
-      <c r="AI59" s="549"/>
-      <c r="AJ59" s="549"/>
-      <c r="AK59" s="549"/>
-      <c r="AL59" s="549"/>
-      <c r="AM59" s="549"/>
-      <c r="AN59" s="549"/>
-      <c r="AO59" s="549"/>
+      <c r="C59" s="581"/>
+      <c r="D59" s="582"/>
+      <c r="E59" s="582"/>
+      <c r="F59" s="582"/>
+      <c r="G59" s="582"/>
+      <c r="H59" s="582"/>
+      <c r="I59" s="582"/>
+      <c r="J59" s="582"/>
+      <c r="K59" s="582"/>
+      <c r="L59" s="582"/>
+      <c r="M59" s="582"/>
+      <c r="N59" s="582"/>
+      <c r="O59" s="582"/>
+      <c r="P59" s="582"/>
+      <c r="Q59" s="582"/>
+      <c r="R59" s="582"/>
+      <c r="S59" s="582"/>
+      <c r="T59" s="582"/>
+      <c r="U59" s="582"/>
+      <c r="V59" s="582"/>
+      <c r="W59" s="582"/>
+      <c r="X59" s="582"/>
+      <c r="Y59" s="582"/>
+      <c r="Z59" s="582"/>
+      <c r="AA59" s="582"/>
+      <c r="AB59" s="582"/>
+      <c r="AC59" s="582"/>
+      <c r="AD59" s="582"/>
+      <c r="AE59" s="582"/>
+      <c r="AF59" s="582"/>
+      <c r="AG59" s="582"/>
+      <c r="AH59" s="582"/>
+      <c r="AI59" s="582"/>
+      <c r="AJ59" s="582"/>
+      <c r="AK59" s="582"/>
+      <c r="AL59" s="582"/>
+      <c r="AM59" s="582"/>
+      <c r="AN59" s="582"/>
+      <c r="AO59" s="582"/>
     </row>
     <row r="60" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
@@ -51646,48 +51670,48 @@
       <c r="AN63" s="16"/>
     </row>
     <row r="64" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="563" t="s">
+      <c r="A64" s="596" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="564"/>
-      <c r="C64" s="564"/>
-      <c r="D64" s="564"/>
-      <c r="E64" s="564"/>
-      <c r="F64" s="564"/>
-      <c r="G64" s="564"/>
-      <c r="H64" s="565"/>
-      <c r="I64" s="565"/>
-      <c r="J64" s="565"/>
-      <c r="K64" s="565"/>
-      <c r="L64" s="564"/>
-      <c r="M64" s="564"/>
-      <c r="N64" s="564"/>
-      <c r="O64" s="564"/>
-      <c r="P64" s="564"/>
-      <c r="Q64" s="564"/>
-      <c r="R64" s="564"/>
-      <c r="S64" s="564"/>
-      <c r="T64" s="564"/>
-      <c r="U64" s="564"/>
-      <c r="V64" s="564"/>
-      <c r="W64" s="564"/>
-      <c r="X64" s="564"/>
-      <c r="Y64" s="564"/>
-      <c r="Z64" s="564"/>
-      <c r="AA64" s="564"/>
-      <c r="AB64" s="564"/>
-      <c r="AC64" s="564"/>
-      <c r="AD64" s="564"/>
-      <c r="AE64" s="564"/>
-      <c r="AF64" s="564"/>
-      <c r="AG64" s="564"/>
-      <c r="AH64" s="564"/>
-      <c r="AI64" s="564"/>
-      <c r="AJ64" s="564"/>
-      <c r="AK64" s="564"/>
-      <c r="AL64" s="564"/>
-      <c r="AM64" s="564"/>
-      <c r="AN64" s="566"/>
+      <c r="B64" s="597"/>
+      <c r="C64" s="597"/>
+      <c r="D64" s="597"/>
+      <c r="E64" s="597"/>
+      <c r="F64" s="597"/>
+      <c r="G64" s="597"/>
+      <c r="H64" s="598"/>
+      <c r="I64" s="598"/>
+      <c r="J64" s="598"/>
+      <c r="K64" s="598"/>
+      <c r="L64" s="597"/>
+      <c r="M64" s="597"/>
+      <c r="N64" s="597"/>
+      <c r="O64" s="597"/>
+      <c r="P64" s="597"/>
+      <c r="Q64" s="597"/>
+      <c r="R64" s="597"/>
+      <c r="S64" s="597"/>
+      <c r="T64" s="597"/>
+      <c r="U64" s="597"/>
+      <c r="V64" s="597"/>
+      <c r="W64" s="597"/>
+      <c r="X64" s="597"/>
+      <c r="Y64" s="597"/>
+      <c r="Z64" s="597"/>
+      <c r="AA64" s="597"/>
+      <c r="AB64" s="597"/>
+      <c r="AC64" s="597"/>
+      <c r="AD64" s="597"/>
+      <c r="AE64" s="597"/>
+      <c r="AF64" s="597"/>
+      <c r="AG64" s="597"/>
+      <c r="AH64" s="597"/>
+      <c r="AI64" s="597"/>
+      <c r="AJ64" s="597"/>
+      <c r="AK64" s="597"/>
+      <c r="AL64" s="597"/>
+      <c r="AM64" s="597"/>
+      <c r="AN64" s="599"/>
       <c r="AO64" s="8"/>
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
@@ -51711,76 +51735,76 @@
       <c r="BI64" s="8"/>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A65" s="567" t="s">
+      <c r="A65" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="567" t="s">
+      <c r="B65" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="570" t="s">
+      <c r="C65" s="603" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="571"/>
-      <c r="E65" s="553" t="s">
+      <c r="D65" s="604"/>
+      <c r="E65" s="586" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="554"/>
-      <c r="G65" s="555"/>
-      <c r="H65" s="553" t="s">
+      <c r="F65" s="587"/>
+      <c r="G65" s="588"/>
+      <c r="H65" s="586" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="554"/>
-      <c r="J65" s="555"/>
-      <c r="K65" s="553" t="s">
+      <c r="I65" s="587"/>
+      <c r="J65" s="588"/>
+      <c r="K65" s="586" t="s">
         <v>20</v>
       </c>
-      <c r="L65" s="554"/>
-      <c r="M65" s="555"/>
-      <c r="N65" s="553" t="s">
+      <c r="L65" s="587"/>
+      <c r="M65" s="588"/>
+      <c r="N65" s="586" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="554"/>
-      <c r="P65" s="555"/>
-      <c r="Q65" s="553" t="s">
+      <c r="O65" s="587"/>
+      <c r="P65" s="588"/>
+      <c r="Q65" s="586" t="s">
         <v>22</v>
       </c>
-      <c r="R65" s="554"/>
-      <c r="S65" s="555"/>
-      <c r="T65" s="553" t="s">
+      <c r="R65" s="587"/>
+      <c r="S65" s="588"/>
+      <c r="T65" s="586" t="s">
         <v>23</v>
       </c>
-      <c r="U65" s="554"/>
-      <c r="V65" s="555"/>
-      <c r="W65" s="553" t="s">
+      <c r="U65" s="587"/>
+      <c r="V65" s="588"/>
+      <c r="W65" s="586" t="s">
         <v>24</v>
       </c>
-      <c r="X65" s="554"/>
-      <c r="Y65" s="555"/>
-      <c r="Z65" s="553" t="s">
+      <c r="X65" s="587"/>
+      <c r="Y65" s="588"/>
+      <c r="Z65" s="586" t="s">
         <v>25</v>
       </c>
-      <c r="AA65" s="554"/>
-      <c r="AB65" s="555"/>
-      <c r="AC65" s="553" t="s">
+      <c r="AA65" s="587"/>
+      <c r="AB65" s="588"/>
+      <c r="AC65" s="586" t="s">
         <v>26</v>
       </c>
-      <c r="AD65" s="554"/>
-      <c r="AE65" s="555"/>
-      <c r="AF65" s="553" t="s">
+      <c r="AD65" s="587"/>
+      <c r="AE65" s="588"/>
+      <c r="AF65" s="586" t="s">
         <v>27</v>
       </c>
-      <c r="AG65" s="554"/>
-      <c r="AH65" s="555"/>
-      <c r="AI65" s="553" t="s">
+      <c r="AG65" s="587"/>
+      <c r="AH65" s="588"/>
+      <c r="AI65" s="586" t="s">
         <v>28</v>
       </c>
-      <c r="AJ65" s="554"/>
-      <c r="AK65" s="555"/>
-      <c r="AL65" s="553" t="s">
+      <c r="AJ65" s="587"/>
+      <c r="AK65" s="588"/>
+      <c r="AL65" s="586" t="s">
         <v>29</v>
       </c>
-      <c r="AM65" s="554"/>
-      <c r="AN65" s="555"/>
+      <c r="AM65" s="587"/>
+      <c r="AN65" s="588"/>
       <c r="AO65" s="8"/>
       <c r="AP65" s="8"/>
       <c r="AQ65" s="8"/>
@@ -51804,74 +51828,74 @@
       <c r="BI65" s="8"/>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A66" s="568"/>
-      <c r="B66" s="568"/>
-      <c r="C66" s="556" t="s">
+      <c r="A66" s="601"/>
+      <c r="B66" s="601"/>
+      <c r="C66" s="589" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="558" t="s">
+      <c r="D66" s="591" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="560">
+      <c r="E66" s="593">
         <v>0.02</v>
       </c>
-      <c r="F66" s="561"/>
-      <c r="G66" s="562"/>
-      <c r="H66" s="560">
+      <c r="F66" s="594"/>
+      <c r="G66" s="595"/>
+      <c r="H66" s="593">
         <v>0.04</v>
       </c>
-      <c r="I66" s="561"/>
-      <c r="J66" s="562"/>
-      <c r="K66" s="560">
+      <c r="I66" s="594"/>
+      <c r="J66" s="595"/>
+      <c r="K66" s="593">
         <v>0.04</v>
       </c>
-      <c r="L66" s="561"/>
-      <c r="M66" s="562"/>
-      <c r="N66" s="560">
+      <c r="L66" s="594"/>
+      <c r="M66" s="595"/>
+      <c r="N66" s="593">
         <v>0.05</v>
       </c>
-      <c r="O66" s="561"/>
-      <c r="P66" s="562"/>
-      <c r="Q66" s="560">
+      <c r="O66" s="594"/>
+      <c r="P66" s="595"/>
+      <c r="Q66" s="593">
         <v>0.06</v>
       </c>
-      <c r="R66" s="561"/>
-      <c r="S66" s="562"/>
-      <c r="T66" s="560">
+      <c r="R66" s="594"/>
+      <c r="S66" s="595"/>
+      <c r="T66" s="593">
         <v>0.08</v>
       </c>
-      <c r="U66" s="561"/>
-      <c r="V66" s="562"/>
-      <c r="W66" s="560">
+      <c r="U66" s="594"/>
+      <c r="V66" s="595"/>
+      <c r="W66" s="593">
         <v>0.1</v>
       </c>
-      <c r="X66" s="561"/>
-      <c r="Y66" s="562"/>
-      <c r="Z66" s="560">
+      <c r="X66" s="594"/>
+      <c r="Y66" s="595"/>
+      <c r="Z66" s="593">
         <v>0.11</v>
       </c>
-      <c r="AA66" s="561"/>
-      <c r="AB66" s="562"/>
-      <c r="AC66" s="560">
+      <c r="AA66" s="594"/>
+      <c r="AB66" s="595"/>
+      <c r="AC66" s="593">
         <v>0.11</v>
       </c>
-      <c r="AD66" s="561"/>
-      <c r="AE66" s="562"/>
-      <c r="AF66" s="560">
+      <c r="AD66" s="594"/>
+      <c r="AE66" s="595"/>
+      <c r="AF66" s="593">
         <v>0.12</v>
       </c>
-      <c r="AG66" s="561"/>
-      <c r="AH66" s="562"/>
-      <c r="AI66" s="560">
+      <c r="AG66" s="594"/>
+      <c r="AH66" s="595"/>
+      <c r="AI66" s="593">
         <v>0.13</v>
       </c>
-      <c r="AJ66" s="561"/>
-      <c r="AK66" s="562"/>
-      <c r="AL66" s="560">
+      <c r="AJ66" s="594"/>
+      <c r="AK66" s="595"/>
+      <c r="AL66" s="593">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM66" s="561"/>
-      <c r="AN66" s="562"/>
+      <c r="AM66" s="594"/>
+      <c r="AN66" s="595"/>
       <c r="AO66" s="8"/>
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
@@ -51895,10 +51919,10 @@
       <c r="BI66" s="8"/>
     </row>
     <row r="67" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="569"/>
-      <c r="B67" s="569"/>
-      <c r="C67" s="557"/>
-      <c r="D67" s="559"/>
+      <c r="A67" s="602"/>
+      <c r="B67" s="602"/>
+      <c r="C67" s="590"/>
+      <c r="D67" s="592"/>
       <c r="E67" s="115" t="s">
         <v>116</v>
       </c>
@@ -52510,10 +52534,10 @@
       </c>
     </row>
     <row r="71" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="551" t="s">
+      <c r="A71" s="584" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="552"/>
+      <c r="B71" s="585"/>
       <c r="C71" s="81">
         <f>SUM(C68:C70)</f>
         <v>9809</v>
@@ -52598,32 +52622,32 @@
     </row>
     <row r="100" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="572" t="s">
+      <c r="A101" s="605" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="573"/>
-      <c r="C101" s="573"/>
-      <c r="D101" s="573"/>
-      <c r="E101" s="573"/>
-      <c r="F101" s="573"/>
-      <c r="G101" s="573"/>
-      <c r="H101" s="573"/>
-      <c r="I101" s="573"/>
-      <c r="J101" s="573"/>
-      <c r="K101" s="573"/>
-      <c r="L101" s="573"/>
-      <c r="M101" s="573"/>
-      <c r="N101" s="573"/>
-      <c r="O101" s="573"/>
-      <c r="P101" s="573"/>
-      <c r="Q101" s="573"/>
-      <c r="R101" s="573"/>
-      <c r="S101" s="573"/>
-      <c r="T101" s="573"/>
-      <c r="U101" s="573"/>
-      <c r="V101" s="573"/>
-      <c r="W101" s="573"/>
-      <c r="X101" s="584"/>
+      <c r="B101" s="606"/>
+      <c r="C101" s="606"/>
+      <c r="D101" s="606"/>
+      <c r="E101" s="606"/>
+      <c r="F101" s="606"/>
+      <c r="G101" s="606"/>
+      <c r="H101" s="606"/>
+      <c r="I101" s="606"/>
+      <c r="J101" s="606"/>
+      <c r="K101" s="606"/>
+      <c r="L101" s="606"/>
+      <c r="M101" s="606"/>
+      <c r="N101" s="606"/>
+      <c r="O101" s="606"/>
+      <c r="P101" s="606"/>
+      <c r="Q101" s="606"/>
+      <c r="R101" s="606"/>
+      <c r="S101" s="606"/>
+      <c r="T101" s="606"/>
+      <c r="U101" s="606"/>
+      <c r="V101" s="606"/>
+      <c r="W101" s="606"/>
+      <c r="X101" s="617"/>
       <c r="Y101" s="149"/>
       <c r="Z101" s="149"/>
       <c r="AA101" s="149"/>
@@ -52642,41 +52666,41 @@
       <c r="AN101" s="99"/>
     </row>
     <row r="102" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="579" t="s">
+      <c r="B102" s="612" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="583" t="s">
+      <c r="C102" s="616" t="s">
         <v>72</v>
       </c>
-      <c r="D102" s="583" t="s">
+      <c r="D102" s="616" t="s">
         <v>79</v>
       </c>
-      <c r="E102" s="583" t="s">
+      <c r="E102" s="616" t="s">
         <v>81</v>
       </c>
-      <c r="F102" s="577" t="s">
+      <c r="F102" s="610" t="s">
         <v>84</v>
       </c>
-      <c r="G102" s="581" t="s">
+      <c r="G102" s="614" t="s">
         <v>88</v>
       </c>
-      <c r="H102" s="577" t="s">
+      <c r="H102" s="610" t="s">
         <v>90</v>
       </c>
-      <c r="I102" s="577" t="s">
+      <c r="I102" s="610" t="s">
         <v>91</v>
       </c>
-      <c r="J102" s="577" t="s">
+      <c r="J102" s="610" t="s">
         <v>92</v>
       </c>
-      <c r="K102" s="577" t="s">
+      <c r="K102" s="610" t="s">
         <v>93</v>
       </c>
-      <c r="L102" s="577" t="s">
+      <c r="L102" s="610" t="s">
         <v>77</v>
       </c>
-      <c r="M102" s="576"/>
-      <c r="N102" s="576"/>
+      <c r="M102" s="609"/>
+      <c r="N102" s="609"/>
       <c r="O102" s="24"/>
       <c r="P102" s="24"/>
       <c r="Q102" s="24"/>
@@ -52684,9 +52708,9 @@
       <c r="S102" s="24"/>
       <c r="T102" s="24"/>
       <c r="U102" s="24"/>
-      <c r="V102" s="576"/>
-      <c r="W102" s="576"/>
-      <c r="X102" s="576"/>
+      <c r="V102" s="609"/>
+      <c r="W102" s="609"/>
+      <c r="X102" s="609"/>
       <c r="Y102" s="24"/>
       <c r="Z102" s="24"/>
       <c r="AA102" s="24"/>
@@ -52705,19 +52729,19 @@
       <c r="AN102" s="185"/>
     </row>
     <row r="103" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="580"/>
-      <c r="C103" s="578"/>
-      <c r="D103" s="578"/>
-      <c r="E103" s="578"/>
-      <c r="F103" s="578"/>
-      <c r="G103" s="582"/>
-      <c r="H103" s="578"/>
-      <c r="I103" s="578"/>
-      <c r="J103" s="578"/>
-      <c r="K103" s="578"/>
-      <c r="L103" s="578"/>
-      <c r="M103" s="576"/>
-      <c r="N103" s="576"/>
+      <c r="B103" s="613"/>
+      <c r="C103" s="611"/>
+      <c r="D103" s="611"/>
+      <c r="E103" s="611"/>
+      <c r="F103" s="611"/>
+      <c r="G103" s="615"/>
+      <c r="H103" s="611"/>
+      <c r="I103" s="611"/>
+      <c r="J103" s="611"/>
+      <c r="K103" s="611"/>
+      <c r="L103" s="611"/>
+      <c r="M103" s="609"/>
+      <c r="N103" s="609"/>
       <c r="O103" s="24"/>
       <c r="P103" s="24"/>
       <c r="Q103" s="24"/>
@@ -52725,9 +52749,9 @@
       <c r="S103" s="24"/>
       <c r="T103" s="24"/>
       <c r="U103" s="24"/>
-      <c r="V103" s="576"/>
-      <c r="W103" s="576"/>
-      <c r="X103" s="576"/>
+      <c r="V103" s="609"/>
+      <c r="W103" s="609"/>
+      <c r="X103" s="609"/>
       <c r="AA103" s="24"/>
       <c r="AB103" s="24"/>
       <c r="AC103" s="187"/>
@@ -52792,9 +52816,9 @@
       <c r="V104" s="187"/>
       <c r="W104" s="187"/>
       <c r="X104" s="187"/>
-      <c r="Z104" s="550"/>
-      <c r="AA104" s="550"/>
-      <c r="AB104" s="550"/>
+      <c r="Z104" s="583"/>
+      <c r="AA104" s="583"/>
+      <c r="AB104" s="583"/>
       <c r="AC104" s="188"/>
       <c r="AD104" s="24"/>
       <c r="AE104" s="24"/>
@@ -52857,9 +52881,9 @@
       <c r="V105" s="188"/>
       <c r="W105" s="188"/>
       <c r="X105" s="188"/>
-      <c r="Z105" s="550"/>
-      <c r="AA105" s="550"/>
-      <c r="AB105" s="550"/>
+      <c r="Z105" s="583"/>
+      <c r="AA105" s="583"/>
+      <c r="AB105" s="583"/>
       <c r="AC105" s="187"/>
       <c r="AD105" s="24"/>
       <c r="AE105" s="24"/>
@@ -52922,9 +52946,9 @@
       <c r="V106" s="187"/>
       <c r="W106" s="187"/>
       <c r="X106" s="187"/>
-      <c r="Z106" s="550"/>
-      <c r="AA106" s="550"/>
-      <c r="AB106" s="550"/>
+      <c r="Z106" s="583"/>
+      <c r="AA106" s="583"/>
+      <c r="AB106" s="583"/>
       <c r="AC106" s="185"/>
       <c r="AD106" s="185"/>
       <c r="AE106" s="185"/>
@@ -52946,45 +52970,45 @@
         <f>SUM(B105:AF105)</f>
         <v>1195000</v>
       </c>
-      <c r="C107" s="548"/>
-      <c r="D107" s="549"/>
-      <c r="E107" s="549"/>
-      <c r="F107" s="549"/>
-      <c r="G107" s="549"/>
-      <c r="H107" s="549"/>
-      <c r="I107" s="549"/>
-      <c r="J107" s="549"/>
-      <c r="K107" s="549"/>
-      <c r="L107" s="549"/>
-      <c r="M107" s="549"/>
-      <c r="N107" s="549"/>
-      <c r="O107" s="549"/>
-      <c r="P107" s="549"/>
-      <c r="Q107" s="549"/>
-      <c r="R107" s="549"/>
-      <c r="S107" s="549"/>
-      <c r="T107" s="549"/>
-      <c r="U107" s="549"/>
-      <c r="V107" s="549"/>
-      <c r="W107" s="549"/>
-      <c r="X107" s="549"/>
-      <c r="Y107" s="549"/>
-      <c r="Z107" s="549"/>
-      <c r="AA107" s="549"/>
-      <c r="AB107" s="549"/>
-      <c r="AC107" s="549"/>
-      <c r="AD107" s="549"/>
-      <c r="AE107" s="549"/>
-      <c r="AF107" s="549"/>
-      <c r="AG107" s="549"/>
-      <c r="AH107" s="549"/>
-      <c r="AI107" s="549"/>
-      <c r="AJ107" s="549"/>
-      <c r="AK107" s="549"/>
-      <c r="AL107" s="549"/>
-      <c r="AM107" s="549"/>
-      <c r="AN107" s="549"/>
-      <c r="AO107" s="549"/>
+      <c r="C107" s="581"/>
+      <c r="D107" s="582"/>
+      <c r="E107" s="582"/>
+      <c r="F107" s="582"/>
+      <c r="G107" s="582"/>
+      <c r="H107" s="582"/>
+      <c r="I107" s="582"/>
+      <c r="J107" s="582"/>
+      <c r="K107" s="582"/>
+      <c r="L107" s="582"/>
+      <c r="M107" s="582"/>
+      <c r="N107" s="582"/>
+      <c r="O107" s="582"/>
+      <c r="P107" s="582"/>
+      <c r="Q107" s="582"/>
+      <c r="R107" s="582"/>
+      <c r="S107" s="582"/>
+      <c r="T107" s="582"/>
+      <c r="U107" s="582"/>
+      <c r="V107" s="582"/>
+      <c r="W107" s="582"/>
+      <c r="X107" s="582"/>
+      <c r="Y107" s="582"/>
+      <c r="Z107" s="582"/>
+      <c r="AA107" s="582"/>
+      <c r="AB107" s="582"/>
+      <c r="AC107" s="582"/>
+      <c r="AD107" s="582"/>
+      <c r="AE107" s="582"/>
+      <c r="AF107" s="582"/>
+      <c r="AG107" s="582"/>
+      <c r="AH107" s="582"/>
+      <c r="AI107" s="582"/>
+      <c r="AJ107" s="582"/>
+      <c r="AK107" s="582"/>
+      <c r="AL107" s="582"/>
+      <c r="AM107" s="582"/>
+      <c r="AN107" s="582"/>
+      <c r="AO107" s="582"/>
     </row>
     <row r="108" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="103" t="s">
@@ -52994,45 +53018,45 @@
         <f>B107*12</f>
         <v>14340000</v>
       </c>
-      <c r="C108" s="548"/>
-      <c r="D108" s="549"/>
-      <c r="E108" s="549"/>
-      <c r="F108" s="549"/>
-      <c r="G108" s="549"/>
-      <c r="H108" s="549"/>
-      <c r="I108" s="549"/>
-      <c r="J108" s="549"/>
-      <c r="K108" s="549"/>
-      <c r="L108" s="549"/>
-      <c r="M108" s="549"/>
-      <c r="N108" s="549"/>
-      <c r="O108" s="549"/>
-      <c r="P108" s="549"/>
-      <c r="Q108" s="549"/>
-      <c r="R108" s="549"/>
-      <c r="S108" s="549"/>
-      <c r="T108" s="549"/>
-      <c r="U108" s="549"/>
-      <c r="V108" s="549"/>
-      <c r="W108" s="549"/>
-      <c r="X108" s="549"/>
-      <c r="Y108" s="549"/>
-      <c r="Z108" s="549"/>
-      <c r="AA108" s="549"/>
-      <c r="AB108" s="549"/>
-      <c r="AC108" s="549"/>
-      <c r="AD108" s="549"/>
-      <c r="AE108" s="549"/>
-      <c r="AF108" s="549"/>
-      <c r="AG108" s="549"/>
-      <c r="AH108" s="549"/>
-      <c r="AI108" s="549"/>
-      <c r="AJ108" s="549"/>
-      <c r="AK108" s="549"/>
-      <c r="AL108" s="549"/>
-      <c r="AM108" s="549"/>
-      <c r="AN108" s="549"/>
-      <c r="AO108" s="549"/>
+      <c r="C108" s="581"/>
+      <c r="D108" s="582"/>
+      <c r="E108" s="582"/>
+      <c r="F108" s="582"/>
+      <c r="G108" s="582"/>
+      <c r="H108" s="582"/>
+      <c r="I108" s="582"/>
+      <c r="J108" s="582"/>
+      <c r="K108" s="582"/>
+      <c r="L108" s="582"/>
+      <c r="M108" s="582"/>
+      <c r="N108" s="582"/>
+      <c r="O108" s="582"/>
+      <c r="P108" s="582"/>
+      <c r="Q108" s="582"/>
+      <c r="R108" s="582"/>
+      <c r="S108" s="582"/>
+      <c r="T108" s="582"/>
+      <c r="U108" s="582"/>
+      <c r="V108" s="582"/>
+      <c r="W108" s="582"/>
+      <c r="X108" s="582"/>
+      <c r="Y108" s="582"/>
+      <c r="Z108" s="582"/>
+      <c r="AA108" s="582"/>
+      <c r="AB108" s="582"/>
+      <c r="AC108" s="582"/>
+      <c r="AD108" s="582"/>
+      <c r="AE108" s="582"/>
+      <c r="AF108" s="582"/>
+      <c r="AG108" s="582"/>
+      <c r="AH108" s="582"/>
+      <c r="AI108" s="582"/>
+      <c r="AJ108" s="582"/>
+      <c r="AK108" s="582"/>
+      <c r="AL108" s="582"/>
+      <c r="AM108" s="582"/>
+      <c r="AN108" s="582"/>
+      <c r="AO108" s="582"/>
     </row>
     <row r="109" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="178"/>
@@ -53120,48 +53144,48 @@
     </row>
     <row r="111" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="563" t="s">
+      <c r="A112" s="596" t="s">
         <v>97</v>
       </c>
-      <c r="B112" s="564"/>
-      <c r="C112" s="564"/>
-      <c r="D112" s="564"/>
-      <c r="E112" s="564"/>
-      <c r="F112" s="564"/>
-      <c r="G112" s="564"/>
-      <c r="H112" s="565"/>
-      <c r="I112" s="565"/>
-      <c r="J112" s="565"/>
-      <c r="K112" s="565"/>
-      <c r="L112" s="564"/>
-      <c r="M112" s="564"/>
-      <c r="N112" s="564"/>
-      <c r="O112" s="564"/>
-      <c r="P112" s="564"/>
-      <c r="Q112" s="564"/>
-      <c r="R112" s="564"/>
-      <c r="S112" s="564"/>
-      <c r="T112" s="564"/>
-      <c r="U112" s="564"/>
-      <c r="V112" s="564"/>
-      <c r="W112" s="564"/>
-      <c r="X112" s="564"/>
-      <c r="Y112" s="564"/>
-      <c r="Z112" s="564"/>
-      <c r="AA112" s="564"/>
-      <c r="AB112" s="564"/>
-      <c r="AC112" s="564"/>
-      <c r="AD112" s="564"/>
-      <c r="AE112" s="564"/>
-      <c r="AF112" s="564"/>
-      <c r="AG112" s="564"/>
-      <c r="AH112" s="564"/>
-      <c r="AI112" s="564"/>
-      <c r="AJ112" s="564"/>
-      <c r="AK112" s="564"/>
-      <c r="AL112" s="564"/>
-      <c r="AM112" s="564"/>
-      <c r="AN112" s="566"/>
+      <c r="B112" s="597"/>
+      <c r="C112" s="597"/>
+      <c r="D112" s="597"/>
+      <c r="E112" s="597"/>
+      <c r="F112" s="597"/>
+      <c r="G112" s="597"/>
+      <c r="H112" s="598"/>
+      <c r="I112" s="598"/>
+      <c r="J112" s="598"/>
+      <c r="K112" s="598"/>
+      <c r="L112" s="597"/>
+      <c r="M112" s="597"/>
+      <c r="N112" s="597"/>
+      <c r="O112" s="597"/>
+      <c r="P112" s="597"/>
+      <c r="Q112" s="597"/>
+      <c r="R112" s="597"/>
+      <c r="S112" s="597"/>
+      <c r="T112" s="597"/>
+      <c r="U112" s="597"/>
+      <c r="V112" s="597"/>
+      <c r="W112" s="597"/>
+      <c r="X112" s="597"/>
+      <c r="Y112" s="597"/>
+      <c r="Z112" s="597"/>
+      <c r="AA112" s="597"/>
+      <c r="AB112" s="597"/>
+      <c r="AC112" s="597"/>
+      <c r="AD112" s="597"/>
+      <c r="AE112" s="597"/>
+      <c r="AF112" s="597"/>
+      <c r="AG112" s="597"/>
+      <c r="AH112" s="597"/>
+      <c r="AI112" s="597"/>
+      <c r="AJ112" s="597"/>
+      <c r="AK112" s="597"/>
+      <c r="AL112" s="597"/>
+      <c r="AM112" s="597"/>
+      <c r="AN112" s="599"/>
       <c r="AO112" s="8"/>
       <c r="AP112" s="8"/>
       <c r="AQ112" s="8"/>
@@ -53185,76 +53209,76 @@
       <c r="BI112" s="8"/>
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A113" s="567" t="s">
+      <c r="A113" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="B113" s="567" t="s">
+      <c r="B113" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="570" t="s">
+      <c r="C113" s="603" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="585"/>
-      <c r="E113" s="553" t="s">
+      <c r="D113" s="618"/>
+      <c r="E113" s="586" t="s">
         <v>18</v>
       </c>
-      <c r="F113" s="554"/>
-      <c r="G113" s="554"/>
-      <c r="H113" s="553" t="s">
+      <c r="F113" s="587"/>
+      <c r="G113" s="587"/>
+      <c r="H113" s="586" t="s">
         <v>19</v>
       </c>
-      <c r="I113" s="554"/>
-      <c r="J113" s="555"/>
-      <c r="K113" s="553" t="s">
+      <c r="I113" s="587"/>
+      <c r="J113" s="588"/>
+      <c r="K113" s="586" t="s">
         <v>20</v>
       </c>
-      <c r="L113" s="554"/>
-      <c r="M113" s="555"/>
-      <c r="N113" s="553" t="s">
+      <c r="L113" s="587"/>
+      <c r="M113" s="588"/>
+      <c r="N113" s="586" t="s">
         <v>21</v>
       </c>
-      <c r="O113" s="554"/>
-      <c r="P113" s="555"/>
-      <c r="Q113" s="553" t="s">
+      <c r="O113" s="587"/>
+      <c r="P113" s="588"/>
+      <c r="Q113" s="586" t="s">
         <v>22</v>
       </c>
-      <c r="R113" s="554"/>
-      <c r="S113" s="555"/>
-      <c r="T113" s="553" t="s">
+      <c r="R113" s="587"/>
+      <c r="S113" s="588"/>
+      <c r="T113" s="586" t="s">
         <v>23</v>
       </c>
-      <c r="U113" s="554"/>
-      <c r="V113" s="555"/>
-      <c r="W113" s="553" t="s">
+      <c r="U113" s="587"/>
+      <c r="V113" s="588"/>
+      <c r="W113" s="586" t="s">
         <v>24</v>
       </c>
-      <c r="X113" s="554"/>
-      <c r="Y113" s="555"/>
-      <c r="Z113" s="553" t="s">
+      <c r="X113" s="587"/>
+      <c r="Y113" s="588"/>
+      <c r="Z113" s="586" t="s">
         <v>25</v>
       </c>
-      <c r="AA113" s="554"/>
-      <c r="AB113" s="555"/>
-      <c r="AC113" s="553" t="s">
+      <c r="AA113" s="587"/>
+      <c r="AB113" s="588"/>
+      <c r="AC113" s="586" t="s">
         <v>26</v>
       </c>
-      <c r="AD113" s="554"/>
-      <c r="AE113" s="555"/>
-      <c r="AF113" s="553" t="s">
+      <c r="AD113" s="587"/>
+      <c r="AE113" s="588"/>
+      <c r="AF113" s="586" t="s">
         <v>27</v>
       </c>
-      <c r="AG113" s="554"/>
-      <c r="AH113" s="555"/>
-      <c r="AI113" s="553" t="s">
+      <c r="AG113" s="587"/>
+      <c r="AH113" s="588"/>
+      <c r="AI113" s="586" t="s">
         <v>28</v>
       </c>
-      <c r="AJ113" s="554"/>
-      <c r="AK113" s="555"/>
-      <c r="AL113" s="553" t="s">
+      <c r="AJ113" s="587"/>
+      <c r="AK113" s="588"/>
+      <c r="AL113" s="586" t="s">
         <v>29</v>
       </c>
-      <c r="AM113" s="554"/>
-      <c r="AN113" s="555"/>
+      <c r="AM113" s="587"/>
+      <c r="AN113" s="588"/>
       <c r="AO113" s="8"/>
       <c r="AP113" s="8"/>
       <c r="AQ113" s="8"/>
@@ -53278,74 +53302,74 @@
       <c r="BI113" s="8"/>
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A114" s="568"/>
-      <c r="B114" s="568"/>
-      <c r="C114" s="556" t="s">
+      <c r="A114" s="601"/>
+      <c r="B114" s="601"/>
+      <c r="C114" s="589" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="588" t="s">
+      <c r="D114" s="621" t="s">
         <v>17</v>
       </c>
-      <c r="E114" s="560">
+      <c r="E114" s="593">
         <v>0.02</v>
       </c>
-      <c r="F114" s="561"/>
-      <c r="G114" s="561"/>
-      <c r="H114" s="560">
+      <c r="F114" s="594"/>
+      <c r="G114" s="594"/>
+      <c r="H114" s="593">
         <v>0.04</v>
       </c>
-      <c r="I114" s="561"/>
-      <c r="J114" s="562"/>
-      <c r="K114" s="560">
+      <c r="I114" s="594"/>
+      <c r="J114" s="595"/>
+      <c r="K114" s="593">
         <v>0.04</v>
       </c>
-      <c r="L114" s="561"/>
-      <c r="M114" s="562"/>
-      <c r="N114" s="560">
+      <c r="L114" s="594"/>
+      <c r="M114" s="595"/>
+      <c r="N114" s="593">
         <v>0.05</v>
       </c>
-      <c r="O114" s="561"/>
-      <c r="P114" s="562"/>
-      <c r="Q114" s="560">
+      <c r="O114" s="594"/>
+      <c r="P114" s="595"/>
+      <c r="Q114" s="593">
         <v>0.06</v>
       </c>
-      <c r="R114" s="561"/>
-      <c r="S114" s="562"/>
-      <c r="T114" s="560">
+      <c r="R114" s="594"/>
+      <c r="S114" s="595"/>
+      <c r="T114" s="593">
         <v>0.08</v>
       </c>
-      <c r="U114" s="561"/>
-      <c r="V114" s="562"/>
-      <c r="W114" s="560">
+      <c r="U114" s="594"/>
+      <c r="V114" s="595"/>
+      <c r="W114" s="593">
         <v>0.1</v>
       </c>
-      <c r="X114" s="561"/>
-      <c r="Y114" s="562"/>
-      <c r="Z114" s="560">
+      <c r="X114" s="594"/>
+      <c r="Y114" s="595"/>
+      <c r="Z114" s="593">
         <v>0.11</v>
       </c>
-      <c r="AA114" s="561"/>
-      <c r="AB114" s="562"/>
-      <c r="AC114" s="560">
+      <c r="AA114" s="594"/>
+      <c r="AB114" s="595"/>
+      <c r="AC114" s="593">
         <v>0.11</v>
       </c>
-      <c r="AD114" s="561"/>
-      <c r="AE114" s="562"/>
-      <c r="AF114" s="560">
+      <c r="AD114" s="594"/>
+      <c r="AE114" s="595"/>
+      <c r="AF114" s="593">
         <v>0.12</v>
       </c>
-      <c r="AG114" s="561"/>
-      <c r="AH114" s="562"/>
-      <c r="AI114" s="560">
+      <c r="AG114" s="594"/>
+      <c r="AH114" s="595"/>
+      <c r="AI114" s="593">
         <v>0.13</v>
       </c>
-      <c r="AJ114" s="561"/>
-      <c r="AK114" s="562"/>
-      <c r="AL114" s="560">
+      <c r="AJ114" s="594"/>
+      <c r="AK114" s="595"/>
+      <c r="AL114" s="593">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM114" s="561"/>
-      <c r="AN114" s="562"/>
+      <c r="AM114" s="594"/>
+      <c r="AN114" s="595"/>
       <c r="AO114" s="8"/>
       <c r="AP114" s="8"/>
       <c r="AQ114" s="8"/>
@@ -53369,10 +53393,10 @@
       <c r="BI114" s="8"/>
     </row>
     <row r="115" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="569"/>
-      <c r="B115" s="569"/>
-      <c r="C115" s="557"/>
-      <c r="D115" s="589"/>
+      <c r="A115" s="602"/>
+      <c r="B115" s="602"/>
+      <c r="C115" s="590"/>
+      <c r="D115" s="622"/>
       <c r="E115" s="223" t="s">
         <v>116</v>
       </c>
@@ -53984,10 +54008,10 @@
       </c>
     </row>
     <row r="119" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="551" t="s">
+      <c r="A119" s="584" t="s">
         <v>46</v>
       </c>
-      <c r="B119" s="552"/>
+      <c r="B119" s="585"/>
       <c r="C119" s="81">
         <f>SUM(C116:C118)</f>
         <v>20546</v>
@@ -54072,32 +54096,32 @@
     </row>
     <row r="147" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:40" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="572" t="s">
+      <c r="A148" s="605" t="s">
         <v>99</v>
       </c>
-      <c r="B148" s="573"/>
-      <c r="C148" s="573"/>
-      <c r="D148" s="573"/>
-      <c r="E148" s="573"/>
-      <c r="F148" s="573"/>
-      <c r="G148" s="573"/>
-      <c r="H148" s="573"/>
-      <c r="I148" s="573"/>
-      <c r="J148" s="573"/>
-      <c r="K148" s="573"/>
-      <c r="L148" s="573"/>
-      <c r="M148" s="573"/>
-      <c r="N148" s="573"/>
-      <c r="O148" s="573"/>
-      <c r="P148" s="573"/>
-      <c r="Q148" s="573"/>
-      <c r="R148" s="573"/>
-      <c r="S148" s="573"/>
-      <c r="T148" s="573"/>
-      <c r="U148" s="573"/>
-      <c r="V148" s="573"/>
-      <c r="W148" s="573"/>
-      <c r="X148" s="584"/>
+      <c r="B148" s="606"/>
+      <c r="C148" s="606"/>
+      <c r="D148" s="606"/>
+      <c r="E148" s="606"/>
+      <c r="F148" s="606"/>
+      <c r="G148" s="606"/>
+      <c r="H148" s="606"/>
+      <c r="I148" s="606"/>
+      <c r="J148" s="606"/>
+      <c r="K148" s="606"/>
+      <c r="L148" s="606"/>
+      <c r="M148" s="606"/>
+      <c r="N148" s="606"/>
+      <c r="O148" s="606"/>
+      <c r="P148" s="606"/>
+      <c r="Q148" s="606"/>
+      <c r="R148" s="606"/>
+      <c r="S148" s="606"/>
+      <c r="T148" s="606"/>
+      <c r="U148" s="606"/>
+      <c r="V148" s="606"/>
+      <c r="W148" s="606"/>
+      <c r="X148" s="617"/>
       <c r="Y148" s="149"/>
       <c r="Z148" s="149"/>
       <c r="AA148" s="149"/>
@@ -54116,73 +54140,73 @@
       <c r="AN148" s="99"/>
     </row>
     <row r="149" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="599" t="s">
+      <c r="B149" s="632" t="s">
         <v>71</v>
       </c>
-      <c r="C149" s="577" t="s">
+      <c r="C149" s="610" t="s">
         <v>72</v>
       </c>
-      <c r="D149" s="600" t="s">
+      <c r="D149" s="633" t="s">
         <v>73</v>
       </c>
-      <c r="E149" s="577" t="s">
+      <c r="E149" s="610" t="s">
         <v>74</v>
       </c>
-      <c r="F149" s="577" t="s">
+      <c r="F149" s="610" t="s">
         <v>75</v>
       </c>
-      <c r="G149" s="577" t="s">
+      <c r="G149" s="610" t="s">
         <v>76</v>
       </c>
-      <c r="H149" s="577" t="s">
+      <c r="H149" s="610" t="s">
         <v>77</v>
       </c>
-      <c r="I149" s="577" t="s">
+      <c r="I149" s="610" t="s">
         <v>78</v>
       </c>
-      <c r="J149" s="577" t="s">
+      <c r="J149" s="610" t="s">
         <v>79</v>
       </c>
-      <c r="K149" s="549" t="s">
+      <c r="K149" s="582" t="s">
         <v>80</v>
       </c>
-      <c r="L149" s="577" t="s">
+      <c r="L149" s="610" t="s">
         <v>81</v>
       </c>
-      <c r="M149" s="577" t="s">
+      <c r="M149" s="610" t="s">
         <v>82</v>
       </c>
-      <c r="N149" s="577" t="s">
+      <c r="N149" s="610" t="s">
         <v>83</v>
       </c>
-      <c r="O149" s="577" t="s">
+      <c r="O149" s="610" t="s">
         <v>84</v>
       </c>
-      <c r="P149" s="577" t="s">
+      <c r="P149" s="610" t="s">
         <v>85</v>
       </c>
-      <c r="Q149" s="577" t="s">
+      <c r="Q149" s="610" t="s">
         <v>86</v>
       </c>
-      <c r="R149" s="586" t="s">
+      <c r="R149" s="619" t="s">
         <v>87</v>
       </c>
-      <c r="S149" s="577" t="s">
+      <c r="S149" s="610" t="s">
         <v>88</v>
       </c>
-      <c r="T149" s="577" t="s">
+      <c r="T149" s="610" t="s">
         <v>89</v>
       </c>
-      <c r="U149" s="577" t="s">
+      <c r="U149" s="610" t="s">
         <v>90</v>
       </c>
-      <c r="V149" s="577" t="s">
+      <c r="V149" s="610" t="s">
         <v>91</v>
       </c>
-      <c r="W149" s="577" t="s">
+      <c r="W149" s="610" t="s">
         <v>92</v>
       </c>
-      <c r="X149" s="577" t="s">
+      <c r="X149" s="610" t="s">
         <v>93</v>
       </c>
       <c r="Y149" s="24"/>
@@ -54203,29 +54227,29 @@
       <c r="AN149" s="84"/>
     </row>
     <row r="150" spans="1:40" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="580"/>
-      <c r="C150" s="578"/>
-      <c r="D150" s="601"/>
-      <c r="E150" s="578"/>
-      <c r="F150" s="578"/>
-      <c r="G150" s="578"/>
-      <c r="H150" s="578"/>
-      <c r="I150" s="578"/>
-      <c r="J150" s="578"/>
-      <c r="K150" s="587"/>
-      <c r="L150" s="578"/>
-      <c r="M150" s="578"/>
-      <c r="N150" s="578"/>
-      <c r="O150" s="578"/>
-      <c r="P150" s="578"/>
-      <c r="Q150" s="578"/>
-      <c r="R150" s="587"/>
-      <c r="S150" s="578"/>
-      <c r="T150" s="578"/>
-      <c r="U150" s="578"/>
-      <c r="V150" s="578"/>
-      <c r="W150" s="578"/>
-      <c r="X150" s="578"/>
+      <c r="B150" s="613"/>
+      <c r="C150" s="611"/>
+      <c r="D150" s="634"/>
+      <c r="E150" s="611"/>
+      <c r="F150" s="611"/>
+      <c r="G150" s="611"/>
+      <c r="H150" s="611"/>
+      <c r="I150" s="611"/>
+      <c r="J150" s="611"/>
+      <c r="K150" s="620"/>
+      <c r="L150" s="611"/>
+      <c r="M150" s="611"/>
+      <c r="N150" s="611"/>
+      <c r="O150" s="611"/>
+      <c r="P150" s="611"/>
+      <c r="Q150" s="611"/>
+      <c r="R150" s="620"/>
+      <c r="S150" s="611"/>
+      <c r="T150" s="611"/>
+      <c r="U150" s="611"/>
+      <c r="V150" s="611"/>
+      <c r="W150" s="611"/>
+      <c r="X150" s="611"/>
       <c r="AA150" s="24"/>
       <c r="AB150" s="24"/>
       <c r="AC150" s="94"/>
@@ -54764,7 +54788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -54814,11 +54838,11 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="564"/>
-      <c r="D7" s="566"/>
+      <c r="C7" s="597"/>
+      <c r="D7" s="599"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="166">
@@ -54861,12 +54885,12 @@
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="602" t="s">
+      <c r="B15" s="635" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="603"/>
-      <c r="D15" s="603"/>
-      <c r="E15" s="604"/>
+      <c r="C15" s="636"/>
+      <c r="D15" s="636"/>
+      <c r="E15" s="637"/>
     </row>
     <row r="16" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="160" t="s">
@@ -54962,7 +54986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -55010,16 +55034,16 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="563" t="s">
+      <c r="C3" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="564"/>
-      <c r="E3" s="566"/>
-      <c r="G3" s="563" t="s">
+      <c r="D3" s="597"/>
+      <c r="E3" s="599"/>
+      <c r="G3" s="596" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="564"/>
-      <c r="I3" s="566"/>
+      <c r="H3" s="597"/>
+      <c r="I3" s="599"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="202">
@@ -55151,19 +55175,19 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="608" t="s">
+      <c r="A13" s="641" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="609"/>
-      <c r="C13" s="609"/>
-      <c r="D13" s="609"/>
-      <c r="E13" s="609"/>
-      <c r="F13" s="609"/>
-      <c r="G13" s="609"/>
-      <c r="H13" s="609"/>
-      <c r="I13" s="609"/>
-      <c r="J13" s="609"/>
-      <c r="K13" s="610"/>
+      <c r="B13" s="642"/>
+      <c r="C13" s="642"/>
+      <c r="D13" s="642"/>
+      <c r="E13" s="642"/>
+      <c r="F13" s="642"/>
+      <c r="G13" s="642"/>
+      <c r="H13" s="642"/>
+      <c r="I13" s="642"/>
+      <c r="J13" s="642"/>
+      <c r="K13" s="643"/>
       <c r="L13" s="204"/>
       <c r="M13" s="204"/>
       <c r="N13" s="204"/>
@@ -55173,18 +55197,18 @@
       <c r="A14" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="611" t="s">
+      <c r="B14" s="644" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="612"/>
-      <c r="D14" s="612"/>
-      <c r="E14" s="612"/>
-      <c r="F14" s="612"/>
-      <c r="G14" s="612"/>
-      <c r="H14" s="612"/>
-      <c r="I14" s="612"/>
-      <c r="J14" s="612"/>
-      <c r="K14" s="612"/>
+      <c r="C14" s="645"/>
+      <c r="D14" s="645"/>
+      <c r="E14" s="645"/>
+      <c r="F14" s="645"/>
+      <c r="G14" s="645"/>
+      <c r="H14" s="645"/>
+      <c r="I14" s="645"/>
+      <c r="J14" s="645"/>
+      <c r="K14" s="645"/>
       <c r="L14" s="204"/>
       <c r="M14" s="204"/>
       <c r="N14" s="204"/>
@@ -55194,18 +55218,18 @@
       <c r="A15" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="613" t="s">
+      <c r="B15" s="646" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="614"/>
-      <c r="D15" s="614"/>
-      <c r="E15" s="614"/>
-      <c r="F15" s="614"/>
-      <c r="G15" s="614"/>
-      <c r="H15" s="614"/>
-      <c r="I15" s="614"/>
-      <c r="J15" s="614"/>
-      <c r="K15" s="615"/>
+      <c r="C15" s="647"/>
+      <c r="D15" s="647"/>
+      <c r="E15" s="647"/>
+      <c r="F15" s="647"/>
+      <c r="G15" s="647"/>
+      <c r="H15" s="647"/>
+      <c r="I15" s="647"/>
+      <c r="J15" s="647"/>
+      <c r="K15" s="648"/>
       <c r="L15" s="204"/>
       <c r="M15" s="204"/>
       <c r="N15" s="204"/>
@@ -55215,18 +55239,18 @@
       <c r="A16" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="611" t="s">
+      <c r="B16" s="644" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="612"/>
-      <c r="D16" s="612"/>
-      <c r="E16" s="612"/>
-      <c r="F16" s="612"/>
-      <c r="G16" s="612"/>
-      <c r="H16" s="612"/>
-      <c r="I16" s="612"/>
-      <c r="J16" s="612"/>
-      <c r="K16" s="612"/>
+      <c r="C16" s="645"/>
+      <c r="D16" s="645"/>
+      <c r="E16" s="645"/>
+      <c r="F16" s="645"/>
+      <c r="G16" s="645"/>
+      <c r="H16" s="645"/>
+      <c r="I16" s="645"/>
+      <c r="J16" s="645"/>
+      <c r="K16" s="645"/>
       <c r="L16" s="204"/>
       <c r="M16" s="204"/>
       <c r="N16" s="204"/>
@@ -55236,18 +55260,18 @@
       <c r="A17" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="616" t="s">
+      <c r="B17" s="649" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="614"/>
-      <c r="D17" s="614"/>
-      <c r="E17" s="614"/>
-      <c r="F17" s="614"/>
-      <c r="G17" s="614"/>
-      <c r="H17" s="614"/>
-      <c r="I17" s="614"/>
-      <c r="J17" s="614"/>
-      <c r="K17" s="615"/>
+      <c r="C17" s="647"/>
+      <c r="D17" s="647"/>
+      <c r="E17" s="647"/>
+      <c r="F17" s="647"/>
+      <c r="G17" s="647"/>
+      <c r="H17" s="647"/>
+      <c r="I17" s="647"/>
+      <c r="J17" s="647"/>
+      <c r="K17" s="648"/>
       <c r="L17" s="204"/>
       <c r="M17" s="204"/>
       <c r="N17" s="204"/>
@@ -55305,22 +55329,22 @@
       <c r="O20"/>
     </row>
     <row r="21" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="605" t="s">
+      <c r="A21" s="638" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="606"/>
-      <c r="C21" s="606"/>
-      <c r="D21" s="606"/>
-      <c r="E21" s="606"/>
-      <c r="F21" s="606"/>
-      <c r="G21" s="606"/>
-      <c r="H21" s="606"/>
-      <c r="I21" s="606"/>
-      <c r="J21" s="606"/>
-      <c r="K21" s="606"/>
-      <c r="L21" s="606"/>
-      <c r="M21" s="606"/>
-      <c r="N21" s="607"/>
+      <c r="B21" s="639"/>
+      <c r="C21" s="639"/>
+      <c r="D21" s="639"/>
+      <c r="E21" s="639"/>
+      <c r="F21" s="639"/>
+      <c r="G21" s="639"/>
+      <c r="H21" s="639"/>
+      <c r="I21" s="639"/>
+      <c r="J21" s="639"/>
+      <c r="K21" s="639"/>
+      <c r="L21" s="639"/>
+      <c r="M21" s="639"/>
+      <c r="N21" s="640"/>
       <c r="O21"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -55916,22 +55940,22 @@
       <c r="O35"/>
     </row>
     <row r="36" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="605" t="s">
+      <c r="A36" s="638" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="606"/>
-      <c r="C36" s="606"/>
-      <c r="D36" s="606"/>
-      <c r="E36" s="606"/>
-      <c r="F36" s="606"/>
-      <c r="G36" s="606"/>
-      <c r="H36" s="606"/>
-      <c r="I36" s="606"/>
-      <c r="J36" s="606"/>
-      <c r="K36" s="606"/>
-      <c r="L36" s="606"/>
-      <c r="M36" s="606"/>
-      <c r="N36" s="607"/>
+      <c r="B36" s="639"/>
+      <c r="C36" s="639"/>
+      <c r="D36" s="639"/>
+      <c r="E36" s="639"/>
+      <c r="F36" s="639"/>
+      <c r="G36" s="639"/>
+      <c r="H36" s="639"/>
+      <c r="I36" s="639"/>
+      <c r="J36" s="639"/>
+      <c r="K36" s="639"/>
+      <c r="L36" s="639"/>
+      <c r="M36" s="639"/>
+      <c r="N36" s="640"/>
       <c r="O36"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -56527,22 +56551,22 @@
       <c r="O50"/>
     </row>
     <row r="51" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="605" t="s">
+      <c r="A51" s="638" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="606"/>
-      <c r="C51" s="606"/>
-      <c r="D51" s="606"/>
-      <c r="E51" s="606"/>
-      <c r="F51" s="606"/>
-      <c r="G51" s="606"/>
-      <c r="H51" s="606"/>
-      <c r="I51" s="606"/>
-      <c r="J51" s="606"/>
-      <c r="K51" s="606"/>
-      <c r="L51" s="606"/>
-      <c r="M51" s="606"/>
-      <c r="N51" s="607"/>
+      <c r="B51" s="639"/>
+      <c r="C51" s="639"/>
+      <c r="D51" s="639"/>
+      <c r="E51" s="639"/>
+      <c r="F51" s="639"/>
+      <c r="G51" s="639"/>
+      <c r="H51" s="639"/>
+      <c r="I51" s="639"/>
+      <c r="J51" s="639"/>
+      <c r="K51" s="639"/>
+      <c r="L51" s="639"/>
+      <c r="M51" s="639"/>
+      <c r="N51" s="640"/>
       <c r="O51"/>
     </row>
     <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -57117,10 +57141,10 @@
     <mergeCell ref="B17:K17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="B16" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="B17" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B17" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -57129,7 +57153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -57210,17 +57234,17 @@
     </row>
     <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="620" t="s">
+      <c r="B4" s="653" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="621"/>
-      <c r="D4" s="622"/>
+      <c r="C4" s="654"/>
+      <c r="D4" s="655"/>
       <c r="E4" s="14"/>
-      <c r="H4" s="620" t="s">
+      <c r="H4" s="653" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="621"/>
-      <c r="J4" s="622"/>
+      <c r="I4" s="654"/>
+      <c r="J4" s="655"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5" s="72">
@@ -57287,71 +57311,71 @@
     </row>
     <row r="8" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:32" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="623" t="s">
+      <c r="A13" s="656" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="624"/>
-      <c r="C13" s="624"/>
-      <c r="D13" s="624"/>
-      <c r="E13" s="624"/>
-      <c r="F13" s="624"/>
-      <c r="G13" s="624"/>
-      <c r="H13" s="624"/>
-      <c r="I13" s="624"/>
-      <c r="J13" s="624"/>
-      <c r="K13" s="625"/>
+      <c r="B13" s="657"/>
+      <c r="C13" s="657"/>
+      <c r="D13" s="657"/>
+      <c r="E13" s="657"/>
+      <c r="F13" s="657"/>
+      <c r="G13" s="657"/>
+      <c r="H13" s="657"/>
+      <c r="I13" s="657"/>
+      <c r="J13" s="657"/>
+      <c r="K13" s="658"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="193" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="626" t="s">
+      <c r="B14" s="659" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="627"/>
-      <c r="D14" s="627"/>
-      <c r="E14" s="627"/>
-      <c r="F14" s="627"/>
-      <c r="G14" s="627"/>
-      <c r="H14" s="627"/>
-      <c r="I14" s="627"/>
-      <c r="J14" s="627"/>
-      <c r="K14" s="627"/>
+      <c r="C14" s="660"/>
+      <c r="D14" s="660"/>
+      <c r="E14" s="660"/>
+      <c r="F14" s="660"/>
+      <c r="G14" s="660"/>
+      <c r="H14" s="660"/>
+      <c r="I14" s="660"/>
+      <c r="J14" s="660"/>
+      <c r="K14" s="660"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="628" t="s">
+      <c r="B15" s="661" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="629"/>
-      <c r="D15" s="629"/>
-      <c r="E15" s="629"/>
-      <c r="F15" s="629"/>
-      <c r="G15" s="629"/>
-      <c r="H15" s="629"/>
-      <c r="I15" s="629"/>
-      <c r="J15" s="629"/>
-      <c r="K15" s="630"/>
+      <c r="C15" s="662"/>
+      <c r="D15" s="662"/>
+      <c r="E15" s="662"/>
+      <c r="F15" s="662"/>
+      <c r="G15" s="662"/>
+      <c r="H15" s="662"/>
+      <c r="I15" s="662"/>
+      <c r="J15" s="662"/>
+      <c r="K15" s="663"/>
     </row>
     <row r="19" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="617" t="s">
+      <c r="A19" s="650" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="618"/>
-      <c r="C19" s="618"/>
-      <c r="D19" s="618"/>
-      <c r="E19" s="618"/>
-      <c r="F19" s="618"/>
-      <c r="G19" s="618"/>
-      <c r="H19" s="618"/>
-      <c r="I19" s="618"/>
-      <c r="J19" s="618"/>
-      <c r="K19" s="618"/>
-      <c r="L19" s="618"/>
-      <c r="M19" s="618"/>
-      <c r="N19" s="619"/>
+      <c r="B19" s="651"/>
+      <c r="C19" s="651"/>
+      <c r="D19" s="651"/>
+      <c r="E19" s="651"/>
+      <c r="F19" s="651"/>
+      <c r="G19" s="651"/>
+      <c r="H19" s="651"/>
+      <c r="I19" s="651"/>
+      <c r="J19" s="651"/>
+      <c r="K19" s="651"/>
+      <c r="L19" s="651"/>
+      <c r="M19" s="651"/>
+      <c r="N19" s="652"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="194" t="s">
@@ -57539,22 +57563,22 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="617" t="s">
+      <c r="A28" s="650" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="618"/>
-      <c r="C28" s="618"/>
-      <c r="D28" s="618"/>
-      <c r="E28" s="618"/>
-      <c r="F28" s="618"/>
-      <c r="G28" s="618"/>
-      <c r="H28" s="618"/>
-      <c r="I28" s="618"/>
-      <c r="J28" s="618"/>
-      <c r="K28" s="618"/>
-      <c r="L28" s="618"/>
-      <c r="M28" s="618"/>
-      <c r="N28" s="619"/>
+      <c r="B28" s="651"/>
+      <c r="C28" s="651"/>
+      <c r="D28" s="651"/>
+      <c r="E28" s="651"/>
+      <c r="F28" s="651"/>
+      <c r="G28" s="651"/>
+      <c r="H28" s="651"/>
+      <c r="I28" s="651"/>
+      <c r="J28" s="651"/>
+      <c r="K28" s="651"/>
+      <c r="L28" s="651"/>
+      <c r="M28" s="651"/>
+      <c r="N28" s="652"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="194" t="s">
@@ -57605,51 +57629,51 @@
         <v>110</v>
       </c>
       <c r="B30" s="198">
-        <f>B21</f>
+        <f t="shared" ref="B30:M30" si="1">B21</f>
         <v>15200</v>
       </c>
       <c r="C30" s="198">
-        <f>C21</f>
+        <f t="shared" si="1"/>
         <v>15200</v>
       </c>
       <c r="D30" s="198">
-        <f>D21</f>
+        <f t="shared" si="1"/>
         <v>15200</v>
       </c>
       <c r="E30" s="198">
-        <f>E21</f>
+        <f t="shared" si="1"/>
         <v>15200</v>
       </c>
       <c r="F30" s="198">
-        <f>F21</f>
+        <f t="shared" si="1"/>
         <v>15200</v>
       </c>
       <c r="G30" s="198">
-        <f>G21</f>
+        <f t="shared" si="1"/>
         <v>15200</v>
       </c>
       <c r="H30" s="198">
-        <f>H21</f>
+        <f t="shared" si="1"/>
         <v>15200</v>
       </c>
       <c r="I30" s="198">
-        <f>I21</f>
+        <f t="shared" si="1"/>
         <v>15200</v>
       </c>
       <c r="J30" s="198">
-        <f>J21</f>
+        <f t="shared" si="1"/>
         <v>15200</v>
       </c>
       <c r="K30" s="198">
-        <f>K21</f>
+        <f t="shared" si="1"/>
         <v>15200</v>
       </c>
       <c r="L30" s="198">
-        <f>L21</f>
+        <f t="shared" si="1"/>
         <v>15200</v>
       </c>
       <c r="M30" s="198">
-        <f>M21</f>
+        <f t="shared" si="1"/>
         <v>15200</v>
       </c>
       <c r="N30" s="199"/>
@@ -57701,51 +57725,51 @@
         <v>7</v>
       </c>
       <c r="B32" s="201">
-        <f t="shared" ref="B32:M32" si="1">SUM(B30:B31)</f>
+        <f t="shared" ref="B32:M32" si="2">SUM(B30:B31)</f>
         <v>18415.849999999999</v>
       </c>
       <c r="C32" s="201">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18415.849999999999</v>
       </c>
       <c r="D32" s="201">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18415.849999999999</v>
       </c>
       <c r="E32" s="201">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18415.849999999999</v>
       </c>
       <c r="F32" s="201">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18415.849999999999</v>
       </c>
       <c r="G32" s="201">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18415.849999999999</v>
       </c>
       <c r="H32" s="201">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18415.849999999999</v>
       </c>
       <c r="I32" s="201">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18415.849999999999</v>
       </c>
       <c r="J32" s="201">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18415.849999999999</v>
       </c>
       <c r="K32" s="201">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18415.849999999999</v>
       </c>
       <c r="L32" s="201">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18415.849999999999</v>
       </c>
       <c r="M32" s="201">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18415.849999999999</v>
       </c>
       <c r="N32" s="221">
@@ -57754,22 +57778,22 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="617" t="s">
+      <c r="A36" s="650" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="618"/>
-      <c r="C36" s="618"/>
-      <c r="D36" s="618"/>
-      <c r="E36" s="618"/>
-      <c r="F36" s="618"/>
-      <c r="G36" s="618"/>
-      <c r="H36" s="618"/>
-      <c r="I36" s="618"/>
-      <c r="J36" s="618"/>
-      <c r="K36" s="618"/>
-      <c r="L36" s="618"/>
-      <c r="M36" s="618"/>
-      <c r="N36" s="619"/>
+      <c r="B36" s="651"/>
+      <c r="C36" s="651"/>
+      <c r="D36" s="651"/>
+      <c r="E36" s="651"/>
+      <c r="F36" s="651"/>
+      <c r="G36" s="651"/>
+      <c r="H36" s="651"/>
+      <c r="I36" s="651"/>
+      <c r="J36" s="651"/>
+      <c r="K36" s="651"/>
+      <c r="L36" s="651"/>
+      <c r="M36" s="651"/>
+      <c r="N36" s="652"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="194" t="s">
@@ -57820,51 +57844,51 @@
         <v>110</v>
       </c>
       <c r="B38" s="198">
-        <f>B30</f>
+        <f t="shared" ref="B38:M38" si="3">B30</f>
         <v>15200</v>
       </c>
       <c r="C38" s="198">
-        <f>C30</f>
+        <f t="shared" si="3"/>
         <v>15200</v>
       </c>
       <c r="D38" s="198">
-        <f>D30</f>
+        <f t="shared" si="3"/>
         <v>15200</v>
       </c>
       <c r="E38" s="198">
-        <f>E30</f>
+        <f t="shared" si="3"/>
         <v>15200</v>
       </c>
       <c r="F38" s="198">
-        <f>F30</f>
+        <f t="shared" si="3"/>
         <v>15200</v>
       </c>
       <c r="G38" s="198">
-        <f>G30</f>
+        <f t="shared" si="3"/>
         <v>15200</v>
       </c>
       <c r="H38" s="198">
-        <f>H30</f>
+        <f t="shared" si="3"/>
         <v>15200</v>
       </c>
       <c r="I38" s="198">
-        <f>I30</f>
+        <f t="shared" si="3"/>
         <v>15200</v>
       </c>
       <c r="J38" s="198">
-        <f>J30</f>
+        <f t="shared" si="3"/>
         <v>15200</v>
       </c>
       <c r="K38" s="198">
-        <f>K30</f>
+        <f t="shared" si="3"/>
         <v>15200</v>
       </c>
       <c r="L38" s="198">
-        <f>L30</f>
+        <f t="shared" si="3"/>
         <v>15200</v>
       </c>
       <c r="M38" s="198">
-        <f>M30</f>
+        <f t="shared" si="3"/>
         <v>15200</v>
       </c>
       <c r="N38" s="199"/>
@@ -57916,51 +57940,51 @@
         <v>7</v>
       </c>
       <c r="B40" s="201">
-        <f t="shared" ref="B40:M40" si="2">SUM(B38:B39)</f>
+        <f t="shared" ref="B40:M40" si="4">SUM(B38:B39)</f>
         <v>17609.12</v>
       </c>
       <c r="C40" s="201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17609.12</v>
       </c>
       <c r="D40" s="201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17609.12</v>
       </c>
       <c r="E40" s="201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17609.12</v>
       </c>
       <c r="F40" s="201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17609.12</v>
       </c>
       <c r="G40" s="201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17609.12</v>
       </c>
       <c r="H40" s="201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17609.12</v>
       </c>
       <c r="I40" s="201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17609.12</v>
       </c>
       <c r="J40" s="201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17609.12</v>
       </c>
       <c r="K40" s="201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17609.12</v>
       </c>
       <c r="L40" s="201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17609.12</v>
       </c>
       <c r="M40" s="201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17609.12</v>
       </c>
       <c r="N40" s="221">
@@ -57980,8 +58004,8 @@
     <mergeCell ref="B15:K15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" location="/addService" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" location="commercial?billing=yearly" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="B14" r:id="rId1" location="/addService"/>
+    <hyperlink ref="B15" r:id="rId2" location="commercial?billing=yearly"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -57990,7 +58014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF189"/>
   <sheetViews>
     <sheetView topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -58125,19 +58149,19 @@
     </row>
     <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="620" t="s">
+      <c r="B4" s="653" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="621"/>
-      <c r="D4" s="622"/>
+      <c r="C4" s="654"/>
+      <c r="D4" s="655"/>
       <c r="E4" s="234"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="620" t="s">
+      <c r="H4" s="653" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="621"/>
-      <c r="J4" s="622"/>
+      <c r="I4" s="654"/>
+      <c r="J4" s="655"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -58406,19 +58430,19 @@
     </row>
     <row r="11" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="563" t="s">
+      <c r="B11" s="596" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="564"/>
-      <c r="D11" s="564"/>
-      <c r="E11" s="564"/>
-      <c r="F11" s="564"/>
-      <c r="G11" s="564"/>
-      <c r="H11" s="564"/>
-      <c r="I11" s="564"/>
-      <c r="J11" s="564"/>
-      <c r="K11" s="564"/>
-      <c r="L11" s="566"/>
+      <c r="C11" s="597"/>
+      <c r="D11" s="597"/>
+      <c r="E11" s="597"/>
+      <c r="F11" s="597"/>
+      <c r="G11" s="597"/>
+      <c r="H11" s="597"/>
+      <c r="I11" s="597"/>
+      <c r="J11" s="597"/>
+      <c r="K11" s="597"/>
+      <c r="L11" s="599"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -58442,13 +58466,13 @@
     </row>
     <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="639" t="s">
+      <c r="B12" s="672" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="641" t="s">
+      <c r="C12" s="674" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="643" t="s">
+      <c r="D12" s="676" t="s">
         <v>123</v>
       </c>
       <c r="E12" s="269" t="s">
@@ -58469,10 +58493,10 @@
       <c r="J12" s="272" t="s">
         <v>129</v>
       </c>
-      <c r="K12" s="645" t="s">
+      <c r="K12" s="678" t="s">
         <v>130</v>
       </c>
-      <c r="L12" s="645" t="s">
+      <c r="L12" s="678" t="s">
         <v>131</v>
       </c>
       <c r="M12" s="1"/>
@@ -58498,9 +58522,9 @@
     </row>
     <row r="13" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="640"/>
-      <c r="C13" s="642"/>
-      <c r="D13" s="644"/>
+      <c r="B13" s="673"/>
+      <c r="C13" s="675"/>
+      <c r="D13" s="677"/>
       <c r="E13" s="273">
         <v>0.1047</v>
       </c>
@@ -58519,8 +58543,8 @@
       <c r="J13" s="276">
         <v>0.03</v>
       </c>
-      <c r="K13" s="646"/>
-      <c r="L13" s="646"/>
+      <c r="K13" s="679"/>
+      <c r="L13" s="679"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -58607,7 +58631,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="647" t="s">
+      <c r="B15" s="680" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="296" t="s">
@@ -58670,7 +58694,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="648"/>
+      <c r="B16" s="681"/>
       <c r="C16" s="298" t="s">
         <v>73</v>
       </c>
@@ -58731,7 +58755,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="648"/>
+      <c r="B17" s="681"/>
       <c r="C17" s="298" t="s">
         <v>74</v>
       </c>
@@ -58792,7 +58816,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="648"/>
+      <c r="B18" s="681"/>
       <c r="C18" s="298" t="s">
         <v>75</v>
       </c>
@@ -58853,7 +58877,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="649"/>
+      <c r="B19" s="682"/>
       <c r="C19" s="299" t="s">
         <v>76</v>
       </c>
@@ -58914,7 +58938,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="649"/>
+      <c r="B20" s="682"/>
       <c r="C20" s="298" t="s">
         <v>145</v>
       </c>
@@ -58975,7 +58999,7 @@
     </row>
     <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="650"/>
+      <c r="B21" s="683"/>
       <c r="C21" s="300" t="s">
         <v>78</v>
       </c>
@@ -59036,7 +59060,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="651" t="s">
+      <c r="B22" s="684" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="292" t="s">
@@ -59099,7 +59123,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="652"/>
+      <c r="B23" s="685"/>
       <c r="C23" s="293" t="s">
         <v>82</v>
       </c>
@@ -59160,7 +59184,7 @@
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="653"/>
+      <c r="B24" s="686"/>
       <c r="C24" s="294" t="s">
         <v>146</v>
       </c>
@@ -59221,7 +59245,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="654" t="s">
+      <c r="B25" s="687" t="s">
         <v>135</v>
       </c>
       <c r="C25" s="292" t="s">
@@ -59284,7 +59308,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="655"/>
+      <c r="B26" s="688"/>
       <c r="C26" s="266" t="s">
         <v>85</v>
       </c>
@@ -59345,7 +59369,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="656"/>
+      <c r="B27" s="689"/>
       <c r="C27" s="266" t="s">
         <v>86</v>
       </c>
@@ -59406,7 +59430,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="656"/>
+      <c r="B28" s="689"/>
       <c r="C28" s="293" t="s">
         <v>87</v>
       </c>
@@ -59467,7 +59491,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="656"/>
+      <c r="B29" s="689"/>
       <c r="C29" s="293" t="s">
         <v>88</v>
       </c>
@@ -59528,7 +59552,7 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="653"/>
+      <c r="B30" s="686"/>
       <c r="C30" s="294" t="s">
         <v>89</v>
       </c>
@@ -59589,7 +59613,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="654" t="s">
+      <c r="B31" s="687" t="s">
         <v>148</v>
       </c>
       <c r="C31" s="292" t="s">
@@ -59652,7 +59676,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="655"/>
+      <c r="B32" s="688"/>
       <c r="C32" s="266" t="s">
         <v>91</v>
       </c>
@@ -59713,7 +59737,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="656"/>
+      <c r="B33" s="689"/>
       <c r="C33" s="293" t="s">
         <v>149</v>
       </c>
@@ -59774,7 +59798,7 @@
     </row>
     <row r="34" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="653"/>
+      <c r="B34" s="686"/>
       <c r="C34" s="294" t="s">
         <v>93</v>
       </c>
@@ -59835,7 +59859,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="647" t="s">
+      <c r="B35" s="680" t="s">
         <v>150</v>
       </c>
       <c r="C35" s="313" t="s">
@@ -59898,7 +59922,7 @@
     </row>
     <row r="36" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="650"/>
+      <c r="B36" s="683"/>
       <c r="C36" s="297" t="s">
         <v>80</v>
       </c>
@@ -60061,34 +60085,34 @@
     </row>
     <row r="40" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
-      <c r="B40" s="634" t="s">
+      <c r="B40" s="667" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="635"/>
-      <c r="D40" s="635"/>
-      <c r="E40" s="635"/>
-      <c r="F40" s="635"/>
-      <c r="G40" s="635"/>
-      <c r="H40" s="635"/>
-      <c r="I40" s="635"/>
-      <c r="J40" s="635"/>
-      <c r="K40" s="635"/>
-      <c r="L40" s="635"/>
-      <c r="M40" s="635"/>
-      <c r="N40" s="635"/>
-      <c r="O40" s="635"/>
-      <c r="P40" s="635"/>
-      <c r="Q40" s="635"/>
-      <c r="R40" s="635"/>
-      <c r="S40" s="635"/>
-      <c r="T40" s="635"/>
-      <c r="U40" s="635"/>
-      <c r="V40" s="635"/>
-      <c r="W40" s="635"/>
-      <c r="X40" s="635"/>
-      <c r="Y40" s="635"/>
-      <c r="Z40" s="635"/>
-      <c r="AA40" s="636"/>
+      <c r="C40" s="668"/>
+      <c r="D40" s="668"/>
+      <c r="E40" s="668"/>
+      <c r="F40" s="668"/>
+      <c r="G40" s="668"/>
+      <c r="H40" s="668"/>
+      <c r="I40" s="668"/>
+      <c r="J40" s="668"/>
+      <c r="K40" s="668"/>
+      <c r="L40" s="668"/>
+      <c r="M40" s="668"/>
+      <c r="N40" s="668"/>
+      <c r="O40" s="668"/>
+      <c r="P40" s="668"/>
+      <c r="Q40" s="668"/>
+      <c r="R40" s="668"/>
+      <c r="S40" s="668"/>
+      <c r="T40" s="668"/>
+      <c r="U40" s="668"/>
+      <c r="V40" s="668"/>
+      <c r="W40" s="668"/>
+      <c r="X40" s="668"/>
+      <c r="Y40" s="668"/>
+      <c r="Z40" s="668"/>
+      <c r="AA40" s="669"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
@@ -60097,58 +60121,58 @@
     </row>
     <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="637" t="s">
+      <c r="B41" s="670" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="631" t="s">
+      <c r="C41" s="664" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="631"/>
-      <c r="E41" s="631" t="s">
+      <c r="D41" s="664"/>
+      <c r="E41" s="664" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="631"/>
-      <c r="G41" s="631" t="s">
+      <c r="F41" s="664"/>
+      <c r="G41" s="664" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="631"/>
-      <c r="I41" s="631" t="s">
+      <c r="H41" s="664"/>
+      <c r="I41" s="664" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="631"/>
-      <c r="K41" s="631" t="s">
+      <c r="J41" s="664"/>
+      <c r="K41" s="664" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="631"/>
-      <c r="M41" s="631" t="s">
+      <c r="L41" s="664"/>
+      <c r="M41" s="664" t="s">
         <v>136</v>
       </c>
-      <c r="N41" s="631"/>
-      <c r="O41" s="631" t="s">
+      <c r="N41" s="664"/>
+      <c r="O41" s="664" t="s">
         <v>24</v>
       </c>
-      <c r="P41" s="631"/>
-      <c r="Q41" s="631" t="s">
+      <c r="P41" s="664"/>
+      <c r="Q41" s="664" t="s">
         <v>25</v>
       </c>
-      <c r="R41" s="631"/>
-      <c r="S41" s="631" t="s">
+      <c r="R41" s="664"/>
+      <c r="S41" s="664" t="s">
         <v>26</v>
       </c>
-      <c r="T41" s="631"/>
-      <c r="U41" s="631" t="s">
+      <c r="T41" s="664"/>
+      <c r="U41" s="664" t="s">
         <v>27</v>
       </c>
-      <c r="V41" s="631"/>
-      <c r="W41" s="631" t="s">
+      <c r="V41" s="664"/>
+      <c r="W41" s="664" t="s">
         <v>28</v>
       </c>
-      <c r="X41" s="631"/>
-      <c r="Y41" s="631" t="s">
+      <c r="X41" s="664"/>
+      <c r="Y41" s="664" t="s">
         <v>137</v>
       </c>
-      <c r="Z41" s="631"/>
-      <c r="AA41" s="632" t="s">
+      <c r="Z41" s="664"/>
+      <c r="AA41" s="665" t="s">
         <v>138</v>
       </c>
       <c r="AB41" s="1"/>
@@ -60159,7 +60183,7 @@
     </row>
     <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="638"/>
+      <c r="B42" s="671"/>
       <c r="C42" s="281" t="s">
         <v>37</v>
       </c>
@@ -60232,7 +60256,7 @@
       <c r="Z42" s="281" t="s">
         <v>139</v>
       </c>
-      <c r="AA42" s="633"/>
+      <c r="AA42" s="666"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -60949,34 +60973,34 @@
     </row>
     <row r="52" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
-      <c r="B52" s="634" t="s">
+      <c r="B52" s="667" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="635"/>
-      <c r="D52" s="635"/>
-      <c r="E52" s="635"/>
-      <c r="F52" s="635"/>
-      <c r="G52" s="635"/>
-      <c r="H52" s="635"/>
-      <c r="I52" s="635"/>
-      <c r="J52" s="635"/>
-      <c r="K52" s="635"/>
-      <c r="L52" s="635"/>
-      <c r="M52" s="635"/>
-      <c r="N52" s="635"/>
-      <c r="O52" s="635"/>
-      <c r="P52" s="635"/>
-      <c r="Q52" s="635"/>
-      <c r="R52" s="635"/>
-      <c r="S52" s="635"/>
-      <c r="T52" s="635"/>
-      <c r="U52" s="635"/>
-      <c r="V52" s="635"/>
-      <c r="W52" s="635"/>
-      <c r="X52" s="635"/>
-      <c r="Y52" s="635"/>
-      <c r="Z52" s="635"/>
-      <c r="AA52" s="636"/>
+      <c r="C52" s="668"/>
+      <c r="D52" s="668"/>
+      <c r="E52" s="668"/>
+      <c r="F52" s="668"/>
+      <c r="G52" s="668"/>
+      <c r="H52" s="668"/>
+      <c r="I52" s="668"/>
+      <c r="J52" s="668"/>
+      <c r="K52" s="668"/>
+      <c r="L52" s="668"/>
+      <c r="M52" s="668"/>
+      <c r="N52" s="668"/>
+      <c r="O52" s="668"/>
+      <c r="P52" s="668"/>
+      <c r="Q52" s="668"/>
+      <c r="R52" s="668"/>
+      <c r="S52" s="668"/>
+      <c r="T52" s="668"/>
+      <c r="U52" s="668"/>
+      <c r="V52" s="668"/>
+      <c r="W52" s="668"/>
+      <c r="X52" s="668"/>
+      <c r="Y52" s="668"/>
+      <c r="Z52" s="668"/>
+      <c r="AA52" s="669"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
@@ -60985,58 +61009,58 @@
     </row>
     <row r="53" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="637" t="s">
+      <c r="B53" s="670" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="631" t="s">
+      <c r="C53" s="664" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="631"/>
-      <c r="E53" s="631" t="s">
+      <c r="D53" s="664"/>
+      <c r="E53" s="664" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="631"/>
-      <c r="G53" s="631" t="s">
+      <c r="F53" s="664"/>
+      <c r="G53" s="664" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="631"/>
-      <c r="I53" s="631" t="s">
+      <c r="H53" s="664"/>
+      <c r="I53" s="664" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="631"/>
-      <c r="K53" s="631" t="s">
+      <c r="J53" s="664"/>
+      <c r="K53" s="664" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="631"/>
-      <c r="M53" s="631" t="s">
+      <c r="L53" s="664"/>
+      <c r="M53" s="664" t="s">
         <v>136</v>
       </c>
-      <c r="N53" s="631"/>
-      <c r="O53" s="631" t="s">
+      <c r="N53" s="664"/>
+      <c r="O53" s="664" t="s">
         <v>24</v>
       </c>
-      <c r="P53" s="631"/>
-      <c r="Q53" s="631" t="s">
+      <c r="P53" s="664"/>
+      <c r="Q53" s="664" t="s">
         <v>25</v>
       </c>
-      <c r="R53" s="631"/>
-      <c r="S53" s="631" t="s">
+      <c r="R53" s="664"/>
+      <c r="S53" s="664" t="s">
         <v>26</v>
       </c>
-      <c r="T53" s="631"/>
-      <c r="U53" s="631" t="s">
+      <c r="T53" s="664"/>
+      <c r="U53" s="664" t="s">
         <v>27</v>
       </c>
-      <c r="V53" s="631"/>
-      <c r="W53" s="631" t="s">
+      <c r="V53" s="664"/>
+      <c r="W53" s="664" t="s">
         <v>28</v>
       </c>
-      <c r="X53" s="631"/>
-      <c r="Y53" s="631" t="s">
+      <c r="X53" s="664"/>
+      <c r="Y53" s="664" t="s">
         <v>137</v>
       </c>
-      <c r="Z53" s="631"/>
-      <c r="AA53" s="632" t="s">
+      <c r="Z53" s="664"/>
+      <c r="AA53" s="665" t="s">
         <v>138</v>
       </c>
       <c r="AB53" s="1"/>
@@ -61047,7 +61071,7 @@
     </row>
     <row r="54" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="638"/>
+      <c r="B54" s="671"/>
       <c r="C54" s="281" t="s">
         <v>37</v>
       </c>
@@ -61120,7 +61144,7 @@
       <c r="Z54" s="281" t="s">
         <v>139</v>
       </c>
-      <c r="AA54" s="633"/>
+      <c r="AA54" s="666"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
@@ -62001,34 +62025,34 @@
     </row>
     <row r="65" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
-      <c r="B65" s="634" t="s">
+      <c r="B65" s="667" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="635"/>
-      <c r="D65" s="635"/>
-      <c r="E65" s="635"/>
-      <c r="F65" s="635"/>
-      <c r="G65" s="635"/>
-      <c r="H65" s="635"/>
-      <c r="I65" s="635"/>
-      <c r="J65" s="635"/>
-      <c r="K65" s="635"/>
-      <c r="L65" s="635"/>
-      <c r="M65" s="635"/>
-      <c r="N65" s="635"/>
-      <c r="O65" s="635"/>
-      <c r="P65" s="635"/>
-      <c r="Q65" s="635"/>
-      <c r="R65" s="635"/>
-      <c r="S65" s="635"/>
-      <c r="T65" s="635"/>
-      <c r="U65" s="635"/>
-      <c r="V65" s="635"/>
-      <c r="W65" s="635"/>
-      <c r="X65" s="635"/>
-      <c r="Y65" s="635"/>
-      <c r="Z65" s="635"/>
-      <c r="AA65" s="636"/>
+      <c r="C65" s="668"/>
+      <c r="D65" s="668"/>
+      <c r="E65" s="668"/>
+      <c r="F65" s="668"/>
+      <c r="G65" s="668"/>
+      <c r="H65" s="668"/>
+      <c r="I65" s="668"/>
+      <c r="J65" s="668"/>
+      <c r="K65" s="668"/>
+      <c r="L65" s="668"/>
+      <c r="M65" s="668"/>
+      <c r="N65" s="668"/>
+      <c r="O65" s="668"/>
+      <c r="P65" s="668"/>
+      <c r="Q65" s="668"/>
+      <c r="R65" s="668"/>
+      <c r="S65" s="668"/>
+      <c r="T65" s="668"/>
+      <c r="U65" s="668"/>
+      <c r="V65" s="668"/>
+      <c r="W65" s="668"/>
+      <c r="X65" s="668"/>
+      <c r="Y65" s="668"/>
+      <c r="Z65" s="668"/>
+      <c r="AA65" s="669"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
@@ -62037,58 +62061,58 @@
     </row>
     <row r="66" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="637" t="s">
+      <c r="B66" s="670" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="631" t="s">
+      <c r="C66" s="664" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="631"/>
-      <c r="E66" s="631" t="s">
+      <c r="D66" s="664"/>
+      <c r="E66" s="664" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="631"/>
-      <c r="G66" s="631" t="s">
+      <c r="F66" s="664"/>
+      <c r="G66" s="664" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="631"/>
-      <c r="I66" s="631" t="s">
+      <c r="H66" s="664"/>
+      <c r="I66" s="664" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="631"/>
-      <c r="K66" s="631" t="s">
+      <c r="J66" s="664"/>
+      <c r="K66" s="664" t="s">
         <v>22</v>
       </c>
-      <c r="L66" s="631"/>
-      <c r="M66" s="631" t="s">
+      <c r="L66" s="664"/>
+      <c r="M66" s="664" t="s">
         <v>136</v>
       </c>
-      <c r="N66" s="631"/>
-      <c r="O66" s="631" t="s">
+      <c r="N66" s="664"/>
+      <c r="O66" s="664" t="s">
         <v>24</v>
       </c>
-      <c r="P66" s="631"/>
-      <c r="Q66" s="631" t="s">
+      <c r="P66" s="664"/>
+      <c r="Q66" s="664" t="s">
         <v>25</v>
       </c>
-      <c r="R66" s="631"/>
-      <c r="S66" s="631" t="s">
+      <c r="R66" s="664"/>
+      <c r="S66" s="664" t="s">
         <v>26</v>
       </c>
-      <c r="T66" s="631"/>
-      <c r="U66" s="631" t="s">
+      <c r="T66" s="664"/>
+      <c r="U66" s="664" t="s">
         <v>27</v>
       </c>
-      <c r="V66" s="631"/>
-      <c r="W66" s="631" t="s">
+      <c r="V66" s="664"/>
+      <c r="W66" s="664" t="s">
         <v>28</v>
       </c>
-      <c r="X66" s="631"/>
-      <c r="Y66" s="631" t="s">
+      <c r="X66" s="664"/>
+      <c r="Y66" s="664" t="s">
         <v>137</v>
       </c>
-      <c r="Z66" s="631"/>
-      <c r="AA66" s="632" t="s">
+      <c r="Z66" s="664"/>
+      <c r="AA66" s="665" t="s">
         <v>138</v>
       </c>
       <c r="AB66" s="1"/>
@@ -62099,7 +62123,7 @@
     </row>
     <row r="67" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="638"/>
+      <c r="B67" s="671"/>
       <c r="C67" s="281" t="s">
         <v>37</v>
       </c>
@@ -62172,7 +62196,7 @@
       <c r="Z67" s="281" t="s">
         <v>139</v>
       </c>
-      <c r="AA67" s="633"/>
+      <c r="AA67" s="666"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
@@ -67577,7 +67601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -67656,11 +67680,11 @@
     </row>
     <row r="3" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="620" t="s">
+      <c r="B3" s="653" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="621"/>
-      <c r="D3" s="622"/>
+      <c r="C3" s="654"/>
+      <c r="D3" s="655"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -67832,11 +67856,11 @@
     </row>
     <row r="8" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="620" t="s">
+      <c r="B8" s="653" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="621"/>
-      <c r="D8" s="622"/>
+      <c r="C8" s="654"/>
+      <c r="D8" s="655"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>

--- a/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
+++ b/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\GitHub\CareMonitor-NicolasRubino\SAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\UAI\TFI\CareMonitor\CareMonitor\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F707293F-B508-46C8-9175-60C0E49763A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
   <externalReferences>
     <externalReference r:id="rId18"/>
   </externalReferences>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1097,25 +1098,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="17">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="General_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="169" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
-    <numFmt numFmtId="171" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="[$$-2C0A]\ #,##0.00"/>
-    <numFmt numFmtId="173" formatCode="[$$-2C0A]\ #,##0"/>
-    <numFmt numFmtId="174" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="175" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="170" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="172" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="[$$-2C0A]\ #,##0.00"/>
+    <numFmt numFmtId="174" formatCode="[$$-2C0A]\ #,##0"/>
+    <numFmt numFmtId="175" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="176" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
@@ -2956,16 +2957,16 @@
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2976,13 +2977,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="16" borderId="110" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="764">
@@ -3008,29 +3009,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3040,7 +3041,7 @@
     <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3052,29 +3053,29 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3086,7 +3087,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3105,13 +3106,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3120,7 +3121,7 @@
     <xf numFmtId="9" fontId="8" fillId="2" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3141,13 +3142,13 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="76" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="76" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="78" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="9" borderId="78" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3171,10 +3172,10 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3186,8 +3187,8 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3197,26 +3198,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="5" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3244,7 +3245,7 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3253,96 +3254,96 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="25" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="90" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="90" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="5" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="6" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3351,13 +3352,13 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="46" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="46" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="46" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3366,8 +3367,8 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3375,16 +3376,16 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="6" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3393,37 +3394,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="4" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3432,7 +3433,7 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3441,19 +3442,19 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="5" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="5" borderId="56" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="56" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3478,13 +3479,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -3506,16 +3507,16 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3525,26 +3526,26 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3557,13 +3558,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="11" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="26" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="26" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3575,13 +3576,13 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="92" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="92" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3608,19 +3609,19 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3629,63 +3630,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="99" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="99" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="93" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="93" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="100" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="100" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="45" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="48" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="49" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="49" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="50" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3713,10 +3714,10 @@
     <xf numFmtId="9" fontId="11" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3726,61 +3727,61 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="52" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="98" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="98" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="97" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="97" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="54" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="54" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="55" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="55" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="91" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="91" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3788,42 +3789,42 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3832,13 +3833,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -3848,16 +3849,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3866,10 +3867,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3905,40 +3906,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="11" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="11" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="11" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3963,14 +3964,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3982,21 +3983,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4008,58 +4009,58 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="10" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="10" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4075,37 +4076,37 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="105" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="105" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4123,10 +4124,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4229,19 +4230,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4263,10 +4264,10 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4275,7 +4276,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4284,49 +4285,49 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="100" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="100" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4334,14 +4335,65 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="18" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="18" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="18" borderId="111" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="18" borderId="111" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4436,181 +4488,13 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4640,14 +4524,131 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4736,15 +4737,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4753,12 +4745,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4814,6 +4800,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4828,18 +4841,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4916,27 +4917,6 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5000,6 +4980,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5039,32 +5040,32 @@
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Celda de comprobación" xfId="26" builtinId="23"/>
-    <cellStyle name="Euro" xfId="11"/>
+    <cellStyle name="Euro" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Hipervínculo 2" xfId="14"/>
-    <cellStyle name="Hipervínculo 3" xfId="17"/>
-    <cellStyle name="Hipervínculo 4" xfId="16"/>
-    <cellStyle name="Hipervínculo 5" xfId="20"/>
-    <cellStyle name="Hyperlink 2" xfId="12"/>
+    <cellStyle name="Hipervínculo 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hipervínculo 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Hipervínculo 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Hipervínculo 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Moneda" xfId="6" builtinId="4"/>
-    <cellStyle name="Moneda 2" xfId="10"/>
-    <cellStyle name="Moneda 2 2" xfId="23"/>
-    <cellStyle name="Moneda 3" xfId="19"/>
-    <cellStyle name="Moneda 3 2" xfId="25"/>
-    <cellStyle name="Moneda 4" xfId="22"/>
-    <cellStyle name="Moneda 5" xfId="8"/>
+    <cellStyle name="Moneda 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Moneda 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Moneda 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Moneda 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Moneda 4" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Moneda 5" xfId="8" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="13"/>
-    <cellStyle name="Normal 2 14" xfId="4"/>
-    <cellStyle name="Normal 2 15" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="18"/>
-    <cellStyle name="Normal 4" xfId="9"/>
-    <cellStyle name="Normal 5" xfId="21"/>
-    <cellStyle name="Normal 6" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 2 14" xfId="4" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 2 15" xfId="5" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="15"/>
-    <cellStyle name="Porcentaje 3" xfId="24"/>
+    <cellStyle name="Porcentaje 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Porcentaje 3" xfId="24" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -5091,7 +5092,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -5152,7 +5153,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5178,7 +5178,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5484,7 +5484,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="91798656"/>
@@ -5529,7 +5529,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="25175760"/>
@@ -5546,7 +5546,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5572,7 +5571,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5602,7 +5601,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5661,7 +5660,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5679,7 +5678,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ingresos 2022</c:v>
+                  <c:v> Ingresos 2022 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6046,7 +6045,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -6094,7 +6093,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6138,7 +6137,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -6186,7 +6185,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6236,7 +6235,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6278,7 +6277,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6301,13 +6300,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6358,7 +6357,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6366,6 +6364,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6389,7 +6388,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6465,7 +6464,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6831,7 +6830,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177979744"/>
@@ -6890,7 +6889,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1022353200"/>
@@ -6932,7 +6931,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6962,7 +6961,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7038,7 +7037,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7239,7 +7238,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1173350528"/>
@@ -7312,7 +7311,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1025409232"/>
@@ -7354,7 +7353,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7384,7 +7383,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7460,7 +7459,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8423,7 +8422,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -8482,7 +8481,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -8524,7 +8523,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8554,7 +8553,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8635,7 +8634,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8664,7 +8663,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8717,7 +8716,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8808,7 +8807,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8870,7 +8869,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8961,7 +8960,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9014,7 +9013,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9150,7 +9149,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -9215,13 +9214,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9229,6 +9227,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -9268,7 +9267,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9344,7 +9343,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10307,7 +10306,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -10366,7 +10365,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -10408,7 +10407,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10438,7 +10437,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10527,7 +10526,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10556,7 +10555,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10609,7 +10608,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10700,7 +10699,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10762,7 +10761,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10853,7 +10852,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10906,7 +10905,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -11042,7 +11041,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -11107,13 +11106,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11121,6 +11119,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -11160,7 +11159,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11236,7 +11235,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12199,7 +12198,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -12258,7 +12257,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -12300,7 +12299,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12330,7 +12329,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12419,7 +12418,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12448,7 +12447,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12501,7 +12500,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12592,7 +12591,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12654,7 +12653,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12745,7 +12744,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12798,7 +12797,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12934,7 +12933,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -12999,13 +12998,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -13013,6 +13011,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -13052,7 +13051,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13111,7 +13110,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13129,7 +13128,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ingresos 2020</c:v>
+                  <c:v> Ingresos 2020 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13241,7 +13240,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13290,7 +13289,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -13332,7 +13331,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13371,7 +13370,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -13392,13 +13391,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13449,7 +13448,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -13457,6 +13455,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13480,7 +13479,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13539,7 +13538,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13557,7 +13556,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ingresos 2021</c:v>
+                  <c:v> Ingresos 2021 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13924,7 +13923,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13966,7 +13965,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14008,7 +14007,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14050,7 +14049,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14092,7 +14091,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14132,7 +14131,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -14155,13 +14154,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14212,7 +14211,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -14220,6 +14218,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14243,7 +14242,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23322,7 +23321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="C9:C36"/>
   <sheetViews>
@@ -23374,7 +23373,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" display="mailto:cristiangentile1@gmail.com"/>
+    <hyperlink ref="C36" r:id="rId1" display="mailto:cristiangentile1@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23383,7 +23382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z68"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -23464,12 +23463,12 @@
       <c r="C3" s="654"/>
       <c r="D3" s="655"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="690" t="s">
+      <c r="F3" s="694" t="s">
         <v>160</v>
       </c>
-      <c r="G3" s="691"/>
-      <c r="H3" s="691"/>
-      <c r="I3" s="692"/>
+      <c r="G3" s="695"/>
+      <c r="H3" s="695"/>
+      <c r="I3" s="696"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -23674,12 +23673,12 @@
     </row>
     <row r="9" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="693" t="s">
+      <c r="B9" s="697" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="694"/>
-      <c r="D9" s="694"/>
-      <c r="E9" s="694"/>
+      <c r="C9" s="698"/>
+      <c r="D9" s="698"/>
+      <c r="E9" s="698"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -24123,11 +24122,11 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="695" t="s">
+      <c r="B21" s="690" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="696"/>
-      <c r="D21" s="697"/>
+      <c r="C21" s="691"/>
+      <c r="D21" s="692"/>
       <c r="E21" s="332">
         <f>SUM(E11:E20)</f>
         <v>1274116</v>
@@ -24374,8 +24373,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="609"/>
-      <c r="G28" s="609"/>
+      <c r="F28" s="629"/>
+      <c r="G28" s="629"/>
       <c r="H28" s="375"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -24411,8 +24410,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="698"/>
-      <c r="G29" s="698"/>
+      <c r="F29" s="693"/>
+      <c r="G29" s="693"/>
       <c r="H29" s="376"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -24448,8 +24447,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="609"/>
-      <c r="G30" s="609"/>
+      <c r="F30" s="629"/>
+      <c r="G30" s="629"/>
       <c r="H30" s="375"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -24485,8 +24484,8 @@
         <f t="shared" si="1"/>
         <v>23900</v>
       </c>
-      <c r="F31" s="698"/>
-      <c r="G31" s="698"/>
+      <c r="F31" s="693"/>
+      <c r="G31" s="693"/>
       <c r="H31" s="376"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -24522,8 +24521,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="698"/>
-      <c r="G32" s="698"/>
+      <c r="F32" s="693"/>
+      <c r="G32" s="693"/>
       <c r="H32" s="376"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -24559,8 +24558,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="698"/>
-      <c r="G33" s="698"/>
+      <c r="F33" s="693"/>
+      <c r="G33" s="693"/>
       <c r="H33" s="376"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -24583,11 +24582,11 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="695" t="s">
+      <c r="B34" s="690" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="696"/>
-      <c r="D34" s="697"/>
+      <c r="C34" s="691"/>
+      <c r="D34" s="692"/>
       <c r="E34" s="332">
         <f>SUM(E25:E33)</f>
         <v>39198</v>
@@ -25043,11 +25042,11 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="695" t="s">
+      <c r="B47" s="690" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="696"/>
-      <c r="D47" s="697"/>
+      <c r="C47" s="691"/>
+      <c r="D47" s="692"/>
       <c r="E47" s="332">
         <f>SUM(E38:E46)</f>
         <v>247816</v>
@@ -25503,11 +25502,11 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="695" t="s">
+      <c r="B60" s="690" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="696"/>
-      <c r="D60" s="697"/>
+      <c r="C60" s="691"/>
+      <c r="D60" s="692"/>
       <c r="E60" s="334">
         <f>SUM(E51:E59)</f>
         <v>1245379</v>
@@ -25760,6 +25759,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B60:D60"/>
@@ -25770,22 +25775,16 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" location="searchVariation=62371957696&amp;position=1&amp;type=item&amp;tracking_id=c1baf121-2aa6-4883-89e1-db40e4fe7d07"/>
-    <hyperlink ref="F12" r:id="rId2" location="position=3&amp;type=item&amp;tracking_id=7d967ea6-7b08-4e10-9ee9-7a21d479e90e"/>
-    <hyperlink ref="F13" r:id="rId3" location="searchVariation=MLA15188002&amp;position=2&amp;type=product&amp;tracking_id=25817417-8ebf-4e85-99ba-e1068ce3b665"/>
-    <hyperlink ref="F17" r:id="rId4" location="position=27&amp;type=item&amp;tracking_id=be18e719-23de-4f4d-b152-972266abc3c5"/>
-    <hyperlink ref="F18" r:id="rId5" location="position=9&amp;type=item&amp;tracking_id=b86ee509-acb1-4687-9267-b5a79840b449"/>
-    <hyperlink ref="F16" r:id="rId6" location="searchVariation=41945510546&amp;position=10&amp;type=item&amp;tracking_id=c8150eb0-81cf-41f2-8b44-92b72af9b976"/>
-    <hyperlink ref="F15" r:id="rId7" location="position=1&amp;type=item&amp;tracking_id=0f693c9d-e24f-4bc4-8c47-6db53224454d"/>
-    <hyperlink ref="F19" r:id="rId8"/>
+    <hyperlink ref="F11" r:id="rId1" location="searchVariation=62371957696&amp;position=1&amp;type=item&amp;tracking_id=c1baf121-2aa6-4883-89e1-db40e4fe7d07" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="F12" r:id="rId2" location="position=3&amp;type=item&amp;tracking_id=7d967ea6-7b08-4e10-9ee9-7a21d479e90e" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="F13" r:id="rId3" location="searchVariation=MLA15188002&amp;position=2&amp;type=product&amp;tracking_id=25817417-8ebf-4e85-99ba-e1068ce3b665" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="F17" r:id="rId4" location="position=27&amp;type=item&amp;tracking_id=be18e719-23de-4f4d-b152-972266abc3c5" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="F18" r:id="rId5" location="position=9&amp;type=item&amp;tracking_id=b86ee509-acb1-4687-9267-b5a79840b449" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="F16" r:id="rId6" location="searchVariation=41945510546&amp;position=10&amp;type=item&amp;tracking_id=c8150eb0-81cf-41f2-8b44-92b72af9b976" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="F15" r:id="rId7" location="position=1&amp;type=item&amp;tracking_id=0f693c9d-e24f-4bc4-8c47-6db53224454d" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
+    <hyperlink ref="F19" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
@@ -25794,7 +25793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:X194"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0"/>
@@ -25871,11 +25870,11 @@
       <c r="C3" s="654"/>
       <c r="D3" s="655"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="690" t="s">
+      <c r="F3" s="694" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="691"/>
-      <c r="H3" s="692"/>
+      <c r="G3" s="695"/>
+      <c r="H3" s="696"/>
       <c r="I3" s="441"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -31462,7 +31461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AI97"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -31852,14 +31851,14 @@
     </row>
     <row r="10" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="693" t="s">
+      <c r="B10" s="697" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="694"/>
-      <c r="D10" s="694"/>
-      <c r="E10" s="694"/>
-      <c r="F10" s="694"/>
-      <c r="G10" s="726"/>
+      <c r="C10" s="698"/>
+      <c r="D10" s="698"/>
+      <c r="E10" s="698"/>
+      <c r="F10" s="698"/>
+      <c r="G10" s="747"/>
       <c r="H10" s="242"/>
       <c r="I10" s="1"/>
       <c r="J10" s="396" t="s">
@@ -31902,10 +31901,10 @@
     </row>
     <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="727" t="s">
+      <c r="B11" s="748" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="728"/>
+      <c r="C11" s="749"/>
       <c r="D11" s="399" t="s">
         <v>197</v>
       </c>
@@ -31960,10 +31959,10 @@
     </row>
     <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="729" t="s">
+      <c r="B12" s="750" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="730"/>
+      <c r="C12" s="751"/>
       <c r="D12" s="442">
         <v>0</v>
       </c>
@@ -32021,7 +32020,7 @@
     </row>
     <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="724" t="s">
+      <c r="B13" s="745" t="s">
         <v>198</v>
       </c>
       <c r="C13" s="404" t="s">
@@ -32073,7 +32072,7 @@
     </row>
     <row r="14" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="724"/>
+      <c r="B14" s="745"/>
       <c r="C14" s="404" t="s">
         <v>157</v>
       </c>
@@ -32125,7 +32124,7 @@
     </row>
     <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="725"/>
+      <c r="B15" s="746"/>
       <c r="C15" s="405" t="s">
         <v>158</v>
       </c>
@@ -32181,10 +32180,10 @@
     </row>
     <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="744" t="s">
+      <c r="B16" s="737" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="745"/>
+      <c r="C16" s="738"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -32240,10 +32239,10 @@
     </row>
     <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="746" t="s">
+      <c r="B17" s="739" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="747"/>
+      <c r="C17" s="740"/>
       <c r="D17" s="442">
         <v>0</v>
       </c>
@@ -32289,10 +32288,10 @@
     </row>
     <row r="18" spans="1:35" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="748" t="s">
+      <c r="B18" s="741" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="749"/>
+      <c r="C18" s="742"/>
       <c r="D18" s="443">
         <v>0</v>
       </c>
@@ -32335,10 +32334,10 @@
     </row>
     <row r="19" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="750" t="s">
+      <c r="B19" s="743" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="751"/>
+      <c r="C19" s="744"/>
       <c r="D19" s="444">
         <v>0</v>
       </c>
@@ -32356,12 +32355,12 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="690" t="s">
+      <c r="J19" s="694" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="691"/>
-      <c r="L19" s="691"/>
-      <c r="M19" s="692"/>
+      <c r="K19" s="695"/>
+      <c r="L19" s="695"/>
+      <c r="M19" s="696"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -32387,10 +32386,10 @@
     </row>
     <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="744" t="s">
+      <c r="B20" s="737" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="745"/>
+      <c r="C20" s="738"/>
       <c r="D20" s="445">
         <v>0</v>
       </c>
@@ -32445,10 +32444,10 @@
     </row>
     <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="731" t="s">
+      <c r="B21" s="724" t="s">
         <v>204</v>
       </c>
-      <c r="C21" s="732"/>
+      <c r="C21" s="725"/>
       <c r="D21" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -32508,10 +32507,10 @@
     </row>
     <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="733" t="s">
+      <c r="B22" s="726" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="734"/>
+      <c r="C22" s="727"/>
       <c r="D22" s="406">
         <f>D20+D21</f>
         <v>-1274116</v>
@@ -32670,12 +32669,12 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="735" t="s">
+      <c r="B26" s="728" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="736"/>
-      <c r="D26" s="736"/>
-      <c r="E26" s="737"/>
+      <c r="C26" s="729"/>
+      <c r="D26" s="729"/>
+      <c r="E26" s="730"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="412" t="s">
@@ -32713,10 +32712,10 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="738"/>
-      <c r="C27" s="739"/>
-      <c r="D27" s="739"/>
-      <c r="E27" s="740"/>
+      <c r="B27" s="731"/>
+      <c r="C27" s="732"/>
+      <c r="D27" s="732"/>
+      <c r="E27" s="733"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="414" t="s">
@@ -32755,10 +32754,10 @@
     </row>
     <row r="28" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="741"/>
-      <c r="C28" s="742"/>
-      <c r="D28" s="742"/>
-      <c r="E28" s="743"/>
+      <c r="B28" s="734"/>
+      <c r="C28" s="735"/>
+      <c r="D28" s="735"/>
+      <c r="E28" s="736"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="416" t="s">
@@ -35350,6 +35349,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:E28"/>
@@ -35359,16 +35365,9 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H17" r:id="rId1"/>
+    <hyperlink ref="H17" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -35377,7 +35376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:BE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35731,7 +35730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36295,10 +36294,10 @@
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="750" t="s">
+      <c r="B15" s="743" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="751"/>
+      <c r="C15" s="744"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -36340,10 +36339,10 @@
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="744" t="s">
+      <c r="B16" s="737" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="745"/>
+      <c r="C16" s="738"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -36388,10 +36387,10 @@
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="731" t="s">
+      <c r="B17" s="724" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="732"/>
+      <c r="C17" s="725"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -36428,10 +36427,10 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="733" t="s">
+      <c r="B18" s="726" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="734"/>
+      <c r="C18" s="727"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -36471,12 +36470,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="690" t="s">
+      <c r="J19" s="694" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="691"/>
-      <c r="L19" s="691"/>
-      <c r="M19" s="692"/>
+      <c r="K19" s="695"/>
+      <c r="L19" s="695"/>
+      <c r="M19" s="696"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -36679,10 +36678,10 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="739"/>
-      <c r="C26" s="739"/>
-      <c r="D26" s="739"/>
-      <c r="E26" s="739"/>
+      <c r="B26" s="732"/>
+      <c r="C26" s="732"/>
+      <c r="D26" s="732"/>
+      <c r="E26" s="732"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -36705,10 +36704,10 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="739"/>
-      <c r="C27" s="739"/>
-      <c r="D27" s="739"/>
-      <c r="E27" s="739"/>
+      <c r="B27" s="732"/>
+      <c r="C27" s="732"/>
+      <c r="D27" s="732"/>
+      <c r="E27" s="732"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -36731,10 +36730,10 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="739"/>
-      <c r="C28" s="739"/>
-      <c r="D28" s="739"/>
-      <c r="E28" s="739"/>
+      <c r="B28" s="732"/>
+      <c r="C28" s="732"/>
+      <c r="D28" s="732"/>
+      <c r="E28" s="732"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -37067,17 +37066,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K14:M14"/>
     <mergeCell ref="B26:E28"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37085,7 +37084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37697,10 +37696,10 @@
     </row>
     <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="750" t="s">
+      <c r="B15" s="743" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="751"/>
+      <c r="C15" s="744"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -37746,10 +37745,10 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="744" t="s">
+      <c r="B16" s="737" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="745"/>
+      <c r="C16" s="738"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -37798,10 +37797,10 @@
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="731" t="s">
+      <c r="B17" s="724" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="732"/>
+      <c r="C17" s="725"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -37842,10 +37841,10 @@
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="733" t="s">
+      <c r="B18" s="726" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="734"/>
+      <c r="C18" s="727"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -37889,12 +37888,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="690" t="s">
+      <c r="J19" s="694" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="691"/>
-      <c r="L19" s="691"/>
-      <c r="M19" s="692"/>
+      <c r="K19" s="695"/>
+      <c r="L19" s="695"/>
+      <c r="M19" s="696"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -38127,10 +38126,10 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="739"/>
-      <c r="C26" s="739"/>
-      <c r="D26" s="739"/>
-      <c r="E26" s="739"/>
+      <c r="B26" s="732"/>
+      <c r="C26" s="732"/>
+      <c r="D26" s="732"/>
+      <c r="E26" s="732"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -38157,10 +38156,10 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="739"/>
-      <c r="C27" s="739"/>
-      <c r="D27" s="739"/>
-      <c r="E27" s="739"/>
+      <c r="B27" s="732"/>
+      <c r="C27" s="732"/>
+      <c r="D27" s="732"/>
+      <c r="E27" s="732"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -38187,10 +38186,10 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="739"/>
-      <c r="C28" s="739"/>
-      <c r="D28" s="739"/>
-      <c r="E28" s="739"/>
+      <c r="B28" s="732"/>
+      <c r="C28" s="732"/>
+      <c r="D28" s="732"/>
+      <c r="E28" s="732"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -38267,7 +38266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39040,10 +39039,10 @@
     </row>
     <row r="15" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="750" t="s">
+      <c r="B15" s="743" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="751"/>
+      <c r="C15" s="744"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -39100,10 +39099,10 @@
     </row>
     <row r="16" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="744" t="s">
+      <c r="B16" s="737" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="745"/>
+      <c r="C16" s="738"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -39163,10 +39162,10 @@
     </row>
     <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="731" t="s">
+      <c r="B17" s="724" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="732"/>
+      <c r="C17" s="725"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -39218,10 +39217,10 @@
     </row>
     <row r="18" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="733" t="s">
+      <c r="B18" s="726" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="734"/>
+      <c r="C18" s="727"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -39276,12 +39275,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="690" t="s">
+      <c r="J19" s="694" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="691"/>
-      <c r="L19" s="691"/>
-      <c r="M19" s="692"/>
+      <c r="K19" s="695"/>
+      <c r="L19" s="695"/>
+      <c r="M19" s="696"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -39552,17 +39551,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="J19:M19"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="J19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39570,7 +39569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:BN52"/>
   <sheetViews>
     <sheetView topLeftCell="C10" workbookViewId="0">
@@ -40716,10 +40715,10 @@
     </row>
     <row r="15" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="750" t="s">
+      <c r="B15" s="743" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="751"/>
+      <c r="C15" s="744"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -40806,10 +40805,10 @@
     </row>
     <row r="16" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="744" t="s">
+      <c r="B16" s="737" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="745"/>
+      <c r="C16" s="738"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -40899,10 +40898,10 @@
     </row>
     <row r="17" spans="1:66" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="731" t="s">
+      <c r="B17" s="724" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="732"/>
+      <c r="C17" s="725"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -40984,10 +40983,10 @@
     </row>
     <row r="18" spans="1:66" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="733" t="s">
+      <c r="B18" s="726" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="734"/>
+      <c r="C18" s="727"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -41077,12 +41076,12 @@
       <c r="G19" s="528"/>
       <c r="H19" s="527"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="690" t="s">
+      <c r="J19" s="694" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="691"/>
-      <c r="L19" s="691"/>
-      <c r="M19" s="692"/>
+      <c r="K19" s="695"/>
+      <c r="L19" s="695"/>
+      <c r="M19" s="696"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -43446,11 +43445,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="K3:M3"/>
@@ -43458,6 +43452,11 @@
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -43466,7 +43465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:BT59"/>
   <sheetViews>
@@ -47883,21 +47882,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" location="Hipótesis!A1" display="Hipótesis"/>
-    <hyperlink ref="D6" location="'Proy. Ventas'!A1" display="Proyección de ventas"/>
-    <hyperlink ref="D7" location="'Mod. Ingresos'!A1" display="Modelo de ingresos"/>
-    <hyperlink ref="D8" location="'Costos Fijos'!A1" display="Estructura de costos fijos"/>
-    <hyperlink ref="D9" location="'Costos Variables'!A1" display="Estructura de costos variables"/>
-    <hyperlink ref="D10" location="'Costos RRHH'!A1" display="Estructura de costos de RRHH"/>
-    <hyperlink ref="D11" location="'Mod. Egresos'!A1" display="Modelo de egresos"/>
-    <hyperlink ref="D12" location="'Mod. Inversión'!A1" display="Modelo de inversión"/>
-    <hyperlink ref="D13" location="Amortizaciones!A1" display="Amortizaciones"/>
-    <hyperlink ref="D14" location="'Presupuesto financiero'!A1" display="Presupuesto Financiero"/>
-    <hyperlink ref="D15" location="'Matriz Riesgo'!A1" display="Matriz de riesgos"/>
-    <hyperlink ref="D16" location="'Escenario 1'!A1" display="Escenario 1"/>
-    <hyperlink ref="D19" location="'Plan de Contingencia'!A1" display="Plan de contingencia"/>
-    <hyperlink ref="D17" location="'Escenario 2'!A1" display="Escenario 2"/>
-    <hyperlink ref="D18" location="'Escenario 3'!A1" display="Escenario 3"/>
+    <hyperlink ref="D5" location="Hipótesis!A1" display="Hipótesis" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D6" location="'Proy. Ventas'!A1" display="Proyección de ventas" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D7" location="'Mod. Ingresos'!A1" display="Modelo de ingresos" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D8" location="'Costos Fijos'!A1" display="Estructura de costos fijos" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D9" location="'Costos Variables'!A1" display="Estructura de costos variables" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D10" location="'Costos RRHH'!A1" display="Estructura de costos de RRHH" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D11" location="'Mod. Egresos'!A1" display="Modelo de egresos" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D12" location="'Mod. Inversión'!A1" display="Modelo de inversión" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D13" location="Amortizaciones!A1" display="Amortizaciones" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D14" location="'Presupuesto financiero'!A1" display="Presupuesto Financiero" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D15" location="'Matriz Riesgo'!A1" display="Matriz de riesgos" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D16" location="'Escenario 1'!A1" display="Escenario 1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D19" location="'Plan de Contingencia'!A1" display="Plan de contingencia" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D17" location="'Escenario 2'!A1" display="Escenario 2" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D18" location="'Escenario 3'!A1" display="Escenario 3" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -47906,13 +47905,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:J4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47943,58 +47942,58 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="537" t="s">
+      <c r="B3" s="554" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="538"/>
-      <c r="D3" s="538"/>
-      <c r="E3" s="538"/>
-      <c r="F3" s="538"/>
-      <c r="G3" s="538"/>
-      <c r="H3" s="538"/>
-      <c r="I3" s="538"/>
-      <c r="J3" s="539"/>
+      <c r="C3" s="555"/>
+      <c r="D3" s="555"/>
+      <c r="E3" s="555"/>
+      <c r="F3" s="555"/>
+      <c r="G3" s="555"/>
+      <c r="H3" s="555"/>
+      <c r="I3" s="555"/>
+      <c r="J3" s="556"/>
     </row>
     <row r="4" spans="1:11" ht="165" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="546" t="s">
+      <c r="B4" s="563" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="547"/>
-      <c r="D4" s="547"/>
-      <c r="E4" s="547"/>
-      <c r="F4" s="547"/>
-      <c r="G4" s="547"/>
-      <c r="H4" s="547"/>
-      <c r="I4" s="547"/>
-      <c r="J4" s="548"/>
+      <c r="C4" s="564"/>
+      <c r="D4" s="564"/>
+      <c r="E4" s="564"/>
+      <c r="F4" s="564"/>
+      <c r="G4" s="564"/>
+      <c r="H4" s="564"/>
+      <c r="I4" s="564"/>
+      <c r="J4" s="565"/>
       <c r="K4" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="549" t="s">
+      <c r="B7" s="566" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="550"/>
-      <c r="D7" s="550"/>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="550"/>
-      <c r="I7" s="550"/>
-      <c r="J7" s="551"/>
+      <c r="C7" s="567"/>
+      <c r="D7" s="567"/>
+      <c r="E7" s="567"/>
+      <c r="F7" s="567"/>
+      <c r="G7" s="567"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="567"/>
+      <c r="J7" s="568"/>
     </row>
     <row r="8" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="552" t="s">
+      <c r="B8" s="569" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="553"/>
-      <c r="D8" s="553"/>
-      <c r="E8" s="553"/>
-      <c r="F8" s="553"/>
-      <c r="G8" s="553"/>
-      <c r="H8" s="553"/>
-      <c r="I8" s="553"/>
-      <c r="J8" s="554"/>
+      <c r="C8" s="570"/>
+      <c r="D8" s="570"/>
+      <c r="E8" s="570"/>
+      <c r="F8" s="570"/>
+      <c r="G8" s="570"/>
+      <c r="H8" s="570"/>
+      <c r="I8" s="570"/>
+      <c r="J8" s="571"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="40"/>
@@ -48066,30 +48065,30 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="555" t="s">
+      <c r="B15" s="572" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="556"/>
-      <c r="D15" s="556"/>
-      <c r="E15" s="556"/>
-      <c r="F15" s="556"/>
-      <c r="G15" s="556"/>
-      <c r="H15" s="556"/>
-      <c r="I15" s="556"/>
-      <c r="J15" s="557"/>
+      <c r="C15" s="573"/>
+      <c r="D15" s="573"/>
+      <c r="E15" s="573"/>
+      <c r="F15" s="573"/>
+      <c r="G15" s="573"/>
+      <c r="H15" s="573"/>
+      <c r="I15" s="573"/>
+      <c r="J15" s="574"/>
     </row>
     <row r="16" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="558" t="s">
+      <c r="B16" s="575" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="559"/>
-      <c r="D16" s="559"/>
-      <c r="E16" s="559"/>
-      <c r="F16" s="559"/>
-      <c r="G16" s="559"/>
-      <c r="H16" s="559"/>
-      <c r="I16" s="559"/>
-      <c r="J16" s="560"/>
+      <c r="C16" s="576"/>
+      <c r="D16" s="576"/>
+      <c r="E16" s="576"/>
+      <c r="F16" s="576"/>
+      <c r="G16" s="576"/>
+      <c r="H16" s="576"/>
+      <c r="I16" s="576"/>
+      <c r="J16" s="577"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
@@ -48159,11 +48158,11 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="540" t="s">
+      <c r="B22" s="557" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="541"/>
-      <c r="D22" s="542"/>
+      <c r="C22" s="558"/>
+      <c r="D22" s="559"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -48352,13 +48351,13 @@
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="537" t="s">
+      <c r="B33" s="554" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="538"/>
-      <c r="D33" s="538"/>
-      <c r="E33" s="538"/>
-      <c r="F33" s="539"/>
+      <c r="C33" s="555"/>
+      <c r="D33" s="555"/>
+      <c r="E33" s="555"/>
+      <c r="F33" s="556"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
@@ -48384,91 +48383,91 @@
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="537" t="s">
+      <c r="B35" s="554" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="561"/>
-      <c r="D35" s="561"/>
-      <c r="E35" s="561"/>
-      <c r="F35" s="562"/>
+      <c r="C35" s="578"/>
+      <c r="D35" s="578"/>
+      <c r="E35" s="578"/>
+      <c r="F35" s="579"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="543" t="s">
+      <c r="B36" s="560" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="563" t="s">
+      <c r="C36" s="580" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="563"/>
-      <c r="E36" s="563"/>
-      <c r="F36" s="563"/>
+      <c r="D36" s="580"/>
+      <c r="E36" s="580"/>
+      <c r="F36" s="580"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="544"/>
-      <c r="C37" s="563"/>
-      <c r="D37" s="563"/>
-      <c r="E37" s="563"/>
-      <c r="F37" s="563"/>
+      <c r="B37" s="561"/>
+      <c r="C37" s="580"/>
+      <c r="D37" s="580"/>
+      <c r="E37" s="580"/>
+      <c r="F37" s="580"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="544"/>
-      <c r="C38" s="563"/>
-      <c r="D38" s="563"/>
-      <c r="E38" s="563"/>
-      <c r="F38" s="563"/>
+      <c r="B38" s="561"/>
+      <c r="C38" s="580"/>
+      <c r="D38" s="580"/>
+      <c r="E38" s="580"/>
+      <c r="F38" s="580"/>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="544"/>
-      <c r="C39" s="533" t="s">
+      <c r="B39" s="561"/>
+      <c r="C39" s="550" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="533"/>
-      <c r="E39" s="533"/>
-      <c r="F39" s="533"/>
+      <c r="D39" s="550"/>
+      <c r="E39" s="550"/>
+      <c r="F39" s="550"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="544"/>
-      <c r="C40" s="533"/>
-      <c r="D40" s="533"/>
-      <c r="E40" s="533"/>
-      <c r="F40" s="533"/>
+      <c r="B40" s="561"/>
+      <c r="C40" s="550"/>
+      <c r="D40" s="550"/>
+      <c r="E40" s="550"/>
+      <c r="F40" s="550"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="544"/>
-      <c r="C41" s="533"/>
-      <c r="D41" s="533"/>
-      <c r="E41" s="533"/>
-      <c r="F41" s="533"/>
+      <c r="B41" s="561"/>
+      <c r="C41" s="550"/>
+      <c r="D41" s="550"/>
+      <c r="E41" s="550"/>
+      <c r="F41" s="550"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="544"/>
-      <c r="C42" s="534" t="s">
+      <c r="B42" s="561"/>
+      <c r="C42" s="551" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="534"/>
-      <c r="E42" s="534"/>
-      <c r="F42" s="534"/>
+      <c r="D42" s="551"/>
+      <c r="E42" s="551"/>
+      <c r="F42" s="551"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="544"/>
-      <c r="C43" s="534"/>
-      <c r="D43" s="534"/>
-      <c r="E43" s="534"/>
-      <c r="F43" s="534"/>
+      <c r="B43" s="561"/>
+      <c r="C43" s="551"/>
+      <c r="D43" s="551"/>
+      <c r="E43" s="551"/>
+      <c r="F43" s="551"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="545"/>
-      <c r="C44" s="534"/>
-      <c r="D44" s="534"/>
-      <c r="E44" s="534"/>
-      <c r="F44" s="534"/>
+      <c r="B44" s="562"/>
+      <c r="C44" s="551"/>
+      <c r="D44" s="551"/>
+      <c r="E44" s="551"/>
+      <c r="F44" s="551"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="535" t="s">
+      <c r="B47" s="552" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="536"/>
+      <c r="C47" s="553"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="68" t="s">
@@ -48479,61 +48478,55 @@
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="564" t="s">
+      <c r="B49" s="533" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="573">
+      <c r="C49" s="542">
         <v>1300</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="565"/>
-      <c r="C50" s="573"/>
+      <c r="B50" s="534"/>
+      <c r="C50" s="542"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="566"/>
-      <c r="C51" s="574"/>
+      <c r="B51" s="535"/>
+      <c r="C51" s="543"/>
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="567" t="s">
+      <c r="B52" s="536" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="575">
+      <c r="C52" s="544">
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="568"/>
-      <c r="C53" s="576"/>
+      <c r="B53" s="537"/>
+      <c r="C53" s="545"/>
     </row>
     <row r="54" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="569"/>
-      <c r="C54" s="577"/>
+      <c r="B54" s="538"/>
+      <c r="C54" s="546"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="570" t="s">
+      <c r="B55" s="539" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="578">
+      <c r="C55" s="547">
         <v>4000</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="571"/>
-      <c r="C56" s="579"/>
+      <c r="B56" s="540"/>
+      <c r="C56" s="548"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="572"/>
-      <c r="C57" s="580"/>
+      <c r="B57" s="541"/>
+      <c r="C57" s="549"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
     <mergeCell ref="C39:F41"/>
     <mergeCell ref="C42:F44"/>
     <mergeCell ref="B47:C47"/>
@@ -48548,6 +48541,12 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="C36:F38"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -48556,7 +48555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BI155"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -48683,18 +48682,18 @@
     </row>
     <row r="5" spans="1:61" s="24" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
-      <c r="B5" s="596" t="s">
+      <c r="B5" s="616" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="599"/>
+      <c r="C5" s="617"/>
+      <c r="D5" s="619"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="629" t="s">
+      <c r="F5" s="590" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="630"/>
-      <c r="H5" s="630"/>
-      <c r="I5" s="631"/>
+      <c r="G5" s="591"/>
+      <c r="H5" s="591"/>
+      <c r="I5" s="592"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
@@ -48740,12 +48739,12 @@
         <v>2022</v>
       </c>
       <c r="E6" s="41"/>
-      <c r="F6" s="623" t="s">
+      <c r="F6" s="584" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="624"/>
-      <c r="H6" s="624"/>
-      <c r="I6" s="625"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="585"/>
+      <c r="I6" s="586"/>
       <c r="J6" s="222"/>
       <c r="K6" s="222"/>
       <c r="L6" s="222"/>
@@ -48794,10 +48793,10 @@
         <v>0.02</v>
       </c>
       <c r="E7" s="45"/>
-      <c r="F7" s="626"/>
-      <c r="G7" s="627"/>
-      <c r="H7" s="627"/>
-      <c r="I7" s="628"/>
+      <c r="F7" s="587"/>
+      <c r="G7" s="588"/>
+      <c r="H7" s="588"/>
+      <c r="I7" s="589"/>
       <c r="J7" s="222"/>
       <c r="K7" s="222"/>
       <c r="L7" s="222"/>
@@ -49198,48 +49197,48 @@
       <c r="BI14" s="8"/>
     </row>
     <row r="15" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="596" t="s">
+      <c r="A15" s="616" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="597"/>
-      <c r="C15" s="597"/>
-      <c r="D15" s="597"/>
-      <c r="E15" s="597"/>
-      <c r="F15" s="597"/>
-      <c r="G15" s="597"/>
-      <c r="H15" s="598"/>
-      <c r="I15" s="598"/>
-      <c r="J15" s="598"/>
-      <c r="K15" s="598"/>
-      <c r="L15" s="597"/>
-      <c r="M15" s="597"/>
-      <c r="N15" s="597"/>
-      <c r="O15" s="597"/>
-      <c r="P15" s="597"/>
-      <c r="Q15" s="597"/>
-      <c r="R15" s="597"/>
-      <c r="S15" s="597"/>
-      <c r="T15" s="597"/>
-      <c r="U15" s="597"/>
-      <c r="V15" s="597"/>
-      <c r="W15" s="597"/>
-      <c r="X15" s="597"/>
-      <c r="Y15" s="597"/>
-      <c r="Z15" s="597"/>
-      <c r="AA15" s="597"/>
-      <c r="AB15" s="597"/>
-      <c r="AC15" s="597"/>
-      <c r="AD15" s="597"/>
-      <c r="AE15" s="597"/>
-      <c r="AF15" s="597"/>
-      <c r="AG15" s="597"/>
-      <c r="AH15" s="597"/>
-      <c r="AI15" s="597"/>
-      <c r="AJ15" s="597"/>
-      <c r="AK15" s="597"/>
-      <c r="AL15" s="597"/>
-      <c r="AM15" s="597"/>
-      <c r="AN15" s="599"/>
+      <c r="B15" s="617"/>
+      <c r="C15" s="617"/>
+      <c r="D15" s="617"/>
+      <c r="E15" s="617"/>
+      <c r="F15" s="617"/>
+      <c r="G15" s="617"/>
+      <c r="H15" s="618"/>
+      <c r="I15" s="618"/>
+      <c r="J15" s="618"/>
+      <c r="K15" s="618"/>
+      <c r="L15" s="617"/>
+      <c r="M15" s="617"/>
+      <c r="N15" s="617"/>
+      <c r="O15" s="617"/>
+      <c r="P15" s="617"/>
+      <c r="Q15" s="617"/>
+      <c r="R15" s="617"/>
+      <c r="S15" s="617"/>
+      <c r="T15" s="617"/>
+      <c r="U15" s="617"/>
+      <c r="V15" s="617"/>
+      <c r="W15" s="617"/>
+      <c r="X15" s="617"/>
+      <c r="Y15" s="617"/>
+      <c r="Z15" s="617"/>
+      <c r="AA15" s="617"/>
+      <c r="AB15" s="617"/>
+      <c r="AC15" s="617"/>
+      <c r="AD15" s="617"/>
+      <c r="AE15" s="617"/>
+      <c r="AF15" s="617"/>
+      <c r="AG15" s="617"/>
+      <c r="AH15" s="617"/>
+      <c r="AI15" s="617"/>
+      <c r="AJ15" s="617"/>
+      <c r="AK15" s="617"/>
+      <c r="AL15" s="617"/>
+      <c r="AM15" s="617"/>
+      <c r="AN15" s="619"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
@@ -49263,76 +49262,76 @@
       <c r="BI15" s="8"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A16" s="600" t="s">
+      <c r="A16" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="600" t="s">
+      <c r="B16" s="620" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="603" t="s">
+      <c r="C16" s="623" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="604"/>
-      <c r="E16" s="586" t="s">
+      <c r="D16" s="630"/>
+      <c r="E16" s="606" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="587"/>
-      <c r="G16" s="588"/>
-      <c r="H16" s="586" t="s">
+      <c r="F16" s="607"/>
+      <c r="G16" s="608"/>
+      <c r="H16" s="606" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="587"/>
-      <c r="J16" s="588"/>
-      <c r="K16" s="586" t="s">
+      <c r="I16" s="607"/>
+      <c r="J16" s="608"/>
+      <c r="K16" s="606" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="587"/>
-      <c r="M16" s="588"/>
-      <c r="N16" s="586" t="s">
+      <c r="L16" s="607"/>
+      <c r="M16" s="608"/>
+      <c r="N16" s="606" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="587"/>
-      <c r="P16" s="588"/>
-      <c r="Q16" s="586" t="s">
+      <c r="O16" s="607"/>
+      <c r="P16" s="608"/>
+      <c r="Q16" s="606" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="587"/>
-      <c r="S16" s="588"/>
-      <c r="T16" s="586" t="s">
+      <c r="R16" s="607"/>
+      <c r="S16" s="608"/>
+      <c r="T16" s="606" t="s">
         <v>23</v>
       </c>
-      <c r="U16" s="587"/>
-      <c r="V16" s="588"/>
-      <c r="W16" s="586" t="s">
+      <c r="U16" s="607"/>
+      <c r="V16" s="608"/>
+      <c r="W16" s="606" t="s">
         <v>24</v>
       </c>
-      <c r="X16" s="587"/>
-      <c r="Y16" s="588"/>
-      <c r="Z16" s="586" t="s">
+      <c r="X16" s="607"/>
+      <c r="Y16" s="608"/>
+      <c r="Z16" s="606" t="s">
         <v>25</v>
       </c>
-      <c r="AA16" s="587"/>
-      <c r="AB16" s="588"/>
-      <c r="AC16" s="586" t="s">
+      <c r="AA16" s="607"/>
+      <c r="AB16" s="608"/>
+      <c r="AC16" s="606" t="s">
         <v>26</v>
       </c>
-      <c r="AD16" s="587"/>
-      <c r="AE16" s="588"/>
-      <c r="AF16" s="586" t="s">
+      <c r="AD16" s="607"/>
+      <c r="AE16" s="608"/>
+      <c r="AF16" s="606" t="s">
         <v>27</v>
       </c>
-      <c r="AG16" s="587"/>
-      <c r="AH16" s="588"/>
-      <c r="AI16" s="586" t="s">
+      <c r="AG16" s="607"/>
+      <c r="AH16" s="608"/>
+      <c r="AI16" s="606" t="s">
         <v>28</v>
       </c>
-      <c r="AJ16" s="587"/>
-      <c r="AK16" s="588"/>
-      <c r="AL16" s="586" t="s">
+      <c r="AJ16" s="607"/>
+      <c r="AK16" s="608"/>
+      <c r="AL16" s="606" t="s">
         <v>29</v>
       </c>
-      <c r="AM16" s="587"/>
-      <c r="AN16" s="588"/>
+      <c r="AM16" s="607"/>
+      <c r="AN16" s="608"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
@@ -49356,74 +49355,74 @@
       <c r="BI16" s="8"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A17" s="601"/>
-      <c r="B17" s="601"/>
-      <c r="C17" s="589" t="s">
+      <c r="A17" s="621"/>
+      <c r="B17" s="621"/>
+      <c r="C17" s="609" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="591" t="s">
+      <c r="D17" s="633" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="593">
+      <c r="E17" s="613">
         <v>0.02</v>
       </c>
-      <c r="F17" s="594"/>
-      <c r="G17" s="595"/>
-      <c r="H17" s="593">
+      <c r="F17" s="614"/>
+      <c r="G17" s="615"/>
+      <c r="H17" s="613">
         <v>0.04</v>
       </c>
-      <c r="I17" s="594"/>
-      <c r="J17" s="595"/>
-      <c r="K17" s="593">
+      <c r="I17" s="614"/>
+      <c r="J17" s="615"/>
+      <c r="K17" s="613">
         <v>0.04</v>
       </c>
-      <c r="L17" s="594"/>
-      <c r="M17" s="595"/>
-      <c r="N17" s="593">
+      <c r="L17" s="614"/>
+      <c r="M17" s="615"/>
+      <c r="N17" s="613">
         <v>0.05</v>
       </c>
-      <c r="O17" s="594"/>
-      <c r="P17" s="595"/>
-      <c r="Q17" s="593">
+      <c r="O17" s="614"/>
+      <c r="P17" s="615"/>
+      <c r="Q17" s="613">
         <v>0.06</v>
       </c>
-      <c r="R17" s="594"/>
-      <c r="S17" s="595"/>
-      <c r="T17" s="593">
+      <c r="R17" s="614"/>
+      <c r="S17" s="615"/>
+      <c r="T17" s="613">
         <v>0.08</v>
       </c>
-      <c r="U17" s="594"/>
-      <c r="V17" s="595"/>
-      <c r="W17" s="593">
+      <c r="U17" s="614"/>
+      <c r="V17" s="615"/>
+      <c r="W17" s="613">
         <v>0.1</v>
       </c>
-      <c r="X17" s="594"/>
-      <c r="Y17" s="595"/>
-      <c r="Z17" s="593">
+      <c r="X17" s="614"/>
+      <c r="Y17" s="615"/>
+      <c r="Z17" s="613">
         <v>0.11</v>
       </c>
-      <c r="AA17" s="594"/>
-      <c r="AB17" s="595"/>
-      <c r="AC17" s="593">
+      <c r="AA17" s="614"/>
+      <c r="AB17" s="615"/>
+      <c r="AC17" s="613">
         <v>0.11</v>
       </c>
-      <c r="AD17" s="594"/>
-      <c r="AE17" s="595"/>
-      <c r="AF17" s="593">
+      <c r="AD17" s="614"/>
+      <c r="AE17" s="615"/>
+      <c r="AF17" s="613">
         <v>0.12</v>
       </c>
-      <c r="AG17" s="594"/>
-      <c r="AH17" s="595"/>
-      <c r="AI17" s="593">
+      <c r="AG17" s="614"/>
+      <c r="AH17" s="615"/>
+      <c r="AI17" s="613">
         <v>0.13</v>
       </c>
-      <c r="AJ17" s="594"/>
-      <c r="AK17" s="595"/>
-      <c r="AL17" s="593">
+      <c r="AJ17" s="614"/>
+      <c r="AK17" s="615"/>
+      <c r="AL17" s="613">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM17" s="594"/>
-      <c r="AN17" s="595"/>
+      <c r="AM17" s="614"/>
+      <c r="AN17" s="615"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
@@ -49447,10 +49446,10 @@
       <c r="BI17" s="8"/>
     </row>
     <row r="18" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="602"/>
-      <c r="B18" s="602"/>
-      <c r="C18" s="590"/>
-      <c r="D18" s="592"/>
+      <c r="A18" s="622"/>
+      <c r="B18" s="622"/>
+      <c r="C18" s="610"/>
+      <c r="D18" s="634"/>
       <c r="E18" s="115" t="s">
         <v>116</v>
       </c>
@@ -50062,10 +50061,10 @@
       </c>
     </row>
     <row r="22" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="584" t="s">
+      <c r="A22" s="604" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="585"/>
+      <c r="B22" s="605"/>
       <c r="C22" s="81">
         <f>SUM(C19:C21)</f>
         <v>4894</v>
@@ -51150,32 +51149,32 @@
     </row>
     <row r="51" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="605" t="s">
+      <c r="A52" s="593" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="606"/>
-      <c r="C52" s="606"/>
-      <c r="D52" s="606"/>
-      <c r="E52" s="606"/>
-      <c r="F52" s="606"/>
-      <c r="G52" s="606"/>
-      <c r="H52" s="607"/>
-      <c r="I52" s="607"/>
-      <c r="J52" s="607"/>
-      <c r="K52" s="607"/>
-      <c r="L52" s="607"/>
-      <c r="M52" s="607"/>
-      <c r="N52" s="607"/>
-      <c r="O52" s="607"/>
-      <c r="P52" s="607"/>
-      <c r="Q52" s="607"/>
-      <c r="R52" s="607"/>
-      <c r="S52" s="607"/>
-      <c r="T52" s="607"/>
-      <c r="U52" s="607"/>
-      <c r="V52" s="607"/>
-      <c r="W52" s="607"/>
-      <c r="X52" s="608"/>
+      <c r="B52" s="594"/>
+      <c r="C52" s="594"/>
+      <c r="D52" s="594"/>
+      <c r="E52" s="594"/>
+      <c r="F52" s="594"/>
+      <c r="G52" s="594"/>
+      <c r="H52" s="631"/>
+      <c r="I52" s="631"/>
+      <c r="J52" s="631"/>
+      <c r="K52" s="631"/>
+      <c r="L52" s="631"/>
+      <c r="M52" s="631"/>
+      <c r="N52" s="631"/>
+      <c r="O52" s="631"/>
+      <c r="P52" s="631"/>
+      <c r="Q52" s="631"/>
+      <c r="R52" s="631"/>
+      <c r="S52" s="631"/>
+      <c r="T52" s="631"/>
+      <c r="U52" s="631"/>
+      <c r="V52" s="631"/>
+      <c r="W52" s="631"/>
+      <c r="X52" s="632"/>
       <c r="Y52" s="149"/>
       <c r="Z52" s="149"/>
       <c r="AA52" s="149"/>
@@ -51194,33 +51193,33 @@
       <c r="AN52" s="149"/>
     </row>
     <row r="53" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="612" t="s">
+      <c r="B53" s="625" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="616" t="s">
+      <c r="C53" s="626" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="616" t="s">
+      <c r="D53" s="626" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="616" t="s">
+      <c r="E53" s="626" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="610" t="s">
+      <c r="F53" s="598" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="614" t="s">
+      <c r="G53" s="627" t="s">
         <v>88</v>
       </c>
-      <c r="H53" s="610" t="s">
+      <c r="H53" s="598" t="s">
         <v>90</v>
       </c>
       <c r="I53" s="24"/>
-      <c r="J53" s="609"/>
+      <c r="J53" s="629"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
-      <c r="M53" s="609"/>
-      <c r="N53" s="609"/>
+      <c r="M53" s="629"/>
+      <c r="N53" s="629"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
@@ -51228,9 +51227,9 @@
       <c r="S53" s="24"/>
       <c r="T53" s="24"/>
       <c r="U53" s="24"/>
-      <c r="V53" s="609"/>
-      <c r="W53" s="609"/>
-      <c r="X53" s="609"/>
+      <c r="V53" s="629"/>
+      <c r="W53" s="629"/>
+      <c r="X53" s="629"/>
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
       <c r="AA53" s="24"/>
@@ -51249,19 +51248,19 @@
       <c r="AN53" s="185"/>
     </row>
     <row r="54" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="613"/>
-      <c r="C54" s="611"/>
-      <c r="D54" s="611"/>
-      <c r="E54" s="611"/>
-      <c r="F54" s="611"/>
-      <c r="G54" s="615"/>
-      <c r="H54" s="611"/>
+      <c r="B54" s="597"/>
+      <c r="C54" s="599"/>
+      <c r="D54" s="599"/>
+      <c r="E54" s="599"/>
+      <c r="F54" s="599"/>
+      <c r="G54" s="628"/>
+      <c r="H54" s="599"/>
       <c r="I54" s="24"/>
-      <c r="J54" s="609"/>
+      <c r="J54" s="629"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
-      <c r="M54" s="609"/>
-      <c r="N54" s="609"/>
+      <c r="M54" s="629"/>
+      <c r="N54" s="629"/>
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
@@ -51269,9 +51268,9 @@
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
       <c r="U54" s="24"/>
-      <c r="V54" s="609"/>
-      <c r="W54" s="609"/>
-      <c r="X54" s="609"/>
+      <c r="V54" s="629"/>
+      <c r="W54" s="629"/>
+      <c r="X54" s="629"/>
       <c r="AA54" s="24"/>
       <c r="AB54" s="24"/>
       <c r="AC54" s="187"/>
@@ -51328,9 +51327,9 @@
       <c r="V55" s="187"/>
       <c r="W55" s="187"/>
       <c r="X55" s="187"/>
-      <c r="Z55" s="583"/>
-      <c r="AA55" s="583"/>
-      <c r="AB55" s="583"/>
+      <c r="Z55" s="581"/>
+      <c r="AA55" s="581"/>
+      <c r="AB55" s="581"/>
       <c r="AC55" s="188"/>
       <c r="AD55" s="24"/>
       <c r="AE55" s="24"/>
@@ -51385,9 +51384,9 @@
       <c r="V56" s="188"/>
       <c r="W56" s="188"/>
       <c r="X56" s="188"/>
-      <c r="Z56" s="583"/>
-      <c r="AA56" s="583"/>
-      <c r="AB56" s="583"/>
+      <c r="Z56" s="581"/>
+      <c r="AA56" s="581"/>
+      <c r="AB56" s="581"/>
       <c r="AC56" s="187"/>
       <c r="AD56" s="24"/>
       <c r="AE56" s="24"/>
@@ -51442,9 +51441,9 @@
       <c r="V57" s="187"/>
       <c r="W57" s="187"/>
       <c r="X57" s="187"/>
-      <c r="Z57" s="583"/>
-      <c r="AA57" s="583"/>
-      <c r="AB57" s="583"/>
+      <c r="Z57" s="581"/>
+      <c r="AA57" s="581"/>
+      <c r="AB57" s="581"/>
       <c r="AC57" s="185"/>
       <c r="AD57" s="185"/>
       <c r="AE57" s="185"/>
@@ -51466,45 +51465,45 @@
         <f>SUM(B56:AF56)</f>
         <v>885000</v>
       </c>
-      <c r="C58" s="581"/>
-      <c r="D58" s="582"/>
-      <c r="E58" s="582"/>
-      <c r="F58" s="582"/>
-      <c r="G58" s="582"/>
-      <c r="H58" s="582"/>
-      <c r="I58" s="582"/>
-      <c r="J58" s="582"/>
-      <c r="K58" s="582"/>
-      <c r="L58" s="582"/>
-      <c r="M58" s="582"/>
-      <c r="N58" s="582"/>
-      <c r="O58" s="582"/>
-      <c r="P58" s="582"/>
-      <c r="Q58" s="582"/>
-      <c r="R58" s="582"/>
-      <c r="S58" s="582"/>
-      <c r="T58" s="582"/>
-      <c r="U58" s="582"/>
-      <c r="V58" s="582"/>
-      <c r="W58" s="582"/>
-      <c r="X58" s="582"/>
-      <c r="Y58" s="582"/>
-      <c r="Z58" s="582"/>
-      <c r="AA58" s="582"/>
-      <c r="AB58" s="582"/>
-      <c r="AC58" s="582"/>
-      <c r="AD58" s="582"/>
-      <c r="AE58" s="582"/>
-      <c r="AF58" s="582"/>
-      <c r="AG58" s="582"/>
-      <c r="AH58" s="582"/>
-      <c r="AI58" s="582"/>
-      <c r="AJ58" s="582"/>
-      <c r="AK58" s="582"/>
-      <c r="AL58" s="582"/>
-      <c r="AM58" s="582"/>
-      <c r="AN58" s="582"/>
-      <c r="AO58" s="582"/>
+      <c r="C58" s="582"/>
+      <c r="D58" s="583"/>
+      <c r="E58" s="583"/>
+      <c r="F58" s="583"/>
+      <c r="G58" s="583"/>
+      <c r="H58" s="583"/>
+      <c r="I58" s="583"/>
+      <c r="J58" s="583"/>
+      <c r="K58" s="583"/>
+      <c r="L58" s="583"/>
+      <c r="M58" s="583"/>
+      <c r="N58" s="583"/>
+      <c r="O58" s="583"/>
+      <c r="P58" s="583"/>
+      <c r="Q58" s="583"/>
+      <c r="R58" s="583"/>
+      <c r="S58" s="583"/>
+      <c r="T58" s="583"/>
+      <c r="U58" s="583"/>
+      <c r="V58" s="583"/>
+      <c r="W58" s="583"/>
+      <c r="X58" s="583"/>
+      <c r="Y58" s="583"/>
+      <c r="Z58" s="583"/>
+      <c r="AA58" s="583"/>
+      <c r="AB58" s="583"/>
+      <c r="AC58" s="583"/>
+      <c r="AD58" s="583"/>
+      <c r="AE58" s="583"/>
+      <c r="AF58" s="583"/>
+      <c r="AG58" s="583"/>
+      <c r="AH58" s="583"/>
+      <c r="AI58" s="583"/>
+      <c r="AJ58" s="583"/>
+      <c r="AK58" s="583"/>
+      <c r="AL58" s="583"/>
+      <c r="AM58" s="583"/>
+      <c r="AN58" s="583"/>
+      <c r="AO58" s="583"/>
     </row>
     <row r="59" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="103" t="s">
@@ -51514,45 +51513,45 @@
         <f>B58*12</f>
         <v>10620000</v>
       </c>
-      <c r="C59" s="581"/>
-      <c r="D59" s="582"/>
-      <c r="E59" s="582"/>
-      <c r="F59" s="582"/>
-      <c r="G59" s="582"/>
-      <c r="H59" s="582"/>
-      <c r="I59" s="582"/>
-      <c r="J59" s="582"/>
-      <c r="K59" s="582"/>
-      <c r="L59" s="582"/>
-      <c r="M59" s="582"/>
-      <c r="N59" s="582"/>
-      <c r="O59" s="582"/>
-      <c r="P59" s="582"/>
-      <c r="Q59" s="582"/>
-      <c r="R59" s="582"/>
-      <c r="S59" s="582"/>
-      <c r="T59" s="582"/>
-      <c r="U59" s="582"/>
-      <c r="V59" s="582"/>
-      <c r="W59" s="582"/>
-      <c r="X59" s="582"/>
-      <c r="Y59" s="582"/>
-      <c r="Z59" s="582"/>
-      <c r="AA59" s="582"/>
-      <c r="AB59" s="582"/>
-      <c r="AC59" s="582"/>
-      <c r="AD59" s="582"/>
-      <c r="AE59" s="582"/>
-      <c r="AF59" s="582"/>
-      <c r="AG59" s="582"/>
-      <c r="AH59" s="582"/>
-      <c r="AI59" s="582"/>
-      <c r="AJ59" s="582"/>
-      <c r="AK59" s="582"/>
-      <c r="AL59" s="582"/>
-      <c r="AM59" s="582"/>
-      <c r="AN59" s="582"/>
-      <c r="AO59" s="582"/>
+      <c r="C59" s="582"/>
+      <c r="D59" s="583"/>
+      <c r="E59" s="583"/>
+      <c r="F59" s="583"/>
+      <c r="G59" s="583"/>
+      <c r="H59" s="583"/>
+      <c r="I59" s="583"/>
+      <c r="J59" s="583"/>
+      <c r="K59" s="583"/>
+      <c r="L59" s="583"/>
+      <c r="M59" s="583"/>
+      <c r="N59" s="583"/>
+      <c r="O59" s="583"/>
+      <c r="P59" s="583"/>
+      <c r="Q59" s="583"/>
+      <c r="R59" s="583"/>
+      <c r="S59" s="583"/>
+      <c r="T59" s="583"/>
+      <c r="U59" s="583"/>
+      <c r="V59" s="583"/>
+      <c r="W59" s="583"/>
+      <c r="X59" s="583"/>
+      <c r="Y59" s="583"/>
+      <c r="Z59" s="583"/>
+      <c r="AA59" s="583"/>
+      <c r="AB59" s="583"/>
+      <c r="AC59" s="583"/>
+      <c r="AD59" s="583"/>
+      <c r="AE59" s="583"/>
+      <c r="AF59" s="583"/>
+      <c r="AG59" s="583"/>
+      <c r="AH59" s="583"/>
+      <c r="AI59" s="583"/>
+      <c r="AJ59" s="583"/>
+      <c r="AK59" s="583"/>
+      <c r="AL59" s="583"/>
+      <c r="AM59" s="583"/>
+      <c r="AN59" s="583"/>
+      <c r="AO59" s="583"/>
     </row>
     <row r="60" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
@@ -51670,48 +51669,48 @@
       <c r="AN63" s="16"/>
     </row>
     <row r="64" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="596" t="s">
+      <c r="A64" s="616" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="597"/>
-      <c r="C64" s="597"/>
-      <c r="D64" s="597"/>
-      <c r="E64" s="597"/>
-      <c r="F64" s="597"/>
-      <c r="G64" s="597"/>
-      <c r="H64" s="598"/>
-      <c r="I64" s="598"/>
-      <c r="J64" s="598"/>
-      <c r="K64" s="598"/>
-      <c r="L64" s="597"/>
-      <c r="M64" s="597"/>
-      <c r="N64" s="597"/>
-      <c r="O64" s="597"/>
-      <c r="P64" s="597"/>
-      <c r="Q64" s="597"/>
-      <c r="R64" s="597"/>
-      <c r="S64" s="597"/>
-      <c r="T64" s="597"/>
-      <c r="U64" s="597"/>
-      <c r="V64" s="597"/>
-      <c r="W64" s="597"/>
-      <c r="X64" s="597"/>
-      <c r="Y64" s="597"/>
-      <c r="Z64" s="597"/>
-      <c r="AA64" s="597"/>
-      <c r="AB64" s="597"/>
-      <c r="AC64" s="597"/>
-      <c r="AD64" s="597"/>
-      <c r="AE64" s="597"/>
-      <c r="AF64" s="597"/>
-      <c r="AG64" s="597"/>
-      <c r="AH64" s="597"/>
-      <c r="AI64" s="597"/>
-      <c r="AJ64" s="597"/>
-      <c r="AK64" s="597"/>
-      <c r="AL64" s="597"/>
-      <c r="AM64" s="597"/>
-      <c r="AN64" s="599"/>
+      <c r="B64" s="617"/>
+      <c r="C64" s="617"/>
+      <c r="D64" s="617"/>
+      <c r="E64" s="617"/>
+      <c r="F64" s="617"/>
+      <c r="G64" s="617"/>
+      <c r="H64" s="618"/>
+      <c r="I64" s="618"/>
+      <c r="J64" s="618"/>
+      <c r="K64" s="618"/>
+      <c r="L64" s="617"/>
+      <c r="M64" s="617"/>
+      <c r="N64" s="617"/>
+      <c r="O64" s="617"/>
+      <c r="P64" s="617"/>
+      <c r="Q64" s="617"/>
+      <c r="R64" s="617"/>
+      <c r="S64" s="617"/>
+      <c r="T64" s="617"/>
+      <c r="U64" s="617"/>
+      <c r="V64" s="617"/>
+      <c r="W64" s="617"/>
+      <c r="X64" s="617"/>
+      <c r="Y64" s="617"/>
+      <c r="Z64" s="617"/>
+      <c r="AA64" s="617"/>
+      <c r="AB64" s="617"/>
+      <c r="AC64" s="617"/>
+      <c r="AD64" s="617"/>
+      <c r="AE64" s="617"/>
+      <c r="AF64" s="617"/>
+      <c r="AG64" s="617"/>
+      <c r="AH64" s="617"/>
+      <c r="AI64" s="617"/>
+      <c r="AJ64" s="617"/>
+      <c r="AK64" s="617"/>
+      <c r="AL64" s="617"/>
+      <c r="AM64" s="617"/>
+      <c r="AN64" s="619"/>
       <c r="AO64" s="8"/>
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
@@ -51735,76 +51734,76 @@
       <c r="BI64" s="8"/>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A65" s="600" t="s">
+      <c r="A65" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="600" t="s">
+      <c r="B65" s="620" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="603" t="s">
+      <c r="C65" s="623" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="604"/>
-      <c r="E65" s="586" t="s">
+      <c r="D65" s="630"/>
+      <c r="E65" s="606" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="587"/>
-      <c r="G65" s="588"/>
-      <c r="H65" s="586" t="s">
+      <c r="F65" s="607"/>
+      <c r="G65" s="608"/>
+      <c r="H65" s="606" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="587"/>
-      <c r="J65" s="588"/>
-      <c r="K65" s="586" t="s">
+      <c r="I65" s="607"/>
+      <c r="J65" s="608"/>
+      <c r="K65" s="606" t="s">
         <v>20</v>
       </c>
-      <c r="L65" s="587"/>
-      <c r="M65" s="588"/>
-      <c r="N65" s="586" t="s">
+      <c r="L65" s="607"/>
+      <c r="M65" s="608"/>
+      <c r="N65" s="606" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="587"/>
-      <c r="P65" s="588"/>
-      <c r="Q65" s="586" t="s">
+      <c r="O65" s="607"/>
+      <c r="P65" s="608"/>
+      <c r="Q65" s="606" t="s">
         <v>22</v>
       </c>
-      <c r="R65" s="587"/>
-      <c r="S65" s="588"/>
-      <c r="T65" s="586" t="s">
+      <c r="R65" s="607"/>
+      <c r="S65" s="608"/>
+      <c r="T65" s="606" t="s">
         <v>23</v>
       </c>
-      <c r="U65" s="587"/>
-      <c r="V65" s="588"/>
-      <c r="W65" s="586" t="s">
+      <c r="U65" s="607"/>
+      <c r="V65" s="608"/>
+      <c r="W65" s="606" t="s">
         <v>24</v>
       </c>
-      <c r="X65" s="587"/>
-      <c r="Y65" s="588"/>
-      <c r="Z65" s="586" t="s">
+      <c r="X65" s="607"/>
+      <c r="Y65" s="608"/>
+      <c r="Z65" s="606" t="s">
         <v>25</v>
       </c>
-      <c r="AA65" s="587"/>
-      <c r="AB65" s="588"/>
-      <c r="AC65" s="586" t="s">
+      <c r="AA65" s="607"/>
+      <c r="AB65" s="608"/>
+      <c r="AC65" s="606" t="s">
         <v>26</v>
       </c>
-      <c r="AD65" s="587"/>
-      <c r="AE65" s="588"/>
-      <c r="AF65" s="586" t="s">
+      <c r="AD65" s="607"/>
+      <c r="AE65" s="608"/>
+      <c r="AF65" s="606" t="s">
         <v>27</v>
       </c>
-      <c r="AG65" s="587"/>
-      <c r="AH65" s="588"/>
-      <c r="AI65" s="586" t="s">
+      <c r="AG65" s="607"/>
+      <c r="AH65" s="608"/>
+      <c r="AI65" s="606" t="s">
         <v>28</v>
       </c>
-      <c r="AJ65" s="587"/>
-      <c r="AK65" s="588"/>
-      <c r="AL65" s="586" t="s">
+      <c r="AJ65" s="607"/>
+      <c r="AK65" s="608"/>
+      <c r="AL65" s="606" t="s">
         <v>29</v>
       </c>
-      <c r="AM65" s="587"/>
-      <c r="AN65" s="588"/>
+      <c r="AM65" s="607"/>
+      <c r="AN65" s="608"/>
       <c r="AO65" s="8"/>
       <c r="AP65" s="8"/>
       <c r="AQ65" s="8"/>
@@ -51828,74 +51827,74 @@
       <c r="BI65" s="8"/>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A66" s="601"/>
-      <c r="B66" s="601"/>
-      <c r="C66" s="589" t="s">
+      <c r="A66" s="621"/>
+      <c r="B66" s="621"/>
+      <c r="C66" s="609" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="591" t="s">
+      <c r="D66" s="633" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="593">
+      <c r="E66" s="613">
         <v>0.02</v>
       </c>
-      <c r="F66" s="594"/>
-      <c r="G66" s="595"/>
-      <c r="H66" s="593">
+      <c r="F66" s="614"/>
+      <c r="G66" s="615"/>
+      <c r="H66" s="613">
         <v>0.04</v>
       </c>
-      <c r="I66" s="594"/>
-      <c r="J66" s="595"/>
-      <c r="K66" s="593">
+      <c r="I66" s="614"/>
+      <c r="J66" s="615"/>
+      <c r="K66" s="613">
         <v>0.04</v>
       </c>
-      <c r="L66" s="594"/>
-      <c r="M66" s="595"/>
-      <c r="N66" s="593">
+      <c r="L66" s="614"/>
+      <c r="M66" s="615"/>
+      <c r="N66" s="613">
         <v>0.05</v>
       </c>
-      <c r="O66" s="594"/>
-      <c r="P66" s="595"/>
-      <c r="Q66" s="593">
+      <c r="O66" s="614"/>
+      <c r="P66" s="615"/>
+      <c r="Q66" s="613">
         <v>0.06</v>
       </c>
-      <c r="R66" s="594"/>
-      <c r="S66" s="595"/>
-      <c r="T66" s="593">
+      <c r="R66" s="614"/>
+      <c r="S66" s="615"/>
+      <c r="T66" s="613">
         <v>0.08</v>
       </c>
-      <c r="U66" s="594"/>
-      <c r="V66" s="595"/>
-      <c r="W66" s="593">
+      <c r="U66" s="614"/>
+      <c r="V66" s="615"/>
+      <c r="W66" s="613">
         <v>0.1</v>
       </c>
-      <c r="X66" s="594"/>
-      <c r="Y66" s="595"/>
-      <c r="Z66" s="593">
+      <c r="X66" s="614"/>
+      <c r="Y66" s="615"/>
+      <c r="Z66" s="613">
         <v>0.11</v>
       </c>
-      <c r="AA66" s="594"/>
-      <c r="AB66" s="595"/>
-      <c r="AC66" s="593">
+      <c r="AA66" s="614"/>
+      <c r="AB66" s="615"/>
+      <c r="AC66" s="613">
         <v>0.11</v>
       </c>
-      <c r="AD66" s="594"/>
-      <c r="AE66" s="595"/>
-      <c r="AF66" s="593">
+      <c r="AD66" s="614"/>
+      <c r="AE66" s="615"/>
+      <c r="AF66" s="613">
         <v>0.12</v>
       </c>
-      <c r="AG66" s="594"/>
-      <c r="AH66" s="595"/>
-      <c r="AI66" s="593">
+      <c r="AG66" s="614"/>
+      <c r="AH66" s="615"/>
+      <c r="AI66" s="613">
         <v>0.13</v>
       </c>
-      <c r="AJ66" s="594"/>
-      <c r="AK66" s="595"/>
-      <c r="AL66" s="593">
+      <c r="AJ66" s="614"/>
+      <c r="AK66" s="615"/>
+      <c r="AL66" s="613">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM66" s="594"/>
-      <c r="AN66" s="595"/>
+      <c r="AM66" s="614"/>
+      <c r="AN66" s="615"/>
       <c r="AO66" s="8"/>
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
@@ -51919,10 +51918,10 @@
       <c r="BI66" s="8"/>
     </row>
     <row r="67" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="602"/>
-      <c r="B67" s="602"/>
-      <c r="C67" s="590"/>
-      <c r="D67" s="592"/>
+      <c r="A67" s="622"/>
+      <c r="B67" s="622"/>
+      <c r="C67" s="610"/>
+      <c r="D67" s="634"/>
       <c r="E67" s="115" t="s">
         <v>116</v>
       </c>
@@ -52534,10 +52533,10 @@
       </c>
     </row>
     <row r="71" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="584" t="s">
+      <c r="A71" s="604" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="585"/>
+      <c r="B71" s="605"/>
       <c r="C71" s="81">
         <f>SUM(C68:C70)</f>
         <v>9809</v>
@@ -52622,32 +52621,32 @@
     </row>
     <row r="100" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="605" t="s">
+      <c r="A101" s="593" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="606"/>
-      <c r="C101" s="606"/>
-      <c r="D101" s="606"/>
-      <c r="E101" s="606"/>
-      <c r="F101" s="606"/>
-      <c r="G101" s="606"/>
-      <c r="H101" s="606"/>
-      <c r="I101" s="606"/>
-      <c r="J101" s="606"/>
-      <c r="K101" s="606"/>
-      <c r="L101" s="606"/>
-      <c r="M101" s="606"/>
-      <c r="N101" s="606"/>
-      <c r="O101" s="606"/>
-      <c r="P101" s="606"/>
-      <c r="Q101" s="606"/>
-      <c r="R101" s="606"/>
-      <c r="S101" s="606"/>
-      <c r="T101" s="606"/>
-      <c r="U101" s="606"/>
-      <c r="V101" s="606"/>
-      <c r="W101" s="606"/>
-      <c r="X101" s="617"/>
+      <c r="B101" s="594"/>
+      <c r="C101" s="594"/>
+      <c r="D101" s="594"/>
+      <c r="E101" s="594"/>
+      <c r="F101" s="594"/>
+      <c r="G101" s="594"/>
+      <c r="H101" s="594"/>
+      <c r="I101" s="594"/>
+      <c r="J101" s="594"/>
+      <c r="K101" s="594"/>
+      <c r="L101" s="594"/>
+      <c r="M101" s="594"/>
+      <c r="N101" s="594"/>
+      <c r="O101" s="594"/>
+      <c r="P101" s="594"/>
+      <c r="Q101" s="594"/>
+      <c r="R101" s="594"/>
+      <c r="S101" s="594"/>
+      <c r="T101" s="594"/>
+      <c r="U101" s="594"/>
+      <c r="V101" s="594"/>
+      <c r="W101" s="594"/>
+      <c r="X101" s="595"/>
       <c r="Y101" s="149"/>
       <c r="Z101" s="149"/>
       <c r="AA101" s="149"/>
@@ -52666,41 +52665,41 @@
       <c r="AN101" s="99"/>
     </row>
     <row r="102" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="612" t="s">
+      <c r="B102" s="625" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="616" t="s">
+      <c r="C102" s="626" t="s">
         <v>72</v>
       </c>
-      <c r="D102" s="616" t="s">
+      <c r="D102" s="626" t="s">
         <v>79</v>
       </c>
-      <c r="E102" s="616" t="s">
+      <c r="E102" s="626" t="s">
         <v>81</v>
       </c>
-      <c r="F102" s="610" t="s">
+      <c r="F102" s="598" t="s">
         <v>84</v>
       </c>
-      <c r="G102" s="614" t="s">
+      <c r="G102" s="627" t="s">
         <v>88</v>
       </c>
-      <c r="H102" s="610" t="s">
+      <c r="H102" s="598" t="s">
         <v>90</v>
       </c>
-      <c r="I102" s="610" t="s">
+      <c r="I102" s="598" t="s">
         <v>91</v>
       </c>
-      <c r="J102" s="610" t="s">
+      <c r="J102" s="598" t="s">
         <v>92</v>
       </c>
-      <c r="K102" s="610" t="s">
+      <c r="K102" s="598" t="s">
         <v>93</v>
       </c>
-      <c r="L102" s="610" t="s">
+      <c r="L102" s="598" t="s">
         <v>77</v>
       </c>
-      <c r="M102" s="609"/>
-      <c r="N102" s="609"/>
+      <c r="M102" s="629"/>
+      <c r="N102" s="629"/>
       <c r="O102" s="24"/>
       <c r="P102" s="24"/>
       <c r="Q102" s="24"/>
@@ -52708,9 +52707,9 @@
       <c r="S102" s="24"/>
       <c r="T102" s="24"/>
       <c r="U102" s="24"/>
-      <c r="V102" s="609"/>
-      <c r="W102" s="609"/>
-      <c r="X102" s="609"/>
+      <c r="V102" s="629"/>
+      <c r="W102" s="629"/>
+      <c r="X102" s="629"/>
       <c r="Y102" s="24"/>
       <c r="Z102" s="24"/>
       <c r="AA102" s="24"/>
@@ -52729,19 +52728,19 @@
       <c r="AN102" s="185"/>
     </row>
     <row r="103" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="613"/>
-      <c r="C103" s="611"/>
-      <c r="D103" s="611"/>
-      <c r="E103" s="611"/>
-      <c r="F103" s="611"/>
-      <c r="G103" s="615"/>
-      <c r="H103" s="611"/>
-      <c r="I103" s="611"/>
-      <c r="J103" s="611"/>
-      <c r="K103" s="611"/>
-      <c r="L103" s="611"/>
-      <c r="M103" s="609"/>
-      <c r="N103" s="609"/>
+      <c r="B103" s="597"/>
+      <c r="C103" s="599"/>
+      <c r="D103" s="599"/>
+      <c r="E103" s="599"/>
+      <c r="F103" s="599"/>
+      <c r="G103" s="628"/>
+      <c r="H103" s="599"/>
+      <c r="I103" s="599"/>
+      <c r="J103" s="599"/>
+      <c r="K103" s="599"/>
+      <c r="L103" s="599"/>
+      <c r="M103" s="629"/>
+      <c r="N103" s="629"/>
       <c r="O103" s="24"/>
       <c r="P103" s="24"/>
       <c r="Q103" s="24"/>
@@ -52749,9 +52748,9 @@
       <c r="S103" s="24"/>
       <c r="T103" s="24"/>
       <c r="U103" s="24"/>
-      <c r="V103" s="609"/>
-      <c r="W103" s="609"/>
-      <c r="X103" s="609"/>
+      <c r="V103" s="629"/>
+      <c r="W103" s="629"/>
+      <c r="X103" s="629"/>
       <c r="AA103" s="24"/>
       <c r="AB103" s="24"/>
       <c r="AC103" s="187"/>
@@ -52816,9 +52815,9 @@
       <c r="V104" s="187"/>
       <c r="W104" s="187"/>
       <c r="X104" s="187"/>
-      <c r="Z104" s="583"/>
-      <c r="AA104" s="583"/>
-      <c r="AB104" s="583"/>
+      <c r="Z104" s="581"/>
+      <c r="AA104" s="581"/>
+      <c r="AB104" s="581"/>
       <c r="AC104" s="188"/>
       <c r="AD104" s="24"/>
       <c r="AE104" s="24"/>
@@ -52881,9 +52880,9 @@
       <c r="V105" s="188"/>
       <c r="W105" s="188"/>
       <c r="X105" s="188"/>
-      <c r="Z105" s="583"/>
-      <c r="AA105" s="583"/>
-      <c r="AB105" s="583"/>
+      <c r="Z105" s="581"/>
+      <c r="AA105" s="581"/>
+      <c r="AB105" s="581"/>
       <c r="AC105" s="187"/>
       <c r="AD105" s="24"/>
       <c r="AE105" s="24"/>
@@ -52946,9 +52945,9 @@
       <c r="V106" s="187"/>
       <c r="W106" s="187"/>
       <c r="X106" s="187"/>
-      <c r="Z106" s="583"/>
-      <c r="AA106" s="583"/>
-      <c r="AB106" s="583"/>
+      <c r="Z106" s="581"/>
+      <c r="AA106" s="581"/>
+      <c r="AB106" s="581"/>
       <c r="AC106" s="185"/>
       <c r="AD106" s="185"/>
       <c r="AE106" s="185"/>
@@ -52970,45 +52969,45 @@
         <f>SUM(B105:AF105)</f>
         <v>1195000</v>
       </c>
-      <c r="C107" s="581"/>
-      <c r="D107" s="582"/>
-      <c r="E107" s="582"/>
-      <c r="F107" s="582"/>
-      <c r="G107" s="582"/>
-      <c r="H107" s="582"/>
-      <c r="I107" s="582"/>
-      <c r="J107" s="582"/>
-      <c r="K107" s="582"/>
-      <c r="L107" s="582"/>
-      <c r="M107" s="582"/>
-      <c r="N107" s="582"/>
-      <c r="O107" s="582"/>
-      <c r="P107" s="582"/>
-      <c r="Q107" s="582"/>
-      <c r="R107" s="582"/>
-      <c r="S107" s="582"/>
-      <c r="T107" s="582"/>
-      <c r="U107" s="582"/>
-      <c r="V107" s="582"/>
-      <c r="W107" s="582"/>
-      <c r="X107" s="582"/>
-      <c r="Y107" s="582"/>
-      <c r="Z107" s="582"/>
-      <c r="AA107" s="582"/>
-      <c r="AB107" s="582"/>
-      <c r="AC107" s="582"/>
-      <c r="AD107" s="582"/>
-      <c r="AE107" s="582"/>
-      <c r="AF107" s="582"/>
-      <c r="AG107" s="582"/>
-      <c r="AH107" s="582"/>
-      <c r="AI107" s="582"/>
-      <c r="AJ107" s="582"/>
-      <c r="AK107" s="582"/>
-      <c r="AL107" s="582"/>
-      <c r="AM107" s="582"/>
-      <c r="AN107" s="582"/>
-      <c r="AO107" s="582"/>
+      <c r="C107" s="582"/>
+      <c r="D107" s="583"/>
+      <c r="E107" s="583"/>
+      <c r="F107" s="583"/>
+      <c r="G107" s="583"/>
+      <c r="H107" s="583"/>
+      <c r="I107" s="583"/>
+      <c r="J107" s="583"/>
+      <c r="K107" s="583"/>
+      <c r="L107" s="583"/>
+      <c r="M107" s="583"/>
+      <c r="N107" s="583"/>
+      <c r="O107" s="583"/>
+      <c r="P107" s="583"/>
+      <c r="Q107" s="583"/>
+      <c r="R107" s="583"/>
+      <c r="S107" s="583"/>
+      <c r="T107" s="583"/>
+      <c r="U107" s="583"/>
+      <c r="V107" s="583"/>
+      <c r="W107" s="583"/>
+      <c r="X107" s="583"/>
+      <c r="Y107" s="583"/>
+      <c r="Z107" s="583"/>
+      <c r="AA107" s="583"/>
+      <c r="AB107" s="583"/>
+      <c r="AC107" s="583"/>
+      <c r="AD107" s="583"/>
+      <c r="AE107" s="583"/>
+      <c r="AF107" s="583"/>
+      <c r="AG107" s="583"/>
+      <c r="AH107" s="583"/>
+      <c r="AI107" s="583"/>
+      <c r="AJ107" s="583"/>
+      <c r="AK107" s="583"/>
+      <c r="AL107" s="583"/>
+      <c r="AM107" s="583"/>
+      <c r="AN107" s="583"/>
+      <c r="AO107" s="583"/>
     </row>
     <row r="108" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="103" t="s">
@@ -53018,45 +53017,45 @@
         <f>B107*12</f>
         <v>14340000</v>
       </c>
-      <c r="C108" s="581"/>
-      <c r="D108" s="582"/>
-      <c r="E108" s="582"/>
-      <c r="F108" s="582"/>
-      <c r="G108" s="582"/>
-      <c r="H108" s="582"/>
-      <c r="I108" s="582"/>
-      <c r="J108" s="582"/>
-      <c r="K108" s="582"/>
-      <c r="L108" s="582"/>
-      <c r="M108" s="582"/>
-      <c r="N108" s="582"/>
-      <c r="O108" s="582"/>
-      <c r="P108" s="582"/>
-      <c r="Q108" s="582"/>
-      <c r="R108" s="582"/>
-      <c r="S108" s="582"/>
-      <c r="T108" s="582"/>
-      <c r="U108" s="582"/>
-      <c r="V108" s="582"/>
-      <c r="W108" s="582"/>
-      <c r="X108" s="582"/>
-      <c r="Y108" s="582"/>
-      <c r="Z108" s="582"/>
-      <c r="AA108" s="582"/>
-      <c r="AB108" s="582"/>
-      <c r="AC108" s="582"/>
-      <c r="AD108" s="582"/>
-      <c r="AE108" s="582"/>
-      <c r="AF108" s="582"/>
-      <c r="AG108" s="582"/>
-      <c r="AH108" s="582"/>
-      <c r="AI108" s="582"/>
-      <c r="AJ108" s="582"/>
-      <c r="AK108" s="582"/>
-      <c r="AL108" s="582"/>
-      <c r="AM108" s="582"/>
-      <c r="AN108" s="582"/>
-      <c r="AO108" s="582"/>
+      <c r="C108" s="582"/>
+      <c r="D108" s="583"/>
+      <c r="E108" s="583"/>
+      <c r="F108" s="583"/>
+      <c r="G108" s="583"/>
+      <c r="H108" s="583"/>
+      <c r="I108" s="583"/>
+      <c r="J108" s="583"/>
+      <c r="K108" s="583"/>
+      <c r="L108" s="583"/>
+      <c r="M108" s="583"/>
+      <c r="N108" s="583"/>
+      <c r="O108" s="583"/>
+      <c r="P108" s="583"/>
+      <c r="Q108" s="583"/>
+      <c r="R108" s="583"/>
+      <c r="S108" s="583"/>
+      <c r="T108" s="583"/>
+      <c r="U108" s="583"/>
+      <c r="V108" s="583"/>
+      <c r="W108" s="583"/>
+      <c r="X108" s="583"/>
+      <c r="Y108" s="583"/>
+      <c r="Z108" s="583"/>
+      <c r="AA108" s="583"/>
+      <c r="AB108" s="583"/>
+      <c r="AC108" s="583"/>
+      <c r="AD108" s="583"/>
+      <c r="AE108" s="583"/>
+      <c r="AF108" s="583"/>
+      <c r="AG108" s="583"/>
+      <c r="AH108" s="583"/>
+      <c r="AI108" s="583"/>
+      <c r="AJ108" s="583"/>
+      <c r="AK108" s="583"/>
+      <c r="AL108" s="583"/>
+      <c r="AM108" s="583"/>
+      <c r="AN108" s="583"/>
+      <c r="AO108" s="583"/>
     </row>
     <row r="109" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="178"/>
@@ -53144,48 +53143,48 @@
     </row>
     <row r="111" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="596" t="s">
+      <c r="A112" s="616" t="s">
         <v>97</v>
       </c>
-      <c r="B112" s="597"/>
-      <c r="C112" s="597"/>
-      <c r="D112" s="597"/>
-      <c r="E112" s="597"/>
-      <c r="F112" s="597"/>
-      <c r="G112" s="597"/>
-      <c r="H112" s="598"/>
-      <c r="I112" s="598"/>
-      <c r="J112" s="598"/>
-      <c r="K112" s="598"/>
-      <c r="L112" s="597"/>
-      <c r="M112" s="597"/>
-      <c r="N112" s="597"/>
-      <c r="O112" s="597"/>
-      <c r="P112" s="597"/>
-      <c r="Q112" s="597"/>
-      <c r="R112" s="597"/>
-      <c r="S112" s="597"/>
-      <c r="T112" s="597"/>
-      <c r="U112" s="597"/>
-      <c r="V112" s="597"/>
-      <c r="W112" s="597"/>
-      <c r="X112" s="597"/>
-      <c r="Y112" s="597"/>
-      <c r="Z112" s="597"/>
-      <c r="AA112" s="597"/>
-      <c r="AB112" s="597"/>
-      <c r="AC112" s="597"/>
-      <c r="AD112" s="597"/>
-      <c r="AE112" s="597"/>
-      <c r="AF112" s="597"/>
-      <c r="AG112" s="597"/>
-      <c r="AH112" s="597"/>
-      <c r="AI112" s="597"/>
-      <c r="AJ112" s="597"/>
-      <c r="AK112" s="597"/>
-      <c r="AL112" s="597"/>
-      <c r="AM112" s="597"/>
-      <c r="AN112" s="599"/>
+      <c r="B112" s="617"/>
+      <c r="C112" s="617"/>
+      <c r="D112" s="617"/>
+      <c r="E112" s="617"/>
+      <c r="F112" s="617"/>
+      <c r="G112" s="617"/>
+      <c r="H112" s="618"/>
+      <c r="I112" s="618"/>
+      <c r="J112" s="618"/>
+      <c r="K112" s="618"/>
+      <c r="L112" s="617"/>
+      <c r="M112" s="617"/>
+      <c r="N112" s="617"/>
+      <c r="O112" s="617"/>
+      <c r="P112" s="617"/>
+      <c r="Q112" s="617"/>
+      <c r="R112" s="617"/>
+      <c r="S112" s="617"/>
+      <c r="T112" s="617"/>
+      <c r="U112" s="617"/>
+      <c r="V112" s="617"/>
+      <c r="W112" s="617"/>
+      <c r="X112" s="617"/>
+      <c r="Y112" s="617"/>
+      <c r="Z112" s="617"/>
+      <c r="AA112" s="617"/>
+      <c r="AB112" s="617"/>
+      <c r="AC112" s="617"/>
+      <c r="AD112" s="617"/>
+      <c r="AE112" s="617"/>
+      <c r="AF112" s="617"/>
+      <c r="AG112" s="617"/>
+      <c r="AH112" s="617"/>
+      <c r="AI112" s="617"/>
+      <c r="AJ112" s="617"/>
+      <c r="AK112" s="617"/>
+      <c r="AL112" s="617"/>
+      <c r="AM112" s="617"/>
+      <c r="AN112" s="619"/>
       <c r="AO112" s="8"/>
       <c r="AP112" s="8"/>
       <c r="AQ112" s="8"/>
@@ -53209,76 +53208,76 @@
       <c r="BI112" s="8"/>
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A113" s="600" t="s">
+      <c r="A113" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="B113" s="600" t="s">
+      <c r="B113" s="620" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="603" t="s">
+      <c r="C113" s="623" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="618"/>
-      <c r="E113" s="586" t="s">
+      <c r="D113" s="624"/>
+      <c r="E113" s="606" t="s">
         <v>18</v>
       </c>
-      <c r="F113" s="587"/>
-      <c r="G113" s="587"/>
-      <c r="H113" s="586" t="s">
+      <c r="F113" s="607"/>
+      <c r="G113" s="607"/>
+      <c r="H113" s="606" t="s">
         <v>19</v>
       </c>
-      <c r="I113" s="587"/>
-      <c r="J113" s="588"/>
-      <c r="K113" s="586" t="s">
+      <c r="I113" s="607"/>
+      <c r="J113" s="608"/>
+      <c r="K113" s="606" t="s">
         <v>20</v>
       </c>
-      <c r="L113" s="587"/>
-      <c r="M113" s="588"/>
-      <c r="N113" s="586" t="s">
+      <c r="L113" s="607"/>
+      <c r="M113" s="608"/>
+      <c r="N113" s="606" t="s">
         <v>21</v>
       </c>
-      <c r="O113" s="587"/>
-      <c r="P113" s="588"/>
-      <c r="Q113" s="586" t="s">
+      <c r="O113" s="607"/>
+      <c r="P113" s="608"/>
+      <c r="Q113" s="606" t="s">
         <v>22</v>
       </c>
-      <c r="R113" s="587"/>
-      <c r="S113" s="588"/>
-      <c r="T113" s="586" t="s">
+      <c r="R113" s="607"/>
+      <c r="S113" s="608"/>
+      <c r="T113" s="606" t="s">
         <v>23</v>
       </c>
-      <c r="U113" s="587"/>
-      <c r="V113" s="588"/>
-      <c r="W113" s="586" t="s">
+      <c r="U113" s="607"/>
+      <c r="V113" s="608"/>
+      <c r="W113" s="606" t="s">
         <v>24</v>
       </c>
-      <c r="X113" s="587"/>
-      <c r="Y113" s="588"/>
-      <c r="Z113" s="586" t="s">
+      <c r="X113" s="607"/>
+      <c r="Y113" s="608"/>
+      <c r="Z113" s="606" t="s">
         <v>25</v>
       </c>
-      <c r="AA113" s="587"/>
-      <c r="AB113" s="588"/>
-      <c r="AC113" s="586" t="s">
+      <c r="AA113" s="607"/>
+      <c r="AB113" s="608"/>
+      <c r="AC113" s="606" t="s">
         <v>26</v>
       </c>
-      <c r="AD113" s="587"/>
-      <c r="AE113" s="588"/>
-      <c r="AF113" s="586" t="s">
+      <c r="AD113" s="607"/>
+      <c r="AE113" s="608"/>
+      <c r="AF113" s="606" t="s">
         <v>27</v>
       </c>
-      <c r="AG113" s="587"/>
-      <c r="AH113" s="588"/>
-      <c r="AI113" s="586" t="s">
+      <c r="AG113" s="607"/>
+      <c r="AH113" s="608"/>
+      <c r="AI113" s="606" t="s">
         <v>28</v>
       </c>
-      <c r="AJ113" s="587"/>
-      <c r="AK113" s="588"/>
-      <c r="AL113" s="586" t="s">
+      <c r="AJ113" s="607"/>
+      <c r="AK113" s="608"/>
+      <c r="AL113" s="606" t="s">
         <v>29</v>
       </c>
-      <c r="AM113" s="587"/>
-      <c r="AN113" s="588"/>
+      <c r="AM113" s="607"/>
+      <c r="AN113" s="608"/>
       <c r="AO113" s="8"/>
       <c r="AP113" s="8"/>
       <c r="AQ113" s="8"/>
@@ -53302,74 +53301,74 @@
       <c r="BI113" s="8"/>
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A114" s="601"/>
-      <c r="B114" s="601"/>
-      <c r="C114" s="589" t="s">
+      <c r="A114" s="621"/>
+      <c r="B114" s="621"/>
+      <c r="C114" s="609" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="621" t="s">
+      <c r="D114" s="611" t="s">
         <v>17</v>
       </c>
-      <c r="E114" s="593">
+      <c r="E114" s="613">
         <v>0.02</v>
       </c>
-      <c r="F114" s="594"/>
-      <c r="G114" s="594"/>
-      <c r="H114" s="593">
+      <c r="F114" s="614"/>
+      <c r="G114" s="614"/>
+      <c r="H114" s="613">
         <v>0.04</v>
       </c>
-      <c r="I114" s="594"/>
-      <c r="J114" s="595"/>
-      <c r="K114" s="593">
+      <c r="I114" s="614"/>
+      <c r="J114" s="615"/>
+      <c r="K114" s="613">
         <v>0.04</v>
       </c>
-      <c r="L114" s="594"/>
-      <c r="M114" s="595"/>
-      <c r="N114" s="593">
+      <c r="L114" s="614"/>
+      <c r="M114" s="615"/>
+      <c r="N114" s="613">
         <v>0.05</v>
       </c>
-      <c r="O114" s="594"/>
-      <c r="P114" s="595"/>
-      <c r="Q114" s="593">
+      <c r="O114" s="614"/>
+      <c r="P114" s="615"/>
+      <c r="Q114" s="613">
         <v>0.06</v>
       </c>
-      <c r="R114" s="594"/>
-      <c r="S114" s="595"/>
-      <c r="T114" s="593">
+      <c r="R114" s="614"/>
+      <c r="S114" s="615"/>
+      <c r="T114" s="613">
         <v>0.08</v>
       </c>
-      <c r="U114" s="594"/>
-      <c r="V114" s="595"/>
-      <c r="W114" s="593">
+      <c r="U114" s="614"/>
+      <c r="V114" s="615"/>
+      <c r="W114" s="613">
         <v>0.1</v>
       </c>
-      <c r="X114" s="594"/>
-      <c r="Y114" s="595"/>
-      <c r="Z114" s="593">
+      <c r="X114" s="614"/>
+      <c r="Y114" s="615"/>
+      <c r="Z114" s="613">
         <v>0.11</v>
       </c>
-      <c r="AA114" s="594"/>
-      <c r="AB114" s="595"/>
-      <c r="AC114" s="593">
+      <c r="AA114" s="614"/>
+      <c r="AB114" s="615"/>
+      <c r="AC114" s="613">
         <v>0.11</v>
       </c>
-      <c r="AD114" s="594"/>
-      <c r="AE114" s="595"/>
-      <c r="AF114" s="593">
+      <c r="AD114" s="614"/>
+      <c r="AE114" s="615"/>
+      <c r="AF114" s="613">
         <v>0.12</v>
       </c>
-      <c r="AG114" s="594"/>
-      <c r="AH114" s="595"/>
-      <c r="AI114" s="593">
+      <c r="AG114" s="614"/>
+      <c r="AH114" s="615"/>
+      <c r="AI114" s="613">
         <v>0.13</v>
       </c>
-      <c r="AJ114" s="594"/>
-      <c r="AK114" s="595"/>
-      <c r="AL114" s="593">
+      <c r="AJ114" s="614"/>
+      <c r="AK114" s="615"/>
+      <c r="AL114" s="613">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM114" s="594"/>
-      <c r="AN114" s="595"/>
+      <c r="AM114" s="614"/>
+      <c r="AN114" s="615"/>
       <c r="AO114" s="8"/>
       <c r="AP114" s="8"/>
       <c r="AQ114" s="8"/>
@@ -53393,10 +53392,10 @@
       <c r="BI114" s="8"/>
     </row>
     <row r="115" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="602"/>
-      <c r="B115" s="602"/>
-      <c r="C115" s="590"/>
-      <c r="D115" s="622"/>
+      <c r="A115" s="622"/>
+      <c r="B115" s="622"/>
+      <c r="C115" s="610"/>
+      <c r="D115" s="612"/>
       <c r="E115" s="223" t="s">
         <v>116</v>
       </c>
@@ -54008,10 +54007,10 @@
       </c>
     </row>
     <row r="119" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="584" t="s">
+      <c r="A119" s="604" t="s">
         <v>46</v>
       </c>
-      <c r="B119" s="585"/>
+      <c r="B119" s="605"/>
       <c r="C119" s="81">
         <f>SUM(C116:C118)</f>
         <v>20546</v>
@@ -54096,32 +54095,32 @@
     </row>
     <row r="147" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:40" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="605" t="s">
+      <c r="A148" s="593" t="s">
         <v>99</v>
       </c>
-      <c r="B148" s="606"/>
-      <c r="C148" s="606"/>
-      <c r="D148" s="606"/>
-      <c r="E148" s="606"/>
-      <c r="F148" s="606"/>
-      <c r="G148" s="606"/>
-      <c r="H148" s="606"/>
-      <c r="I148" s="606"/>
-      <c r="J148" s="606"/>
-      <c r="K148" s="606"/>
-      <c r="L148" s="606"/>
-      <c r="M148" s="606"/>
-      <c r="N148" s="606"/>
-      <c r="O148" s="606"/>
-      <c r="P148" s="606"/>
-      <c r="Q148" s="606"/>
-      <c r="R148" s="606"/>
-      <c r="S148" s="606"/>
-      <c r="T148" s="606"/>
-      <c r="U148" s="606"/>
-      <c r="V148" s="606"/>
-      <c r="W148" s="606"/>
-      <c r="X148" s="617"/>
+      <c r="B148" s="594"/>
+      <c r="C148" s="594"/>
+      <c r="D148" s="594"/>
+      <c r="E148" s="594"/>
+      <c r="F148" s="594"/>
+      <c r="G148" s="594"/>
+      <c r="H148" s="594"/>
+      <c r="I148" s="594"/>
+      <c r="J148" s="594"/>
+      <c r="K148" s="594"/>
+      <c r="L148" s="594"/>
+      <c r="M148" s="594"/>
+      <c r="N148" s="594"/>
+      <c r="O148" s="594"/>
+      <c r="P148" s="594"/>
+      <c r="Q148" s="594"/>
+      <c r="R148" s="594"/>
+      <c r="S148" s="594"/>
+      <c r="T148" s="594"/>
+      <c r="U148" s="594"/>
+      <c r="V148" s="594"/>
+      <c r="W148" s="594"/>
+      <c r="X148" s="595"/>
       <c r="Y148" s="149"/>
       <c r="Z148" s="149"/>
       <c r="AA148" s="149"/>
@@ -54140,73 +54139,73 @@
       <c r="AN148" s="99"/>
     </row>
     <row r="149" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="632" t="s">
+      <c r="B149" s="596" t="s">
         <v>71</v>
       </c>
-      <c r="C149" s="610" t="s">
+      <c r="C149" s="598" t="s">
         <v>72</v>
       </c>
-      <c r="D149" s="633" t="s">
+      <c r="D149" s="600" t="s">
         <v>73</v>
       </c>
-      <c r="E149" s="610" t="s">
+      <c r="E149" s="598" t="s">
         <v>74</v>
       </c>
-      <c r="F149" s="610" t="s">
+      <c r="F149" s="598" t="s">
         <v>75</v>
       </c>
-      <c r="G149" s="610" t="s">
+      <c r="G149" s="598" t="s">
         <v>76</v>
       </c>
-      <c r="H149" s="610" t="s">
+      <c r="H149" s="598" t="s">
         <v>77</v>
       </c>
-      <c r="I149" s="610" t="s">
+      <c r="I149" s="598" t="s">
         <v>78</v>
       </c>
-      <c r="J149" s="610" t="s">
+      <c r="J149" s="598" t="s">
         <v>79</v>
       </c>
-      <c r="K149" s="582" t="s">
+      <c r="K149" s="583" t="s">
         <v>80</v>
       </c>
-      <c r="L149" s="610" t="s">
+      <c r="L149" s="598" t="s">
         <v>81</v>
       </c>
-      <c r="M149" s="610" t="s">
+      <c r="M149" s="598" t="s">
         <v>82</v>
       </c>
-      <c r="N149" s="610" t="s">
+      <c r="N149" s="598" t="s">
         <v>83</v>
       </c>
-      <c r="O149" s="610" t="s">
+      <c r="O149" s="598" t="s">
         <v>84</v>
       </c>
-      <c r="P149" s="610" t="s">
+      <c r="P149" s="598" t="s">
         <v>85</v>
       </c>
-      <c r="Q149" s="610" t="s">
+      <c r="Q149" s="598" t="s">
         <v>86</v>
       </c>
-      <c r="R149" s="619" t="s">
+      <c r="R149" s="603" t="s">
         <v>87</v>
       </c>
-      <c r="S149" s="610" t="s">
+      <c r="S149" s="598" t="s">
         <v>88</v>
       </c>
-      <c r="T149" s="610" t="s">
+      <c r="T149" s="598" t="s">
         <v>89</v>
       </c>
-      <c r="U149" s="610" t="s">
+      <c r="U149" s="598" t="s">
         <v>90</v>
       </c>
-      <c r="V149" s="610" t="s">
+      <c r="V149" s="598" t="s">
         <v>91</v>
       </c>
-      <c r="W149" s="610" t="s">
+      <c r="W149" s="598" t="s">
         <v>92</v>
       </c>
-      <c r="X149" s="610" t="s">
+      <c r="X149" s="598" t="s">
         <v>93</v>
       </c>
       <c r="Y149" s="24"/>
@@ -54227,29 +54226,29 @@
       <c r="AN149" s="84"/>
     </row>
     <row r="150" spans="1:40" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="613"/>
-      <c r="C150" s="611"/>
-      <c r="D150" s="634"/>
-      <c r="E150" s="611"/>
-      <c r="F150" s="611"/>
-      <c r="G150" s="611"/>
-      <c r="H150" s="611"/>
-      <c r="I150" s="611"/>
-      <c r="J150" s="611"/>
-      <c r="K150" s="620"/>
-      <c r="L150" s="611"/>
-      <c r="M150" s="611"/>
-      <c r="N150" s="611"/>
-      <c r="O150" s="611"/>
-      <c r="P150" s="611"/>
-      <c r="Q150" s="611"/>
-      <c r="R150" s="620"/>
-      <c r="S150" s="611"/>
-      <c r="T150" s="611"/>
-      <c r="U150" s="611"/>
-      <c r="V150" s="611"/>
-      <c r="W150" s="611"/>
-      <c r="X150" s="611"/>
+      <c r="B150" s="597"/>
+      <c r="C150" s="599"/>
+      <c r="D150" s="601"/>
+      <c r="E150" s="599"/>
+      <c r="F150" s="599"/>
+      <c r="G150" s="599"/>
+      <c r="H150" s="599"/>
+      <c r="I150" s="599"/>
+      <c r="J150" s="599"/>
+      <c r="K150" s="602"/>
+      <c r="L150" s="599"/>
+      <c r="M150" s="599"/>
+      <c r="N150" s="599"/>
+      <c r="O150" s="599"/>
+      <c r="P150" s="599"/>
+      <c r="Q150" s="599"/>
+      <c r="R150" s="602"/>
+      <c r="S150" s="599"/>
+      <c r="T150" s="599"/>
+      <c r="U150" s="599"/>
+      <c r="V150" s="599"/>
+      <c r="W150" s="599"/>
+      <c r="X150" s="599"/>
       <c r="AA150" s="24"/>
       <c r="AB150" s="24"/>
       <c r="AC150" s="94"/>
@@ -54625,6 +54624,137 @@
     </row>
   </sheetData>
   <mergeCells count="155">
+    <mergeCell ref="C58:AO59"/>
+    <mergeCell ref="Z55:AB57"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AL65:AN65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="T66:V66"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="AC66:AE66"/>
+    <mergeCell ref="AF66:AH66"/>
+    <mergeCell ref="AI66:AK66"/>
+    <mergeCell ref="AL66:AN66"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="A64:AN64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="AF65:AH65"/>
+    <mergeCell ref="AI65:AK65"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="AI17:AK17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A15:AN15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="AI16:AK16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A101:X101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="V102:V103"/>
+    <mergeCell ref="W102:W103"/>
+    <mergeCell ref="X102:X103"/>
+    <mergeCell ref="A112:AN112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="T113:V113"/>
+    <mergeCell ref="W113:Y113"/>
+    <mergeCell ref="Z113:AB113"/>
+    <mergeCell ref="AC113:AE113"/>
+    <mergeCell ref="AL114:AN114"/>
+    <mergeCell ref="X149:X150"/>
+    <mergeCell ref="Q149:Q150"/>
+    <mergeCell ref="R149:R150"/>
+    <mergeCell ref="S149:S150"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="AF113:AH113"/>
+    <mergeCell ref="AI113:AK113"/>
+    <mergeCell ref="AL113:AN113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="Q114:S114"/>
+    <mergeCell ref="T114:V114"/>
+    <mergeCell ref="W114:Y114"/>
+    <mergeCell ref="Z114:AB114"/>
+    <mergeCell ref="AC114:AE114"/>
+    <mergeCell ref="AF114:AH114"/>
+    <mergeCell ref="AI114:AK114"/>
     <mergeCell ref="Z104:AB106"/>
     <mergeCell ref="C107:AO108"/>
     <mergeCell ref="F6:I7"/>
@@ -54649,137 +54779,6 @@
     <mergeCell ref="U149:U150"/>
     <mergeCell ref="V149:V150"/>
     <mergeCell ref="W149:W150"/>
-    <mergeCell ref="X149:X150"/>
-    <mergeCell ref="Q149:Q150"/>
-    <mergeCell ref="R149:R150"/>
-    <mergeCell ref="S149:S150"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="AF113:AH113"/>
-    <mergeCell ref="AI113:AK113"/>
-    <mergeCell ref="AL113:AN113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="Q114:S114"/>
-    <mergeCell ref="T114:V114"/>
-    <mergeCell ref="W114:Y114"/>
-    <mergeCell ref="Z114:AB114"/>
-    <mergeCell ref="AC114:AE114"/>
-    <mergeCell ref="AF114:AH114"/>
-    <mergeCell ref="AI114:AK114"/>
-    <mergeCell ref="A112:AN112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="N113:P113"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="T113:V113"/>
-    <mergeCell ref="W113:Y113"/>
-    <mergeCell ref="Z113:AB113"/>
-    <mergeCell ref="AC113:AE113"/>
-    <mergeCell ref="AL114:AN114"/>
-    <mergeCell ref="A101:X101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="V102:V103"/>
-    <mergeCell ref="W102:W103"/>
-    <mergeCell ref="X102:X103"/>
-    <mergeCell ref="AI17:AK17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A15:AN15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="AI16:AK16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="AF65:AH65"/>
-    <mergeCell ref="AI65:AK65"/>
-    <mergeCell ref="C58:AO59"/>
-    <mergeCell ref="Z55:AB57"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="AL65:AN65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="T66:V66"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="AC66:AE66"/>
-    <mergeCell ref="AF66:AH66"/>
-    <mergeCell ref="AI66:AK66"/>
-    <mergeCell ref="AL66:AN66"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="A64:AN64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -54788,7 +54787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -54838,11 +54837,11 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="616" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="597"/>
-      <c r="D7" s="599"/>
+      <c r="C7" s="617"/>
+      <c r="D7" s="619"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="166">
@@ -54986,7 +54985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -55034,16 +55033,16 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="596" t="s">
+      <c r="C3" s="616" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="597"/>
-      <c r="E3" s="599"/>
-      <c r="G3" s="596" t="s">
+      <c r="D3" s="617"/>
+      <c r="E3" s="619"/>
+      <c r="G3" s="616" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="597"/>
-      <c r="I3" s="599"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="619"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="202">
@@ -57141,10 +57140,10 @@
     <mergeCell ref="B17:K17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B16" r:id="rId3"/>
-    <hyperlink ref="B17" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -57153,7 +57152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -58004,8 +58003,8 @@
     <mergeCell ref="B15:K15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" location="/addService"/>
-    <hyperlink ref="B15" r:id="rId2" location="commercial?billing=yearly"/>
+    <hyperlink ref="B14" r:id="rId1" location="/addService" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" location="commercial?billing=yearly" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -58014,7 +58013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AF189"/>
   <sheetViews>
     <sheetView topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -58430,19 +58429,19 @@
     </row>
     <row r="11" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="596" t="s">
+      <c r="B11" s="616" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="597"/>
-      <c r="D11" s="597"/>
-      <c r="E11" s="597"/>
-      <c r="F11" s="597"/>
-      <c r="G11" s="597"/>
-      <c r="H11" s="597"/>
-      <c r="I11" s="597"/>
-      <c r="J11" s="597"/>
-      <c r="K11" s="597"/>
-      <c r="L11" s="599"/>
+      <c r="C11" s="617"/>
+      <c r="D11" s="617"/>
+      <c r="E11" s="617"/>
+      <c r="F11" s="617"/>
+      <c r="G11" s="617"/>
+      <c r="H11" s="617"/>
+      <c r="I11" s="617"/>
+      <c r="J11" s="617"/>
+      <c r="K11" s="617"/>
+      <c r="L11" s="619"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -58466,13 +58465,13 @@
     </row>
     <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="672" t="s">
+      <c r="B12" s="667" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="674" t="s">
+      <c r="C12" s="669" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="676" t="s">
+      <c r="D12" s="671" t="s">
         <v>123</v>
       </c>
       <c r="E12" s="269" t="s">
@@ -58493,10 +58492,10 @@
       <c r="J12" s="272" t="s">
         <v>129</v>
       </c>
-      <c r="K12" s="678" t="s">
+      <c r="K12" s="673" t="s">
         <v>130</v>
       </c>
-      <c r="L12" s="678" t="s">
+      <c r="L12" s="673" t="s">
         <v>131</v>
       </c>
       <c r="M12" s="1"/>
@@ -58522,9 +58521,9 @@
     </row>
     <row r="13" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="673"/>
-      <c r="C13" s="675"/>
-      <c r="D13" s="677"/>
+      <c r="B13" s="668"/>
+      <c r="C13" s="670"/>
+      <c r="D13" s="672"/>
       <c r="E13" s="273">
         <v>0.1047</v>
       </c>
@@ -58543,8 +58542,8 @@
       <c r="J13" s="276">
         <v>0.03</v>
       </c>
-      <c r="K13" s="679"/>
-      <c r="L13" s="679"/>
+      <c r="K13" s="674"/>
+      <c r="L13" s="674"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -58631,7 +58630,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="680" t="s">
+      <c r="B15" s="675" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="296" t="s">
@@ -58694,7 +58693,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="681"/>
+      <c r="B16" s="676"/>
       <c r="C16" s="298" t="s">
         <v>73</v>
       </c>
@@ -58755,7 +58754,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="681"/>
+      <c r="B17" s="676"/>
       <c r="C17" s="298" t="s">
         <v>74</v>
       </c>
@@ -58816,7 +58815,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="681"/>
+      <c r="B18" s="676"/>
       <c r="C18" s="298" t="s">
         <v>75</v>
       </c>
@@ -58877,7 +58876,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="682"/>
+      <c r="B19" s="677"/>
       <c r="C19" s="299" t="s">
         <v>76</v>
       </c>
@@ -58938,7 +58937,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="682"/>
+      <c r="B20" s="677"/>
       <c r="C20" s="298" t="s">
         <v>145</v>
       </c>
@@ -58999,7 +58998,7 @@
     </row>
     <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="683"/>
+      <c r="B21" s="678"/>
       <c r="C21" s="300" t="s">
         <v>78</v>
       </c>
@@ -59060,7 +59059,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="684" t="s">
+      <c r="B22" s="679" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="292" t="s">
@@ -59123,7 +59122,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="685"/>
+      <c r="B23" s="680"/>
       <c r="C23" s="293" t="s">
         <v>82</v>
       </c>
@@ -59184,7 +59183,7 @@
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="686"/>
+      <c r="B24" s="681"/>
       <c r="C24" s="294" t="s">
         <v>146</v>
       </c>
@@ -59245,7 +59244,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="687" t="s">
+      <c r="B25" s="682" t="s">
         <v>135</v>
       </c>
       <c r="C25" s="292" t="s">
@@ -59308,7 +59307,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="688"/>
+      <c r="B26" s="683"/>
       <c r="C26" s="266" t="s">
         <v>85</v>
       </c>
@@ -59369,7 +59368,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="689"/>
+      <c r="B27" s="684"/>
       <c r="C27" s="266" t="s">
         <v>86</v>
       </c>
@@ -59430,7 +59429,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="689"/>
+      <c r="B28" s="684"/>
       <c r="C28" s="293" t="s">
         <v>87</v>
       </c>
@@ -59491,7 +59490,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="689"/>
+      <c r="B29" s="684"/>
       <c r="C29" s="293" t="s">
         <v>88</v>
       </c>
@@ -59552,7 +59551,7 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="686"/>
+      <c r="B30" s="681"/>
       <c r="C30" s="294" t="s">
         <v>89</v>
       </c>
@@ -59613,7 +59612,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="687" t="s">
+      <c r="B31" s="682" t="s">
         <v>148</v>
       </c>
       <c r="C31" s="292" t="s">
@@ -59676,7 +59675,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="688"/>
+      <c r="B32" s="683"/>
       <c r="C32" s="266" t="s">
         <v>91</v>
       </c>
@@ -59737,7 +59736,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="689"/>
+      <c r="B33" s="684"/>
       <c r="C33" s="293" t="s">
         <v>149</v>
       </c>
@@ -59798,7 +59797,7 @@
     </row>
     <row r="34" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="686"/>
+      <c r="B34" s="681"/>
       <c r="C34" s="294" t="s">
         <v>93</v>
       </c>
@@ -59859,7 +59858,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="680" t="s">
+      <c r="B35" s="675" t="s">
         <v>150</v>
       </c>
       <c r="C35" s="313" t="s">
@@ -59922,7 +59921,7 @@
     </row>
     <row r="36" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="683"/>
+      <c r="B36" s="678"/>
       <c r="C36" s="297" t="s">
         <v>80</v>
       </c>
@@ -60085,34 +60084,34 @@
     </row>
     <row r="40" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
-      <c r="B40" s="667" t="s">
+      <c r="B40" s="664" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="668"/>
-      <c r="D40" s="668"/>
-      <c r="E40" s="668"/>
-      <c r="F40" s="668"/>
-      <c r="G40" s="668"/>
-      <c r="H40" s="668"/>
-      <c r="I40" s="668"/>
-      <c r="J40" s="668"/>
-      <c r="K40" s="668"/>
-      <c r="L40" s="668"/>
-      <c r="M40" s="668"/>
-      <c r="N40" s="668"/>
-      <c r="O40" s="668"/>
-      <c r="P40" s="668"/>
-      <c r="Q40" s="668"/>
-      <c r="R40" s="668"/>
-      <c r="S40" s="668"/>
-      <c r="T40" s="668"/>
-      <c r="U40" s="668"/>
-      <c r="V40" s="668"/>
-      <c r="W40" s="668"/>
-      <c r="X40" s="668"/>
-      <c r="Y40" s="668"/>
-      <c r="Z40" s="668"/>
-      <c r="AA40" s="669"/>
+      <c r="C40" s="665"/>
+      <c r="D40" s="665"/>
+      <c r="E40" s="665"/>
+      <c r="F40" s="665"/>
+      <c r="G40" s="665"/>
+      <c r="H40" s="665"/>
+      <c r="I40" s="665"/>
+      <c r="J40" s="665"/>
+      <c r="K40" s="665"/>
+      <c r="L40" s="665"/>
+      <c r="M40" s="665"/>
+      <c r="N40" s="665"/>
+      <c r="O40" s="665"/>
+      <c r="P40" s="665"/>
+      <c r="Q40" s="665"/>
+      <c r="R40" s="665"/>
+      <c r="S40" s="665"/>
+      <c r="T40" s="665"/>
+      <c r="U40" s="665"/>
+      <c r="V40" s="665"/>
+      <c r="W40" s="665"/>
+      <c r="X40" s="665"/>
+      <c r="Y40" s="665"/>
+      <c r="Z40" s="665"/>
+      <c r="AA40" s="666"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
@@ -60121,58 +60120,58 @@
     </row>
     <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="670" t="s">
+      <c r="B41" s="686" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="664" t="s">
+      <c r="C41" s="685" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="664"/>
-      <c r="E41" s="664" t="s">
+      <c r="D41" s="685"/>
+      <c r="E41" s="685" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="664"/>
-      <c r="G41" s="664" t="s">
+      <c r="F41" s="685"/>
+      <c r="G41" s="685" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="664"/>
-      <c r="I41" s="664" t="s">
+      <c r="H41" s="685"/>
+      <c r="I41" s="685" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="664"/>
-      <c r="K41" s="664" t="s">
+      <c r="J41" s="685"/>
+      <c r="K41" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="664"/>
-      <c r="M41" s="664" t="s">
+      <c r="L41" s="685"/>
+      <c r="M41" s="685" t="s">
         <v>136</v>
       </c>
-      <c r="N41" s="664"/>
-      <c r="O41" s="664" t="s">
+      <c r="N41" s="685"/>
+      <c r="O41" s="685" t="s">
         <v>24</v>
       </c>
-      <c r="P41" s="664"/>
-      <c r="Q41" s="664" t="s">
+      <c r="P41" s="685"/>
+      <c r="Q41" s="685" t="s">
         <v>25</v>
       </c>
-      <c r="R41" s="664"/>
-      <c r="S41" s="664" t="s">
+      <c r="R41" s="685"/>
+      <c r="S41" s="685" t="s">
         <v>26</v>
       </c>
-      <c r="T41" s="664"/>
-      <c r="U41" s="664" t="s">
+      <c r="T41" s="685"/>
+      <c r="U41" s="685" t="s">
         <v>27</v>
       </c>
-      <c r="V41" s="664"/>
-      <c r="W41" s="664" t="s">
+      <c r="V41" s="685"/>
+      <c r="W41" s="685" t="s">
         <v>28</v>
       </c>
-      <c r="X41" s="664"/>
-      <c r="Y41" s="664" t="s">
+      <c r="X41" s="685"/>
+      <c r="Y41" s="685" t="s">
         <v>137</v>
       </c>
-      <c r="Z41" s="664"/>
-      <c r="AA41" s="665" t="s">
+      <c r="Z41" s="685"/>
+      <c r="AA41" s="688" t="s">
         <v>138</v>
       </c>
       <c r="AB41" s="1"/>
@@ -60183,7 +60182,7 @@
     </row>
     <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="671"/>
+      <c r="B42" s="687"/>
       <c r="C42" s="281" t="s">
         <v>37</v>
       </c>
@@ -60256,7 +60255,7 @@
       <c r="Z42" s="281" t="s">
         <v>139</v>
       </c>
-      <c r="AA42" s="666"/>
+      <c r="AA42" s="689"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -60973,34 +60972,34 @@
     </row>
     <row r="52" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
-      <c r="B52" s="667" t="s">
+      <c r="B52" s="664" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="668"/>
-      <c r="D52" s="668"/>
-      <c r="E52" s="668"/>
-      <c r="F52" s="668"/>
-      <c r="G52" s="668"/>
-      <c r="H52" s="668"/>
-      <c r="I52" s="668"/>
-      <c r="J52" s="668"/>
-      <c r="K52" s="668"/>
-      <c r="L52" s="668"/>
-      <c r="M52" s="668"/>
-      <c r="N52" s="668"/>
-      <c r="O52" s="668"/>
-      <c r="P52" s="668"/>
-      <c r="Q52" s="668"/>
-      <c r="R52" s="668"/>
-      <c r="S52" s="668"/>
-      <c r="T52" s="668"/>
-      <c r="U52" s="668"/>
-      <c r="V52" s="668"/>
-      <c r="W52" s="668"/>
-      <c r="X52" s="668"/>
-      <c r="Y52" s="668"/>
-      <c r="Z52" s="668"/>
-      <c r="AA52" s="669"/>
+      <c r="C52" s="665"/>
+      <c r="D52" s="665"/>
+      <c r="E52" s="665"/>
+      <c r="F52" s="665"/>
+      <c r="G52" s="665"/>
+      <c r="H52" s="665"/>
+      <c r="I52" s="665"/>
+      <c r="J52" s="665"/>
+      <c r="K52" s="665"/>
+      <c r="L52" s="665"/>
+      <c r="M52" s="665"/>
+      <c r="N52" s="665"/>
+      <c r="O52" s="665"/>
+      <c r="P52" s="665"/>
+      <c r="Q52" s="665"/>
+      <c r="R52" s="665"/>
+      <c r="S52" s="665"/>
+      <c r="T52" s="665"/>
+      <c r="U52" s="665"/>
+      <c r="V52" s="665"/>
+      <c r="W52" s="665"/>
+      <c r="X52" s="665"/>
+      <c r="Y52" s="665"/>
+      <c r="Z52" s="665"/>
+      <c r="AA52" s="666"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
@@ -61009,58 +61008,58 @@
     </row>
     <row r="53" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="670" t="s">
+      <c r="B53" s="686" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="664" t="s">
+      <c r="C53" s="685" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="664"/>
-      <c r="E53" s="664" t="s">
+      <c r="D53" s="685"/>
+      <c r="E53" s="685" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="664"/>
-      <c r="G53" s="664" t="s">
+      <c r="F53" s="685"/>
+      <c r="G53" s="685" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="664"/>
-      <c r="I53" s="664" t="s">
+      <c r="H53" s="685"/>
+      <c r="I53" s="685" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="664"/>
-      <c r="K53" s="664" t="s">
+      <c r="J53" s="685"/>
+      <c r="K53" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="664"/>
-      <c r="M53" s="664" t="s">
+      <c r="L53" s="685"/>
+      <c r="M53" s="685" t="s">
         <v>136</v>
       </c>
-      <c r="N53" s="664"/>
-      <c r="O53" s="664" t="s">
+      <c r="N53" s="685"/>
+      <c r="O53" s="685" t="s">
         <v>24</v>
       </c>
-      <c r="P53" s="664"/>
-      <c r="Q53" s="664" t="s">
+      <c r="P53" s="685"/>
+      <c r="Q53" s="685" t="s">
         <v>25</v>
       </c>
-      <c r="R53" s="664"/>
-      <c r="S53" s="664" t="s">
+      <c r="R53" s="685"/>
+      <c r="S53" s="685" t="s">
         <v>26</v>
       </c>
-      <c r="T53" s="664"/>
-      <c r="U53" s="664" t="s">
+      <c r="T53" s="685"/>
+      <c r="U53" s="685" t="s">
         <v>27</v>
       </c>
-      <c r="V53" s="664"/>
-      <c r="W53" s="664" t="s">
+      <c r="V53" s="685"/>
+      <c r="W53" s="685" t="s">
         <v>28</v>
       </c>
-      <c r="X53" s="664"/>
-      <c r="Y53" s="664" t="s">
+      <c r="X53" s="685"/>
+      <c r="Y53" s="685" t="s">
         <v>137</v>
       </c>
-      <c r="Z53" s="664"/>
-      <c r="AA53" s="665" t="s">
+      <c r="Z53" s="685"/>
+      <c r="AA53" s="688" t="s">
         <v>138</v>
       </c>
       <c r="AB53" s="1"/>
@@ -61071,7 +61070,7 @@
     </row>
     <row r="54" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="671"/>
+      <c r="B54" s="687"/>
       <c r="C54" s="281" t="s">
         <v>37</v>
       </c>
@@ -61144,7 +61143,7 @@
       <c r="Z54" s="281" t="s">
         <v>139</v>
       </c>
-      <c r="AA54" s="666"/>
+      <c r="AA54" s="689"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
@@ -62025,34 +62024,34 @@
     </row>
     <row r="65" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
-      <c r="B65" s="667" t="s">
+      <c r="B65" s="664" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="668"/>
-      <c r="D65" s="668"/>
-      <c r="E65" s="668"/>
-      <c r="F65" s="668"/>
-      <c r="G65" s="668"/>
-      <c r="H65" s="668"/>
-      <c r="I65" s="668"/>
-      <c r="J65" s="668"/>
-      <c r="K65" s="668"/>
-      <c r="L65" s="668"/>
-      <c r="M65" s="668"/>
-      <c r="N65" s="668"/>
-      <c r="O65" s="668"/>
-      <c r="P65" s="668"/>
-      <c r="Q65" s="668"/>
-      <c r="R65" s="668"/>
-      <c r="S65" s="668"/>
-      <c r="T65" s="668"/>
-      <c r="U65" s="668"/>
-      <c r="V65" s="668"/>
-      <c r="W65" s="668"/>
-      <c r="X65" s="668"/>
-      <c r="Y65" s="668"/>
-      <c r="Z65" s="668"/>
-      <c r="AA65" s="669"/>
+      <c r="C65" s="665"/>
+      <c r="D65" s="665"/>
+      <c r="E65" s="665"/>
+      <c r="F65" s="665"/>
+      <c r="G65" s="665"/>
+      <c r="H65" s="665"/>
+      <c r="I65" s="665"/>
+      <c r="J65" s="665"/>
+      <c r="K65" s="665"/>
+      <c r="L65" s="665"/>
+      <c r="M65" s="665"/>
+      <c r="N65" s="665"/>
+      <c r="O65" s="665"/>
+      <c r="P65" s="665"/>
+      <c r="Q65" s="665"/>
+      <c r="R65" s="665"/>
+      <c r="S65" s="665"/>
+      <c r="T65" s="665"/>
+      <c r="U65" s="665"/>
+      <c r="V65" s="665"/>
+      <c r="W65" s="665"/>
+      <c r="X65" s="665"/>
+      <c r="Y65" s="665"/>
+      <c r="Z65" s="665"/>
+      <c r="AA65" s="666"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
@@ -62061,58 +62060,58 @@
     </row>
     <row r="66" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="670" t="s">
+      <c r="B66" s="686" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="664" t="s">
+      <c r="C66" s="685" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="664"/>
-      <c r="E66" s="664" t="s">
+      <c r="D66" s="685"/>
+      <c r="E66" s="685" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="664"/>
-      <c r="G66" s="664" t="s">
+      <c r="F66" s="685"/>
+      <c r="G66" s="685" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="664"/>
-      <c r="I66" s="664" t="s">
+      <c r="H66" s="685"/>
+      <c r="I66" s="685" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="664"/>
-      <c r="K66" s="664" t="s">
+      <c r="J66" s="685"/>
+      <c r="K66" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="L66" s="664"/>
-      <c r="M66" s="664" t="s">
+      <c r="L66" s="685"/>
+      <c r="M66" s="685" t="s">
         <v>136</v>
       </c>
-      <c r="N66" s="664"/>
-      <c r="O66" s="664" t="s">
+      <c r="N66" s="685"/>
+      <c r="O66" s="685" t="s">
         <v>24</v>
       </c>
-      <c r="P66" s="664"/>
-      <c r="Q66" s="664" t="s">
+      <c r="P66" s="685"/>
+      <c r="Q66" s="685" t="s">
         <v>25</v>
       </c>
-      <c r="R66" s="664"/>
-      <c r="S66" s="664" t="s">
+      <c r="R66" s="685"/>
+      <c r="S66" s="685" t="s">
         <v>26</v>
       </c>
-      <c r="T66" s="664"/>
-      <c r="U66" s="664" t="s">
+      <c r="T66" s="685"/>
+      <c r="U66" s="685" t="s">
         <v>27</v>
       </c>
-      <c r="V66" s="664"/>
-      <c r="W66" s="664" t="s">
+      <c r="V66" s="685"/>
+      <c r="W66" s="685" t="s">
         <v>28</v>
       </c>
-      <c r="X66" s="664"/>
-      <c r="Y66" s="664" t="s">
+      <c r="X66" s="685"/>
+      <c r="Y66" s="685" t="s">
         <v>137</v>
       </c>
-      <c r="Z66" s="664"/>
-      <c r="AA66" s="665" t="s">
+      <c r="Z66" s="685"/>
+      <c r="AA66" s="688" t="s">
         <v>138</v>
       </c>
       <c r="AB66" s="1"/>
@@ -62123,7 +62122,7 @@
     </row>
     <row r="67" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="671"/>
+      <c r="B67" s="687"/>
       <c r="C67" s="281" t="s">
         <v>37</v>
       </c>
@@ -62196,7 +62195,7 @@
       <c r="Z67" s="281" t="s">
         <v>139</v>
       </c>
-      <c r="AA67" s="666"/>
+      <c r="AA67" s="689"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
@@ -67535,27 +67534,27 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B40:AA40"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="W66:X66"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="AA66:AA67"/>
+    <mergeCell ref="AA53:AA54"/>
+    <mergeCell ref="B65:AA65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="W53:X53"/>
     <mergeCell ref="Y53:Z53"/>
     <mergeCell ref="Y41:Z41"/>
     <mergeCell ref="AA41:AA42"/>
@@ -67572,27 +67571,27 @@
     <mergeCell ref="Q41:R41"/>
     <mergeCell ref="S41:T41"/>
     <mergeCell ref="U41:V41"/>
-    <mergeCell ref="AA66:AA67"/>
-    <mergeCell ref="AA53:AA54"/>
-    <mergeCell ref="B65:AA65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="W66:X66"/>
-    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="B40:AA40"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -67601,7 +67600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
+++ b/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\UAI\TFI\CareMonitor\CareMonitor\SAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\GitHub\CareMonitor-NicolasRubino\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F707293F-B508-46C8-9175-60C0E49763A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
   <externalReferences>
     <externalReference r:id="rId18"/>
   </externalReferences>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1098,25 +1097,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="17">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="General_)"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="170" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
-    <numFmt numFmtId="172" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="[$$-2C0A]\ #,##0.00"/>
-    <numFmt numFmtId="174" formatCode="[$$-2C0A]\ #,##0"/>
-    <numFmt numFmtId="175" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="176" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="171" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="[$$-2C0A]\ #,##0.00"/>
+    <numFmt numFmtId="173" formatCode="[$$-2C0A]\ #,##0"/>
+    <numFmt numFmtId="174" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="175" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
@@ -2957,16 +2956,16 @@
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2977,13 +2976,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="16" borderId="110" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="764">
@@ -3009,29 +3008,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3041,7 +3040,7 @@
     <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3053,29 +3052,29 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="11" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="11" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3087,7 +3086,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3106,13 +3105,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3121,7 +3120,7 @@
     <xf numFmtId="9" fontId="8" fillId="2" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3142,13 +3141,13 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="76" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="76" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="9" borderId="78" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="78" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3172,10 +3171,10 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3187,8 +3186,8 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3198,26 +3197,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="5" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="3" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3245,7 +3244,7 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3254,96 +3253,96 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="25" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="90" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="90" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="5" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="5" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="6" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="6" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3352,13 +3351,13 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="46" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="46" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="46" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3367,8 +3366,8 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3376,16 +3375,16 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="6" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="6" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3394,37 +3393,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="11" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="11" fillId="4" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3433,7 +3432,7 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3442,19 +3441,19 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="5" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="5" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="5" borderId="56" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="5" borderId="56" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3479,13 +3478,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -3507,16 +3506,16 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3526,26 +3525,26 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3558,13 +3557,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="11" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="26" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="26" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3576,13 +3575,13 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="92" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="92" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3609,19 +3608,19 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3630,63 +3629,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="99" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="99" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="93" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="93" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="100" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="100" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="45" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="48" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="49" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="49" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="50" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3714,10 +3713,10 @@
     <xf numFmtId="9" fontId="11" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3727,61 +3726,61 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="52" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="98" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="98" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="97" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="97" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="54" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="54" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="55" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="55" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="91" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="91" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3789,42 +3788,42 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3833,13 +3832,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -3849,16 +3848,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3867,10 +3866,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3906,40 +3905,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3964,14 +3963,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3983,21 +3982,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4009,58 +4008,58 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="10" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="10" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4076,37 +4075,37 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="105" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="105" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4124,10 +4123,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4230,19 +4229,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4264,10 +4263,10 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4276,7 +4275,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4285,49 +4284,49 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="100" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="100" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4335,65 +4334,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="18" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="18" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="18" borderId="111" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="18" borderId="111" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4488,13 +4436,181 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4524,131 +4640,14 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4737,6 +4736,15 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4745,6 +4753,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4800,33 +4814,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4841,6 +4828,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4917,6 +4916,27 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4980,27 +5000,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5040,32 +5039,32 @@
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Celda de comprobación" xfId="26" builtinId="23"/>
-    <cellStyle name="Euro" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Euro" xfId="11"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Hipervínculo 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Hipervínculo 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Hipervínculo 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Hipervínculo 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Hipervínculo 2" xfId="14"/>
+    <cellStyle name="Hipervínculo 3" xfId="17"/>
+    <cellStyle name="Hipervínculo 4" xfId="16"/>
+    <cellStyle name="Hipervínculo 5" xfId="20"/>
+    <cellStyle name="Hyperlink 2" xfId="12"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Moneda" xfId="6" builtinId="4"/>
-    <cellStyle name="Moneda 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Moneda 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Moneda 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Moneda 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Moneda 4" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Moneda 5" xfId="8" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Moneda 2" xfId="10"/>
+    <cellStyle name="Moneda 2 2" xfId="23"/>
+    <cellStyle name="Moneda 3" xfId="19"/>
+    <cellStyle name="Moneda 3 2" xfId="25"/>
+    <cellStyle name="Moneda 4" xfId="22"/>
+    <cellStyle name="Moneda 5" xfId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normal 2 14" xfId="4" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 2 15" xfId="5" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Normal 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Normal 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 2" xfId="13"/>
+    <cellStyle name="Normal 2 14" xfId="4"/>
+    <cellStyle name="Normal 2 15" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="18"/>
+    <cellStyle name="Normal 4" xfId="9"/>
+    <cellStyle name="Normal 5" xfId="21"/>
+    <cellStyle name="Normal 6" xfId="7"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Porcentaje 3" xfId="24" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Porcentaje 2" xfId="15"/>
+    <cellStyle name="Porcentaje 3" xfId="24"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -5092,7 +5091,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -5153,6 +5152,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5178,7 +5178,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5484,7 +5484,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="91798656"/>
@@ -5529,7 +5529,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="25175760"/>
@@ -5546,6 +5546,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5571,7 +5572,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5601,7 +5602,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5660,7 +5661,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5678,7 +5679,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Ingresos 2022 </c:v>
+                  <c:v>Ingresos 2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6022,6 +6023,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -6045,7 +6047,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -6056,7 +6058,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -6093,7 +6097,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6106,7 +6110,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -6114,6 +6120,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -6137,7 +6144,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -6148,7 +6155,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -6185,7 +6194,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6235,7 +6244,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6277,7 +6286,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6300,13 +6309,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6357,6 +6366,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6364,7 +6374,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6388,7 +6397,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6439,6 +6448,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6464,7 +6474,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6501,18 +6511,18 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]Mod. egresos'!$B$9:$D$9</c:f>
+              <c:f>('Mod. egresos'!$B$9,'Mod. egresos'!$C$9,'Mod. egresos'!$D$9)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2021</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6567,18 +6577,18 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]Mod. egresos'!$B$9:$D$9</c:f>
+              <c:f>('Mod. egresos'!$B$9,'Mod. egresos'!$C$9,'Mod. egresos'!$D$9)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2021</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6633,18 +6643,18 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]Mod. egresos'!$B$9:$D$9</c:f>
+              <c:f>('Mod. egresos'!$B$9,'Mod. egresos'!$C$9,'Mod. egresos'!$D$9)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2021</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6830,7 +6840,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177979744"/>
@@ -6889,7 +6899,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1022353200"/>
@@ -6906,6 +6916,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8586461564023563E-2"/>
+          <c:y val="0.90345170163307698"/>
+          <c:w val="0.88282707687195283"/>
+          <c:h val="7.8048130299451443E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6931,7 +6951,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6961,7 +6981,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7012,6 +7032,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7037,7 +7058,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7075,18 +7096,18 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]Mod. egresos'!$B$9:$D$9</c:f>
+              <c:f>('Mod. egresos'!$B$9,'Mod. egresos'!$C$9,'Mod. egresos'!$D$9)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2021</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7144,18 +7165,18 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]Mod. egresos'!$B$9:$D$9</c:f>
+              <c:f>('Mod. egresos'!$B$9,'Mod. egresos'!$C$9,'Mod. egresos'!$D$9)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2021</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7238,7 +7259,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1173350528"/>
@@ -7311,7 +7332,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1025409232"/>
@@ -7328,6 +7349,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7353,7 +7375,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7383,7 +7405,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7434,6 +7456,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7459,7 +7482,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8422,7 +8445,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -8481,7 +8504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -8498,6 +8521,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8523,7 +8547,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8553,7 +8577,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8609,6 +8633,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8634,7 +8659,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8663,7 +8688,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8716,7 +8741,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8729,6 +8754,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8807,7 +8833,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8869,7 +8895,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8882,6 +8908,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8960,7 +8987,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9013,7 +9040,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9026,6 +9053,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9149,7 +9177,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -9184,6 +9212,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -9214,12 +9243,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9227,7 +9257,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -9267,7 +9296,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9318,6 +9347,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9343,7 +9373,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10306,7 +10336,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -10365,7 +10395,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -10382,6 +10412,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10407,7 +10438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10437,7 +10468,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10526,7 +10557,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10555,7 +10586,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10608,7 +10639,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10621,6 +10652,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10699,7 +10731,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10761,7 +10793,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10774,6 +10806,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10852,7 +10885,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10905,7 +10938,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10918,6 +10951,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11041,7 +11075,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -11076,6 +11110,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -11106,12 +11141,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11119,7 +11155,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -11159,7 +11194,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11210,6 +11245,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11235,7 +11271,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12198,7 +12234,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -12257,7 +12293,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -12274,6 +12310,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12299,7 +12336,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12329,7 +12366,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12418,7 +12455,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12447,7 +12484,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12500,7 +12537,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12513,6 +12550,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12591,7 +12629,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12653,7 +12691,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12666,6 +12704,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12744,7 +12783,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12797,7 +12836,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12810,6 +12849,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12933,7 +12973,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -12968,6 +13008,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -12998,12 +13039,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -13011,7 +13053,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -13051,7 +13092,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13110,7 +13151,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13128,7 +13169,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Ingresos 2020 </c:v>
+                  <c:v>Ingresos 2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13240,7 +13281,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13289,7 +13330,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -13300,7 +13341,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-61DD-4CD8-B158-0B704BE81697}"/>
                 </c:ext>
@@ -13331,7 +13374,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13370,7 +13413,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -13391,13 +13434,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13448,6 +13491,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -13455,7 +13499,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13479,7 +13522,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13538,7 +13581,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13556,7 +13599,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Ingresos 2021 </c:v>
+                  <c:v>Ingresos 2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13900,6 +13943,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -13923,7 +13967,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13934,7 +13978,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -13942,6 +13988,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -13965,7 +14012,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13976,7 +14023,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -13984,6 +14033,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -14007,7 +14057,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14018,7 +14068,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -14049,7 +14101,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14091,7 +14143,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14131,7 +14183,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -14154,13 +14206,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v> InitialCare </c:v>
+                  <c:v>InitialCare</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> MediumCare </c:v>
+                  <c:v>MediumCare</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> FullCare </c:v>
+                  <c:v>FullCare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14211,6 +14263,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -14218,7 +14271,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14242,7 +14294,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22910,13 +22962,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
+      <xdr:colOff>157163</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>15647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>604838</xdr:colOff>
+      <xdr:colOff>642938</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>91847</xdr:rowOff>
     </xdr:to>
@@ -23321,7 +23373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="C9:C36"/>
   <sheetViews>
@@ -23373,7 +23425,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" display="mailto:cristiangentile1@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C36" r:id="rId1" display="mailto:cristiangentile1@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23382,10 +23434,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23463,12 +23517,12 @@
       <c r="C3" s="654"/>
       <c r="D3" s="655"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="694" t="s">
+      <c r="F3" s="690" t="s">
         <v>160</v>
       </c>
-      <c r="G3" s="695"/>
-      <c r="H3" s="695"/>
-      <c r="I3" s="696"/>
+      <c r="G3" s="691"/>
+      <c r="H3" s="691"/>
+      <c r="I3" s="692"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -23673,12 +23727,12 @@
     </row>
     <row r="9" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="697" t="s">
+      <c r="B9" s="693" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="698"/>
-      <c r="D9" s="698"/>
-      <c r="E9" s="698"/>
+      <c r="C9" s="694"/>
+      <c r="D9" s="694"/>
+      <c r="E9" s="694"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -24122,11 +24176,11 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="690" t="s">
+      <c r="B21" s="695" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="691"/>
-      <c r="D21" s="692"/>
+      <c r="C21" s="696"/>
+      <c r="D21" s="697"/>
       <c r="E21" s="332">
         <f>SUM(E11:E20)</f>
         <v>1274116</v>
@@ -24373,8 +24427,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="629"/>
-      <c r="G28" s="629"/>
+      <c r="F28" s="609"/>
+      <c r="G28" s="609"/>
       <c r="H28" s="375"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -24410,8 +24464,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="693"/>
-      <c r="G29" s="693"/>
+      <c r="F29" s="698"/>
+      <c r="G29" s="698"/>
       <c r="H29" s="376"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -24447,8 +24501,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="629"/>
-      <c r="G30" s="629"/>
+      <c r="F30" s="609"/>
+      <c r="G30" s="609"/>
       <c r="H30" s="375"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -24484,8 +24538,8 @@
         <f t="shared" si="1"/>
         <v>23900</v>
       </c>
-      <c r="F31" s="693"/>
-      <c r="G31" s="693"/>
+      <c r="F31" s="698"/>
+      <c r="G31" s="698"/>
       <c r="H31" s="376"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -24521,8 +24575,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="693"/>
-      <c r="G32" s="693"/>
+      <c r="F32" s="698"/>
+      <c r="G32" s="698"/>
       <c r="H32" s="376"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -24558,8 +24612,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="693"/>
-      <c r="G33" s="693"/>
+      <c r="F33" s="698"/>
+      <c r="G33" s="698"/>
       <c r="H33" s="376"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -24582,11 +24636,11 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="690" t="s">
+      <c r="B34" s="695" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="691"/>
-      <c r="D34" s="692"/>
+      <c r="C34" s="696"/>
+      <c r="D34" s="697"/>
       <c r="E34" s="332">
         <f>SUM(E25:E33)</f>
         <v>39198</v>
@@ -25042,11 +25096,11 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="690" t="s">
+      <c r="B47" s="695" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="691"/>
-      <c r="D47" s="692"/>
+      <c r="C47" s="696"/>
+      <c r="D47" s="697"/>
       <c r="E47" s="332">
         <f>SUM(E38:E46)</f>
         <v>247816</v>
@@ -25502,11 +25556,11 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="690" t="s">
+      <c r="B60" s="695" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="691"/>
-      <c r="D60" s="692"/>
+      <c r="C60" s="696"/>
+      <c r="D60" s="697"/>
       <c r="E60" s="334">
         <f>SUM(E51:E59)</f>
         <v>1245379</v>
@@ -25759,12 +25813,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:E23"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B60:D60"/>
@@ -25775,16 +25823,22 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B47:D47"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" location="searchVariation=62371957696&amp;position=1&amp;type=item&amp;tracking_id=c1baf121-2aa6-4883-89e1-db40e4fe7d07" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="F12" r:id="rId2" location="position=3&amp;type=item&amp;tracking_id=7d967ea6-7b08-4e10-9ee9-7a21d479e90e" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="F13" r:id="rId3" location="searchVariation=MLA15188002&amp;position=2&amp;type=product&amp;tracking_id=25817417-8ebf-4e85-99ba-e1068ce3b665" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="F17" r:id="rId4" location="position=27&amp;type=item&amp;tracking_id=be18e719-23de-4f4d-b152-972266abc3c5" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="F18" r:id="rId5" location="position=9&amp;type=item&amp;tracking_id=b86ee509-acb1-4687-9267-b5a79840b449" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
-    <hyperlink ref="F16" r:id="rId6" location="searchVariation=41945510546&amp;position=10&amp;type=item&amp;tracking_id=c8150eb0-81cf-41f2-8b44-92b72af9b976" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="F15" r:id="rId7" location="position=1&amp;type=item&amp;tracking_id=0f693c9d-e24f-4bc4-8c47-6db53224454d" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
-    <hyperlink ref="F19" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
+    <hyperlink ref="F11" r:id="rId1" location="searchVariation=62371957696&amp;position=1&amp;type=item&amp;tracking_id=c1baf121-2aa6-4883-89e1-db40e4fe7d07"/>
+    <hyperlink ref="F12" r:id="rId2" location="position=3&amp;type=item&amp;tracking_id=7d967ea6-7b08-4e10-9ee9-7a21d479e90e"/>
+    <hyperlink ref="F13" r:id="rId3" location="searchVariation=MLA15188002&amp;position=2&amp;type=product&amp;tracking_id=25817417-8ebf-4e85-99ba-e1068ce3b665"/>
+    <hyperlink ref="F17" r:id="rId4" location="position=27&amp;type=item&amp;tracking_id=be18e719-23de-4f4d-b152-972266abc3c5"/>
+    <hyperlink ref="F18" r:id="rId5" location="position=9&amp;type=item&amp;tracking_id=b86ee509-acb1-4687-9267-b5a79840b449"/>
+    <hyperlink ref="F16" r:id="rId6" location="searchVariation=41945510546&amp;position=10&amp;type=item&amp;tracking_id=c8150eb0-81cf-41f2-8b44-92b72af9b976"/>
+    <hyperlink ref="F15" r:id="rId7" location="position=1&amp;type=item&amp;tracking_id=0f693c9d-e24f-4bc4-8c47-6db53224454d"/>
+    <hyperlink ref="F19" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
@@ -25793,7 +25847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X194"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0"/>
@@ -25870,11 +25924,11 @@
       <c r="C3" s="654"/>
       <c r="D3" s="655"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="694" t="s">
+      <c r="F3" s="690" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="695"/>
-      <c r="H3" s="696"/>
+      <c r="G3" s="691"/>
+      <c r="H3" s="692"/>
       <c r="I3" s="441"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -31461,11 +31515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI97"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="A5:F6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31851,14 +31905,14 @@
     </row>
     <row r="10" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="697" t="s">
+      <c r="B10" s="693" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="698"/>
-      <c r="D10" s="698"/>
-      <c r="E10" s="698"/>
-      <c r="F10" s="698"/>
-      <c r="G10" s="747"/>
+      <c r="C10" s="694"/>
+      <c r="D10" s="694"/>
+      <c r="E10" s="694"/>
+      <c r="F10" s="694"/>
+      <c r="G10" s="726"/>
       <c r="H10" s="242"/>
       <c r="I10" s="1"/>
       <c r="J10" s="396" t="s">
@@ -31901,10 +31955,10 @@
     </row>
     <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="748" t="s">
+      <c r="B11" s="727" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="749"/>
+      <c r="C11" s="728"/>
       <c r="D11" s="399" t="s">
         <v>197</v>
       </c>
@@ -31959,10 +32013,10 @@
     </row>
     <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="750" t="s">
+      <c r="B12" s="729" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="751"/>
+      <c r="C12" s="730"/>
       <c r="D12" s="442">
         <v>0</v>
       </c>
@@ -32020,7 +32074,7 @@
     </row>
     <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="745" t="s">
+      <c r="B13" s="724" t="s">
         <v>198</v>
       </c>
       <c r="C13" s="404" t="s">
@@ -32072,7 +32126,7 @@
     </row>
     <row r="14" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="745"/>
+      <c r="B14" s="724"/>
       <c r="C14" s="404" t="s">
         <v>157</v>
       </c>
@@ -32124,7 +32178,7 @@
     </row>
     <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="746"/>
+      <c r="B15" s="725"/>
       <c r="C15" s="405" t="s">
         <v>158</v>
       </c>
@@ -32180,10 +32234,10 @@
     </row>
     <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="737" t="s">
+      <c r="B16" s="744" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="738"/>
+      <c r="C16" s="745"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -32239,10 +32293,10 @@
     </row>
     <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="739" t="s">
+      <c r="B17" s="746" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="740"/>
+      <c r="C17" s="747"/>
       <c r="D17" s="442">
         <v>0</v>
       </c>
@@ -32288,10 +32342,10 @@
     </row>
     <row r="18" spans="1:35" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="741" t="s">
+      <c r="B18" s="748" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="742"/>
+      <c r="C18" s="749"/>
       <c r="D18" s="443">
         <v>0</v>
       </c>
@@ -32334,10 +32388,10 @@
     </row>
     <row r="19" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="743" t="s">
+      <c r="B19" s="750" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="744"/>
+      <c r="C19" s="751"/>
       <c r="D19" s="444">
         <v>0</v>
       </c>
@@ -32355,12 +32409,12 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="694" t="s">
+      <c r="J19" s="690" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="695"/>
-      <c r="L19" s="695"/>
-      <c r="M19" s="696"/>
+      <c r="K19" s="691"/>
+      <c r="L19" s="691"/>
+      <c r="M19" s="692"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -32386,10 +32440,10 @@
     </row>
     <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="737" t="s">
+      <c r="B20" s="744" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="738"/>
+      <c r="C20" s="745"/>
       <c r="D20" s="445">
         <v>0</v>
       </c>
@@ -32444,10 +32498,10 @@
     </row>
     <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="724" t="s">
+      <c r="B21" s="731" t="s">
         <v>204</v>
       </c>
-      <c r="C21" s="725"/>
+      <c r="C21" s="732"/>
       <c r="D21" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -32507,10 +32561,10 @@
     </row>
     <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="726" t="s">
+      <c r="B22" s="733" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="727"/>
+      <c r="C22" s="734"/>
       <c r="D22" s="406">
         <f>D20+D21</f>
         <v>-1274116</v>
@@ -32669,12 +32723,12 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="728" t="s">
+      <c r="B26" s="735" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="729"/>
-      <c r="D26" s="729"/>
-      <c r="E26" s="730"/>
+      <c r="C26" s="736"/>
+      <c r="D26" s="736"/>
+      <c r="E26" s="737"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="412" t="s">
@@ -32712,10 +32766,10 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="731"/>
-      <c r="C27" s="732"/>
-      <c r="D27" s="732"/>
-      <c r="E27" s="733"/>
+      <c r="B27" s="738"/>
+      <c r="C27" s="739"/>
+      <c r="D27" s="739"/>
+      <c r="E27" s="740"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="414" t="s">
@@ -32754,10 +32808,10 @@
     </row>
     <row r="28" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="734"/>
-      <c r="C28" s="735"/>
-      <c r="D28" s="735"/>
-      <c r="E28" s="736"/>
+      <c r="B28" s="741"/>
+      <c r="C28" s="742"/>
+      <c r="D28" s="742"/>
+      <c r="E28" s="743"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="416" t="s">
@@ -35349,13 +35403,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:E28"/>
@@ -35365,9 +35412,16 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H17" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="H17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -35376,7 +35430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35730,7 +35784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36294,10 +36348,10 @@
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="743" t="s">
+      <c r="B15" s="750" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="744"/>
+      <c r="C15" s="751"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -36339,10 +36393,10 @@
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="737" t="s">
+      <c r="B16" s="744" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="738"/>
+      <c r="C16" s="745"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -36387,10 +36441,10 @@
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="724" t="s">
+      <c r="B17" s="731" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="725"/>
+      <c r="C17" s="732"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -36427,10 +36481,10 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="726" t="s">
+      <c r="B18" s="733" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="727"/>
+      <c r="C18" s="734"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -36470,12 +36524,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="694" t="s">
+      <c r="J19" s="690" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="695"/>
-      <c r="L19" s="695"/>
-      <c r="M19" s="696"/>
+      <c r="K19" s="691"/>
+      <c r="L19" s="691"/>
+      <c r="M19" s="692"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -36678,10 +36732,10 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="732"/>
-      <c r="C26" s="732"/>
-      <c r="D26" s="732"/>
-      <c r="E26" s="732"/>
+      <c r="B26" s="739"/>
+      <c r="C26" s="739"/>
+      <c r="D26" s="739"/>
+      <c r="E26" s="739"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -36704,10 +36758,10 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="732"/>
-      <c r="C27" s="732"/>
-      <c r="D27" s="732"/>
-      <c r="E27" s="732"/>
+      <c r="B27" s="739"/>
+      <c r="C27" s="739"/>
+      <c r="D27" s="739"/>
+      <c r="E27" s="739"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -36730,10 +36784,10 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="732"/>
-      <c r="C28" s="732"/>
-      <c r="D28" s="732"/>
-      <c r="E28" s="732"/>
+      <c r="B28" s="739"/>
+      <c r="C28" s="739"/>
+      <c r="D28" s="739"/>
+      <c r="E28" s="739"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -37066,17 +37120,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K14:M14"/>
     <mergeCell ref="B26:E28"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37084,7 +37138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37696,10 +37750,10 @@
     </row>
     <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="743" t="s">
+      <c r="B15" s="750" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="744"/>
+      <c r="C15" s="751"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -37745,10 +37799,10 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="737" t="s">
+      <c r="B16" s="744" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="738"/>
+      <c r="C16" s="745"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -37797,10 +37851,10 @@
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="724" t="s">
+      <c r="B17" s="731" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="725"/>
+      <c r="C17" s="732"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -37841,10 +37895,10 @@
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="726" t="s">
+      <c r="B18" s="733" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="727"/>
+      <c r="C18" s="734"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -37888,12 +37942,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="694" t="s">
+      <c r="J19" s="690" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="695"/>
-      <c r="L19" s="695"/>
-      <c r="M19" s="696"/>
+      <c r="K19" s="691"/>
+      <c r="L19" s="691"/>
+      <c r="M19" s="692"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -38126,10 +38180,10 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="732"/>
-      <c r="C26" s="732"/>
-      <c r="D26" s="732"/>
-      <c r="E26" s="732"/>
+      <c r="B26" s="739"/>
+      <c r="C26" s="739"/>
+      <c r="D26" s="739"/>
+      <c r="E26" s="739"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -38156,10 +38210,10 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="732"/>
-      <c r="C27" s="732"/>
-      <c r="D27" s="732"/>
-      <c r="E27" s="732"/>
+      <c r="B27" s="739"/>
+      <c r="C27" s="739"/>
+      <c r="D27" s="739"/>
+      <c r="E27" s="739"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -38186,10 +38240,10 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="732"/>
-      <c r="C28" s="732"/>
-      <c r="D28" s="732"/>
-      <c r="E28" s="732"/>
+      <c r="B28" s="739"/>
+      <c r="C28" s="739"/>
+      <c r="D28" s="739"/>
+      <c r="E28" s="739"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -38266,7 +38320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39039,10 +39093,10 @@
     </row>
     <row r="15" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="743" t="s">
+      <c r="B15" s="750" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="744"/>
+      <c r="C15" s="751"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -39099,10 +39153,10 @@
     </row>
     <row r="16" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="737" t="s">
+      <c r="B16" s="744" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="738"/>
+      <c r="C16" s="745"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -39162,10 +39216,10 @@
     </row>
     <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="724" t="s">
+      <c r="B17" s="731" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="725"/>
+      <c r="C17" s="732"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -39217,10 +39271,10 @@
     </row>
     <row r="18" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="726" t="s">
+      <c r="B18" s="733" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="727"/>
+      <c r="C18" s="734"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -39275,12 +39329,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="694" t="s">
+      <c r="J19" s="690" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="695"/>
-      <c r="L19" s="695"/>
-      <c r="M19" s="696"/>
+      <c r="K19" s="691"/>
+      <c r="L19" s="691"/>
+      <c r="M19" s="692"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -39551,17 +39605,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="J19:M19"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="J19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39569,7 +39623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN52"/>
   <sheetViews>
     <sheetView topLeftCell="C10" workbookViewId="0">
@@ -40715,10 +40769,10 @@
     </row>
     <row r="15" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="743" t="s">
+      <c r="B15" s="750" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="744"/>
+      <c r="C15" s="751"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -40805,10 +40859,10 @@
     </row>
     <row r="16" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="737" t="s">
+      <c r="B16" s="744" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="738"/>
+      <c r="C16" s="745"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -40898,10 +40952,10 @@
     </row>
     <row r="17" spans="1:66" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="724" t="s">
+      <c r="B17" s="731" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="725"/>
+      <c r="C17" s="732"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -40983,10 +41037,10 @@
     </row>
     <row r="18" spans="1:66" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="726" t="s">
+      <c r="B18" s="733" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="727"/>
+      <c r="C18" s="734"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -41076,12 +41130,12 @@
       <c r="G19" s="528"/>
       <c r="H19" s="527"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="694" t="s">
+      <c r="J19" s="690" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="695"/>
-      <c r="L19" s="695"/>
-      <c r="M19" s="696"/>
+      <c r="K19" s="691"/>
+      <c r="L19" s="691"/>
+      <c r="M19" s="692"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -43445,6 +43499,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="K3:M3"/>
@@ -43452,11 +43511,6 @@
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -43465,7 +43519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:BT59"/>
   <sheetViews>
@@ -47882,21 +47936,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" location="Hipótesis!A1" display="Hipótesis" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D6" location="'Proy. Ventas'!A1" display="Proyección de ventas" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D7" location="'Mod. Ingresos'!A1" display="Modelo de ingresos" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D8" location="'Costos Fijos'!A1" display="Estructura de costos fijos" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D9" location="'Costos Variables'!A1" display="Estructura de costos variables" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D10" location="'Costos RRHH'!A1" display="Estructura de costos de RRHH" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D11" location="'Mod. Egresos'!A1" display="Modelo de egresos" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D12" location="'Mod. Inversión'!A1" display="Modelo de inversión" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D13" location="Amortizaciones!A1" display="Amortizaciones" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D14" location="'Presupuesto financiero'!A1" display="Presupuesto Financiero" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D15" location="'Matriz Riesgo'!A1" display="Matriz de riesgos" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D16" location="'Escenario 1'!A1" display="Escenario 1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D19" location="'Plan de Contingencia'!A1" display="Plan de contingencia" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D17" location="'Escenario 2'!A1" display="Escenario 2" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D18" location="'Escenario 3'!A1" display="Escenario 3" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D5" location="Hipótesis!A1" display="Hipótesis"/>
+    <hyperlink ref="D6" location="'Proy. Ventas'!A1" display="Proyección de ventas"/>
+    <hyperlink ref="D7" location="'Mod. Ingresos'!A1" display="Modelo de ingresos"/>
+    <hyperlink ref="D8" location="'Costos Fijos'!A1" display="Estructura de costos fijos"/>
+    <hyperlink ref="D9" location="'Costos Variables'!A1" display="Estructura de costos variables"/>
+    <hyperlink ref="D10" location="'Costos RRHH'!A1" display="Estructura de costos de RRHH"/>
+    <hyperlink ref="D11" location="'Mod. Egresos'!A1" display="Modelo de egresos"/>
+    <hyperlink ref="D12" location="'Mod. Inversión'!A1" display="Modelo de inversión"/>
+    <hyperlink ref="D13" location="Amortizaciones!A1" display="Amortizaciones"/>
+    <hyperlink ref="D14" location="'Presupuesto financiero'!A1" display="Presupuesto Financiero"/>
+    <hyperlink ref="D15" location="'Matriz Riesgo'!A1" display="Matriz de riesgos"/>
+    <hyperlink ref="D16" location="'Escenario 1'!A1" display="Escenario 1"/>
+    <hyperlink ref="D19" location="'Plan de Contingencia'!A1" display="Plan de contingencia"/>
+    <hyperlink ref="D17" location="'Escenario 2'!A1" display="Escenario 2"/>
+    <hyperlink ref="D18" location="'Escenario 3'!A1" display="Escenario 3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -47905,13 +47959,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16:J16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47942,58 +47996,58 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="554" t="s">
+      <c r="B3" s="537" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="555"/>
-      <c r="D3" s="555"/>
-      <c r="E3" s="555"/>
-      <c r="F3" s="555"/>
-      <c r="G3" s="555"/>
-      <c r="H3" s="555"/>
-      <c r="I3" s="555"/>
-      <c r="J3" s="556"/>
+      <c r="C3" s="538"/>
+      <c r="D3" s="538"/>
+      <c r="E3" s="538"/>
+      <c r="F3" s="538"/>
+      <c r="G3" s="538"/>
+      <c r="H3" s="538"/>
+      <c r="I3" s="538"/>
+      <c r="J3" s="539"/>
     </row>
     <row r="4" spans="1:11" ht="165" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="563" t="s">
+      <c r="B4" s="546" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="564"/>
-      <c r="D4" s="564"/>
-      <c r="E4" s="564"/>
-      <c r="F4" s="564"/>
-      <c r="G4" s="564"/>
-      <c r="H4" s="564"/>
-      <c r="I4" s="564"/>
-      <c r="J4" s="565"/>
+      <c r="C4" s="547"/>
+      <c r="D4" s="547"/>
+      <c r="E4" s="547"/>
+      <c r="F4" s="547"/>
+      <c r="G4" s="547"/>
+      <c r="H4" s="547"/>
+      <c r="I4" s="547"/>
+      <c r="J4" s="548"/>
       <c r="K4" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="566" t="s">
+      <c r="B7" s="549" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="567"/>
-      <c r="D7" s="567"/>
-      <c r="E7" s="567"/>
-      <c r="F7" s="567"/>
-      <c r="G7" s="567"/>
-      <c r="H7" s="567"/>
-      <c r="I7" s="567"/>
-      <c r="J7" s="568"/>
+      <c r="C7" s="550"/>
+      <c r="D7" s="550"/>
+      <c r="E7" s="550"/>
+      <c r="F7" s="550"/>
+      <c r="G7" s="550"/>
+      <c r="H7" s="550"/>
+      <c r="I7" s="550"/>
+      <c r="J7" s="551"/>
     </row>
     <row r="8" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="569" t="s">
+      <c r="B8" s="552" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="570"/>
-      <c r="D8" s="570"/>
-      <c r="E8" s="570"/>
-      <c r="F8" s="570"/>
-      <c r="G8" s="570"/>
-      <c r="H8" s="570"/>
-      <c r="I8" s="570"/>
-      <c r="J8" s="571"/>
+      <c r="C8" s="553"/>
+      <c r="D8" s="553"/>
+      <c r="E8" s="553"/>
+      <c r="F8" s="553"/>
+      <c r="G8" s="553"/>
+      <c r="H8" s="553"/>
+      <c r="I8" s="553"/>
+      <c r="J8" s="554"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="40"/>
@@ -48065,30 +48119,30 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="572" t="s">
+      <c r="B15" s="555" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="573"/>
-      <c r="D15" s="573"/>
-      <c r="E15" s="573"/>
-      <c r="F15" s="573"/>
-      <c r="G15" s="573"/>
-      <c r="H15" s="573"/>
-      <c r="I15" s="573"/>
-      <c r="J15" s="574"/>
+      <c r="C15" s="556"/>
+      <c r="D15" s="556"/>
+      <c r="E15" s="556"/>
+      <c r="F15" s="556"/>
+      <c r="G15" s="556"/>
+      <c r="H15" s="556"/>
+      <c r="I15" s="556"/>
+      <c r="J15" s="557"/>
     </row>
     <row r="16" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="575" t="s">
+      <c r="B16" s="558" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="576"/>
-      <c r="D16" s="576"/>
-      <c r="E16" s="576"/>
-      <c r="F16" s="576"/>
-      <c r="G16" s="576"/>
-      <c r="H16" s="576"/>
-      <c r="I16" s="576"/>
-      <c r="J16" s="577"/>
+      <c r="C16" s="559"/>
+      <c r="D16" s="559"/>
+      <c r="E16" s="559"/>
+      <c r="F16" s="559"/>
+      <c r="G16" s="559"/>
+      <c r="H16" s="559"/>
+      <c r="I16" s="559"/>
+      <c r="J16" s="560"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
@@ -48158,11 +48212,11 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="557" t="s">
+      <c r="B22" s="540" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="558"/>
-      <c r="D22" s="559"/>
+      <c r="C22" s="541"/>
+      <c r="D22" s="542"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -48351,13 +48405,13 @@
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="554" t="s">
+      <c r="B33" s="537" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="555"/>
-      <c r="D33" s="555"/>
-      <c r="E33" s="555"/>
-      <c r="F33" s="556"/>
+      <c r="C33" s="538"/>
+      <c r="D33" s="538"/>
+      <c r="E33" s="538"/>
+      <c r="F33" s="539"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
@@ -48383,91 +48437,91 @@
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="554" t="s">
+      <c r="B35" s="537" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="578"/>
-      <c r="D35" s="578"/>
-      <c r="E35" s="578"/>
-      <c r="F35" s="579"/>
+      <c r="C35" s="561"/>
+      <c r="D35" s="561"/>
+      <c r="E35" s="561"/>
+      <c r="F35" s="562"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="560" t="s">
+      <c r="B36" s="543" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="580" t="s">
+      <c r="C36" s="563" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="580"/>
-      <c r="E36" s="580"/>
-      <c r="F36" s="580"/>
+      <c r="D36" s="563"/>
+      <c r="E36" s="563"/>
+      <c r="F36" s="563"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="561"/>
-      <c r="C37" s="580"/>
-      <c r="D37" s="580"/>
-      <c r="E37" s="580"/>
-      <c r="F37" s="580"/>
+      <c r="B37" s="544"/>
+      <c r="C37" s="563"/>
+      <c r="D37" s="563"/>
+      <c r="E37" s="563"/>
+      <c r="F37" s="563"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="561"/>
-      <c r="C38" s="580"/>
-      <c r="D38" s="580"/>
-      <c r="E38" s="580"/>
-      <c r="F38" s="580"/>
+      <c r="B38" s="544"/>
+      <c r="C38" s="563"/>
+      <c r="D38" s="563"/>
+      <c r="E38" s="563"/>
+      <c r="F38" s="563"/>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="561"/>
-      <c r="C39" s="550" t="s">
+      <c r="B39" s="544"/>
+      <c r="C39" s="533" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="550"/>
-      <c r="E39" s="550"/>
-      <c r="F39" s="550"/>
+      <c r="D39" s="533"/>
+      <c r="E39" s="533"/>
+      <c r="F39" s="533"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="561"/>
-      <c r="C40" s="550"/>
-      <c r="D40" s="550"/>
-      <c r="E40" s="550"/>
-      <c r="F40" s="550"/>
+      <c r="B40" s="544"/>
+      <c r="C40" s="533"/>
+      <c r="D40" s="533"/>
+      <c r="E40" s="533"/>
+      <c r="F40" s="533"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="561"/>
-      <c r="C41" s="550"/>
-      <c r="D41" s="550"/>
-      <c r="E41" s="550"/>
-      <c r="F41" s="550"/>
+      <c r="B41" s="544"/>
+      <c r="C41" s="533"/>
+      <c r="D41" s="533"/>
+      <c r="E41" s="533"/>
+      <c r="F41" s="533"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="561"/>
-      <c r="C42" s="551" t="s">
+      <c r="B42" s="544"/>
+      <c r="C42" s="534" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="551"/>
-      <c r="E42" s="551"/>
-      <c r="F42" s="551"/>
+      <c r="D42" s="534"/>
+      <c r="E42" s="534"/>
+      <c r="F42" s="534"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="561"/>
-      <c r="C43" s="551"/>
-      <c r="D43" s="551"/>
-      <c r="E43" s="551"/>
-      <c r="F43" s="551"/>
+      <c r="B43" s="544"/>
+      <c r="C43" s="534"/>
+      <c r="D43" s="534"/>
+      <c r="E43" s="534"/>
+      <c r="F43" s="534"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="562"/>
-      <c r="C44" s="551"/>
-      <c r="D44" s="551"/>
-      <c r="E44" s="551"/>
-      <c r="F44" s="551"/>
+      <c r="B44" s="545"/>
+      <c r="C44" s="534"/>
+      <c r="D44" s="534"/>
+      <c r="E44" s="534"/>
+      <c r="F44" s="534"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="552" t="s">
+      <c r="B47" s="535" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="553"/>
+      <c r="C47" s="536"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="68" t="s">
@@ -48478,55 +48532,61 @@
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="533" t="s">
+      <c r="B49" s="564" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="542">
+      <c r="C49" s="573">
         <v>1300</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="534"/>
-      <c r="C50" s="542"/>
+      <c r="B50" s="565"/>
+      <c r="C50" s="573"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="535"/>
-      <c r="C51" s="543"/>
+      <c r="B51" s="566"/>
+      <c r="C51" s="574"/>
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="536" t="s">
+      <c r="B52" s="567" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="544">
+      <c r="C52" s="575">
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="537"/>
-      <c r="C53" s="545"/>
+      <c r="B53" s="568"/>
+      <c r="C53" s="576"/>
     </row>
     <row r="54" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="538"/>
-      <c r="C54" s="546"/>
+      <c r="B54" s="569"/>
+      <c r="C54" s="577"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="539" t="s">
+      <c r="B55" s="570" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="547">
+      <c r="C55" s="578">
         <v>4000</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="540"/>
-      <c r="C56" s="548"/>
+      <c r="B56" s="571"/>
+      <c r="C56" s="579"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="541"/>
-      <c r="C57" s="549"/>
+      <c r="B57" s="572"/>
+      <c r="C57" s="580"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
     <mergeCell ref="C39:F41"/>
     <mergeCell ref="C42:F44"/>
     <mergeCell ref="B47:C47"/>
@@ -48541,12 +48601,6 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="C36:F38"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -48555,14 +48609,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI155"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48682,18 +48736,18 @@
     </row>
     <row r="5" spans="1:61" s="24" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
-      <c r="B5" s="616" t="s">
+      <c r="B5" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="617"/>
-      <c r="D5" s="619"/>
+      <c r="C5" s="597"/>
+      <c r="D5" s="599"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="590" t="s">
+      <c r="F5" s="629" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="591"/>
-      <c r="H5" s="591"/>
-      <c r="I5" s="592"/>
+      <c r="G5" s="630"/>
+      <c r="H5" s="630"/>
+      <c r="I5" s="631"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
@@ -48739,12 +48793,12 @@
         <v>2022</v>
       </c>
       <c r="E6" s="41"/>
-      <c r="F6" s="584" t="s">
+      <c r="F6" s="623" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="585"/>
-      <c r="H6" s="585"/>
-      <c r="I6" s="586"/>
+      <c r="G6" s="624"/>
+      <c r="H6" s="624"/>
+      <c r="I6" s="625"/>
       <c r="J6" s="222"/>
       <c r="K6" s="222"/>
       <c r="L6" s="222"/>
@@ -48793,10 +48847,10 @@
         <v>0.02</v>
       </c>
       <c r="E7" s="45"/>
-      <c r="F7" s="587"/>
-      <c r="G7" s="588"/>
-      <c r="H7" s="588"/>
-      <c r="I7" s="589"/>
+      <c r="F7" s="626"/>
+      <c r="G7" s="627"/>
+      <c r="H7" s="627"/>
+      <c r="I7" s="628"/>
       <c r="J7" s="222"/>
       <c r="K7" s="222"/>
       <c r="L7" s="222"/>
@@ -49197,48 +49251,48 @@
       <c r="BI14" s="8"/>
     </row>
     <row r="15" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="616" t="s">
+      <c r="A15" s="596" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="617"/>
-      <c r="C15" s="617"/>
-      <c r="D15" s="617"/>
-      <c r="E15" s="617"/>
-      <c r="F15" s="617"/>
-      <c r="G15" s="617"/>
-      <c r="H15" s="618"/>
-      <c r="I15" s="618"/>
-      <c r="J15" s="618"/>
-      <c r="K15" s="618"/>
-      <c r="L15" s="617"/>
-      <c r="M15" s="617"/>
-      <c r="N15" s="617"/>
-      <c r="O15" s="617"/>
-      <c r="P15" s="617"/>
-      <c r="Q15" s="617"/>
-      <c r="R15" s="617"/>
-      <c r="S15" s="617"/>
-      <c r="T15" s="617"/>
-      <c r="U15" s="617"/>
-      <c r="V15" s="617"/>
-      <c r="W15" s="617"/>
-      <c r="X15" s="617"/>
-      <c r="Y15" s="617"/>
-      <c r="Z15" s="617"/>
-      <c r="AA15" s="617"/>
-      <c r="AB15" s="617"/>
-      <c r="AC15" s="617"/>
-      <c r="AD15" s="617"/>
-      <c r="AE15" s="617"/>
-      <c r="AF15" s="617"/>
-      <c r="AG15" s="617"/>
-      <c r="AH15" s="617"/>
-      <c r="AI15" s="617"/>
-      <c r="AJ15" s="617"/>
-      <c r="AK15" s="617"/>
-      <c r="AL15" s="617"/>
-      <c r="AM15" s="617"/>
-      <c r="AN15" s="619"/>
+      <c r="B15" s="597"/>
+      <c r="C15" s="597"/>
+      <c r="D15" s="597"/>
+      <c r="E15" s="597"/>
+      <c r="F15" s="597"/>
+      <c r="G15" s="597"/>
+      <c r="H15" s="598"/>
+      <c r="I15" s="598"/>
+      <c r="J15" s="598"/>
+      <c r="K15" s="598"/>
+      <c r="L15" s="597"/>
+      <c r="M15" s="597"/>
+      <c r="N15" s="597"/>
+      <c r="O15" s="597"/>
+      <c r="P15" s="597"/>
+      <c r="Q15" s="597"/>
+      <c r="R15" s="597"/>
+      <c r="S15" s="597"/>
+      <c r="T15" s="597"/>
+      <c r="U15" s="597"/>
+      <c r="V15" s="597"/>
+      <c r="W15" s="597"/>
+      <c r="X15" s="597"/>
+      <c r="Y15" s="597"/>
+      <c r="Z15" s="597"/>
+      <c r="AA15" s="597"/>
+      <c r="AB15" s="597"/>
+      <c r="AC15" s="597"/>
+      <c r="AD15" s="597"/>
+      <c r="AE15" s="597"/>
+      <c r="AF15" s="597"/>
+      <c r="AG15" s="597"/>
+      <c r="AH15" s="597"/>
+      <c r="AI15" s="597"/>
+      <c r="AJ15" s="597"/>
+      <c r="AK15" s="597"/>
+      <c r="AL15" s="597"/>
+      <c r="AM15" s="597"/>
+      <c r="AN15" s="599"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
@@ -49262,76 +49316,76 @@
       <c r="BI15" s="8"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A16" s="620" t="s">
+      <c r="A16" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="620" t="s">
+      <c r="B16" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="623" t="s">
+      <c r="C16" s="603" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="630"/>
-      <c r="E16" s="606" t="s">
+      <c r="D16" s="604"/>
+      <c r="E16" s="586" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="607"/>
-      <c r="G16" s="608"/>
-      <c r="H16" s="606" t="s">
+      <c r="F16" s="587"/>
+      <c r="G16" s="588"/>
+      <c r="H16" s="586" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="607"/>
-      <c r="J16" s="608"/>
-      <c r="K16" s="606" t="s">
+      <c r="I16" s="587"/>
+      <c r="J16" s="588"/>
+      <c r="K16" s="586" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="607"/>
-      <c r="M16" s="608"/>
-      <c r="N16" s="606" t="s">
+      <c r="L16" s="587"/>
+      <c r="M16" s="588"/>
+      <c r="N16" s="586" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="607"/>
-      <c r="P16" s="608"/>
-      <c r="Q16" s="606" t="s">
+      <c r="O16" s="587"/>
+      <c r="P16" s="588"/>
+      <c r="Q16" s="586" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="607"/>
-      <c r="S16" s="608"/>
-      <c r="T16" s="606" t="s">
+      <c r="R16" s="587"/>
+      <c r="S16" s="588"/>
+      <c r="T16" s="586" t="s">
         <v>23</v>
       </c>
-      <c r="U16" s="607"/>
-      <c r="V16" s="608"/>
-      <c r="W16" s="606" t="s">
+      <c r="U16" s="587"/>
+      <c r="V16" s="588"/>
+      <c r="W16" s="586" t="s">
         <v>24</v>
       </c>
-      <c r="X16" s="607"/>
-      <c r="Y16" s="608"/>
-      <c r="Z16" s="606" t="s">
+      <c r="X16" s="587"/>
+      <c r="Y16" s="588"/>
+      <c r="Z16" s="586" t="s">
         <v>25</v>
       </c>
-      <c r="AA16" s="607"/>
-      <c r="AB16" s="608"/>
-      <c r="AC16" s="606" t="s">
+      <c r="AA16" s="587"/>
+      <c r="AB16" s="588"/>
+      <c r="AC16" s="586" t="s">
         <v>26</v>
       </c>
-      <c r="AD16" s="607"/>
-      <c r="AE16" s="608"/>
-      <c r="AF16" s="606" t="s">
+      <c r="AD16" s="587"/>
+      <c r="AE16" s="588"/>
+      <c r="AF16" s="586" t="s">
         <v>27</v>
       </c>
-      <c r="AG16" s="607"/>
-      <c r="AH16" s="608"/>
-      <c r="AI16" s="606" t="s">
+      <c r="AG16" s="587"/>
+      <c r="AH16" s="588"/>
+      <c r="AI16" s="586" t="s">
         <v>28</v>
       </c>
-      <c r="AJ16" s="607"/>
-      <c r="AK16" s="608"/>
-      <c r="AL16" s="606" t="s">
+      <c r="AJ16" s="587"/>
+      <c r="AK16" s="588"/>
+      <c r="AL16" s="586" t="s">
         <v>29</v>
       </c>
-      <c r="AM16" s="607"/>
-      <c r="AN16" s="608"/>
+      <c r="AM16" s="587"/>
+      <c r="AN16" s="588"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
@@ -49355,74 +49409,74 @@
       <c r="BI16" s="8"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A17" s="621"/>
-      <c r="B17" s="621"/>
-      <c r="C17" s="609" t="s">
+      <c r="A17" s="601"/>
+      <c r="B17" s="601"/>
+      <c r="C17" s="589" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="633" t="s">
+      <c r="D17" s="591" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="613">
+      <c r="E17" s="593">
         <v>0.02</v>
       </c>
-      <c r="F17" s="614"/>
-      <c r="G17" s="615"/>
-      <c r="H17" s="613">
+      <c r="F17" s="594"/>
+      <c r="G17" s="595"/>
+      <c r="H17" s="593">
         <v>0.04</v>
       </c>
-      <c r="I17" s="614"/>
-      <c r="J17" s="615"/>
-      <c r="K17" s="613">
+      <c r="I17" s="594"/>
+      <c r="J17" s="595"/>
+      <c r="K17" s="593">
         <v>0.04</v>
       </c>
-      <c r="L17" s="614"/>
-      <c r="M17" s="615"/>
-      <c r="N17" s="613">
+      <c r="L17" s="594"/>
+      <c r="M17" s="595"/>
+      <c r="N17" s="593">
         <v>0.05</v>
       </c>
-      <c r="O17" s="614"/>
-      <c r="P17" s="615"/>
-      <c r="Q17" s="613">
+      <c r="O17" s="594"/>
+      <c r="P17" s="595"/>
+      <c r="Q17" s="593">
         <v>0.06</v>
       </c>
-      <c r="R17" s="614"/>
-      <c r="S17" s="615"/>
-      <c r="T17" s="613">
+      <c r="R17" s="594"/>
+      <c r="S17" s="595"/>
+      <c r="T17" s="593">
         <v>0.08</v>
       </c>
-      <c r="U17" s="614"/>
-      <c r="V17" s="615"/>
-      <c r="W17" s="613">
+      <c r="U17" s="594"/>
+      <c r="V17" s="595"/>
+      <c r="W17" s="593">
         <v>0.1</v>
       </c>
-      <c r="X17" s="614"/>
-      <c r="Y17" s="615"/>
-      <c r="Z17" s="613">
+      <c r="X17" s="594"/>
+      <c r="Y17" s="595"/>
+      <c r="Z17" s="593">
         <v>0.11</v>
       </c>
-      <c r="AA17" s="614"/>
-      <c r="AB17" s="615"/>
-      <c r="AC17" s="613">
+      <c r="AA17" s="594"/>
+      <c r="AB17" s="595"/>
+      <c r="AC17" s="593">
         <v>0.11</v>
       </c>
-      <c r="AD17" s="614"/>
-      <c r="AE17" s="615"/>
-      <c r="AF17" s="613">
+      <c r="AD17" s="594"/>
+      <c r="AE17" s="595"/>
+      <c r="AF17" s="593">
         <v>0.12</v>
       </c>
-      <c r="AG17" s="614"/>
-      <c r="AH17" s="615"/>
-      <c r="AI17" s="613">
+      <c r="AG17" s="594"/>
+      <c r="AH17" s="595"/>
+      <c r="AI17" s="593">
         <v>0.13</v>
       </c>
-      <c r="AJ17" s="614"/>
-      <c r="AK17" s="615"/>
-      <c r="AL17" s="613">
+      <c r="AJ17" s="594"/>
+      <c r="AK17" s="595"/>
+      <c r="AL17" s="593">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM17" s="614"/>
-      <c r="AN17" s="615"/>
+      <c r="AM17" s="594"/>
+      <c r="AN17" s="595"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
@@ -49446,10 +49500,10 @@
       <c r="BI17" s="8"/>
     </row>
     <row r="18" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="622"/>
-      <c r="B18" s="622"/>
-      <c r="C18" s="610"/>
-      <c r="D18" s="634"/>
+      <c r="A18" s="602"/>
+      <c r="B18" s="602"/>
+      <c r="C18" s="590"/>
+      <c r="D18" s="592"/>
       <c r="E18" s="115" t="s">
         <v>116</v>
       </c>
@@ -50061,10 +50115,10 @@
       </c>
     </row>
     <row r="22" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="604" t="s">
+      <c r="A22" s="584" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="605"/>
+      <c r="B22" s="585"/>
       <c r="C22" s="81">
         <f>SUM(C19:C21)</f>
         <v>4894</v>
@@ -51149,32 +51203,32 @@
     </row>
     <row r="51" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="593" t="s">
+      <c r="A52" s="605" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="594"/>
-      <c r="C52" s="594"/>
-      <c r="D52" s="594"/>
-      <c r="E52" s="594"/>
-      <c r="F52" s="594"/>
-      <c r="G52" s="594"/>
-      <c r="H52" s="631"/>
-      <c r="I52" s="631"/>
-      <c r="J52" s="631"/>
-      <c r="K52" s="631"/>
-      <c r="L52" s="631"/>
-      <c r="M52" s="631"/>
-      <c r="N52" s="631"/>
-      <c r="O52" s="631"/>
-      <c r="P52" s="631"/>
-      <c r="Q52" s="631"/>
-      <c r="R52" s="631"/>
-      <c r="S52" s="631"/>
-      <c r="T52" s="631"/>
-      <c r="U52" s="631"/>
-      <c r="V52" s="631"/>
-      <c r="W52" s="631"/>
-      <c r="X52" s="632"/>
+      <c r="B52" s="606"/>
+      <c r="C52" s="606"/>
+      <c r="D52" s="606"/>
+      <c r="E52" s="606"/>
+      <c r="F52" s="606"/>
+      <c r="G52" s="606"/>
+      <c r="H52" s="607"/>
+      <c r="I52" s="607"/>
+      <c r="J52" s="607"/>
+      <c r="K52" s="607"/>
+      <c r="L52" s="607"/>
+      <c r="M52" s="607"/>
+      <c r="N52" s="607"/>
+      <c r="O52" s="607"/>
+      <c r="P52" s="607"/>
+      <c r="Q52" s="607"/>
+      <c r="R52" s="607"/>
+      <c r="S52" s="607"/>
+      <c r="T52" s="607"/>
+      <c r="U52" s="607"/>
+      <c r="V52" s="607"/>
+      <c r="W52" s="607"/>
+      <c r="X52" s="608"/>
       <c r="Y52" s="149"/>
       <c r="Z52" s="149"/>
       <c r="AA52" s="149"/>
@@ -51193,33 +51247,33 @@
       <c r="AN52" s="149"/>
     </row>
     <row r="53" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="625" t="s">
+      <c r="B53" s="612" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="626" t="s">
+      <c r="C53" s="616" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="626" t="s">
+      <c r="D53" s="616" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="626" t="s">
+      <c r="E53" s="616" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="598" t="s">
+      <c r="F53" s="610" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="627" t="s">
+      <c r="G53" s="614" t="s">
         <v>88</v>
       </c>
-      <c r="H53" s="598" t="s">
+      <c r="H53" s="610" t="s">
         <v>90</v>
       </c>
       <c r="I53" s="24"/>
-      <c r="J53" s="629"/>
+      <c r="J53" s="609"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
-      <c r="M53" s="629"/>
-      <c r="N53" s="629"/>
+      <c r="M53" s="609"/>
+      <c r="N53" s="609"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
@@ -51227,9 +51281,9 @@
       <c r="S53" s="24"/>
       <c r="T53" s="24"/>
       <c r="U53" s="24"/>
-      <c r="V53" s="629"/>
-      <c r="W53" s="629"/>
-      <c r="X53" s="629"/>
+      <c r="V53" s="609"/>
+      <c r="W53" s="609"/>
+      <c r="X53" s="609"/>
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
       <c r="AA53" s="24"/>
@@ -51248,19 +51302,19 @@
       <c r="AN53" s="185"/>
     </row>
     <row r="54" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="597"/>
-      <c r="C54" s="599"/>
-      <c r="D54" s="599"/>
-      <c r="E54" s="599"/>
-      <c r="F54" s="599"/>
-      <c r="G54" s="628"/>
-      <c r="H54" s="599"/>
+      <c r="B54" s="613"/>
+      <c r="C54" s="611"/>
+      <c r="D54" s="611"/>
+      <c r="E54" s="611"/>
+      <c r="F54" s="611"/>
+      <c r="G54" s="615"/>
+      <c r="H54" s="611"/>
       <c r="I54" s="24"/>
-      <c r="J54" s="629"/>
+      <c r="J54" s="609"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
-      <c r="M54" s="629"/>
-      <c r="N54" s="629"/>
+      <c r="M54" s="609"/>
+      <c r="N54" s="609"/>
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
@@ -51268,9 +51322,9 @@
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
       <c r="U54" s="24"/>
-      <c r="V54" s="629"/>
-      <c r="W54" s="629"/>
-      <c r="X54" s="629"/>
+      <c r="V54" s="609"/>
+      <c r="W54" s="609"/>
+      <c r="X54" s="609"/>
       <c r="AA54" s="24"/>
       <c r="AB54" s="24"/>
       <c r="AC54" s="187"/>
@@ -51327,9 +51381,9 @@
       <c r="V55" s="187"/>
       <c r="W55" s="187"/>
       <c r="X55" s="187"/>
-      <c r="Z55" s="581"/>
-      <c r="AA55" s="581"/>
-      <c r="AB55" s="581"/>
+      <c r="Z55" s="583"/>
+      <c r="AA55" s="583"/>
+      <c r="AB55" s="583"/>
       <c r="AC55" s="188"/>
       <c r="AD55" s="24"/>
       <c r="AE55" s="24"/>
@@ -51384,9 +51438,9 @@
       <c r="V56" s="188"/>
       <c r="W56" s="188"/>
       <c r="X56" s="188"/>
-      <c r="Z56" s="581"/>
-      <c r="AA56" s="581"/>
-      <c r="AB56" s="581"/>
+      <c r="Z56" s="583"/>
+      <c r="AA56" s="583"/>
+      <c r="AB56" s="583"/>
       <c r="AC56" s="187"/>
       <c r="AD56" s="24"/>
       <c r="AE56" s="24"/>
@@ -51441,9 +51495,9 @@
       <c r="V57" s="187"/>
       <c r="W57" s="187"/>
       <c r="X57" s="187"/>
-      <c r="Z57" s="581"/>
-      <c r="AA57" s="581"/>
-      <c r="AB57" s="581"/>
+      <c r="Z57" s="583"/>
+      <c r="AA57" s="583"/>
+      <c r="AB57" s="583"/>
       <c r="AC57" s="185"/>
       <c r="AD57" s="185"/>
       <c r="AE57" s="185"/>
@@ -51465,45 +51519,45 @@
         <f>SUM(B56:AF56)</f>
         <v>885000</v>
       </c>
-      <c r="C58" s="582"/>
-      <c r="D58" s="583"/>
-      <c r="E58" s="583"/>
-      <c r="F58" s="583"/>
-      <c r="G58" s="583"/>
-      <c r="H58" s="583"/>
-      <c r="I58" s="583"/>
-      <c r="J58" s="583"/>
-      <c r="K58" s="583"/>
-      <c r="L58" s="583"/>
-      <c r="M58" s="583"/>
-      <c r="N58" s="583"/>
-      <c r="O58" s="583"/>
-      <c r="P58" s="583"/>
-      <c r="Q58" s="583"/>
-      <c r="R58" s="583"/>
-      <c r="S58" s="583"/>
-      <c r="T58" s="583"/>
-      <c r="U58" s="583"/>
-      <c r="V58" s="583"/>
-      <c r="W58" s="583"/>
-      <c r="X58" s="583"/>
-      <c r="Y58" s="583"/>
-      <c r="Z58" s="583"/>
-      <c r="AA58" s="583"/>
-      <c r="AB58" s="583"/>
-      <c r="AC58" s="583"/>
-      <c r="AD58" s="583"/>
-      <c r="AE58" s="583"/>
-      <c r="AF58" s="583"/>
-      <c r="AG58" s="583"/>
-      <c r="AH58" s="583"/>
-      <c r="AI58" s="583"/>
-      <c r="AJ58" s="583"/>
-      <c r="AK58" s="583"/>
-      <c r="AL58" s="583"/>
-      <c r="AM58" s="583"/>
-      <c r="AN58" s="583"/>
-      <c r="AO58" s="583"/>
+      <c r="C58" s="581"/>
+      <c r="D58" s="582"/>
+      <c r="E58" s="582"/>
+      <c r="F58" s="582"/>
+      <c r="G58" s="582"/>
+      <c r="H58" s="582"/>
+      <c r="I58" s="582"/>
+      <c r="J58" s="582"/>
+      <c r="K58" s="582"/>
+      <c r="L58" s="582"/>
+      <c r="M58" s="582"/>
+      <c r="N58" s="582"/>
+      <c r="O58" s="582"/>
+      <c r="P58" s="582"/>
+      <c r="Q58" s="582"/>
+      <c r="R58" s="582"/>
+      <c r="S58" s="582"/>
+      <c r="T58" s="582"/>
+      <c r="U58" s="582"/>
+      <c r="V58" s="582"/>
+      <c r="W58" s="582"/>
+      <c r="X58" s="582"/>
+      <c r="Y58" s="582"/>
+      <c r="Z58" s="582"/>
+      <c r="AA58" s="582"/>
+      <c r="AB58" s="582"/>
+      <c r="AC58" s="582"/>
+      <c r="AD58" s="582"/>
+      <c r="AE58" s="582"/>
+      <c r="AF58" s="582"/>
+      <c r="AG58" s="582"/>
+      <c r="AH58" s="582"/>
+      <c r="AI58" s="582"/>
+      <c r="AJ58" s="582"/>
+      <c r="AK58" s="582"/>
+      <c r="AL58" s="582"/>
+      <c r="AM58" s="582"/>
+      <c r="AN58" s="582"/>
+      <c r="AO58" s="582"/>
     </row>
     <row r="59" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="103" t="s">
@@ -51513,45 +51567,45 @@
         <f>B58*12</f>
         <v>10620000</v>
       </c>
-      <c r="C59" s="582"/>
-      <c r="D59" s="583"/>
-      <c r="E59" s="583"/>
-      <c r="F59" s="583"/>
-      <c r="G59" s="583"/>
-      <c r="H59" s="583"/>
-      <c r="I59" s="583"/>
-      <c r="J59" s="583"/>
-      <c r="K59" s="583"/>
-      <c r="L59" s="583"/>
-      <c r="M59" s="583"/>
-      <c r="N59" s="583"/>
-      <c r="O59" s="583"/>
-      <c r="P59" s="583"/>
-      <c r="Q59" s="583"/>
-      <c r="R59" s="583"/>
-      <c r="S59" s="583"/>
-      <c r="T59" s="583"/>
-      <c r="U59" s="583"/>
-      <c r="V59" s="583"/>
-      <c r="W59" s="583"/>
-      <c r="X59" s="583"/>
-      <c r="Y59" s="583"/>
-      <c r="Z59" s="583"/>
-      <c r="AA59" s="583"/>
-      <c r="AB59" s="583"/>
-      <c r="AC59" s="583"/>
-      <c r="AD59" s="583"/>
-      <c r="AE59" s="583"/>
-      <c r="AF59" s="583"/>
-      <c r="AG59" s="583"/>
-      <c r="AH59" s="583"/>
-      <c r="AI59" s="583"/>
-      <c r="AJ59" s="583"/>
-      <c r="AK59" s="583"/>
-      <c r="AL59" s="583"/>
-      <c r="AM59" s="583"/>
-      <c r="AN59" s="583"/>
-      <c r="AO59" s="583"/>
+      <c r="C59" s="581"/>
+      <c r="D59" s="582"/>
+      <c r="E59" s="582"/>
+      <c r="F59" s="582"/>
+      <c r="G59" s="582"/>
+      <c r="H59" s="582"/>
+      <c r="I59" s="582"/>
+      <c r="J59" s="582"/>
+      <c r="K59" s="582"/>
+      <c r="L59" s="582"/>
+      <c r="M59" s="582"/>
+      <c r="N59" s="582"/>
+      <c r="O59" s="582"/>
+      <c r="P59" s="582"/>
+      <c r="Q59" s="582"/>
+      <c r="R59" s="582"/>
+      <c r="S59" s="582"/>
+      <c r="T59" s="582"/>
+      <c r="U59" s="582"/>
+      <c r="V59" s="582"/>
+      <c r="W59" s="582"/>
+      <c r="X59" s="582"/>
+      <c r="Y59" s="582"/>
+      <c r="Z59" s="582"/>
+      <c r="AA59" s="582"/>
+      <c r="AB59" s="582"/>
+      <c r="AC59" s="582"/>
+      <c r="AD59" s="582"/>
+      <c r="AE59" s="582"/>
+      <c r="AF59" s="582"/>
+      <c r="AG59" s="582"/>
+      <c r="AH59" s="582"/>
+      <c r="AI59" s="582"/>
+      <c r="AJ59" s="582"/>
+      <c r="AK59" s="582"/>
+      <c r="AL59" s="582"/>
+      <c r="AM59" s="582"/>
+      <c r="AN59" s="582"/>
+      <c r="AO59" s="582"/>
     </row>
     <row r="60" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
@@ -51669,48 +51723,48 @@
       <c r="AN63" s="16"/>
     </row>
     <row r="64" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="616" t="s">
+      <c r="A64" s="596" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="617"/>
-      <c r="C64" s="617"/>
-      <c r="D64" s="617"/>
-      <c r="E64" s="617"/>
-      <c r="F64" s="617"/>
-      <c r="G64" s="617"/>
-      <c r="H64" s="618"/>
-      <c r="I64" s="618"/>
-      <c r="J64" s="618"/>
-      <c r="K64" s="618"/>
-      <c r="L64" s="617"/>
-      <c r="M64" s="617"/>
-      <c r="N64" s="617"/>
-      <c r="O64" s="617"/>
-      <c r="P64" s="617"/>
-      <c r="Q64" s="617"/>
-      <c r="R64" s="617"/>
-      <c r="S64" s="617"/>
-      <c r="T64" s="617"/>
-      <c r="U64" s="617"/>
-      <c r="V64" s="617"/>
-      <c r="W64" s="617"/>
-      <c r="X64" s="617"/>
-      <c r="Y64" s="617"/>
-      <c r="Z64" s="617"/>
-      <c r="AA64" s="617"/>
-      <c r="AB64" s="617"/>
-      <c r="AC64" s="617"/>
-      <c r="AD64" s="617"/>
-      <c r="AE64" s="617"/>
-      <c r="AF64" s="617"/>
-      <c r="AG64" s="617"/>
-      <c r="AH64" s="617"/>
-      <c r="AI64" s="617"/>
-      <c r="AJ64" s="617"/>
-      <c r="AK64" s="617"/>
-      <c r="AL64" s="617"/>
-      <c r="AM64" s="617"/>
-      <c r="AN64" s="619"/>
+      <c r="B64" s="597"/>
+      <c r="C64" s="597"/>
+      <c r="D64" s="597"/>
+      <c r="E64" s="597"/>
+      <c r="F64" s="597"/>
+      <c r="G64" s="597"/>
+      <c r="H64" s="598"/>
+      <c r="I64" s="598"/>
+      <c r="J64" s="598"/>
+      <c r="K64" s="598"/>
+      <c r="L64" s="597"/>
+      <c r="M64" s="597"/>
+      <c r="N64" s="597"/>
+      <c r="O64" s="597"/>
+      <c r="P64" s="597"/>
+      <c r="Q64" s="597"/>
+      <c r="R64" s="597"/>
+      <c r="S64" s="597"/>
+      <c r="T64" s="597"/>
+      <c r="U64" s="597"/>
+      <c r="V64" s="597"/>
+      <c r="W64" s="597"/>
+      <c r="X64" s="597"/>
+      <c r="Y64" s="597"/>
+      <c r="Z64" s="597"/>
+      <c r="AA64" s="597"/>
+      <c r="AB64" s="597"/>
+      <c r="AC64" s="597"/>
+      <c r="AD64" s="597"/>
+      <c r="AE64" s="597"/>
+      <c r="AF64" s="597"/>
+      <c r="AG64" s="597"/>
+      <c r="AH64" s="597"/>
+      <c r="AI64" s="597"/>
+      <c r="AJ64" s="597"/>
+      <c r="AK64" s="597"/>
+      <c r="AL64" s="597"/>
+      <c r="AM64" s="597"/>
+      <c r="AN64" s="599"/>
       <c r="AO64" s="8"/>
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
@@ -51734,76 +51788,76 @@
       <c r="BI64" s="8"/>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A65" s="620" t="s">
+      <c r="A65" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="620" t="s">
+      <c r="B65" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="623" t="s">
+      <c r="C65" s="603" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="630"/>
-      <c r="E65" s="606" t="s">
+      <c r="D65" s="604"/>
+      <c r="E65" s="586" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="607"/>
-      <c r="G65" s="608"/>
-      <c r="H65" s="606" t="s">
+      <c r="F65" s="587"/>
+      <c r="G65" s="588"/>
+      <c r="H65" s="586" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="607"/>
-      <c r="J65" s="608"/>
-      <c r="K65" s="606" t="s">
+      <c r="I65" s="587"/>
+      <c r="J65" s="588"/>
+      <c r="K65" s="586" t="s">
         <v>20</v>
       </c>
-      <c r="L65" s="607"/>
-      <c r="M65" s="608"/>
-      <c r="N65" s="606" t="s">
+      <c r="L65" s="587"/>
+      <c r="M65" s="588"/>
+      <c r="N65" s="586" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="607"/>
-      <c r="P65" s="608"/>
-      <c r="Q65" s="606" t="s">
+      <c r="O65" s="587"/>
+      <c r="P65" s="588"/>
+      <c r="Q65" s="586" t="s">
         <v>22</v>
       </c>
-      <c r="R65" s="607"/>
-      <c r="S65" s="608"/>
-      <c r="T65" s="606" t="s">
+      <c r="R65" s="587"/>
+      <c r="S65" s="588"/>
+      <c r="T65" s="586" t="s">
         <v>23</v>
       </c>
-      <c r="U65" s="607"/>
-      <c r="V65" s="608"/>
-      <c r="W65" s="606" t="s">
+      <c r="U65" s="587"/>
+      <c r="V65" s="588"/>
+      <c r="W65" s="586" t="s">
         <v>24</v>
       </c>
-      <c r="X65" s="607"/>
-      <c r="Y65" s="608"/>
-      <c r="Z65" s="606" t="s">
+      <c r="X65" s="587"/>
+      <c r="Y65" s="588"/>
+      <c r="Z65" s="586" t="s">
         <v>25</v>
       </c>
-      <c r="AA65" s="607"/>
-      <c r="AB65" s="608"/>
-      <c r="AC65" s="606" t="s">
+      <c r="AA65" s="587"/>
+      <c r="AB65" s="588"/>
+      <c r="AC65" s="586" t="s">
         <v>26</v>
       </c>
-      <c r="AD65" s="607"/>
-      <c r="AE65" s="608"/>
-      <c r="AF65" s="606" t="s">
+      <c r="AD65" s="587"/>
+      <c r="AE65" s="588"/>
+      <c r="AF65" s="586" t="s">
         <v>27</v>
       </c>
-      <c r="AG65" s="607"/>
-      <c r="AH65" s="608"/>
-      <c r="AI65" s="606" t="s">
+      <c r="AG65" s="587"/>
+      <c r="AH65" s="588"/>
+      <c r="AI65" s="586" t="s">
         <v>28</v>
       </c>
-      <c r="AJ65" s="607"/>
-      <c r="AK65" s="608"/>
-      <c r="AL65" s="606" t="s">
+      <c r="AJ65" s="587"/>
+      <c r="AK65" s="588"/>
+      <c r="AL65" s="586" t="s">
         <v>29</v>
       </c>
-      <c r="AM65" s="607"/>
-      <c r="AN65" s="608"/>
+      <c r="AM65" s="587"/>
+      <c r="AN65" s="588"/>
       <c r="AO65" s="8"/>
       <c r="AP65" s="8"/>
       <c r="AQ65" s="8"/>
@@ -51827,74 +51881,74 @@
       <c r="BI65" s="8"/>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A66" s="621"/>
-      <c r="B66" s="621"/>
-      <c r="C66" s="609" t="s">
+      <c r="A66" s="601"/>
+      <c r="B66" s="601"/>
+      <c r="C66" s="589" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="633" t="s">
+      <c r="D66" s="591" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="613">
+      <c r="E66" s="593">
         <v>0.02</v>
       </c>
-      <c r="F66" s="614"/>
-      <c r="G66" s="615"/>
-      <c r="H66" s="613">
+      <c r="F66" s="594"/>
+      <c r="G66" s="595"/>
+      <c r="H66" s="593">
         <v>0.04</v>
       </c>
-      <c r="I66" s="614"/>
-      <c r="J66" s="615"/>
-      <c r="K66" s="613">
+      <c r="I66" s="594"/>
+      <c r="J66" s="595"/>
+      <c r="K66" s="593">
         <v>0.04</v>
       </c>
-      <c r="L66" s="614"/>
-      <c r="M66" s="615"/>
-      <c r="N66" s="613">
+      <c r="L66" s="594"/>
+      <c r="M66" s="595"/>
+      <c r="N66" s="593">
         <v>0.05</v>
       </c>
-      <c r="O66" s="614"/>
-      <c r="P66" s="615"/>
-      <c r="Q66" s="613">
+      <c r="O66" s="594"/>
+      <c r="P66" s="595"/>
+      <c r="Q66" s="593">
         <v>0.06</v>
       </c>
-      <c r="R66" s="614"/>
-      <c r="S66" s="615"/>
-      <c r="T66" s="613">
+      <c r="R66" s="594"/>
+      <c r="S66" s="595"/>
+      <c r="T66" s="593">
         <v>0.08</v>
       </c>
-      <c r="U66" s="614"/>
-      <c r="V66" s="615"/>
-      <c r="W66" s="613">
+      <c r="U66" s="594"/>
+      <c r="V66" s="595"/>
+      <c r="W66" s="593">
         <v>0.1</v>
       </c>
-      <c r="X66" s="614"/>
-      <c r="Y66" s="615"/>
-      <c r="Z66" s="613">
+      <c r="X66" s="594"/>
+      <c r="Y66" s="595"/>
+      <c r="Z66" s="593">
         <v>0.11</v>
       </c>
-      <c r="AA66" s="614"/>
-      <c r="AB66" s="615"/>
-      <c r="AC66" s="613">
+      <c r="AA66" s="594"/>
+      <c r="AB66" s="595"/>
+      <c r="AC66" s="593">
         <v>0.11</v>
       </c>
-      <c r="AD66" s="614"/>
-      <c r="AE66" s="615"/>
-      <c r="AF66" s="613">
+      <c r="AD66" s="594"/>
+      <c r="AE66" s="595"/>
+      <c r="AF66" s="593">
         <v>0.12</v>
       </c>
-      <c r="AG66" s="614"/>
-      <c r="AH66" s="615"/>
-      <c r="AI66" s="613">
+      <c r="AG66" s="594"/>
+      <c r="AH66" s="595"/>
+      <c r="AI66" s="593">
         <v>0.13</v>
       </c>
-      <c r="AJ66" s="614"/>
-      <c r="AK66" s="615"/>
-      <c r="AL66" s="613">
+      <c r="AJ66" s="594"/>
+      <c r="AK66" s="595"/>
+      <c r="AL66" s="593">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM66" s="614"/>
-      <c r="AN66" s="615"/>
+      <c r="AM66" s="594"/>
+      <c r="AN66" s="595"/>
       <c r="AO66" s="8"/>
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
@@ -51918,10 +51972,10 @@
       <c r="BI66" s="8"/>
     </row>
     <row r="67" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="622"/>
-      <c r="B67" s="622"/>
-      <c r="C67" s="610"/>
-      <c r="D67" s="634"/>
+      <c r="A67" s="602"/>
+      <c r="B67" s="602"/>
+      <c r="C67" s="590"/>
+      <c r="D67" s="592"/>
       <c r="E67" s="115" t="s">
         <v>116</v>
       </c>
@@ -52533,10 +52587,10 @@
       </c>
     </row>
     <row r="71" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="604" t="s">
+      <c r="A71" s="584" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="605"/>
+      <c r="B71" s="585"/>
       <c r="C71" s="81">
         <f>SUM(C68:C70)</f>
         <v>9809</v>
@@ -52621,32 +52675,32 @@
     </row>
     <row r="100" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="593" t="s">
+      <c r="A101" s="605" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="594"/>
-      <c r="C101" s="594"/>
-      <c r="D101" s="594"/>
-      <c r="E101" s="594"/>
-      <c r="F101" s="594"/>
-      <c r="G101" s="594"/>
-      <c r="H101" s="594"/>
-      <c r="I101" s="594"/>
-      <c r="J101" s="594"/>
-      <c r="K101" s="594"/>
-      <c r="L101" s="594"/>
-      <c r="M101" s="594"/>
-      <c r="N101" s="594"/>
-      <c r="O101" s="594"/>
-      <c r="P101" s="594"/>
-      <c r="Q101" s="594"/>
-      <c r="R101" s="594"/>
-      <c r="S101" s="594"/>
-      <c r="T101" s="594"/>
-      <c r="U101" s="594"/>
-      <c r="V101" s="594"/>
-      <c r="W101" s="594"/>
-      <c r="X101" s="595"/>
+      <c r="B101" s="606"/>
+      <c r="C101" s="606"/>
+      <c r="D101" s="606"/>
+      <c r="E101" s="606"/>
+      <c r="F101" s="606"/>
+      <c r="G101" s="606"/>
+      <c r="H101" s="606"/>
+      <c r="I101" s="606"/>
+      <c r="J101" s="606"/>
+      <c r="K101" s="606"/>
+      <c r="L101" s="606"/>
+      <c r="M101" s="606"/>
+      <c r="N101" s="606"/>
+      <c r="O101" s="606"/>
+      <c r="P101" s="606"/>
+      <c r="Q101" s="606"/>
+      <c r="R101" s="606"/>
+      <c r="S101" s="606"/>
+      <c r="T101" s="606"/>
+      <c r="U101" s="606"/>
+      <c r="V101" s="606"/>
+      <c r="W101" s="606"/>
+      <c r="X101" s="617"/>
       <c r="Y101" s="149"/>
       <c r="Z101" s="149"/>
       <c r="AA101" s="149"/>
@@ -52665,41 +52719,41 @@
       <c r="AN101" s="99"/>
     </row>
     <row r="102" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="625" t="s">
+      <c r="B102" s="612" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="626" t="s">
+      <c r="C102" s="616" t="s">
         <v>72</v>
       </c>
-      <c r="D102" s="626" t="s">
+      <c r="D102" s="616" t="s">
         <v>79</v>
       </c>
-      <c r="E102" s="626" t="s">
+      <c r="E102" s="616" t="s">
         <v>81</v>
       </c>
-      <c r="F102" s="598" t="s">
+      <c r="F102" s="610" t="s">
         <v>84</v>
       </c>
-      <c r="G102" s="627" t="s">
+      <c r="G102" s="614" t="s">
         <v>88</v>
       </c>
-      <c r="H102" s="598" t="s">
+      <c r="H102" s="610" t="s">
         <v>90</v>
       </c>
-      <c r="I102" s="598" t="s">
+      <c r="I102" s="610" t="s">
         <v>91</v>
       </c>
-      <c r="J102" s="598" t="s">
+      <c r="J102" s="610" t="s">
         <v>92</v>
       </c>
-      <c r="K102" s="598" t="s">
+      <c r="K102" s="610" t="s">
         <v>93</v>
       </c>
-      <c r="L102" s="598" t="s">
+      <c r="L102" s="610" t="s">
         <v>77</v>
       </c>
-      <c r="M102" s="629"/>
-      <c r="N102" s="629"/>
+      <c r="M102" s="609"/>
+      <c r="N102" s="609"/>
       <c r="O102" s="24"/>
       <c r="P102" s="24"/>
       <c r="Q102" s="24"/>
@@ -52707,9 +52761,9 @@
       <c r="S102" s="24"/>
       <c r="T102" s="24"/>
       <c r="U102" s="24"/>
-      <c r="V102" s="629"/>
-      <c r="W102" s="629"/>
-      <c r="X102" s="629"/>
+      <c r="V102" s="609"/>
+      <c r="W102" s="609"/>
+      <c r="X102" s="609"/>
       <c r="Y102" s="24"/>
       <c r="Z102" s="24"/>
       <c r="AA102" s="24"/>
@@ -52728,19 +52782,19 @@
       <c r="AN102" s="185"/>
     </row>
     <row r="103" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="597"/>
-      <c r="C103" s="599"/>
-      <c r="D103" s="599"/>
-      <c r="E103" s="599"/>
-      <c r="F103" s="599"/>
-      <c r="G103" s="628"/>
-      <c r="H103" s="599"/>
-      <c r="I103" s="599"/>
-      <c r="J103" s="599"/>
-      <c r="K103" s="599"/>
-      <c r="L103" s="599"/>
-      <c r="M103" s="629"/>
-      <c r="N103" s="629"/>
+      <c r="B103" s="613"/>
+      <c r="C103" s="611"/>
+      <c r="D103" s="611"/>
+      <c r="E103" s="611"/>
+      <c r="F103" s="611"/>
+      <c r="G103" s="615"/>
+      <c r="H103" s="611"/>
+      <c r="I103" s="611"/>
+      <c r="J103" s="611"/>
+      <c r="K103" s="611"/>
+      <c r="L103" s="611"/>
+      <c r="M103" s="609"/>
+      <c r="N103" s="609"/>
       <c r="O103" s="24"/>
       <c r="P103" s="24"/>
       <c r="Q103" s="24"/>
@@ -52748,9 +52802,9 @@
       <c r="S103" s="24"/>
       <c r="T103" s="24"/>
       <c r="U103" s="24"/>
-      <c r="V103" s="629"/>
-      <c r="W103" s="629"/>
-      <c r="X103" s="629"/>
+      <c r="V103" s="609"/>
+      <c r="W103" s="609"/>
+      <c r="X103" s="609"/>
       <c r="AA103" s="24"/>
       <c r="AB103" s="24"/>
       <c r="AC103" s="187"/>
@@ -52815,9 +52869,9 @@
       <c r="V104" s="187"/>
       <c r="W104" s="187"/>
       <c r="X104" s="187"/>
-      <c r="Z104" s="581"/>
-      <c r="AA104" s="581"/>
-      <c r="AB104" s="581"/>
+      <c r="Z104" s="583"/>
+      <c r="AA104" s="583"/>
+      <c r="AB104" s="583"/>
       <c r="AC104" s="188"/>
       <c r="AD104" s="24"/>
       <c r="AE104" s="24"/>
@@ -52880,9 +52934,9 @@
       <c r="V105" s="188"/>
       <c r="W105" s="188"/>
       <c r="X105" s="188"/>
-      <c r="Z105" s="581"/>
-      <c r="AA105" s="581"/>
-      <c r="AB105" s="581"/>
+      <c r="Z105" s="583"/>
+      <c r="AA105" s="583"/>
+      <c r="AB105" s="583"/>
       <c r="AC105" s="187"/>
       <c r="AD105" s="24"/>
       <c r="AE105" s="24"/>
@@ -52945,9 +52999,9 @@
       <c r="V106" s="187"/>
       <c r="W106" s="187"/>
       <c r="X106" s="187"/>
-      <c r="Z106" s="581"/>
-      <c r="AA106" s="581"/>
-      <c r="AB106" s="581"/>
+      <c r="Z106" s="583"/>
+      <c r="AA106" s="583"/>
+      <c r="AB106" s="583"/>
       <c r="AC106" s="185"/>
       <c r="AD106" s="185"/>
       <c r="AE106" s="185"/>
@@ -52969,45 +53023,45 @@
         <f>SUM(B105:AF105)</f>
         <v>1195000</v>
       </c>
-      <c r="C107" s="582"/>
-      <c r="D107" s="583"/>
-      <c r="E107" s="583"/>
-      <c r="F107" s="583"/>
-      <c r="G107" s="583"/>
-      <c r="H107" s="583"/>
-      <c r="I107" s="583"/>
-      <c r="J107" s="583"/>
-      <c r="K107" s="583"/>
-      <c r="L107" s="583"/>
-      <c r="M107" s="583"/>
-      <c r="N107" s="583"/>
-      <c r="O107" s="583"/>
-      <c r="P107" s="583"/>
-      <c r="Q107" s="583"/>
-      <c r="R107" s="583"/>
-      <c r="S107" s="583"/>
-      <c r="T107" s="583"/>
-      <c r="U107" s="583"/>
-      <c r="V107" s="583"/>
-      <c r="W107" s="583"/>
-      <c r="X107" s="583"/>
-      <c r="Y107" s="583"/>
-      <c r="Z107" s="583"/>
-      <c r="AA107" s="583"/>
-      <c r="AB107" s="583"/>
-      <c r="AC107" s="583"/>
-      <c r="AD107" s="583"/>
-      <c r="AE107" s="583"/>
-      <c r="AF107" s="583"/>
-      <c r="AG107" s="583"/>
-      <c r="AH107" s="583"/>
-      <c r="AI107" s="583"/>
-      <c r="AJ107" s="583"/>
-      <c r="AK107" s="583"/>
-      <c r="AL107" s="583"/>
-      <c r="AM107" s="583"/>
-      <c r="AN107" s="583"/>
-      <c r="AO107" s="583"/>
+      <c r="C107" s="581"/>
+      <c r="D107" s="582"/>
+      <c r="E107" s="582"/>
+      <c r="F107" s="582"/>
+      <c r="G107" s="582"/>
+      <c r="H107" s="582"/>
+      <c r="I107" s="582"/>
+      <c r="J107" s="582"/>
+      <c r="K107" s="582"/>
+      <c r="L107" s="582"/>
+      <c r="M107" s="582"/>
+      <c r="N107" s="582"/>
+      <c r="O107" s="582"/>
+      <c r="P107" s="582"/>
+      <c r="Q107" s="582"/>
+      <c r="R107" s="582"/>
+      <c r="S107" s="582"/>
+      <c r="T107" s="582"/>
+      <c r="U107" s="582"/>
+      <c r="V107" s="582"/>
+      <c r="W107" s="582"/>
+      <c r="X107" s="582"/>
+      <c r="Y107" s="582"/>
+      <c r="Z107" s="582"/>
+      <c r="AA107" s="582"/>
+      <c r="AB107" s="582"/>
+      <c r="AC107" s="582"/>
+      <c r="AD107" s="582"/>
+      <c r="AE107" s="582"/>
+      <c r="AF107" s="582"/>
+      <c r="AG107" s="582"/>
+      <c r="AH107" s="582"/>
+      <c r="AI107" s="582"/>
+      <c r="AJ107" s="582"/>
+      <c r="AK107" s="582"/>
+      <c r="AL107" s="582"/>
+      <c r="AM107" s="582"/>
+      <c r="AN107" s="582"/>
+      <c r="AO107" s="582"/>
     </row>
     <row r="108" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="103" t="s">
@@ -53017,45 +53071,45 @@
         <f>B107*12</f>
         <v>14340000</v>
       </c>
-      <c r="C108" s="582"/>
-      <c r="D108" s="583"/>
-      <c r="E108" s="583"/>
-      <c r="F108" s="583"/>
-      <c r="G108" s="583"/>
-      <c r="H108" s="583"/>
-      <c r="I108" s="583"/>
-      <c r="J108" s="583"/>
-      <c r="K108" s="583"/>
-      <c r="L108" s="583"/>
-      <c r="M108" s="583"/>
-      <c r="N108" s="583"/>
-      <c r="O108" s="583"/>
-      <c r="P108" s="583"/>
-      <c r="Q108" s="583"/>
-      <c r="R108" s="583"/>
-      <c r="S108" s="583"/>
-      <c r="T108" s="583"/>
-      <c r="U108" s="583"/>
-      <c r="V108" s="583"/>
-      <c r="W108" s="583"/>
-      <c r="X108" s="583"/>
-      <c r="Y108" s="583"/>
-      <c r="Z108" s="583"/>
-      <c r="AA108" s="583"/>
-      <c r="AB108" s="583"/>
-      <c r="AC108" s="583"/>
-      <c r="AD108" s="583"/>
-      <c r="AE108" s="583"/>
-      <c r="AF108" s="583"/>
-      <c r="AG108" s="583"/>
-      <c r="AH108" s="583"/>
-      <c r="AI108" s="583"/>
-      <c r="AJ108" s="583"/>
-      <c r="AK108" s="583"/>
-      <c r="AL108" s="583"/>
-      <c r="AM108" s="583"/>
-      <c r="AN108" s="583"/>
-      <c r="AO108" s="583"/>
+      <c r="C108" s="581"/>
+      <c r="D108" s="582"/>
+      <c r="E108" s="582"/>
+      <c r="F108" s="582"/>
+      <c r="G108" s="582"/>
+      <c r="H108" s="582"/>
+      <c r="I108" s="582"/>
+      <c r="J108" s="582"/>
+      <c r="K108" s="582"/>
+      <c r="L108" s="582"/>
+      <c r="M108" s="582"/>
+      <c r="N108" s="582"/>
+      <c r="O108" s="582"/>
+      <c r="P108" s="582"/>
+      <c r="Q108" s="582"/>
+      <c r="R108" s="582"/>
+      <c r="S108" s="582"/>
+      <c r="T108" s="582"/>
+      <c r="U108" s="582"/>
+      <c r="V108" s="582"/>
+      <c r="W108" s="582"/>
+      <c r="X108" s="582"/>
+      <c r="Y108" s="582"/>
+      <c r="Z108" s="582"/>
+      <c r="AA108" s="582"/>
+      <c r="AB108" s="582"/>
+      <c r="AC108" s="582"/>
+      <c r="AD108" s="582"/>
+      <c r="AE108" s="582"/>
+      <c r="AF108" s="582"/>
+      <c r="AG108" s="582"/>
+      <c r="AH108" s="582"/>
+      <c r="AI108" s="582"/>
+      <c r="AJ108" s="582"/>
+      <c r="AK108" s="582"/>
+      <c r="AL108" s="582"/>
+      <c r="AM108" s="582"/>
+      <c r="AN108" s="582"/>
+      <c r="AO108" s="582"/>
     </row>
     <row r="109" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="178"/>
@@ -53143,48 +53197,48 @@
     </row>
     <row r="111" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="616" t="s">
+      <c r="A112" s="596" t="s">
         <v>97</v>
       </c>
-      <c r="B112" s="617"/>
-      <c r="C112" s="617"/>
-      <c r="D112" s="617"/>
-      <c r="E112" s="617"/>
-      <c r="F112" s="617"/>
-      <c r="G112" s="617"/>
-      <c r="H112" s="618"/>
-      <c r="I112" s="618"/>
-      <c r="J112" s="618"/>
-      <c r="K112" s="618"/>
-      <c r="L112" s="617"/>
-      <c r="M112" s="617"/>
-      <c r="N112" s="617"/>
-      <c r="O112" s="617"/>
-      <c r="P112" s="617"/>
-      <c r="Q112" s="617"/>
-      <c r="R112" s="617"/>
-      <c r="S112" s="617"/>
-      <c r="T112" s="617"/>
-      <c r="U112" s="617"/>
-      <c r="V112" s="617"/>
-      <c r="W112" s="617"/>
-      <c r="X112" s="617"/>
-      <c r="Y112" s="617"/>
-      <c r="Z112" s="617"/>
-      <c r="AA112" s="617"/>
-      <c r="AB112" s="617"/>
-      <c r="AC112" s="617"/>
-      <c r="AD112" s="617"/>
-      <c r="AE112" s="617"/>
-      <c r="AF112" s="617"/>
-      <c r="AG112" s="617"/>
-      <c r="AH112" s="617"/>
-      <c r="AI112" s="617"/>
-      <c r="AJ112" s="617"/>
-      <c r="AK112" s="617"/>
-      <c r="AL112" s="617"/>
-      <c r="AM112" s="617"/>
-      <c r="AN112" s="619"/>
+      <c r="B112" s="597"/>
+      <c r="C112" s="597"/>
+      <c r="D112" s="597"/>
+      <c r="E112" s="597"/>
+      <c r="F112" s="597"/>
+      <c r="G112" s="597"/>
+      <c r="H112" s="598"/>
+      <c r="I112" s="598"/>
+      <c r="J112" s="598"/>
+      <c r="K112" s="598"/>
+      <c r="L112" s="597"/>
+      <c r="M112" s="597"/>
+      <c r="N112" s="597"/>
+      <c r="O112" s="597"/>
+      <c r="P112" s="597"/>
+      <c r="Q112" s="597"/>
+      <c r="R112" s="597"/>
+      <c r="S112" s="597"/>
+      <c r="T112" s="597"/>
+      <c r="U112" s="597"/>
+      <c r="V112" s="597"/>
+      <c r="W112" s="597"/>
+      <c r="X112" s="597"/>
+      <c r="Y112" s="597"/>
+      <c r="Z112" s="597"/>
+      <c r="AA112" s="597"/>
+      <c r="AB112" s="597"/>
+      <c r="AC112" s="597"/>
+      <c r="AD112" s="597"/>
+      <c r="AE112" s="597"/>
+      <c r="AF112" s="597"/>
+      <c r="AG112" s="597"/>
+      <c r="AH112" s="597"/>
+      <c r="AI112" s="597"/>
+      <c r="AJ112" s="597"/>
+      <c r="AK112" s="597"/>
+      <c r="AL112" s="597"/>
+      <c r="AM112" s="597"/>
+      <c r="AN112" s="599"/>
       <c r="AO112" s="8"/>
       <c r="AP112" s="8"/>
       <c r="AQ112" s="8"/>
@@ -53208,76 +53262,76 @@
       <c r="BI112" s="8"/>
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A113" s="620" t="s">
+      <c r="A113" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="B113" s="620" t="s">
+      <c r="B113" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="623" t="s">
+      <c r="C113" s="603" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="624"/>
-      <c r="E113" s="606" t="s">
+      <c r="D113" s="618"/>
+      <c r="E113" s="586" t="s">
         <v>18</v>
       </c>
-      <c r="F113" s="607"/>
-      <c r="G113" s="607"/>
-      <c r="H113" s="606" t="s">
+      <c r="F113" s="587"/>
+      <c r="G113" s="587"/>
+      <c r="H113" s="586" t="s">
         <v>19</v>
       </c>
-      <c r="I113" s="607"/>
-      <c r="J113" s="608"/>
-      <c r="K113" s="606" t="s">
+      <c r="I113" s="587"/>
+      <c r="J113" s="588"/>
+      <c r="K113" s="586" t="s">
         <v>20</v>
       </c>
-      <c r="L113" s="607"/>
-      <c r="M113" s="608"/>
-      <c r="N113" s="606" t="s">
+      <c r="L113" s="587"/>
+      <c r="M113" s="588"/>
+      <c r="N113" s="586" t="s">
         <v>21</v>
       </c>
-      <c r="O113" s="607"/>
-      <c r="P113" s="608"/>
-      <c r="Q113" s="606" t="s">
+      <c r="O113" s="587"/>
+      <c r="P113" s="588"/>
+      <c r="Q113" s="586" t="s">
         <v>22</v>
       </c>
-      <c r="R113" s="607"/>
-      <c r="S113" s="608"/>
-      <c r="T113" s="606" t="s">
+      <c r="R113" s="587"/>
+      <c r="S113" s="588"/>
+      <c r="T113" s="586" t="s">
         <v>23</v>
       </c>
-      <c r="U113" s="607"/>
-      <c r="V113" s="608"/>
-      <c r="W113" s="606" t="s">
+      <c r="U113" s="587"/>
+      <c r="V113" s="588"/>
+      <c r="W113" s="586" t="s">
         <v>24</v>
       </c>
-      <c r="X113" s="607"/>
-      <c r="Y113" s="608"/>
-      <c r="Z113" s="606" t="s">
+      <c r="X113" s="587"/>
+      <c r="Y113" s="588"/>
+      <c r="Z113" s="586" t="s">
         <v>25</v>
       </c>
-      <c r="AA113" s="607"/>
-      <c r="AB113" s="608"/>
-      <c r="AC113" s="606" t="s">
+      <c r="AA113" s="587"/>
+      <c r="AB113" s="588"/>
+      <c r="AC113" s="586" t="s">
         <v>26</v>
       </c>
-      <c r="AD113" s="607"/>
-      <c r="AE113" s="608"/>
-      <c r="AF113" s="606" t="s">
+      <c r="AD113" s="587"/>
+      <c r="AE113" s="588"/>
+      <c r="AF113" s="586" t="s">
         <v>27</v>
       </c>
-      <c r="AG113" s="607"/>
-      <c r="AH113" s="608"/>
-      <c r="AI113" s="606" t="s">
+      <c r="AG113" s="587"/>
+      <c r="AH113" s="588"/>
+      <c r="AI113" s="586" t="s">
         <v>28</v>
       </c>
-      <c r="AJ113" s="607"/>
-      <c r="AK113" s="608"/>
-      <c r="AL113" s="606" t="s">
+      <c r="AJ113" s="587"/>
+      <c r="AK113" s="588"/>
+      <c r="AL113" s="586" t="s">
         <v>29</v>
       </c>
-      <c r="AM113" s="607"/>
-      <c r="AN113" s="608"/>
+      <c r="AM113" s="587"/>
+      <c r="AN113" s="588"/>
       <c r="AO113" s="8"/>
       <c r="AP113" s="8"/>
       <c r="AQ113" s="8"/>
@@ -53301,74 +53355,74 @@
       <c r="BI113" s="8"/>
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A114" s="621"/>
-      <c r="B114" s="621"/>
-      <c r="C114" s="609" t="s">
+      <c r="A114" s="601"/>
+      <c r="B114" s="601"/>
+      <c r="C114" s="589" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="611" t="s">
+      <c r="D114" s="621" t="s">
         <v>17</v>
       </c>
-      <c r="E114" s="613">
+      <c r="E114" s="593">
         <v>0.02</v>
       </c>
-      <c r="F114" s="614"/>
-      <c r="G114" s="614"/>
-      <c r="H114" s="613">
+      <c r="F114" s="594"/>
+      <c r="G114" s="594"/>
+      <c r="H114" s="593">
         <v>0.04</v>
       </c>
-      <c r="I114" s="614"/>
-      <c r="J114" s="615"/>
-      <c r="K114" s="613">
+      <c r="I114" s="594"/>
+      <c r="J114" s="595"/>
+      <c r="K114" s="593">
         <v>0.04</v>
       </c>
-      <c r="L114" s="614"/>
-      <c r="M114" s="615"/>
-      <c r="N114" s="613">
+      <c r="L114" s="594"/>
+      <c r="M114" s="595"/>
+      <c r="N114" s="593">
         <v>0.05</v>
       </c>
-      <c r="O114" s="614"/>
-      <c r="P114" s="615"/>
-      <c r="Q114" s="613">
+      <c r="O114" s="594"/>
+      <c r="P114" s="595"/>
+      <c r="Q114" s="593">
         <v>0.06</v>
       </c>
-      <c r="R114" s="614"/>
-      <c r="S114" s="615"/>
-      <c r="T114" s="613">
+      <c r="R114" s="594"/>
+      <c r="S114" s="595"/>
+      <c r="T114" s="593">
         <v>0.08</v>
       </c>
-      <c r="U114" s="614"/>
-      <c r="V114" s="615"/>
-      <c r="W114" s="613">
+      <c r="U114" s="594"/>
+      <c r="V114" s="595"/>
+      <c r="W114" s="593">
         <v>0.1</v>
       </c>
-      <c r="X114" s="614"/>
-      <c r="Y114" s="615"/>
-      <c r="Z114" s="613">
+      <c r="X114" s="594"/>
+      <c r="Y114" s="595"/>
+      <c r="Z114" s="593">
         <v>0.11</v>
       </c>
-      <c r="AA114" s="614"/>
-      <c r="AB114" s="615"/>
-      <c r="AC114" s="613">
+      <c r="AA114" s="594"/>
+      <c r="AB114" s="595"/>
+      <c r="AC114" s="593">
         <v>0.11</v>
       </c>
-      <c r="AD114" s="614"/>
-      <c r="AE114" s="615"/>
-      <c r="AF114" s="613">
+      <c r="AD114" s="594"/>
+      <c r="AE114" s="595"/>
+      <c r="AF114" s="593">
         <v>0.12</v>
       </c>
-      <c r="AG114" s="614"/>
-      <c r="AH114" s="615"/>
-      <c r="AI114" s="613">
+      <c r="AG114" s="594"/>
+      <c r="AH114" s="595"/>
+      <c r="AI114" s="593">
         <v>0.13</v>
       </c>
-      <c r="AJ114" s="614"/>
-      <c r="AK114" s="615"/>
-      <c r="AL114" s="613">
+      <c r="AJ114" s="594"/>
+      <c r="AK114" s="595"/>
+      <c r="AL114" s="593">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM114" s="614"/>
-      <c r="AN114" s="615"/>
+      <c r="AM114" s="594"/>
+      <c r="AN114" s="595"/>
       <c r="AO114" s="8"/>
       <c r="AP114" s="8"/>
       <c r="AQ114" s="8"/>
@@ -53392,10 +53446,10 @@
       <c r="BI114" s="8"/>
     </row>
     <row r="115" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="622"/>
-      <c r="B115" s="622"/>
-      <c r="C115" s="610"/>
-      <c r="D115" s="612"/>
+      <c r="A115" s="602"/>
+      <c r="B115" s="602"/>
+      <c r="C115" s="590"/>
+      <c r="D115" s="622"/>
       <c r="E115" s="223" t="s">
         <v>116</v>
       </c>
@@ -54007,10 +54061,10 @@
       </c>
     </row>
     <row r="119" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="604" t="s">
+      <c r="A119" s="584" t="s">
         <v>46</v>
       </c>
-      <c r="B119" s="605"/>
+      <c r="B119" s="585"/>
       <c r="C119" s="81">
         <f>SUM(C116:C118)</f>
         <v>20546</v>
@@ -54095,32 +54149,32 @@
     </row>
     <row r="147" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:40" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="593" t="s">
+      <c r="A148" s="605" t="s">
         <v>99</v>
       </c>
-      <c r="B148" s="594"/>
-      <c r="C148" s="594"/>
-      <c r="D148" s="594"/>
-      <c r="E148" s="594"/>
-      <c r="F148" s="594"/>
-      <c r="G148" s="594"/>
-      <c r="H148" s="594"/>
-      <c r="I148" s="594"/>
-      <c r="J148" s="594"/>
-      <c r="K148" s="594"/>
-      <c r="L148" s="594"/>
-      <c r="M148" s="594"/>
-      <c r="N148" s="594"/>
-      <c r="O148" s="594"/>
-      <c r="P148" s="594"/>
-      <c r="Q148" s="594"/>
-      <c r="R148" s="594"/>
-      <c r="S148" s="594"/>
-      <c r="T148" s="594"/>
-      <c r="U148" s="594"/>
-      <c r="V148" s="594"/>
-      <c r="W148" s="594"/>
-      <c r="X148" s="595"/>
+      <c r="B148" s="606"/>
+      <c r="C148" s="606"/>
+      <c r="D148" s="606"/>
+      <c r="E148" s="606"/>
+      <c r="F148" s="606"/>
+      <c r="G148" s="606"/>
+      <c r="H148" s="606"/>
+      <c r="I148" s="606"/>
+      <c r="J148" s="606"/>
+      <c r="K148" s="606"/>
+      <c r="L148" s="606"/>
+      <c r="M148" s="606"/>
+      <c r="N148" s="606"/>
+      <c r="O148" s="606"/>
+      <c r="P148" s="606"/>
+      <c r="Q148" s="606"/>
+      <c r="R148" s="606"/>
+      <c r="S148" s="606"/>
+      <c r="T148" s="606"/>
+      <c r="U148" s="606"/>
+      <c r="V148" s="606"/>
+      <c r="W148" s="606"/>
+      <c r="X148" s="617"/>
       <c r="Y148" s="149"/>
       <c r="Z148" s="149"/>
       <c r="AA148" s="149"/>
@@ -54139,73 +54193,73 @@
       <c r="AN148" s="99"/>
     </row>
     <row r="149" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="596" t="s">
+      <c r="B149" s="632" t="s">
         <v>71</v>
       </c>
-      <c r="C149" s="598" t="s">
+      <c r="C149" s="610" t="s">
         <v>72</v>
       </c>
-      <c r="D149" s="600" t="s">
+      <c r="D149" s="633" t="s">
         <v>73</v>
       </c>
-      <c r="E149" s="598" t="s">
+      <c r="E149" s="610" t="s">
         <v>74</v>
       </c>
-      <c r="F149" s="598" t="s">
+      <c r="F149" s="610" t="s">
         <v>75</v>
       </c>
-      <c r="G149" s="598" t="s">
+      <c r="G149" s="610" t="s">
         <v>76</v>
       </c>
-      <c r="H149" s="598" t="s">
+      <c r="H149" s="610" t="s">
         <v>77</v>
       </c>
-      <c r="I149" s="598" t="s">
+      <c r="I149" s="610" t="s">
         <v>78</v>
       </c>
-      <c r="J149" s="598" t="s">
+      <c r="J149" s="610" t="s">
         <v>79</v>
       </c>
-      <c r="K149" s="583" t="s">
+      <c r="K149" s="582" t="s">
         <v>80</v>
       </c>
-      <c r="L149" s="598" t="s">
+      <c r="L149" s="610" t="s">
         <v>81</v>
       </c>
-      <c r="M149" s="598" t="s">
+      <c r="M149" s="610" t="s">
         <v>82</v>
       </c>
-      <c r="N149" s="598" t="s">
+      <c r="N149" s="610" t="s">
         <v>83</v>
       </c>
-      <c r="O149" s="598" t="s">
+      <c r="O149" s="610" t="s">
         <v>84</v>
       </c>
-      <c r="P149" s="598" t="s">
+      <c r="P149" s="610" t="s">
         <v>85</v>
       </c>
-      <c r="Q149" s="598" t="s">
+      <c r="Q149" s="610" t="s">
         <v>86</v>
       </c>
-      <c r="R149" s="603" t="s">
+      <c r="R149" s="619" t="s">
         <v>87</v>
       </c>
-      <c r="S149" s="598" t="s">
+      <c r="S149" s="610" t="s">
         <v>88</v>
       </c>
-      <c r="T149" s="598" t="s">
+      <c r="T149" s="610" t="s">
         <v>89</v>
       </c>
-      <c r="U149" s="598" t="s">
+      <c r="U149" s="610" t="s">
         <v>90</v>
       </c>
-      <c r="V149" s="598" t="s">
+      <c r="V149" s="610" t="s">
         <v>91</v>
       </c>
-      <c r="W149" s="598" t="s">
+      <c r="W149" s="610" t="s">
         <v>92</v>
       </c>
-      <c r="X149" s="598" t="s">
+      <c r="X149" s="610" t="s">
         <v>93</v>
       </c>
       <c r="Y149" s="24"/>
@@ -54226,29 +54280,29 @@
       <c r="AN149" s="84"/>
     </row>
     <row r="150" spans="1:40" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="597"/>
-      <c r="C150" s="599"/>
-      <c r="D150" s="601"/>
-      <c r="E150" s="599"/>
-      <c r="F150" s="599"/>
-      <c r="G150" s="599"/>
-      <c r="H150" s="599"/>
-      <c r="I150" s="599"/>
-      <c r="J150" s="599"/>
-      <c r="K150" s="602"/>
-      <c r="L150" s="599"/>
-      <c r="M150" s="599"/>
-      <c r="N150" s="599"/>
-      <c r="O150" s="599"/>
-      <c r="P150" s="599"/>
-      <c r="Q150" s="599"/>
-      <c r="R150" s="602"/>
-      <c r="S150" s="599"/>
-      <c r="T150" s="599"/>
-      <c r="U150" s="599"/>
-      <c r="V150" s="599"/>
-      <c r="W150" s="599"/>
-      <c r="X150" s="599"/>
+      <c r="B150" s="613"/>
+      <c r="C150" s="611"/>
+      <c r="D150" s="634"/>
+      <c r="E150" s="611"/>
+      <c r="F150" s="611"/>
+      <c r="G150" s="611"/>
+      <c r="H150" s="611"/>
+      <c r="I150" s="611"/>
+      <c r="J150" s="611"/>
+      <c r="K150" s="620"/>
+      <c r="L150" s="611"/>
+      <c r="M150" s="611"/>
+      <c r="N150" s="611"/>
+      <c r="O150" s="611"/>
+      <c r="P150" s="611"/>
+      <c r="Q150" s="611"/>
+      <c r="R150" s="620"/>
+      <c r="S150" s="611"/>
+      <c r="T150" s="611"/>
+      <c r="U150" s="611"/>
+      <c r="V150" s="611"/>
+      <c r="W150" s="611"/>
+      <c r="X150" s="611"/>
       <c r="AA150" s="24"/>
       <c r="AB150" s="24"/>
       <c r="AC150" s="94"/>
@@ -54624,6 +54678,137 @@
     </row>
   </sheetData>
   <mergeCells count="155">
+    <mergeCell ref="Z104:AB106"/>
+    <mergeCell ref="C107:AO108"/>
+    <mergeCell ref="F6:I7"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A148:X148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="M149:M150"/>
+    <mergeCell ref="N149:N150"/>
+    <mergeCell ref="O149:O150"/>
+    <mergeCell ref="P149:P150"/>
+    <mergeCell ref="T149:T150"/>
+    <mergeCell ref="U149:U150"/>
+    <mergeCell ref="V149:V150"/>
+    <mergeCell ref="W149:W150"/>
+    <mergeCell ref="X149:X150"/>
+    <mergeCell ref="Q149:Q150"/>
+    <mergeCell ref="R149:R150"/>
+    <mergeCell ref="S149:S150"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="AF113:AH113"/>
+    <mergeCell ref="AI113:AK113"/>
+    <mergeCell ref="AL113:AN113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="Q114:S114"/>
+    <mergeCell ref="T114:V114"/>
+    <mergeCell ref="W114:Y114"/>
+    <mergeCell ref="Z114:AB114"/>
+    <mergeCell ref="AC114:AE114"/>
+    <mergeCell ref="AF114:AH114"/>
+    <mergeCell ref="AI114:AK114"/>
+    <mergeCell ref="A112:AN112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="T113:V113"/>
+    <mergeCell ref="W113:Y113"/>
+    <mergeCell ref="Z113:AB113"/>
+    <mergeCell ref="AC113:AE113"/>
+    <mergeCell ref="AL114:AN114"/>
+    <mergeCell ref="A101:X101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="V102:V103"/>
+    <mergeCell ref="W102:W103"/>
+    <mergeCell ref="X102:X103"/>
+    <mergeCell ref="AI17:AK17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A15:AN15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="AI16:AK16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="AF65:AH65"/>
+    <mergeCell ref="AI65:AK65"/>
     <mergeCell ref="C58:AO59"/>
     <mergeCell ref="Z55:AB57"/>
     <mergeCell ref="A71:B71"/>
@@ -54648,137 +54833,6 @@
     <mergeCell ref="A64:AN64"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="AF65:AH65"/>
-    <mergeCell ref="AI65:AK65"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="AI17:AK17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A15:AN15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="AI16:AK16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A101:X101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="V102:V103"/>
-    <mergeCell ref="W102:W103"/>
-    <mergeCell ref="X102:X103"/>
-    <mergeCell ref="A112:AN112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="N113:P113"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="T113:V113"/>
-    <mergeCell ref="W113:Y113"/>
-    <mergeCell ref="Z113:AB113"/>
-    <mergeCell ref="AC113:AE113"/>
-    <mergeCell ref="AL114:AN114"/>
-    <mergeCell ref="X149:X150"/>
-    <mergeCell ref="Q149:Q150"/>
-    <mergeCell ref="R149:R150"/>
-    <mergeCell ref="S149:S150"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="AF113:AH113"/>
-    <mergeCell ref="AI113:AK113"/>
-    <mergeCell ref="AL113:AN113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="Q114:S114"/>
-    <mergeCell ref="T114:V114"/>
-    <mergeCell ref="W114:Y114"/>
-    <mergeCell ref="Z114:AB114"/>
-    <mergeCell ref="AC114:AE114"/>
-    <mergeCell ref="AF114:AH114"/>
-    <mergeCell ref="AI114:AK114"/>
-    <mergeCell ref="Z104:AB106"/>
-    <mergeCell ref="C107:AO108"/>
-    <mergeCell ref="F6:I7"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A148:X148"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="M149:M150"/>
-    <mergeCell ref="N149:N150"/>
-    <mergeCell ref="O149:O150"/>
-    <mergeCell ref="P149:P150"/>
-    <mergeCell ref="T149:T150"/>
-    <mergeCell ref="U149:U150"/>
-    <mergeCell ref="V149:V150"/>
-    <mergeCell ref="W149:W150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -54787,7 +54841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -54837,11 +54891,11 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="616" t="s">
+      <c r="B7" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="617"/>
-      <c r="D7" s="619"/>
+      <c r="C7" s="597"/>
+      <c r="D7" s="599"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="166">
@@ -54985,7 +55039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -55033,16 +55087,16 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="616" t="s">
+      <c r="C3" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="617"/>
-      <c r="E3" s="619"/>
-      <c r="G3" s="616" t="s">
+      <c r="D3" s="597"/>
+      <c r="E3" s="599"/>
+      <c r="G3" s="596" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="617"/>
-      <c r="I3" s="619"/>
+      <c r="H3" s="597"/>
+      <c r="I3" s="599"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="202">
@@ -57140,10 +57194,10 @@
     <mergeCell ref="B17:K17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="B16" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="B17" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B17" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -57152,7 +57206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -58003,8 +58057,8 @@
     <mergeCell ref="B15:K15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" location="/addService" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" location="commercial?billing=yearly" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="B14" r:id="rId1" location="/addService"/>
+    <hyperlink ref="B15" r:id="rId2" location="commercial?billing=yearly"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -58013,7 +58067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF189"/>
   <sheetViews>
     <sheetView topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -58429,19 +58483,19 @@
     </row>
     <row r="11" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="616" t="s">
+      <c r="B11" s="596" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="617"/>
-      <c r="D11" s="617"/>
-      <c r="E11" s="617"/>
-      <c r="F11" s="617"/>
-      <c r="G11" s="617"/>
-      <c r="H11" s="617"/>
-      <c r="I11" s="617"/>
-      <c r="J11" s="617"/>
-      <c r="K11" s="617"/>
-      <c r="L11" s="619"/>
+      <c r="C11" s="597"/>
+      <c r="D11" s="597"/>
+      <c r="E11" s="597"/>
+      <c r="F11" s="597"/>
+      <c r="G11" s="597"/>
+      <c r="H11" s="597"/>
+      <c r="I11" s="597"/>
+      <c r="J11" s="597"/>
+      <c r="K11" s="597"/>
+      <c r="L11" s="599"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -58465,13 +58519,13 @@
     </row>
     <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="667" t="s">
+      <c r="B12" s="672" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="669" t="s">
+      <c r="C12" s="674" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="671" t="s">
+      <c r="D12" s="676" t="s">
         <v>123</v>
       </c>
       <c r="E12" s="269" t="s">
@@ -58492,10 +58546,10 @@
       <c r="J12" s="272" t="s">
         <v>129</v>
       </c>
-      <c r="K12" s="673" t="s">
+      <c r="K12" s="678" t="s">
         <v>130</v>
       </c>
-      <c r="L12" s="673" t="s">
+      <c r="L12" s="678" t="s">
         <v>131</v>
       </c>
       <c r="M12" s="1"/>
@@ -58521,9 +58575,9 @@
     </row>
     <row r="13" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="668"/>
-      <c r="C13" s="670"/>
-      <c r="D13" s="672"/>
+      <c r="B13" s="673"/>
+      <c r="C13" s="675"/>
+      <c r="D13" s="677"/>
       <c r="E13" s="273">
         <v>0.1047</v>
       </c>
@@ -58542,8 +58596,8 @@
       <c r="J13" s="276">
         <v>0.03</v>
       </c>
-      <c r="K13" s="674"/>
-      <c r="L13" s="674"/>
+      <c r="K13" s="679"/>
+      <c r="L13" s="679"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -58630,7 +58684,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="675" t="s">
+      <c r="B15" s="680" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="296" t="s">
@@ -58693,7 +58747,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="676"/>
+      <c r="B16" s="681"/>
       <c r="C16" s="298" t="s">
         <v>73</v>
       </c>
@@ -58754,7 +58808,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="676"/>
+      <c r="B17" s="681"/>
       <c r="C17" s="298" t="s">
         <v>74</v>
       </c>
@@ -58815,7 +58869,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="676"/>
+      <c r="B18" s="681"/>
       <c r="C18" s="298" t="s">
         <v>75</v>
       </c>
@@ -58876,7 +58930,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="677"/>
+      <c r="B19" s="682"/>
       <c r="C19" s="299" t="s">
         <v>76</v>
       </c>
@@ -58937,7 +58991,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="677"/>
+      <c r="B20" s="682"/>
       <c r="C20" s="298" t="s">
         <v>145</v>
       </c>
@@ -58998,7 +59052,7 @@
     </row>
     <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="678"/>
+      <c r="B21" s="683"/>
       <c r="C21" s="300" t="s">
         <v>78</v>
       </c>
@@ -59059,7 +59113,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="679" t="s">
+      <c r="B22" s="684" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="292" t="s">
@@ -59122,7 +59176,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="680"/>
+      <c r="B23" s="685"/>
       <c r="C23" s="293" t="s">
         <v>82</v>
       </c>
@@ -59183,7 +59237,7 @@
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="681"/>
+      <c r="B24" s="686"/>
       <c r="C24" s="294" t="s">
         <v>146</v>
       </c>
@@ -59244,7 +59298,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="682" t="s">
+      <c r="B25" s="687" t="s">
         <v>135</v>
       </c>
       <c r="C25" s="292" t="s">
@@ -59307,7 +59361,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="683"/>
+      <c r="B26" s="688"/>
       <c r="C26" s="266" t="s">
         <v>85</v>
       </c>
@@ -59368,7 +59422,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="684"/>
+      <c r="B27" s="689"/>
       <c r="C27" s="266" t="s">
         <v>86</v>
       </c>
@@ -59429,7 +59483,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="684"/>
+      <c r="B28" s="689"/>
       <c r="C28" s="293" t="s">
         <v>87</v>
       </c>
@@ -59490,7 +59544,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="684"/>
+      <c r="B29" s="689"/>
       <c r="C29" s="293" t="s">
         <v>88</v>
       </c>
@@ -59551,7 +59605,7 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="681"/>
+      <c r="B30" s="686"/>
       <c r="C30" s="294" t="s">
         <v>89</v>
       </c>
@@ -59612,7 +59666,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="682" t="s">
+      <c r="B31" s="687" t="s">
         <v>148</v>
       </c>
       <c r="C31" s="292" t="s">
@@ -59675,7 +59729,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="683"/>
+      <c r="B32" s="688"/>
       <c r="C32" s="266" t="s">
         <v>91</v>
       </c>
@@ -59736,7 +59790,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="684"/>
+      <c r="B33" s="689"/>
       <c r="C33" s="293" t="s">
         <v>149</v>
       </c>
@@ -59797,7 +59851,7 @@
     </row>
     <row r="34" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="681"/>
+      <c r="B34" s="686"/>
       <c r="C34" s="294" t="s">
         <v>93</v>
       </c>
@@ -59858,7 +59912,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="675" t="s">
+      <c r="B35" s="680" t="s">
         <v>150</v>
       </c>
       <c r="C35" s="313" t="s">
@@ -59921,7 +59975,7 @@
     </row>
     <row r="36" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="678"/>
+      <c r="B36" s="683"/>
       <c r="C36" s="297" t="s">
         <v>80</v>
       </c>
@@ -60084,34 +60138,34 @@
     </row>
     <row r="40" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
-      <c r="B40" s="664" t="s">
+      <c r="B40" s="667" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="665"/>
-      <c r="D40" s="665"/>
-      <c r="E40" s="665"/>
-      <c r="F40" s="665"/>
-      <c r="G40" s="665"/>
-      <c r="H40" s="665"/>
-      <c r="I40" s="665"/>
-      <c r="J40" s="665"/>
-      <c r="K40" s="665"/>
-      <c r="L40" s="665"/>
-      <c r="M40" s="665"/>
-      <c r="N40" s="665"/>
-      <c r="O40" s="665"/>
-      <c r="P40" s="665"/>
-      <c r="Q40" s="665"/>
-      <c r="R40" s="665"/>
-      <c r="S40" s="665"/>
-      <c r="T40" s="665"/>
-      <c r="U40" s="665"/>
-      <c r="V40" s="665"/>
-      <c r="W40" s="665"/>
-      <c r="X40" s="665"/>
-      <c r="Y40" s="665"/>
-      <c r="Z40" s="665"/>
-      <c r="AA40" s="666"/>
+      <c r="C40" s="668"/>
+      <c r="D40" s="668"/>
+      <c r="E40" s="668"/>
+      <c r="F40" s="668"/>
+      <c r="G40" s="668"/>
+      <c r="H40" s="668"/>
+      <c r="I40" s="668"/>
+      <c r="J40" s="668"/>
+      <c r="K40" s="668"/>
+      <c r="L40" s="668"/>
+      <c r="M40" s="668"/>
+      <c r="N40" s="668"/>
+      <c r="O40" s="668"/>
+      <c r="P40" s="668"/>
+      <c r="Q40" s="668"/>
+      <c r="R40" s="668"/>
+      <c r="S40" s="668"/>
+      <c r="T40" s="668"/>
+      <c r="U40" s="668"/>
+      <c r="V40" s="668"/>
+      <c r="W40" s="668"/>
+      <c r="X40" s="668"/>
+      <c r="Y40" s="668"/>
+      <c r="Z40" s="668"/>
+      <c r="AA40" s="669"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
@@ -60120,58 +60174,58 @@
     </row>
     <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="686" t="s">
+      <c r="B41" s="670" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="685" t="s">
+      <c r="C41" s="664" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="685"/>
-      <c r="E41" s="685" t="s">
+      <c r="D41" s="664"/>
+      <c r="E41" s="664" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="685"/>
-      <c r="G41" s="685" t="s">
+      <c r="F41" s="664"/>
+      <c r="G41" s="664" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="685"/>
-      <c r="I41" s="685" t="s">
+      <c r="H41" s="664"/>
+      <c r="I41" s="664" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="685"/>
-      <c r="K41" s="685" t="s">
+      <c r="J41" s="664"/>
+      <c r="K41" s="664" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="685"/>
-      <c r="M41" s="685" t="s">
+      <c r="L41" s="664"/>
+      <c r="M41" s="664" t="s">
         <v>136</v>
       </c>
-      <c r="N41" s="685"/>
-      <c r="O41" s="685" t="s">
+      <c r="N41" s="664"/>
+      <c r="O41" s="664" t="s">
         <v>24</v>
       </c>
-      <c r="P41" s="685"/>
-      <c r="Q41" s="685" t="s">
+      <c r="P41" s="664"/>
+      <c r="Q41" s="664" t="s">
         <v>25</v>
       </c>
-      <c r="R41" s="685"/>
-      <c r="S41" s="685" t="s">
+      <c r="R41" s="664"/>
+      <c r="S41" s="664" t="s">
         <v>26</v>
       </c>
-      <c r="T41" s="685"/>
-      <c r="U41" s="685" t="s">
+      <c r="T41" s="664"/>
+      <c r="U41" s="664" t="s">
         <v>27</v>
       </c>
-      <c r="V41" s="685"/>
-      <c r="W41" s="685" t="s">
+      <c r="V41" s="664"/>
+      <c r="W41" s="664" t="s">
         <v>28</v>
       </c>
-      <c r="X41" s="685"/>
-      <c r="Y41" s="685" t="s">
+      <c r="X41" s="664"/>
+      <c r="Y41" s="664" t="s">
         <v>137</v>
       </c>
-      <c r="Z41" s="685"/>
-      <c r="AA41" s="688" t="s">
+      <c r="Z41" s="664"/>
+      <c r="AA41" s="665" t="s">
         <v>138</v>
       </c>
       <c r="AB41" s="1"/>
@@ -60182,7 +60236,7 @@
     </row>
     <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="687"/>
+      <c r="B42" s="671"/>
       <c r="C42" s="281" t="s">
         <v>37</v>
       </c>
@@ -60255,7 +60309,7 @@
       <c r="Z42" s="281" t="s">
         <v>139</v>
       </c>
-      <c r="AA42" s="689"/>
+      <c r="AA42" s="666"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -60972,34 +61026,34 @@
     </row>
     <row r="52" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
-      <c r="B52" s="664" t="s">
+      <c r="B52" s="667" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="665"/>
-      <c r="D52" s="665"/>
-      <c r="E52" s="665"/>
-      <c r="F52" s="665"/>
-      <c r="G52" s="665"/>
-      <c r="H52" s="665"/>
-      <c r="I52" s="665"/>
-      <c r="J52" s="665"/>
-      <c r="K52" s="665"/>
-      <c r="L52" s="665"/>
-      <c r="M52" s="665"/>
-      <c r="N52" s="665"/>
-      <c r="O52" s="665"/>
-      <c r="P52" s="665"/>
-      <c r="Q52" s="665"/>
-      <c r="R52" s="665"/>
-      <c r="S52" s="665"/>
-      <c r="T52" s="665"/>
-      <c r="U52" s="665"/>
-      <c r="V52" s="665"/>
-      <c r="W52" s="665"/>
-      <c r="X52" s="665"/>
-      <c r="Y52" s="665"/>
-      <c r="Z52" s="665"/>
-      <c r="AA52" s="666"/>
+      <c r="C52" s="668"/>
+      <c r="D52" s="668"/>
+      <c r="E52" s="668"/>
+      <c r="F52" s="668"/>
+      <c r="G52" s="668"/>
+      <c r="H52" s="668"/>
+      <c r="I52" s="668"/>
+      <c r="J52" s="668"/>
+      <c r="K52" s="668"/>
+      <c r="L52" s="668"/>
+      <c r="M52" s="668"/>
+      <c r="N52" s="668"/>
+      <c r="O52" s="668"/>
+      <c r="P52" s="668"/>
+      <c r="Q52" s="668"/>
+      <c r="R52" s="668"/>
+      <c r="S52" s="668"/>
+      <c r="T52" s="668"/>
+      <c r="U52" s="668"/>
+      <c r="V52" s="668"/>
+      <c r="W52" s="668"/>
+      <c r="X52" s="668"/>
+      <c r="Y52" s="668"/>
+      <c r="Z52" s="668"/>
+      <c r="AA52" s="669"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
@@ -61008,58 +61062,58 @@
     </row>
     <row r="53" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="686" t="s">
+      <c r="B53" s="670" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="685" t="s">
+      <c r="C53" s="664" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="685"/>
-      <c r="E53" s="685" t="s">
+      <c r="D53" s="664"/>
+      <c r="E53" s="664" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="685"/>
-      <c r="G53" s="685" t="s">
+      <c r="F53" s="664"/>
+      <c r="G53" s="664" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="685"/>
-      <c r="I53" s="685" t="s">
+      <c r="H53" s="664"/>
+      <c r="I53" s="664" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="685"/>
-      <c r="K53" s="685" t="s">
+      <c r="J53" s="664"/>
+      <c r="K53" s="664" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="685"/>
-      <c r="M53" s="685" t="s">
+      <c r="L53" s="664"/>
+      <c r="M53" s="664" t="s">
         <v>136</v>
       </c>
-      <c r="N53" s="685"/>
-      <c r="O53" s="685" t="s">
+      <c r="N53" s="664"/>
+      <c r="O53" s="664" t="s">
         <v>24</v>
       </c>
-      <c r="P53" s="685"/>
-      <c r="Q53" s="685" t="s">
+      <c r="P53" s="664"/>
+      <c r="Q53" s="664" t="s">
         <v>25</v>
       </c>
-      <c r="R53" s="685"/>
-      <c r="S53" s="685" t="s">
+      <c r="R53" s="664"/>
+      <c r="S53" s="664" t="s">
         <v>26</v>
       </c>
-      <c r="T53" s="685"/>
-      <c r="U53" s="685" t="s">
+      <c r="T53" s="664"/>
+      <c r="U53" s="664" t="s">
         <v>27</v>
       </c>
-      <c r="V53" s="685"/>
-      <c r="W53" s="685" t="s">
+      <c r="V53" s="664"/>
+      <c r="W53" s="664" t="s">
         <v>28</v>
       </c>
-      <c r="X53" s="685"/>
-      <c r="Y53" s="685" t="s">
+      <c r="X53" s="664"/>
+      <c r="Y53" s="664" t="s">
         <v>137</v>
       </c>
-      <c r="Z53" s="685"/>
-      <c r="AA53" s="688" t="s">
+      <c r="Z53" s="664"/>
+      <c r="AA53" s="665" t="s">
         <v>138</v>
       </c>
       <c r="AB53" s="1"/>
@@ -61070,7 +61124,7 @@
     </row>
     <row r="54" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="687"/>
+      <c r="B54" s="671"/>
       <c r="C54" s="281" t="s">
         <v>37</v>
       </c>
@@ -61143,7 +61197,7 @@
       <c r="Z54" s="281" t="s">
         <v>139</v>
       </c>
-      <c r="AA54" s="689"/>
+      <c r="AA54" s="666"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
@@ -62024,34 +62078,34 @@
     </row>
     <row r="65" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
-      <c r="B65" s="664" t="s">
+      <c r="B65" s="667" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="665"/>
-      <c r="D65" s="665"/>
-      <c r="E65" s="665"/>
-      <c r="F65" s="665"/>
-      <c r="G65" s="665"/>
-      <c r="H65" s="665"/>
-      <c r="I65" s="665"/>
-      <c r="J65" s="665"/>
-      <c r="K65" s="665"/>
-      <c r="L65" s="665"/>
-      <c r="M65" s="665"/>
-      <c r="N65" s="665"/>
-      <c r="O65" s="665"/>
-      <c r="P65" s="665"/>
-      <c r="Q65" s="665"/>
-      <c r="R65" s="665"/>
-      <c r="S65" s="665"/>
-      <c r="T65" s="665"/>
-      <c r="U65" s="665"/>
-      <c r="V65" s="665"/>
-      <c r="W65" s="665"/>
-      <c r="X65" s="665"/>
-      <c r="Y65" s="665"/>
-      <c r="Z65" s="665"/>
-      <c r="AA65" s="666"/>
+      <c r="C65" s="668"/>
+      <c r="D65" s="668"/>
+      <c r="E65" s="668"/>
+      <c r="F65" s="668"/>
+      <c r="G65" s="668"/>
+      <c r="H65" s="668"/>
+      <c r="I65" s="668"/>
+      <c r="J65" s="668"/>
+      <c r="K65" s="668"/>
+      <c r="L65" s="668"/>
+      <c r="M65" s="668"/>
+      <c r="N65" s="668"/>
+      <c r="O65" s="668"/>
+      <c r="P65" s="668"/>
+      <c r="Q65" s="668"/>
+      <c r="R65" s="668"/>
+      <c r="S65" s="668"/>
+      <c r="T65" s="668"/>
+      <c r="U65" s="668"/>
+      <c r="V65" s="668"/>
+      <c r="W65" s="668"/>
+      <c r="X65" s="668"/>
+      <c r="Y65" s="668"/>
+      <c r="Z65" s="668"/>
+      <c r="AA65" s="669"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
@@ -62060,58 +62114,58 @@
     </row>
     <row r="66" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="686" t="s">
+      <c r="B66" s="670" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="685" t="s">
+      <c r="C66" s="664" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="685"/>
-      <c r="E66" s="685" t="s">
+      <c r="D66" s="664"/>
+      <c r="E66" s="664" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="685"/>
-      <c r="G66" s="685" t="s">
+      <c r="F66" s="664"/>
+      <c r="G66" s="664" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="685"/>
-      <c r="I66" s="685" t="s">
+      <c r="H66" s="664"/>
+      <c r="I66" s="664" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="685"/>
-      <c r="K66" s="685" t="s">
+      <c r="J66" s="664"/>
+      <c r="K66" s="664" t="s">
         <v>22</v>
       </c>
-      <c r="L66" s="685"/>
-      <c r="M66" s="685" t="s">
+      <c r="L66" s="664"/>
+      <c r="M66" s="664" t="s">
         <v>136</v>
       </c>
-      <c r="N66" s="685"/>
-      <c r="O66" s="685" t="s">
+      <c r="N66" s="664"/>
+      <c r="O66" s="664" t="s">
         <v>24</v>
       </c>
-      <c r="P66" s="685"/>
-      <c r="Q66" s="685" t="s">
+      <c r="P66" s="664"/>
+      <c r="Q66" s="664" t="s">
         <v>25</v>
       </c>
-      <c r="R66" s="685"/>
-      <c r="S66" s="685" t="s">
+      <c r="R66" s="664"/>
+      <c r="S66" s="664" t="s">
         <v>26</v>
       </c>
-      <c r="T66" s="685"/>
-      <c r="U66" s="685" t="s">
+      <c r="T66" s="664"/>
+      <c r="U66" s="664" t="s">
         <v>27</v>
       </c>
-      <c r="V66" s="685"/>
-      <c r="W66" s="685" t="s">
+      <c r="V66" s="664"/>
+      <c r="W66" s="664" t="s">
         <v>28</v>
       </c>
-      <c r="X66" s="685"/>
-      <c r="Y66" s="685" t="s">
+      <c r="X66" s="664"/>
+      <c r="Y66" s="664" t="s">
         <v>137</v>
       </c>
-      <c r="Z66" s="685"/>
-      <c r="AA66" s="688" t="s">
+      <c r="Z66" s="664"/>
+      <c r="AA66" s="665" t="s">
         <v>138</v>
       </c>
       <c r="AB66" s="1"/>
@@ -62122,7 +62176,7 @@
     </row>
     <row r="67" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="687"/>
+      <c r="B67" s="671"/>
       <c r="C67" s="281" t="s">
         <v>37</v>
       </c>
@@ -62195,7 +62249,7 @@
       <c r="Z67" s="281" t="s">
         <v>139</v>
       </c>
-      <c r="AA67" s="689"/>
+      <c r="AA67" s="666"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
@@ -67534,11 +67588,43 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="W66:X66"/>
-    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="B40:AA40"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AA42"/>
+    <mergeCell ref="B52:AA52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:V41"/>
     <mergeCell ref="AA66:AA67"/>
     <mergeCell ref="AA53:AA54"/>
     <mergeCell ref="B65:AA65"/>
@@ -67555,43 +67641,11 @@
     <mergeCell ref="S53:T53"/>
     <mergeCell ref="U53:V53"/>
     <mergeCell ref="W53:X53"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AA42"/>
-    <mergeCell ref="B52:AA52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="B40:AA40"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="W66:X66"/>
+    <mergeCell ref="Y66:Z66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -67600,11 +67654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
+++ b/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\GitHub\CareMonitor-NicolasRubino\SAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\UAI\TFI\CareMonitor\CareMonitor\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CBB93C-3CEF-417C-AAFA-CA9250CD8F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
   <externalReferences>
     <externalReference r:id="rId18"/>
   </externalReferences>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="274">
   <si>
     <t>TRABAJO FINAL DE INGENIERÍA</t>
   </si>
@@ -999,29 +1000,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Descripcion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Se migra el servicio cloud por inestabilidades constantes en el servicio contratado, se pierde un 8% del ingreso total del tercer año por perdida de suscripciones, el negocio sigue siendo viable ya que la TIR queda del 72%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Descripcion: </t>
     </r>
     <r>
@@ -1093,29 +1071,61 @@
       <t>Para mitigar la desviacion que sucede en el escenario 3, NO se incorporará ningun recurso humano en el 2022, por lo que tampoco se haran las inversiones previstas para el 2022. Este movimiento permitira tener una TIR del 59%</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripcion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se migra el servicio cloud por inestabilidades constantes en el servicio contratado, se pierde un 8% del ingreso total del tercer año por perdida de suscripciones, el negocio sigue siendo viable ya que la TIR queda del 73%</t>
+    </r>
+  </si>
+  <si>
+    <t>Promociones de Venta - Initial Care</t>
+  </si>
+  <si>
+    <t>Promociones de Venta - Medium Care</t>
+  </si>
+  <si>
+    <t>Promociones de Venta - Full Care</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="17">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="General_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="169" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
-    <numFmt numFmtId="171" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="[$$-2C0A]\ #,##0.00"/>
-    <numFmt numFmtId="173" formatCode="[$$-2C0A]\ #,##0"/>
-    <numFmt numFmtId="174" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="175" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="170" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="172" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="[$$-2C0A]\ #,##0.00"/>
+    <numFmt numFmtId="174" formatCode="[$$-2C0A]\ #,##0"/>
+    <numFmt numFmtId="175" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="176" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
@@ -2956,16 +2966,16 @@
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2976,16 +2986,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="16" borderId="110" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="764">
+  <cellXfs count="767">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3008,29 +3018,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3040,7 +3050,7 @@
     <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3052,29 +3062,29 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3086,7 +3096,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3105,13 +3115,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3120,7 +3130,7 @@
     <xf numFmtId="9" fontId="8" fillId="2" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3141,13 +3151,13 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="76" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="76" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="78" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="9" borderId="78" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3171,10 +3181,10 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3186,8 +3196,8 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3197,26 +3207,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="47" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="5" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3244,7 +3254,7 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3253,96 +3263,96 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="25" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="90" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="90" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="5" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="91" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="6" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3351,13 +3361,13 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="46" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="46" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="46" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3366,8 +3376,8 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3375,16 +3385,16 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="6" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3393,37 +3403,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="4" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3432,7 +3442,7 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3441,19 +3451,19 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="5" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="5" borderId="56" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="56" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3478,13 +3488,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -3506,16 +3516,16 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3525,26 +3535,26 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3557,13 +3567,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="11" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="26" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="26" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3575,13 +3585,13 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="92" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="92" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3608,19 +3618,19 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3629,63 +3639,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="99" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="99" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="93" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="93" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="100" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="100" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="45" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="48" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="49" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="49" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="50" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3713,10 +3723,10 @@
     <xf numFmtId="9" fontId="11" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="50" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3726,61 +3736,61 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="52" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="98" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="98" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="94" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="97" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="97" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="54" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="54" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="55" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="55" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="91" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="91" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3788,42 +3798,42 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3832,13 +3842,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -3848,16 +3858,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3866,10 +3876,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3905,40 +3915,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="11" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="11" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="11" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3963,14 +3973,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3982,21 +3992,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4008,58 +4018,58 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="10" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="10" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4075,37 +4085,37 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="105" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="105" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4123,10 +4133,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4229,19 +4239,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4263,10 +4273,10 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4275,7 +4285,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4284,49 +4294,49 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="100" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="100" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4334,14 +4344,65 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="18" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="18" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="18" borderId="111" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="18" borderId="111" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4436,181 +4497,13 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4640,14 +4533,131 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4736,15 +4746,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4753,12 +4754,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4814,6 +4809,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4828,18 +4850,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4916,27 +4926,6 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5000,6 +4989,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5036,35 +5046,44 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="105" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Celda de comprobación" xfId="26" builtinId="23"/>
-    <cellStyle name="Euro" xfId="11"/>
+    <cellStyle name="Euro" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Hipervínculo 2" xfId="14"/>
-    <cellStyle name="Hipervínculo 3" xfId="17"/>
-    <cellStyle name="Hipervínculo 4" xfId="16"/>
-    <cellStyle name="Hipervínculo 5" xfId="20"/>
-    <cellStyle name="Hyperlink 2" xfId="12"/>
+    <cellStyle name="Hipervínculo 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hipervínculo 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Hipervínculo 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Hipervínculo 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Moneda" xfId="6" builtinId="4"/>
-    <cellStyle name="Moneda 2" xfId="10"/>
-    <cellStyle name="Moneda 2 2" xfId="23"/>
-    <cellStyle name="Moneda 3" xfId="19"/>
-    <cellStyle name="Moneda 3 2" xfId="25"/>
-    <cellStyle name="Moneda 4" xfId="22"/>
-    <cellStyle name="Moneda 5" xfId="8"/>
+    <cellStyle name="Moneda 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Moneda 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Moneda 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Moneda 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Moneda 4" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Moneda 5" xfId="8" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="13"/>
-    <cellStyle name="Normal 2 14" xfId="4"/>
-    <cellStyle name="Normal 2 15" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="18"/>
-    <cellStyle name="Normal 4" xfId="9"/>
-    <cellStyle name="Normal 5" xfId="21"/>
-    <cellStyle name="Normal 6" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 2 14" xfId="4" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 2 15" xfId="5" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="15"/>
-    <cellStyle name="Porcentaje 3" xfId="24"/>
+    <cellStyle name="Porcentaje 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Porcentaje 3" xfId="24" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -5091,7 +5110,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -5152,7 +5171,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5178,7 +5196,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5484,7 +5502,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="91798656"/>
@@ -5529,7 +5547,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="25175760"/>
@@ -5546,7 +5564,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5572,7 +5589,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5602,7 +5619,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5661,7 +5678,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5679,7 +5696,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ingresos 2022</c:v>
+                  <c:v> Ingresos 2022 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6023,7 +6040,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -6047,7 +6063,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -6058,9 +6074,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -6097,7 +6111,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6110,9 +6124,7 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -6120,7 +6132,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -6144,7 +6155,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -6155,9 +6166,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -6194,7 +6203,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6244,7 +6253,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -6286,7 +6295,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6309,13 +6318,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6366,7 +6375,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6374,6 +6382,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6397,7 +6406,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6448,7 +6457,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6474,7 +6482,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6840,7 +6848,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177979744"/>
@@ -6899,7 +6907,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1022353200"/>
@@ -6951,7 +6959,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6981,7 +6989,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7032,7 +7040,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7058,7 +7065,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7259,7 +7266,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1173350528"/>
@@ -7332,7 +7339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1025409232"/>
@@ -7349,7 +7356,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7375,7 +7381,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7405,7 +7411,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7456,7 +7462,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7482,7 +7487,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8445,7 +8450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -8504,7 +8509,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -8521,7 +8526,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8547,7 +8551,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8577,7 +8581,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8633,7 +8637,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8659,7 +8662,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8688,7 +8691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8741,7 +8744,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8754,7 +8757,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8833,7 +8835,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8895,7 +8897,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8908,7 +8910,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8987,7 +8988,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9040,7 +9041,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9053,7 +9054,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9177,7 +9177,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -9212,7 +9212,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -9243,13 +9242,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9257,6 +9255,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -9296,7 +9295,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9347,7 +9346,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9373,7 +9371,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10336,7 +10334,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -10395,7 +10393,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -10412,7 +10410,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10438,7 +10435,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10468,7 +10465,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10557,7 +10554,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10586,7 +10583,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10639,7 +10636,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10652,7 +10649,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10731,7 +10727,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10793,7 +10789,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10806,7 +10802,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10885,7 +10880,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10938,7 +10933,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10951,7 +10946,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11075,7 +11069,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -11110,7 +11104,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -11141,13 +11134,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11155,6 +11147,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -11194,7 +11187,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11245,7 +11238,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11271,7 +11263,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12234,7 +12226,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -12293,7 +12285,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -12310,7 +12302,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12336,7 +12327,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12366,7 +12357,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12455,7 +12446,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12484,7 +12475,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12537,7 +12528,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12550,7 +12541,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12629,7 +12619,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12691,7 +12681,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12704,7 +12694,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12783,7 +12772,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12836,7 +12825,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -12849,7 +12838,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12973,7 +12961,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -13008,7 +12996,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -13039,13 +13026,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -13053,6 +13039,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -13092,7 +13079,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13151,7 +13138,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13169,7 +13156,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ingresos 2020</c:v>
+                  <c:v> Ingresos 2020 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13281,7 +13268,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13330,7 +13317,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -13341,9 +13328,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-61DD-4CD8-B158-0B704BE81697}"/>
                 </c:ext>
@@ -13374,7 +13359,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13413,7 +13398,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -13434,13 +13419,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13491,7 +13476,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -13499,6 +13483,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13522,7 +13507,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13581,7 +13566,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13599,7 +13584,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ingresos 2021</c:v>
+                  <c:v> Ingresos 2021 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13943,7 +13928,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -13967,7 +13951,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -13978,9 +13962,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -13988,7 +13970,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -14012,7 +13993,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14023,9 +14004,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -14033,7 +14012,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -14057,7 +14035,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14068,9 +14046,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -14101,7 +14077,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14143,7 +14119,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -14183,7 +14159,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -14206,13 +14182,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14263,7 +14239,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -14271,6 +14246,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14294,7 +14270,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23373,7 +23349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="C9:C36"/>
   <sheetViews>
@@ -23425,7 +23401,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" display="mailto:cristiangentile1@gmail.com"/>
+    <hyperlink ref="C36" r:id="rId1" display="mailto:cristiangentile1@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23434,7 +23410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z68"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -23517,12 +23493,12 @@
       <c r="C3" s="654"/>
       <c r="D3" s="655"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="690" t="s">
+      <c r="F3" s="694" t="s">
         <v>160</v>
       </c>
-      <c r="G3" s="691"/>
-      <c r="H3" s="691"/>
-      <c r="I3" s="692"/>
+      <c r="G3" s="695"/>
+      <c r="H3" s="695"/>
+      <c r="I3" s="696"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -23727,12 +23703,12 @@
     </row>
     <row r="9" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="693" t="s">
+      <c r="B9" s="697" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="694"/>
-      <c r="D9" s="694"/>
-      <c r="E9" s="694"/>
+      <c r="C9" s="698"/>
+      <c r="D9" s="698"/>
+      <c r="E9" s="698"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -24176,11 +24152,11 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="695" t="s">
+      <c r="B21" s="690" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="696"/>
-      <c r="D21" s="697"/>
+      <c r="C21" s="691"/>
+      <c r="D21" s="692"/>
       <c r="E21" s="332">
         <f>SUM(E11:E20)</f>
         <v>1274116</v>
@@ -24427,8 +24403,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="609"/>
-      <c r="G28" s="609"/>
+      <c r="F28" s="629"/>
+      <c r="G28" s="629"/>
       <c r="H28" s="375"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -24464,8 +24440,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="698"/>
-      <c r="G29" s="698"/>
+      <c r="F29" s="693"/>
+      <c r="G29" s="693"/>
       <c r="H29" s="376"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -24501,8 +24477,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="609"/>
-      <c r="G30" s="609"/>
+      <c r="F30" s="629"/>
+      <c r="G30" s="629"/>
       <c r="H30" s="375"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -24538,8 +24514,8 @@
         <f t="shared" si="1"/>
         <v>23900</v>
       </c>
-      <c r="F31" s="698"/>
-      <c r="G31" s="698"/>
+      <c r="F31" s="693"/>
+      <c r="G31" s="693"/>
       <c r="H31" s="376"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -24575,8 +24551,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="698"/>
-      <c r="G32" s="698"/>
+      <c r="F32" s="693"/>
+      <c r="G32" s="693"/>
       <c r="H32" s="376"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -24612,8 +24588,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="698"/>
-      <c r="G33" s="698"/>
+      <c r="F33" s="693"/>
+      <c r="G33" s="693"/>
       <c r="H33" s="376"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -24636,11 +24612,11 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="695" t="s">
+      <c r="B34" s="690" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="696"/>
-      <c r="D34" s="697"/>
+      <c r="C34" s="691"/>
+      <c r="D34" s="692"/>
       <c r="E34" s="332">
         <f>SUM(E25:E33)</f>
         <v>39198</v>
@@ -25096,11 +25072,11 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="695" t="s">
+      <c r="B47" s="690" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="696"/>
-      <c r="D47" s="697"/>
+      <c r="C47" s="691"/>
+      <c r="D47" s="692"/>
       <c r="E47" s="332">
         <f>SUM(E38:E46)</f>
         <v>247816</v>
@@ -25556,11 +25532,11 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="695" t="s">
+      <c r="B60" s="690" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="696"/>
-      <c r="D60" s="697"/>
+      <c r="C60" s="691"/>
+      <c r="D60" s="692"/>
       <c r="E60" s="334">
         <f>SUM(E51:E59)</f>
         <v>1245379</v>
@@ -25813,6 +25789,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B60:D60"/>
@@ -25823,22 +25805,16 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" location="searchVariation=62371957696&amp;position=1&amp;type=item&amp;tracking_id=c1baf121-2aa6-4883-89e1-db40e4fe7d07"/>
-    <hyperlink ref="F12" r:id="rId2" location="position=3&amp;type=item&amp;tracking_id=7d967ea6-7b08-4e10-9ee9-7a21d479e90e"/>
-    <hyperlink ref="F13" r:id="rId3" location="searchVariation=MLA15188002&amp;position=2&amp;type=product&amp;tracking_id=25817417-8ebf-4e85-99ba-e1068ce3b665"/>
-    <hyperlink ref="F17" r:id="rId4" location="position=27&amp;type=item&amp;tracking_id=be18e719-23de-4f4d-b152-972266abc3c5"/>
-    <hyperlink ref="F18" r:id="rId5" location="position=9&amp;type=item&amp;tracking_id=b86ee509-acb1-4687-9267-b5a79840b449"/>
-    <hyperlink ref="F16" r:id="rId6" location="searchVariation=41945510546&amp;position=10&amp;type=item&amp;tracking_id=c8150eb0-81cf-41f2-8b44-92b72af9b976"/>
-    <hyperlink ref="F15" r:id="rId7" location="position=1&amp;type=item&amp;tracking_id=0f693c9d-e24f-4bc4-8c47-6db53224454d"/>
-    <hyperlink ref="F19" r:id="rId8"/>
+    <hyperlink ref="F11" r:id="rId1" location="searchVariation=62371957696&amp;position=1&amp;type=item&amp;tracking_id=c1baf121-2aa6-4883-89e1-db40e4fe7d07" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="F12" r:id="rId2" location="position=3&amp;type=item&amp;tracking_id=7d967ea6-7b08-4e10-9ee9-7a21d479e90e" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="F13" r:id="rId3" location="searchVariation=MLA15188002&amp;position=2&amp;type=product&amp;tracking_id=25817417-8ebf-4e85-99ba-e1068ce3b665" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="F17" r:id="rId4" location="position=27&amp;type=item&amp;tracking_id=be18e719-23de-4f4d-b152-972266abc3c5" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="F18" r:id="rId5" location="position=9&amp;type=item&amp;tracking_id=b86ee509-acb1-4687-9267-b5a79840b449" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="F16" r:id="rId6" location="searchVariation=41945510546&amp;position=10&amp;type=item&amp;tracking_id=c8150eb0-81cf-41f2-8b44-92b72af9b976" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="F15" r:id="rId7" location="position=1&amp;type=item&amp;tracking_id=0f693c9d-e24f-4bc4-8c47-6db53224454d" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
+    <hyperlink ref="F19" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
@@ -25847,7 +25823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:X194"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0"/>
@@ -25924,11 +25900,11 @@
       <c r="C3" s="654"/>
       <c r="D3" s="655"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="690" t="s">
+      <c r="F3" s="694" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="691"/>
-      <c r="H3" s="692"/>
+      <c r="G3" s="695"/>
+      <c r="H3" s="696"/>
       <c r="I3" s="441"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -31515,11 +31491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AI97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:I28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31905,14 +31881,14 @@
     </row>
     <row r="10" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="693" t="s">
+      <c r="B10" s="697" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="694"/>
-      <c r="D10" s="694"/>
-      <c r="E10" s="694"/>
-      <c r="F10" s="694"/>
-      <c r="G10" s="726"/>
+      <c r="C10" s="698"/>
+      <c r="D10" s="698"/>
+      <c r="E10" s="698"/>
+      <c r="F10" s="698"/>
+      <c r="G10" s="747"/>
       <c r="H10" s="242"/>
       <c r="I10" s="1"/>
       <c r="J10" s="396" t="s">
@@ -31955,10 +31931,10 @@
     </row>
     <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="727" t="s">
+      <c r="B11" s="748" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="728"/>
+      <c r="C11" s="749"/>
       <c r="D11" s="399" t="s">
         <v>197</v>
       </c>
@@ -32013,10 +31989,10 @@
     </row>
     <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="729" t="s">
+      <c r="B12" s="750" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="730"/>
+      <c r="C12" s="751"/>
       <c r="D12" s="442">
         <v>0</v>
       </c>
@@ -32074,7 +32050,7 @@
     </row>
     <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="724" t="s">
+      <c r="B13" s="745" t="s">
         <v>198</v>
       </c>
       <c r="C13" s="404" t="s">
@@ -32126,7 +32102,7 @@
     </row>
     <row r="14" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="724"/>
+      <c r="B14" s="745"/>
       <c r="C14" s="404" t="s">
         <v>157</v>
       </c>
@@ -32178,7 +32154,7 @@
     </row>
     <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="725"/>
+      <c r="B15" s="746"/>
       <c r="C15" s="405" t="s">
         <v>158</v>
       </c>
@@ -32234,10 +32210,10 @@
     </row>
     <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="744" t="s">
+      <c r="B16" s="737" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="745"/>
+      <c r="C16" s="738"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -32293,10 +32269,10 @@
     </row>
     <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="746" t="s">
+      <c r="B17" s="739" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="747"/>
+      <c r="C17" s="740"/>
       <c r="D17" s="442">
         <v>0</v>
       </c>
@@ -32342,10 +32318,10 @@
     </row>
     <row r="18" spans="1:35" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="748" t="s">
+      <c r="B18" s="741" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="749"/>
+      <c r="C18" s="742"/>
       <c r="D18" s="443">
         <v>0</v>
       </c>
@@ -32388,10 +32364,10 @@
     </row>
     <row r="19" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="750" t="s">
+      <c r="B19" s="743" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="751"/>
+      <c r="C19" s="744"/>
       <c r="D19" s="444">
         <v>0</v>
       </c>
@@ -32409,12 +32385,12 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="690" t="s">
+      <c r="J19" s="694" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="691"/>
-      <c r="L19" s="691"/>
-      <c r="M19" s="692"/>
+      <c r="K19" s="695"/>
+      <c r="L19" s="695"/>
+      <c r="M19" s="696"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -32440,10 +32416,10 @@
     </row>
     <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="744" t="s">
+      <c r="B20" s="737" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="745"/>
+      <c r="C20" s="738"/>
       <c r="D20" s="445">
         <v>0</v>
       </c>
@@ -32498,10 +32474,10 @@
     </row>
     <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="731" t="s">
+      <c r="B21" s="724" t="s">
         <v>204</v>
       </c>
-      <c r="C21" s="732"/>
+      <c r="C21" s="725"/>
       <c r="D21" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -32561,10 +32537,10 @@
     </row>
     <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="733" t="s">
+      <c r="B22" s="726" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="734"/>
+      <c r="C22" s="727"/>
       <c r="D22" s="406">
         <f>D20+D21</f>
         <v>-1274116</v>
@@ -32723,12 +32699,12 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="735" t="s">
+      <c r="B26" s="728" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="736"/>
-      <c r="D26" s="736"/>
-      <c r="E26" s="737"/>
+      <c r="C26" s="729"/>
+      <c r="D26" s="729"/>
+      <c r="E26" s="730"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="412" t="s">
@@ -32766,10 +32742,10 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="738"/>
-      <c r="C27" s="739"/>
-      <c r="D27" s="739"/>
-      <c r="E27" s="740"/>
+      <c r="B27" s="731"/>
+      <c r="C27" s="732"/>
+      <c r="D27" s="732"/>
+      <c r="E27" s="733"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="414" t="s">
@@ -32808,10 +32784,10 @@
     </row>
     <row r="28" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="741"/>
-      <c r="C28" s="742"/>
-      <c r="D28" s="742"/>
-      <c r="E28" s="743"/>
+      <c r="B28" s="734"/>
+      <c r="C28" s="735"/>
+      <c r="D28" s="735"/>
+      <c r="E28" s="736"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="416" t="s">
@@ -35403,6 +35379,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:E28"/>
@@ -35412,16 +35395,9 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H17" r:id="rId1"/>
+    <hyperlink ref="H17" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -35430,11 +35406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35784,11 +35760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35864,7 +35840,7 @@
     <row r="3" spans="1:31" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="754" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" s="755"/>
       <c r="D3" s="755"/>
@@ -36348,10 +36324,10 @@
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="750" t="s">
+      <c r="B15" s="743" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="751"/>
+      <c r="C15" s="744"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -36393,10 +36369,10 @@
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="744" t="s">
+      <c r="B16" s="737" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="745"/>
+      <c r="C16" s="738"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -36441,10 +36417,10 @@
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="731" t="s">
+      <c r="B17" s="724" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="732"/>
+      <c r="C17" s="725"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -36481,10 +36457,10 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="733" t="s">
+      <c r="B18" s="726" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="734"/>
+      <c r="C18" s="727"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -36524,12 +36500,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="690" t="s">
+      <c r="J19" s="694" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="691"/>
-      <c r="L19" s="691"/>
-      <c r="M19" s="692"/>
+      <c r="K19" s="695"/>
+      <c r="L19" s="695"/>
+      <c r="M19" s="696"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -36546,15 +36522,15 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="412" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="413">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="412" t="s">
-        <v>206</v>
-      </c>
-      <c r="H20" s="413">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="377" t="s">
         <v>213</v>
@@ -36584,16 +36560,16 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="414" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="415">
+        <f>NPV(E20,K21,L21:M21)</f>
+        <v>462869.18733845785</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="414" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="415">
-        <f>NPV(H20,K21,L21:M21)</f>
-        <v>462869.18733845785</v>
-      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="238">
         <f>'Mod. inversión'!$F$5</f>
@@ -36627,16 +36603,16 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="416" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="490">
+        <f>IRR(D18:G18,E20)</f>
+        <v>0.72005372731800521</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="416" t="s">
-        <v>208</v>
-      </c>
-      <c r="H22" s="490">
-        <f>IRR(D18:G18,H20)</f>
-        <v>0.72005372731800521</v>
-      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -36660,6 +36636,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -36732,10 +36709,10 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="739"/>
-      <c r="C26" s="739"/>
-      <c r="D26" s="739"/>
-      <c r="E26" s="739"/>
+      <c r="B26" s="732"/>
+      <c r="C26" s="732"/>
+      <c r="D26" s="732"/>
+      <c r="E26" s="732"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -36758,10 +36735,10 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="739"/>
-      <c r="C27" s="739"/>
-      <c r="D27" s="739"/>
-      <c r="E27" s="739"/>
+      <c r="B27" s="732"/>
+      <c r="C27" s="732"/>
+      <c r="D27" s="732"/>
+      <c r="E27" s="732"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -36784,10 +36761,10 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="739"/>
-      <c r="C28" s="739"/>
-      <c r="D28" s="739"/>
-      <c r="E28" s="739"/>
+      <c r="B28" s="732"/>
+      <c r="C28" s="732"/>
+      <c r="D28" s="732"/>
+      <c r="E28" s="732"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -37120,17 +37097,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K14:M14"/>
     <mergeCell ref="B26:E28"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37138,10 +37115,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -37218,7 +37197,7 @@
     <row r="3" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="754" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C3" s="755"/>
       <c r="D3" s="755"/>
@@ -37750,10 +37729,10 @@
     </row>
     <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="750" t="s">
+      <c r="B15" s="743" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="751"/>
+      <c r="C15" s="744"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -37799,10 +37778,10 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="744" t="s">
+      <c r="B16" s="737" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="745"/>
+      <c r="C16" s="738"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -37851,10 +37830,10 @@
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="731" t="s">
+      <c r="B17" s="724" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="732"/>
+      <c r="C17" s="725"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -37895,10 +37874,10 @@
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="733" t="s">
+      <c r="B18" s="726" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="734"/>
+      <c r="C18" s="727"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -37942,12 +37921,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="690" t="s">
+      <c r="J19" s="694" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="691"/>
-      <c r="L19" s="691"/>
-      <c r="M19" s="692"/>
+      <c r="K19" s="695"/>
+      <c r="L19" s="695"/>
+      <c r="M19" s="696"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -37968,15 +37947,15 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="412" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="413">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="412" t="s">
-        <v>206</v>
-      </c>
-      <c r="H20" s="413">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="377" t="s">
         <v>213</v>
@@ -38010,16 +37989,16 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="414" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="415">
+        <f>NPV(E20,K21,L21:M21)</f>
+        <v>462869.18733845785</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="414" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="415">
-        <f>NPV(H20,K21,L21:M21)</f>
-        <v>462869.18733845785</v>
-      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="238">
         <f>'Mod. inversión'!$F$5</f>
@@ -38057,16 +38036,16 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="416" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="490">
+        <f>IRR(D18:G18,E20)</f>
+        <v>0.72834656356054039</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="416" t="s">
-        <v>208</v>
-      </c>
-      <c r="H22" s="490">
-        <f>IRR(D18:G18,H20)</f>
-        <v>0.72834656356054039</v>
-      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -38180,10 +38159,10 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="739"/>
-      <c r="C26" s="739"/>
-      <c r="D26" s="739"/>
-      <c r="E26" s="739"/>
+      <c r="B26" s="732"/>
+      <c r="C26" s="732"/>
+      <c r="D26" s="732"/>
+      <c r="E26" s="732"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -38210,10 +38189,10 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="739"/>
-      <c r="C27" s="739"/>
-      <c r="D27" s="739"/>
-      <c r="E27" s="739"/>
+      <c r="B27" s="732"/>
+      <c r="C27" s="732"/>
+      <c r="D27" s="732"/>
+      <c r="E27" s="732"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -38240,10 +38219,10 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="739"/>
-      <c r="C28" s="739"/>
-      <c r="D28" s="739"/>
-      <c r="E28" s="739"/>
+      <c r="B28" s="732"/>
+      <c r="C28" s="732"/>
+      <c r="D28" s="732"/>
+      <c r="E28" s="732"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -38320,11 +38299,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:AS27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38344,7 +38323,7 @@
       <c r="E1" s="189"/>
       <c r="F1" s="189"/>
       <c r="G1" s="752" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H1" s="753"/>
       <c r="I1" s="753"/>
@@ -38429,7 +38408,7 @@
     <row r="3" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="754" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="755"/>
       <c r="D3" s="755"/>
@@ -39093,10 +39072,10 @@
     </row>
     <row r="15" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="750" t="s">
+      <c r="B15" s="743" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="751"/>
+      <c r="C15" s="744"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -39153,10 +39132,10 @@
     </row>
     <row r="16" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="744" t="s">
+      <c r="B16" s="737" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="745"/>
+      <c r="C16" s="738"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -39216,10 +39195,10 @@
     </row>
     <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="731" t="s">
+      <c r="B17" s="724" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="732"/>
+      <c r="C17" s="725"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -39271,10 +39250,10 @@
     </row>
     <row r="18" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="733" t="s">
+      <c r="B18" s="726" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="734"/>
+      <c r="C18" s="727"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -39327,14 +39306,15 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="690" t="s">
+      <c r="J19" s="694" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="691"/>
-      <c r="L19" s="691"/>
-      <c r="M19" s="692"/>
+      <c r="K19" s="695"/>
+      <c r="L19" s="695"/>
+      <c r="M19" s="696"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -39367,14 +39347,14 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="412" t="s">
+      <c r="E20" s="412" t="s">
         <v>206</v>
       </c>
-      <c r="H20" s="413">
+      <c r="F20" s="413">
         <v>0.55000000000000004</v>
       </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="377" t="s">
         <v>213</v>
@@ -39420,15 +39400,15 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="414" t="s">
+      <c r="E21" s="414" t="s">
         <v>207</v>
       </c>
-      <c r="H21" s="415">
-        <f>NPV(H20,K21,L21:M21)</f>
+      <c r="F21" s="415">
+        <f>NPV(F20,K21,L21:M21)</f>
         <v>462869.18733845785</v>
       </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="238">
         <f>'Mod. inversión'!$F$5</f>
@@ -39478,15 +39458,15 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="416" t="s">
+      <c r="E22" s="416" t="s">
         <v>208</v>
       </c>
-      <c r="H22" s="490">
-        <f>IRR(D18:G18,H20)</f>
+      <c r="F22" s="490">
+        <f>IRR(D18:G18,F20)</f>
         <v>0.19323222817335539</v>
       </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -39520,6 +39500,19 @@
       <c r="AM22" s="1"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -39548,6 +39541,19 @@
       <c r="AM23" s="1"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -39576,6 +39582,19 @@
       <c r="AM24" s="1"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -39603,19 +39622,59 @@
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
     </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="J19:M19"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="J19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39623,11 +39682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:BN52"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39652,7 +39711,7 @@
       <c r="D1" s="189"/>
       <c r="E1" s="189"/>
       <c r="F1" s="190" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G1" s="191"/>
       <c r="H1" s="191"/>
@@ -39748,7 +39807,7 @@
     <row r="3" spans="1:66" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="754" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="755"/>
       <c r="D3" s="755"/>
@@ -40066,7 +40125,7 @@
         <v>2022</v>
       </c>
       <c r="H7" s="526" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -40252,7 +40311,7 @@
         <v>2022</v>
       </c>
       <c r="N9" s="503" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O9" s="504"/>
       <c r="P9" s="1"/>
@@ -40769,10 +40828,10 @@
     </row>
     <row r="15" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="750" t="s">
+      <c r="B15" s="743" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="751"/>
+      <c r="C15" s="744"/>
       <c r="D15" s="444">
         <v>0</v>
       </c>
@@ -40859,10 +40918,10 @@
     </row>
     <row r="16" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="744" t="s">
+      <c r="B16" s="737" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="745"/>
+      <c r="C16" s="738"/>
       <c r="D16" s="445">
         <v>0</v>
       </c>
@@ -40952,10 +41011,10 @@
     </row>
     <row r="17" spans="1:66" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="731" t="s">
+      <c r="B17" s="724" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="732"/>
+      <c r="C17" s="725"/>
       <c r="D17" s="409">
         <f>-J21</f>
         <v>-1274116</v>
@@ -41037,10 +41096,10 @@
     </row>
     <row r="18" spans="1:66" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="733" t="s">
+      <c r="B18" s="726" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="734"/>
+      <c r="C18" s="727"/>
       <c r="D18" s="406">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -41130,12 +41189,12 @@
       <c r="G19" s="528"/>
       <c r="H19" s="527"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="690" t="s">
+      <c r="J19" s="694" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="691"/>
-      <c r="L19" s="691"/>
-      <c r="M19" s="692"/>
+      <c r="K19" s="695"/>
+      <c r="L19" s="695"/>
+      <c r="M19" s="696"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -41213,7 +41272,7 @@
         <v>2022</v>
       </c>
       <c r="N20" s="506" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -41273,11 +41332,11 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="760" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E21" s="761"/>
       <c r="G21" s="762" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H21" s="763"/>
       <c r="I21" s="1"/>
@@ -43499,11 +43558,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="K3:M3"/>
@@ -43511,6 +43565,11 @@
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -43519,7 +43578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:BT59"/>
   <sheetViews>
@@ -44827,7 +44886,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="24"/>
       <c r="D18" s="498" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -44903,7 +44962,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="24"/>
       <c r="D19" s="499" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -47936,21 +47995,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" location="Hipótesis!A1" display="Hipótesis"/>
-    <hyperlink ref="D6" location="'Proy. Ventas'!A1" display="Proyección de ventas"/>
-    <hyperlink ref="D7" location="'Mod. Ingresos'!A1" display="Modelo de ingresos"/>
-    <hyperlink ref="D8" location="'Costos Fijos'!A1" display="Estructura de costos fijos"/>
-    <hyperlink ref="D9" location="'Costos Variables'!A1" display="Estructura de costos variables"/>
-    <hyperlink ref="D10" location="'Costos RRHH'!A1" display="Estructura de costos de RRHH"/>
-    <hyperlink ref="D11" location="'Mod. Egresos'!A1" display="Modelo de egresos"/>
-    <hyperlink ref="D12" location="'Mod. Inversión'!A1" display="Modelo de inversión"/>
-    <hyperlink ref="D13" location="Amortizaciones!A1" display="Amortizaciones"/>
-    <hyperlink ref="D14" location="'Presupuesto financiero'!A1" display="Presupuesto Financiero"/>
-    <hyperlink ref="D15" location="'Matriz Riesgo'!A1" display="Matriz de riesgos"/>
-    <hyperlink ref="D16" location="'Escenario 1'!A1" display="Escenario 1"/>
-    <hyperlink ref="D19" location="'Plan de Contingencia'!A1" display="Plan de contingencia"/>
-    <hyperlink ref="D17" location="'Escenario 2'!A1" display="Escenario 2"/>
-    <hyperlink ref="D18" location="'Escenario 3'!A1" display="Escenario 3"/>
+    <hyperlink ref="D5" location="Hipótesis!A1" display="Hipótesis" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D6" location="'Proy. Ventas'!A1" display="Proyección de ventas" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D7" location="'Mod. Ingresos'!A1" display="Modelo de ingresos" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D8" location="'Costos Fijos'!A1" display="Estructura de costos fijos" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D9" location="'Costos Variables'!A1" display="Estructura de costos variables" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D10" location="'Costos RRHH'!A1" display="Estructura de costos de RRHH" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D11" location="'Mod. Egresos'!A1" display="Modelo de egresos" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D12" location="'Mod. Inversión'!A1" display="Modelo de inversión" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D13" location="Amortizaciones!A1" display="Amortizaciones" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D14" location="'Presupuesto financiero'!A1" display="Presupuesto Financiero" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D15" location="'Matriz Riesgo'!A1" display="Matriz de riesgos" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D16" location="'Escenario 1'!A1" display="Escenario 1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D19" location="'Plan de Contingencia'!A1" display="Plan de contingencia" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D17" location="'Escenario 2'!A1" display="Escenario 2" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D18" location="'Escenario 3'!A1" display="Escenario 3" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -47959,13 +48018,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47996,58 +48055,58 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="537" t="s">
+      <c r="B3" s="554" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="538"/>
-      <c r="D3" s="538"/>
-      <c r="E3" s="538"/>
-      <c r="F3" s="538"/>
-      <c r="G3" s="538"/>
-      <c r="H3" s="538"/>
-      <c r="I3" s="538"/>
-      <c r="J3" s="539"/>
+      <c r="C3" s="555"/>
+      <c r="D3" s="555"/>
+      <c r="E3" s="555"/>
+      <c r="F3" s="555"/>
+      <c r="G3" s="555"/>
+      <c r="H3" s="555"/>
+      <c r="I3" s="555"/>
+      <c r="J3" s="556"/>
     </row>
     <row r="4" spans="1:11" ht="165" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="546" t="s">
+      <c r="B4" s="563" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="547"/>
-      <c r="D4" s="547"/>
-      <c r="E4" s="547"/>
-      <c r="F4" s="547"/>
-      <c r="G4" s="547"/>
-      <c r="H4" s="547"/>
-      <c r="I4" s="547"/>
-      <c r="J4" s="548"/>
+      <c r="C4" s="564"/>
+      <c r="D4" s="564"/>
+      <c r="E4" s="564"/>
+      <c r="F4" s="564"/>
+      <c r="G4" s="564"/>
+      <c r="H4" s="564"/>
+      <c r="I4" s="564"/>
+      <c r="J4" s="565"/>
       <c r="K4" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="549" t="s">
+      <c r="B7" s="566" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="550"/>
-      <c r="D7" s="550"/>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="550"/>
-      <c r="I7" s="550"/>
-      <c r="J7" s="551"/>
+      <c r="C7" s="567"/>
+      <c r="D7" s="567"/>
+      <c r="E7" s="567"/>
+      <c r="F7" s="567"/>
+      <c r="G7" s="567"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="567"/>
+      <c r="J7" s="568"/>
     </row>
     <row r="8" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="552" t="s">
+      <c r="B8" s="569" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="553"/>
-      <c r="D8" s="553"/>
-      <c r="E8" s="553"/>
-      <c r="F8" s="553"/>
-      <c r="G8" s="553"/>
-      <c r="H8" s="553"/>
-      <c r="I8" s="553"/>
-      <c r="J8" s="554"/>
+      <c r="C8" s="570"/>
+      <c r="D8" s="570"/>
+      <c r="E8" s="570"/>
+      <c r="F8" s="570"/>
+      <c r="G8" s="570"/>
+      <c r="H8" s="570"/>
+      <c r="I8" s="570"/>
+      <c r="J8" s="571"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="40"/>
@@ -48119,30 +48178,30 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="555" t="s">
+      <c r="B15" s="572" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="556"/>
-      <c r="D15" s="556"/>
-      <c r="E15" s="556"/>
-      <c r="F15" s="556"/>
-      <c r="G15" s="556"/>
-      <c r="H15" s="556"/>
-      <c r="I15" s="556"/>
-      <c r="J15" s="557"/>
+      <c r="C15" s="573"/>
+      <c r="D15" s="573"/>
+      <c r="E15" s="573"/>
+      <c r="F15" s="573"/>
+      <c r="G15" s="573"/>
+      <c r="H15" s="573"/>
+      <c r="I15" s="573"/>
+      <c r="J15" s="574"/>
     </row>
     <row r="16" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="558" t="s">
+      <c r="B16" s="575" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="559"/>
-      <c r="D16" s="559"/>
-      <c r="E16" s="559"/>
-      <c r="F16" s="559"/>
-      <c r="G16" s="559"/>
-      <c r="H16" s="559"/>
-      <c r="I16" s="559"/>
-      <c r="J16" s="560"/>
+      <c r="C16" s="576"/>
+      <c r="D16" s="576"/>
+      <c r="E16" s="576"/>
+      <c r="F16" s="576"/>
+      <c r="G16" s="576"/>
+      <c r="H16" s="576"/>
+      <c r="I16" s="576"/>
+      <c r="J16" s="577"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
@@ -48212,11 +48271,11 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="540" t="s">
+      <c r="B22" s="557" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="541"/>
-      <c r="D22" s="542"/>
+      <c r="C22" s="558"/>
+      <c r="D22" s="559"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -48405,13 +48464,13 @@
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="537" t="s">
+      <c r="B33" s="554" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="538"/>
-      <c r="D33" s="538"/>
-      <c r="E33" s="538"/>
-      <c r="F33" s="539"/>
+      <c r="C33" s="555"/>
+      <c r="D33" s="555"/>
+      <c r="E33" s="555"/>
+      <c r="F33" s="556"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
@@ -48437,91 +48496,91 @@
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="537" t="s">
+      <c r="B35" s="554" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="561"/>
-      <c r="D35" s="561"/>
-      <c r="E35" s="561"/>
-      <c r="F35" s="562"/>
+      <c r="C35" s="578"/>
+      <c r="D35" s="578"/>
+      <c r="E35" s="578"/>
+      <c r="F35" s="579"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="543" t="s">
+      <c r="B36" s="560" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="563" t="s">
+      <c r="C36" s="580" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="563"/>
-      <c r="E36" s="563"/>
-      <c r="F36" s="563"/>
+      <c r="D36" s="580"/>
+      <c r="E36" s="580"/>
+      <c r="F36" s="580"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="544"/>
-      <c r="C37" s="563"/>
-      <c r="D37" s="563"/>
-      <c r="E37" s="563"/>
-      <c r="F37" s="563"/>
+      <c r="B37" s="561"/>
+      <c r="C37" s="580"/>
+      <c r="D37" s="580"/>
+      <c r="E37" s="580"/>
+      <c r="F37" s="580"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="544"/>
-      <c r="C38" s="563"/>
-      <c r="D38" s="563"/>
-      <c r="E38" s="563"/>
-      <c r="F38" s="563"/>
+      <c r="B38" s="561"/>
+      <c r="C38" s="580"/>
+      <c r="D38" s="580"/>
+      <c r="E38" s="580"/>
+      <c r="F38" s="580"/>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="544"/>
-      <c r="C39" s="533" t="s">
+      <c r="B39" s="561"/>
+      <c r="C39" s="550" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="533"/>
-      <c r="E39" s="533"/>
-      <c r="F39" s="533"/>
+      <c r="D39" s="550"/>
+      <c r="E39" s="550"/>
+      <c r="F39" s="550"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="544"/>
-      <c r="C40" s="533"/>
-      <c r="D40" s="533"/>
-      <c r="E40" s="533"/>
-      <c r="F40" s="533"/>
+      <c r="B40" s="561"/>
+      <c r="C40" s="550"/>
+      <c r="D40" s="550"/>
+      <c r="E40" s="550"/>
+      <c r="F40" s="550"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="544"/>
-      <c r="C41" s="533"/>
-      <c r="D41" s="533"/>
-      <c r="E41" s="533"/>
-      <c r="F41" s="533"/>
+      <c r="B41" s="561"/>
+      <c r="C41" s="550"/>
+      <c r="D41" s="550"/>
+      <c r="E41" s="550"/>
+      <c r="F41" s="550"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="544"/>
-      <c r="C42" s="534" t="s">
+      <c r="B42" s="561"/>
+      <c r="C42" s="551" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="534"/>
-      <c r="E42" s="534"/>
-      <c r="F42" s="534"/>
+      <c r="D42" s="551"/>
+      <c r="E42" s="551"/>
+      <c r="F42" s="551"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="544"/>
-      <c r="C43" s="534"/>
-      <c r="D43" s="534"/>
-      <c r="E43" s="534"/>
-      <c r="F43" s="534"/>
+      <c r="B43" s="561"/>
+      <c r="C43" s="551"/>
+      <c r="D43" s="551"/>
+      <c r="E43" s="551"/>
+      <c r="F43" s="551"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="545"/>
-      <c r="C44" s="534"/>
-      <c r="D44" s="534"/>
-      <c r="E44" s="534"/>
-      <c r="F44" s="534"/>
+      <c r="B44" s="562"/>
+      <c r="C44" s="551"/>
+      <c r="D44" s="551"/>
+      <c r="E44" s="551"/>
+      <c r="F44" s="551"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="535" t="s">
+      <c r="B47" s="552" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="536"/>
+      <c r="C47" s="553"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="68" t="s">
@@ -48532,61 +48591,55 @@
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="564" t="s">
+      <c r="B49" s="533" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="573">
+      <c r="C49" s="542">
         <v>1300</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="565"/>
-      <c r="C50" s="573"/>
+      <c r="B50" s="534"/>
+      <c r="C50" s="542"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="566"/>
-      <c r="C51" s="574"/>
+      <c r="B51" s="535"/>
+      <c r="C51" s="543"/>
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="567" t="s">
+      <c r="B52" s="536" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="575">
+      <c r="C52" s="544">
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="568"/>
-      <c r="C53" s="576"/>
+      <c r="B53" s="537"/>
+      <c r="C53" s="545"/>
     </row>
     <row r="54" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="569"/>
-      <c r="C54" s="577"/>
+      <c r="B54" s="538"/>
+      <c r="C54" s="546"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="570" t="s">
+      <c r="B55" s="539" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="578">
+      <c r="C55" s="547">
         <v>4000</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="571"/>
-      <c r="C56" s="579"/>
+      <c r="B56" s="540"/>
+      <c r="C56" s="548"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="572"/>
-      <c r="C57" s="580"/>
+      <c r="B57" s="541"/>
+      <c r="C57" s="549"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
     <mergeCell ref="C39:F41"/>
     <mergeCell ref="C42:F44"/>
     <mergeCell ref="B47:C47"/>
@@ -48601,6 +48654,12 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="C36:F38"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -48609,14 +48668,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BI155"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48736,18 +48795,18 @@
     </row>
     <row r="5" spans="1:61" s="24" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
-      <c r="B5" s="596" t="s">
+      <c r="B5" s="616" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="599"/>
+      <c r="C5" s="617"/>
+      <c r="D5" s="619"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="629" t="s">
+      <c r="F5" s="590" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="630"/>
-      <c r="H5" s="630"/>
-      <c r="I5" s="631"/>
+      <c r="G5" s="591"/>
+      <c r="H5" s="591"/>
+      <c r="I5" s="592"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
@@ -48793,12 +48852,12 @@
         <v>2022</v>
       </c>
       <c r="E6" s="41"/>
-      <c r="F6" s="623" t="s">
+      <c r="F6" s="584" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="624"/>
-      <c r="H6" s="624"/>
-      <c r="I6" s="625"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="585"/>
+      <c r="I6" s="586"/>
       <c r="J6" s="222"/>
       <c r="K6" s="222"/>
       <c r="L6" s="222"/>
@@ -48847,10 +48906,10 @@
         <v>0.02</v>
       </c>
       <c r="E7" s="45"/>
-      <c r="F7" s="626"/>
-      <c r="G7" s="627"/>
-      <c r="H7" s="627"/>
-      <c r="I7" s="628"/>
+      <c r="F7" s="587"/>
+      <c r="G7" s="588"/>
+      <c r="H7" s="588"/>
+      <c r="I7" s="589"/>
       <c r="J7" s="222"/>
       <c r="K7" s="222"/>
       <c r="L7" s="222"/>
@@ -49251,48 +49310,48 @@
       <c r="BI14" s="8"/>
     </row>
     <row r="15" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="596" t="s">
+      <c r="A15" s="616" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="597"/>
-      <c r="C15" s="597"/>
-      <c r="D15" s="597"/>
-      <c r="E15" s="597"/>
-      <c r="F15" s="597"/>
-      <c r="G15" s="597"/>
-      <c r="H15" s="598"/>
-      <c r="I15" s="598"/>
-      <c r="J15" s="598"/>
-      <c r="K15" s="598"/>
-      <c r="L15" s="597"/>
-      <c r="M15" s="597"/>
-      <c r="N15" s="597"/>
-      <c r="O15" s="597"/>
-      <c r="P15" s="597"/>
-      <c r="Q15" s="597"/>
-      <c r="R15" s="597"/>
-      <c r="S15" s="597"/>
-      <c r="T15" s="597"/>
-      <c r="U15" s="597"/>
-      <c r="V15" s="597"/>
-      <c r="W15" s="597"/>
-      <c r="X15" s="597"/>
-      <c r="Y15" s="597"/>
-      <c r="Z15" s="597"/>
-      <c r="AA15" s="597"/>
-      <c r="AB15" s="597"/>
-      <c r="AC15" s="597"/>
-      <c r="AD15" s="597"/>
-      <c r="AE15" s="597"/>
-      <c r="AF15" s="597"/>
-      <c r="AG15" s="597"/>
-      <c r="AH15" s="597"/>
-      <c r="AI15" s="597"/>
-      <c r="AJ15" s="597"/>
-      <c r="AK15" s="597"/>
-      <c r="AL15" s="597"/>
-      <c r="AM15" s="597"/>
-      <c r="AN15" s="599"/>
+      <c r="B15" s="617"/>
+      <c r="C15" s="617"/>
+      <c r="D15" s="617"/>
+      <c r="E15" s="617"/>
+      <c r="F15" s="617"/>
+      <c r="G15" s="617"/>
+      <c r="H15" s="618"/>
+      <c r="I15" s="618"/>
+      <c r="J15" s="618"/>
+      <c r="K15" s="618"/>
+      <c r="L15" s="617"/>
+      <c r="M15" s="617"/>
+      <c r="N15" s="617"/>
+      <c r="O15" s="617"/>
+      <c r="P15" s="617"/>
+      <c r="Q15" s="617"/>
+      <c r="R15" s="617"/>
+      <c r="S15" s="617"/>
+      <c r="T15" s="617"/>
+      <c r="U15" s="617"/>
+      <c r="V15" s="617"/>
+      <c r="W15" s="617"/>
+      <c r="X15" s="617"/>
+      <c r="Y15" s="617"/>
+      <c r="Z15" s="617"/>
+      <c r="AA15" s="617"/>
+      <c r="AB15" s="617"/>
+      <c r="AC15" s="617"/>
+      <c r="AD15" s="617"/>
+      <c r="AE15" s="617"/>
+      <c r="AF15" s="617"/>
+      <c r="AG15" s="617"/>
+      <c r="AH15" s="617"/>
+      <c r="AI15" s="617"/>
+      <c r="AJ15" s="617"/>
+      <c r="AK15" s="617"/>
+      <c r="AL15" s="617"/>
+      <c r="AM15" s="617"/>
+      <c r="AN15" s="619"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
@@ -49316,76 +49375,76 @@
       <c r="BI15" s="8"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A16" s="600" t="s">
+      <c r="A16" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="600" t="s">
+      <c r="B16" s="620" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="603" t="s">
+      <c r="C16" s="623" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="604"/>
-      <c r="E16" s="586" t="s">
+      <c r="D16" s="630"/>
+      <c r="E16" s="606" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="587"/>
-      <c r="G16" s="588"/>
-      <c r="H16" s="586" t="s">
+      <c r="F16" s="607"/>
+      <c r="G16" s="608"/>
+      <c r="H16" s="606" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="587"/>
-      <c r="J16" s="588"/>
-      <c r="K16" s="586" t="s">
+      <c r="I16" s="607"/>
+      <c r="J16" s="608"/>
+      <c r="K16" s="606" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="587"/>
-      <c r="M16" s="588"/>
-      <c r="N16" s="586" t="s">
+      <c r="L16" s="607"/>
+      <c r="M16" s="608"/>
+      <c r="N16" s="606" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="587"/>
-      <c r="P16" s="588"/>
-      <c r="Q16" s="586" t="s">
+      <c r="O16" s="607"/>
+      <c r="P16" s="608"/>
+      <c r="Q16" s="606" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="587"/>
-      <c r="S16" s="588"/>
-      <c r="T16" s="586" t="s">
+      <c r="R16" s="607"/>
+      <c r="S16" s="608"/>
+      <c r="T16" s="606" t="s">
         <v>23</v>
       </c>
-      <c r="U16" s="587"/>
-      <c r="V16" s="588"/>
-      <c r="W16" s="586" t="s">
+      <c r="U16" s="607"/>
+      <c r="V16" s="608"/>
+      <c r="W16" s="606" t="s">
         <v>24</v>
       </c>
-      <c r="X16" s="587"/>
-      <c r="Y16" s="588"/>
-      <c r="Z16" s="586" t="s">
+      <c r="X16" s="607"/>
+      <c r="Y16" s="608"/>
+      <c r="Z16" s="606" t="s">
         <v>25</v>
       </c>
-      <c r="AA16" s="587"/>
-      <c r="AB16" s="588"/>
-      <c r="AC16" s="586" t="s">
+      <c r="AA16" s="607"/>
+      <c r="AB16" s="608"/>
+      <c r="AC16" s="606" t="s">
         <v>26</v>
       </c>
-      <c r="AD16" s="587"/>
-      <c r="AE16" s="588"/>
-      <c r="AF16" s="586" t="s">
+      <c r="AD16" s="607"/>
+      <c r="AE16" s="608"/>
+      <c r="AF16" s="606" t="s">
         <v>27</v>
       </c>
-      <c r="AG16" s="587"/>
-      <c r="AH16" s="588"/>
-      <c r="AI16" s="586" t="s">
+      <c r="AG16" s="607"/>
+      <c r="AH16" s="608"/>
+      <c r="AI16" s="606" t="s">
         <v>28</v>
       </c>
-      <c r="AJ16" s="587"/>
-      <c r="AK16" s="588"/>
-      <c r="AL16" s="586" t="s">
+      <c r="AJ16" s="607"/>
+      <c r="AK16" s="608"/>
+      <c r="AL16" s="606" t="s">
         <v>29</v>
       </c>
-      <c r="AM16" s="587"/>
-      <c r="AN16" s="588"/>
+      <c r="AM16" s="607"/>
+      <c r="AN16" s="608"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
@@ -49409,74 +49468,74 @@
       <c r="BI16" s="8"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A17" s="601"/>
-      <c r="B17" s="601"/>
-      <c r="C17" s="589" t="s">
+      <c r="A17" s="621"/>
+      <c r="B17" s="621"/>
+      <c r="C17" s="609" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="591" t="s">
+      <c r="D17" s="633" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="593">
+      <c r="E17" s="613">
         <v>0.02</v>
       </c>
-      <c r="F17" s="594"/>
-      <c r="G17" s="595"/>
-      <c r="H17" s="593">
+      <c r="F17" s="614"/>
+      <c r="G17" s="615"/>
+      <c r="H17" s="613">
         <v>0.04</v>
       </c>
-      <c r="I17" s="594"/>
-      <c r="J17" s="595"/>
-      <c r="K17" s="593">
+      <c r="I17" s="614"/>
+      <c r="J17" s="615"/>
+      <c r="K17" s="613">
         <v>0.04</v>
       </c>
-      <c r="L17" s="594"/>
-      <c r="M17" s="595"/>
-      <c r="N17" s="593">
+      <c r="L17" s="614"/>
+      <c r="M17" s="615"/>
+      <c r="N17" s="613">
         <v>0.05</v>
       </c>
-      <c r="O17" s="594"/>
-      <c r="P17" s="595"/>
-      <c r="Q17" s="593">
+      <c r="O17" s="614"/>
+      <c r="P17" s="615"/>
+      <c r="Q17" s="613">
         <v>0.06</v>
       </c>
-      <c r="R17" s="594"/>
-      <c r="S17" s="595"/>
-      <c r="T17" s="593">
+      <c r="R17" s="614"/>
+      <c r="S17" s="615"/>
+      <c r="T17" s="613">
         <v>0.08</v>
       </c>
-      <c r="U17" s="594"/>
-      <c r="V17" s="595"/>
-      <c r="W17" s="593">
+      <c r="U17" s="614"/>
+      <c r="V17" s="615"/>
+      <c r="W17" s="613">
         <v>0.1</v>
       </c>
-      <c r="X17" s="594"/>
-      <c r="Y17" s="595"/>
-      <c r="Z17" s="593">
+      <c r="X17" s="614"/>
+      <c r="Y17" s="615"/>
+      <c r="Z17" s="613">
         <v>0.11</v>
       </c>
-      <c r="AA17" s="594"/>
-      <c r="AB17" s="595"/>
-      <c r="AC17" s="593">
+      <c r="AA17" s="614"/>
+      <c r="AB17" s="615"/>
+      <c r="AC17" s="613">
         <v>0.11</v>
       </c>
-      <c r="AD17" s="594"/>
-      <c r="AE17" s="595"/>
-      <c r="AF17" s="593">
+      <c r="AD17" s="614"/>
+      <c r="AE17" s="615"/>
+      <c r="AF17" s="613">
         <v>0.12</v>
       </c>
-      <c r="AG17" s="594"/>
-      <c r="AH17" s="595"/>
-      <c r="AI17" s="593">
+      <c r="AG17" s="614"/>
+      <c r="AH17" s="615"/>
+      <c r="AI17" s="613">
         <v>0.13</v>
       </c>
-      <c r="AJ17" s="594"/>
-      <c r="AK17" s="595"/>
-      <c r="AL17" s="593">
+      <c r="AJ17" s="614"/>
+      <c r="AK17" s="615"/>
+      <c r="AL17" s="613">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM17" s="594"/>
-      <c r="AN17" s="595"/>
+      <c r="AM17" s="614"/>
+      <c r="AN17" s="615"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
@@ -49500,10 +49559,10 @@
       <c r="BI17" s="8"/>
     </row>
     <row r="18" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="602"/>
-      <c r="B18" s="602"/>
-      <c r="C18" s="590"/>
-      <c r="D18" s="592"/>
+      <c r="A18" s="622"/>
+      <c r="B18" s="622"/>
+      <c r="C18" s="610"/>
+      <c r="D18" s="634"/>
       <c r="E18" s="115" t="s">
         <v>116</v>
       </c>
@@ -50115,10 +50174,10 @@
       </c>
     </row>
     <row r="22" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="584" t="s">
+      <c r="A22" s="604" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="585"/>
+      <c r="B22" s="605"/>
       <c r="C22" s="81">
         <f>SUM(C19:C21)</f>
         <v>4894</v>
@@ -51203,32 +51262,32 @@
     </row>
     <row r="51" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="605" t="s">
+      <c r="A52" s="593" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="606"/>
-      <c r="C52" s="606"/>
-      <c r="D52" s="606"/>
-      <c r="E52" s="606"/>
-      <c r="F52" s="606"/>
-      <c r="G52" s="606"/>
-      <c r="H52" s="607"/>
-      <c r="I52" s="607"/>
-      <c r="J52" s="607"/>
-      <c r="K52" s="607"/>
-      <c r="L52" s="607"/>
-      <c r="M52" s="607"/>
-      <c r="N52" s="607"/>
-      <c r="O52" s="607"/>
-      <c r="P52" s="607"/>
-      <c r="Q52" s="607"/>
-      <c r="R52" s="607"/>
-      <c r="S52" s="607"/>
-      <c r="T52" s="607"/>
-      <c r="U52" s="607"/>
-      <c r="V52" s="607"/>
-      <c r="W52" s="607"/>
-      <c r="X52" s="608"/>
+      <c r="B52" s="594"/>
+      <c r="C52" s="594"/>
+      <c r="D52" s="594"/>
+      <c r="E52" s="594"/>
+      <c r="F52" s="594"/>
+      <c r="G52" s="594"/>
+      <c r="H52" s="631"/>
+      <c r="I52" s="631"/>
+      <c r="J52" s="631"/>
+      <c r="K52" s="631"/>
+      <c r="L52" s="631"/>
+      <c r="M52" s="631"/>
+      <c r="N52" s="631"/>
+      <c r="O52" s="631"/>
+      <c r="P52" s="631"/>
+      <c r="Q52" s="631"/>
+      <c r="R52" s="631"/>
+      <c r="S52" s="631"/>
+      <c r="T52" s="631"/>
+      <c r="U52" s="631"/>
+      <c r="V52" s="631"/>
+      <c r="W52" s="631"/>
+      <c r="X52" s="632"/>
       <c r="Y52" s="149"/>
       <c r="Z52" s="149"/>
       <c r="AA52" s="149"/>
@@ -51247,33 +51306,33 @@
       <c r="AN52" s="149"/>
     </row>
     <row r="53" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="612" t="s">
+      <c r="B53" s="625" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="616" t="s">
+      <c r="C53" s="626" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="616" t="s">
+      <c r="D53" s="626" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="616" t="s">
+      <c r="E53" s="626" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="610" t="s">
+      <c r="F53" s="598" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="614" t="s">
+      <c r="G53" s="627" t="s">
         <v>88</v>
       </c>
-      <c r="H53" s="610" t="s">
+      <c r="H53" s="598" t="s">
         <v>90</v>
       </c>
       <c r="I53" s="24"/>
-      <c r="J53" s="609"/>
+      <c r="J53" s="629"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
-      <c r="M53" s="609"/>
-      <c r="N53" s="609"/>
+      <c r="M53" s="629"/>
+      <c r="N53" s="629"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
@@ -51281,9 +51340,9 @@
       <c r="S53" s="24"/>
       <c r="T53" s="24"/>
       <c r="U53" s="24"/>
-      <c r="V53" s="609"/>
-      <c r="W53" s="609"/>
-      <c r="X53" s="609"/>
+      <c r="V53" s="629"/>
+      <c r="W53" s="629"/>
+      <c r="X53" s="629"/>
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
       <c r="AA53" s="24"/>
@@ -51302,19 +51361,19 @@
       <c r="AN53" s="185"/>
     </row>
     <row r="54" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="613"/>
-      <c r="C54" s="611"/>
-      <c r="D54" s="611"/>
-      <c r="E54" s="611"/>
-      <c r="F54" s="611"/>
-      <c r="G54" s="615"/>
-      <c r="H54" s="611"/>
+      <c r="B54" s="597"/>
+      <c r="C54" s="599"/>
+      <c r="D54" s="599"/>
+      <c r="E54" s="599"/>
+      <c r="F54" s="599"/>
+      <c r="G54" s="628"/>
+      <c r="H54" s="599"/>
       <c r="I54" s="24"/>
-      <c r="J54" s="609"/>
+      <c r="J54" s="629"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
-      <c r="M54" s="609"/>
-      <c r="N54" s="609"/>
+      <c r="M54" s="629"/>
+      <c r="N54" s="629"/>
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
@@ -51322,9 +51381,9 @@
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
       <c r="U54" s="24"/>
-      <c r="V54" s="609"/>
-      <c r="W54" s="609"/>
-      <c r="X54" s="609"/>
+      <c r="V54" s="629"/>
+      <c r="W54" s="629"/>
+      <c r="X54" s="629"/>
       <c r="AA54" s="24"/>
       <c r="AB54" s="24"/>
       <c r="AC54" s="187"/>
@@ -51381,9 +51440,9 @@
       <c r="V55" s="187"/>
       <c r="W55" s="187"/>
       <c r="X55" s="187"/>
-      <c r="Z55" s="583"/>
-      <c r="AA55" s="583"/>
-      <c r="AB55" s="583"/>
+      <c r="Z55" s="581"/>
+      <c r="AA55" s="581"/>
+      <c r="AB55" s="581"/>
       <c r="AC55" s="188"/>
       <c r="AD55" s="24"/>
       <c r="AE55" s="24"/>
@@ -51438,9 +51497,9 @@
       <c r="V56" s="188"/>
       <c r="W56" s="188"/>
       <c r="X56" s="188"/>
-      <c r="Z56" s="583"/>
-      <c r="AA56" s="583"/>
-      <c r="AB56" s="583"/>
+      <c r="Z56" s="581"/>
+      <c r="AA56" s="581"/>
+      <c r="AB56" s="581"/>
       <c r="AC56" s="187"/>
       <c r="AD56" s="24"/>
       <c r="AE56" s="24"/>
@@ -51495,9 +51554,9 @@
       <c r="V57" s="187"/>
       <c r="W57" s="187"/>
       <c r="X57" s="187"/>
-      <c r="Z57" s="583"/>
-      <c r="AA57" s="583"/>
-      <c r="AB57" s="583"/>
+      <c r="Z57" s="581"/>
+      <c r="AA57" s="581"/>
+      <c r="AB57" s="581"/>
       <c r="AC57" s="185"/>
       <c r="AD57" s="185"/>
       <c r="AE57" s="185"/>
@@ -51519,45 +51578,45 @@
         <f>SUM(B56:AF56)</f>
         <v>885000</v>
       </c>
-      <c r="C58" s="581"/>
-      <c r="D58" s="582"/>
-      <c r="E58" s="582"/>
-      <c r="F58" s="582"/>
-      <c r="G58" s="582"/>
-      <c r="H58" s="582"/>
-      <c r="I58" s="582"/>
-      <c r="J58" s="582"/>
-      <c r="K58" s="582"/>
-      <c r="L58" s="582"/>
-      <c r="M58" s="582"/>
-      <c r="N58" s="582"/>
-      <c r="O58" s="582"/>
-      <c r="P58" s="582"/>
-      <c r="Q58" s="582"/>
-      <c r="R58" s="582"/>
-      <c r="S58" s="582"/>
-      <c r="T58" s="582"/>
-      <c r="U58" s="582"/>
-      <c r="V58" s="582"/>
-      <c r="W58" s="582"/>
-      <c r="X58" s="582"/>
-      <c r="Y58" s="582"/>
-      <c r="Z58" s="582"/>
-      <c r="AA58" s="582"/>
-      <c r="AB58" s="582"/>
-      <c r="AC58" s="582"/>
-      <c r="AD58" s="582"/>
-      <c r="AE58" s="582"/>
-      <c r="AF58" s="582"/>
-      <c r="AG58" s="582"/>
-      <c r="AH58" s="582"/>
-      <c r="AI58" s="582"/>
-      <c r="AJ58" s="582"/>
-      <c r="AK58" s="582"/>
-      <c r="AL58" s="582"/>
-      <c r="AM58" s="582"/>
-      <c r="AN58" s="582"/>
-      <c r="AO58" s="582"/>
+      <c r="C58" s="582"/>
+      <c r="D58" s="583"/>
+      <c r="E58" s="583"/>
+      <c r="F58" s="583"/>
+      <c r="G58" s="583"/>
+      <c r="H58" s="583"/>
+      <c r="I58" s="583"/>
+      <c r="J58" s="583"/>
+      <c r="K58" s="583"/>
+      <c r="L58" s="583"/>
+      <c r="M58" s="583"/>
+      <c r="N58" s="583"/>
+      <c r="O58" s="583"/>
+      <c r="P58" s="583"/>
+      <c r="Q58" s="583"/>
+      <c r="R58" s="583"/>
+      <c r="S58" s="583"/>
+      <c r="T58" s="583"/>
+      <c r="U58" s="583"/>
+      <c r="V58" s="583"/>
+      <c r="W58" s="583"/>
+      <c r="X58" s="583"/>
+      <c r="Y58" s="583"/>
+      <c r="Z58" s="583"/>
+      <c r="AA58" s="583"/>
+      <c r="AB58" s="583"/>
+      <c r="AC58" s="583"/>
+      <c r="AD58" s="583"/>
+      <c r="AE58" s="583"/>
+      <c r="AF58" s="583"/>
+      <c r="AG58" s="583"/>
+      <c r="AH58" s="583"/>
+      <c r="AI58" s="583"/>
+      <c r="AJ58" s="583"/>
+      <c r="AK58" s="583"/>
+      <c r="AL58" s="583"/>
+      <c r="AM58" s="583"/>
+      <c r="AN58" s="583"/>
+      <c r="AO58" s="583"/>
     </row>
     <row r="59" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="103" t="s">
@@ -51567,45 +51626,45 @@
         <f>B58*12</f>
         <v>10620000</v>
       </c>
-      <c r="C59" s="581"/>
-      <c r="D59" s="582"/>
-      <c r="E59" s="582"/>
-      <c r="F59" s="582"/>
-      <c r="G59" s="582"/>
-      <c r="H59" s="582"/>
-      <c r="I59" s="582"/>
-      <c r="J59" s="582"/>
-      <c r="K59" s="582"/>
-      <c r="L59" s="582"/>
-      <c r="M59" s="582"/>
-      <c r="N59" s="582"/>
-      <c r="O59" s="582"/>
-      <c r="P59" s="582"/>
-      <c r="Q59" s="582"/>
-      <c r="R59" s="582"/>
-      <c r="S59" s="582"/>
-      <c r="T59" s="582"/>
-      <c r="U59" s="582"/>
-      <c r="V59" s="582"/>
-      <c r="W59" s="582"/>
-      <c r="X59" s="582"/>
-      <c r="Y59" s="582"/>
-      <c r="Z59" s="582"/>
-      <c r="AA59" s="582"/>
-      <c r="AB59" s="582"/>
-      <c r="AC59" s="582"/>
-      <c r="AD59" s="582"/>
-      <c r="AE59" s="582"/>
-      <c r="AF59" s="582"/>
-      <c r="AG59" s="582"/>
-      <c r="AH59" s="582"/>
-      <c r="AI59" s="582"/>
-      <c r="AJ59" s="582"/>
-      <c r="AK59" s="582"/>
-      <c r="AL59" s="582"/>
-      <c r="AM59" s="582"/>
-      <c r="AN59" s="582"/>
-      <c r="AO59" s="582"/>
+      <c r="C59" s="582"/>
+      <c r="D59" s="583"/>
+      <c r="E59" s="583"/>
+      <c r="F59" s="583"/>
+      <c r="G59" s="583"/>
+      <c r="H59" s="583"/>
+      <c r="I59" s="583"/>
+      <c r="J59" s="583"/>
+      <c r="K59" s="583"/>
+      <c r="L59" s="583"/>
+      <c r="M59" s="583"/>
+      <c r="N59" s="583"/>
+      <c r="O59" s="583"/>
+      <c r="P59" s="583"/>
+      <c r="Q59" s="583"/>
+      <c r="R59" s="583"/>
+      <c r="S59" s="583"/>
+      <c r="T59" s="583"/>
+      <c r="U59" s="583"/>
+      <c r="V59" s="583"/>
+      <c r="W59" s="583"/>
+      <c r="X59" s="583"/>
+      <c r="Y59" s="583"/>
+      <c r="Z59" s="583"/>
+      <c r="AA59" s="583"/>
+      <c r="AB59" s="583"/>
+      <c r="AC59" s="583"/>
+      <c r="AD59" s="583"/>
+      <c r="AE59" s="583"/>
+      <c r="AF59" s="583"/>
+      <c r="AG59" s="583"/>
+      <c r="AH59" s="583"/>
+      <c r="AI59" s="583"/>
+      <c r="AJ59" s="583"/>
+      <c r="AK59" s="583"/>
+      <c r="AL59" s="583"/>
+      <c r="AM59" s="583"/>
+      <c r="AN59" s="583"/>
+      <c r="AO59" s="583"/>
     </row>
     <row r="60" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
@@ -51723,48 +51782,48 @@
       <c r="AN63" s="16"/>
     </row>
     <row r="64" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="596" t="s">
+      <c r="A64" s="616" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="597"/>
-      <c r="C64" s="597"/>
-      <c r="D64" s="597"/>
-      <c r="E64" s="597"/>
-      <c r="F64" s="597"/>
-      <c r="G64" s="597"/>
-      <c r="H64" s="598"/>
-      <c r="I64" s="598"/>
-      <c r="J64" s="598"/>
-      <c r="K64" s="598"/>
-      <c r="L64" s="597"/>
-      <c r="M64" s="597"/>
-      <c r="N64" s="597"/>
-      <c r="O64" s="597"/>
-      <c r="P64" s="597"/>
-      <c r="Q64" s="597"/>
-      <c r="R64" s="597"/>
-      <c r="S64" s="597"/>
-      <c r="T64" s="597"/>
-      <c r="U64" s="597"/>
-      <c r="V64" s="597"/>
-      <c r="W64" s="597"/>
-      <c r="X64" s="597"/>
-      <c r="Y64" s="597"/>
-      <c r="Z64" s="597"/>
-      <c r="AA64" s="597"/>
-      <c r="AB64" s="597"/>
-      <c r="AC64" s="597"/>
-      <c r="AD64" s="597"/>
-      <c r="AE64" s="597"/>
-      <c r="AF64" s="597"/>
-      <c r="AG64" s="597"/>
-      <c r="AH64" s="597"/>
-      <c r="AI64" s="597"/>
-      <c r="AJ64" s="597"/>
-      <c r="AK64" s="597"/>
-      <c r="AL64" s="597"/>
-      <c r="AM64" s="597"/>
-      <c r="AN64" s="599"/>
+      <c r="B64" s="617"/>
+      <c r="C64" s="617"/>
+      <c r="D64" s="617"/>
+      <c r="E64" s="617"/>
+      <c r="F64" s="617"/>
+      <c r="G64" s="617"/>
+      <c r="H64" s="618"/>
+      <c r="I64" s="618"/>
+      <c r="J64" s="618"/>
+      <c r="K64" s="618"/>
+      <c r="L64" s="617"/>
+      <c r="M64" s="617"/>
+      <c r="N64" s="617"/>
+      <c r="O64" s="617"/>
+      <c r="P64" s="617"/>
+      <c r="Q64" s="617"/>
+      <c r="R64" s="617"/>
+      <c r="S64" s="617"/>
+      <c r="T64" s="617"/>
+      <c r="U64" s="617"/>
+      <c r="V64" s="617"/>
+      <c r="W64" s="617"/>
+      <c r="X64" s="617"/>
+      <c r="Y64" s="617"/>
+      <c r="Z64" s="617"/>
+      <c r="AA64" s="617"/>
+      <c r="AB64" s="617"/>
+      <c r="AC64" s="617"/>
+      <c r="AD64" s="617"/>
+      <c r="AE64" s="617"/>
+      <c r="AF64" s="617"/>
+      <c r="AG64" s="617"/>
+      <c r="AH64" s="617"/>
+      <c r="AI64" s="617"/>
+      <c r="AJ64" s="617"/>
+      <c r="AK64" s="617"/>
+      <c r="AL64" s="617"/>
+      <c r="AM64" s="617"/>
+      <c r="AN64" s="619"/>
       <c r="AO64" s="8"/>
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
@@ -51788,76 +51847,76 @@
       <c r="BI64" s="8"/>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A65" s="600" t="s">
+      <c r="A65" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="600" t="s">
+      <c r="B65" s="620" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="603" t="s">
+      <c r="C65" s="623" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="604"/>
-      <c r="E65" s="586" t="s">
+      <c r="D65" s="630"/>
+      <c r="E65" s="606" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="587"/>
-      <c r="G65" s="588"/>
-      <c r="H65" s="586" t="s">
+      <c r="F65" s="607"/>
+      <c r="G65" s="608"/>
+      <c r="H65" s="606" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="587"/>
-      <c r="J65" s="588"/>
-      <c r="K65" s="586" t="s">
+      <c r="I65" s="607"/>
+      <c r="J65" s="608"/>
+      <c r="K65" s="606" t="s">
         <v>20</v>
       </c>
-      <c r="L65" s="587"/>
-      <c r="M65" s="588"/>
-      <c r="N65" s="586" t="s">
+      <c r="L65" s="607"/>
+      <c r="M65" s="608"/>
+      <c r="N65" s="606" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="587"/>
-      <c r="P65" s="588"/>
-      <c r="Q65" s="586" t="s">
+      <c r="O65" s="607"/>
+      <c r="P65" s="608"/>
+      <c r="Q65" s="606" t="s">
         <v>22</v>
       </c>
-      <c r="R65" s="587"/>
-      <c r="S65" s="588"/>
-      <c r="T65" s="586" t="s">
+      <c r="R65" s="607"/>
+      <c r="S65" s="608"/>
+      <c r="T65" s="606" t="s">
         <v>23</v>
       </c>
-      <c r="U65" s="587"/>
-      <c r="V65" s="588"/>
-      <c r="W65" s="586" t="s">
+      <c r="U65" s="607"/>
+      <c r="V65" s="608"/>
+      <c r="W65" s="606" t="s">
         <v>24</v>
       </c>
-      <c r="X65" s="587"/>
-      <c r="Y65" s="588"/>
-      <c r="Z65" s="586" t="s">
+      <c r="X65" s="607"/>
+      <c r="Y65" s="608"/>
+      <c r="Z65" s="606" t="s">
         <v>25</v>
       </c>
-      <c r="AA65" s="587"/>
-      <c r="AB65" s="588"/>
-      <c r="AC65" s="586" t="s">
+      <c r="AA65" s="607"/>
+      <c r="AB65" s="608"/>
+      <c r="AC65" s="606" t="s">
         <v>26</v>
       </c>
-      <c r="AD65" s="587"/>
-      <c r="AE65" s="588"/>
-      <c r="AF65" s="586" t="s">
+      <c r="AD65" s="607"/>
+      <c r="AE65" s="608"/>
+      <c r="AF65" s="606" t="s">
         <v>27</v>
       </c>
-      <c r="AG65" s="587"/>
-      <c r="AH65" s="588"/>
-      <c r="AI65" s="586" t="s">
+      <c r="AG65" s="607"/>
+      <c r="AH65" s="608"/>
+      <c r="AI65" s="606" t="s">
         <v>28</v>
       </c>
-      <c r="AJ65" s="587"/>
-      <c r="AK65" s="588"/>
-      <c r="AL65" s="586" t="s">
+      <c r="AJ65" s="607"/>
+      <c r="AK65" s="608"/>
+      <c r="AL65" s="606" t="s">
         <v>29</v>
       </c>
-      <c r="AM65" s="587"/>
-      <c r="AN65" s="588"/>
+      <c r="AM65" s="607"/>
+      <c r="AN65" s="608"/>
       <c r="AO65" s="8"/>
       <c r="AP65" s="8"/>
       <c r="AQ65" s="8"/>
@@ -51881,74 +51940,74 @@
       <c r="BI65" s="8"/>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A66" s="601"/>
-      <c r="B66" s="601"/>
-      <c r="C66" s="589" t="s">
+      <c r="A66" s="621"/>
+      <c r="B66" s="621"/>
+      <c r="C66" s="609" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="591" t="s">
+      <c r="D66" s="633" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="593">
+      <c r="E66" s="613">
         <v>0.02</v>
       </c>
-      <c r="F66" s="594"/>
-      <c r="G66" s="595"/>
-      <c r="H66" s="593">
+      <c r="F66" s="614"/>
+      <c r="G66" s="615"/>
+      <c r="H66" s="613">
         <v>0.04</v>
       </c>
-      <c r="I66" s="594"/>
-      <c r="J66" s="595"/>
-      <c r="K66" s="593">
+      <c r="I66" s="614"/>
+      <c r="J66" s="615"/>
+      <c r="K66" s="613">
         <v>0.04</v>
       </c>
-      <c r="L66" s="594"/>
-      <c r="M66" s="595"/>
-      <c r="N66" s="593">
+      <c r="L66" s="614"/>
+      <c r="M66" s="615"/>
+      <c r="N66" s="613">
         <v>0.05</v>
       </c>
-      <c r="O66" s="594"/>
-      <c r="P66" s="595"/>
-      <c r="Q66" s="593">
+      <c r="O66" s="614"/>
+      <c r="P66" s="615"/>
+      <c r="Q66" s="613">
         <v>0.06</v>
       </c>
-      <c r="R66" s="594"/>
-      <c r="S66" s="595"/>
-      <c r="T66" s="593">
+      <c r="R66" s="614"/>
+      <c r="S66" s="615"/>
+      <c r="T66" s="613">
         <v>0.08</v>
       </c>
-      <c r="U66" s="594"/>
-      <c r="V66" s="595"/>
-      <c r="W66" s="593">
+      <c r="U66" s="614"/>
+      <c r="V66" s="615"/>
+      <c r="W66" s="613">
         <v>0.1</v>
       </c>
-      <c r="X66" s="594"/>
-      <c r="Y66" s="595"/>
-      <c r="Z66" s="593">
+      <c r="X66" s="614"/>
+      <c r="Y66" s="615"/>
+      <c r="Z66" s="613">
         <v>0.11</v>
       </c>
-      <c r="AA66" s="594"/>
-      <c r="AB66" s="595"/>
-      <c r="AC66" s="593">
+      <c r="AA66" s="614"/>
+      <c r="AB66" s="615"/>
+      <c r="AC66" s="613">
         <v>0.11</v>
       </c>
-      <c r="AD66" s="594"/>
-      <c r="AE66" s="595"/>
-      <c r="AF66" s="593">
+      <c r="AD66" s="614"/>
+      <c r="AE66" s="615"/>
+      <c r="AF66" s="613">
         <v>0.12</v>
       </c>
-      <c r="AG66" s="594"/>
-      <c r="AH66" s="595"/>
-      <c r="AI66" s="593">
+      <c r="AG66" s="614"/>
+      <c r="AH66" s="615"/>
+      <c r="AI66" s="613">
         <v>0.13</v>
       </c>
-      <c r="AJ66" s="594"/>
-      <c r="AK66" s="595"/>
-      <c r="AL66" s="593">
+      <c r="AJ66" s="614"/>
+      <c r="AK66" s="615"/>
+      <c r="AL66" s="613">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM66" s="594"/>
-      <c r="AN66" s="595"/>
+      <c r="AM66" s="614"/>
+      <c r="AN66" s="615"/>
       <c r="AO66" s="8"/>
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
@@ -51972,10 +52031,10 @@
       <c r="BI66" s="8"/>
     </row>
     <row r="67" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="602"/>
-      <c r="B67" s="602"/>
-      <c r="C67" s="590"/>
-      <c r="D67" s="592"/>
+      <c r="A67" s="622"/>
+      <c r="B67" s="622"/>
+      <c r="C67" s="610"/>
+      <c r="D67" s="634"/>
       <c r="E67" s="115" t="s">
         <v>116</v>
       </c>
@@ -52587,10 +52646,10 @@
       </c>
     </row>
     <row r="71" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="584" t="s">
+      <c r="A71" s="604" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="585"/>
+      <c r="B71" s="605"/>
       <c r="C71" s="81">
         <f>SUM(C68:C70)</f>
         <v>9809</v>
@@ -52675,32 +52734,32 @@
     </row>
     <row r="100" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="605" t="s">
+      <c r="A101" s="593" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="606"/>
-      <c r="C101" s="606"/>
-      <c r="D101" s="606"/>
-      <c r="E101" s="606"/>
-      <c r="F101" s="606"/>
-      <c r="G101" s="606"/>
-      <c r="H101" s="606"/>
-      <c r="I101" s="606"/>
-      <c r="J101" s="606"/>
-      <c r="K101" s="606"/>
-      <c r="L101" s="606"/>
-      <c r="M101" s="606"/>
-      <c r="N101" s="606"/>
-      <c r="O101" s="606"/>
-      <c r="P101" s="606"/>
-      <c r="Q101" s="606"/>
-      <c r="R101" s="606"/>
-      <c r="S101" s="606"/>
-      <c r="T101" s="606"/>
-      <c r="U101" s="606"/>
-      <c r="V101" s="606"/>
-      <c r="W101" s="606"/>
-      <c r="X101" s="617"/>
+      <c r="B101" s="594"/>
+      <c r="C101" s="594"/>
+      <c r="D101" s="594"/>
+      <c r="E101" s="594"/>
+      <c r="F101" s="594"/>
+      <c r="G101" s="594"/>
+      <c r="H101" s="594"/>
+      <c r="I101" s="594"/>
+      <c r="J101" s="594"/>
+      <c r="K101" s="594"/>
+      <c r="L101" s="594"/>
+      <c r="M101" s="594"/>
+      <c r="N101" s="594"/>
+      <c r="O101" s="594"/>
+      <c r="P101" s="594"/>
+      <c r="Q101" s="594"/>
+      <c r="R101" s="594"/>
+      <c r="S101" s="594"/>
+      <c r="T101" s="594"/>
+      <c r="U101" s="594"/>
+      <c r="V101" s="594"/>
+      <c r="W101" s="594"/>
+      <c r="X101" s="595"/>
       <c r="Y101" s="149"/>
       <c r="Z101" s="149"/>
       <c r="AA101" s="149"/>
@@ -52719,41 +52778,41 @@
       <c r="AN101" s="99"/>
     </row>
     <row r="102" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="612" t="s">
+      <c r="B102" s="625" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="616" t="s">
+      <c r="C102" s="626" t="s">
         <v>72</v>
       </c>
-      <c r="D102" s="616" t="s">
+      <c r="D102" s="626" t="s">
         <v>79</v>
       </c>
-      <c r="E102" s="616" t="s">
+      <c r="E102" s="626" t="s">
         <v>81</v>
       </c>
-      <c r="F102" s="610" t="s">
+      <c r="F102" s="598" t="s">
         <v>84</v>
       </c>
-      <c r="G102" s="614" t="s">
+      <c r="G102" s="627" t="s">
         <v>88</v>
       </c>
-      <c r="H102" s="610" t="s">
+      <c r="H102" s="598" t="s">
         <v>90</v>
       </c>
-      <c r="I102" s="610" t="s">
+      <c r="I102" s="598" t="s">
         <v>91</v>
       </c>
-      <c r="J102" s="610" t="s">
+      <c r="J102" s="598" t="s">
         <v>92</v>
       </c>
-      <c r="K102" s="610" t="s">
+      <c r="K102" s="598" t="s">
         <v>93</v>
       </c>
-      <c r="L102" s="610" t="s">
+      <c r="L102" s="598" t="s">
         <v>77</v>
       </c>
-      <c r="M102" s="609"/>
-      <c r="N102" s="609"/>
+      <c r="M102" s="629"/>
+      <c r="N102" s="629"/>
       <c r="O102" s="24"/>
       <c r="P102" s="24"/>
       <c r="Q102" s="24"/>
@@ -52761,9 +52820,9 @@
       <c r="S102" s="24"/>
       <c r="T102" s="24"/>
       <c r="U102" s="24"/>
-      <c r="V102" s="609"/>
-      <c r="W102" s="609"/>
-      <c r="X102" s="609"/>
+      <c r="V102" s="629"/>
+      <c r="W102" s="629"/>
+      <c r="X102" s="629"/>
       <c r="Y102" s="24"/>
       <c r="Z102" s="24"/>
       <c r="AA102" s="24"/>
@@ -52782,19 +52841,19 @@
       <c r="AN102" s="185"/>
     </row>
     <row r="103" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="613"/>
-      <c r="C103" s="611"/>
-      <c r="D103" s="611"/>
-      <c r="E103" s="611"/>
-      <c r="F103" s="611"/>
-      <c r="G103" s="615"/>
-      <c r="H103" s="611"/>
-      <c r="I103" s="611"/>
-      <c r="J103" s="611"/>
-      <c r="K103" s="611"/>
-      <c r="L103" s="611"/>
-      <c r="M103" s="609"/>
-      <c r="N103" s="609"/>
+      <c r="B103" s="597"/>
+      <c r="C103" s="599"/>
+      <c r="D103" s="599"/>
+      <c r="E103" s="599"/>
+      <c r="F103" s="599"/>
+      <c r="G103" s="628"/>
+      <c r="H103" s="599"/>
+      <c r="I103" s="599"/>
+      <c r="J103" s="599"/>
+      <c r="K103" s="599"/>
+      <c r="L103" s="599"/>
+      <c r="M103" s="629"/>
+      <c r="N103" s="629"/>
       <c r="O103" s="24"/>
       <c r="P103" s="24"/>
       <c r="Q103" s="24"/>
@@ -52802,9 +52861,9 @@
       <c r="S103" s="24"/>
       <c r="T103" s="24"/>
       <c r="U103" s="24"/>
-      <c r="V103" s="609"/>
-      <c r="W103" s="609"/>
-      <c r="X103" s="609"/>
+      <c r="V103" s="629"/>
+      <c r="W103" s="629"/>
+      <c r="X103" s="629"/>
       <c r="AA103" s="24"/>
       <c r="AB103" s="24"/>
       <c r="AC103" s="187"/>
@@ -52869,9 +52928,9 @@
       <c r="V104" s="187"/>
       <c r="W104" s="187"/>
       <c r="X104" s="187"/>
-      <c r="Z104" s="583"/>
-      <c r="AA104" s="583"/>
-      <c r="AB104" s="583"/>
+      <c r="Z104" s="581"/>
+      <c r="AA104" s="581"/>
+      <c r="AB104" s="581"/>
       <c r="AC104" s="188"/>
       <c r="AD104" s="24"/>
       <c r="AE104" s="24"/>
@@ -52934,9 +52993,9 @@
       <c r="V105" s="188"/>
       <c r="W105" s="188"/>
       <c r="X105" s="188"/>
-      <c r="Z105" s="583"/>
-      <c r="AA105" s="583"/>
-      <c r="AB105" s="583"/>
+      <c r="Z105" s="581"/>
+      <c r="AA105" s="581"/>
+      <c r="AB105" s="581"/>
       <c r="AC105" s="187"/>
       <c r="AD105" s="24"/>
       <c r="AE105" s="24"/>
@@ -52999,9 +53058,9 @@
       <c r="V106" s="187"/>
       <c r="W106" s="187"/>
       <c r="X106" s="187"/>
-      <c r="Z106" s="583"/>
-      <c r="AA106" s="583"/>
-      <c r="AB106" s="583"/>
+      <c r="Z106" s="581"/>
+      <c r="AA106" s="581"/>
+      <c r="AB106" s="581"/>
       <c r="AC106" s="185"/>
       <c r="AD106" s="185"/>
       <c r="AE106" s="185"/>
@@ -53023,45 +53082,45 @@
         <f>SUM(B105:AF105)</f>
         <v>1195000</v>
       </c>
-      <c r="C107" s="581"/>
-      <c r="D107" s="582"/>
-      <c r="E107" s="582"/>
-      <c r="F107" s="582"/>
-      <c r="G107" s="582"/>
-      <c r="H107" s="582"/>
-      <c r="I107" s="582"/>
-      <c r="J107" s="582"/>
-      <c r="K107" s="582"/>
-      <c r="L107" s="582"/>
-      <c r="M107" s="582"/>
-      <c r="N107" s="582"/>
-      <c r="O107" s="582"/>
-      <c r="P107" s="582"/>
-      <c r="Q107" s="582"/>
-      <c r="R107" s="582"/>
-      <c r="S107" s="582"/>
-      <c r="T107" s="582"/>
-      <c r="U107" s="582"/>
-      <c r="V107" s="582"/>
-      <c r="W107" s="582"/>
-      <c r="X107" s="582"/>
-      <c r="Y107" s="582"/>
-      <c r="Z107" s="582"/>
-      <c r="AA107" s="582"/>
-      <c r="AB107" s="582"/>
-      <c r="AC107" s="582"/>
-      <c r="AD107" s="582"/>
-      <c r="AE107" s="582"/>
-      <c r="AF107" s="582"/>
-      <c r="AG107" s="582"/>
-      <c r="AH107" s="582"/>
-      <c r="AI107" s="582"/>
-      <c r="AJ107" s="582"/>
-      <c r="AK107" s="582"/>
-      <c r="AL107" s="582"/>
-      <c r="AM107" s="582"/>
-      <c r="AN107" s="582"/>
-      <c r="AO107" s="582"/>
+      <c r="C107" s="582"/>
+      <c r="D107" s="583"/>
+      <c r="E107" s="583"/>
+      <c r="F107" s="583"/>
+      <c r="G107" s="583"/>
+      <c r="H107" s="583"/>
+      <c r="I107" s="583"/>
+      <c r="J107" s="583"/>
+      <c r="K107" s="583"/>
+      <c r="L107" s="583"/>
+      <c r="M107" s="583"/>
+      <c r="N107" s="583"/>
+      <c r="O107" s="583"/>
+      <c r="P107" s="583"/>
+      <c r="Q107" s="583"/>
+      <c r="R107" s="583"/>
+      <c r="S107" s="583"/>
+      <c r="T107" s="583"/>
+      <c r="U107" s="583"/>
+      <c r="V107" s="583"/>
+      <c r="W107" s="583"/>
+      <c r="X107" s="583"/>
+      <c r="Y107" s="583"/>
+      <c r="Z107" s="583"/>
+      <c r="AA107" s="583"/>
+      <c r="AB107" s="583"/>
+      <c r="AC107" s="583"/>
+      <c r="AD107" s="583"/>
+      <c r="AE107" s="583"/>
+      <c r="AF107" s="583"/>
+      <c r="AG107" s="583"/>
+      <c r="AH107" s="583"/>
+      <c r="AI107" s="583"/>
+      <c r="AJ107" s="583"/>
+      <c r="AK107" s="583"/>
+      <c r="AL107" s="583"/>
+      <c r="AM107" s="583"/>
+      <c r="AN107" s="583"/>
+      <c r="AO107" s="583"/>
     </row>
     <row r="108" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="103" t="s">
@@ -53071,45 +53130,45 @@
         <f>B107*12</f>
         <v>14340000</v>
       </c>
-      <c r="C108" s="581"/>
-      <c r="D108" s="582"/>
-      <c r="E108" s="582"/>
-      <c r="F108" s="582"/>
-      <c r="G108" s="582"/>
-      <c r="H108" s="582"/>
-      <c r="I108" s="582"/>
-      <c r="J108" s="582"/>
-      <c r="K108" s="582"/>
-      <c r="L108" s="582"/>
-      <c r="M108" s="582"/>
-      <c r="N108" s="582"/>
-      <c r="O108" s="582"/>
-      <c r="P108" s="582"/>
-      <c r="Q108" s="582"/>
-      <c r="R108" s="582"/>
-      <c r="S108" s="582"/>
-      <c r="T108" s="582"/>
-      <c r="U108" s="582"/>
-      <c r="V108" s="582"/>
-      <c r="W108" s="582"/>
-      <c r="X108" s="582"/>
-      <c r="Y108" s="582"/>
-      <c r="Z108" s="582"/>
-      <c r="AA108" s="582"/>
-      <c r="AB108" s="582"/>
-      <c r="AC108" s="582"/>
-      <c r="AD108" s="582"/>
-      <c r="AE108" s="582"/>
-      <c r="AF108" s="582"/>
-      <c r="AG108" s="582"/>
-      <c r="AH108" s="582"/>
-      <c r="AI108" s="582"/>
-      <c r="AJ108" s="582"/>
-      <c r="AK108" s="582"/>
-      <c r="AL108" s="582"/>
-      <c r="AM108" s="582"/>
-      <c r="AN108" s="582"/>
-      <c r="AO108" s="582"/>
+      <c r="C108" s="582"/>
+      <c r="D108" s="583"/>
+      <c r="E108" s="583"/>
+      <c r="F108" s="583"/>
+      <c r="G108" s="583"/>
+      <c r="H108" s="583"/>
+      <c r="I108" s="583"/>
+      <c r="J108" s="583"/>
+      <c r="K108" s="583"/>
+      <c r="L108" s="583"/>
+      <c r="M108" s="583"/>
+      <c r="N108" s="583"/>
+      <c r="O108" s="583"/>
+      <c r="P108" s="583"/>
+      <c r="Q108" s="583"/>
+      <c r="R108" s="583"/>
+      <c r="S108" s="583"/>
+      <c r="T108" s="583"/>
+      <c r="U108" s="583"/>
+      <c r="V108" s="583"/>
+      <c r="W108" s="583"/>
+      <c r="X108" s="583"/>
+      <c r="Y108" s="583"/>
+      <c r="Z108" s="583"/>
+      <c r="AA108" s="583"/>
+      <c r="AB108" s="583"/>
+      <c r="AC108" s="583"/>
+      <c r="AD108" s="583"/>
+      <c r="AE108" s="583"/>
+      <c r="AF108" s="583"/>
+      <c r="AG108" s="583"/>
+      <c r="AH108" s="583"/>
+      <c r="AI108" s="583"/>
+      <c r="AJ108" s="583"/>
+      <c r="AK108" s="583"/>
+      <c r="AL108" s="583"/>
+      <c r="AM108" s="583"/>
+      <c r="AN108" s="583"/>
+      <c r="AO108" s="583"/>
     </row>
     <row r="109" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="178"/>
@@ -53197,48 +53256,48 @@
     </row>
     <row r="111" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="596" t="s">
+      <c r="A112" s="616" t="s">
         <v>97</v>
       </c>
-      <c r="B112" s="597"/>
-      <c r="C112" s="597"/>
-      <c r="D112" s="597"/>
-      <c r="E112" s="597"/>
-      <c r="F112" s="597"/>
-      <c r="G112" s="597"/>
-      <c r="H112" s="598"/>
-      <c r="I112" s="598"/>
-      <c r="J112" s="598"/>
-      <c r="K112" s="598"/>
-      <c r="L112" s="597"/>
-      <c r="M112" s="597"/>
-      <c r="N112" s="597"/>
-      <c r="O112" s="597"/>
-      <c r="P112" s="597"/>
-      <c r="Q112" s="597"/>
-      <c r="R112" s="597"/>
-      <c r="S112" s="597"/>
-      <c r="T112" s="597"/>
-      <c r="U112" s="597"/>
-      <c r="V112" s="597"/>
-      <c r="W112" s="597"/>
-      <c r="X112" s="597"/>
-      <c r="Y112" s="597"/>
-      <c r="Z112" s="597"/>
-      <c r="AA112" s="597"/>
-      <c r="AB112" s="597"/>
-      <c r="AC112" s="597"/>
-      <c r="AD112" s="597"/>
-      <c r="AE112" s="597"/>
-      <c r="AF112" s="597"/>
-      <c r="AG112" s="597"/>
-      <c r="AH112" s="597"/>
-      <c r="AI112" s="597"/>
-      <c r="AJ112" s="597"/>
-      <c r="AK112" s="597"/>
-      <c r="AL112" s="597"/>
-      <c r="AM112" s="597"/>
-      <c r="AN112" s="599"/>
+      <c r="B112" s="617"/>
+      <c r="C112" s="617"/>
+      <c r="D112" s="617"/>
+      <c r="E112" s="617"/>
+      <c r="F112" s="617"/>
+      <c r="G112" s="617"/>
+      <c r="H112" s="618"/>
+      <c r="I112" s="618"/>
+      <c r="J112" s="618"/>
+      <c r="K112" s="618"/>
+      <c r="L112" s="617"/>
+      <c r="M112" s="617"/>
+      <c r="N112" s="617"/>
+      <c r="O112" s="617"/>
+      <c r="P112" s="617"/>
+      <c r="Q112" s="617"/>
+      <c r="R112" s="617"/>
+      <c r="S112" s="617"/>
+      <c r="T112" s="617"/>
+      <c r="U112" s="617"/>
+      <c r="V112" s="617"/>
+      <c r="W112" s="617"/>
+      <c r="X112" s="617"/>
+      <c r="Y112" s="617"/>
+      <c r="Z112" s="617"/>
+      <c r="AA112" s="617"/>
+      <c r="AB112" s="617"/>
+      <c r="AC112" s="617"/>
+      <c r="AD112" s="617"/>
+      <c r="AE112" s="617"/>
+      <c r="AF112" s="617"/>
+      <c r="AG112" s="617"/>
+      <c r="AH112" s="617"/>
+      <c r="AI112" s="617"/>
+      <c r="AJ112" s="617"/>
+      <c r="AK112" s="617"/>
+      <c r="AL112" s="617"/>
+      <c r="AM112" s="617"/>
+      <c r="AN112" s="619"/>
       <c r="AO112" s="8"/>
       <c r="AP112" s="8"/>
       <c r="AQ112" s="8"/>
@@ -53262,76 +53321,76 @@
       <c r="BI112" s="8"/>
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A113" s="600" t="s">
+      <c r="A113" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="B113" s="600" t="s">
+      <c r="B113" s="620" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="603" t="s">
+      <c r="C113" s="623" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="618"/>
-      <c r="E113" s="586" t="s">
+      <c r="D113" s="624"/>
+      <c r="E113" s="606" t="s">
         <v>18</v>
       </c>
-      <c r="F113" s="587"/>
-      <c r="G113" s="587"/>
-      <c r="H113" s="586" t="s">
+      <c r="F113" s="607"/>
+      <c r="G113" s="607"/>
+      <c r="H113" s="606" t="s">
         <v>19</v>
       </c>
-      <c r="I113" s="587"/>
-      <c r="J113" s="588"/>
-      <c r="K113" s="586" t="s">
+      <c r="I113" s="607"/>
+      <c r="J113" s="608"/>
+      <c r="K113" s="606" t="s">
         <v>20</v>
       </c>
-      <c r="L113" s="587"/>
-      <c r="M113" s="588"/>
-      <c r="N113" s="586" t="s">
+      <c r="L113" s="607"/>
+      <c r="M113" s="608"/>
+      <c r="N113" s="606" t="s">
         <v>21</v>
       </c>
-      <c r="O113" s="587"/>
-      <c r="P113" s="588"/>
-      <c r="Q113" s="586" t="s">
+      <c r="O113" s="607"/>
+      <c r="P113" s="608"/>
+      <c r="Q113" s="606" t="s">
         <v>22</v>
       </c>
-      <c r="R113" s="587"/>
-      <c r="S113" s="588"/>
-      <c r="T113" s="586" t="s">
+      <c r="R113" s="607"/>
+      <c r="S113" s="608"/>
+      <c r="T113" s="606" t="s">
         <v>23</v>
       </c>
-      <c r="U113" s="587"/>
-      <c r="V113" s="588"/>
-      <c r="W113" s="586" t="s">
+      <c r="U113" s="607"/>
+      <c r="V113" s="608"/>
+      <c r="W113" s="606" t="s">
         <v>24</v>
       </c>
-      <c r="X113" s="587"/>
-      <c r="Y113" s="588"/>
-      <c r="Z113" s="586" t="s">
+      <c r="X113" s="607"/>
+      <c r="Y113" s="608"/>
+      <c r="Z113" s="606" t="s">
         <v>25</v>
       </c>
-      <c r="AA113" s="587"/>
-      <c r="AB113" s="588"/>
-      <c r="AC113" s="586" t="s">
+      <c r="AA113" s="607"/>
+      <c r="AB113" s="608"/>
+      <c r="AC113" s="606" t="s">
         <v>26</v>
       </c>
-      <c r="AD113" s="587"/>
-      <c r="AE113" s="588"/>
-      <c r="AF113" s="586" t="s">
+      <c r="AD113" s="607"/>
+      <c r="AE113" s="608"/>
+      <c r="AF113" s="606" t="s">
         <v>27</v>
       </c>
-      <c r="AG113" s="587"/>
-      <c r="AH113" s="588"/>
-      <c r="AI113" s="586" t="s">
+      <c r="AG113" s="607"/>
+      <c r="AH113" s="608"/>
+      <c r="AI113" s="606" t="s">
         <v>28</v>
       </c>
-      <c r="AJ113" s="587"/>
-      <c r="AK113" s="588"/>
-      <c r="AL113" s="586" t="s">
+      <c r="AJ113" s="607"/>
+      <c r="AK113" s="608"/>
+      <c r="AL113" s="606" t="s">
         <v>29</v>
       </c>
-      <c r="AM113" s="587"/>
-      <c r="AN113" s="588"/>
+      <c r="AM113" s="607"/>
+      <c r="AN113" s="608"/>
       <c r="AO113" s="8"/>
       <c r="AP113" s="8"/>
       <c r="AQ113" s="8"/>
@@ -53355,74 +53414,74 @@
       <c r="BI113" s="8"/>
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A114" s="601"/>
-      <c r="B114" s="601"/>
-      <c r="C114" s="589" t="s">
+      <c r="A114" s="621"/>
+      <c r="B114" s="621"/>
+      <c r="C114" s="609" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="621" t="s">
+      <c r="D114" s="611" t="s">
         <v>17</v>
       </c>
-      <c r="E114" s="593">
+      <c r="E114" s="613">
         <v>0.02</v>
       </c>
-      <c r="F114" s="594"/>
-      <c r="G114" s="594"/>
-      <c r="H114" s="593">
+      <c r="F114" s="614"/>
+      <c r="G114" s="614"/>
+      <c r="H114" s="613">
         <v>0.04</v>
       </c>
-      <c r="I114" s="594"/>
-      <c r="J114" s="595"/>
-      <c r="K114" s="593">
+      <c r="I114" s="614"/>
+      <c r="J114" s="615"/>
+      <c r="K114" s="613">
         <v>0.04</v>
       </c>
-      <c r="L114" s="594"/>
-      <c r="M114" s="595"/>
-      <c r="N114" s="593">
+      <c r="L114" s="614"/>
+      <c r="M114" s="615"/>
+      <c r="N114" s="613">
         <v>0.05</v>
       </c>
-      <c r="O114" s="594"/>
-      <c r="P114" s="595"/>
-      <c r="Q114" s="593">
+      <c r="O114" s="614"/>
+      <c r="P114" s="615"/>
+      <c r="Q114" s="613">
         <v>0.06</v>
       </c>
-      <c r="R114" s="594"/>
-      <c r="S114" s="595"/>
-      <c r="T114" s="593">
+      <c r="R114" s="614"/>
+      <c r="S114" s="615"/>
+      <c r="T114" s="613">
         <v>0.08</v>
       </c>
-      <c r="U114" s="594"/>
-      <c r="V114" s="595"/>
-      <c r="W114" s="593">
+      <c r="U114" s="614"/>
+      <c r="V114" s="615"/>
+      <c r="W114" s="613">
         <v>0.1</v>
       </c>
-      <c r="X114" s="594"/>
-      <c r="Y114" s="595"/>
-      <c r="Z114" s="593">
+      <c r="X114" s="614"/>
+      <c r="Y114" s="615"/>
+      <c r="Z114" s="613">
         <v>0.11</v>
       </c>
-      <c r="AA114" s="594"/>
-      <c r="AB114" s="595"/>
-      <c r="AC114" s="593">
+      <c r="AA114" s="614"/>
+      <c r="AB114" s="615"/>
+      <c r="AC114" s="613">
         <v>0.11</v>
       </c>
-      <c r="AD114" s="594"/>
-      <c r="AE114" s="595"/>
-      <c r="AF114" s="593">
+      <c r="AD114" s="614"/>
+      <c r="AE114" s="615"/>
+      <c r="AF114" s="613">
         <v>0.12</v>
       </c>
-      <c r="AG114" s="594"/>
-      <c r="AH114" s="595"/>
-      <c r="AI114" s="593">
+      <c r="AG114" s="614"/>
+      <c r="AH114" s="615"/>
+      <c r="AI114" s="613">
         <v>0.13</v>
       </c>
-      <c r="AJ114" s="594"/>
-      <c r="AK114" s="595"/>
-      <c r="AL114" s="593">
+      <c r="AJ114" s="614"/>
+      <c r="AK114" s="615"/>
+      <c r="AL114" s="613">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM114" s="594"/>
-      <c r="AN114" s="595"/>
+      <c r="AM114" s="614"/>
+      <c r="AN114" s="615"/>
       <c r="AO114" s="8"/>
       <c r="AP114" s="8"/>
       <c r="AQ114" s="8"/>
@@ -53446,10 +53505,10 @@
       <c r="BI114" s="8"/>
     </row>
     <row r="115" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="602"/>
-      <c r="B115" s="602"/>
-      <c r="C115" s="590"/>
-      <c r="D115" s="622"/>
+      <c r="A115" s="622"/>
+      <c r="B115" s="622"/>
+      <c r="C115" s="610"/>
+      <c r="D115" s="612"/>
       <c r="E115" s="223" t="s">
         <v>116</v>
       </c>
@@ -54061,10 +54120,10 @@
       </c>
     </row>
     <row r="119" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="584" t="s">
+      <c r="A119" s="604" t="s">
         <v>46</v>
       </c>
-      <c r="B119" s="585"/>
+      <c r="B119" s="605"/>
       <c r="C119" s="81">
         <f>SUM(C116:C118)</f>
         <v>20546</v>
@@ -54149,32 +54208,32 @@
     </row>
     <row r="147" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:40" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="605" t="s">
+      <c r="A148" s="593" t="s">
         <v>99</v>
       </c>
-      <c r="B148" s="606"/>
-      <c r="C148" s="606"/>
-      <c r="D148" s="606"/>
-      <c r="E148" s="606"/>
-      <c r="F148" s="606"/>
-      <c r="G148" s="606"/>
-      <c r="H148" s="606"/>
-      <c r="I148" s="606"/>
-      <c r="J148" s="606"/>
-      <c r="K148" s="606"/>
-      <c r="L148" s="606"/>
-      <c r="M148" s="606"/>
-      <c r="N148" s="606"/>
-      <c r="O148" s="606"/>
-      <c r="P148" s="606"/>
-      <c r="Q148" s="606"/>
-      <c r="R148" s="606"/>
-      <c r="S148" s="606"/>
-      <c r="T148" s="606"/>
-      <c r="U148" s="606"/>
-      <c r="V148" s="606"/>
-      <c r="W148" s="606"/>
-      <c r="X148" s="617"/>
+      <c r="B148" s="594"/>
+      <c r="C148" s="594"/>
+      <c r="D148" s="594"/>
+      <c r="E148" s="594"/>
+      <c r="F148" s="594"/>
+      <c r="G148" s="594"/>
+      <c r="H148" s="594"/>
+      <c r="I148" s="594"/>
+      <c r="J148" s="594"/>
+      <c r="K148" s="594"/>
+      <c r="L148" s="594"/>
+      <c r="M148" s="594"/>
+      <c r="N148" s="594"/>
+      <c r="O148" s="594"/>
+      <c r="P148" s="594"/>
+      <c r="Q148" s="594"/>
+      <c r="R148" s="594"/>
+      <c r="S148" s="594"/>
+      <c r="T148" s="594"/>
+      <c r="U148" s="594"/>
+      <c r="V148" s="594"/>
+      <c r="W148" s="594"/>
+      <c r="X148" s="595"/>
       <c r="Y148" s="149"/>
       <c r="Z148" s="149"/>
       <c r="AA148" s="149"/>
@@ -54193,73 +54252,73 @@
       <c r="AN148" s="99"/>
     </row>
     <row r="149" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="632" t="s">
+      <c r="B149" s="596" t="s">
         <v>71</v>
       </c>
-      <c r="C149" s="610" t="s">
+      <c r="C149" s="598" t="s">
         <v>72</v>
       </c>
-      <c r="D149" s="633" t="s">
+      <c r="D149" s="600" t="s">
         <v>73</v>
       </c>
-      <c r="E149" s="610" t="s">
+      <c r="E149" s="598" t="s">
         <v>74</v>
       </c>
-      <c r="F149" s="610" t="s">
+      <c r="F149" s="598" t="s">
         <v>75</v>
       </c>
-      <c r="G149" s="610" t="s">
+      <c r="G149" s="598" t="s">
         <v>76</v>
       </c>
-      <c r="H149" s="610" t="s">
+      <c r="H149" s="598" t="s">
         <v>77</v>
       </c>
-      <c r="I149" s="610" t="s">
+      <c r="I149" s="598" t="s">
         <v>78</v>
       </c>
-      <c r="J149" s="610" t="s">
+      <c r="J149" s="598" t="s">
         <v>79</v>
       </c>
-      <c r="K149" s="582" t="s">
+      <c r="K149" s="583" t="s">
         <v>80</v>
       </c>
-      <c r="L149" s="610" t="s">
+      <c r="L149" s="598" t="s">
         <v>81</v>
       </c>
-      <c r="M149" s="610" t="s">
+      <c r="M149" s="598" t="s">
         <v>82</v>
       </c>
-      <c r="N149" s="610" t="s">
+      <c r="N149" s="598" t="s">
         <v>83</v>
       </c>
-      <c r="O149" s="610" t="s">
+      <c r="O149" s="598" t="s">
         <v>84</v>
       </c>
-      <c r="P149" s="610" t="s">
+      <c r="P149" s="598" t="s">
         <v>85</v>
       </c>
-      <c r="Q149" s="610" t="s">
+      <c r="Q149" s="598" t="s">
         <v>86</v>
       </c>
-      <c r="R149" s="619" t="s">
+      <c r="R149" s="603" t="s">
         <v>87</v>
       </c>
-      <c r="S149" s="610" t="s">
+      <c r="S149" s="598" t="s">
         <v>88</v>
       </c>
-      <c r="T149" s="610" t="s">
+      <c r="T149" s="598" t="s">
         <v>89</v>
       </c>
-      <c r="U149" s="610" t="s">
+      <c r="U149" s="598" t="s">
         <v>90</v>
       </c>
-      <c r="V149" s="610" t="s">
+      <c r="V149" s="598" t="s">
         <v>91</v>
       </c>
-      <c r="W149" s="610" t="s">
+      <c r="W149" s="598" t="s">
         <v>92</v>
       </c>
-      <c r="X149" s="610" t="s">
+      <c r="X149" s="598" t="s">
         <v>93</v>
       </c>
       <c r="Y149" s="24"/>
@@ -54280,29 +54339,29 @@
       <c r="AN149" s="84"/>
     </row>
     <row r="150" spans="1:40" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="613"/>
-      <c r="C150" s="611"/>
-      <c r="D150" s="634"/>
-      <c r="E150" s="611"/>
-      <c r="F150" s="611"/>
-      <c r="G150" s="611"/>
-      <c r="H150" s="611"/>
-      <c r="I150" s="611"/>
-      <c r="J150" s="611"/>
-      <c r="K150" s="620"/>
-      <c r="L150" s="611"/>
-      <c r="M150" s="611"/>
-      <c r="N150" s="611"/>
-      <c r="O150" s="611"/>
-      <c r="P150" s="611"/>
-      <c r="Q150" s="611"/>
-      <c r="R150" s="620"/>
-      <c r="S150" s="611"/>
-      <c r="T150" s="611"/>
-      <c r="U150" s="611"/>
-      <c r="V150" s="611"/>
-      <c r="W150" s="611"/>
-      <c r="X150" s="611"/>
+      <c r="B150" s="597"/>
+      <c r="C150" s="599"/>
+      <c r="D150" s="601"/>
+      <c r="E150" s="599"/>
+      <c r="F150" s="599"/>
+      <c r="G150" s="599"/>
+      <c r="H150" s="599"/>
+      <c r="I150" s="599"/>
+      <c r="J150" s="599"/>
+      <c r="K150" s="602"/>
+      <c r="L150" s="599"/>
+      <c r="M150" s="599"/>
+      <c r="N150" s="599"/>
+      <c r="O150" s="599"/>
+      <c r="P150" s="599"/>
+      <c r="Q150" s="599"/>
+      <c r="R150" s="602"/>
+      <c r="S150" s="599"/>
+      <c r="T150" s="599"/>
+      <c r="U150" s="599"/>
+      <c r="V150" s="599"/>
+      <c r="W150" s="599"/>
+      <c r="X150" s="599"/>
       <c r="AA150" s="24"/>
       <c r="AB150" s="24"/>
       <c r="AC150" s="94"/>
@@ -54678,6 +54737,137 @@
     </row>
   </sheetData>
   <mergeCells count="155">
+    <mergeCell ref="C58:AO59"/>
+    <mergeCell ref="Z55:AB57"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AL65:AN65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="T66:V66"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="AC66:AE66"/>
+    <mergeCell ref="AF66:AH66"/>
+    <mergeCell ref="AI66:AK66"/>
+    <mergeCell ref="AL66:AN66"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="A64:AN64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="AF65:AH65"/>
+    <mergeCell ref="AI65:AK65"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="AI17:AK17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A15:AN15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="AI16:AK16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A101:X101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="V102:V103"/>
+    <mergeCell ref="W102:W103"/>
+    <mergeCell ref="X102:X103"/>
+    <mergeCell ref="A112:AN112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="T113:V113"/>
+    <mergeCell ref="W113:Y113"/>
+    <mergeCell ref="Z113:AB113"/>
+    <mergeCell ref="AC113:AE113"/>
+    <mergeCell ref="AL114:AN114"/>
+    <mergeCell ref="X149:X150"/>
+    <mergeCell ref="Q149:Q150"/>
+    <mergeCell ref="R149:R150"/>
+    <mergeCell ref="S149:S150"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="AF113:AH113"/>
+    <mergeCell ref="AI113:AK113"/>
+    <mergeCell ref="AL113:AN113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="Q114:S114"/>
+    <mergeCell ref="T114:V114"/>
+    <mergeCell ref="W114:Y114"/>
+    <mergeCell ref="Z114:AB114"/>
+    <mergeCell ref="AC114:AE114"/>
+    <mergeCell ref="AF114:AH114"/>
+    <mergeCell ref="AI114:AK114"/>
     <mergeCell ref="Z104:AB106"/>
     <mergeCell ref="C107:AO108"/>
     <mergeCell ref="F6:I7"/>
@@ -54702,137 +54892,6 @@
     <mergeCell ref="U149:U150"/>
     <mergeCell ref="V149:V150"/>
     <mergeCell ref="W149:W150"/>
-    <mergeCell ref="X149:X150"/>
-    <mergeCell ref="Q149:Q150"/>
-    <mergeCell ref="R149:R150"/>
-    <mergeCell ref="S149:S150"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="AF113:AH113"/>
-    <mergeCell ref="AI113:AK113"/>
-    <mergeCell ref="AL113:AN113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="Q114:S114"/>
-    <mergeCell ref="T114:V114"/>
-    <mergeCell ref="W114:Y114"/>
-    <mergeCell ref="Z114:AB114"/>
-    <mergeCell ref="AC114:AE114"/>
-    <mergeCell ref="AF114:AH114"/>
-    <mergeCell ref="AI114:AK114"/>
-    <mergeCell ref="A112:AN112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="N113:P113"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="T113:V113"/>
-    <mergeCell ref="W113:Y113"/>
-    <mergeCell ref="Z113:AB113"/>
-    <mergeCell ref="AC113:AE113"/>
-    <mergeCell ref="AL114:AN114"/>
-    <mergeCell ref="A101:X101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="V102:V103"/>
-    <mergeCell ref="W102:W103"/>
-    <mergeCell ref="X102:X103"/>
-    <mergeCell ref="AI17:AK17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A15:AN15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="AI16:AK16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="AF65:AH65"/>
-    <mergeCell ref="AI65:AK65"/>
-    <mergeCell ref="C58:AO59"/>
-    <mergeCell ref="Z55:AB57"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="AL65:AN65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="T66:V66"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="AC66:AE66"/>
-    <mergeCell ref="AF66:AH66"/>
-    <mergeCell ref="AI66:AK66"/>
-    <mergeCell ref="AL66:AN66"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="A64:AN64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -54841,7 +54900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -54891,11 +54950,11 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="616" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="597"/>
-      <c r="D7" s="599"/>
+      <c r="C7" s="617"/>
+      <c r="D7" s="619"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="166">
@@ -55039,7 +55098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -55087,16 +55146,16 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="596" t="s">
+      <c r="C3" s="616" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="597"/>
-      <c r="E3" s="599"/>
-      <c r="G3" s="596" t="s">
+      <c r="D3" s="617"/>
+      <c r="E3" s="619"/>
+      <c r="G3" s="616" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="597"/>
-      <c r="I3" s="599"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="619"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="202">
@@ -57194,10 +57253,10 @@
     <mergeCell ref="B17:K17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B16" r:id="rId3"/>
-    <hyperlink ref="B17" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -57206,14 +57265,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AF44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M39" sqref="M39"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57335,15 +57394,15 @@
       </c>
       <c r="E6" s="45"/>
       <c r="H6" s="20">
-        <f>N23</f>
+        <f>N26</f>
         <v>230628.36</v>
       </c>
       <c r="I6" s="21">
-        <f>N32</f>
+        <f>N36</f>
         <v>220990.20000000004</v>
       </c>
       <c r="J6" s="22">
-        <f>N40</f>
+        <f>N44</f>
         <v>211309.43999999997</v>
       </c>
     </row>
@@ -57558,498 +57617,564 @@
       </c>
       <c r="N22" s="200"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="220" t="s">
+    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="765" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" s="766">
+        <f>('Proy. ventas'!E19*'Proy. ventas'!B19)*0.5</f>
+        <v>25649</v>
+      </c>
+      <c r="C23" s="766">
+        <f>(('Proy. ventas'!E19*'Proy. ventas'!B19)*0.5)</f>
+        <v>25649</v>
+      </c>
+      <c r="D23" s="766">
+        <f>('Proy. ventas'!E19*'Proy. ventas'!B19)*0.5</f>
+        <v>25649</v>
+      </c>
+      <c r="E23" s="766"/>
+      <c r="F23" s="766"/>
+      <c r="G23" s="766"/>
+      <c r="H23" s="766"/>
+      <c r="I23" s="766"/>
+      <c r="J23" s="766"/>
+      <c r="K23" s="766"/>
+      <c r="L23" s="766"/>
+      <c r="M23" s="766"/>
+      <c r="N23" s="764"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="765" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="766"/>
+      <c r="C24" s="766"/>
+      <c r="D24" s="766"/>
+      <c r="E24" s="766"/>
+      <c r="F24" s="766"/>
+      <c r="G24" s="766"/>
+      <c r="H24" s="766"/>
+      <c r="I24" s="766"/>
+      <c r="J24" s="766"/>
+      <c r="K24" s="766"/>
+      <c r="L24" s="766"/>
+      <c r="M24" s="766"/>
+      <c r="N24" s="764"/>
+    </row>
+    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="765" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" s="766"/>
+      <c r="C25" s="766"/>
+      <c r="D25" s="766"/>
+      <c r="E25" s="766"/>
+      <c r="F25" s="766"/>
+      <c r="G25" s="766"/>
+      <c r="H25" s="766"/>
+      <c r="I25" s="766"/>
+      <c r="J25" s="766"/>
+      <c r="K25" s="766"/>
+      <c r="L25" s="766"/>
+      <c r="M25" s="766"/>
+      <c r="N25" s="764"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="201">
-        <f t="shared" ref="B23:M23" si="0">SUM(B21:B22)</f>
+      <c r="B26" s="201">
+        <f t="shared" ref="B26:M26" si="0">SUM(B21:B22)</f>
         <v>19219.03</v>
       </c>
-      <c r="C23" s="201">
+      <c r="C26" s="201">
         <f t="shared" si="0"/>
         <v>19219.03</v>
       </c>
-      <c r="D23" s="201">
+      <c r="D26" s="201">
         <f t="shared" si="0"/>
         <v>19219.03</v>
       </c>
-      <c r="E23" s="201">
+      <c r="E26" s="201">
         <f t="shared" si="0"/>
         <v>19219.03</v>
       </c>
-      <c r="F23" s="201">
+      <c r="F26" s="201">
         <f t="shared" si="0"/>
         <v>19219.03</v>
       </c>
-      <c r="G23" s="201">
+      <c r="G26" s="201">
         <f t="shared" si="0"/>
         <v>19219.03</v>
       </c>
-      <c r="H23" s="201">
+      <c r="H26" s="201">
         <f t="shared" si="0"/>
         <v>19219.03</v>
       </c>
-      <c r="I23" s="201">
+      <c r="I26" s="201">
         <f t="shared" si="0"/>
         <v>19219.03</v>
       </c>
-      <c r="J23" s="201">
+      <c r="J26" s="201">
         <f t="shared" si="0"/>
         <v>19219.03</v>
       </c>
-      <c r="K23" s="201">
+      <c r="K26" s="201">
         <f t="shared" si="0"/>
         <v>19219.03</v>
       </c>
-      <c r="L23" s="201">
+      <c r="L26" s="201">
         <f t="shared" si="0"/>
         <v>19219.03</v>
       </c>
-      <c r="M23" s="201">
+      <c r="M26" s="201">
         <f t="shared" si="0"/>
         <v>19219.03</v>
       </c>
-      <c r="N23" s="221">
-        <f>SUM(B23:M23)</f>
+      <c r="N26" s="221">
+        <f>SUM(B26:M26)</f>
         <v>230628.36</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="650" t="s">
+    <row r="31" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="650" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="651"/>
-      <c r="C28" s="651"/>
-      <c r="D28" s="651"/>
-      <c r="E28" s="651"/>
-      <c r="F28" s="651"/>
-      <c r="G28" s="651"/>
-      <c r="H28" s="651"/>
-      <c r="I28" s="651"/>
-      <c r="J28" s="651"/>
-      <c r="K28" s="651"/>
-      <c r="L28" s="651"/>
-      <c r="M28" s="651"/>
-      <c r="N28" s="652"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="194" t="s">
+      <c r="B31" s="651"/>
+      <c r="C31" s="651"/>
+      <c r="D31" s="651"/>
+      <c r="E31" s="651"/>
+      <c r="F31" s="651"/>
+      <c r="G31" s="651"/>
+      <c r="H31" s="651"/>
+      <c r="I31" s="651"/>
+      <c r="J31" s="651"/>
+      <c r="K31" s="651"/>
+      <c r="L31" s="651"/>
+      <c r="M31" s="651"/>
+      <c r="N31" s="652"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="195" t="s">
+      <c r="B32" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="196" t="s">
+      <c r="C32" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="196" t="s">
+      <c r="D32" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="196" t="s">
+      <c r="E32" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="196" t="s">
+      <c r="F32" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="196" t="s">
+      <c r="G32" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="196" t="s">
+      <c r="H32" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="196" t="s">
+      <c r="I32" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="196" t="s">
+      <c r="J32" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="196" t="s">
+      <c r="K32" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="196" t="s">
+      <c r="L32" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="196" t="s">
+      <c r="M32" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="197" t="s">
+      <c r="N32" s="197" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="194" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="194" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="198">
-        <f t="shared" ref="B30:M30" si="1">B21</f>
+      <c r="B33" s="198">
+        <f t="shared" ref="B33:M33" si="1">B21</f>
         <v>15200</v>
       </c>
-      <c r="C30" s="198">
+      <c r="C33" s="198">
         <f t="shared" si="1"/>
         <v>15200</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D33" s="198">
         <f t="shared" si="1"/>
         <v>15200</v>
       </c>
-      <c r="E30" s="198">
+      <c r="E33" s="198">
         <f t="shared" si="1"/>
         <v>15200</v>
       </c>
-      <c r="F30" s="198">
+      <c r="F33" s="198">
         <f t="shared" si="1"/>
         <v>15200</v>
       </c>
-      <c r="G30" s="198">
+      <c r="G33" s="198">
         <f t="shared" si="1"/>
         <v>15200</v>
       </c>
-      <c r="H30" s="198">
+      <c r="H33" s="198">
         <f t="shared" si="1"/>
         <v>15200</v>
       </c>
-      <c r="I30" s="198">
+      <c r="I33" s="198">
         <f t="shared" si="1"/>
         <v>15200</v>
       </c>
-      <c r="J30" s="198">
+      <c r="J33" s="198">
         <f t="shared" si="1"/>
         <v>15200</v>
       </c>
-      <c r="K30" s="198">
+      <c r="K33" s="198">
         <f t="shared" si="1"/>
         <v>15200</v>
       </c>
-      <c r="L30" s="198">
+      <c r="L33" s="198">
         <f t="shared" si="1"/>
         <v>15200</v>
       </c>
-      <c r="M30" s="198">
+      <c r="M33" s="198">
         <f t="shared" si="1"/>
         <v>15200</v>
       </c>
-      <c r="N30" s="199"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="194" t="s">
+      <c r="N33" s="199"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="194" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="198">
+      <c r="B34" s="198">
         <v>3215.85</v>
       </c>
-      <c r="C31" s="198">
+      <c r="C34" s="198">
         <v>3215.85</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D34" s="198">
         <v>3215.85</v>
       </c>
-      <c r="E31" s="198">
+      <c r="E34" s="198">
         <v>3215.85</v>
       </c>
-      <c r="F31" s="198">
+      <c r="F34" s="198">
         <v>3215.85</v>
       </c>
-      <c r="G31" s="198">
+      <c r="G34" s="198">
         <v>3215.85</v>
       </c>
-      <c r="H31" s="198">
+      <c r="H34" s="198">
         <v>3215.85</v>
       </c>
-      <c r="I31" s="198">
+      <c r="I34" s="198">
         <v>3215.85</v>
       </c>
-      <c r="J31" s="198">
+      <c r="J34" s="198">
         <v>3215.85</v>
       </c>
-      <c r="K31" s="198">
+      <c r="K34" s="198">
         <v>3215.85</v>
       </c>
-      <c r="L31" s="198">
+      <c r="L34" s="198">
         <v>3215.85</v>
       </c>
-      <c r="M31" s="198">
+      <c r="M34" s="198">
         <v>3215.85</v>
       </c>
-      <c r="N31" s="200"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="220" t="s">
+      <c r="N34" s="200"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="200"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="201">
-        <f t="shared" ref="B32:M32" si="2">SUM(B30:B31)</f>
+      <c r="B36" s="201">
+        <f>SUM(B33:B34)</f>
         <v>18415.849999999999</v>
       </c>
-      <c r="C32" s="201">
+      <c r="C36" s="201">
+        <f>SUM(C33:C34)</f>
+        <v>18415.849999999999</v>
+      </c>
+      <c r="D36" s="201">
+        <f>SUM(D33:D34)</f>
+        <v>18415.849999999999</v>
+      </c>
+      <c r="E36" s="201">
+        <f>SUM(E33:E34)</f>
+        <v>18415.849999999999</v>
+      </c>
+      <c r="F36" s="201">
+        <f>SUM(F33:F34)</f>
+        <v>18415.849999999999</v>
+      </c>
+      <c r="G36" s="201">
+        <f>SUM(G33:G34)</f>
+        <v>18415.849999999999</v>
+      </c>
+      <c r="H36" s="201">
+        <f>SUM(H33:H34)</f>
+        <v>18415.849999999999</v>
+      </c>
+      <c r="I36" s="201">
+        <f>SUM(I33:I34)</f>
+        <v>18415.849999999999</v>
+      </c>
+      <c r="J36" s="201">
+        <f>SUM(J33:J34)</f>
+        <v>18415.849999999999</v>
+      </c>
+      <c r="K36" s="201">
+        <f>SUM(K33:K34)</f>
+        <v>18415.849999999999</v>
+      </c>
+      <c r="L36" s="201">
+        <f>SUM(L33:L34)</f>
+        <v>18415.849999999999</v>
+      </c>
+      <c r="M36" s="201">
+        <f>SUM(M33:M34)</f>
+        <v>18415.849999999999</v>
+      </c>
+      <c r="N36" s="221">
+        <f>SUM(B36:M36)</f>
+        <v>220990.20000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="650" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="651"/>
+      <c r="C40" s="651"/>
+      <c r="D40" s="651"/>
+      <c r="E40" s="651"/>
+      <c r="F40" s="651"/>
+      <c r="G40" s="651"/>
+      <c r="H40" s="651"/>
+      <c r="I40" s="651"/>
+      <c r="J40" s="651"/>
+      <c r="K40" s="651"/>
+      <c r="L40" s="651"/>
+      <c r="M40" s="651"/>
+      <c r="N40" s="652"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="194" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="196" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="196" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="196" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="196" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="196" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="196" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="196" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" s="196" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="196" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" s="197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="194" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="198">
+        <f t="shared" ref="B42:M42" si="2">B33</f>
+        <v>15200</v>
+      </c>
+      <c r="C42" s="198">
         <f t="shared" si="2"/>
-        <v>18415.849999999999</v>
-      </c>
-      <c r="D32" s="201">
+        <v>15200</v>
+      </c>
+      <c r="D42" s="198">
         <f t="shared" si="2"/>
-        <v>18415.849999999999</v>
-      </c>
-      <c r="E32" s="201">
+        <v>15200</v>
+      </c>
+      <c r="E42" s="198">
         <f t="shared" si="2"/>
-        <v>18415.849999999999</v>
-      </c>
-      <c r="F32" s="201">
+        <v>15200</v>
+      </c>
+      <c r="F42" s="198">
         <f t="shared" si="2"/>
-        <v>18415.849999999999</v>
-      </c>
-      <c r="G32" s="201">
+        <v>15200</v>
+      </c>
+      <c r="G42" s="198">
         <f t="shared" si="2"/>
-        <v>18415.849999999999</v>
-      </c>
-      <c r="H32" s="201">
+        <v>15200</v>
+      </c>
+      <c r="H42" s="198">
         <f t="shared" si="2"/>
-        <v>18415.849999999999</v>
-      </c>
-      <c r="I32" s="201">
+        <v>15200</v>
+      </c>
+      <c r="I42" s="198">
         <f t="shared" si="2"/>
-        <v>18415.849999999999</v>
-      </c>
-      <c r="J32" s="201">
+        <v>15200</v>
+      </c>
+      <c r="J42" s="198">
         <f t="shared" si="2"/>
-        <v>18415.849999999999</v>
-      </c>
-      <c r="K32" s="201">
+        <v>15200</v>
+      </c>
+      <c r="K42" s="198">
         <f t="shared" si="2"/>
-        <v>18415.849999999999</v>
-      </c>
-      <c r="L32" s="201">
+        <v>15200</v>
+      </c>
+      <c r="L42" s="198">
         <f t="shared" si="2"/>
-        <v>18415.849999999999</v>
-      </c>
-      <c r="M32" s="201">
+        <v>15200</v>
+      </c>
+      <c r="M42" s="198">
         <f t="shared" si="2"/>
-        <v>18415.849999999999</v>
-      </c>
-      <c r="N32" s="221">
-        <f>SUM(B32:M32)</f>
-        <v>220990.20000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="650" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="651"/>
-      <c r="C36" s="651"/>
-      <c r="D36" s="651"/>
-      <c r="E36" s="651"/>
-      <c r="F36" s="651"/>
-      <c r="G36" s="651"/>
-      <c r="H36" s="651"/>
-      <c r="I36" s="651"/>
-      <c r="J36" s="651"/>
-      <c r="K36" s="651"/>
-      <c r="L36" s="651"/>
-      <c r="M36" s="651"/>
-      <c r="N36" s="652"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="194" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="195" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="196" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="196" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="196" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="196" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="196" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="196" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="196" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="196" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" s="196" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="196" t="s">
-        <v>28</v>
-      </c>
-      <c r="M37" s="196" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" s="197" t="s">
+        <v>15200</v>
+      </c>
+      <c r="N42" s="199"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="194" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="198">
+        <v>2409.12</v>
+      </c>
+      <c r="C43" s="198">
+        <v>2409.12</v>
+      </c>
+      <c r="D43" s="198">
+        <v>2409.12</v>
+      </c>
+      <c r="E43" s="198">
+        <v>2409.12</v>
+      </c>
+      <c r="F43" s="198">
+        <v>2409.12</v>
+      </c>
+      <c r="G43" s="198">
+        <v>2409.12</v>
+      </c>
+      <c r="H43" s="198">
+        <v>2409.12</v>
+      </c>
+      <c r="I43" s="198">
+        <v>2409.12</v>
+      </c>
+      <c r="J43" s="198">
+        <v>2409.12</v>
+      </c>
+      <c r="K43" s="198">
+        <v>2409.12</v>
+      </c>
+      <c r="L43" s="198">
+        <v>2409.12</v>
+      </c>
+      <c r="M43" s="198">
+        <v>2409.12</v>
+      </c>
+      <c r="N43" s="200"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="220" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="194" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="198">
-        <f t="shared" ref="B38:M38" si="3">B30</f>
-        <v>15200</v>
-      </c>
-      <c r="C38" s="198">
+      <c r="B44" s="201">
+        <f t="shared" ref="B44:M44" si="3">SUM(B42:B43)</f>
+        <v>17609.12</v>
+      </c>
+      <c r="C44" s="201">
         <f t="shared" si="3"/>
-        <v>15200</v>
-      </c>
-      <c r="D38" s="198">
+        <v>17609.12</v>
+      </c>
+      <c r="D44" s="201">
         <f t="shared" si="3"/>
-        <v>15200</v>
-      </c>
-      <c r="E38" s="198">
+        <v>17609.12</v>
+      </c>
+      <c r="E44" s="201">
         <f t="shared" si="3"/>
-        <v>15200</v>
-      </c>
-      <c r="F38" s="198">
+        <v>17609.12</v>
+      </c>
+      <c r="F44" s="201">
         <f t="shared" si="3"/>
-        <v>15200</v>
-      </c>
-      <c r="G38" s="198">
+        <v>17609.12</v>
+      </c>
+      <c r="G44" s="201">
         <f t="shared" si="3"/>
-        <v>15200</v>
-      </c>
-      <c r="H38" s="198">
+        <v>17609.12</v>
+      </c>
+      <c r="H44" s="201">
         <f t="shared" si="3"/>
-        <v>15200</v>
-      </c>
-      <c r="I38" s="198">
+        <v>17609.12</v>
+      </c>
+      <c r="I44" s="201">
         <f t="shared" si="3"/>
-        <v>15200</v>
-      </c>
-      <c r="J38" s="198">
+        <v>17609.12</v>
+      </c>
+      <c r="J44" s="201">
         <f t="shared" si="3"/>
-        <v>15200</v>
-      </c>
-      <c r="K38" s="198">
+        <v>17609.12</v>
+      </c>
+      <c r="K44" s="201">
         <f t="shared" si="3"/>
-        <v>15200</v>
-      </c>
-      <c r="L38" s="198">
+        <v>17609.12</v>
+      </c>
+      <c r="L44" s="201">
         <f t="shared" si="3"/>
-        <v>15200</v>
-      </c>
-      <c r="M38" s="198">
+        <v>17609.12</v>
+      </c>
+      <c r="M44" s="201">
         <f t="shared" si="3"/>
-        <v>15200</v>
-      </c>
-      <c r="N38" s="199"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="194" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="198">
-        <v>2409.12</v>
-      </c>
-      <c r="C39" s="198">
-        <v>2409.12</v>
-      </c>
-      <c r="D39" s="198">
-        <v>2409.12</v>
-      </c>
-      <c r="E39" s="198">
-        <v>2409.12</v>
-      </c>
-      <c r="F39" s="198">
-        <v>2409.12</v>
-      </c>
-      <c r="G39" s="198">
-        <v>2409.12</v>
-      </c>
-      <c r="H39" s="198">
-        <v>2409.12</v>
-      </c>
-      <c r="I39" s="198">
-        <v>2409.12</v>
-      </c>
-      <c r="J39" s="198">
-        <v>2409.12</v>
-      </c>
-      <c r="K39" s="198">
-        <v>2409.12</v>
-      </c>
-      <c r="L39" s="198">
-        <v>2409.12</v>
-      </c>
-      <c r="M39" s="198">
-        <v>2409.12</v>
-      </c>
-      <c r="N39" s="200"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="220" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="201">
-        <f t="shared" ref="B40:M40" si="4">SUM(B38:B39)</f>
         <v>17609.12</v>
       </c>
-      <c r="C40" s="201">
-        <f t="shared" si="4"/>
-        <v>17609.12</v>
-      </c>
-      <c r="D40" s="201">
-        <f t="shared" si="4"/>
-        <v>17609.12</v>
-      </c>
-      <c r="E40" s="201">
-        <f t="shared" si="4"/>
-        <v>17609.12</v>
-      </c>
-      <c r="F40" s="201">
-        <f t="shared" si="4"/>
-        <v>17609.12</v>
-      </c>
-      <c r="G40" s="201">
-        <f t="shared" si="4"/>
-        <v>17609.12</v>
-      </c>
-      <c r="H40" s="201">
-        <f t="shared" si="4"/>
-        <v>17609.12</v>
-      </c>
-      <c r="I40" s="201">
-        <f t="shared" si="4"/>
-        <v>17609.12</v>
-      </c>
-      <c r="J40" s="201">
-        <f t="shared" si="4"/>
-        <v>17609.12</v>
-      </c>
-      <c r="K40" s="201">
-        <f t="shared" si="4"/>
-        <v>17609.12</v>
-      </c>
-      <c r="L40" s="201">
-        <f t="shared" si="4"/>
-        <v>17609.12</v>
-      </c>
-      <c r="M40" s="201">
-        <f t="shared" si="4"/>
-        <v>17609.12</v>
-      </c>
-      <c r="N40" s="221">
-        <f>SUM(B40:M40)</f>
+      <c r="N44" s="221">
+        <f>SUM(B44:M44)</f>
         <v>211309.43999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A19:N19"/>
-    <mergeCell ref="A28:N28"/>
-    <mergeCell ref="A36:N36"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A40:N40"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A13:K13"/>
@@ -58057,8 +58182,8 @@
     <mergeCell ref="B15:K15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" location="/addService"/>
-    <hyperlink ref="B15" r:id="rId2" location="commercial?billing=yearly"/>
+    <hyperlink ref="B14" r:id="rId1" location="/addService" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" location="commercial?billing=yearly" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -58067,7 +58192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AF189"/>
   <sheetViews>
     <sheetView topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -58483,19 +58608,19 @@
     </row>
     <row r="11" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="596" t="s">
+      <c r="B11" s="616" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="597"/>
-      <c r="D11" s="597"/>
-      <c r="E11" s="597"/>
-      <c r="F11" s="597"/>
-      <c r="G11" s="597"/>
-      <c r="H11" s="597"/>
-      <c r="I11" s="597"/>
-      <c r="J11" s="597"/>
-      <c r="K11" s="597"/>
-      <c r="L11" s="599"/>
+      <c r="C11" s="617"/>
+      <c r="D11" s="617"/>
+      <c r="E11" s="617"/>
+      <c r="F11" s="617"/>
+      <c r="G11" s="617"/>
+      <c r="H11" s="617"/>
+      <c r="I11" s="617"/>
+      <c r="J11" s="617"/>
+      <c r="K11" s="617"/>
+      <c r="L11" s="619"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -58519,13 +58644,13 @@
     </row>
     <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="672" t="s">
+      <c r="B12" s="667" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="674" t="s">
+      <c r="C12" s="669" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="676" t="s">
+      <c r="D12" s="671" t="s">
         <v>123</v>
       </c>
       <c r="E12" s="269" t="s">
@@ -58546,10 +58671,10 @@
       <c r="J12" s="272" t="s">
         <v>129</v>
       </c>
-      <c r="K12" s="678" t="s">
+      <c r="K12" s="673" t="s">
         <v>130</v>
       </c>
-      <c r="L12" s="678" t="s">
+      <c r="L12" s="673" t="s">
         <v>131</v>
       </c>
       <c r="M12" s="1"/>
@@ -58575,9 +58700,9 @@
     </row>
     <row r="13" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="673"/>
-      <c r="C13" s="675"/>
-      <c r="D13" s="677"/>
+      <c r="B13" s="668"/>
+      <c r="C13" s="670"/>
+      <c r="D13" s="672"/>
       <c r="E13" s="273">
         <v>0.1047</v>
       </c>
@@ -58596,8 +58721,8 @@
       <c r="J13" s="276">
         <v>0.03</v>
       </c>
-      <c r="K13" s="679"/>
-      <c r="L13" s="679"/>
+      <c r="K13" s="674"/>
+      <c r="L13" s="674"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -58684,7 +58809,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="680" t="s">
+      <c r="B15" s="675" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="296" t="s">
@@ -58747,7 +58872,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="681"/>
+      <c r="B16" s="676"/>
       <c r="C16" s="298" t="s">
         <v>73</v>
       </c>
@@ -58808,7 +58933,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="681"/>
+      <c r="B17" s="676"/>
       <c r="C17" s="298" t="s">
         <v>74</v>
       </c>
@@ -58869,7 +58994,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="681"/>
+      <c r="B18" s="676"/>
       <c r="C18" s="298" t="s">
         <v>75</v>
       </c>
@@ -58930,7 +59055,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="682"/>
+      <c r="B19" s="677"/>
       <c r="C19" s="299" t="s">
         <v>76</v>
       </c>
@@ -58991,7 +59116,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="682"/>
+      <c r="B20" s="677"/>
       <c r="C20" s="298" t="s">
         <v>145</v>
       </c>
@@ -59052,7 +59177,7 @@
     </row>
     <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="683"/>
+      <c r="B21" s="678"/>
       <c r="C21" s="300" t="s">
         <v>78</v>
       </c>
@@ -59113,7 +59238,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="684" t="s">
+      <c r="B22" s="679" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="292" t="s">
@@ -59176,7 +59301,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="685"/>
+      <c r="B23" s="680"/>
       <c r="C23" s="293" t="s">
         <v>82</v>
       </c>
@@ -59237,7 +59362,7 @@
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="686"/>
+      <c r="B24" s="681"/>
       <c r="C24" s="294" t="s">
         <v>146</v>
       </c>
@@ -59298,7 +59423,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="687" t="s">
+      <c r="B25" s="682" t="s">
         <v>135</v>
       </c>
       <c r="C25" s="292" t="s">
@@ -59361,7 +59486,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="688"/>
+      <c r="B26" s="683"/>
       <c r="C26" s="266" t="s">
         <v>85</v>
       </c>
@@ -59422,7 +59547,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="689"/>
+      <c r="B27" s="684"/>
       <c r="C27" s="266" t="s">
         <v>86</v>
       </c>
@@ -59483,7 +59608,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="689"/>
+      <c r="B28" s="684"/>
       <c r="C28" s="293" t="s">
         <v>87</v>
       </c>
@@ -59544,7 +59669,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="689"/>
+      <c r="B29" s="684"/>
       <c r="C29" s="293" t="s">
         <v>88</v>
       </c>
@@ -59605,7 +59730,7 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="686"/>
+      <c r="B30" s="681"/>
       <c r="C30" s="294" t="s">
         <v>89</v>
       </c>
@@ -59666,7 +59791,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="687" t="s">
+      <c r="B31" s="682" t="s">
         <v>148</v>
       </c>
       <c r="C31" s="292" t="s">
@@ -59729,7 +59854,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="688"/>
+      <c r="B32" s="683"/>
       <c r="C32" s="266" t="s">
         <v>91</v>
       </c>
@@ -59790,7 +59915,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="689"/>
+      <c r="B33" s="684"/>
       <c r="C33" s="293" t="s">
         <v>149</v>
       </c>
@@ -59851,7 +59976,7 @@
     </row>
     <row r="34" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="686"/>
+      <c r="B34" s="681"/>
       <c r="C34" s="294" t="s">
         <v>93</v>
       </c>
@@ -59912,7 +60037,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="680" t="s">
+      <c r="B35" s="675" t="s">
         <v>150</v>
       </c>
       <c r="C35" s="313" t="s">
@@ -59975,7 +60100,7 @@
     </row>
     <row r="36" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="683"/>
+      <c r="B36" s="678"/>
       <c r="C36" s="297" t="s">
         <v>80</v>
       </c>
@@ -60138,34 +60263,34 @@
     </row>
     <row r="40" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
-      <c r="B40" s="667" t="s">
+      <c r="B40" s="664" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="668"/>
-      <c r="D40" s="668"/>
-      <c r="E40" s="668"/>
-      <c r="F40" s="668"/>
-      <c r="G40" s="668"/>
-      <c r="H40" s="668"/>
-      <c r="I40" s="668"/>
-      <c r="J40" s="668"/>
-      <c r="K40" s="668"/>
-      <c r="L40" s="668"/>
-      <c r="M40" s="668"/>
-      <c r="N40" s="668"/>
-      <c r="O40" s="668"/>
-      <c r="P40" s="668"/>
-      <c r="Q40" s="668"/>
-      <c r="R40" s="668"/>
-      <c r="S40" s="668"/>
-      <c r="T40" s="668"/>
-      <c r="U40" s="668"/>
-      <c r="V40" s="668"/>
-      <c r="W40" s="668"/>
-      <c r="X40" s="668"/>
-      <c r="Y40" s="668"/>
-      <c r="Z40" s="668"/>
-      <c r="AA40" s="669"/>
+      <c r="C40" s="665"/>
+      <c r="D40" s="665"/>
+      <c r="E40" s="665"/>
+      <c r="F40" s="665"/>
+      <c r="G40" s="665"/>
+      <c r="H40" s="665"/>
+      <c r="I40" s="665"/>
+      <c r="J40" s="665"/>
+      <c r="K40" s="665"/>
+      <c r="L40" s="665"/>
+      <c r="M40" s="665"/>
+      <c r="N40" s="665"/>
+      <c r="O40" s="665"/>
+      <c r="P40" s="665"/>
+      <c r="Q40" s="665"/>
+      <c r="R40" s="665"/>
+      <c r="S40" s="665"/>
+      <c r="T40" s="665"/>
+      <c r="U40" s="665"/>
+      <c r="V40" s="665"/>
+      <c r="W40" s="665"/>
+      <c r="X40" s="665"/>
+      <c r="Y40" s="665"/>
+      <c r="Z40" s="665"/>
+      <c r="AA40" s="666"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
@@ -60174,58 +60299,58 @@
     </row>
     <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="670" t="s">
+      <c r="B41" s="686" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="664" t="s">
+      <c r="C41" s="685" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="664"/>
-      <c r="E41" s="664" t="s">
+      <c r="D41" s="685"/>
+      <c r="E41" s="685" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="664"/>
-      <c r="G41" s="664" t="s">
+      <c r="F41" s="685"/>
+      <c r="G41" s="685" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="664"/>
-      <c r="I41" s="664" t="s">
+      <c r="H41" s="685"/>
+      <c r="I41" s="685" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="664"/>
-      <c r="K41" s="664" t="s">
+      <c r="J41" s="685"/>
+      <c r="K41" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="664"/>
-      <c r="M41" s="664" t="s">
+      <c r="L41" s="685"/>
+      <c r="M41" s="685" t="s">
         <v>136</v>
       </c>
-      <c r="N41" s="664"/>
-      <c r="O41" s="664" t="s">
+      <c r="N41" s="685"/>
+      <c r="O41" s="685" t="s">
         <v>24</v>
       </c>
-      <c r="P41" s="664"/>
-      <c r="Q41" s="664" t="s">
+      <c r="P41" s="685"/>
+      <c r="Q41" s="685" t="s">
         <v>25</v>
       </c>
-      <c r="R41" s="664"/>
-      <c r="S41" s="664" t="s">
+      <c r="R41" s="685"/>
+      <c r="S41" s="685" t="s">
         <v>26</v>
       </c>
-      <c r="T41" s="664"/>
-      <c r="U41" s="664" t="s">
+      <c r="T41" s="685"/>
+      <c r="U41" s="685" t="s">
         <v>27</v>
       </c>
-      <c r="V41" s="664"/>
-      <c r="W41" s="664" t="s">
+      <c r="V41" s="685"/>
+      <c r="W41" s="685" t="s">
         <v>28</v>
       </c>
-      <c r="X41" s="664"/>
-      <c r="Y41" s="664" t="s">
+      <c r="X41" s="685"/>
+      <c r="Y41" s="685" t="s">
         <v>137</v>
       </c>
-      <c r="Z41" s="664"/>
-      <c r="AA41" s="665" t="s">
+      <c r="Z41" s="685"/>
+      <c r="AA41" s="688" t="s">
         <v>138</v>
       </c>
       <c r="AB41" s="1"/>
@@ -60236,7 +60361,7 @@
     </row>
     <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="671"/>
+      <c r="B42" s="687"/>
       <c r="C42" s="281" t="s">
         <v>37</v>
       </c>
@@ -60309,7 +60434,7 @@
       <c r="Z42" s="281" t="s">
         <v>139</v>
       </c>
-      <c r="AA42" s="666"/>
+      <c r="AA42" s="689"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -61026,34 +61151,34 @@
     </row>
     <row r="52" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
-      <c r="B52" s="667" t="s">
+      <c r="B52" s="664" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="668"/>
-      <c r="D52" s="668"/>
-      <c r="E52" s="668"/>
-      <c r="F52" s="668"/>
-      <c r="G52" s="668"/>
-      <c r="H52" s="668"/>
-      <c r="I52" s="668"/>
-      <c r="J52" s="668"/>
-      <c r="K52" s="668"/>
-      <c r="L52" s="668"/>
-      <c r="M52" s="668"/>
-      <c r="N52" s="668"/>
-      <c r="O52" s="668"/>
-      <c r="P52" s="668"/>
-      <c r="Q52" s="668"/>
-      <c r="R52" s="668"/>
-      <c r="S52" s="668"/>
-      <c r="T52" s="668"/>
-      <c r="U52" s="668"/>
-      <c r="V52" s="668"/>
-      <c r="W52" s="668"/>
-      <c r="X52" s="668"/>
-      <c r="Y52" s="668"/>
-      <c r="Z52" s="668"/>
-      <c r="AA52" s="669"/>
+      <c r="C52" s="665"/>
+      <c r="D52" s="665"/>
+      <c r="E52" s="665"/>
+      <c r="F52" s="665"/>
+      <c r="G52" s="665"/>
+      <c r="H52" s="665"/>
+      <c r="I52" s="665"/>
+      <c r="J52" s="665"/>
+      <c r="K52" s="665"/>
+      <c r="L52" s="665"/>
+      <c r="M52" s="665"/>
+      <c r="N52" s="665"/>
+      <c r="O52" s="665"/>
+      <c r="P52" s="665"/>
+      <c r="Q52" s="665"/>
+      <c r="R52" s="665"/>
+      <c r="S52" s="665"/>
+      <c r="T52" s="665"/>
+      <c r="U52" s="665"/>
+      <c r="V52" s="665"/>
+      <c r="W52" s="665"/>
+      <c r="X52" s="665"/>
+      <c r="Y52" s="665"/>
+      <c r="Z52" s="665"/>
+      <c r="AA52" s="666"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
@@ -61062,58 +61187,58 @@
     </row>
     <row r="53" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="670" t="s">
+      <c r="B53" s="686" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="664" t="s">
+      <c r="C53" s="685" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="664"/>
-      <c r="E53" s="664" t="s">
+      <c r="D53" s="685"/>
+      <c r="E53" s="685" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="664"/>
-      <c r="G53" s="664" t="s">
+      <c r="F53" s="685"/>
+      <c r="G53" s="685" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="664"/>
-      <c r="I53" s="664" t="s">
+      <c r="H53" s="685"/>
+      <c r="I53" s="685" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="664"/>
-      <c r="K53" s="664" t="s">
+      <c r="J53" s="685"/>
+      <c r="K53" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="664"/>
-      <c r="M53" s="664" t="s">
+      <c r="L53" s="685"/>
+      <c r="M53" s="685" t="s">
         <v>136</v>
       </c>
-      <c r="N53" s="664"/>
-      <c r="O53" s="664" t="s">
+      <c r="N53" s="685"/>
+      <c r="O53" s="685" t="s">
         <v>24</v>
       </c>
-      <c r="P53" s="664"/>
-      <c r="Q53" s="664" t="s">
+      <c r="P53" s="685"/>
+      <c r="Q53" s="685" t="s">
         <v>25</v>
       </c>
-      <c r="R53" s="664"/>
-      <c r="S53" s="664" t="s">
+      <c r="R53" s="685"/>
+      <c r="S53" s="685" t="s">
         <v>26</v>
       </c>
-      <c r="T53" s="664"/>
-      <c r="U53" s="664" t="s">
+      <c r="T53" s="685"/>
+      <c r="U53" s="685" t="s">
         <v>27</v>
       </c>
-      <c r="V53" s="664"/>
-      <c r="W53" s="664" t="s">
+      <c r="V53" s="685"/>
+      <c r="W53" s="685" t="s">
         <v>28</v>
       </c>
-      <c r="X53" s="664"/>
-      <c r="Y53" s="664" t="s">
+      <c r="X53" s="685"/>
+      <c r="Y53" s="685" t="s">
         <v>137</v>
       </c>
-      <c r="Z53" s="664"/>
-      <c r="AA53" s="665" t="s">
+      <c r="Z53" s="685"/>
+      <c r="AA53" s="688" t="s">
         <v>138</v>
       </c>
       <c r="AB53" s="1"/>
@@ -61124,7 +61249,7 @@
     </row>
     <row r="54" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="671"/>
+      <c r="B54" s="687"/>
       <c r="C54" s="281" t="s">
         <v>37</v>
       </c>
@@ -61197,7 +61322,7 @@
       <c r="Z54" s="281" t="s">
         <v>139</v>
       </c>
-      <c r="AA54" s="666"/>
+      <c r="AA54" s="689"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
@@ -62078,34 +62203,34 @@
     </row>
     <row r="65" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
-      <c r="B65" s="667" t="s">
+      <c r="B65" s="664" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="668"/>
-      <c r="D65" s="668"/>
-      <c r="E65" s="668"/>
-      <c r="F65" s="668"/>
-      <c r="G65" s="668"/>
-      <c r="H65" s="668"/>
-      <c r="I65" s="668"/>
-      <c r="J65" s="668"/>
-      <c r="K65" s="668"/>
-      <c r="L65" s="668"/>
-      <c r="M65" s="668"/>
-      <c r="N65" s="668"/>
-      <c r="O65" s="668"/>
-      <c r="P65" s="668"/>
-      <c r="Q65" s="668"/>
-      <c r="R65" s="668"/>
-      <c r="S65" s="668"/>
-      <c r="T65" s="668"/>
-      <c r="U65" s="668"/>
-      <c r="V65" s="668"/>
-      <c r="W65" s="668"/>
-      <c r="X65" s="668"/>
-      <c r="Y65" s="668"/>
-      <c r="Z65" s="668"/>
-      <c r="AA65" s="669"/>
+      <c r="C65" s="665"/>
+      <c r="D65" s="665"/>
+      <c r="E65" s="665"/>
+      <c r="F65" s="665"/>
+      <c r="G65" s="665"/>
+      <c r="H65" s="665"/>
+      <c r="I65" s="665"/>
+      <c r="J65" s="665"/>
+      <c r="K65" s="665"/>
+      <c r="L65" s="665"/>
+      <c r="M65" s="665"/>
+      <c r="N65" s="665"/>
+      <c r="O65" s="665"/>
+      <c r="P65" s="665"/>
+      <c r="Q65" s="665"/>
+      <c r="R65" s="665"/>
+      <c r="S65" s="665"/>
+      <c r="T65" s="665"/>
+      <c r="U65" s="665"/>
+      <c r="V65" s="665"/>
+      <c r="W65" s="665"/>
+      <c r="X65" s="665"/>
+      <c r="Y65" s="665"/>
+      <c r="Z65" s="665"/>
+      <c r="AA65" s="666"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
@@ -62114,58 +62239,58 @@
     </row>
     <row r="66" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="670" t="s">
+      <c r="B66" s="686" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="664" t="s">
+      <c r="C66" s="685" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="664"/>
-      <c r="E66" s="664" t="s">
+      <c r="D66" s="685"/>
+      <c r="E66" s="685" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="664"/>
-      <c r="G66" s="664" t="s">
+      <c r="F66" s="685"/>
+      <c r="G66" s="685" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="664"/>
-      <c r="I66" s="664" t="s">
+      <c r="H66" s="685"/>
+      <c r="I66" s="685" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="664"/>
-      <c r="K66" s="664" t="s">
+      <c r="J66" s="685"/>
+      <c r="K66" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="L66" s="664"/>
-      <c r="M66" s="664" t="s">
+      <c r="L66" s="685"/>
+      <c r="M66" s="685" t="s">
         <v>136</v>
       </c>
-      <c r="N66" s="664"/>
-      <c r="O66" s="664" t="s">
+      <c r="N66" s="685"/>
+      <c r="O66" s="685" t="s">
         <v>24</v>
       </c>
-      <c r="P66" s="664"/>
-      <c r="Q66" s="664" t="s">
+      <c r="P66" s="685"/>
+      <c r="Q66" s="685" t="s">
         <v>25</v>
       </c>
-      <c r="R66" s="664"/>
-      <c r="S66" s="664" t="s">
+      <c r="R66" s="685"/>
+      <c r="S66" s="685" t="s">
         <v>26</v>
       </c>
-      <c r="T66" s="664"/>
-      <c r="U66" s="664" t="s">
+      <c r="T66" s="685"/>
+      <c r="U66" s="685" t="s">
         <v>27</v>
       </c>
-      <c r="V66" s="664"/>
-      <c r="W66" s="664" t="s">
+      <c r="V66" s="685"/>
+      <c r="W66" s="685" t="s">
         <v>28</v>
       </c>
-      <c r="X66" s="664"/>
-      <c r="Y66" s="664" t="s">
+      <c r="X66" s="685"/>
+      <c r="Y66" s="685" t="s">
         <v>137</v>
       </c>
-      <c r="Z66" s="664"/>
-      <c r="AA66" s="665" t="s">
+      <c r="Z66" s="685"/>
+      <c r="AA66" s="688" t="s">
         <v>138</v>
       </c>
       <c r="AB66" s="1"/>
@@ -62176,7 +62301,7 @@
     </row>
     <row r="67" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="671"/>
+      <c r="B67" s="687"/>
       <c r="C67" s="281" t="s">
         <v>37</v>
       </c>
@@ -62249,7 +62374,7 @@
       <c r="Z67" s="281" t="s">
         <v>139</v>
       </c>
-      <c r="AA67" s="666"/>
+      <c r="AA67" s="689"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
@@ -67588,27 +67713,27 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B40:AA40"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="W66:X66"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="AA66:AA67"/>
+    <mergeCell ref="AA53:AA54"/>
+    <mergeCell ref="B65:AA65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="W53:X53"/>
     <mergeCell ref="Y53:Z53"/>
     <mergeCell ref="Y41:Z41"/>
     <mergeCell ref="AA41:AA42"/>
@@ -67625,27 +67750,27 @@
     <mergeCell ref="Q41:R41"/>
     <mergeCell ref="S41:T41"/>
     <mergeCell ref="U41:V41"/>
-    <mergeCell ref="AA66:AA67"/>
-    <mergeCell ref="AA53:AA54"/>
-    <mergeCell ref="B65:AA65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="W66:X66"/>
-    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="B40:AA40"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -67654,7 +67779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -68021,15 +68146,15 @@
         <v>157</v>
       </c>
       <c r="B11" s="322">
-        <f>'Costos variables'!N23</f>
+        <f>'Costos variables'!N26</f>
         <v>230628.36</v>
       </c>
       <c r="C11" s="322">
-        <f>'Costos variables'!N32</f>
+        <f>'Costos variables'!N36</f>
         <v>220990.20000000004</v>
       </c>
       <c r="D11" s="322">
-        <f>'Costos variables'!N40</f>
+        <f>'Costos variables'!N44</f>
         <v>211309.43999999997</v>
       </c>
       <c r="E11" s="1"/>

--- a/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
+++ b/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\UAI\TFI\CareMonitor\CareMonitor\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58021DCB-5A72-4D93-B21D-A40818481C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23619F8-0EBE-41C5-A728-315BA6112F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4500" windowWidth="20640" windowHeight="11160" tabRatio="829" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId18"/>
-    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -4391,8 +4390,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="105" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="169" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4486,56 +4535,8 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4543,8 +4544,65 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4567,10 +4625,10 @@
     <xf numFmtId="164" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4606,34 +4664,13 @@
     <xf numFmtId="164" fontId="20" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4642,62 +4679,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4789,15 +4787,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4806,12 +4795,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4867,6 +4850,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4881,18 +4891,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4969,27 +4967,6 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5053,6 +5030,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5089,6 +5087,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Celda de comprobación" xfId="26" builtinId="23"/>
@@ -23087,19 +23086,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Proy. ventas"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -23400,7 +23386,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="C9:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -23460,7 +23446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G25" sqref="G25:G26"/>
     </sheetView>
   </sheetViews>
@@ -23536,18 +23522,18 @@
     </row>
     <row r="3" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="668" t="s">
+      <c r="B3" s="667" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="669"/>
-      <c r="D3" s="670"/>
+      <c r="C3" s="668"/>
+      <c r="D3" s="669"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="705" t="s">
+      <c r="F3" s="708" t="s">
         <v>160</v>
       </c>
-      <c r="G3" s="706"/>
-      <c r="H3" s="706"/>
-      <c r="I3" s="707"/>
+      <c r="G3" s="709"/>
+      <c r="H3" s="709"/>
+      <c r="I3" s="710"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -23752,12 +23738,12 @@
     </row>
     <row r="9" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="708" t="s">
+      <c r="B9" s="711" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="709"/>
-      <c r="D9" s="709"/>
-      <c r="E9" s="709"/>
+      <c r="C9" s="712"/>
+      <c r="D9" s="712"/>
+      <c r="E9" s="712"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -24201,11 +24187,11 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="710" t="s">
+      <c r="B21" s="704" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="711"/>
-      <c r="D21" s="712"/>
+      <c r="C21" s="705"/>
+      <c r="D21" s="706"/>
       <c r="E21" s="324">
         <f>SUM(E11:E20)</f>
         <v>1274116</v>
@@ -24262,12 +24248,12 @@
     </row>
     <row r="23" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="668" t="s">
+      <c r="B23" s="667" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="669"/>
-      <c r="D23" s="669"/>
-      <c r="E23" s="670"/>
+      <c r="C23" s="668"/>
+      <c r="D23" s="668"/>
+      <c r="E23" s="669"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -24452,8 +24438,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="623"/>
-      <c r="G28" s="623"/>
+      <c r="F28" s="642"/>
+      <c r="G28" s="642"/>
       <c r="H28" s="367"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -24489,8 +24475,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="713"/>
-      <c r="G29" s="713"/>
+      <c r="F29" s="707"/>
+      <c r="G29" s="707"/>
       <c r="H29" s="368"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -24526,8 +24512,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="623"/>
-      <c r="G30" s="623"/>
+      <c r="F30" s="642"/>
+      <c r="G30" s="642"/>
       <c r="H30" s="367"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -24563,8 +24549,8 @@
         <f t="shared" si="1"/>
         <v>23900</v>
       </c>
-      <c r="F31" s="713"/>
-      <c r="G31" s="713"/>
+      <c r="F31" s="707"/>
+      <c r="G31" s="707"/>
       <c r="H31" s="368"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -24600,8 +24586,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="713"/>
-      <c r="G32" s="713"/>
+      <c r="F32" s="707"/>
+      <c r="G32" s="707"/>
       <c r="H32" s="368"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -24637,8 +24623,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="713"/>
-      <c r="G33" s="713"/>
+      <c r="F33" s="707"/>
+      <c r="G33" s="707"/>
       <c r="H33" s="368"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -24661,11 +24647,11 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="710" t="s">
+      <c r="B34" s="704" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="711"/>
-      <c r="D34" s="712"/>
+      <c r="C34" s="705"/>
+      <c r="D34" s="706"/>
       <c r="E34" s="324">
         <f>SUM(E25:E33)</f>
         <v>39198</v>
@@ -24722,12 +24708,12 @@
     </row>
     <row r="36" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="668" t="s">
+      <c r="B36" s="667" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="669"/>
-      <c r="D36" s="669"/>
-      <c r="E36" s="670"/>
+      <c r="C36" s="668"/>
+      <c r="D36" s="668"/>
+      <c r="E36" s="669"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -25121,11 +25107,11 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="710" t="s">
+      <c r="B47" s="704" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="711"/>
-      <c r="D47" s="712"/>
+      <c r="C47" s="705"/>
+      <c r="D47" s="706"/>
       <c r="E47" s="324">
         <f>SUM(E38:E46)</f>
         <v>495632</v>
@@ -25182,12 +25168,12 @@
     </row>
     <row r="49" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
-      <c r="B49" s="668" t="s">
+      <c r="B49" s="667" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="669"/>
-      <c r="D49" s="669"/>
-      <c r="E49" s="670"/>
+      <c r="C49" s="668"/>
+      <c r="D49" s="668"/>
+      <c r="E49" s="669"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -25581,11 +25567,11 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="710" t="s">
+      <c r="B60" s="704" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="711"/>
-      <c r="D60" s="712"/>
+      <c r="C60" s="705"/>
+      <c r="D60" s="706"/>
       <c r="E60" s="326">
         <f>SUM(E51:E59)</f>
         <v>2112735</v>
@@ -25838,6 +25824,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B60:D60"/>
@@ -25848,12 +25840,6 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" location="searchVariation=62371957696&amp;position=1&amp;type=item&amp;tracking_id=c1baf121-2aa6-4883-89e1-db40e4fe7d07" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
@@ -25945,17 +25931,17 @@
     </row>
     <row r="3" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="668" t="s">
+      <c r="B3" s="667" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="669"/>
-      <c r="D3" s="670"/>
+      <c r="C3" s="668"/>
+      <c r="D3" s="669"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="705" t="s">
+      <c r="F3" s="708" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="706"/>
-      <c r="H3" s="707"/>
+      <c r="G3" s="709"/>
+      <c r="H3" s="710"/>
       <c r="I3" s="433"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -26118,20 +26104,20 @@
     </row>
     <row r="8" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="726" t="s">
+      <c r="B8" s="725" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="727"/>
-      <c r="D8" s="727"/>
-      <c r="E8" s="727"/>
-      <c r="F8" s="727"/>
-      <c r="G8" s="727"/>
-      <c r="H8" s="727"/>
-      <c r="I8" s="727"/>
-      <c r="J8" s="727"/>
-      <c r="K8" s="727"/>
-      <c r="L8" s="727"/>
-      <c r="M8" s="728"/>
+      <c r="C8" s="726"/>
+      <c r="D8" s="726"/>
+      <c r="E8" s="726"/>
+      <c r="F8" s="726"/>
+      <c r="G8" s="726"/>
+      <c r="H8" s="726"/>
+      <c r="I8" s="726"/>
+      <c r="J8" s="726"/>
+      <c r="K8" s="726"/>
+      <c r="L8" s="726"/>
+      <c r="M8" s="727"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -26146,32 +26132,32 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="729" t="s">
+      <c r="B9" s="728" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="731" t="s">
+      <c r="C9" s="730" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="731" t="s">
+      <c r="D9" s="730" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="733" t="s">
+      <c r="E9" s="732" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="735" t="s">
+      <c r="F9" s="734" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="723" t="s">
+      <c r="G9" s="722" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="724"/>
-      <c r="I9" s="724"/>
-      <c r="J9" s="725"/>
-      <c r="K9" s="737" t="s">
+      <c r="H9" s="723"/>
+      <c r="I9" s="723"/>
+      <c r="J9" s="724"/>
+      <c r="K9" s="736" t="s">
         <v>189</v>
       </c>
-      <c r="L9" s="731"/>
-      <c r="M9" s="738"/>
+      <c r="L9" s="730"/>
+      <c r="M9" s="737"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -26186,11 +26172,11 @@
     </row>
     <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="730"/>
-      <c r="C10" s="732"/>
-      <c r="D10" s="732"/>
-      <c r="E10" s="734"/>
-      <c r="F10" s="736"/>
+      <c r="B10" s="729"/>
+      <c r="C10" s="731"/>
+      <c r="D10" s="731"/>
+      <c r="E10" s="733"/>
+      <c r="F10" s="735"/>
       <c r="G10" s="418" t="s">
         <v>212</v>
       </c>
@@ -26226,7 +26212,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="714" t="s">
+      <c r="B11" s="713" t="s">
         <v>190</v>
       </c>
       <c r="C11" s="351" t="s">
@@ -26280,7 +26266,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="715"/>
+      <c r="B12" s="714"/>
       <c r="C12" s="380" t="s">
         <v>168</v>
       </c>
@@ -26330,7 +26316,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="715"/>
+      <c r="B13" s="714"/>
       <c r="C13" s="380" t="s">
         <v>168</v>
       </c>
@@ -26379,7 +26365,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="715"/>
+      <c r="B14" s="714"/>
       <c r="C14" s="351" t="s">
         <v>171</v>
       </c>
@@ -26431,7 +26417,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="715"/>
+      <c r="B15" s="714"/>
       <c r="C15" s="351" t="s">
         <v>169</v>
       </c>
@@ -26483,7 +26469,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="715"/>
+      <c r="B16" s="714"/>
       <c r="C16" s="351" t="s">
         <v>169</v>
       </c>
@@ -26534,7 +26520,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="715"/>
+      <c r="B17" s="714"/>
       <c r="C17" s="351" t="s">
         <v>179</v>
       </c>
@@ -26586,7 +26572,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="715"/>
+      <c r="B18" s="714"/>
       <c r="C18" s="351" t="s">
         <v>179</v>
       </c>
@@ -26636,7 +26622,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="715"/>
+      <c r="B19" s="714"/>
       <c r="C19" s="351" t="s">
         <v>180</v>
       </c>
@@ -26688,7 +26674,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="715"/>
+      <c r="B20" s="714"/>
       <c r="C20" s="351" t="s">
         <v>182</v>
       </c>
@@ -26740,7 +26726,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="715"/>
+      <c r="B21" s="714"/>
       <c r="C21" s="380" t="s">
         <v>182</v>
       </c>
@@ -26790,7 +26776,7 @@
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="716"/>
+      <c r="B22" s="715"/>
       <c r="C22" s="381" t="s">
         <v>182</v>
       </c>
@@ -26839,7 +26825,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="717" t="s">
+      <c r="B23" s="716" t="s">
         <v>191</v>
       </c>
       <c r="C23" s="255" t="s">
@@ -26893,7 +26879,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="718"/>
+      <c r="B24" s="717"/>
       <c r="C24" s="255" t="s">
         <v>164</v>
       </c>
@@ -26943,7 +26929,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="718"/>
+      <c r="B25" s="717"/>
       <c r="C25" s="255" t="s">
         <v>164</v>
       </c>
@@ -26992,7 +26978,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="718"/>
+      <c r="B26" s="717"/>
       <c r="C26" s="255" t="s">
         <v>175</v>
       </c>
@@ -27044,7 +27030,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="718"/>
+      <c r="B27" s="717"/>
       <c r="C27" s="255" t="s">
         <v>175</v>
       </c>
@@ -27094,7 +27080,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="718"/>
+      <c r="B28" s="717"/>
       <c r="C28" s="255" t="s">
         <v>175</v>
       </c>
@@ -27143,7 +27129,7 @@
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="718"/>
+      <c r="B29" s="717"/>
       <c r="C29" s="255" t="s">
         <v>173</v>
       </c>
@@ -27195,7 +27181,7 @@
     </row>
     <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="719"/>
+      <c r="B30" s="718"/>
       <c r="C30" s="255" t="s">
         <v>173</v>
       </c>
@@ -27246,17 +27232,17 @@
     </row>
     <row r="31" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="720" t="s">
+      <c r="B31" s="719" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="721"/>
-      <c r="D31" s="721"/>
-      <c r="E31" s="721"/>
-      <c r="F31" s="721"/>
-      <c r="G31" s="722"/>
-      <c r="H31" s="722"/>
-      <c r="I31" s="722"/>
-      <c r="J31" s="722"/>
+      <c r="C31" s="720"/>
+      <c r="D31" s="720"/>
+      <c r="E31" s="720"/>
+      <c r="F31" s="720"/>
+      <c r="G31" s="721"/>
+      <c r="H31" s="721"/>
+      <c r="I31" s="721"/>
+      <c r="J31" s="721"/>
       <c r="K31" s="364">
         <f>SUM(K11:K30)</f>
         <v>73911.600000000006</v>
@@ -31545,7 +31531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AI97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26:E28"/>
     </sheetView>
   </sheetViews>
@@ -31648,11 +31634,11 @@
       <c r="H3" s="387"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="668" t="s">
+      <c r="K3" s="667" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="669"/>
-      <c r="M3" s="670"/>
+      <c r="L3" s="668"/>
+      <c r="M3" s="669"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -31859,11 +31845,11 @@
       <c r="H8" s="387"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="668" t="s">
+      <c r="K8" s="667" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="669"/>
-      <c r="M8" s="670"/>
+      <c r="L8" s="668"/>
+      <c r="M8" s="669"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -31932,14 +31918,14 @@
     </row>
     <row r="10" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="708" t="s">
+      <c r="B10" s="711" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="709"/>
-      <c r="D10" s="709"/>
-      <c r="E10" s="709"/>
-      <c r="F10" s="709"/>
-      <c r="G10" s="741"/>
+      <c r="C10" s="712"/>
+      <c r="D10" s="712"/>
+      <c r="E10" s="712"/>
+      <c r="F10" s="712"/>
+      <c r="G10" s="761"/>
       <c r="H10" s="234"/>
       <c r="I10" s="1"/>
       <c r="J10" s="388" t="s">
@@ -31982,10 +31968,10 @@
     </row>
     <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="742" t="s">
+      <c r="B11" s="762" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="743"/>
+      <c r="C11" s="763"/>
       <c r="D11" s="391" t="s">
         <v>197</v>
       </c>
@@ -32040,10 +32026,10 @@
     </row>
     <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="744" t="s">
+      <c r="B12" s="764" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="745"/>
+      <c r="C12" s="765"/>
       <c r="D12" s="434">
         <v>0</v>
       </c>
@@ -32101,7 +32087,7 @@
     </row>
     <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="739" t="s">
+      <c r="B13" s="759" t="s">
         <v>198</v>
       </c>
       <c r="C13" s="396" t="s">
@@ -32153,7 +32139,7 @@
     </row>
     <row r="14" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="739"/>
+      <c r="B14" s="759"/>
       <c r="C14" s="396" t="s">
         <v>157</v>
       </c>
@@ -32175,11 +32161,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="668" t="s">
+      <c r="K14" s="667" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="669"/>
-      <c r="M14" s="670"/>
+      <c r="L14" s="668"/>
+      <c r="M14" s="669"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -32205,7 +32191,7 @@
     </row>
     <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="740"/>
+      <c r="B15" s="760"/>
       <c r="C15" s="397" t="s">
         <v>158</v>
       </c>
@@ -32261,10 +32247,10 @@
     </row>
     <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="759" t="s">
+      <c r="B16" s="751" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="760"/>
+      <c r="C16" s="752"/>
       <c r="D16" s="437">
         <v>0</v>
       </c>
@@ -32320,10 +32306,10 @@
     </row>
     <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="761" t="s">
+      <c r="B17" s="753" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="762"/>
+      <c r="C17" s="754"/>
       <c r="D17" s="434">
         <v>0</v>
       </c>
@@ -32369,10 +32355,10 @@
     </row>
     <row r="18" spans="1:35" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="763" t="s">
+      <c r="B18" s="755" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="764"/>
+      <c r="C18" s="756"/>
       <c r="D18" s="435">
         <v>0</v>
       </c>
@@ -32415,10 +32401,10 @@
     </row>
     <row r="19" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="765" t="s">
+      <c r="B19" s="757" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="766"/>
+      <c r="C19" s="758"/>
       <c r="D19" s="436">
         <v>0</v>
       </c>
@@ -32436,12 +32422,12 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="705" t="s">
+      <c r="J19" s="708" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="706"/>
-      <c r="L19" s="706"/>
-      <c r="M19" s="707"/>
+      <c r="K19" s="709"/>
+      <c r="L19" s="709"/>
+      <c r="M19" s="710"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -32467,10 +32453,10 @@
     </row>
     <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="759" t="s">
+      <c r="B20" s="751" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="760"/>
+      <c r="C20" s="752"/>
       <c r="D20" s="437">
         <v>0</v>
       </c>
@@ -32525,10 +32511,10 @@
     </row>
     <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="746" t="s">
+      <c r="B21" s="738" t="s">
         <v>204</v>
       </c>
-      <c r="C21" s="747"/>
+      <c r="C21" s="739"/>
       <c r="D21" s="401">
         <f>-J21</f>
         <v>-1274116</v>
@@ -32588,10 +32574,10 @@
     </row>
     <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="748" t="s">
+      <c r="B22" s="740" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="749"/>
+      <c r="C22" s="741"/>
       <c r="D22" s="398">
         <f>D20+D21</f>
         <v>-1274116</v>
@@ -32750,12 +32736,12 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="750" t="s">
+      <c r="B26" s="742" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="751"/>
-      <c r="D26" s="751"/>
-      <c r="E26" s="752"/>
+      <c r="C26" s="743"/>
+      <c r="D26" s="743"/>
+      <c r="E26" s="744"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="404" t="s">
@@ -32793,10 +32779,10 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="753"/>
-      <c r="C27" s="754"/>
-      <c r="D27" s="754"/>
-      <c r="E27" s="755"/>
+      <c r="B27" s="745"/>
+      <c r="C27" s="746"/>
+      <c r="D27" s="746"/>
+      <c r="E27" s="747"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="406" t="s">
@@ -32835,10 +32821,10 @@
     </row>
     <row r="28" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="756"/>
-      <c r="C28" s="757"/>
-      <c r="D28" s="757"/>
-      <c r="E28" s="758"/>
+      <c r="B28" s="748"/>
+      <c r="C28" s="749"/>
+      <c r="D28" s="749"/>
+      <c r="E28" s="750"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="408" t="s">
@@ -35430,6 +35416,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:E28"/>
@@ -35439,13 +35432,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H17" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
@@ -35834,11 +35820,11 @@
       <c r="D1" s="181"/>
       <c r="E1" s="181"/>
       <c r="F1" s="181"/>
-      <c r="G1" s="767" t="s">
+      <c r="G1" s="766" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="768"/>
-      <c r="I1" s="768"/>
+      <c r="H1" s="767"/>
+      <c r="I1" s="767"/>
       <c r="J1" s="181"/>
       <c r="K1" s="181"/>
       <c r="L1" s="181"/>
@@ -35890,22 +35876,22 @@
     </row>
     <row r="3" spans="1:31" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="769" t="s">
+      <c r="B3" s="768" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="770"/>
-      <c r="D3" s="770"/>
-      <c r="E3" s="770"/>
-      <c r="F3" s="770"/>
-      <c r="G3" s="771"/>
+      <c r="C3" s="769"/>
+      <c r="D3" s="769"/>
+      <c r="E3" s="769"/>
+      <c r="F3" s="769"/>
+      <c r="G3" s="770"/>
       <c r="H3" s="387"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="668" t="s">
+      <c r="K3" s="667" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="669"/>
-      <c r="M3" s="670"/>
+      <c r="L3" s="668"/>
+      <c r="M3" s="669"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -35920,12 +35906,12 @@
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="772"/>
-      <c r="C4" s="773"/>
-      <c r="D4" s="773"/>
-      <c r="E4" s="773"/>
-      <c r="F4" s="773"/>
-      <c r="G4" s="774"/>
+      <c r="B4" s="771"/>
+      <c r="C4" s="772"/>
+      <c r="D4" s="772"/>
+      <c r="E4" s="772"/>
+      <c r="F4" s="772"/>
+      <c r="G4" s="773"/>
       <c r="H4" s="227"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -36082,11 +36068,11 @@
       <c r="H8" s="387"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="668" t="s">
+      <c r="K8" s="667" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="669"/>
-      <c r="M8" s="670"/>
+      <c r="L8" s="668"/>
+      <c r="M8" s="669"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -36356,11 +36342,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="668" t="s">
+      <c r="K14" s="667" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="669"/>
-      <c r="M14" s="670"/>
+      <c r="L14" s="668"/>
+      <c r="M14" s="669"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -36375,10 +36361,10 @@
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="765" t="s">
+      <c r="B15" s="757" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="766"/>
+      <c r="C15" s="758"/>
       <c r="D15" s="436">
         <v>0</v>
       </c>
@@ -36420,10 +36406,10 @@
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="759" t="s">
+      <c r="B16" s="751" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="760"/>
+      <c r="C16" s="752"/>
       <c r="D16" s="437">
         <v>0</v>
       </c>
@@ -36468,10 +36454,10 @@
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="746" t="s">
+      <c r="B17" s="738" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="747"/>
+      <c r="C17" s="739"/>
       <c r="D17" s="401">
         <f>-J21</f>
         <v>-1274116</v>
@@ -36508,10 +36494,10 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="748" t="s">
+      <c r="B18" s="740" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="749"/>
+      <c r="C18" s="741"/>
       <c r="D18" s="398">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -36551,12 +36537,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="705" t="s">
+      <c r="J19" s="708" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="706"/>
-      <c r="L19" s="706"/>
-      <c r="M19" s="707"/>
+      <c r="K19" s="709"/>
+      <c r="L19" s="709"/>
+      <c r="M19" s="710"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -36760,10 +36746,10 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="754"/>
-      <c r="C26" s="754"/>
-      <c r="D26" s="754"/>
-      <c r="E26" s="754"/>
+      <c r="B26" s="746"/>
+      <c r="C26" s="746"/>
+      <c r="D26" s="746"/>
+      <c r="E26" s="746"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -36786,10 +36772,10 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="754"/>
-      <c r="C27" s="754"/>
-      <c r="D27" s="754"/>
-      <c r="E27" s="754"/>
+      <c r="B27" s="746"/>
+      <c r="C27" s="746"/>
+      <c r="D27" s="746"/>
+      <c r="E27" s="746"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -36812,10 +36798,10 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="754"/>
-      <c r="C28" s="754"/>
-      <c r="D28" s="754"/>
-      <c r="E28" s="754"/>
+      <c r="B28" s="746"/>
+      <c r="C28" s="746"/>
+      <c r="D28" s="746"/>
+      <c r="E28" s="746"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -37148,17 +37134,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K14:M14"/>
     <mergeCell ref="B26:E28"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37192,11 +37178,11 @@
       <c r="D1" s="181"/>
       <c r="E1" s="181"/>
       <c r="F1" s="181"/>
-      <c r="G1" s="767" t="s">
+      <c r="G1" s="766" t="s">
         <v>262</v>
       </c>
-      <c r="H1" s="768"/>
-      <c r="I1" s="768"/>
+      <c r="H1" s="767"/>
+      <c r="I1" s="767"/>
       <c r="J1" s="181"/>
       <c r="K1" s="181"/>
       <c r="L1" s="181"/>
@@ -37249,22 +37235,22 @@
     </row>
     <row r="3" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="769" t="s">
+      <c r="B3" s="768" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="770"/>
-      <c r="D3" s="770"/>
-      <c r="E3" s="770"/>
-      <c r="F3" s="770"/>
-      <c r="G3" s="771"/>
+      <c r="C3" s="769"/>
+      <c r="D3" s="769"/>
+      <c r="E3" s="769"/>
+      <c r="F3" s="769"/>
+      <c r="G3" s="770"/>
       <c r="H3" s="387"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="668" t="s">
+      <c r="K3" s="667" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="669"/>
-      <c r="M3" s="670"/>
+      <c r="L3" s="668"/>
+      <c r="M3" s="669"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -37283,12 +37269,12 @@
     </row>
     <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="772"/>
-      <c r="C4" s="773"/>
-      <c r="D4" s="773"/>
-      <c r="E4" s="773"/>
-      <c r="F4" s="773"/>
-      <c r="G4" s="774"/>
+      <c r="B4" s="771"/>
+      <c r="C4" s="772"/>
+      <c r="D4" s="772"/>
+      <c r="E4" s="772"/>
+      <c r="F4" s="772"/>
+      <c r="G4" s="773"/>
       <c r="H4" s="227"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -37358,14 +37344,14 @@
     </row>
     <row r="6" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="668" t="s">
+      <c r="B6" s="667" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="669"/>
-      <c r="D6" s="669"/>
-      <c r="E6" s="669"/>
-      <c r="F6" s="669"/>
-      <c r="G6" s="670"/>
+      <c r="C6" s="668"/>
+      <c r="D6" s="668"/>
+      <c r="E6" s="668"/>
+      <c r="F6" s="668"/>
+      <c r="G6" s="669"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -37461,11 +37447,11 @@
       <c r="H8" s="387"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="668" t="s">
+      <c r="K8" s="667" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="669"/>
-      <c r="M8" s="670"/>
+      <c r="L8" s="668"/>
+      <c r="M8" s="669"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -37759,11 +37745,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="668" t="s">
+      <c r="K14" s="667" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="669"/>
-      <c r="M14" s="670"/>
+      <c r="L14" s="668"/>
+      <c r="M14" s="669"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -37782,10 +37768,10 @@
     </row>
     <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="765" t="s">
+      <c r="B15" s="757" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="766"/>
+      <c r="C15" s="758"/>
       <c r="D15" s="436">
         <v>0</v>
       </c>
@@ -37831,10 +37817,10 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="759" t="s">
+      <c r="B16" s="751" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="760"/>
+      <c r="C16" s="752"/>
       <c r="D16" s="437">
         <v>0</v>
       </c>
@@ -37883,10 +37869,10 @@
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="746" t="s">
+      <c r="B17" s="738" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="747"/>
+      <c r="C17" s="739"/>
       <c r="D17" s="401">
         <f>-J21</f>
         <v>-1274116</v>
@@ -37927,10 +37913,10 @@
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="748" t="s">
+      <c r="B18" s="740" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="749"/>
+      <c r="C18" s="741"/>
       <c r="D18" s="398">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -37974,12 +37960,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="705" t="s">
+      <c r="J19" s="708" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="706"/>
-      <c r="L19" s="706"/>
-      <c r="M19" s="707"/>
+      <c r="K19" s="709"/>
+      <c r="L19" s="709"/>
+      <c r="M19" s="710"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -38212,10 +38198,10 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="754"/>
-      <c r="C26" s="754"/>
-      <c r="D26" s="754"/>
-      <c r="E26" s="754"/>
+      <c r="B26" s="746"/>
+      <c r="C26" s="746"/>
+      <c r="D26" s="746"/>
+      <c r="E26" s="746"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -38242,10 +38228,10 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="754"/>
-      <c r="C27" s="754"/>
-      <c r="D27" s="754"/>
-      <c r="E27" s="754"/>
+      <c r="B27" s="746"/>
+      <c r="C27" s="746"/>
+      <c r="D27" s="746"/>
+      <c r="E27" s="746"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -38272,10 +38258,10 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="754"/>
-      <c r="C28" s="754"/>
-      <c r="D28" s="754"/>
-      <c r="E28" s="754"/>
+      <c r="B28" s="746"/>
+      <c r="C28" s="746"/>
+      <c r="D28" s="746"/>
+      <c r="E28" s="746"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -38377,11 +38363,11 @@
       <c r="D1" s="181"/>
       <c r="E1" s="181"/>
       <c r="F1" s="181"/>
-      <c r="G1" s="767" t="s">
+      <c r="G1" s="766" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="768"/>
-      <c r="I1" s="768"/>
+      <c r="H1" s="767"/>
+      <c r="I1" s="767"/>
       <c r="J1" s="181"/>
       <c r="K1" s="181"/>
       <c r="L1" s="181"/>
@@ -38462,22 +38448,22 @@
     </row>
     <row r="3" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="769" t="s">
+      <c r="B3" s="768" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="770"/>
-      <c r="D3" s="770"/>
-      <c r="E3" s="770"/>
-      <c r="F3" s="770"/>
-      <c r="G3" s="770"/>
-      <c r="H3" s="770"/>
-      <c r="I3" s="771"/>
+      <c r="C3" s="769"/>
+      <c r="D3" s="769"/>
+      <c r="E3" s="769"/>
+      <c r="F3" s="769"/>
+      <c r="G3" s="769"/>
+      <c r="H3" s="769"/>
+      <c r="I3" s="770"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="668" t="s">
+      <c r="K3" s="667" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="669"/>
-      <c r="M3" s="670"/>
+      <c r="L3" s="668"/>
+      <c r="M3" s="669"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -38507,14 +38493,14 @@
     </row>
     <row r="4" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="772"/>
-      <c r="C4" s="773"/>
-      <c r="D4" s="773"/>
-      <c r="E4" s="773"/>
-      <c r="F4" s="773"/>
-      <c r="G4" s="773"/>
-      <c r="H4" s="773"/>
-      <c r="I4" s="774"/>
+      <c r="B4" s="771"/>
+      <c r="C4" s="772"/>
+      <c r="D4" s="772"/>
+      <c r="E4" s="772"/>
+      <c r="F4" s="772"/>
+      <c r="G4" s="772"/>
+      <c r="H4" s="772"/>
+      <c r="I4" s="773"/>
       <c r="J4" s="1"/>
       <c r="K4" s="73">
         <v>2020</v>
@@ -38604,14 +38590,14 @@
     </row>
     <row r="6" spans="1:45" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="668" t="s">
+      <c r="B6" s="667" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="669"/>
-      <c r="D6" s="669"/>
-      <c r="E6" s="669"/>
-      <c r="F6" s="669"/>
-      <c r="G6" s="670"/>
+      <c r="C6" s="668"/>
+      <c r="D6" s="668"/>
+      <c r="E6" s="668"/>
+      <c r="F6" s="668"/>
+      <c r="G6" s="669"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -38729,11 +38715,11 @@
       <c r="H8" s="387"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="668" t="s">
+      <c r="K8" s="667" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="669"/>
-      <c r="M8" s="670"/>
+      <c r="L8" s="668"/>
+      <c r="M8" s="669"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -39093,11 +39079,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="668" t="s">
+      <c r="K14" s="667" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="669"/>
-      <c r="M14" s="670"/>
+      <c r="L14" s="668"/>
+      <c r="M14" s="669"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -39127,10 +39113,10 @@
     </row>
     <row r="15" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="765" t="s">
+      <c r="B15" s="757" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="766"/>
+      <c r="C15" s="758"/>
       <c r="D15" s="436">
         <v>0</v>
       </c>
@@ -39187,10 +39173,10 @@
     </row>
     <row r="16" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="759" t="s">
+      <c r="B16" s="751" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="760"/>
+      <c r="C16" s="752"/>
       <c r="D16" s="437">
         <v>0</v>
       </c>
@@ -39250,10 +39236,10 @@
     </row>
     <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="746" t="s">
+      <c r="B17" s="738" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="747"/>
+      <c r="C17" s="739"/>
       <c r="D17" s="401">
         <f>-J21</f>
         <v>-1274116</v>
@@ -39305,10 +39291,10 @@
     </row>
     <row r="18" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="748" t="s">
+      <c r="B18" s="740" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="749"/>
+      <c r="C18" s="741"/>
       <c r="D18" s="398">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -39364,12 +39350,12 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="705" t="s">
+      <c r="J19" s="708" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="706"/>
-      <c r="L19" s="706"/>
-      <c r="M19" s="707"/>
+      <c r="K19" s="709"/>
+      <c r="L19" s="709"/>
+      <c r="M19" s="710"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -39719,17 +39705,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="J19:M19"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="J19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39740,7 +39726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:BN52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -39754,8 +39740,7 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" customWidth="1"/>
     <col min="14" max="14" width="25.140625" customWidth="1"/>
   </cols>
@@ -39862,22 +39847,22 @@
     </row>
     <row r="3" spans="1:66" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="769" t="s">
+      <c r="B3" s="768" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="770"/>
-      <c r="D3" s="770"/>
-      <c r="E3" s="770"/>
-      <c r="F3" s="770"/>
-      <c r="G3" s="770"/>
-      <c r="H3" s="770"/>
-      <c r="I3" s="771"/>
+      <c r="C3" s="769"/>
+      <c r="D3" s="769"/>
+      <c r="E3" s="769"/>
+      <c r="F3" s="769"/>
+      <c r="G3" s="769"/>
+      <c r="H3" s="769"/>
+      <c r="I3" s="770"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="668" t="s">
+      <c r="K3" s="667" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="669"/>
-      <c r="M3" s="670"/>
+      <c r="L3" s="668"/>
+      <c r="M3" s="669"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -39934,14 +39919,14 @@
     </row>
     <row r="4" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="772"/>
-      <c r="C4" s="773"/>
-      <c r="D4" s="773"/>
-      <c r="E4" s="773"/>
-      <c r="F4" s="773"/>
-      <c r="G4" s="773"/>
-      <c r="H4" s="773"/>
-      <c r="I4" s="774"/>
+      <c r="B4" s="771"/>
+      <c r="C4" s="772"/>
+      <c r="D4" s="772"/>
+      <c r="E4" s="772"/>
+      <c r="F4" s="772"/>
+      <c r="G4" s="772"/>
+      <c r="H4" s="772"/>
+      <c r="I4" s="773"/>
       <c r="J4" s="1"/>
       <c r="K4" s="73">
         <v>2020</v>
@@ -40085,14 +40070,14 @@
     </row>
     <row r="6" spans="1:66" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="668" t="s">
+      <c r="B6" s="667" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="669"/>
-      <c r="D6" s="669"/>
-      <c r="E6" s="669"/>
-      <c r="F6" s="669"/>
-      <c r="G6" s="670"/>
+      <c r="C6" s="668"/>
+      <c r="D6" s="668"/>
+      <c r="E6" s="668"/>
+      <c r="F6" s="668"/>
+      <c r="G6" s="669"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -40269,11 +40254,11 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="668" t="s">
+      <c r="K8" s="667" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="669"/>
-      <c r="M8" s="670"/>
+      <c r="L8" s="668"/>
+      <c r="M8" s="669"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -40823,11 +40808,11 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="668" t="s">
+      <c r="K14" s="667" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="669"/>
-      <c r="M14" s="670"/>
+      <c r="L14" s="668"/>
+      <c r="M14" s="669"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -40884,10 +40869,10 @@
     </row>
     <row r="15" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="765" t="s">
+      <c r="B15" s="757" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="766"/>
+      <c r="C15" s="758"/>
       <c r="D15" s="436">
         <v>0</v>
       </c>
@@ -40974,10 +40959,10 @@
     </row>
     <row r="16" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="759" t="s">
+      <c r="B16" s="751" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="760"/>
+      <c r="C16" s="752"/>
       <c r="D16" s="437">
         <v>0</v>
       </c>
@@ -41067,10 +41052,10 @@
     </row>
     <row r="17" spans="1:66" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="746" t="s">
+      <c r="B17" s="738" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="747"/>
+      <c r="C17" s="739"/>
       <c r="D17" s="401">
         <f>-J21</f>
         <v>-1274116</v>
@@ -41152,10 +41137,10 @@
     </row>
     <row r="18" spans="1:66" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="748" t="s">
+      <c r="B18" s="740" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="749"/>
+      <c r="C18" s="741"/>
       <c r="D18" s="398">
         <f>D16+D17</f>
         <v>-1274116</v>
@@ -41245,12 +41230,12 @@
       <c r="G19" s="520"/>
       <c r="H19" s="519"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="705" t="s">
+      <c r="J19" s="708" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="706"/>
-      <c r="L19" s="706"/>
-      <c r="M19" s="707"/>
+      <c r="K19" s="709"/>
+      <c r="L19" s="709"/>
+      <c r="M19" s="710"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -41387,14 +41372,14 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="775" t="s">
+      <c r="D21" s="774" t="s">
         <v>264</v>
       </c>
-      <c r="E21" s="776"/>
-      <c r="G21" s="777" t="s">
+      <c r="E21" s="775"/>
+      <c r="G21" s="776" t="s">
         <v>267</v>
       </c>
-      <c r="H21" s="778"/>
+      <c r="H21" s="777"/>
       <c r="I21" s="1"/>
       <c r="J21" s="230">
         <f>'Mod. inversión'!$F$5</f>
@@ -42658,7 +42643,7 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="546">
+      <c r="D39" s="545">
         <f>D18</f>
         <v>-1274116</v>
       </c>
@@ -43620,11 +43605,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="K3:M3"/>
@@ -43632,6 +43612,11 @@
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -48085,7 +48070,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -48117,58 +48102,58 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="551" t="s">
+      <c r="B3" s="567" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="552"/>
-      <c r="D3" s="552"/>
-      <c r="E3" s="552"/>
-      <c r="F3" s="552"/>
-      <c r="G3" s="552"/>
-      <c r="H3" s="552"/>
-      <c r="I3" s="552"/>
-      <c r="J3" s="553"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="568"/>
+      <c r="E3" s="568"/>
+      <c r="F3" s="568"/>
+      <c r="G3" s="568"/>
+      <c r="H3" s="568"/>
+      <c r="I3" s="568"/>
+      <c r="J3" s="569"/>
     </row>
     <row r="4" spans="1:11" ht="165" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="560" t="s">
+      <c r="B4" s="576" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="561"/>
-      <c r="D4" s="561"/>
-      <c r="E4" s="561"/>
-      <c r="F4" s="561"/>
-      <c r="G4" s="561"/>
-      <c r="H4" s="561"/>
-      <c r="I4" s="561"/>
-      <c r="J4" s="562"/>
+      <c r="C4" s="577"/>
+      <c r="D4" s="577"/>
+      <c r="E4" s="577"/>
+      <c r="F4" s="577"/>
+      <c r="G4" s="577"/>
+      <c r="H4" s="577"/>
+      <c r="I4" s="577"/>
+      <c r="J4" s="578"/>
       <c r="K4" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="579" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="564"/>
-      <c r="D7" s="564"/>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="564"/>
-      <c r="I7" s="564"/>
-      <c r="J7" s="565"/>
+      <c r="C7" s="580"/>
+      <c r="D7" s="580"/>
+      <c r="E7" s="580"/>
+      <c r="F7" s="580"/>
+      <c r="G7" s="580"/>
+      <c r="H7" s="580"/>
+      <c r="I7" s="580"/>
+      <c r="J7" s="581"/>
     </row>
     <row r="8" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="566" t="s">
+      <c r="B8" s="582" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="567"/>
-      <c r="D8" s="567"/>
-      <c r="E8" s="567"/>
-      <c r="F8" s="567"/>
-      <c r="G8" s="567"/>
-      <c r="H8" s="567"/>
-      <c r="I8" s="567"/>
-      <c r="J8" s="568"/>
+      <c r="C8" s="583"/>
+      <c r="D8" s="583"/>
+      <c r="E8" s="583"/>
+      <c r="F8" s="583"/>
+      <c r="G8" s="583"/>
+      <c r="H8" s="583"/>
+      <c r="I8" s="583"/>
+      <c r="J8" s="584"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="40"/>
@@ -48240,30 +48225,30 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="569" t="s">
+      <c r="B15" s="585" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="570"/>
-      <c r="D15" s="570"/>
-      <c r="E15" s="570"/>
-      <c r="F15" s="570"/>
-      <c r="G15" s="570"/>
-      <c r="H15" s="570"/>
-      <c r="I15" s="570"/>
-      <c r="J15" s="571"/>
+      <c r="C15" s="586"/>
+      <c r="D15" s="586"/>
+      <c r="E15" s="586"/>
+      <c r="F15" s="586"/>
+      <c r="G15" s="586"/>
+      <c r="H15" s="586"/>
+      <c r="I15" s="586"/>
+      <c r="J15" s="587"/>
     </row>
     <row r="16" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="572" t="s">
+      <c r="B16" s="588" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="573"/>
-      <c r="D16" s="573"/>
-      <c r="E16" s="573"/>
-      <c r="F16" s="573"/>
-      <c r="G16" s="573"/>
-      <c r="H16" s="573"/>
-      <c r="I16" s="573"/>
-      <c r="J16" s="574"/>
+      <c r="C16" s="589"/>
+      <c r="D16" s="589"/>
+      <c r="E16" s="589"/>
+      <c r="F16" s="589"/>
+      <c r="G16" s="589"/>
+      <c r="H16" s="589"/>
+      <c r="I16" s="589"/>
+      <c r="J16" s="590"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
@@ -48333,11 +48318,11 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="554" t="s">
+      <c r="B22" s="570" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="555"/>
-      <c r="D22" s="556"/>
+      <c r="C22" s="571"/>
+      <c r="D22" s="572"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -48400,7 +48385,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="D25" s="55">
-        <f t="shared" ref="D25:D26" si="0">C25*$D$12</f>
+        <f t="shared" ref="D25" si="0">C25*$D$12</f>
         <v>86241912</v>
       </c>
       <c r="E25" s="6"/>
@@ -48526,13 +48511,13 @@
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="551" t="s">
+      <c r="B33" s="567" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="552"/>
-      <c r="D33" s="552"/>
-      <c r="E33" s="552"/>
-      <c r="F33" s="553"/>
+      <c r="C33" s="568"/>
+      <c r="D33" s="568"/>
+      <c r="E33" s="568"/>
+      <c r="F33" s="569"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
@@ -48558,91 +48543,91 @@
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="551" t="s">
+      <c r="B35" s="567" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="575"/>
-      <c r="D35" s="575"/>
-      <c r="E35" s="575"/>
-      <c r="F35" s="576"/>
+      <c r="C35" s="591"/>
+      <c r="D35" s="591"/>
+      <c r="E35" s="591"/>
+      <c r="F35" s="592"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="557" t="s">
+      <c r="B36" s="573" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="577" t="s">
+      <c r="C36" s="593" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="577"/>
-      <c r="E36" s="577"/>
-      <c r="F36" s="577"/>
+      <c r="D36" s="593"/>
+      <c r="E36" s="593"/>
+      <c r="F36" s="593"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="558"/>
-      <c r="C37" s="577"/>
-      <c r="D37" s="577"/>
-      <c r="E37" s="577"/>
-      <c r="F37" s="577"/>
+      <c r="B37" s="574"/>
+      <c r="C37" s="593"/>
+      <c r="D37" s="593"/>
+      <c r="E37" s="593"/>
+      <c r="F37" s="593"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="558"/>
-      <c r="C38" s="577"/>
-      <c r="D38" s="577"/>
-      <c r="E38" s="577"/>
-      <c r="F38" s="577"/>
+      <c r="B38" s="574"/>
+      <c r="C38" s="593"/>
+      <c r="D38" s="593"/>
+      <c r="E38" s="593"/>
+      <c r="F38" s="593"/>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="558"/>
-      <c r="C39" s="547" t="s">
+      <c r="B39" s="574"/>
+      <c r="C39" s="563" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="547"/>
-      <c r="E39" s="547"/>
-      <c r="F39" s="547"/>
+      <c r="D39" s="563"/>
+      <c r="E39" s="563"/>
+      <c r="F39" s="563"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="558"/>
-      <c r="C40" s="547"/>
-      <c r="D40" s="547"/>
-      <c r="E40" s="547"/>
-      <c r="F40" s="547"/>
+      <c r="B40" s="574"/>
+      <c r="C40" s="563"/>
+      <c r="D40" s="563"/>
+      <c r="E40" s="563"/>
+      <c r="F40" s="563"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="558"/>
-      <c r="C41" s="547"/>
-      <c r="D41" s="547"/>
-      <c r="E41" s="547"/>
-      <c r="F41" s="547"/>
+      <c r="B41" s="574"/>
+      <c r="C41" s="563"/>
+      <c r="D41" s="563"/>
+      <c r="E41" s="563"/>
+      <c r="F41" s="563"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="558"/>
-      <c r="C42" s="548" t="s">
+      <c r="B42" s="574"/>
+      <c r="C42" s="564" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="548"/>
-      <c r="E42" s="548"/>
-      <c r="F42" s="548"/>
+      <c r="D42" s="564"/>
+      <c r="E42" s="564"/>
+      <c r="F42" s="564"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="558"/>
-      <c r="C43" s="548"/>
-      <c r="D43" s="548"/>
-      <c r="E43" s="548"/>
-      <c r="F43" s="548"/>
+      <c r="B43" s="574"/>
+      <c r="C43" s="564"/>
+      <c r="D43" s="564"/>
+      <c r="E43" s="564"/>
+      <c r="F43" s="564"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="559"/>
-      <c r="C44" s="548"/>
-      <c r="D44" s="548"/>
-      <c r="E44" s="548"/>
-      <c r="F44" s="548"/>
+      <c r="B44" s="575"/>
+      <c r="C44" s="564"/>
+      <c r="D44" s="564"/>
+      <c r="E44" s="564"/>
+      <c r="F44" s="564"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="549" t="s">
+      <c r="B47" s="565" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="550"/>
+      <c r="C47" s="566"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="68" t="s">
@@ -48653,61 +48638,55 @@
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="578" t="s">
+      <c r="B49" s="546" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="587">
+      <c r="C49" s="555">
         <v>1300</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="579"/>
-      <c r="C50" s="587"/>
+      <c r="B50" s="547"/>
+      <c r="C50" s="555"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="580"/>
-      <c r="C51" s="588"/>
+      <c r="B51" s="548"/>
+      <c r="C51" s="556"/>
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="581" t="s">
+      <c r="B52" s="549" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="589">
+      <c r="C52" s="557">
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="582"/>
-      <c r="C53" s="590"/>
+      <c r="B53" s="550"/>
+      <c r="C53" s="558"/>
     </row>
     <row r="54" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="583"/>
-      <c r="C54" s="591"/>
+      <c r="B54" s="551"/>
+      <c r="C54" s="559"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="584" t="s">
+      <c r="B55" s="552" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="592">
+      <c r="C55" s="560">
         <v>4000</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="585"/>
-      <c r="C56" s="593"/>
+      <c r="B56" s="553"/>
+      <c r="C56" s="561"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="586"/>
-      <c r="C57" s="594"/>
+      <c r="B57" s="554"/>
+      <c r="C57" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
     <mergeCell ref="C39:F41"/>
     <mergeCell ref="C42:F44"/>
     <mergeCell ref="B47:C47"/>
@@ -48722,6 +48701,12 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="C36:F38"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -48734,7 +48719,7 @@
   <dimension ref="A1:BI155"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
@@ -48857,18 +48842,18 @@
     </row>
     <row r="5" spans="1:61" s="24" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
-      <c r="B5" s="610" t="s">
+      <c r="B5" s="629" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="613"/>
+      <c r="C5" s="630"/>
+      <c r="D5" s="632"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="643" t="s">
+      <c r="F5" s="603" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="644"/>
-      <c r="H5" s="644"/>
-      <c r="I5" s="645"/>
+      <c r="G5" s="604"/>
+      <c r="H5" s="604"/>
+      <c r="I5" s="605"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
@@ -48914,12 +48899,12 @@
         <v>2022</v>
       </c>
       <c r="E6" s="41"/>
-      <c r="F6" s="637" t="s">
+      <c r="F6" s="597" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="638"/>
-      <c r="H6" s="638"/>
-      <c r="I6" s="639"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="598"/>
+      <c r="I6" s="599"/>
       <c r="J6" s="214"/>
       <c r="K6" s="214"/>
       <c r="L6" s="214"/>
@@ -48968,10 +48953,10 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="E7" s="45"/>
-      <c r="F7" s="640"/>
-      <c r="G7" s="641"/>
-      <c r="H7" s="641"/>
-      <c r="I7" s="642"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="602"/>
       <c r="J7" s="214"/>
       <c r="K7" s="214"/>
       <c r="L7" s="214"/>
@@ -49372,48 +49357,48 @@
       <c r="BI14" s="8"/>
     </row>
     <row r="15" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="610" t="s">
+      <c r="A15" s="629" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="611"/>
-      <c r="C15" s="611"/>
-      <c r="D15" s="611"/>
-      <c r="E15" s="611"/>
-      <c r="F15" s="611"/>
-      <c r="G15" s="611"/>
-      <c r="H15" s="612"/>
-      <c r="I15" s="612"/>
-      <c r="J15" s="612"/>
-      <c r="K15" s="612"/>
-      <c r="L15" s="611"/>
-      <c r="M15" s="611"/>
-      <c r="N15" s="611"/>
-      <c r="O15" s="611"/>
-      <c r="P15" s="611"/>
-      <c r="Q15" s="611"/>
-      <c r="R15" s="611"/>
-      <c r="S15" s="611"/>
-      <c r="T15" s="611"/>
-      <c r="U15" s="611"/>
-      <c r="V15" s="611"/>
-      <c r="W15" s="611"/>
-      <c r="X15" s="611"/>
-      <c r="Y15" s="611"/>
-      <c r="Z15" s="611"/>
-      <c r="AA15" s="611"/>
-      <c r="AB15" s="611"/>
-      <c r="AC15" s="611"/>
-      <c r="AD15" s="611"/>
-      <c r="AE15" s="611"/>
-      <c r="AF15" s="611"/>
-      <c r="AG15" s="611"/>
-      <c r="AH15" s="611"/>
-      <c r="AI15" s="611"/>
-      <c r="AJ15" s="611"/>
-      <c r="AK15" s="611"/>
-      <c r="AL15" s="611"/>
-      <c r="AM15" s="611"/>
-      <c r="AN15" s="613"/>
+      <c r="B15" s="630"/>
+      <c r="C15" s="630"/>
+      <c r="D15" s="630"/>
+      <c r="E15" s="630"/>
+      <c r="F15" s="630"/>
+      <c r="G15" s="630"/>
+      <c r="H15" s="631"/>
+      <c r="I15" s="631"/>
+      <c r="J15" s="631"/>
+      <c r="K15" s="631"/>
+      <c r="L15" s="630"/>
+      <c r="M15" s="630"/>
+      <c r="N15" s="630"/>
+      <c r="O15" s="630"/>
+      <c r="P15" s="630"/>
+      <c r="Q15" s="630"/>
+      <c r="R15" s="630"/>
+      <c r="S15" s="630"/>
+      <c r="T15" s="630"/>
+      <c r="U15" s="630"/>
+      <c r="V15" s="630"/>
+      <c r="W15" s="630"/>
+      <c r="X15" s="630"/>
+      <c r="Y15" s="630"/>
+      <c r="Z15" s="630"/>
+      <c r="AA15" s="630"/>
+      <c r="AB15" s="630"/>
+      <c r="AC15" s="630"/>
+      <c r="AD15" s="630"/>
+      <c r="AE15" s="630"/>
+      <c r="AF15" s="630"/>
+      <c r="AG15" s="630"/>
+      <c r="AH15" s="630"/>
+      <c r="AI15" s="630"/>
+      <c r="AJ15" s="630"/>
+      <c r="AK15" s="630"/>
+      <c r="AL15" s="630"/>
+      <c r="AM15" s="630"/>
+      <c r="AN15" s="632"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
@@ -49437,76 +49422,76 @@
       <c r="BI15" s="8"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A16" s="614" t="s">
+      <c r="A16" s="633" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="614" t="s">
+      <c r="B16" s="633" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="617" t="s">
+      <c r="C16" s="636" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="618"/>
-      <c r="E16" s="600" t="s">
+      <c r="D16" s="643"/>
+      <c r="E16" s="619" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="601"/>
-      <c r="G16" s="602"/>
-      <c r="H16" s="600" t="s">
+      <c r="F16" s="620"/>
+      <c r="G16" s="621"/>
+      <c r="H16" s="619" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="601"/>
-      <c r="J16" s="602"/>
-      <c r="K16" s="600" t="s">
+      <c r="I16" s="620"/>
+      <c r="J16" s="621"/>
+      <c r="K16" s="619" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="601"/>
-      <c r="M16" s="602"/>
-      <c r="N16" s="600" t="s">
+      <c r="L16" s="620"/>
+      <c r="M16" s="621"/>
+      <c r="N16" s="619" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="601"/>
-      <c r="P16" s="602"/>
-      <c r="Q16" s="600" t="s">
+      <c r="O16" s="620"/>
+      <c r="P16" s="621"/>
+      <c r="Q16" s="619" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="601"/>
-      <c r="S16" s="602"/>
-      <c r="T16" s="600" t="s">
+      <c r="R16" s="620"/>
+      <c r="S16" s="621"/>
+      <c r="T16" s="619" t="s">
         <v>23</v>
       </c>
-      <c r="U16" s="601"/>
-      <c r="V16" s="602"/>
-      <c r="W16" s="600" t="s">
+      <c r="U16" s="620"/>
+      <c r="V16" s="621"/>
+      <c r="W16" s="619" t="s">
         <v>24</v>
       </c>
-      <c r="X16" s="601"/>
-      <c r="Y16" s="602"/>
-      <c r="Z16" s="600" t="s">
+      <c r="X16" s="620"/>
+      <c r="Y16" s="621"/>
+      <c r="Z16" s="619" t="s">
         <v>25</v>
       </c>
-      <c r="AA16" s="601"/>
-      <c r="AB16" s="602"/>
-      <c r="AC16" s="600" t="s">
+      <c r="AA16" s="620"/>
+      <c r="AB16" s="621"/>
+      <c r="AC16" s="619" t="s">
         <v>26</v>
       </c>
-      <c r="AD16" s="601"/>
-      <c r="AE16" s="602"/>
-      <c r="AF16" s="600" t="s">
+      <c r="AD16" s="620"/>
+      <c r="AE16" s="621"/>
+      <c r="AF16" s="619" t="s">
         <v>27</v>
       </c>
-      <c r="AG16" s="601"/>
-      <c r="AH16" s="602"/>
-      <c r="AI16" s="600" t="s">
+      <c r="AG16" s="620"/>
+      <c r="AH16" s="621"/>
+      <c r="AI16" s="619" t="s">
         <v>28</v>
       </c>
-      <c r="AJ16" s="601"/>
-      <c r="AK16" s="602"/>
-      <c r="AL16" s="600" t="s">
+      <c r="AJ16" s="620"/>
+      <c r="AK16" s="621"/>
+      <c r="AL16" s="619" t="s">
         <v>29</v>
       </c>
-      <c r="AM16" s="601"/>
-      <c r="AN16" s="602"/>
+      <c r="AM16" s="620"/>
+      <c r="AN16" s="621"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
@@ -49530,74 +49515,74 @@
       <c r="BI16" s="8"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A17" s="615"/>
-      <c r="B17" s="615"/>
-      <c r="C17" s="603" t="s">
+      <c r="A17" s="634"/>
+      <c r="B17" s="634"/>
+      <c r="C17" s="622" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="605" t="s">
+      <c r="D17" s="646" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="607">
+      <c r="E17" s="626">
         <v>0.02</v>
       </c>
-      <c r="F17" s="608"/>
-      <c r="G17" s="609"/>
-      <c r="H17" s="607">
+      <c r="F17" s="627"/>
+      <c r="G17" s="628"/>
+      <c r="H17" s="626">
         <v>0.04</v>
       </c>
-      <c r="I17" s="608"/>
-      <c r="J17" s="609"/>
-      <c r="K17" s="607">
+      <c r="I17" s="627"/>
+      <c r="J17" s="628"/>
+      <c r="K17" s="626">
         <v>0.04</v>
       </c>
-      <c r="L17" s="608"/>
-      <c r="M17" s="609"/>
-      <c r="N17" s="607">
+      <c r="L17" s="627"/>
+      <c r="M17" s="628"/>
+      <c r="N17" s="626">
         <v>0.05</v>
       </c>
-      <c r="O17" s="608"/>
-      <c r="P17" s="609"/>
-      <c r="Q17" s="607">
+      <c r="O17" s="627"/>
+      <c r="P17" s="628"/>
+      <c r="Q17" s="626">
         <v>0.06</v>
       </c>
-      <c r="R17" s="608"/>
-      <c r="S17" s="609"/>
-      <c r="T17" s="607">
+      <c r="R17" s="627"/>
+      <c r="S17" s="628"/>
+      <c r="T17" s="626">
         <v>0.08</v>
       </c>
-      <c r="U17" s="608"/>
-      <c r="V17" s="609"/>
-      <c r="W17" s="607">
+      <c r="U17" s="627"/>
+      <c r="V17" s="628"/>
+      <c r="W17" s="626">
         <v>0.1</v>
       </c>
-      <c r="X17" s="608"/>
-      <c r="Y17" s="609"/>
-      <c r="Z17" s="607">
+      <c r="X17" s="627"/>
+      <c r="Y17" s="628"/>
+      <c r="Z17" s="626">
         <v>0.11</v>
       </c>
-      <c r="AA17" s="608"/>
-      <c r="AB17" s="609"/>
-      <c r="AC17" s="607">
+      <c r="AA17" s="627"/>
+      <c r="AB17" s="628"/>
+      <c r="AC17" s="626">
         <v>0.11</v>
       </c>
-      <c r="AD17" s="608"/>
-      <c r="AE17" s="609"/>
-      <c r="AF17" s="607">
+      <c r="AD17" s="627"/>
+      <c r="AE17" s="628"/>
+      <c r="AF17" s="626">
         <v>0.12</v>
       </c>
-      <c r="AG17" s="608"/>
-      <c r="AH17" s="609"/>
-      <c r="AI17" s="607">
+      <c r="AG17" s="627"/>
+      <c r="AH17" s="628"/>
+      <c r="AI17" s="626">
         <v>0.13</v>
       </c>
-      <c r="AJ17" s="608"/>
-      <c r="AK17" s="609"/>
-      <c r="AL17" s="607">
+      <c r="AJ17" s="627"/>
+      <c r="AK17" s="628"/>
+      <c r="AL17" s="626">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM17" s="608"/>
-      <c r="AN17" s="609"/>
+      <c r="AM17" s="627"/>
+      <c r="AN17" s="628"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
@@ -49621,10 +49606,10 @@
       <c r="BI17" s="8"/>
     </row>
     <row r="18" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="616"/>
-      <c r="B18" s="616"/>
-      <c r="C18" s="604"/>
-      <c r="D18" s="606"/>
+      <c r="A18" s="635"/>
+      <c r="B18" s="635"/>
+      <c r="C18" s="623"/>
+      <c r="D18" s="647"/>
       <c r="E18" s="111" t="s">
         <v>116</v>
       </c>
@@ -50236,10 +50221,10 @@
       </c>
     </row>
     <row r="22" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="598" t="s">
+      <c r="A22" s="617" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="599"/>
+      <c r="B22" s="618"/>
       <c r="C22" s="79">
         <f>SUM(C19:C21)</f>
         <v>2090</v>
@@ -51324,32 +51309,32 @@
     </row>
     <row r="51" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="619" t="s">
+      <c r="A52" s="606" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="620"/>
-      <c r="C52" s="620"/>
-      <c r="D52" s="620"/>
-      <c r="E52" s="620"/>
-      <c r="F52" s="620"/>
-      <c r="G52" s="620"/>
-      <c r="H52" s="621"/>
-      <c r="I52" s="621"/>
-      <c r="J52" s="621"/>
-      <c r="K52" s="621"/>
-      <c r="L52" s="621"/>
-      <c r="M52" s="621"/>
-      <c r="N52" s="621"/>
-      <c r="O52" s="621"/>
-      <c r="P52" s="621"/>
-      <c r="Q52" s="621"/>
-      <c r="R52" s="621"/>
-      <c r="S52" s="621"/>
-      <c r="T52" s="621"/>
-      <c r="U52" s="621"/>
-      <c r="V52" s="621"/>
-      <c r="W52" s="621"/>
-      <c r="X52" s="622"/>
+      <c r="B52" s="607"/>
+      <c r="C52" s="607"/>
+      <c r="D52" s="607"/>
+      <c r="E52" s="607"/>
+      <c r="F52" s="607"/>
+      <c r="G52" s="607"/>
+      <c r="H52" s="644"/>
+      <c r="I52" s="644"/>
+      <c r="J52" s="644"/>
+      <c r="K52" s="644"/>
+      <c r="L52" s="644"/>
+      <c r="M52" s="644"/>
+      <c r="N52" s="644"/>
+      <c r="O52" s="644"/>
+      <c r="P52" s="644"/>
+      <c r="Q52" s="644"/>
+      <c r="R52" s="644"/>
+      <c r="S52" s="644"/>
+      <c r="T52" s="644"/>
+      <c r="U52" s="644"/>
+      <c r="V52" s="644"/>
+      <c r="W52" s="644"/>
+      <c r="X52" s="645"/>
       <c r="Y52" s="141"/>
       <c r="Z52" s="141"/>
       <c r="AA52" s="141"/>
@@ -51368,33 +51353,33 @@
       <c r="AN52" s="141"/>
     </row>
     <row r="53" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="626" t="s">
+      <c r="B53" s="638" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="630" t="s">
+      <c r="C53" s="639" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="630" t="s">
+      <c r="D53" s="639" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="630" t="s">
+      <c r="E53" s="639" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="624" t="s">
+      <c r="F53" s="611" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="628" t="s">
+      <c r="G53" s="640" t="s">
         <v>88</v>
       </c>
-      <c r="H53" s="624" t="s">
+      <c r="H53" s="611" t="s">
         <v>90</v>
       </c>
       <c r="I53" s="24"/>
-      <c r="J53" s="623"/>
+      <c r="J53" s="642"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
-      <c r="M53" s="623"/>
-      <c r="N53" s="623"/>
+      <c r="M53" s="642"/>
+      <c r="N53" s="642"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
@@ -51402,9 +51387,9 @@
       <c r="S53" s="24"/>
       <c r="T53" s="24"/>
       <c r="U53" s="24"/>
-      <c r="V53" s="623"/>
-      <c r="W53" s="623"/>
-      <c r="X53" s="623"/>
+      <c r="V53" s="642"/>
+      <c r="W53" s="642"/>
+      <c r="X53" s="642"/>
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
       <c r="AA53" s="24"/>
@@ -51423,19 +51408,19 @@
       <c r="AN53" s="177"/>
     </row>
     <row r="54" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="627"/>
-      <c r="C54" s="625"/>
-      <c r="D54" s="625"/>
-      <c r="E54" s="625"/>
-      <c r="F54" s="625"/>
-      <c r="G54" s="629"/>
-      <c r="H54" s="625"/>
+      <c r="B54" s="610"/>
+      <c r="C54" s="612"/>
+      <c r="D54" s="612"/>
+      <c r="E54" s="612"/>
+      <c r="F54" s="612"/>
+      <c r="G54" s="641"/>
+      <c r="H54" s="612"/>
       <c r="I54" s="24"/>
-      <c r="J54" s="623"/>
+      <c r="J54" s="642"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
-      <c r="M54" s="623"/>
-      <c r="N54" s="623"/>
+      <c r="M54" s="642"/>
+      <c r="N54" s="642"/>
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
@@ -51443,9 +51428,9 @@
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
       <c r="U54" s="24"/>
-      <c r="V54" s="623"/>
-      <c r="W54" s="623"/>
-      <c r="X54" s="623"/>
+      <c r="V54" s="642"/>
+      <c r="W54" s="642"/>
+      <c r="X54" s="642"/>
       <c r="AA54" s="24"/>
       <c r="AB54" s="24"/>
       <c r="AC54" s="179"/>
@@ -51502,9 +51487,9 @@
       <c r="V55" s="179"/>
       <c r="W55" s="179"/>
       <c r="X55" s="179"/>
-      <c r="Z55" s="597"/>
-      <c r="AA55" s="597"/>
-      <c r="AB55" s="597"/>
+      <c r="Z55" s="594"/>
+      <c r="AA55" s="594"/>
+      <c r="AB55" s="594"/>
       <c r="AC55" s="180"/>
       <c r="AD55" s="24"/>
       <c r="AE55" s="24"/>
@@ -51559,9 +51544,9 @@
       <c r="V56" s="180"/>
       <c r="W56" s="180"/>
       <c r="X56" s="180"/>
-      <c r="Z56" s="597"/>
-      <c r="AA56" s="597"/>
-      <c r="AB56" s="597"/>
+      <c r="Z56" s="594"/>
+      <c r="AA56" s="594"/>
+      <c r="AB56" s="594"/>
       <c r="AC56" s="179"/>
       <c r="AD56" s="24"/>
       <c r="AE56" s="24"/>
@@ -51616,9 +51601,9 @@
       <c r="V57" s="179"/>
       <c r="W57" s="179"/>
       <c r="X57" s="179"/>
-      <c r="Z57" s="597"/>
-      <c r="AA57" s="597"/>
-      <c r="AB57" s="597"/>
+      <c r="Z57" s="594"/>
+      <c r="AA57" s="594"/>
+      <c r="AB57" s="594"/>
       <c r="AC57" s="177"/>
       <c r="AD57" s="177"/>
       <c r="AE57" s="177"/>
@@ -51844,48 +51829,48 @@
       <c r="AN63" s="16"/>
     </row>
     <row r="64" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="610" t="s">
+      <c r="A64" s="629" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="611"/>
-      <c r="C64" s="611"/>
-      <c r="D64" s="611"/>
-      <c r="E64" s="611"/>
-      <c r="F64" s="611"/>
-      <c r="G64" s="611"/>
-      <c r="H64" s="612"/>
-      <c r="I64" s="612"/>
-      <c r="J64" s="612"/>
-      <c r="K64" s="612"/>
-      <c r="L64" s="611"/>
-      <c r="M64" s="611"/>
-      <c r="N64" s="611"/>
-      <c r="O64" s="611"/>
-      <c r="P64" s="611"/>
-      <c r="Q64" s="611"/>
-      <c r="R64" s="611"/>
-      <c r="S64" s="611"/>
-      <c r="T64" s="611"/>
-      <c r="U64" s="611"/>
-      <c r="V64" s="611"/>
-      <c r="W64" s="611"/>
-      <c r="X64" s="611"/>
-      <c r="Y64" s="611"/>
-      <c r="Z64" s="611"/>
-      <c r="AA64" s="611"/>
-      <c r="AB64" s="611"/>
-      <c r="AC64" s="611"/>
-      <c r="AD64" s="611"/>
-      <c r="AE64" s="611"/>
-      <c r="AF64" s="611"/>
-      <c r="AG64" s="611"/>
-      <c r="AH64" s="611"/>
-      <c r="AI64" s="611"/>
-      <c r="AJ64" s="611"/>
-      <c r="AK64" s="611"/>
-      <c r="AL64" s="611"/>
-      <c r="AM64" s="611"/>
-      <c r="AN64" s="613"/>
+      <c r="B64" s="630"/>
+      <c r="C64" s="630"/>
+      <c r="D64" s="630"/>
+      <c r="E64" s="630"/>
+      <c r="F64" s="630"/>
+      <c r="G64" s="630"/>
+      <c r="H64" s="631"/>
+      <c r="I64" s="631"/>
+      <c r="J64" s="631"/>
+      <c r="K64" s="631"/>
+      <c r="L64" s="630"/>
+      <c r="M64" s="630"/>
+      <c r="N64" s="630"/>
+      <c r="O64" s="630"/>
+      <c r="P64" s="630"/>
+      <c r="Q64" s="630"/>
+      <c r="R64" s="630"/>
+      <c r="S64" s="630"/>
+      <c r="T64" s="630"/>
+      <c r="U64" s="630"/>
+      <c r="V64" s="630"/>
+      <c r="W64" s="630"/>
+      <c r="X64" s="630"/>
+      <c r="Y64" s="630"/>
+      <c r="Z64" s="630"/>
+      <c r="AA64" s="630"/>
+      <c r="AB64" s="630"/>
+      <c r="AC64" s="630"/>
+      <c r="AD64" s="630"/>
+      <c r="AE64" s="630"/>
+      <c r="AF64" s="630"/>
+      <c r="AG64" s="630"/>
+      <c r="AH64" s="630"/>
+      <c r="AI64" s="630"/>
+      <c r="AJ64" s="630"/>
+      <c r="AK64" s="630"/>
+      <c r="AL64" s="630"/>
+      <c r="AM64" s="630"/>
+      <c r="AN64" s="632"/>
       <c r="AO64" s="8"/>
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
@@ -51909,76 +51894,76 @@
       <c r="BI64" s="8"/>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A65" s="614" t="s">
+      <c r="A65" s="633" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="614" t="s">
+      <c r="B65" s="633" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="617" t="s">
+      <c r="C65" s="636" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="618"/>
-      <c r="E65" s="600" t="s">
+      <c r="D65" s="643"/>
+      <c r="E65" s="619" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="601"/>
-      <c r="G65" s="602"/>
-      <c r="H65" s="600" t="s">
+      <c r="F65" s="620"/>
+      <c r="G65" s="621"/>
+      <c r="H65" s="619" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="601"/>
-      <c r="J65" s="602"/>
-      <c r="K65" s="600" t="s">
+      <c r="I65" s="620"/>
+      <c r="J65" s="621"/>
+      <c r="K65" s="619" t="s">
         <v>20</v>
       </c>
-      <c r="L65" s="601"/>
-      <c r="M65" s="602"/>
-      <c r="N65" s="600" t="s">
+      <c r="L65" s="620"/>
+      <c r="M65" s="621"/>
+      <c r="N65" s="619" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="601"/>
-      <c r="P65" s="602"/>
-      <c r="Q65" s="600" t="s">
+      <c r="O65" s="620"/>
+      <c r="P65" s="621"/>
+      <c r="Q65" s="619" t="s">
         <v>22</v>
       </c>
-      <c r="R65" s="601"/>
-      <c r="S65" s="602"/>
-      <c r="T65" s="600" t="s">
+      <c r="R65" s="620"/>
+      <c r="S65" s="621"/>
+      <c r="T65" s="619" t="s">
         <v>23</v>
       </c>
-      <c r="U65" s="601"/>
-      <c r="V65" s="602"/>
-      <c r="W65" s="600" t="s">
+      <c r="U65" s="620"/>
+      <c r="V65" s="621"/>
+      <c r="W65" s="619" t="s">
         <v>24</v>
       </c>
-      <c r="X65" s="601"/>
-      <c r="Y65" s="602"/>
-      <c r="Z65" s="600" t="s">
+      <c r="X65" s="620"/>
+      <c r="Y65" s="621"/>
+      <c r="Z65" s="619" t="s">
         <v>25</v>
       </c>
-      <c r="AA65" s="601"/>
-      <c r="AB65" s="602"/>
-      <c r="AC65" s="600" t="s">
+      <c r="AA65" s="620"/>
+      <c r="AB65" s="621"/>
+      <c r="AC65" s="619" t="s">
         <v>26</v>
       </c>
-      <c r="AD65" s="601"/>
-      <c r="AE65" s="602"/>
-      <c r="AF65" s="600" t="s">
+      <c r="AD65" s="620"/>
+      <c r="AE65" s="621"/>
+      <c r="AF65" s="619" t="s">
         <v>27</v>
       </c>
-      <c r="AG65" s="601"/>
-      <c r="AH65" s="602"/>
-      <c r="AI65" s="600" t="s">
+      <c r="AG65" s="620"/>
+      <c r="AH65" s="621"/>
+      <c r="AI65" s="619" t="s">
         <v>28</v>
       </c>
-      <c r="AJ65" s="601"/>
-      <c r="AK65" s="602"/>
-      <c r="AL65" s="600" t="s">
+      <c r="AJ65" s="620"/>
+      <c r="AK65" s="621"/>
+      <c r="AL65" s="619" t="s">
         <v>29</v>
       </c>
-      <c r="AM65" s="601"/>
-      <c r="AN65" s="602"/>
+      <c r="AM65" s="620"/>
+      <c r="AN65" s="621"/>
       <c r="AO65" s="8"/>
       <c r="AP65" s="8"/>
       <c r="AQ65" s="8"/>
@@ -52002,74 +51987,74 @@
       <c r="BI65" s="8"/>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A66" s="615"/>
-      <c r="B66" s="615"/>
-      <c r="C66" s="603" t="s">
+      <c r="A66" s="634"/>
+      <c r="B66" s="634"/>
+      <c r="C66" s="622" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="605" t="s">
+      <c r="D66" s="646" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="607">
+      <c r="E66" s="626">
         <v>0.02</v>
       </c>
-      <c r="F66" s="608"/>
-      <c r="G66" s="609"/>
-      <c r="H66" s="607">
+      <c r="F66" s="627"/>
+      <c r="G66" s="628"/>
+      <c r="H66" s="626">
         <v>0.04</v>
       </c>
-      <c r="I66" s="608"/>
-      <c r="J66" s="609"/>
-      <c r="K66" s="607">
+      <c r="I66" s="627"/>
+      <c r="J66" s="628"/>
+      <c r="K66" s="626">
         <v>0.04</v>
       </c>
-      <c r="L66" s="608"/>
-      <c r="M66" s="609"/>
-      <c r="N66" s="607">
+      <c r="L66" s="627"/>
+      <c r="M66" s="628"/>
+      <c r="N66" s="626">
         <v>0.05</v>
       </c>
-      <c r="O66" s="608"/>
-      <c r="P66" s="609"/>
-      <c r="Q66" s="607">
+      <c r="O66" s="627"/>
+      <c r="P66" s="628"/>
+      <c r="Q66" s="626">
         <v>0.06</v>
       </c>
-      <c r="R66" s="608"/>
-      <c r="S66" s="609"/>
-      <c r="T66" s="607">
+      <c r="R66" s="627"/>
+      <c r="S66" s="628"/>
+      <c r="T66" s="626">
         <v>0.08</v>
       </c>
-      <c r="U66" s="608"/>
-      <c r="V66" s="609"/>
-      <c r="W66" s="607">
+      <c r="U66" s="627"/>
+      <c r="V66" s="628"/>
+      <c r="W66" s="626">
         <v>0.1</v>
       </c>
-      <c r="X66" s="608"/>
-      <c r="Y66" s="609"/>
-      <c r="Z66" s="607">
+      <c r="X66" s="627"/>
+      <c r="Y66" s="628"/>
+      <c r="Z66" s="626">
         <v>0.11</v>
       </c>
-      <c r="AA66" s="608"/>
-      <c r="AB66" s="609"/>
-      <c r="AC66" s="607">
+      <c r="AA66" s="627"/>
+      <c r="AB66" s="628"/>
+      <c r="AC66" s="626">
         <v>0.11</v>
       </c>
-      <c r="AD66" s="608"/>
-      <c r="AE66" s="609"/>
-      <c r="AF66" s="607">
+      <c r="AD66" s="627"/>
+      <c r="AE66" s="628"/>
+      <c r="AF66" s="626">
         <v>0.12</v>
       </c>
-      <c r="AG66" s="608"/>
-      <c r="AH66" s="609"/>
-      <c r="AI66" s="607">
+      <c r="AG66" s="627"/>
+      <c r="AH66" s="628"/>
+      <c r="AI66" s="626">
         <v>0.13</v>
       </c>
-      <c r="AJ66" s="608"/>
-      <c r="AK66" s="609"/>
-      <c r="AL66" s="607">
+      <c r="AJ66" s="627"/>
+      <c r="AK66" s="628"/>
+      <c r="AL66" s="626">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM66" s="608"/>
-      <c r="AN66" s="609"/>
+      <c r="AM66" s="627"/>
+      <c r="AN66" s="628"/>
       <c r="AO66" s="8"/>
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
@@ -52093,10 +52078,10 @@
       <c r="BI66" s="8"/>
     </row>
     <row r="67" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="616"/>
-      <c r="B67" s="616"/>
-      <c r="C67" s="604"/>
-      <c r="D67" s="606"/>
+      <c r="A67" s="635"/>
+      <c r="B67" s="635"/>
+      <c r="C67" s="623"/>
+      <c r="D67" s="647"/>
       <c r="E67" s="111" t="s">
         <v>116</v>
       </c>
@@ -52708,10 +52693,10 @@
       </c>
     </row>
     <row r="71" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="598" t="s">
+      <c r="A71" s="617" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="599"/>
+      <c r="B71" s="618"/>
       <c r="C71" s="79">
         <f>SUM(C68:C70)</f>
         <v>5016</v>
@@ -52796,32 +52781,32 @@
     </row>
     <row r="100" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="619" t="s">
+      <c r="A101" s="606" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="620"/>
-      <c r="C101" s="620"/>
-      <c r="D101" s="620"/>
-      <c r="E101" s="620"/>
-      <c r="F101" s="620"/>
-      <c r="G101" s="620"/>
-      <c r="H101" s="620"/>
-      <c r="I101" s="620"/>
-      <c r="J101" s="620"/>
-      <c r="K101" s="620"/>
-      <c r="L101" s="620"/>
-      <c r="M101" s="620"/>
-      <c r="N101" s="620"/>
-      <c r="O101" s="620"/>
-      <c r="P101" s="620"/>
-      <c r="Q101" s="620"/>
-      <c r="R101" s="620"/>
-      <c r="S101" s="620"/>
-      <c r="T101" s="620"/>
-      <c r="U101" s="620"/>
-      <c r="V101" s="620"/>
-      <c r="W101" s="620"/>
-      <c r="X101" s="631"/>
+      <c r="B101" s="607"/>
+      <c r="C101" s="607"/>
+      <c r="D101" s="607"/>
+      <c r="E101" s="607"/>
+      <c r="F101" s="607"/>
+      <c r="G101" s="607"/>
+      <c r="H101" s="607"/>
+      <c r="I101" s="607"/>
+      <c r="J101" s="607"/>
+      <c r="K101" s="607"/>
+      <c r="L101" s="607"/>
+      <c r="M101" s="607"/>
+      <c r="N101" s="607"/>
+      <c r="O101" s="607"/>
+      <c r="P101" s="607"/>
+      <c r="Q101" s="607"/>
+      <c r="R101" s="607"/>
+      <c r="S101" s="607"/>
+      <c r="T101" s="607"/>
+      <c r="U101" s="607"/>
+      <c r="V101" s="607"/>
+      <c r="W101" s="607"/>
+      <c r="X101" s="608"/>
       <c r="Y101" s="141"/>
       <c r="Z101" s="141"/>
       <c r="AA101" s="141"/>
@@ -52840,41 +52825,41 @@
       <c r="AN101" s="96"/>
     </row>
     <row r="102" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="626" t="s">
+      <c r="B102" s="638" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="630" t="s">
+      <c r="C102" s="639" t="s">
         <v>72</v>
       </c>
-      <c r="D102" s="630" t="s">
+      <c r="D102" s="639" t="s">
         <v>79</v>
       </c>
-      <c r="E102" s="630" t="s">
+      <c r="E102" s="639" t="s">
         <v>81</v>
       </c>
-      <c r="F102" s="624" t="s">
+      <c r="F102" s="611" t="s">
         <v>84</v>
       </c>
-      <c r="G102" s="628" t="s">
+      <c r="G102" s="640" t="s">
         <v>88</v>
       </c>
-      <c r="H102" s="624" t="s">
+      <c r="H102" s="611" t="s">
         <v>90</v>
       </c>
-      <c r="I102" s="624" t="s">
+      <c r="I102" s="611" t="s">
         <v>91</v>
       </c>
-      <c r="J102" s="624" t="s">
+      <c r="J102" s="611" t="s">
         <v>92</v>
       </c>
-      <c r="K102" s="624" t="s">
+      <c r="K102" s="611" t="s">
         <v>93</v>
       </c>
-      <c r="L102" s="624" t="s">
+      <c r="L102" s="611" t="s">
         <v>77</v>
       </c>
-      <c r="M102" s="623"/>
-      <c r="N102" s="623"/>
+      <c r="M102" s="642"/>
+      <c r="N102" s="642"/>
       <c r="O102" s="24"/>
       <c r="P102" s="24"/>
       <c r="Q102" s="24"/>
@@ -52882,9 +52867,9 @@
       <c r="S102" s="24"/>
       <c r="T102" s="24"/>
       <c r="U102" s="24"/>
-      <c r="V102" s="623"/>
-      <c r="W102" s="623"/>
-      <c r="X102" s="623"/>
+      <c r="V102" s="642"/>
+      <c r="W102" s="642"/>
+      <c r="X102" s="642"/>
       <c r="Y102" s="24"/>
       <c r="Z102" s="24"/>
       <c r="AA102" s="24"/>
@@ -52903,19 +52888,19 @@
       <c r="AN102" s="177"/>
     </row>
     <row r="103" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="627"/>
-      <c r="C103" s="625"/>
-      <c r="D103" s="625"/>
-      <c r="E103" s="625"/>
-      <c r="F103" s="625"/>
-      <c r="G103" s="629"/>
-      <c r="H103" s="625"/>
-      <c r="I103" s="625"/>
-      <c r="J103" s="625"/>
-      <c r="K103" s="625"/>
-      <c r="L103" s="625"/>
-      <c r="M103" s="623"/>
-      <c r="N103" s="623"/>
+      <c r="B103" s="610"/>
+      <c r="C103" s="612"/>
+      <c r="D103" s="612"/>
+      <c r="E103" s="612"/>
+      <c r="F103" s="612"/>
+      <c r="G103" s="641"/>
+      <c r="H103" s="612"/>
+      <c r="I103" s="612"/>
+      <c r="J103" s="612"/>
+      <c r="K103" s="612"/>
+      <c r="L103" s="612"/>
+      <c r="M103" s="642"/>
+      <c r="N103" s="642"/>
       <c r="O103" s="24"/>
       <c r="P103" s="24"/>
       <c r="Q103" s="24"/>
@@ -52923,9 +52908,9 @@
       <c r="S103" s="24"/>
       <c r="T103" s="24"/>
       <c r="U103" s="24"/>
-      <c r="V103" s="623"/>
-      <c r="W103" s="623"/>
-      <c r="X103" s="623"/>
+      <c r="V103" s="642"/>
+      <c r="W103" s="642"/>
+      <c r="X103" s="642"/>
       <c r="AA103" s="24"/>
       <c r="AB103" s="24"/>
       <c r="AC103" s="179"/>
@@ -52990,9 +52975,9 @@
       <c r="V104" s="179"/>
       <c r="W104" s="179"/>
       <c r="X104" s="179"/>
-      <c r="Z104" s="597"/>
-      <c r="AA104" s="597"/>
-      <c r="AB104" s="597"/>
+      <c r="Z104" s="594"/>
+      <c r="AA104" s="594"/>
+      <c r="AB104" s="594"/>
       <c r="AC104" s="180"/>
       <c r="AD104" s="24"/>
       <c r="AE104" s="24"/>
@@ -53055,9 +53040,9 @@
       <c r="V105" s="180"/>
       <c r="W105" s="180"/>
       <c r="X105" s="180"/>
-      <c r="Z105" s="597"/>
-      <c r="AA105" s="597"/>
-      <c r="AB105" s="597"/>
+      <c r="Z105" s="594"/>
+      <c r="AA105" s="594"/>
+      <c r="AB105" s="594"/>
       <c r="AC105" s="179"/>
       <c r="AD105" s="24"/>
       <c r="AE105" s="24"/>
@@ -53120,9 +53105,9 @@
       <c r="V106" s="179"/>
       <c r="W106" s="179"/>
       <c r="X106" s="179"/>
-      <c r="Z106" s="597"/>
-      <c r="AA106" s="597"/>
-      <c r="AB106" s="597"/>
+      <c r="Z106" s="594"/>
+      <c r="AA106" s="594"/>
+      <c r="AB106" s="594"/>
       <c r="AC106" s="177"/>
       <c r="AD106" s="177"/>
       <c r="AE106" s="177"/>
@@ -53318,48 +53303,48 @@
     </row>
     <row r="111" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="610" t="s">
+      <c r="A112" s="629" t="s">
         <v>97</v>
       </c>
-      <c r="B112" s="611"/>
-      <c r="C112" s="611"/>
-      <c r="D112" s="611"/>
-      <c r="E112" s="611"/>
-      <c r="F112" s="611"/>
-      <c r="G112" s="611"/>
-      <c r="H112" s="612"/>
-      <c r="I112" s="612"/>
-      <c r="J112" s="612"/>
-      <c r="K112" s="612"/>
-      <c r="L112" s="611"/>
-      <c r="M112" s="611"/>
-      <c r="N112" s="611"/>
-      <c r="O112" s="611"/>
-      <c r="P112" s="611"/>
-      <c r="Q112" s="611"/>
-      <c r="R112" s="611"/>
-      <c r="S112" s="611"/>
-      <c r="T112" s="611"/>
-      <c r="U112" s="611"/>
-      <c r="V112" s="611"/>
-      <c r="W112" s="611"/>
-      <c r="X112" s="611"/>
-      <c r="Y112" s="611"/>
-      <c r="Z112" s="611"/>
-      <c r="AA112" s="611"/>
-      <c r="AB112" s="611"/>
-      <c r="AC112" s="611"/>
-      <c r="AD112" s="611"/>
-      <c r="AE112" s="611"/>
-      <c r="AF112" s="611"/>
-      <c r="AG112" s="611"/>
-      <c r="AH112" s="611"/>
-      <c r="AI112" s="611"/>
-      <c r="AJ112" s="611"/>
-      <c r="AK112" s="611"/>
-      <c r="AL112" s="611"/>
-      <c r="AM112" s="611"/>
-      <c r="AN112" s="613"/>
+      <c r="B112" s="630"/>
+      <c r="C112" s="630"/>
+      <c r="D112" s="630"/>
+      <c r="E112" s="630"/>
+      <c r="F112" s="630"/>
+      <c r="G112" s="630"/>
+      <c r="H112" s="631"/>
+      <c r="I112" s="631"/>
+      <c r="J112" s="631"/>
+      <c r="K112" s="631"/>
+      <c r="L112" s="630"/>
+      <c r="M112" s="630"/>
+      <c r="N112" s="630"/>
+      <c r="O112" s="630"/>
+      <c r="P112" s="630"/>
+      <c r="Q112" s="630"/>
+      <c r="R112" s="630"/>
+      <c r="S112" s="630"/>
+      <c r="T112" s="630"/>
+      <c r="U112" s="630"/>
+      <c r="V112" s="630"/>
+      <c r="W112" s="630"/>
+      <c r="X112" s="630"/>
+      <c r="Y112" s="630"/>
+      <c r="Z112" s="630"/>
+      <c r="AA112" s="630"/>
+      <c r="AB112" s="630"/>
+      <c r="AC112" s="630"/>
+      <c r="AD112" s="630"/>
+      <c r="AE112" s="630"/>
+      <c r="AF112" s="630"/>
+      <c r="AG112" s="630"/>
+      <c r="AH112" s="630"/>
+      <c r="AI112" s="630"/>
+      <c r="AJ112" s="630"/>
+      <c r="AK112" s="630"/>
+      <c r="AL112" s="630"/>
+      <c r="AM112" s="630"/>
+      <c r="AN112" s="632"/>
       <c r="AO112" s="8"/>
       <c r="AP112" s="8"/>
       <c r="AQ112" s="8"/>
@@ -53383,76 +53368,76 @@
       <c r="BI112" s="8"/>
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A113" s="614" t="s">
+      <c r="A113" s="633" t="s">
         <v>11</v>
       </c>
-      <c r="B113" s="614" t="s">
+      <c r="B113" s="633" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="617" t="s">
+      <c r="C113" s="636" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="632"/>
-      <c r="E113" s="600" t="s">
+      <c r="D113" s="637"/>
+      <c r="E113" s="619" t="s">
         <v>18</v>
       </c>
-      <c r="F113" s="601"/>
-      <c r="G113" s="601"/>
-      <c r="H113" s="600" t="s">
+      <c r="F113" s="620"/>
+      <c r="G113" s="620"/>
+      <c r="H113" s="619" t="s">
         <v>19</v>
       </c>
-      <c r="I113" s="601"/>
-      <c r="J113" s="602"/>
-      <c r="K113" s="600" t="s">
+      <c r="I113" s="620"/>
+      <c r="J113" s="621"/>
+      <c r="K113" s="619" t="s">
         <v>20</v>
       </c>
-      <c r="L113" s="601"/>
-      <c r="M113" s="602"/>
-      <c r="N113" s="600" t="s">
+      <c r="L113" s="620"/>
+      <c r="M113" s="621"/>
+      <c r="N113" s="619" t="s">
         <v>21</v>
       </c>
-      <c r="O113" s="601"/>
-      <c r="P113" s="602"/>
-      <c r="Q113" s="600" t="s">
+      <c r="O113" s="620"/>
+      <c r="P113" s="621"/>
+      <c r="Q113" s="619" t="s">
         <v>22</v>
       </c>
-      <c r="R113" s="601"/>
-      <c r="S113" s="602"/>
-      <c r="T113" s="600" t="s">
+      <c r="R113" s="620"/>
+      <c r="S113" s="621"/>
+      <c r="T113" s="619" t="s">
         <v>23</v>
       </c>
-      <c r="U113" s="601"/>
-      <c r="V113" s="602"/>
-      <c r="W113" s="600" t="s">
+      <c r="U113" s="620"/>
+      <c r="V113" s="621"/>
+      <c r="W113" s="619" t="s">
         <v>24</v>
       </c>
-      <c r="X113" s="601"/>
-      <c r="Y113" s="602"/>
-      <c r="Z113" s="600" t="s">
+      <c r="X113" s="620"/>
+      <c r="Y113" s="621"/>
+      <c r="Z113" s="619" t="s">
         <v>25</v>
       </c>
-      <c r="AA113" s="601"/>
-      <c r="AB113" s="602"/>
-      <c r="AC113" s="600" t="s">
+      <c r="AA113" s="620"/>
+      <c r="AB113" s="621"/>
+      <c r="AC113" s="619" t="s">
         <v>26</v>
       </c>
-      <c r="AD113" s="601"/>
-      <c r="AE113" s="602"/>
-      <c r="AF113" s="600" t="s">
+      <c r="AD113" s="620"/>
+      <c r="AE113" s="621"/>
+      <c r="AF113" s="619" t="s">
         <v>27</v>
       </c>
-      <c r="AG113" s="601"/>
-      <c r="AH113" s="602"/>
-      <c r="AI113" s="600" t="s">
+      <c r="AG113" s="620"/>
+      <c r="AH113" s="621"/>
+      <c r="AI113" s="619" t="s">
         <v>28</v>
       </c>
-      <c r="AJ113" s="601"/>
-      <c r="AK113" s="602"/>
-      <c r="AL113" s="600" t="s">
+      <c r="AJ113" s="620"/>
+      <c r="AK113" s="621"/>
+      <c r="AL113" s="619" t="s">
         <v>29</v>
       </c>
-      <c r="AM113" s="601"/>
-      <c r="AN113" s="602"/>
+      <c r="AM113" s="620"/>
+      <c r="AN113" s="621"/>
       <c r="AO113" s="8"/>
       <c r="AP113" s="8"/>
       <c r="AQ113" s="8"/>
@@ -53476,74 +53461,74 @@
       <c r="BI113" s="8"/>
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A114" s="615"/>
-      <c r="B114" s="615"/>
-      <c r="C114" s="603" t="s">
+      <c r="A114" s="634"/>
+      <c r="B114" s="634"/>
+      <c r="C114" s="622" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="635" t="s">
+      <c r="D114" s="624" t="s">
         <v>17</v>
       </c>
-      <c r="E114" s="607">
+      <c r="E114" s="626">
         <v>0.02</v>
       </c>
-      <c r="F114" s="608"/>
-      <c r="G114" s="608"/>
-      <c r="H114" s="607">
+      <c r="F114" s="627"/>
+      <c r="G114" s="627"/>
+      <c r="H114" s="626">
         <v>0.04</v>
       </c>
-      <c r="I114" s="608"/>
-      <c r="J114" s="609"/>
-      <c r="K114" s="607">
+      <c r="I114" s="627"/>
+      <c r="J114" s="628"/>
+      <c r="K114" s="626">
         <v>0.04</v>
       </c>
-      <c r="L114" s="608"/>
-      <c r="M114" s="609"/>
-      <c r="N114" s="607">
+      <c r="L114" s="627"/>
+      <c r="M114" s="628"/>
+      <c r="N114" s="626">
         <v>0.05</v>
       </c>
-      <c r="O114" s="608"/>
-      <c r="P114" s="609"/>
-      <c r="Q114" s="607">
+      <c r="O114" s="627"/>
+      <c r="P114" s="628"/>
+      <c r="Q114" s="626">
         <v>0.06</v>
       </c>
-      <c r="R114" s="608"/>
-      <c r="S114" s="609"/>
-      <c r="T114" s="607">
+      <c r="R114" s="627"/>
+      <c r="S114" s="628"/>
+      <c r="T114" s="626">
         <v>0.08</v>
       </c>
-      <c r="U114" s="608"/>
-      <c r="V114" s="609"/>
-      <c r="W114" s="607">
+      <c r="U114" s="627"/>
+      <c r="V114" s="628"/>
+      <c r="W114" s="626">
         <v>0.1</v>
       </c>
-      <c r="X114" s="608"/>
-      <c r="Y114" s="609"/>
-      <c r="Z114" s="607">
+      <c r="X114" s="627"/>
+      <c r="Y114" s="628"/>
+      <c r="Z114" s="626">
         <v>0.11</v>
       </c>
-      <c r="AA114" s="608"/>
-      <c r="AB114" s="609"/>
-      <c r="AC114" s="607">
+      <c r="AA114" s="627"/>
+      <c r="AB114" s="628"/>
+      <c r="AC114" s="626">
         <v>0.11</v>
       </c>
-      <c r="AD114" s="608"/>
-      <c r="AE114" s="609"/>
-      <c r="AF114" s="607">
+      <c r="AD114" s="627"/>
+      <c r="AE114" s="628"/>
+      <c r="AF114" s="626">
         <v>0.12</v>
       </c>
-      <c r="AG114" s="608"/>
-      <c r="AH114" s="609"/>
-      <c r="AI114" s="607">
+      <c r="AG114" s="627"/>
+      <c r="AH114" s="628"/>
+      <c r="AI114" s="626">
         <v>0.13</v>
       </c>
-      <c r="AJ114" s="608"/>
-      <c r="AK114" s="609"/>
-      <c r="AL114" s="607">
+      <c r="AJ114" s="627"/>
+      <c r="AK114" s="628"/>
+      <c r="AL114" s="626">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM114" s="608"/>
-      <c r="AN114" s="609"/>
+      <c r="AM114" s="627"/>
+      <c r="AN114" s="628"/>
       <c r="AO114" s="8"/>
       <c r="AP114" s="8"/>
       <c r="AQ114" s="8"/>
@@ -53567,10 +53552,10 @@
       <c r="BI114" s="8"/>
     </row>
     <row r="115" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="616"/>
-      <c r="B115" s="616"/>
-      <c r="C115" s="604"/>
-      <c r="D115" s="636"/>
+      <c r="A115" s="635"/>
+      <c r="B115" s="635"/>
+      <c r="C115" s="623"/>
+      <c r="D115" s="625"/>
       <c r="E115" s="215" t="s">
         <v>116</v>
       </c>
@@ -54182,10 +54167,10 @@
       </c>
     </row>
     <row r="119" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="598" t="s">
+      <c r="A119" s="617" t="s">
         <v>46</v>
       </c>
-      <c r="B119" s="599"/>
+      <c r="B119" s="618"/>
       <c r="C119" s="79">
         <f>SUM(C116:C118)</f>
         <v>20546</v>
@@ -54270,32 +54255,32 @@
     </row>
     <row r="147" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:40" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="619" t="s">
+      <c r="A148" s="606" t="s">
         <v>99</v>
       </c>
-      <c r="B148" s="620"/>
-      <c r="C148" s="620"/>
-      <c r="D148" s="620"/>
-      <c r="E148" s="620"/>
-      <c r="F148" s="620"/>
-      <c r="G148" s="620"/>
-      <c r="H148" s="620"/>
-      <c r="I148" s="620"/>
-      <c r="J148" s="620"/>
-      <c r="K148" s="620"/>
-      <c r="L148" s="620"/>
-      <c r="M148" s="620"/>
-      <c r="N148" s="620"/>
-      <c r="O148" s="620"/>
-      <c r="P148" s="620"/>
-      <c r="Q148" s="620"/>
-      <c r="R148" s="620"/>
-      <c r="S148" s="620"/>
-      <c r="T148" s="620"/>
-      <c r="U148" s="620"/>
-      <c r="V148" s="620"/>
-      <c r="W148" s="620"/>
-      <c r="X148" s="631"/>
+      <c r="B148" s="607"/>
+      <c r="C148" s="607"/>
+      <c r="D148" s="607"/>
+      <c r="E148" s="607"/>
+      <c r="F148" s="607"/>
+      <c r="G148" s="607"/>
+      <c r="H148" s="607"/>
+      <c r="I148" s="607"/>
+      <c r="J148" s="607"/>
+      <c r="K148" s="607"/>
+      <c r="L148" s="607"/>
+      <c r="M148" s="607"/>
+      <c r="N148" s="607"/>
+      <c r="O148" s="607"/>
+      <c r="P148" s="607"/>
+      <c r="Q148" s="607"/>
+      <c r="R148" s="607"/>
+      <c r="S148" s="607"/>
+      <c r="T148" s="607"/>
+      <c r="U148" s="607"/>
+      <c r="V148" s="607"/>
+      <c r="W148" s="607"/>
+      <c r="X148" s="608"/>
       <c r="Y148" s="141"/>
       <c r="Z148" s="141"/>
       <c r="AA148" s="141"/>
@@ -54314,73 +54299,73 @@
       <c r="AN148" s="96"/>
     </row>
     <row r="149" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="646" t="s">
+      <c r="B149" s="609" t="s">
         <v>71</v>
       </c>
-      <c r="C149" s="624" t="s">
+      <c r="C149" s="611" t="s">
         <v>72</v>
       </c>
-      <c r="D149" s="647" t="s">
+      <c r="D149" s="613" t="s">
         <v>73</v>
       </c>
-      <c r="E149" s="624" t="s">
+      <c r="E149" s="611" t="s">
         <v>74</v>
       </c>
-      <c r="F149" s="624" t="s">
+      <c r="F149" s="611" t="s">
         <v>75</v>
       </c>
-      <c r="G149" s="624" t="s">
+      <c r="G149" s="611" t="s">
         <v>76</v>
       </c>
-      <c r="H149" s="624" t="s">
+      <c r="H149" s="611" t="s">
         <v>77</v>
       </c>
-      <c r="I149" s="624" t="s">
+      <c r="I149" s="611" t="s">
         <v>78</v>
       </c>
-      <c r="J149" s="624" t="s">
+      <c r="J149" s="611" t="s">
         <v>79</v>
       </c>
       <c r="K149" s="596" t="s">
         <v>80</v>
       </c>
-      <c r="L149" s="624" t="s">
+      <c r="L149" s="611" t="s">
         <v>81</v>
       </c>
-      <c r="M149" s="624" t="s">
+      <c r="M149" s="611" t="s">
         <v>82</v>
       </c>
-      <c r="N149" s="624" t="s">
+      <c r="N149" s="611" t="s">
         <v>83</v>
       </c>
-      <c r="O149" s="624" t="s">
+      <c r="O149" s="611" t="s">
         <v>84</v>
       </c>
-      <c r="P149" s="624" t="s">
+      <c r="P149" s="611" t="s">
         <v>85</v>
       </c>
-      <c r="Q149" s="624" t="s">
+      <c r="Q149" s="611" t="s">
         <v>86</v>
       </c>
-      <c r="R149" s="633" t="s">
+      <c r="R149" s="616" t="s">
         <v>87</v>
       </c>
-      <c r="S149" s="624" t="s">
+      <c r="S149" s="611" t="s">
         <v>88</v>
       </c>
-      <c r="T149" s="624" t="s">
+      <c r="T149" s="611" t="s">
         <v>89</v>
       </c>
-      <c r="U149" s="624" t="s">
+      <c r="U149" s="611" t="s">
         <v>90</v>
       </c>
-      <c r="V149" s="624" t="s">
+      <c r="V149" s="611" t="s">
         <v>91</v>
       </c>
-      <c r="W149" s="624" t="s">
+      <c r="W149" s="611" t="s">
         <v>92</v>
       </c>
-      <c r="X149" s="624" t="s">
+      <c r="X149" s="611" t="s">
         <v>93</v>
       </c>
       <c r="Y149" s="24"/>
@@ -54401,29 +54386,29 @@
       <c r="AN149" s="82"/>
     </row>
     <row r="150" spans="1:40" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="627"/>
-      <c r="C150" s="625"/>
-      <c r="D150" s="648"/>
-      <c r="E150" s="625"/>
-      <c r="F150" s="625"/>
-      <c r="G150" s="625"/>
-      <c r="H150" s="625"/>
-      <c r="I150" s="625"/>
-      <c r="J150" s="625"/>
-      <c r="K150" s="634"/>
-      <c r="L150" s="625"/>
-      <c r="M150" s="625"/>
-      <c r="N150" s="625"/>
-      <c r="O150" s="625"/>
-      <c r="P150" s="625"/>
-      <c r="Q150" s="625"/>
-      <c r="R150" s="634"/>
-      <c r="S150" s="625"/>
-      <c r="T150" s="625"/>
-      <c r="U150" s="625"/>
-      <c r="V150" s="625"/>
-      <c r="W150" s="625"/>
-      <c r="X150" s="625"/>
+      <c r="B150" s="610"/>
+      <c r="C150" s="612"/>
+      <c r="D150" s="614"/>
+      <c r="E150" s="612"/>
+      <c r="F150" s="612"/>
+      <c r="G150" s="612"/>
+      <c r="H150" s="612"/>
+      <c r="I150" s="612"/>
+      <c r="J150" s="612"/>
+      <c r="K150" s="615"/>
+      <c r="L150" s="612"/>
+      <c r="M150" s="612"/>
+      <c r="N150" s="612"/>
+      <c r="O150" s="612"/>
+      <c r="P150" s="612"/>
+      <c r="Q150" s="612"/>
+      <c r="R150" s="615"/>
+      <c r="S150" s="612"/>
+      <c r="T150" s="612"/>
+      <c r="U150" s="612"/>
+      <c r="V150" s="612"/>
+      <c r="W150" s="612"/>
+      <c r="X150" s="612"/>
       <c r="AA150" s="24"/>
       <c r="AB150" s="24"/>
       <c r="AC150" s="91"/>
@@ -54799,6 +54784,137 @@
     </row>
   </sheetData>
   <mergeCells count="155">
+    <mergeCell ref="C58:AO59"/>
+    <mergeCell ref="Z55:AB57"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AL65:AN65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="T66:V66"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="AC66:AE66"/>
+    <mergeCell ref="AF66:AH66"/>
+    <mergeCell ref="AI66:AK66"/>
+    <mergeCell ref="AL66:AN66"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="A64:AN64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="AF65:AH65"/>
+    <mergeCell ref="AI65:AK65"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="AI17:AK17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A15:AN15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="AI16:AK16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A101:X101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="V102:V103"/>
+    <mergeCell ref="W102:W103"/>
+    <mergeCell ref="X102:X103"/>
+    <mergeCell ref="A112:AN112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="T113:V113"/>
+    <mergeCell ref="W113:Y113"/>
+    <mergeCell ref="Z113:AB113"/>
+    <mergeCell ref="AC113:AE113"/>
+    <mergeCell ref="AL114:AN114"/>
+    <mergeCell ref="X149:X150"/>
+    <mergeCell ref="Q149:Q150"/>
+    <mergeCell ref="R149:R150"/>
+    <mergeCell ref="S149:S150"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="AF113:AH113"/>
+    <mergeCell ref="AI113:AK113"/>
+    <mergeCell ref="AL113:AN113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="Q114:S114"/>
+    <mergeCell ref="T114:V114"/>
+    <mergeCell ref="W114:Y114"/>
+    <mergeCell ref="Z114:AB114"/>
+    <mergeCell ref="AC114:AE114"/>
+    <mergeCell ref="AF114:AH114"/>
+    <mergeCell ref="AI114:AK114"/>
     <mergeCell ref="Z104:AB106"/>
     <mergeCell ref="C107:AO108"/>
     <mergeCell ref="F6:I7"/>
@@ -54823,137 +54939,6 @@
     <mergeCell ref="U149:U150"/>
     <mergeCell ref="V149:V150"/>
     <mergeCell ref="W149:W150"/>
-    <mergeCell ref="X149:X150"/>
-    <mergeCell ref="Q149:Q150"/>
-    <mergeCell ref="R149:R150"/>
-    <mergeCell ref="S149:S150"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="AF113:AH113"/>
-    <mergeCell ref="AI113:AK113"/>
-    <mergeCell ref="AL113:AN113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="Q114:S114"/>
-    <mergeCell ref="T114:V114"/>
-    <mergeCell ref="W114:Y114"/>
-    <mergeCell ref="Z114:AB114"/>
-    <mergeCell ref="AC114:AE114"/>
-    <mergeCell ref="AF114:AH114"/>
-    <mergeCell ref="AI114:AK114"/>
-    <mergeCell ref="A112:AN112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="N113:P113"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="T113:V113"/>
-    <mergeCell ref="W113:Y113"/>
-    <mergeCell ref="Z113:AB113"/>
-    <mergeCell ref="AC113:AE113"/>
-    <mergeCell ref="AL114:AN114"/>
-    <mergeCell ref="A101:X101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="V102:V103"/>
-    <mergeCell ref="W102:W103"/>
-    <mergeCell ref="X102:X103"/>
-    <mergeCell ref="AI17:AK17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A15:AN15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="AI16:AK16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="AF65:AH65"/>
-    <mergeCell ref="AI65:AK65"/>
-    <mergeCell ref="C58:AO59"/>
-    <mergeCell ref="Z55:AB57"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="AL65:AN65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="T66:V66"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="AC66:AE66"/>
-    <mergeCell ref="AF66:AH66"/>
-    <mergeCell ref="AI66:AK66"/>
-    <mergeCell ref="AL66:AN66"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="A64:AN64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -54966,7 +54951,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -55012,11 +54997,11 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="610" t="s">
+      <c r="B7" s="629" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="613"/>
+      <c r="C7" s="630"/>
+      <c r="D7" s="632"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="158">
@@ -55059,12 +55044,12 @@
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="649" t="s">
+      <c r="B15" s="648" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="650"/>
-      <c r="D15" s="650"/>
-      <c r="E15" s="651"/>
+      <c r="C15" s="649"/>
+      <c r="D15" s="649"/>
+      <c r="E15" s="650"/>
     </row>
     <row r="16" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="152" t="s">
@@ -55164,7 +55149,7 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J60" sqref="A60:J62"/>
     </sheetView>
   </sheetViews>
@@ -55208,16 +55193,16 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="610" t="s">
+      <c r="C3" s="629" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="611"/>
-      <c r="E3" s="613"/>
-      <c r="G3" s="610" t="s">
+      <c r="D3" s="630"/>
+      <c r="E3" s="632"/>
+      <c r="G3" s="629" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="611"/>
-      <c r="I3" s="613"/>
+      <c r="H3" s="630"/>
+      <c r="I3" s="632"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="194">
@@ -55349,19 +55334,19 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="655" t="s">
+      <c r="A13" s="654" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="656"/>
-      <c r="C13" s="656"/>
-      <c r="D13" s="656"/>
-      <c r="E13" s="656"/>
-      <c r="F13" s="656"/>
-      <c r="G13" s="656"/>
-      <c r="H13" s="656"/>
-      <c r="I13" s="656"/>
-      <c r="J13" s="656"/>
-      <c r="K13" s="657"/>
+      <c r="B13" s="655"/>
+      <c r="C13" s="655"/>
+      <c r="D13" s="655"/>
+      <c r="E13" s="655"/>
+      <c r="F13" s="655"/>
+      <c r="G13" s="655"/>
+      <c r="H13" s="655"/>
+      <c r="I13" s="655"/>
+      <c r="J13" s="655"/>
+      <c r="K13" s="656"/>
       <c r="L13" s="196"/>
       <c r="M13" s="196"/>
       <c r="N13" s="196"/>
@@ -55371,18 +55356,18 @@
       <c r="A14" s="197" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="658" t="s">
+      <c r="B14" s="657" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="659"/>
-      <c r="D14" s="659"/>
-      <c r="E14" s="659"/>
-      <c r="F14" s="659"/>
-      <c r="G14" s="659"/>
-      <c r="H14" s="659"/>
-      <c r="I14" s="659"/>
-      <c r="J14" s="659"/>
-      <c r="K14" s="659"/>
+      <c r="C14" s="658"/>
+      <c r="D14" s="658"/>
+      <c r="E14" s="658"/>
+      <c r="F14" s="658"/>
+      <c r="G14" s="658"/>
+      <c r="H14" s="658"/>
+      <c r="I14" s="658"/>
+      <c r="J14" s="658"/>
+      <c r="K14" s="658"/>
       <c r="L14" s="196"/>
       <c r="M14" s="196"/>
       <c r="N14" s="196"/>
@@ -55392,18 +55377,18 @@
       <c r="A15" s="197" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="660" t="s">
+      <c r="B15" s="659" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="661"/>
-      <c r="D15" s="661"/>
-      <c r="E15" s="661"/>
-      <c r="F15" s="661"/>
-      <c r="G15" s="661"/>
-      <c r="H15" s="661"/>
-      <c r="I15" s="661"/>
-      <c r="J15" s="661"/>
-      <c r="K15" s="662"/>
+      <c r="C15" s="660"/>
+      <c r="D15" s="660"/>
+      <c r="E15" s="660"/>
+      <c r="F15" s="660"/>
+      <c r="G15" s="660"/>
+      <c r="H15" s="660"/>
+      <c r="I15" s="660"/>
+      <c r="J15" s="660"/>
+      <c r="K15" s="661"/>
       <c r="L15" s="196"/>
       <c r="M15" s="196"/>
       <c r="N15" s="196"/>
@@ -55413,18 +55398,18 @@
       <c r="A16" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="658" t="s">
+      <c r="B16" s="657" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="659"/>
-      <c r="D16" s="659"/>
-      <c r="E16" s="659"/>
-      <c r="F16" s="659"/>
-      <c r="G16" s="659"/>
-      <c r="H16" s="659"/>
-      <c r="I16" s="659"/>
-      <c r="J16" s="659"/>
-      <c r="K16" s="659"/>
+      <c r="C16" s="658"/>
+      <c r="D16" s="658"/>
+      <c r="E16" s="658"/>
+      <c r="F16" s="658"/>
+      <c r="G16" s="658"/>
+      <c r="H16" s="658"/>
+      <c r="I16" s="658"/>
+      <c r="J16" s="658"/>
+      <c r="K16" s="658"/>
       <c r="L16" s="196"/>
       <c r="M16" s="196"/>
       <c r="N16" s="196"/>
@@ -55434,18 +55419,18 @@
       <c r="A17" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="663" t="s">
+      <c r="B17" s="662" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="661"/>
-      <c r="D17" s="661"/>
-      <c r="E17" s="661"/>
-      <c r="F17" s="661"/>
-      <c r="G17" s="661"/>
-      <c r="H17" s="661"/>
-      <c r="I17" s="661"/>
-      <c r="J17" s="661"/>
-      <c r="K17" s="662"/>
+      <c r="C17" s="660"/>
+      <c r="D17" s="660"/>
+      <c r="E17" s="660"/>
+      <c r="F17" s="660"/>
+      <c r="G17" s="660"/>
+      <c r="H17" s="660"/>
+      <c r="I17" s="660"/>
+      <c r="J17" s="660"/>
+      <c r="K17" s="661"/>
       <c r="L17" s="196"/>
       <c r="M17" s="196"/>
       <c r="N17" s="196"/>
@@ -55503,22 +55488,22 @@
       <c r="O20"/>
     </row>
     <row r="21" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="652" t="s">
+      <c r="A21" s="651" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="653"/>
-      <c r="C21" s="653"/>
-      <c r="D21" s="653"/>
-      <c r="E21" s="653"/>
-      <c r="F21" s="653"/>
-      <c r="G21" s="653"/>
-      <c r="H21" s="653"/>
-      <c r="I21" s="653"/>
-      <c r="J21" s="653"/>
-      <c r="K21" s="653"/>
-      <c r="L21" s="653"/>
-      <c r="M21" s="653"/>
-      <c r="N21" s="654"/>
+      <c r="B21" s="652"/>
+      <c r="C21" s="652"/>
+      <c r="D21" s="652"/>
+      <c r="E21" s="652"/>
+      <c r="F21" s="652"/>
+      <c r="G21" s="652"/>
+      <c r="H21" s="652"/>
+      <c r="I21" s="652"/>
+      <c r="J21" s="652"/>
+      <c r="K21" s="652"/>
+      <c r="L21" s="652"/>
+      <c r="M21" s="652"/>
+      <c r="N21" s="653"/>
       <c r="O21"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -56114,22 +56099,22 @@
       <c r="O35"/>
     </row>
     <row r="36" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="652" t="s">
+      <c r="A36" s="651" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="653"/>
-      <c r="C36" s="653"/>
-      <c r="D36" s="653"/>
-      <c r="E36" s="653"/>
-      <c r="F36" s="653"/>
-      <c r="G36" s="653"/>
-      <c r="H36" s="653"/>
-      <c r="I36" s="653"/>
-      <c r="J36" s="653"/>
-      <c r="K36" s="653"/>
-      <c r="L36" s="653"/>
-      <c r="M36" s="653"/>
-      <c r="N36" s="654"/>
+      <c r="B36" s="652"/>
+      <c r="C36" s="652"/>
+      <c r="D36" s="652"/>
+      <c r="E36" s="652"/>
+      <c r="F36" s="652"/>
+      <c r="G36" s="652"/>
+      <c r="H36" s="652"/>
+      <c r="I36" s="652"/>
+      <c r="J36" s="652"/>
+      <c r="K36" s="652"/>
+      <c r="L36" s="652"/>
+      <c r="M36" s="652"/>
+      <c r="N36" s="653"/>
       <c r="O36"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -56725,22 +56710,22 @@
       <c r="O50"/>
     </row>
     <row r="51" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="652" t="s">
+      <c r="A51" s="651" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="653"/>
-      <c r="C51" s="653"/>
-      <c r="D51" s="653"/>
-      <c r="E51" s="653"/>
-      <c r="F51" s="653"/>
-      <c r="G51" s="653"/>
-      <c r="H51" s="653"/>
-      <c r="I51" s="653"/>
-      <c r="J51" s="653"/>
-      <c r="K51" s="653"/>
-      <c r="L51" s="653"/>
-      <c r="M51" s="653"/>
-      <c r="N51" s="654"/>
+      <c r="B51" s="652"/>
+      <c r="C51" s="652"/>
+      <c r="D51" s="652"/>
+      <c r="E51" s="652"/>
+      <c r="F51" s="652"/>
+      <c r="G51" s="652"/>
+      <c r="H51" s="652"/>
+      <c r="I51" s="652"/>
+      <c r="J51" s="652"/>
+      <c r="K51" s="652"/>
+      <c r="L51" s="652"/>
+      <c r="M51" s="652"/>
+      <c r="N51" s="653"/>
       <c r="O51"/>
     </row>
     <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -57328,13 +57313,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AF61"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57408,17 +57393,17 @@
     </row>
     <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="668" t="s">
+      <c r="B4" s="667" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="669"/>
-      <c r="D4" s="670"/>
+      <c r="C4" s="668"/>
+      <c r="D4" s="669"/>
       <c r="E4" s="14"/>
-      <c r="H4" s="668" t="s">
+      <c r="H4" s="667" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="669"/>
-      <c r="J4" s="670"/>
+      <c r="I4" s="668"/>
+      <c r="J4" s="669"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5" s="72">
@@ -57485,71 +57470,71 @@
     </row>
     <row r="8" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:32" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="671" t="s">
+      <c r="A13" s="670" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="672"/>
-      <c r="C13" s="672"/>
-      <c r="D13" s="672"/>
-      <c r="E13" s="672"/>
-      <c r="F13" s="672"/>
-      <c r="G13" s="672"/>
-      <c r="H13" s="672"/>
-      <c r="I13" s="672"/>
-      <c r="J13" s="672"/>
-      <c r="K13" s="673"/>
+      <c r="B13" s="671"/>
+      <c r="C13" s="671"/>
+      <c r="D13" s="671"/>
+      <c r="E13" s="671"/>
+      <c r="F13" s="671"/>
+      <c r="G13" s="671"/>
+      <c r="H13" s="671"/>
+      <c r="I13" s="671"/>
+      <c r="J13" s="671"/>
+      <c r="K13" s="672"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="674" t="s">
+      <c r="B14" s="673" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="675"/>
-      <c r="D14" s="675"/>
-      <c r="E14" s="675"/>
-      <c r="F14" s="675"/>
-      <c r="G14" s="675"/>
-      <c r="H14" s="675"/>
-      <c r="I14" s="675"/>
-      <c r="J14" s="675"/>
-      <c r="K14" s="675"/>
+      <c r="C14" s="674"/>
+      <c r="D14" s="674"/>
+      <c r="E14" s="674"/>
+      <c r="F14" s="674"/>
+      <c r="G14" s="674"/>
+      <c r="H14" s="674"/>
+      <c r="I14" s="674"/>
+      <c r="J14" s="674"/>
+      <c r="K14" s="674"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="185" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="676" t="s">
+      <c r="B15" s="675" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="677"/>
-      <c r="D15" s="677"/>
-      <c r="E15" s="677"/>
-      <c r="F15" s="677"/>
-      <c r="G15" s="677"/>
-      <c r="H15" s="677"/>
-      <c r="I15" s="677"/>
-      <c r="J15" s="677"/>
-      <c r="K15" s="678"/>
+      <c r="C15" s="676"/>
+      <c r="D15" s="676"/>
+      <c r="E15" s="676"/>
+      <c r="F15" s="676"/>
+      <c r="G15" s="676"/>
+      <c r="H15" s="676"/>
+      <c r="I15" s="676"/>
+      <c r="J15" s="676"/>
+      <c r="K15" s="677"/>
     </row>
     <row r="19" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="664" t="s">
+      <c r="A19" s="663" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="665"/>
-      <c r="C19" s="665"/>
-      <c r="D19" s="665"/>
-      <c r="E19" s="665"/>
-      <c r="F19" s="665"/>
-      <c r="G19" s="665"/>
-      <c r="H19" s="665"/>
-      <c r="I19" s="665"/>
-      <c r="J19" s="665"/>
-      <c r="K19" s="665"/>
-      <c r="L19" s="665"/>
-      <c r="M19" s="665"/>
-      <c r="N19" s="666"/>
+      <c r="B19" s="664"/>
+      <c r="C19" s="664"/>
+      <c r="D19" s="664"/>
+      <c r="E19" s="664"/>
+      <c r="F19" s="664"/>
+      <c r="G19" s="664"/>
+      <c r="H19" s="664"/>
+      <c r="I19" s="664"/>
+      <c r="J19" s="664"/>
+      <c r="K19" s="664"/>
+      <c r="L19" s="664"/>
+      <c r="M19" s="664"/>
+      <c r="N19" s="665"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="186" t="s">
@@ -57941,22 +57926,22 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="664" t="s">
+      <c r="A32" s="663" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="665"/>
-      <c r="C32" s="665"/>
-      <c r="D32" s="665"/>
-      <c r="E32" s="665"/>
-      <c r="F32" s="665"/>
-      <c r="G32" s="665"/>
-      <c r="H32" s="665"/>
-      <c r="I32" s="665"/>
-      <c r="J32" s="665"/>
-      <c r="K32" s="665"/>
-      <c r="L32" s="665"/>
-      <c r="M32" s="665"/>
-      <c r="N32" s="666"/>
+      <c r="B32" s="664"/>
+      <c r="C32" s="664"/>
+      <c r="D32" s="664"/>
+      <c r="E32" s="664"/>
+      <c r="F32" s="664"/>
+      <c r="G32" s="664"/>
+      <c r="H32" s="664"/>
+      <c r="I32" s="664"/>
+      <c r="J32" s="664"/>
+      <c r="K32" s="664"/>
+      <c r="L32" s="664"/>
+      <c r="M32" s="664"/>
+      <c r="N32" s="665"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="186" t="s">
@@ -58360,22 +58345,22 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="664" t="s">
+      <c r="A44" s="663" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="667"/>
-      <c r="C44" s="667"/>
-      <c r="D44" s="667"/>
-      <c r="E44" s="667"/>
-      <c r="F44" s="667"/>
-      <c r="G44" s="667"/>
-      <c r="H44" s="667"/>
-      <c r="I44" s="667"/>
-      <c r="J44" s="667"/>
-      <c r="K44" s="667"/>
-      <c r="L44" s="667"/>
-      <c r="M44" s="667"/>
-      <c r="N44" s="666"/>
+      <c r="B44" s="666"/>
+      <c r="C44" s="666"/>
+      <c r="D44" s="666"/>
+      <c r="E44" s="666"/>
+      <c r="F44" s="666"/>
+      <c r="G44" s="666"/>
+      <c r="H44" s="666"/>
+      <c r="I44" s="666"/>
+      <c r="J44" s="666"/>
+      <c r="K44" s="666"/>
+      <c r="L44" s="666"/>
+      <c r="M44" s="666"/>
+      <c r="N44" s="665"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="186" t="s">
@@ -58778,45 +58763,101 @@
         <v>68011592.840000004</v>
       </c>
     </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="522"/>
+      <c r="B54" s="522"/>
+      <c r="C54" s="522"/>
+      <c r="D54" s="522"/>
+    </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="1">
+      <c r="A55" s="522"/>
+      <c r="B55" s="522">
         <f>+('Proy. ventas'!AI68*'Proy. ventas'!B68)+('Proy. ventas'!AL68*'Proy. ventas'!B68)</f>
         <v>484029</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="522">
         <f>+('Proy. ventas'!AL68*'Proy. ventas'!B68)</f>
         <v>250978.00000000003</v>
       </c>
+      <c r="D55" s="522"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="1">
+      <c r="A56" s="522"/>
+      <c r="B56" s="522">
         <f>+('Proy. ventas'!AI69*'Proy. ventas'!B69)+('Proy. ventas'!AL69*'Proy. ventas'!B69)</f>
         <v>689849.99999999988</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="522">
         <f>+('Proy. ventas'!AL69*'Proy. ventas'!B69)</f>
         <v>357699.99999999994</v>
       </c>
+      <c r="D56" s="522"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="1">
+      <c r="A57" s="522"/>
+      <c r="B57" s="522">
         <f>+('Proy. ventas'!AI70*'Proy. ventas'!B70)+('Proy. ventas'!AL70*'Proy. ventas'!B70)</f>
         <v>567000</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="522">
         <f>+('Proy. ventas'!AL70*'Proy. ventas'!B70)</f>
         <v>294000</v>
       </c>
+      <c r="D57" s="522"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="522"/>
+      <c r="B58" s="522"/>
+      <c r="C58" s="522"/>
+      <c r="D58" s="522"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="522"/>
+      <c r="B59" s="522"/>
+      <c r="C59" s="522"/>
+      <c r="D59" s="522"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="522"/>
+      <c r="B60" s="522"/>
+      <c r="C60" s="522"/>
+      <c r="D60" s="522"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="545">
+      <c r="A61" s="522"/>
+      <c r="B61" s="778">
         <f>SUM(B48:M50)</f>
         <v>61800283.400000006</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="522">
         <f>SUM(B55:C57)</f>
         <v>2643557</v>
       </c>
+      <c r="D61" s="522"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="522"/>
+      <c r="B62" s="522"/>
+      <c r="C62" s="522"/>
+      <c r="D62" s="522"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="522"/>
+      <c r="B63" s="522"/>
+      <c r="C63" s="522"/>
+      <c r="D63" s="522"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="522"/>
+      <c r="B64" s="522"/>
+      <c r="C64" s="522"/>
+      <c r="D64" s="522"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="522"/>
+      <c r="B65" s="522"/>
+      <c r="C65" s="522"/>
+      <c r="D65" s="522"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -58843,8 +58884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AF189"/>
   <sheetViews>
-    <sheetView topLeftCell="F60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA83" sqref="AA83"/>
+    <sheetView topLeftCell="A45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58975,19 +59016,19 @@
     </row>
     <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="668" t="s">
+      <c r="B4" s="667" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="669"/>
-      <c r="D4" s="670"/>
+      <c r="C4" s="668"/>
+      <c r="D4" s="669"/>
       <c r="E4" s="226"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="668" t="s">
+      <c r="H4" s="667" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="669"/>
-      <c r="J4" s="670"/>
+      <c r="I4" s="668"/>
+      <c r="J4" s="669"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -59256,19 +59297,19 @@
     </row>
     <row r="11" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="610" t="s">
+      <c r="B11" s="629" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="611"/>
-      <c r="D11" s="611"/>
-      <c r="E11" s="611"/>
-      <c r="F11" s="611"/>
-      <c r="G11" s="611"/>
-      <c r="H11" s="611"/>
-      <c r="I11" s="611"/>
-      <c r="J11" s="611"/>
-      <c r="K11" s="611"/>
-      <c r="L11" s="613"/>
+      <c r="C11" s="630"/>
+      <c r="D11" s="630"/>
+      <c r="E11" s="630"/>
+      <c r="F11" s="630"/>
+      <c r="G11" s="630"/>
+      <c r="H11" s="630"/>
+      <c r="I11" s="630"/>
+      <c r="J11" s="630"/>
+      <c r="K11" s="630"/>
+      <c r="L11" s="632"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -59292,13 +59333,13 @@
     </row>
     <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="687" t="s">
+      <c r="B12" s="681" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="689" t="s">
+      <c r="C12" s="683" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="691" t="s">
+      <c r="D12" s="685" t="s">
         <v>123</v>
       </c>
       <c r="E12" s="261" t="s">
@@ -59319,10 +59360,10 @@
       <c r="J12" s="264" t="s">
         <v>129</v>
       </c>
-      <c r="K12" s="693" t="s">
+      <c r="K12" s="687" t="s">
         <v>130</v>
       </c>
-      <c r="L12" s="693" t="s">
+      <c r="L12" s="687" t="s">
         <v>131</v>
       </c>
       <c r="M12" s="1"/>
@@ -59348,9 +59389,9 @@
     </row>
     <row r="13" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="688"/>
-      <c r="C13" s="690"/>
-      <c r="D13" s="692"/>
+      <c r="B13" s="682"/>
+      <c r="C13" s="684"/>
+      <c r="D13" s="686"/>
       <c r="E13" s="265">
         <v>0.1047</v>
       </c>
@@ -59369,8 +59410,8 @@
       <c r="J13" s="268">
         <v>0.03</v>
       </c>
-      <c r="K13" s="694"/>
-      <c r="L13" s="694"/>
+      <c r="K13" s="688"/>
+      <c r="L13" s="688"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -59457,7 +59498,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="695" t="s">
+      <c r="B15" s="689" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="288" t="s">
@@ -59520,7 +59561,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="696"/>
+      <c r="B16" s="690"/>
       <c r="C16" s="290" t="s">
         <v>73</v>
       </c>
@@ -59581,7 +59622,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="696"/>
+      <c r="B17" s="690"/>
       <c r="C17" s="290" t="s">
         <v>74</v>
       </c>
@@ -59642,7 +59683,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="696"/>
+      <c r="B18" s="690"/>
       <c r="C18" s="290" t="s">
         <v>75</v>
       </c>
@@ -59703,7 +59744,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="697"/>
+      <c r="B19" s="691"/>
       <c r="C19" s="291" t="s">
         <v>76</v>
       </c>
@@ -59764,7 +59805,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="697"/>
+      <c r="B20" s="691"/>
       <c r="C20" s="290" t="s">
         <v>145</v>
       </c>
@@ -59825,7 +59866,7 @@
     </row>
     <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="698"/>
+      <c r="B21" s="692"/>
       <c r="C21" s="292" t="s">
         <v>78</v>
       </c>
@@ -59886,7 +59927,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="699" t="s">
+      <c r="B22" s="693" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="284" t="s">
@@ -59949,7 +59990,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="700"/>
+      <c r="B23" s="694"/>
       <c r="C23" s="285" t="s">
         <v>82</v>
       </c>
@@ -60010,7 +60051,7 @@
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="701"/>
+      <c r="B24" s="695"/>
       <c r="C24" s="286" t="s">
         <v>146</v>
       </c>
@@ -60071,7 +60112,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="702" t="s">
+      <c r="B25" s="696" t="s">
         <v>135</v>
       </c>
       <c r="C25" s="284" t="s">
@@ -60134,7 +60175,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="703"/>
+      <c r="B26" s="697"/>
       <c r="C26" s="258" t="s">
         <v>85</v>
       </c>
@@ -60195,7 +60236,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="704"/>
+      <c r="B27" s="698"/>
       <c r="C27" s="258" t="s">
         <v>86</v>
       </c>
@@ -60256,7 +60297,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="704"/>
+      <c r="B28" s="698"/>
       <c r="C28" s="285" t="s">
         <v>87</v>
       </c>
@@ -60317,7 +60358,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="704"/>
+      <c r="B29" s="698"/>
       <c r="C29" s="285" t="s">
         <v>88</v>
       </c>
@@ -60378,7 +60419,7 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="701"/>
+      <c r="B30" s="695"/>
       <c r="C30" s="286" t="s">
         <v>89</v>
       </c>
@@ -60439,7 +60480,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="702" t="s">
+      <c r="B31" s="696" t="s">
         <v>148</v>
       </c>
       <c r="C31" s="284" t="s">
@@ -60502,7 +60543,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="703"/>
+      <c r="B32" s="697"/>
       <c r="C32" s="258" t="s">
         <v>91</v>
       </c>
@@ -60563,7 +60604,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="704"/>
+      <c r="B33" s="698"/>
       <c r="C33" s="285" t="s">
         <v>149</v>
       </c>
@@ -60624,7 +60665,7 @@
     </row>
     <row r="34" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="701"/>
+      <c r="B34" s="695"/>
       <c r="C34" s="286" t="s">
         <v>93</v>
       </c>
@@ -60685,7 +60726,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="695" t="s">
+      <c r="B35" s="689" t="s">
         <v>150</v>
       </c>
       <c r="C35" s="305" t="s">
@@ -60748,7 +60789,7 @@
     </row>
     <row r="36" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="698"/>
+      <c r="B36" s="692"/>
       <c r="C36" s="289" t="s">
         <v>80</v>
       </c>
@@ -60911,34 +60952,34 @@
     </row>
     <row r="40" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
-      <c r="B40" s="682" t="s">
+      <c r="B40" s="678" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="683"/>
-      <c r="D40" s="683"/>
-      <c r="E40" s="683"/>
-      <c r="F40" s="683"/>
-      <c r="G40" s="683"/>
-      <c r="H40" s="683"/>
-      <c r="I40" s="683"/>
-      <c r="J40" s="683"/>
-      <c r="K40" s="683"/>
-      <c r="L40" s="683"/>
-      <c r="M40" s="683"/>
-      <c r="N40" s="683"/>
-      <c r="O40" s="683"/>
-      <c r="P40" s="683"/>
-      <c r="Q40" s="683"/>
-      <c r="R40" s="683"/>
-      <c r="S40" s="683"/>
-      <c r="T40" s="683"/>
-      <c r="U40" s="683"/>
-      <c r="V40" s="683"/>
-      <c r="W40" s="683"/>
-      <c r="X40" s="683"/>
-      <c r="Y40" s="683"/>
-      <c r="Z40" s="683"/>
-      <c r="AA40" s="684"/>
+      <c r="C40" s="679"/>
+      <c r="D40" s="679"/>
+      <c r="E40" s="679"/>
+      <c r="F40" s="679"/>
+      <c r="G40" s="679"/>
+      <c r="H40" s="679"/>
+      <c r="I40" s="679"/>
+      <c r="J40" s="679"/>
+      <c r="K40" s="679"/>
+      <c r="L40" s="679"/>
+      <c r="M40" s="679"/>
+      <c r="N40" s="679"/>
+      <c r="O40" s="679"/>
+      <c r="P40" s="679"/>
+      <c r="Q40" s="679"/>
+      <c r="R40" s="679"/>
+      <c r="S40" s="679"/>
+      <c r="T40" s="679"/>
+      <c r="U40" s="679"/>
+      <c r="V40" s="679"/>
+      <c r="W40" s="679"/>
+      <c r="X40" s="679"/>
+      <c r="Y40" s="679"/>
+      <c r="Z40" s="679"/>
+      <c r="AA40" s="680"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
@@ -60947,58 +60988,58 @@
     </row>
     <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="685" t="s">
+      <c r="B41" s="700" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="679" t="s">
+      <c r="C41" s="699" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="679"/>
-      <c r="E41" s="679" t="s">
+      <c r="D41" s="699"/>
+      <c r="E41" s="699" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="679"/>
-      <c r="G41" s="679" t="s">
+      <c r="F41" s="699"/>
+      <c r="G41" s="699" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="679"/>
-      <c r="I41" s="679" t="s">
+      <c r="H41" s="699"/>
+      <c r="I41" s="699" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="679"/>
-      <c r="K41" s="679" t="s">
+      <c r="J41" s="699"/>
+      <c r="K41" s="699" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="679"/>
-      <c r="M41" s="679" t="s">
+      <c r="L41" s="699"/>
+      <c r="M41" s="699" t="s">
         <v>136</v>
       </c>
-      <c r="N41" s="679"/>
-      <c r="O41" s="679" t="s">
+      <c r="N41" s="699"/>
+      <c r="O41" s="699" t="s">
         <v>24</v>
       </c>
-      <c r="P41" s="679"/>
-      <c r="Q41" s="679" t="s">
+      <c r="P41" s="699"/>
+      <c r="Q41" s="699" t="s">
         <v>25</v>
       </c>
-      <c r="R41" s="679"/>
-      <c r="S41" s="679" t="s">
+      <c r="R41" s="699"/>
+      <c r="S41" s="699" t="s">
         <v>26</v>
       </c>
-      <c r="T41" s="679"/>
-      <c r="U41" s="679" t="s">
+      <c r="T41" s="699"/>
+      <c r="U41" s="699" t="s">
         <v>27</v>
       </c>
-      <c r="V41" s="679"/>
-      <c r="W41" s="679" t="s">
+      <c r="V41" s="699"/>
+      <c r="W41" s="699" t="s">
         <v>28</v>
       </c>
-      <c r="X41" s="679"/>
-      <c r="Y41" s="679" t="s">
+      <c r="X41" s="699"/>
+      <c r="Y41" s="699" t="s">
         <v>137</v>
       </c>
-      <c r="Z41" s="679"/>
-      <c r="AA41" s="680" t="s">
+      <c r="Z41" s="699"/>
+      <c r="AA41" s="702" t="s">
         <v>138</v>
       </c>
       <c r="AB41" s="1"/>
@@ -61009,7 +61050,7 @@
     </row>
     <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="686"/>
+      <c r="B42" s="701"/>
       <c r="C42" s="273" t="s">
         <v>37</v>
       </c>
@@ -61082,7 +61123,7 @@
       <c r="Z42" s="273" t="s">
         <v>139</v>
       </c>
-      <c r="AA42" s="681"/>
+      <c r="AA42" s="703"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -61799,34 +61840,34 @@
     </row>
     <row r="52" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
-      <c r="B52" s="682" t="s">
+      <c r="B52" s="678" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="683"/>
-      <c r="D52" s="683"/>
-      <c r="E52" s="683"/>
-      <c r="F52" s="683"/>
-      <c r="G52" s="683"/>
-      <c r="H52" s="683"/>
-      <c r="I52" s="683"/>
-      <c r="J52" s="683"/>
-      <c r="K52" s="683"/>
-      <c r="L52" s="683"/>
-      <c r="M52" s="683"/>
-      <c r="N52" s="683"/>
-      <c r="O52" s="683"/>
-      <c r="P52" s="683"/>
-      <c r="Q52" s="683"/>
-      <c r="R52" s="683"/>
-      <c r="S52" s="683"/>
-      <c r="T52" s="683"/>
-      <c r="U52" s="683"/>
-      <c r="V52" s="683"/>
-      <c r="W52" s="683"/>
-      <c r="X52" s="683"/>
-      <c r="Y52" s="683"/>
-      <c r="Z52" s="683"/>
-      <c r="AA52" s="684"/>
+      <c r="C52" s="679"/>
+      <c r="D52" s="679"/>
+      <c r="E52" s="679"/>
+      <c r="F52" s="679"/>
+      <c r="G52" s="679"/>
+      <c r="H52" s="679"/>
+      <c r="I52" s="679"/>
+      <c r="J52" s="679"/>
+      <c r="K52" s="679"/>
+      <c r="L52" s="679"/>
+      <c r="M52" s="679"/>
+      <c r="N52" s="679"/>
+      <c r="O52" s="679"/>
+      <c r="P52" s="679"/>
+      <c r="Q52" s="679"/>
+      <c r="R52" s="679"/>
+      <c r="S52" s="679"/>
+      <c r="T52" s="679"/>
+      <c r="U52" s="679"/>
+      <c r="V52" s="679"/>
+      <c r="W52" s="679"/>
+      <c r="X52" s="679"/>
+      <c r="Y52" s="679"/>
+      <c r="Z52" s="679"/>
+      <c r="AA52" s="680"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
@@ -61835,58 +61876,58 @@
     </row>
     <row r="53" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="685" t="s">
+      <c r="B53" s="700" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="679" t="s">
+      <c r="C53" s="699" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="679"/>
-      <c r="E53" s="679" t="s">
+      <c r="D53" s="699"/>
+      <c r="E53" s="699" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="679"/>
-      <c r="G53" s="679" t="s">
+      <c r="F53" s="699"/>
+      <c r="G53" s="699" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="679"/>
-      <c r="I53" s="679" t="s">
+      <c r="H53" s="699"/>
+      <c r="I53" s="699" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="679"/>
-      <c r="K53" s="679" t="s">
+      <c r="J53" s="699"/>
+      <c r="K53" s="699" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="679"/>
-      <c r="M53" s="679" t="s">
+      <c r="L53" s="699"/>
+      <c r="M53" s="699" t="s">
         <v>136</v>
       </c>
-      <c r="N53" s="679"/>
-      <c r="O53" s="679" t="s">
+      <c r="N53" s="699"/>
+      <c r="O53" s="699" t="s">
         <v>24</v>
       </c>
-      <c r="P53" s="679"/>
-      <c r="Q53" s="679" t="s">
+      <c r="P53" s="699"/>
+      <c r="Q53" s="699" t="s">
         <v>25</v>
       </c>
-      <c r="R53" s="679"/>
-      <c r="S53" s="679" t="s">
+      <c r="R53" s="699"/>
+      <c r="S53" s="699" t="s">
         <v>26</v>
       </c>
-      <c r="T53" s="679"/>
-      <c r="U53" s="679" t="s">
+      <c r="T53" s="699"/>
+      <c r="U53" s="699" t="s">
         <v>27</v>
       </c>
-      <c r="V53" s="679"/>
-      <c r="W53" s="679" t="s">
+      <c r="V53" s="699"/>
+      <c r="W53" s="699" t="s">
         <v>28</v>
       </c>
-      <c r="X53" s="679"/>
-      <c r="Y53" s="679" t="s">
+      <c r="X53" s="699"/>
+      <c r="Y53" s="699" t="s">
         <v>137</v>
       </c>
-      <c r="Z53" s="679"/>
-      <c r="AA53" s="680" t="s">
+      <c r="Z53" s="699"/>
+      <c r="AA53" s="702" t="s">
         <v>138</v>
       </c>
       <c r="AB53" s="1"/>
@@ -61897,7 +61938,7 @@
     </row>
     <row r="54" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="686"/>
+      <c r="B54" s="701"/>
       <c r="C54" s="273" t="s">
         <v>37</v>
       </c>
@@ -61970,7 +62011,7 @@
       <c r="Z54" s="273" t="s">
         <v>139</v>
       </c>
-      <c r="AA54" s="681"/>
+      <c r="AA54" s="703"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
@@ -62851,34 +62892,34 @@
     </row>
     <row r="65" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
-      <c r="B65" s="682" t="s">
+      <c r="B65" s="678" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="683"/>
-      <c r="D65" s="683"/>
-      <c r="E65" s="683"/>
-      <c r="F65" s="683"/>
-      <c r="G65" s="683"/>
-      <c r="H65" s="683"/>
-      <c r="I65" s="683"/>
-      <c r="J65" s="683"/>
-      <c r="K65" s="683"/>
-      <c r="L65" s="683"/>
-      <c r="M65" s="683"/>
-      <c r="N65" s="683"/>
-      <c r="O65" s="683"/>
-      <c r="P65" s="683"/>
-      <c r="Q65" s="683"/>
-      <c r="R65" s="683"/>
-      <c r="S65" s="683"/>
-      <c r="T65" s="683"/>
-      <c r="U65" s="683"/>
-      <c r="V65" s="683"/>
-      <c r="W65" s="683"/>
-      <c r="X65" s="683"/>
-      <c r="Y65" s="683"/>
-      <c r="Z65" s="683"/>
-      <c r="AA65" s="684"/>
+      <c r="C65" s="679"/>
+      <c r="D65" s="679"/>
+      <c r="E65" s="679"/>
+      <c r="F65" s="679"/>
+      <c r="G65" s="679"/>
+      <c r="H65" s="679"/>
+      <c r="I65" s="679"/>
+      <c r="J65" s="679"/>
+      <c r="K65" s="679"/>
+      <c r="L65" s="679"/>
+      <c r="M65" s="679"/>
+      <c r="N65" s="679"/>
+      <c r="O65" s="679"/>
+      <c r="P65" s="679"/>
+      <c r="Q65" s="679"/>
+      <c r="R65" s="679"/>
+      <c r="S65" s="679"/>
+      <c r="T65" s="679"/>
+      <c r="U65" s="679"/>
+      <c r="V65" s="679"/>
+      <c r="W65" s="679"/>
+      <c r="X65" s="679"/>
+      <c r="Y65" s="679"/>
+      <c r="Z65" s="679"/>
+      <c r="AA65" s="680"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
@@ -62887,58 +62928,58 @@
     </row>
     <row r="66" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="685" t="s">
+      <c r="B66" s="700" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="679" t="s">
+      <c r="C66" s="699" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="679"/>
-      <c r="E66" s="679" t="s">
+      <c r="D66" s="699"/>
+      <c r="E66" s="699" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="679"/>
-      <c r="G66" s="679" t="s">
+      <c r="F66" s="699"/>
+      <c r="G66" s="699" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="679"/>
-      <c r="I66" s="679" t="s">
+      <c r="H66" s="699"/>
+      <c r="I66" s="699" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="679"/>
-      <c r="K66" s="679" t="s">
+      <c r="J66" s="699"/>
+      <c r="K66" s="699" t="s">
         <v>22</v>
       </c>
-      <c r="L66" s="679"/>
-      <c r="M66" s="679" t="s">
+      <c r="L66" s="699"/>
+      <c r="M66" s="699" t="s">
         <v>136</v>
       </c>
-      <c r="N66" s="679"/>
-      <c r="O66" s="679" t="s">
+      <c r="N66" s="699"/>
+      <c r="O66" s="699" t="s">
         <v>24</v>
       </c>
-      <c r="P66" s="679"/>
-      <c r="Q66" s="679" t="s">
+      <c r="P66" s="699"/>
+      <c r="Q66" s="699" t="s">
         <v>25</v>
       </c>
-      <c r="R66" s="679"/>
-      <c r="S66" s="679" t="s">
+      <c r="R66" s="699"/>
+      <c r="S66" s="699" t="s">
         <v>26</v>
       </c>
-      <c r="T66" s="679"/>
-      <c r="U66" s="679" t="s">
+      <c r="T66" s="699"/>
+      <c r="U66" s="699" t="s">
         <v>27</v>
       </c>
-      <c r="V66" s="679"/>
-      <c r="W66" s="679" t="s">
+      <c r="V66" s="699"/>
+      <c r="W66" s="699" t="s">
         <v>28</v>
       </c>
-      <c r="X66" s="679"/>
-      <c r="Y66" s="679" t="s">
+      <c r="X66" s="699"/>
+      <c r="Y66" s="699" t="s">
         <v>137</v>
       </c>
-      <c r="Z66" s="679"/>
-      <c r="AA66" s="680" t="s">
+      <c r="Z66" s="699"/>
+      <c r="AA66" s="702" t="s">
         <v>138</v>
       </c>
       <c r="AB66" s="1"/>
@@ -62949,7 +62990,7 @@
     </row>
     <row r="67" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="686"/>
+      <c r="B67" s="701"/>
       <c r="C67" s="273" t="s">
         <v>37</v>
       </c>
@@ -63022,7 +63063,7 @@
       <c r="Z67" s="273" t="s">
         <v>139</v>
       </c>
-      <c r="AA67" s="681"/>
+      <c r="AA67" s="703"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
@@ -68361,27 +68402,27 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B40:AA40"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="W66:X66"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="AA66:AA67"/>
+    <mergeCell ref="AA53:AA54"/>
+    <mergeCell ref="B65:AA65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="W53:X53"/>
     <mergeCell ref="Y53:Z53"/>
     <mergeCell ref="Y41:Z41"/>
     <mergeCell ref="AA41:AA42"/>
@@ -68398,27 +68439,27 @@
     <mergeCell ref="Q41:R41"/>
     <mergeCell ref="S41:T41"/>
     <mergeCell ref="U41:V41"/>
-    <mergeCell ref="AA66:AA67"/>
-    <mergeCell ref="AA53:AA54"/>
-    <mergeCell ref="B65:AA65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="W66:X66"/>
-    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="B40:AA40"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -68506,11 +68547,11 @@
     </row>
     <row r="3" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="668" t="s">
+      <c r="B3" s="667" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="669"/>
-      <c r="D3" s="670"/>
+      <c r="C3" s="668"/>
+      <c r="D3" s="669"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -68682,11 +68723,11 @@
     </row>
     <row r="8" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="668" t="s">
+      <c r="B8" s="667" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="669"/>
-      <c r="D8" s="670"/>
+      <c r="C8" s="668"/>
+      <c r="D8" s="669"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>

--- a/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
+++ b/SAP/TFI Nicolas Rubino - CareMonitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\UAI\TFI\CareMonitor\CareMonitor\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23619F8-0EBE-41C5-A728-315BA6112F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A88D17-33F5-4A05-BEEA-83C015E62827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -4391,57 +4391,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="105" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4535,8 +4485,56 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4544,65 +4542,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4625,10 +4566,10 @@
     <xf numFmtId="164" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4664,13 +4605,34 @@
     <xf numFmtId="164" fontId="20" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4679,23 +4641,62 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4787,6 +4788,15 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4795,6 +4805,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4850,33 +4866,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4891,6 +4880,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4967,6 +4968,27 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5030,27 +5052,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5087,7 +5088,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Celda de comprobación" xfId="26" builtinId="23"/>
@@ -23446,8 +23446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G26"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23522,18 +23522,18 @@
     </row>
     <row r="3" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="667" t="s">
+      <c r="B3" s="668" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="668"/>
-      <c r="D3" s="669"/>
+      <c r="C3" s="669"/>
+      <c r="D3" s="670"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="708" t="s">
+      <c r="F3" s="705" t="s">
         <v>160</v>
       </c>
-      <c r="G3" s="709"/>
-      <c r="H3" s="709"/>
-      <c r="I3" s="710"/>
+      <c r="G3" s="706"/>
+      <c r="H3" s="706"/>
+      <c r="I3" s="707"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -23611,7 +23611,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="318">
         <f>$E$21</f>
-        <v>1274116</v>
+        <v>3176196</v>
       </c>
       <c r="G5" s="319">
         <f>$E$34</f>
@@ -23738,12 +23738,12 @@
     </row>
     <row r="9" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="711" t="s">
+      <c r="B9" s="708" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="712"/>
-      <c r="D9" s="712"/>
-      <c r="E9" s="712"/>
+      <c r="C9" s="709"/>
+      <c r="D9" s="709"/>
+      <c r="E9" s="709"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -24161,7 +24161,7 @@
       <c r="C20" s="323"/>
       <c r="D20" s="319"/>
       <c r="E20" s="321">
-        <v>600000</v>
+        <v>2502080</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -24187,14 +24187,14 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="704" t="s">
+      <c r="B21" s="710" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="705"/>
-      <c r="D21" s="706"/>
+      <c r="C21" s="711"/>
+      <c r="D21" s="712"/>
       <c r="E21" s="324">
         <f>SUM(E11:E20)</f>
-        <v>1274116</v>
+        <v>3176196</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -24248,12 +24248,12 @@
     </row>
     <row r="23" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="667" t="s">
+      <c r="B23" s="668" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="668"/>
-      <c r="D23" s="668"/>
-      <c r="E23" s="669"/>
+      <c r="C23" s="669"/>
+      <c r="D23" s="669"/>
+      <c r="E23" s="670"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -24438,8 +24438,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="642"/>
-      <c r="G28" s="642"/>
+      <c r="F28" s="623"/>
+      <c r="G28" s="623"/>
       <c r="H28" s="367"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -24475,8 +24475,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="707"/>
-      <c r="G29" s="707"/>
+      <c r="F29" s="713"/>
+      <c r="G29" s="713"/>
       <c r="H29" s="368"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -24512,8 +24512,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="642"/>
-      <c r="G30" s="642"/>
+      <c r="F30" s="623"/>
+      <c r="G30" s="623"/>
       <c r="H30" s="367"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -24549,8 +24549,8 @@
         <f t="shared" si="1"/>
         <v>23900</v>
       </c>
-      <c r="F31" s="707"/>
-      <c r="G31" s="707"/>
+      <c r="F31" s="713"/>
+      <c r="G31" s="713"/>
       <c r="H31" s="368"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -24586,8 +24586,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="707"/>
-      <c r="G32" s="707"/>
+      <c r="F32" s="713"/>
+      <c r="G32" s="713"/>
       <c r="H32" s="368"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -24623,8 +24623,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="707"/>
-      <c r="G33" s="707"/>
+      <c r="F33" s="713"/>
+      <c r="G33" s="713"/>
       <c r="H33" s="368"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -24647,11 +24647,11 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="704" t="s">
+      <c r="B34" s="710" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="705"/>
-      <c r="D34" s="706"/>
+      <c r="C34" s="711"/>
+      <c r="D34" s="712"/>
       <c r="E34" s="324">
         <f>SUM(E25:E33)</f>
         <v>39198</v>
@@ -24708,12 +24708,12 @@
     </row>
     <row r="36" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="667" t="s">
+      <c r="B36" s="668" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="668"/>
-      <c r="D36" s="668"/>
-      <c r="E36" s="669"/>
+      <c r="C36" s="669"/>
+      <c r="D36" s="669"/>
+      <c r="E36" s="670"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -25107,11 +25107,11 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="704" t="s">
+      <c r="B47" s="710" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="705"/>
-      <c r="D47" s="706"/>
+      <c r="C47" s="711"/>
+      <c r="D47" s="712"/>
       <c r="E47" s="324">
         <f>SUM(E38:E46)</f>
         <v>495632</v>
@@ -25168,12 +25168,12 @@
     </row>
     <row r="49" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
-      <c r="B49" s="667" t="s">
+      <c r="B49" s="668" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="668"/>
-      <c r="D49" s="668"/>
-      <c r="E49" s="669"/>
+      <c r="C49" s="669"/>
+      <c r="D49" s="669"/>
+      <c r="E49" s="670"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -25567,11 +25567,11 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="704" t="s">
+      <c r="B60" s="710" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="705"/>
-      <c r="D60" s="706"/>
+      <c r="C60" s="711"/>
+      <c r="D60" s="712"/>
       <c r="E60" s="326">
         <f>SUM(E51:E59)</f>
         <v>2112735</v>
@@ -25824,12 +25824,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:E23"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B60:D60"/>
@@ -25840,6 +25834,12 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B47:D47"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" location="searchVariation=62371957696&amp;position=1&amp;type=item&amp;tracking_id=c1baf121-2aa6-4883-89e1-db40e4fe7d07" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
@@ -25931,17 +25931,17 @@
     </row>
     <row r="3" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="667" t="s">
+      <c r="B3" s="668" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="668"/>
-      <c r="D3" s="669"/>
+      <c r="C3" s="669"/>
+      <c r="D3" s="670"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="708" t="s">
+      <c r="F3" s="705" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="709"/>
-      <c r="H3" s="710"/>
+      <c r="G3" s="706"/>
+      <c r="H3" s="707"/>
       <c r="I3" s="433"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -26104,20 +26104,20 @@
     </row>
     <row r="8" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="725" t="s">
+      <c r="B8" s="726" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="726"/>
-      <c r="D8" s="726"/>
-      <c r="E8" s="726"/>
-      <c r="F8" s="726"/>
-      <c r="G8" s="726"/>
-      <c r="H8" s="726"/>
-      <c r="I8" s="726"/>
-      <c r="J8" s="726"/>
-      <c r="K8" s="726"/>
-      <c r="L8" s="726"/>
-      <c r="M8" s="727"/>
+      <c r="C8" s="727"/>
+      <c r="D8" s="727"/>
+      <c r="E8" s="727"/>
+      <c r="F8" s="727"/>
+      <c r="G8" s="727"/>
+      <c r="H8" s="727"/>
+      <c r="I8" s="727"/>
+      <c r="J8" s="727"/>
+      <c r="K8" s="727"/>
+      <c r="L8" s="727"/>
+      <c r="M8" s="728"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -26132,32 +26132,32 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="728" t="s">
+      <c r="B9" s="729" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="730" t="s">
+      <c r="C9" s="731" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="730" t="s">
+      <c r="D9" s="731" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="732" t="s">
+      <c r="E9" s="733" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="734" t="s">
+      <c r="F9" s="735" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="722" t="s">
+      <c r="G9" s="723" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="723"/>
-      <c r="I9" s="723"/>
-      <c r="J9" s="724"/>
-      <c r="K9" s="736" t="s">
+      <c r="H9" s="724"/>
+      <c r="I9" s="724"/>
+      <c r="J9" s="725"/>
+      <c r="K9" s="737" t="s">
         <v>189</v>
       </c>
-      <c r="L9" s="730"/>
-      <c r="M9" s="737"/>
+      <c r="L9" s="731"/>
+      <c r="M9" s="738"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -26172,11 +26172,11 @@
     </row>
     <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="729"/>
-      <c r="C10" s="731"/>
-      <c r="D10" s="731"/>
-      <c r="E10" s="733"/>
-      <c r="F10" s="735"/>
+      <c r="B10" s="730"/>
+      <c r="C10" s="732"/>
+      <c r="D10" s="732"/>
+      <c r="E10" s="734"/>
+      <c r="F10" s="736"/>
       <c r="G10" s="418" t="s">
         <v>212</v>
       </c>
@@ -26212,7 +26212,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="713" t="s">
+      <c r="B11" s="714" t="s">
         <v>190</v>
       </c>
       <c r="C11" s="351" t="s">
@@ -26266,7 +26266,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="714"/>
+      <c r="B12" s="715"/>
       <c r="C12" s="380" t="s">
         <v>168</v>
       </c>
@@ -26316,7 +26316,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="714"/>
+      <c r="B13" s="715"/>
       <c r="C13" s="380" t="s">
         <v>168</v>
       </c>
@@ -26365,7 +26365,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="714"/>
+      <c r="B14" s="715"/>
       <c r="C14" s="351" t="s">
         <v>171</v>
       </c>
@@ -26417,7 +26417,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="714"/>
+      <c r="B15" s="715"/>
       <c r="C15" s="351" t="s">
         <v>169</v>
       </c>
@@ -26469,7 +26469,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="714"/>
+      <c r="B16" s="715"/>
       <c r="C16" s="351" t="s">
         <v>169</v>
       </c>
@@ -26520,7 +26520,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="714"/>
+      <c r="B17" s="715"/>
       <c r="C17" s="351" t="s">
         <v>179</v>
       </c>
@@ -26572,7 +26572,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="714"/>
+      <c r="B18" s="715"/>
       <c r="C18" s="351" t="s">
         <v>179</v>
       </c>
@@ -26622,7 +26622,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="714"/>
+      <c r="B19" s="715"/>
       <c r="C19" s="351" t="s">
         <v>180</v>
       </c>
@@ -26674,7 +26674,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="714"/>
+      <c r="B20" s="715"/>
       <c r="C20" s="351" t="s">
         <v>182</v>
       </c>
@@ -26726,7 +26726,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="714"/>
+      <c r="B21" s="715"/>
       <c r="C21" s="380" t="s">
         <v>182</v>
       </c>
@@ -26776,7 +26776,7 @@
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="715"/>
+      <c r="B22" s="716"/>
       <c r="C22" s="381" t="s">
         <v>182</v>
       </c>
@@ -26825,7 +26825,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="716" t="s">
+      <c r="B23" s="717" t="s">
         <v>191</v>
       </c>
       <c r="C23" s="255" t="s">
@@ -26879,7 +26879,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="717"/>
+      <c r="B24" s="718"/>
       <c r="C24" s="255" t="s">
         <v>164</v>
       </c>
@@ -26929,7 +26929,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="717"/>
+      <c r="B25" s="718"/>
       <c r="C25" s="255" t="s">
         <v>164</v>
       </c>
@@ -26978,7 +26978,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="717"/>
+      <c r="B26" s="718"/>
       <c r="C26" s="255" t="s">
         <v>175</v>
       </c>
@@ -27030,7 +27030,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="717"/>
+      <c r="B27" s="718"/>
       <c r="C27" s="255" t="s">
         <v>175</v>
       </c>
@@ -27080,7 +27080,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="717"/>
+      <c r="B28" s="718"/>
       <c r="C28" s="255" t="s">
         <v>175</v>
       </c>
@@ -27129,7 +27129,7 @@
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="717"/>
+      <c r="B29" s="718"/>
       <c r="C29" s="255" t="s">
         <v>173</v>
       </c>
@@ -27181,7 +27181,7 @@
     </row>
     <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="718"/>
+      <c r="B30" s="719"/>
       <c r="C30" s="255" t="s">
         <v>173</v>
       </c>
@@ -27232,17 +27232,17 @@
     </row>
     <row r="31" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="719" t="s">
+      <c r="B31" s="720" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="720"/>
-      <c r="D31" s="720"/>
-      <c r="E31" s="720"/>
-      <c r="F31" s="720"/>
-      <c r="G31" s="721"/>
-      <c r="H31" s="721"/>
-      <c r="I31" s="721"/>
-      <c r="J31" s="721"/>
+      <c r="C31" s="721"/>
+      <c r="D31" s="721"/>
+      <c r="E31" s="721"/>
+      <c r="F31" s="721"/>
+      <c r="G31" s="722"/>
+      <c r="H31" s="722"/>
+      <c r="I31" s="722"/>
+      <c r="J31" s="722"/>
       <c r="K31" s="364">
         <f>SUM(K11:K30)</f>
         <v>73911.600000000006</v>
@@ -31531,8 +31531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AI97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:E28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31634,11 +31634,11 @@
       <c r="H3" s="387"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="667" t="s">
+      <c r="K3" s="668" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="668"/>
-      <c r="M3" s="669"/>
+      <c r="L3" s="669"/>
+      <c r="M3" s="670"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -31845,11 +31845,11 @@
       <c r="H8" s="387"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="667" t="s">
+      <c r="K8" s="668" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="668"/>
-      <c r="M8" s="669"/>
+      <c r="L8" s="669"/>
+      <c r="M8" s="670"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -31918,14 +31918,14 @@
     </row>
     <row r="10" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="711" t="s">
+      <c r="B10" s="708" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="712"/>
-      <c r="D10" s="712"/>
-      <c r="E10" s="712"/>
-      <c r="F10" s="712"/>
-      <c r="G10" s="761"/>
+      <c r="C10" s="709"/>
+      <c r="D10" s="709"/>
+      <c r="E10" s="709"/>
+      <c r="F10" s="709"/>
+      <c r="G10" s="741"/>
       <c r="H10" s="234"/>
       <c r="I10" s="1"/>
       <c r="J10" s="388" t="s">
@@ -31968,10 +31968,10 @@
     </row>
     <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="762" t="s">
+      <c r="B11" s="742" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="763"/>
+      <c r="C11" s="743"/>
       <c r="D11" s="391" t="s">
         <v>197</v>
       </c>
@@ -32026,10 +32026,10 @@
     </row>
     <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="764" t="s">
+      <c r="B12" s="744" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="765"/>
+      <c r="C12" s="745"/>
       <c r="D12" s="434">
         <v>0</v>
       </c>
@@ -32087,7 +32087,7 @@
     </row>
     <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="759" t="s">
+      <c r="B13" s="739" t="s">
         <v>198</v>
       </c>
       <c r="C13" s="396" t="s">
@@ -32139,7 +32139,7 @@
     </row>
     <row r="14" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="759"/>
+      <c r="B14" s="739"/>
       <c r="C14" s="396" t="s">
         <v>157</v>
       </c>
@@ -32161,11 +32161,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="667" t="s">
+      <c r="K14" s="668" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="668"/>
-      <c r="M14" s="669"/>
+      <c r="L14" s="669"/>
+      <c r="M14" s="670"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -32191,7 +32191,7 @@
     </row>
     <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="760"/>
+      <c r="B15" s="740"/>
       <c r="C15" s="397" t="s">
         <v>158</v>
       </c>
@@ -32247,10 +32247,10 @@
     </row>
     <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="751" t="s">
+      <c r="B16" s="759" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="752"/>
+      <c r="C16" s="760"/>
       <c r="D16" s="437">
         <v>0</v>
       </c>
@@ -32306,10 +32306,10 @@
     </row>
     <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="753" t="s">
+      <c r="B17" s="761" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="754"/>
+      <c r="C17" s="762"/>
       <c r="D17" s="434">
         <v>0</v>
       </c>
@@ -32355,10 +32355,10 @@
     </row>
     <row r="18" spans="1:35" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="755" t="s">
+      <c r="B18" s="763" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="756"/>
+      <c r="C18" s="764"/>
       <c r="D18" s="435">
         <v>0</v>
       </c>
@@ -32401,10 +32401,10 @@
     </row>
     <row r="19" spans="1:35" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="757" t="s">
+      <c r="B19" s="765" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="758"/>
+      <c r="C19" s="766"/>
       <c r="D19" s="436">
         <v>0</v>
       </c>
@@ -32422,12 +32422,12 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="708" t="s">
+      <c r="J19" s="705" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="709"/>
-      <c r="L19" s="709"/>
-      <c r="M19" s="710"/>
+      <c r="K19" s="706"/>
+      <c r="L19" s="706"/>
+      <c r="M19" s="707"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -32453,10 +32453,10 @@
     </row>
     <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="751" t="s">
+      <c r="B20" s="759" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="752"/>
+      <c r="C20" s="760"/>
       <c r="D20" s="437">
         <v>0</v>
       </c>
@@ -32511,13 +32511,13 @@
     </row>
     <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="738" t="s">
+      <c r="B21" s="746" t="s">
         <v>204</v>
       </c>
-      <c r="C21" s="739"/>
+      <c r="C21" s="747"/>
       <c r="D21" s="401">
         <f>-J21</f>
-        <v>-1274116</v>
+        <v>-3176196</v>
       </c>
       <c r="E21" s="402">
         <f>-K21</f>
@@ -32535,7 +32535,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="230">
         <f>'Mod. inversión'!$F$5</f>
-        <v>1274116</v>
+        <v>3176196</v>
       </c>
       <c r="K21" s="319">
         <f>'Mod. inversión'!$G$5</f>
@@ -32574,13 +32574,13 @@
     </row>
     <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="740" t="s">
+      <c r="B22" s="748" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="741"/>
+      <c r="C22" s="749"/>
       <c r="D22" s="398">
         <f>D20+D21</f>
-        <v>-1274116</v>
+        <v>-3176196</v>
       </c>
       <c r="E22" s="398">
         <f>E20+E21</f>
@@ -32736,12 +32736,12 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="742" t="s">
+      <c r="B26" s="750" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="743"/>
-      <c r="D26" s="743"/>
-      <c r="E26" s="744"/>
+      <c r="C26" s="751"/>
+      <c r="D26" s="751"/>
+      <c r="E26" s="752"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="404" t="s">
@@ -32779,10 +32779,10 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="745"/>
-      <c r="C27" s="746"/>
-      <c r="D27" s="746"/>
-      <c r="E27" s="747"/>
+      <c r="B27" s="753"/>
+      <c r="C27" s="754"/>
+      <c r="D27" s="754"/>
+      <c r="E27" s="755"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="406" t="s">
@@ -32821,10 +32821,10 @@
     </row>
     <row r="28" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="748"/>
-      <c r="C28" s="749"/>
-      <c r="D28" s="749"/>
-      <c r="E28" s="750"/>
+      <c r="B28" s="756"/>
+      <c r="C28" s="757"/>
+      <c r="D28" s="757"/>
+      <c r="E28" s="758"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="408" t="s">
@@ -32832,7 +32832,7 @@
       </c>
       <c r="I28" s="409">
         <f>IRR(D22:G22,I26)</f>
-        <v>1.2636535955122699</v>
+        <v>1.0801729843406473</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -35416,13 +35416,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:E28"/>
@@ -35432,6 +35425,13 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H17" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
@@ -35800,7 +35800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -35820,11 +35820,11 @@
       <c r="D1" s="181"/>
       <c r="E1" s="181"/>
       <c r="F1" s="181"/>
-      <c r="G1" s="766" t="s">
+      <c r="G1" s="767" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="767"/>
-      <c r="I1" s="767"/>
+      <c r="H1" s="768"/>
+      <c r="I1" s="768"/>
       <c r="J1" s="181"/>
       <c r="K1" s="181"/>
       <c r="L1" s="181"/>
@@ -35876,22 +35876,22 @@
     </row>
     <row r="3" spans="1:31" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="768" t="s">
+      <c r="B3" s="769" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="769"/>
-      <c r="D3" s="769"/>
-      <c r="E3" s="769"/>
-      <c r="F3" s="769"/>
-      <c r="G3" s="770"/>
+      <c r="C3" s="770"/>
+      <c r="D3" s="770"/>
+      <c r="E3" s="770"/>
+      <c r="F3" s="770"/>
+      <c r="G3" s="771"/>
       <c r="H3" s="387"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="667" t="s">
+      <c r="K3" s="668" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="668"/>
-      <c r="M3" s="669"/>
+      <c r="L3" s="669"/>
+      <c r="M3" s="670"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -35906,12 +35906,12 @@
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="771"/>
-      <c r="C4" s="772"/>
-      <c r="D4" s="772"/>
-      <c r="E4" s="772"/>
-      <c r="F4" s="772"/>
-      <c r="G4" s="773"/>
+      <c r="B4" s="772"/>
+      <c r="C4" s="773"/>
+      <c r="D4" s="773"/>
+      <c r="E4" s="773"/>
+      <c r="F4" s="773"/>
+      <c r="G4" s="774"/>
       <c r="H4" s="227"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -36068,11 +36068,11 @@
       <c r="H8" s="387"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="667" t="s">
+      <c r="K8" s="668" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="668"/>
-      <c r="M8" s="669"/>
+      <c r="L8" s="669"/>
+      <c r="M8" s="670"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -36342,11 +36342,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="667" t="s">
+      <c r="K14" s="668" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="668"/>
-      <c r="M14" s="669"/>
+      <c r="L14" s="669"/>
+      <c r="M14" s="670"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -36361,10 +36361,10 @@
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="757" t="s">
+      <c r="B15" s="765" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="758"/>
+      <c r="C15" s="766"/>
       <c r="D15" s="436">
         <v>0</v>
       </c>
@@ -36406,10 +36406,10 @@
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="751" t="s">
+      <c r="B16" s="759" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="752"/>
+      <c r="C16" s="760"/>
       <c r="D16" s="437">
         <v>0</v>
       </c>
@@ -36454,13 +36454,13 @@
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="738" t="s">
+      <c r="B17" s="746" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="739"/>
+      <c r="C17" s="747"/>
       <c r="D17" s="401">
         <f>-J21</f>
-        <v>-1274116</v>
+        <v>-3176196</v>
       </c>
       <c r="E17" s="402">
         <f>-K21</f>
@@ -36494,13 +36494,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="740" t="s">
+      <c r="B18" s="748" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="741"/>
+      <c r="C18" s="749"/>
       <c r="D18" s="398">
         <f>D16+D17</f>
-        <v>-1274116</v>
+        <v>-3176196</v>
       </c>
       <c r="E18" s="398">
         <f>E16+E17</f>
@@ -36537,12 +36537,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="708" t="s">
+      <c r="J19" s="705" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="709"/>
-      <c r="L19" s="709"/>
-      <c r="M19" s="710"/>
+      <c r="K19" s="706"/>
+      <c r="L19" s="706"/>
+      <c r="M19" s="707"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -36610,7 +36610,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="230">
         <f>'Mod. inversión'!$F$5</f>
-        <v>1274116</v>
+        <v>3176196</v>
       </c>
       <c r="K21" s="319">
         <f>'Mod. inversión'!$G$5</f>
@@ -36645,7 +36645,7 @@
       </c>
       <c r="E22" s="482">
         <f>IRR(D18:G18,E20)</f>
-        <v>1.0815697806837301</v>
+        <v>0.92541858229556206</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -36746,10 +36746,10 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="746"/>
-      <c r="C26" s="746"/>
-      <c r="D26" s="746"/>
-      <c r="E26" s="746"/>
+      <c r="B26" s="754"/>
+      <c r="C26" s="754"/>
+      <c r="D26" s="754"/>
+      <c r="E26" s="754"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -36772,10 +36772,10 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="746"/>
-      <c r="C27" s="746"/>
-      <c r="D27" s="746"/>
-      <c r="E27" s="746"/>
+      <c r="B27" s="754"/>
+      <c r="C27" s="754"/>
+      <c r="D27" s="754"/>
+      <c r="E27" s="754"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -36798,10 +36798,10 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="746"/>
-      <c r="C28" s="746"/>
-      <c r="D28" s="746"/>
-      <c r="E28" s="746"/>
+      <c r="B28" s="754"/>
+      <c r="C28" s="754"/>
+      <c r="D28" s="754"/>
+      <c r="E28" s="754"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -37134,17 +37134,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K14:M14"/>
     <mergeCell ref="B26:E28"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37178,11 +37178,11 @@
       <c r="D1" s="181"/>
       <c r="E1" s="181"/>
       <c r="F1" s="181"/>
-      <c r="G1" s="766" t="s">
+      <c r="G1" s="767" t="s">
         <v>262</v>
       </c>
-      <c r="H1" s="767"/>
-      <c r="I1" s="767"/>
+      <c r="H1" s="768"/>
+      <c r="I1" s="768"/>
       <c r="J1" s="181"/>
       <c r="K1" s="181"/>
       <c r="L1" s="181"/>
@@ -37235,22 +37235,22 @@
     </row>
     <row r="3" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="768" t="s">
+      <c r="B3" s="769" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="769"/>
-      <c r="D3" s="769"/>
-      <c r="E3" s="769"/>
-      <c r="F3" s="769"/>
-      <c r="G3" s="770"/>
+      <c r="C3" s="770"/>
+      <c r="D3" s="770"/>
+      <c r="E3" s="770"/>
+      <c r="F3" s="770"/>
+      <c r="G3" s="771"/>
       <c r="H3" s="387"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="667" t="s">
+      <c r="K3" s="668" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="668"/>
-      <c r="M3" s="669"/>
+      <c r="L3" s="669"/>
+      <c r="M3" s="670"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -37269,12 +37269,12 @@
     </row>
     <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="771"/>
-      <c r="C4" s="772"/>
-      <c r="D4" s="772"/>
-      <c r="E4" s="772"/>
-      <c r="F4" s="772"/>
-      <c r="G4" s="773"/>
+      <c r="B4" s="772"/>
+      <c r="C4" s="773"/>
+      <c r="D4" s="773"/>
+      <c r="E4" s="773"/>
+      <c r="F4" s="773"/>
+      <c r="G4" s="774"/>
       <c r="H4" s="227"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -37344,14 +37344,14 @@
     </row>
     <row r="6" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="667" t="s">
+      <c r="B6" s="668" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="668"/>
-      <c r="D6" s="668"/>
-      <c r="E6" s="668"/>
-      <c r="F6" s="668"/>
-      <c r="G6" s="669"/>
+      <c r="C6" s="669"/>
+      <c r="D6" s="669"/>
+      <c r="E6" s="669"/>
+      <c r="F6" s="669"/>
+      <c r="G6" s="670"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -37447,11 +37447,11 @@
       <c r="H8" s="387"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="667" t="s">
+      <c r="K8" s="668" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="668"/>
-      <c r="M8" s="669"/>
+      <c r="L8" s="669"/>
+      <c r="M8" s="670"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -37745,11 +37745,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="667" t="s">
+      <c r="K14" s="668" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="668"/>
-      <c r="M14" s="669"/>
+      <c r="L14" s="669"/>
+      <c r="M14" s="670"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -37768,10 +37768,10 @@
     </row>
     <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="757" t="s">
+      <c r="B15" s="765" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="758"/>
+      <c r="C15" s="766"/>
       <c r="D15" s="436">
         <v>0</v>
       </c>
@@ -37817,10 +37817,10 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="751" t="s">
+      <c r="B16" s="759" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="752"/>
+      <c r="C16" s="760"/>
       <c r="D16" s="437">
         <v>0</v>
       </c>
@@ -37869,13 +37869,13 @@
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="738" t="s">
+      <c r="B17" s="746" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="739"/>
+      <c r="C17" s="747"/>
       <c r="D17" s="401">
         <f>-J21</f>
-        <v>-1274116</v>
+        <v>-3176196</v>
       </c>
       <c r="E17" s="402">
         <f>-K21</f>
@@ -37913,13 +37913,13 @@
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="740" t="s">
+      <c r="B18" s="748" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="741"/>
+      <c r="C18" s="749"/>
       <c r="D18" s="398">
         <f>D16+D17</f>
-        <v>-1274116</v>
+        <v>-3176196</v>
       </c>
       <c r="E18" s="398">
         <f>E16+E17</f>
@@ -37960,12 +37960,12 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="708" t="s">
+      <c r="J19" s="705" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="709"/>
-      <c r="L19" s="709"/>
-      <c r="M19" s="710"/>
+      <c r="K19" s="706"/>
+      <c r="L19" s="706"/>
+      <c r="M19" s="707"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -38041,7 +38041,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="230">
         <f>'Mod. inversión'!$F$5</f>
-        <v>1274116</v>
+        <v>3176196</v>
       </c>
       <c r="K21" s="319">
         <f>'Mod. inversión'!$G$5</f>
@@ -38080,7 +38080,7 @@
       </c>
       <c r="E22" s="482">
         <f>IRR(D18:G18,E20)</f>
-        <v>1.1013878293152302</v>
+        <v>0.93622898689914225</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -38198,10 +38198,10 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="746"/>
-      <c r="C26" s="746"/>
-      <c r="D26" s="746"/>
-      <c r="E26" s="746"/>
+      <c r="B26" s="754"/>
+      <c r="C26" s="754"/>
+      <c r="D26" s="754"/>
+      <c r="E26" s="754"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -38228,10 +38228,10 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="746"/>
-      <c r="C27" s="746"/>
-      <c r="D27" s="746"/>
-      <c r="E27" s="746"/>
+      <c r="B27" s="754"/>
+      <c r="C27" s="754"/>
+      <c r="D27" s="754"/>
+      <c r="E27" s="754"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -38258,10 +38258,10 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="746"/>
-      <c r="C28" s="746"/>
-      <c r="D28" s="746"/>
-      <c r="E28" s="746"/>
+      <c r="B28" s="754"/>
+      <c r="C28" s="754"/>
+      <c r="D28" s="754"/>
+      <c r="E28" s="754"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -38363,11 +38363,11 @@
       <c r="D1" s="181"/>
       <c r="E1" s="181"/>
       <c r="F1" s="181"/>
-      <c r="G1" s="766" t="s">
+      <c r="G1" s="767" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="767"/>
-      <c r="I1" s="767"/>
+      <c r="H1" s="768"/>
+      <c r="I1" s="768"/>
       <c r="J1" s="181"/>
       <c r="K1" s="181"/>
       <c r="L1" s="181"/>
@@ -38448,22 +38448,22 @@
     </row>
     <row r="3" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="768" t="s">
+      <c r="B3" s="769" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="769"/>
-      <c r="D3" s="769"/>
-      <c r="E3" s="769"/>
-      <c r="F3" s="769"/>
-      <c r="G3" s="769"/>
-      <c r="H3" s="769"/>
-      <c r="I3" s="770"/>
+      <c r="C3" s="770"/>
+      <c r="D3" s="770"/>
+      <c r="E3" s="770"/>
+      <c r="F3" s="770"/>
+      <c r="G3" s="770"/>
+      <c r="H3" s="770"/>
+      <c r="I3" s="771"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="667" t="s">
+      <c r="K3" s="668" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="668"/>
-      <c r="M3" s="669"/>
+      <c r="L3" s="669"/>
+      <c r="M3" s="670"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -38493,14 +38493,14 @@
     </row>
     <row r="4" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="771"/>
-      <c r="C4" s="772"/>
-      <c r="D4" s="772"/>
-      <c r="E4" s="772"/>
-      <c r="F4" s="772"/>
-      <c r="G4" s="772"/>
-      <c r="H4" s="772"/>
-      <c r="I4" s="773"/>
+      <c r="B4" s="772"/>
+      <c r="C4" s="773"/>
+      <c r="D4" s="773"/>
+      <c r="E4" s="773"/>
+      <c r="F4" s="773"/>
+      <c r="G4" s="773"/>
+      <c r="H4" s="773"/>
+      <c r="I4" s="774"/>
       <c r="J4" s="1"/>
       <c r="K4" s="73">
         <v>2020</v>
@@ -38590,14 +38590,14 @@
     </row>
     <row r="6" spans="1:45" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="667" t="s">
+      <c r="B6" s="668" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="668"/>
-      <c r="D6" s="668"/>
-      <c r="E6" s="668"/>
-      <c r="F6" s="668"/>
-      <c r="G6" s="669"/>
+      <c r="C6" s="669"/>
+      <c r="D6" s="669"/>
+      <c r="E6" s="669"/>
+      <c r="F6" s="669"/>
+      <c r="G6" s="670"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -38715,11 +38715,11 @@
       <c r="H8" s="387"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="667" t="s">
+      <c r="K8" s="668" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="668"/>
-      <c r="M8" s="669"/>
+      <c r="L8" s="669"/>
+      <c r="M8" s="670"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -39079,11 +39079,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="667" t="s">
+      <c r="K14" s="668" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="668"/>
-      <c r="M14" s="669"/>
+      <c r="L14" s="669"/>
+      <c r="M14" s="670"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -39113,10 +39113,10 @@
     </row>
     <row r="15" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="757" t="s">
+      <c r="B15" s="765" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="758"/>
+      <c r="C15" s="766"/>
       <c r="D15" s="436">
         <v>0</v>
       </c>
@@ -39173,10 +39173,10 @@
     </row>
     <row r="16" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="751" t="s">
+      <c r="B16" s="759" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="752"/>
+      <c r="C16" s="760"/>
       <c r="D16" s="437">
         <v>0</v>
       </c>
@@ -39236,13 +39236,13 @@
     </row>
     <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="738" t="s">
+      <c r="B17" s="746" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="739"/>
+      <c r="C17" s="747"/>
       <c r="D17" s="401">
         <f>-J21</f>
-        <v>-1274116</v>
+        <v>-3176196</v>
       </c>
       <c r="E17" s="402">
         <f>-K21</f>
@@ -39291,13 +39291,13 @@
     </row>
     <row r="18" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="740" t="s">
+      <c r="B18" s="748" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="741"/>
+      <c r="C18" s="749"/>
       <c r="D18" s="398">
         <f>D16+D17</f>
-        <v>-1274116</v>
+        <v>-3176196</v>
       </c>
       <c r="E18" s="398">
         <f>E16+E17</f>
@@ -39350,12 +39350,12 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="708" t="s">
+      <c r="J19" s="705" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="709"/>
-      <c r="L19" s="709"/>
-      <c r="M19" s="710"/>
+      <c r="K19" s="706"/>
+      <c r="L19" s="706"/>
+      <c r="M19" s="707"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -39453,7 +39453,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="230">
         <f>'Mod. inversión'!$F$5</f>
-        <v>1274116</v>
+        <v>3176196</v>
       </c>
       <c r="K21" s="319">
         <f>'Mod. inversión'!$G$5</f>
@@ -39504,7 +39504,7 @@
       </c>
       <c r="F22" s="482">
         <f>IRR(D18:G18,F20)</f>
-        <v>0.49264754990014348</v>
+        <v>0.41207414488845306</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -39705,17 +39705,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="J19:M19"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="J19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39726,7 +39726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:BN52"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -39847,22 +39847,22 @@
     </row>
     <row r="3" spans="1:66" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="768" t="s">
+      <c r="B3" s="769" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="769"/>
-      <c r="D3" s="769"/>
-      <c r="E3" s="769"/>
-      <c r="F3" s="769"/>
-      <c r="G3" s="769"/>
-      <c r="H3" s="769"/>
-      <c r="I3" s="770"/>
+      <c r="C3" s="770"/>
+      <c r="D3" s="770"/>
+      <c r="E3" s="770"/>
+      <c r="F3" s="770"/>
+      <c r="G3" s="770"/>
+      <c r="H3" s="770"/>
+      <c r="I3" s="771"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="667" t="s">
+      <c r="K3" s="668" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="668"/>
-      <c r="M3" s="669"/>
+      <c r="L3" s="669"/>
+      <c r="M3" s="670"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -39919,14 +39919,14 @@
     </row>
     <row r="4" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="771"/>
-      <c r="C4" s="772"/>
-      <c r="D4" s="772"/>
-      <c r="E4" s="772"/>
-      <c r="F4" s="772"/>
-      <c r="G4" s="772"/>
-      <c r="H4" s="772"/>
-      <c r="I4" s="773"/>
+      <c r="B4" s="772"/>
+      <c r="C4" s="773"/>
+      <c r="D4" s="773"/>
+      <c r="E4" s="773"/>
+      <c r="F4" s="773"/>
+      <c r="G4" s="773"/>
+      <c r="H4" s="773"/>
+      <c r="I4" s="774"/>
       <c r="J4" s="1"/>
       <c r="K4" s="73">
         <v>2020</v>
@@ -40070,14 +40070,14 @@
     </row>
     <row r="6" spans="1:66" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="667" t="s">
+      <c r="B6" s="668" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="668"/>
-      <c r="D6" s="668"/>
-      <c r="E6" s="668"/>
-      <c r="F6" s="668"/>
-      <c r="G6" s="669"/>
+      <c r="C6" s="669"/>
+      <c r="D6" s="669"/>
+      <c r="E6" s="669"/>
+      <c r="F6" s="669"/>
+      <c r="G6" s="670"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -40254,11 +40254,11 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="667" t="s">
+      <c r="K8" s="668" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="668"/>
-      <c r="M8" s="669"/>
+      <c r="L8" s="669"/>
+      <c r="M8" s="670"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -40808,11 +40808,11 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="667" t="s">
+      <c r="K14" s="668" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="668"/>
-      <c r="M14" s="669"/>
+      <c r="L14" s="669"/>
+      <c r="M14" s="670"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -40869,10 +40869,10 @@
     </row>
     <row r="15" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="757" t="s">
+      <c r="B15" s="765" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="758"/>
+      <c r="C15" s="766"/>
       <c r="D15" s="436">
         <v>0</v>
       </c>
@@ -40959,10 +40959,10 @@
     </row>
     <row r="16" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="751" t="s">
+      <c r="B16" s="759" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="752"/>
+      <c r="C16" s="760"/>
       <c r="D16" s="437">
         <v>0</v>
       </c>
@@ -41052,13 +41052,13 @@
     </row>
     <row r="17" spans="1:66" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="738" t="s">
+      <c r="B17" s="746" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="739"/>
+      <c r="C17" s="747"/>
       <c r="D17" s="401">
         <f>-J21</f>
-        <v>-1274116</v>
+        <v>-3176196</v>
       </c>
       <c r="E17" s="402">
         <f>-K21</f>
@@ -41137,13 +41137,13 @@
     </row>
     <row r="18" spans="1:66" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="740" t="s">
+      <c r="B18" s="748" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="741"/>
+      <c r="C18" s="749"/>
       <c r="D18" s="398">
         <f>D16+D17</f>
-        <v>-1274116</v>
+        <v>-3176196</v>
       </c>
       <c r="E18" s="398">
         <f>E16+E17</f>
@@ -41230,12 +41230,12 @@
       <c r="G19" s="520"/>
       <c r="H19" s="519"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="708" t="s">
+      <c r="J19" s="705" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="709"/>
-      <c r="L19" s="709"/>
-      <c r="M19" s="710"/>
+      <c r="K19" s="706"/>
+      <c r="L19" s="706"/>
+      <c r="M19" s="707"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -41372,18 +41372,18 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="774" t="s">
+      <c r="D21" s="775" t="s">
         <v>264</v>
       </c>
-      <c r="E21" s="775"/>
-      <c r="G21" s="776" t="s">
+      <c r="E21" s="776"/>
+      <c r="G21" s="777" t="s">
         <v>267</v>
       </c>
-      <c r="H21" s="777"/>
+      <c r="H21" s="778"/>
       <c r="I21" s="1"/>
       <c r="J21" s="230">
         <f>'Mod. inversión'!$F$5</f>
-        <v>1274116</v>
+        <v>3176196</v>
       </c>
       <c r="K21" s="319">
         <f>'Mod. inversión'!$G$5</f>
@@ -41616,7 +41616,7 @@
       </c>
       <c r="E24" s="482">
         <f>IRR(D18:G18,E22)</f>
-        <v>0.49264754990014348</v>
+        <v>0.41207414488845306</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="408" t="s">
@@ -41624,7 +41624,7 @@
       </c>
       <c r="H24" s="482">
         <f>IRR(D39:G39,H22)</f>
-        <v>1.1785221904252983</v>
+        <v>1.028942204813263</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -42645,7 +42645,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="545">
         <f>D18</f>
-        <v>-1274116</v>
+        <v>-3176196</v>
       </c>
       <c r="E39" s="521">
         <f>E18</f>
@@ -43605,6 +43605,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="K3:M3"/>
@@ -43612,11 +43617,6 @@
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -48070,7 +48070,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -48102,58 +48102,58 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="567" t="s">
+      <c r="B3" s="551" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="568"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="568"/>
-      <c r="F3" s="568"/>
-      <c r="G3" s="568"/>
-      <c r="H3" s="568"/>
-      <c r="I3" s="568"/>
-      <c r="J3" s="569"/>
+      <c r="C3" s="552"/>
+      <c r="D3" s="552"/>
+      <c r="E3" s="552"/>
+      <c r="F3" s="552"/>
+      <c r="G3" s="552"/>
+      <c r="H3" s="552"/>
+      <c r="I3" s="552"/>
+      <c r="J3" s="553"/>
     </row>
     <row r="4" spans="1:11" ht="165" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="576" t="s">
+      <c r="B4" s="560" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="577"/>
-      <c r="D4" s="577"/>
-      <c r="E4" s="577"/>
-      <c r="F4" s="577"/>
-      <c r="G4" s="577"/>
-      <c r="H4" s="577"/>
-      <c r="I4" s="577"/>
-      <c r="J4" s="578"/>
+      <c r="C4" s="561"/>
+      <c r="D4" s="561"/>
+      <c r="E4" s="561"/>
+      <c r="F4" s="561"/>
+      <c r="G4" s="561"/>
+      <c r="H4" s="561"/>
+      <c r="I4" s="561"/>
+      <c r="J4" s="562"/>
       <c r="K4" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="579" t="s">
+      <c r="B7" s="563" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="580"/>
-      <c r="D7" s="580"/>
-      <c r="E7" s="580"/>
-      <c r="F7" s="580"/>
-      <c r="G7" s="580"/>
-      <c r="H7" s="580"/>
-      <c r="I7" s="580"/>
-      <c r="J7" s="581"/>
+      <c r="C7" s="564"/>
+      <c r="D7" s="564"/>
+      <c r="E7" s="564"/>
+      <c r="F7" s="564"/>
+      <c r="G7" s="564"/>
+      <c r="H7" s="564"/>
+      <c r="I7" s="564"/>
+      <c r="J7" s="565"/>
     </row>
     <row r="8" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="582" t="s">
+      <c r="B8" s="566" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="583"/>
-      <c r="D8" s="583"/>
-      <c r="E8" s="583"/>
-      <c r="F8" s="583"/>
-      <c r="G8" s="583"/>
-      <c r="H8" s="583"/>
-      <c r="I8" s="583"/>
-      <c r="J8" s="584"/>
+      <c r="C8" s="567"/>
+      <c r="D8" s="567"/>
+      <c r="E8" s="567"/>
+      <c r="F8" s="567"/>
+      <c r="G8" s="567"/>
+      <c r="H8" s="567"/>
+      <c r="I8" s="567"/>
+      <c r="J8" s="568"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="40"/>
@@ -48225,30 +48225,30 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="585" t="s">
+      <c r="B15" s="569" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="586"/>
-      <c r="D15" s="586"/>
-      <c r="E15" s="586"/>
-      <c r="F15" s="586"/>
-      <c r="G15" s="586"/>
-      <c r="H15" s="586"/>
-      <c r="I15" s="586"/>
-      <c r="J15" s="587"/>
+      <c r="C15" s="570"/>
+      <c r="D15" s="570"/>
+      <c r="E15" s="570"/>
+      <c r="F15" s="570"/>
+      <c r="G15" s="570"/>
+      <c r="H15" s="570"/>
+      <c r="I15" s="570"/>
+      <c r="J15" s="571"/>
     </row>
     <row r="16" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="588" t="s">
+      <c r="B16" s="572" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="589"/>
-      <c r="D16" s="589"/>
-      <c r="E16" s="589"/>
-      <c r="F16" s="589"/>
-      <c r="G16" s="589"/>
-      <c r="H16" s="589"/>
-      <c r="I16" s="589"/>
-      <c r="J16" s="590"/>
+      <c r="C16" s="573"/>
+      <c r="D16" s="573"/>
+      <c r="E16" s="573"/>
+      <c r="F16" s="573"/>
+      <c r="G16" s="573"/>
+      <c r="H16" s="573"/>
+      <c r="I16" s="573"/>
+      <c r="J16" s="574"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
@@ -48318,11 +48318,11 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="570" t="s">
+      <c r="B22" s="554" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="571"/>
-      <c r="D22" s="572"/>
+      <c r="C22" s="555"/>
+      <c r="D22" s="556"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -48511,13 +48511,13 @@
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="567" t="s">
+      <c r="B33" s="551" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="568"/>
-      <c r="D33" s="568"/>
-      <c r="E33" s="568"/>
-      <c r="F33" s="569"/>
+      <c r="C33" s="552"/>
+      <c r="D33" s="552"/>
+      <c r="E33" s="552"/>
+      <c r="F33" s="553"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
@@ -48543,91 +48543,91 @@
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="567" t="s">
+      <c r="B35" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="591"/>
-      <c r="D35" s="591"/>
-      <c r="E35" s="591"/>
-      <c r="F35" s="592"/>
+      <c r="C35" s="575"/>
+      <c r="D35" s="575"/>
+      <c r="E35" s="575"/>
+      <c r="F35" s="576"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="573" t="s">
+      <c r="B36" s="557" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="593" t="s">
+      <c r="C36" s="577" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="593"/>
-      <c r="E36" s="593"/>
-      <c r="F36" s="593"/>
+      <c r="D36" s="577"/>
+      <c r="E36" s="577"/>
+      <c r="F36" s="577"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="574"/>
-      <c r="C37" s="593"/>
-      <c r="D37" s="593"/>
-      <c r="E37" s="593"/>
-      <c r="F37" s="593"/>
+      <c r="B37" s="558"/>
+      <c r="C37" s="577"/>
+      <c r="D37" s="577"/>
+      <c r="E37" s="577"/>
+      <c r="F37" s="577"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="574"/>
-      <c r="C38" s="593"/>
-      <c r="D38" s="593"/>
-      <c r="E38" s="593"/>
-      <c r="F38" s="593"/>
+      <c r="B38" s="558"/>
+      <c r="C38" s="577"/>
+      <c r="D38" s="577"/>
+      <c r="E38" s="577"/>
+      <c r="F38" s="577"/>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="574"/>
-      <c r="C39" s="563" t="s">
+      <c r="B39" s="558"/>
+      <c r="C39" s="547" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="563"/>
-      <c r="E39" s="563"/>
-      <c r="F39" s="563"/>
+      <c r="D39" s="547"/>
+      <c r="E39" s="547"/>
+      <c r="F39" s="547"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="574"/>
-      <c r="C40" s="563"/>
-      <c r="D40" s="563"/>
-      <c r="E40" s="563"/>
-      <c r="F40" s="563"/>
+      <c r="B40" s="558"/>
+      <c r="C40" s="547"/>
+      <c r="D40" s="547"/>
+      <c r="E40" s="547"/>
+      <c r="F40" s="547"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="574"/>
-      <c r="C41" s="563"/>
-      <c r="D41" s="563"/>
-      <c r="E41" s="563"/>
-      <c r="F41" s="563"/>
+      <c r="B41" s="558"/>
+      <c r="C41" s="547"/>
+      <c r="D41" s="547"/>
+      <c r="E41" s="547"/>
+      <c r="F41" s="547"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="574"/>
-      <c r="C42" s="564" t="s">
+      <c r="B42" s="558"/>
+      <c r="C42" s="548" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="564"/>
-      <c r="E42" s="564"/>
-      <c r="F42" s="564"/>
+      <c r="D42" s="548"/>
+      <c r="E42" s="548"/>
+      <c r="F42" s="548"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="574"/>
-      <c r="C43" s="564"/>
-      <c r="D43" s="564"/>
-      <c r="E43" s="564"/>
-      <c r="F43" s="564"/>
+      <c r="B43" s="558"/>
+      <c r="C43" s="548"/>
+      <c r="D43" s="548"/>
+      <c r="E43" s="548"/>
+      <c r="F43" s="548"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="575"/>
-      <c r="C44" s="564"/>
-      <c r="D44" s="564"/>
-      <c r="E44" s="564"/>
-      <c r="F44" s="564"/>
+      <c r="B44" s="559"/>
+      <c r="C44" s="548"/>
+      <c r="D44" s="548"/>
+      <c r="E44" s="548"/>
+      <c r="F44" s="548"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="565" t="s">
+      <c r="B47" s="549" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="566"/>
+      <c r="C47" s="550"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="68" t="s">
@@ -48638,55 +48638,61 @@
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="546" t="s">
+      <c r="B49" s="578" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="555">
+      <c r="C49" s="587">
         <v>1300</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="547"/>
-      <c r="C50" s="555"/>
+      <c r="B50" s="579"/>
+      <c r="C50" s="587"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="548"/>
-      <c r="C51" s="556"/>
+      <c r="B51" s="580"/>
+      <c r="C51" s="588"/>
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="549" t="s">
+      <c r="B52" s="581" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="557">
+      <c r="C52" s="589">
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="550"/>
-      <c r="C53" s="558"/>
+      <c r="B53" s="582"/>
+      <c r="C53" s="590"/>
     </row>
     <row r="54" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="551"/>
-      <c r="C54" s="559"/>
+      <c r="B54" s="583"/>
+      <c r="C54" s="591"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="552" t="s">
+      <c r="B55" s="584" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="560">
+      <c r="C55" s="592">
         <v>4000</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="553"/>
-      <c r="C56" s="561"/>
+      <c r="B56" s="585"/>
+      <c r="C56" s="593"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="554"/>
-      <c r="C57" s="562"/>
+      <c r="B57" s="586"/>
+      <c r="C57" s="594"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
     <mergeCell ref="C39:F41"/>
     <mergeCell ref="C42:F44"/>
     <mergeCell ref="B47:C47"/>
@@ -48701,12 +48707,6 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="C36:F38"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -48842,18 +48842,18 @@
     </row>
     <row r="5" spans="1:61" s="24" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
-      <c r="B5" s="629" t="s">
+      <c r="B5" s="610" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="632"/>
+      <c r="C5" s="611"/>
+      <c r="D5" s="613"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="603" t="s">
+      <c r="F5" s="643" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="604"/>
-      <c r="H5" s="604"/>
-      <c r="I5" s="605"/>
+      <c r="G5" s="644"/>
+      <c r="H5" s="644"/>
+      <c r="I5" s="645"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
@@ -48899,12 +48899,12 @@
         <v>2022</v>
       </c>
       <c r="E6" s="41"/>
-      <c r="F6" s="597" t="s">
+      <c r="F6" s="637" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="598"/>
-      <c r="H6" s="598"/>
-      <c r="I6" s="599"/>
+      <c r="G6" s="638"/>
+      <c r="H6" s="638"/>
+      <c r="I6" s="639"/>
       <c r="J6" s="214"/>
       <c r="K6" s="214"/>
       <c r="L6" s="214"/>
@@ -48953,10 +48953,10 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="E7" s="45"/>
-      <c r="F7" s="600"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="601"/>
-      <c r="I7" s="602"/>
+      <c r="F7" s="640"/>
+      <c r="G7" s="641"/>
+      <c r="H7" s="641"/>
+      <c r="I7" s="642"/>
       <c r="J7" s="214"/>
       <c r="K7" s="214"/>
       <c r="L7" s="214"/>
@@ -49357,48 +49357,48 @@
       <c r="BI14" s="8"/>
     </row>
     <row r="15" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="629" t="s">
+      <c r="A15" s="610" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="630"/>
-      <c r="C15" s="630"/>
-      <c r="D15" s="630"/>
-      <c r="E15" s="630"/>
-      <c r="F15" s="630"/>
-      <c r="G15" s="630"/>
-      <c r="H15" s="631"/>
-      <c r="I15" s="631"/>
-      <c r="J15" s="631"/>
-      <c r="K15" s="631"/>
-      <c r="L15" s="630"/>
-      <c r="M15" s="630"/>
-      <c r="N15" s="630"/>
-      <c r="O15" s="630"/>
-      <c r="P15" s="630"/>
-      <c r="Q15" s="630"/>
-      <c r="R15" s="630"/>
-      <c r="S15" s="630"/>
-      <c r="T15" s="630"/>
-      <c r="U15" s="630"/>
-      <c r="V15" s="630"/>
-      <c r="W15" s="630"/>
-      <c r="X15" s="630"/>
-      <c r="Y15" s="630"/>
-      <c r="Z15" s="630"/>
-      <c r="AA15" s="630"/>
-      <c r="AB15" s="630"/>
-      <c r="AC15" s="630"/>
-      <c r="AD15" s="630"/>
-      <c r="AE15" s="630"/>
-      <c r="AF15" s="630"/>
-      <c r="AG15" s="630"/>
-      <c r="AH15" s="630"/>
-      <c r="AI15" s="630"/>
-      <c r="AJ15" s="630"/>
-      <c r="AK15" s="630"/>
-      <c r="AL15" s="630"/>
-      <c r="AM15" s="630"/>
-      <c r="AN15" s="632"/>
+      <c r="B15" s="611"/>
+      <c r="C15" s="611"/>
+      <c r="D15" s="611"/>
+      <c r="E15" s="611"/>
+      <c r="F15" s="611"/>
+      <c r="G15" s="611"/>
+      <c r="H15" s="612"/>
+      <c r="I15" s="612"/>
+      <c r="J15" s="612"/>
+      <c r="K15" s="612"/>
+      <c r="L15" s="611"/>
+      <c r="M15" s="611"/>
+      <c r="N15" s="611"/>
+      <c r="O15" s="611"/>
+      <c r="P15" s="611"/>
+      <c r="Q15" s="611"/>
+      <c r="R15" s="611"/>
+      <c r="S15" s="611"/>
+      <c r="T15" s="611"/>
+      <c r="U15" s="611"/>
+      <c r="V15" s="611"/>
+      <c r="W15" s="611"/>
+      <c r="X15" s="611"/>
+      <c r="Y15" s="611"/>
+      <c r="Z15" s="611"/>
+      <c r="AA15" s="611"/>
+      <c r="AB15" s="611"/>
+      <c r="AC15" s="611"/>
+      <c r="AD15" s="611"/>
+      <c r="AE15" s="611"/>
+      <c r="AF15" s="611"/>
+      <c r="AG15" s="611"/>
+      <c r="AH15" s="611"/>
+      <c r="AI15" s="611"/>
+      <c r="AJ15" s="611"/>
+      <c r="AK15" s="611"/>
+      <c r="AL15" s="611"/>
+      <c r="AM15" s="611"/>
+      <c r="AN15" s="613"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
@@ -49422,76 +49422,76 @@
       <c r="BI15" s="8"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A16" s="633" t="s">
+      <c r="A16" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="633" t="s">
+      <c r="B16" s="614" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="636" t="s">
+      <c r="C16" s="617" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="643"/>
-      <c r="E16" s="619" t="s">
+      <c r="D16" s="618"/>
+      <c r="E16" s="600" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="620"/>
-      <c r="G16" s="621"/>
-      <c r="H16" s="619" t="s">
+      <c r="F16" s="601"/>
+      <c r="G16" s="602"/>
+      <c r="H16" s="600" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="620"/>
-      <c r="J16" s="621"/>
-      <c r="K16" s="619" t="s">
+      <c r="I16" s="601"/>
+      <c r="J16" s="602"/>
+      <c r="K16" s="600" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="620"/>
-      <c r="M16" s="621"/>
-      <c r="N16" s="619" t="s">
+      <c r="L16" s="601"/>
+      <c r="M16" s="602"/>
+      <c r="N16" s="600" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="620"/>
-      <c r="P16" s="621"/>
-      <c r="Q16" s="619" t="s">
+      <c r="O16" s="601"/>
+      <c r="P16" s="602"/>
+      <c r="Q16" s="600" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="620"/>
-      <c r="S16" s="621"/>
-      <c r="T16" s="619" t="s">
+      <c r="R16" s="601"/>
+      <c r="S16" s="602"/>
+      <c r="T16" s="600" t="s">
         <v>23</v>
       </c>
-      <c r="U16" s="620"/>
-      <c r="V16" s="621"/>
-      <c r="W16" s="619" t="s">
+      <c r="U16" s="601"/>
+      <c r="V16" s="602"/>
+      <c r="W16" s="600" t="s">
         <v>24</v>
       </c>
-      <c r="X16" s="620"/>
-      <c r="Y16" s="621"/>
-      <c r="Z16" s="619" t="s">
+      <c r="X16" s="601"/>
+      <c r="Y16" s="602"/>
+      <c r="Z16" s="600" t="s">
         <v>25</v>
       </c>
-      <c r="AA16" s="620"/>
-      <c r="AB16" s="621"/>
-      <c r="AC16" s="619" t="s">
+      <c r="AA16" s="601"/>
+      <c r="AB16" s="602"/>
+      <c r="AC16" s="600" t="s">
         <v>26</v>
       </c>
-      <c r="AD16" s="620"/>
-      <c r="AE16" s="621"/>
-      <c r="AF16" s="619" t="s">
+      <c r="AD16" s="601"/>
+      <c r="AE16" s="602"/>
+      <c r="AF16" s="600" t="s">
         <v>27</v>
       </c>
-      <c r="AG16" s="620"/>
-      <c r="AH16" s="621"/>
-      <c r="AI16" s="619" t="s">
+      <c r="AG16" s="601"/>
+      <c r="AH16" s="602"/>
+      <c r="AI16" s="600" t="s">
         <v>28</v>
       </c>
-      <c r="AJ16" s="620"/>
-      <c r="AK16" s="621"/>
-      <c r="AL16" s="619" t="s">
+      <c r="AJ16" s="601"/>
+      <c r="AK16" s="602"/>
+      <c r="AL16" s="600" t="s">
         <v>29</v>
       </c>
-      <c r="AM16" s="620"/>
-      <c r="AN16" s="621"/>
+      <c r="AM16" s="601"/>
+      <c r="AN16" s="602"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
@@ -49515,74 +49515,74 @@
       <c r="BI16" s="8"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A17" s="634"/>
-      <c r="B17" s="634"/>
-      <c r="C17" s="622" t="s">
+      <c r="A17" s="615"/>
+      <c r="B17" s="615"/>
+      <c r="C17" s="603" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="646" t="s">
+      <c r="D17" s="605" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="626">
+      <c r="E17" s="607">
         <v>0.02</v>
       </c>
-      <c r="F17" s="627"/>
-      <c r="G17" s="628"/>
-      <c r="H17" s="626">
+      <c r="F17" s="608"/>
+      <c r="G17" s="609"/>
+      <c r="H17" s="607">
         <v>0.04</v>
       </c>
-      <c r="I17" s="627"/>
-      <c r="J17" s="628"/>
-      <c r="K17" s="626">
+      <c r="I17" s="608"/>
+      <c r="J17" s="609"/>
+      <c r="K17" s="607">
         <v>0.04</v>
       </c>
-      <c r="L17" s="627"/>
-      <c r="M17" s="628"/>
-      <c r="N17" s="626">
+      <c r="L17" s="608"/>
+      <c r="M17" s="609"/>
+      <c r="N17" s="607">
         <v>0.05</v>
       </c>
-      <c r="O17" s="627"/>
-      <c r="P17" s="628"/>
-      <c r="Q17" s="626">
+      <c r="O17" s="608"/>
+      <c r="P17" s="609"/>
+      <c r="Q17" s="607">
         <v>0.06</v>
       </c>
-      <c r="R17" s="627"/>
-      <c r="S17" s="628"/>
-      <c r="T17" s="626">
+      <c r="R17" s="608"/>
+      <c r="S17" s="609"/>
+      <c r="T17" s="607">
         <v>0.08</v>
       </c>
-      <c r="U17" s="627"/>
-      <c r="V17" s="628"/>
-      <c r="W17" s="626">
+      <c r="U17" s="608"/>
+      <c r="V17" s="609"/>
+      <c r="W17" s="607">
         <v>0.1</v>
       </c>
-      <c r="X17" s="627"/>
-      <c r="Y17" s="628"/>
-      <c r="Z17" s="626">
+      <c r="X17" s="608"/>
+      <c r="Y17" s="609"/>
+      <c r="Z17" s="607">
         <v>0.11</v>
       </c>
-      <c r="AA17" s="627"/>
-      <c r="AB17" s="628"/>
-      <c r="AC17" s="626">
+      <c r="AA17" s="608"/>
+      <c r="AB17" s="609"/>
+      <c r="AC17" s="607">
         <v>0.11</v>
       </c>
-      <c r="AD17" s="627"/>
-      <c r="AE17" s="628"/>
-      <c r="AF17" s="626">
+      <c r="AD17" s="608"/>
+      <c r="AE17" s="609"/>
+      <c r="AF17" s="607">
         <v>0.12</v>
       </c>
-      <c r="AG17" s="627"/>
-      <c r="AH17" s="628"/>
-      <c r="AI17" s="626">
+      <c r="AG17" s="608"/>
+      <c r="AH17" s="609"/>
+      <c r="AI17" s="607">
         <v>0.13</v>
       </c>
-      <c r="AJ17" s="627"/>
-      <c r="AK17" s="628"/>
-      <c r="AL17" s="626">
+      <c r="AJ17" s="608"/>
+      <c r="AK17" s="609"/>
+      <c r="AL17" s="607">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM17" s="627"/>
-      <c r="AN17" s="628"/>
+      <c r="AM17" s="608"/>
+      <c r="AN17" s="609"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
@@ -49606,10 +49606,10 @@
       <c r="BI17" s="8"/>
     </row>
     <row r="18" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="635"/>
-      <c r="B18" s="635"/>
-      <c r="C18" s="623"/>
-      <c r="D18" s="647"/>
+      <c r="A18" s="616"/>
+      <c r="B18" s="616"/>
+      <c r="C18" s="604"/>
+      <c r="D18" s="606"/>
       <c r="E18" s="111" t="s">
         <v>116</v>
       </c>
@@ -50221,10 +50221,10 @@
       </c>
     </row>
     <row r="22" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="617" t="s">
+      <c r="A22" s="598" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="618"/>
+      <c r="B22" s="599"/>
       <c r="C22" s="79">
         <f>SUM(C19:C21)</f>
         <v>2090</v>
@@ -51309,32 +51309,32 @@
     </row>
     <row r="51" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="606" t="s">
+      <c r="A52" s="619" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="607"/>
-      <c r="C52" s="607"/>
-      <c r="D52" s="607"/>
-      <c r="E52" s="607"/>
-      <c r="F52" s="607"/>
-      <c r="G52" s="607"/>
-      <c r="H52" s="644"/>
-      <c r="I52" s="644"/>
-      <c r="J52" s="644"/>
-      <c r="K52" s="644"/>
-      <c r="L52" s="644"/>
-      <c r="M52" s="644"/>
-      <c r="N52" s="644"/>
-      <c r="O52" s="644"/>
-      <c r="P52" s="644"/>
-      <c r="Q52" s="644"/>
-      <c r="R52" s="644"/>
-      <c r="S52" s="644"/>
-      <c r="T52" s="644"/>
-      <c r="U52" s="644"/>
-      <c r="V52" s="644"/>
-      <c r="W52" s="644"/>
-      <c r="X52" s="645"/>
+      <c r="B52" s="620"/>
+      <c r="C52" s="620"/>
+      <c r="D52" s="620"/>
+      <c r="E52" s="620"/>
+      <c r="F52" s="620"/>
+      <c r="G52" s="620"/>
+      <c r="H52" s="621"/>
+      <c r="I52" s="621"/>
+      <c r="J52" s="621"/>
+      <c r="K52" s="621"/>
+      <c r="L52" s="621"/>
+      <c r="M52" s="621"/>
+      <c r="N52" s="621"/>
+      <c r="O52" s="621"/>
+      <c r="P52" s="621"/>
+      <c r="Q52" s="621"/>
+      <c r="R52" s="621"/>
+      <c r="S52" s="621"/>
+      <c r="T52" s="621"/>
+      <c r="U52" s="621"/>
+      <c r="V52" s="621"/>
+      <c r="W52" s="621"/>
+      <c r="X52" s="622"/>
       <c r="Y52" s="141"/>
       <c r="Z52" s="141"/>
       <c r="AA52" s="141"/>
@@ -51353,33 +51353,33 @@
       <c r="AN52" s="141"/>
     </row>
     <row r="53" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="638" t="s">
+      <c r="B53" s="626" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="639" t="s">
+      <c r="C53" s="630" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="639" t="s">
+      <c r="D53" s="630" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="639" t="s">
+      <c r="E53" s="630" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="611" t="s">
+      <c r="F53" s="624" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="640" t="s">
+      <c r="G53" s="628" t="s">
         <v>88</v>
       </c>
-      <c r="H53" s="611" t="s">
+      <c r="H53" s="624" t="s">
         <v>90</v>
       </c>
       <c r="I53" s="24"/>
-      <c r="J53" s="642"/>
+      <c r="J53" s="623"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
-      <c r="M53" s="642"/>
-      <c r="N53" s="642"/>
+      <c r="M53" s="623"/>
+      <c r="N53" s="623"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
@@ -51387,9 +51387,9 @@
       <c r="S53" s="24"/>
       <c r="T53" s="24"/>
       <c r="U53" s="24"/>
-      <c r="V53" s="642"/>
-      <c r="W53" s="642"/>
-      <c r="X53" s="642"/>
+      <c r="V53" s="623"/>
+      <c r="W53" s="623"/>
+      <c r="X53" s="623"/>
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
       <c r="AA53" s="24"/>
@@ -51408,19 +51408,19 @@
       <c r="AN53" s="177"/>
     </row>
     <row r="54" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="610"/>
-      <c r="C54" s="612"/>
-      <c r="D54" s="612"/>
-      <c r="E54" s="612"/>
-      <c r="F54" s="612"/>
-      <c r="G54" s="641"/>
-      <c r="H54" s="612"/>
+      <c r="B54" s="627"/>
+      <c r="C54" s="625"/>
+      <c r="D54" s="625"/>
+      <c r="E54" s="625"/>
+      <c r="F54" s="625"/>
+      <c r="G54" s="629"/>
+      <c r="H54" s="625"/>
       <c r="I54" s="24"/>
-      <c r="J54" s="642"/>
+      <c r="J54" s="623"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
-      <c r="M54" s="642"/>
-      <c r="N54" s="642"/>
+      <c r="M54" s="623"/>
+      <c r="N54" s="623"/>
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
@@ -51428,9 +51428,9 @@
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
       <c r="U54" s="24"/>
-      <c r="V54" s="642"/>
-      <c r="W54" s="642"/>
-      <c r="X54" s="642"/>
+      <c r="V54" s="623"/>
+      <c r="W54" s="623"/>
+      <c r="X54" s="623"/>
       <c r="AA54" s="24"/>
       <c r="AB54" s="24"/>
       <c r="AC54" s="179"/>
@@ -51487,9 +51487,9 @@
       <c r="V55" s="179"/>
       <c r="W55" s="179"/>
       <c r="X55" s="179"/>
-      <c r="Z55" s="594"/>
-      <c r="AA55" s="594"/>
-      <c r="AB55" s="594"/>
+      <c r="Z55" s="597"/>
+      <c r="AA55" s="597"/>
+      <c r="AB55" s="597"/>
       <c r="AC55" s="180"/>
       <c r="AD55" s="24"/>
       <c r="AE55" s="24"/>
@@ -51544,9 +51544,9 @@
       <c r="V56" s="180"/>
       <c r="W56" s="180"/>
       <c r="X56" s="180"/>
-      <c r="Z56" s="594"/>
-      <c r="AA56" s="594"/>
-      <c r="AB56" s="594"/>
+      <c r="Z56" s="597"/>
+      <c r="AA56" s="597"/>
+      <c r="AB56" s="597"/>
       <c r="AC56" s="179"/>
       <c r="AD56" s="24"/>
       <c r="AE56" s="24"/>
@@ -51601,9 +51601,9 @@
       <c r="V57" s="179"/>
       <c r="W57" s="179"/>
       <c r="X57" s="179"/>
-      <c r="Z57" s="594"/>
-      <c r="AA57" s="594"/>
-      <c r="AB57" s="594"/>
+      <c r="Z57" s="597"/>
+      <c r="AA57" s="597"/>
+      <c r="AB57" s="597"/>
       <c r="AC57" s="177"/>
       <c r="AD57" s="177"/>
       <c r="AE57" s="177"/>
@@ -51829,48 +51829,48 @@
       <c r="AN63" s="16"/>
     </row>
     <row r="64" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="629" t="s">
+      <c r="A64" s="610" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="630"/>
-      <c r="C64" s="630"/>
-      <c r="D64" s="630"/>
-      <c r="E64" s="630"/>
-      <c r="F64" s="630"/>
-      <c r="G64" s="630"/>
-      <c r="H64" s="631"/>
-      <c r="I64" s="631"/>
-      <c r="J64" s="631"/>
-      <c r="K64" s="631"/>
-      <c r="L64" s="630"/>
-      <c r="M64" s="630"/>
-      <c r="N64" s="630"/>
-      <c r="O64" s="630"/>
-      <c r="P64" s="630"/>
-      <c r="Q64" s="630"/>
-      <c r="R64" s="630"/>
-      <c r="S64" s="630"/>
-      <c r="T64" s="630"/>
-      <c r="U64" s="630"/>
-      <c r="V64" s="630"/>
-      <c r="W64" s="630"/>
-      <c r="X64" s="630"/>
-      <c r="Y64" s="630"/>
-      <c r="Z64" s="630"/>
-      <c r="AA64" s="630"/>
-      <c r="AB64" s="630"/>
-      <c r="AC64" s="630"/>
-      <c r="AD64" s="630"/>
-      <c r="AE64" s="630"/>
-      <c r="AF64" s="630"/>
-      <c r="AG64" s="630"/>
-      <c r="AH64" s="630"/>
-      <c r="AI64" s="630"/>
-      <c r="AJ64" s="630"/>
-      <c r="AK64" s="630"/>
-      <c r="AL64" s="630"/>
-      <c r="AM64" s="630"/>
-      <c r="AN64" s="632"/>
+      <c r="B64" s="611"/>
+      <c r="C64" s="611"/>
+      <c r="D64" s="611"/>
+      <c r="E64" s="611"/>
+      <c r="F64" s="611"/>
+      <c r="G64" s="611"/>
+      <c r="H64" s="612"/>
+      <c r="I64" s="612"/>
+      <c r="J64" s="612"/>
+      <c r="K64" s="612"/>
+      <c r="L64" s="611"/>
+      <c r="M64" s="611"/>
+      <c r="N64" s="611"/>
+      <c r="O64" s="611"/>
+      <c r="P64" s="611"/>
+      <c r="Q64" s="611"/>
+      <c r="R64" s="611"/>
+      <c r="S64" s="611"/>
+      <c r="T64" s="611"/>
+      <c r="U64" s="611"/>
+      <c r="V64" s="611"/>
+      <c r="W64" s="611"/>
+      <c r="X64" s="611"/>
+      <c r="Y64" s="611"/>
+      <c r="Z64" s="611"/>
+      <c r="AA64" s="611"/>
+      <c r="AB64" s="611"/>
+      <c r="AC64" s="611"/>
+      <c r="AD64" s="611"/>
+      <c r="AE64" s="611"/>
+      <c r="AF64" s="611"/>
+      <c r="AG64" s="611"/>
+      <c r="AH64" s="611"/>
+      <c r="AI64" s="611"/>
+      <c r="AJ64" s="611"/>
+      <c r="AK64" s="611"/>
+      <c r="AL64" s="611"/>
+      <c r="AM64" s="611"/>
+      <c r="AN64" s="613"/>
       <c r="AO64" s="8"/>
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
@@ -51894,76 +51894,76 @@
       <c r="BI64" s="8"/>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A65" s="633" t="s">
+      <c r="A65" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="633" t="s">
+      <c r="B65" s="614" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="636" t="s">
+      <c r="C65" s="617" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="643"/>
-      <c r="E65" s="619" t="s">
+      <c r="D65" s="618"/>
+      <c r="E65" s="600" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="620"/>
-      <c r="G65" s="621"/>
-      <c r="H65" s="619" t="s">
+      <c r="F65" s="601"/>
+      <c r="G65" s="602"/>
+      <c r="H65" s="600" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="620"/>
-      <c r="J65" s="621"/>
-      <c r="K65" s="619" t="s">
+      <c r="I65" s="601"/>
+      <c r="J65" s="602"/>
+      <c r="K65" s="600" t="s">
         <v>20</v>
       </c>
-      <c r="L65" s="620"/>
-      <c r="M65" s="621"/>
-      <c r="N65" s="619" t="s">
+      <c r="L65" s="601"/>
+      <c r="M65" s="602"/>
+      <c r="N65" s="600" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="620"/>
-      <c r="P65" s="621"/>
-      <c r="Q65" s="619" t="s">
+      <c r="O65" s="601"/>
+      <c r="P65" s="602"/>
+      <c r="Q65" s="600" t="s">
         <v>22</v>
       </c>
-      <c r="R65" s="620"/>
-      <c r="S65" s="621"/>
-      <c r="T65" s="619" t="s">
+      <c r="R65" s="601"/>
+      <c r="S65" s="602"/>
+      <c r="T65" s="600" t="s">
         <v>23</v>
       </c>
-      <c r="U65" s="620"/>
-      <c r="V65" s="621"/>
-      <c r="W65" s="619" t="s">
+      <c r="U65" s="601"/>
+      <c r="V65" s="602"/>
+      <c r="W65" s="600" t="s">
         <v>24</v>
       </c>
-      <c r="X65" s="620"/>
-      <c r="Y65" s="621"/>
-      <c r="Z65" s="619" t="s">
+      <c r="X65" s="601"/>
+      <c r="Y65" s="602"/>
+      <c r="Z65" s="600" t="s">
         <v>25</v>
       </c>
-      <c r="AA65" s="620"/>
-      <c r="AB65" s="621"/>
-      <c r="AC65" s="619" t="s">
+      <c r="AA65" s="601"/>
+      <c r="AB65" s="602"/>
+      <c r="AC65" s="600" t="s">
         <v>26</v>
       </c>
-      <c r="AD65" s="620"/>
-      <c r="AE65" s="621"/>
-      <c r="AF65" s="619" t="s">
+      <c r="AD65" s="601"/>
+      <c r="AE65" s="602"/>
+      <c r="AF65" s="600" t="s">
         <v>27</v>
       </c>
-      <c r="AG65" s="620"/>
-      <c r="AH65" s="621"/>
-      <c r="AI65" s="619" t="s">
+      <c r="AG65" s="601"/>
+      <c r="AH65" s="602"/>
+      <c r="AI65" s="600" t="s">
         <v>28</v>
       </c>
-      <c r="AJ65" s="620"/>
-      <c r="AK65" s="621"/>
-      <c r="AL65" s="619" t="s">
+      <c r="AJ65" s="601"/>
+      <c r="AK65" s="602"/>
+      <c r="AL65" s="600" t="s">
         <v>29</v>
       </c>
-      <c r="AM65" s="620"/>
-      <c r="AN65" s="621"/>
+      <c r="AM65" s="601"/>
+      <c r="AN65" s="602"/>
       <c r="AO65" s="8"/>
       <c r="AP65" s="8"/>
       <c r="AQ65" s="8"/>
@@ -51987,74 +51987,74 @@
       <c r="BI65" s="8"/>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A66" s="634"/>
-      <c r="B66" s="634"/>
-      <c r="C66" s="622" t="s">
+      <c r="A66" s="615"/>
+      <c r="B66" s="615"/>
+      <c r="C66" s="603" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="646" t="s">
+      <c r="D66" s="605" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="626">
+      <c r="E66" s="607">
         <v>0.02</v>
       </c>
-      <c r="F66" s="627"/>
-      <c r="G66" s="628"/>
-      <c r="H66" s="626">
+      <c r="F66" s="608"/>
+      <c r="G66" s="609"/>
+      <c r="H66" s="607">
         <v>0.04</v>
       </c>
-      <c r="I66" s="627"/>
-      <c r="J66" s="628"/>
-      <c r="K66" s="626">
+      <c r="I66" s="608"/>
+      <c r="J66" s="609"/>
+      <c r="K66" s="607">
         <v>0.04</v>
       </c>
-      <c r="L66" s="627"/>
-      <c r="M66" s="628"/>
-      <c r="N66" s="626">
+      <c r="L66" s="608"/>
+      <c r="M66" s="609"/>
+      <c r="N66" s="607">
         <v>0.05</v>
       </c>
-      <c r="O66" s="627"/>
-      <c r="P66" s="628"/>
-      <c r="Q66" s="626">
+      <c r="O66" s="608"/>
+      <c r="P66" s="609"/>
+      <c r="Q66" s="607">
         <v>0.06</v>
       </c>
-      <c r="R66" s="627"/>
-      <c r="S66" s="628"/>
-      <c r="T66" s="626">
+      <c r="R66" s="608"/>
+      <c r="S66" s="609"/>
+      <c r="T66" s="607">
         <v>0.08</v>
       </c>
-      <c r="U66" s="627"/>
-      <c r="V66" s="628"/>
-      <c r="W66" s="626">
+      <c r="U66" s="608"/>
+      <c r="V66" s="609"/>
+      <c r="W66" s="607">
         <v>0.1</v>
       </c>
-      <c r="X66" s="627"/>
-      <c r="Y66" s="628"/>
-      <c r="Z66" s="626">
+      <c r="X66" s="608"/>
+      <c r="Y66" s="609"/>
+      <c r="Z66" s="607">
         <v>0.11</v>
       </c>
-      <c r="AA66" s="627"/>
-      <c r="AB66" s="628"/>
-      <c r="AC66" s="626">
+      <c r="AA66" s="608"/>
+      <c r="AB66" s="609"/>
+      <c r="AC66" s="607">
         <v>0.11</v>
       </c>
-      <c r="AD66" s="627"/>
-      <c r="AE66" s="628"/>
-      <c r="AF66" s="626">
+      <c r="AD66" s="608"/>
+      <c r="AE66" s="609"/>
+      <c r="AF66" s="607">
         <v>0.12</v>
       </c>
-      <c r="AG66" s="627"/>
-      <c r="AH66" s="628"/>
-      <c r="AI66" s="626">
+      <c r="AG66" s="608"/>
+      <c r="AH66" s="609"/>
+      <c r="AI66" s="607">
         <v>0.13</v>
     